--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8212E617-1701-4A1D-AFD7-864E1634AE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B87C57-6F7C-49A1-BF0D-C30A6E11447E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformance Statement" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="434">
   <si>
     <t>TR.A.1</t>
   </si>
@@ -93,30 +93,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Bedienungsanleitung, v.1 vom 01.01.2020</t>
-  </si>
-  <si>
-    <t>Bedienungsanleitung Papier</t>
-  </si>
-  <si>
-    <t>Bedieungsanleitung Digital</t>
-  </si>
-  <si>
-    <t>Link zum Online-Ressource, etc….</t>
-  </si>
-  <si>
-    <t>Anforderungen an Router-Entwicklung</t>
-  </si>
-  <si>
-    <t>Router xy</t>
-  </si>
-  <si>
-    <t>HW 1.0</t>
-  </si>
-  <si>
-    <t>Version 1.0</t>
   </si>
   <si>
     <t>Angaben zu Module A - Private Network</t>
@@ -3934,6 +3910,48 @@
       </rPr>
       <t xml:space="preserve"> be shared by multiple devices in the factory setting and initialized state.</t>
     </r>
+  </si>
+  <si>
+    <t>version 5.0</t>
+  </si>
+  <si>
+    <t>TP-Link AC1750 Wireless Dual Band Gigabit Router (Model: C7 (EU))</t>
+  </si>
+  <si>
+    <t>22023K3001566</t>
+  </si>
+  <si>
+    <t>Quick Start Guide [Digital]</t>
+  </si>
+  <si>
+    <t>Developer Guide [Digital]</t>
+  </si>
+  <si>
+    <t>User Guide [Digital]</t>
+  </si>
+  <si>
+    <t>Technical Reference [Digital]</t>
+  </si>
+  <si>
+    <t>Hardware Documentation [Digital]</t>
+  </si>
+  <si>
+    <t>Quick start guide for OpenWrt/LEDE installation; available at: https://openwrt.org/docs/guide-quick-start/start (Accessed: 06.11.2020)</t>
+  </si>
+  <si>
+    <t>User Guide; available at: https://openwrt.org/docs/guide-user/start (Accessed: 06.11.2020)</t>
+  </si>
+  <si>
+    <t>Developer Guide; available at: https://openwrt.org/docs/guide-developer/start (Accessed: 06.11.2020)</t>
+  </si>
+  <si>
+    <t>Hardware; available at: https://openwrt.org/docs/techref/hardware/start (Accessed: 06.11.2020)</t>
+  </si>
+  <si>
+    <t>Technical Reference; available at: https://openwrt.org/docs/techref/start (Accessed: 06.11.2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	OpenWrt 19.07.4 r11208-ce6496d796 / LuCI openwrt-19.07 branch git-20.247.75781-0d0ab01</t>
   </si>
 </sst>
 </file>
@@ -4234,7 +4252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -4625,6 +4643,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4636,7 +4749,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -4882,88 +4995,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4983,18 +5014,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5038,18 +5057,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -5112,22 +5119,10 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -5147,14 +5142,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -5189,10 +5176,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
@@ -5224,51 +5207,228 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5557,48 +5717,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K285"/>
+  <dimension ref="A2:K286"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.81640625" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="93" t="s">
-        <v>313</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="173" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="101"/>
+      <c r="A6" s="190" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="191"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -5611,746 +5771,792 @@
     </row>
     <row r="7" spans="1:11" ht="25.5" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>26</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>27</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="15">
-        <v>123456789</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="32" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>28</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="102"/>
+      <c r="A14" s="192" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="213"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="217" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="218"/>
+      <c r="D15" s="219"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A16" s="211" t="s">
+        <v>425</v>
+      </c>
+      <c r="B16" s="220" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" s="221"/>
+      <c r="D16" s="222"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="212" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17" s="214" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" s="215"/>
+      <c r="D17" s="216"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A18" s="212" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" s="214" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18" s="215"/>
+      <c r="D18" s="216"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" s="212" t="s">
+        <v>426</v>
+      </c>
+      <c r="B19" s="214" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="212" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="215"/>
+      <c r="D20" s="216"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A23" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="95"/>
+      <c r="A23" s="193" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="223"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1">
+      <c r="B24" s="224" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="225"/>
+      <c r="D24" s="226"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="220" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="221"/>
+      <c r="D25" s="222"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="214" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="215"/>
+      <c r="D26" s="216"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B27" s="214" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" s="215"/>
+      <c r="D27" s="216"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B28" s="214" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="215"/>
+      <c r="D28" s="216"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="215"/>
+      <c r="D29" s="216"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="210"/>
+      <c r="B30" s="210"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A32" s="187" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1">
-      <c r="A27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="57" customHeight="1">
+      <c r="A48" s="187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="187"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="187"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
+    <row r="50" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A50" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="A51" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A52" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="A55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A59" s="187" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="187"/>
+      <c r="C59" s="187"/>
+      <c r="D59" s="187"/>
+      <c r="E59" s="187"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="10"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A31" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1"/>
-    <row r="34" spans="1:5" ht="15" thickBot="1">
-      <c r="A34" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1">
-      <c r="A35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="64" spans="1:5" ht="36" customHeight="1">
+      <c r="A64" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="187"/>
+      <c r="C64" s="187"/>
+      <c r="D64" s="187"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1">
-      <c r="A36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1">
-      <c r="A37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1">
-      <c r="A38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1">
-      <c r="A39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1">
-      <c r="A40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1">
-      <c r="A41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1">
-      <c r="A42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1">
-      <c r="A43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1">
-      <c r="A44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="57" customHeight="1">
-      <c r="A47" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-    </row>
-    <row r="48" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
-    <row r="49" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A49" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="25" t="s">
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="187" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="187"/>
+      <c r="C69" s="187"/>
+      <c r="D69" s="187"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="71" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A71" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A72" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A50" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1">
-      <c r="A51" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1">
-      <c r="A52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1">
-      <c r="A53" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1">
-      <c r="A55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A58" s="96" t="s">
+      <c r="C72" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="96"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="10"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="36" customHeight="1">
-      <c r="A63" s="96" t="s">
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="96" t="s">
+      <c r="C74" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A80" s="188" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" thickBot="1"/>
-    <row r="70" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="29" t="s">
+      <c r="B80" s="188"/>
+      <c r="C80" s="184"/>
+      <c r="D80" s="184"/>
+      <c r="E80" s="184"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="82" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A82" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="C82" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="D82" s="28" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1">
-      <c r="A71" s="9" t="s">
+    <row r="83" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A83" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B83" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C83" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" thickBot="1">
-      <c r="A72" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" thickBot="1">
-      <c r="A73" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="D83" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" thickBot="1">
-      <c r="A74" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" thickBot="1">
-      <c r="A75" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" thickBot="1">
-      <c r="A76" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A79" s="97" t="s">
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="189" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="98"/>
-      <c r="D79" s="98"/>
-      <c r="E79" s="98"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" thickBot="1"/>
-    <row r="81" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A81" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="28" t="s">
+      <c r="B91" s="189"/>
+    </row>
+    <row r="93" spans="1:4" ht="45">
+      <c r="A93" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="B93" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="D81" s="28" t="s">
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A82" s="5" t="s">
+    <row r="97" spans="1:4" ht="70.5" customHeight="1">
+      <c r="A97" s="183" t="s">
         <v>201</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B97" s="184"/>
+      <c r="C97" s="184"/>
+      <c r="D97" s="184"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A99" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C99" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1">
-      <c r="A83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1">
-      <c r="A84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1">
-      <c r="A85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1">
-      <c r="A86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1">
-      <c r="A87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="B90" s="99"/>
-    </row>
-    <row r="92" spans="1:4" ht="43.5">
-      <c r="A92" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A96" s="106" t="s">
-        <v>209</v>
-      </c>
-      <c r="B96" s="98"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="98"/>
-    </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1"/>
-    <row r="98" spans="1:4" ht="15" thickBot="1">
-      <c r="A98" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1">
-      <c r="A99" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="B99" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="C99" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="61" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" thickBot="1">
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1">
       <c r="A100" s="55" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" thickBot="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1">
       <c r="A101" s="55" t="s">
         <v>9</v>
       </c>
@@ -6361,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1">
       <c r="A102" s="55" t="s">
         <v>9</v>
       </c>
@@ -6375,10 +6581,10 @@
         <v>9</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1">
       <c r="A103" s="55" t="s">
         <v>9</v>
       </c>
@@ -6389,10 +6595,10 @@
         <v>9</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1">
       <c r="A104" s="55" t="s">
         <v>9</v>
       </c>
@@ -6403,18 +6609,26 @@
         <v>9</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A105" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="61" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
@@ -6424,161 +6638,155 @@
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A108" s="104" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" s="104"/>
-      <c r="C108" s="105"/>
-      <c r="D108" s="105"/>
-    </row>
-    <row r="109" spans="1:4" ht="15" thickBot="1">
-      <c r="A109" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A110" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B110" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="C110" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="D110" s="60" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1">
-      <c r="A111" s="55"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="57"/>
-    </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A109" s="180" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" s="180"/>
+      <c r="C109" s="181"/>
+      <c r="D109" s="181"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A110" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A111" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="60" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1">
       <c r="A112" s="55"/>
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
       <c r="D112" s="57"/>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1">
+    <row r="113" spans="1:4" ht="15.75" thickBot="1">
       <c r="A113" s="55"/>
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
       <c r="D113" s="57"/>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1">
+    <row r="114" spans="1:4" ht="15.75" thickBot="1">
       <c r="A114" s="55"/>
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
       <c r="D114" s="57"/>
     </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1">
+    <row r="115" spans="1:4" ht="15.75" thickBot="1">
       <c r="A115" s="55"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
       <c r="D115" s="57"/>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="107"/>
-      <c r="B116" s="107"/>
-      <c r="C116" s="108"/>
-      <c r="D116" s="2"/>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A116" s="55"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="57"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="A117" s="185"/>
+      <c r="B117" s="185"/>
+      <c r="C117" s="186"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" ht="20.5">
-      <c r="A118" s="38" t="s">
-        <v>272</v>
-      </c>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A119" s="103" t="s">
-        <v>273</v>
-      </c>
-      <c r="B119" s="103"/>
-      <c r="C119" s="93"/>
-      <c r="D119" s="93"/>
-    </row>
-    <row r="120" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A120" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A121" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="B121" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="C121" s="57" t="s">
-        <v>277</v>
+    <row r="119" spans="1:4" ht="20.25">
+      <c r="A119" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
+      <c r="A120" s="179" t="s">
+        <v>265</v>
+      </c>
+      <c r="B120" s="179"/>
+      <c r="C120" s="173"/>
+      <c r="D120" s="173"/>
+    </row>
+    <row r="121" spans="1:4" ht="29.25" thickBot="1">
+      <c r="A121" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1">
+    <row r="122" spans="1:4" ht="30.75" thickBot="1">
       <c r="A122" s="55" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="C122" s="57" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1">
+    <row r="123" spans="1:4" ht="15.75" thickBot="1">
       <c r="A123" s="55" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B123" s="55" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C123" s="57" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1">
+    <row r="124" spans="1:4" ht="15.75" thickBot="1">
       <c r="A124" s="55" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="B124" s="55" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="C124" s="57" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1">
+    <row r="125" spans="1:4" ht="15.75" thickBot="1">
       <c r="A125" s="55" t="s">
         <v>9</v>
       </c>
@@ -6590,7 +6798,7 @@
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1">
+    <row r="126" spans="1:4" ht="15.75" thickBot="1">
       <c r="A126" s="55" t="s">
         <v>9</v>
       </c>
@@ -6602,7 +6810,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1">
+    <row r="127" spans="1:4" ht="15.75" thickBot="1">
       <c r="A127" s="55" t="s">
         <v>9</v>
       </c>
@@ -6614,7 +6822,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1">
+    <row r="128" spans="1:4" ht="15.75" thickBot="1">
       <c r="A128" s="55" t="s">
         <v>9</v>
       </c>
@@ -6626,7 +6834,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1">
+    <row r="129" spans="1:4" ht="15.75" thickBot="1">
       <c r="A129" s="55" t="s">
         <v>9</v>
       </c>
@@ -6638,7 +6846,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1">
+    <row r="130" spans="1:4" ht="15.75" thickBot="1">
       <c r="A130" s="55" t="s">
         <v>9</v>
       </c>
@@ -6650,7 +6858,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1">
+    <row r="131" spans="1:4" ht="15.75" thickBot="1">
       <c r="A131" s="55" t="s">
         <v>9</v>
       </c>
@@ -6662,7 +6870,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1">
+    <row r="132" spans="1:4" ht="15.75" thickBot="1">
       <c r="A132" s="55" t="s">
         <v>9</v>
       </c>
@@ -6674,7 +6882,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1">
+    <row r="133" spans="1:4" ht="15.75" thickBot="1">
       <c r="A133" s="55" t="s">
         <v>9</v>
       </c>
@@ -6686,207 +6894,205 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+    <row r="134" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A134" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="57" t="s">
+        <v>9</v>
+      </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" ht="20.5">
-      <c r="A135" s="38" t="s">
-        <v>219</v>
-      </c>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A136" s="103" t="s">
-        <v>220</v>
-      </c>
-      <c r="B136" s="103"/>
-      <c r="C136" s="93"/>
-      <c r="D136" s="93"/>
-    </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1">
-      <c r="A137" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C137" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1">
-      <c r="A138" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="B138" s="55" t="s">
+    <row r="136" spans="1:4" ht="20.25">
+      <c r="A136" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A137" s="179" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="179"/>
+      <c r="C137" s="173"/>
+      <c r="D137" s="173"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A138" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A139" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1">
-      <c r="A139" s="55" t="s">
+      <c r="C139" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A140" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B140" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C140" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A141" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="166" t="s">
         <v>278</v>
       </c>
-      <c r="B139" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="C139" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1">
-      <c r="A140" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="C140" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="110" t="s">
-        <v>286</v>
-      </c>
-      <c r="B141" s="110"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+      <c r="B142" s="166"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A143" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="B143" s="103"/>
-      <c r="C143" s="93"/>
-      <c r="D143" s="93"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1">
-      <c r="A144" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B144" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A145" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B145" s="57" t="s">
-        <v>224</v>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A144" s="179" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" s="179"/>
+      <c r="C144" s="173"/>
+      <c r="D144" s="173"/>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A145" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>174</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1">
-      <c r="A146" s="55"/>
-      <c r="B146" s="57"/>
+    <row r="146" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A146" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B146" s="57" t="s">
+        <v>216</v>
+      </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1">
+    <row r="147" spans="1:4" ht="15.75" thickBot="1">
       <c r="A147" s="55"/>
       <c r="B147" s="57"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="23"/>
-      <c r="B148" s="23"/>
+    <row r="148" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A148" s="55"/>
+      <c r="B148" s="57"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A150" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="B150" s="104"/>
-      <c r="C150" s="105"/>
-      <c r="D150" s="105"/>
-    </row>
-    <row r="151" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A151" s="27" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A151" s="180" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="180"/>
+      <c r="C151" s="181"/>
+      <c r="D151" s="181"/>
+    </row>
+    <row r="152" spans="1:4" ht="29.25" thickBot="1">
+      <c r="A152" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D152" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A153" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B153" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="C153" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A154" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="B151" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D151" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1">
-      <c r="A152" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="B152" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="C152" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D152" s="57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1">
-      <c r="A153" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="B153" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="C153" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D153" s="57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1">
-      <c r="A154" s="55" t="s">
-        <v>9</v>
-      </c>
       <c r="B154" s="55" t="s">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="C154" s="55" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D154" s="57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1">
       <c r="A155" s="55" t="s">
         <v>9</v>
       </c>
@@ -6900,141 +7106,144 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B156" s="23"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+    <row r="156" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A156" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="57" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="39"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="23"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" ht="39" customHeight="1" thickBot="1">
-      <c r="A158" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="B158" s="109"/>
+    <row r="158" spans="1:4">
+      <c r="A158" s="39"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1">
-      <c r="A159" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>182</v>
-      </c>
+    <row r="159" spans="1:4" ht="39" customHeight="1" thickBot="1">
+      <c r="A159" s="167" t="s">
+        <v>279</v>
+      </c>
+      <c r="B159" s="167"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1">
-      <c r="A160" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="B160" s="57" t="s">
-        <v>291</v>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A160" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>174</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" ht="15" thickBot="1">
+    <row r="161" spans="1:4" ht="15.75" thickBot="1">
       <c r="A161" s="55" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B161" s="57" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1">
+    <row r="162" spans="1:4" ht="15.75" thickBot="1">
       <c r="A162" s="55" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="B162" s="57" t="s">
-        <v>9</v>
+        <v>282</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="B163" s="110"/>
+    <row r="163" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A163" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="57" t="s">
+        <v>9</v>
+      </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="A164" s="166" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="166"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:4" ht="53.25" customHeight="1">
-      <c r="A165" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="B165" s="111"/>
-      <c r="C165" s="93"/>
-      <c r="D165" s="93"/>
-    </row>
-    <row r="166" spans="1:4" ht="24" customHeight="1">
-      <c r="A166" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="B166" s="62"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" ht="53.25" customHeight="1">
+      <c r="A166" s="171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" s="171"/>
+      <c r="C166" s="173"/>
+      <c r="D166" s="173"/>
+    </row>
+    <row r="167" spans="1:4" ht="24" customHeight="1">
+      <c r="A167" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167" s="62"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" ht="75.75" customHeight="1">
-      <c r="A168" s="112" t="s">
-        <v>234</v>
-      </c>
-      <c r="B168" s="112"/>
-      <c r="C168" s="93"/>
-      <c r="D168" s="93"/>
-    </row>
-    <row r="169" spans="1:4" ht="15" thickBot="1">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:4" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A170" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="B170" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C170" s="54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" thickBot="1">
-      <c r="A171" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C171" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" thickBot="1">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" ht="75.75" customHeight="1">
+      <c r="A169" s="182" t="s">
+        <v>226</v>
+      </c>
+      <c r="B169" s="182"/>
+      <c r="C169" s="173"/>
+      <c r="D169" s="173"/>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A171" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="B171" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1">
       <c r="A172" s="55" t="s">
         <v>9</v>
       </c>
@@ -7045,7 +7254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" thickBot="1">
+    <row r="173" spans="1:4" ht="15.75" thickBot="1">
       <c r="A173" s="55" t="s">
         <v>9</v>
       </c>
@@ -7056,742 +7265,765 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="110"/>
-      <c r="B174" s="110"/>
+    <row r="174" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A174" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="56" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="41"/>
-      <c r="B175" s="41"/>
-    </row>
-    <row r="176" spans="1:4" ht="63" customHeight="1" thickBot="1">
-      <c r="A176" s="104" t="s">
-        <v>237</v>
-      </c>
-      <c r="B176" s="104"/>
-      <c r="C176" s="105"/>
-      <c r="D176" s="105"/>
-    </row>
-    <row r="177" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A177" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B177" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D177" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" thickBot="1">
-      <c r="A178" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B178" s="55"/>
-      <c r="C178" s="55"/>
-      <c r="D178" s="57"/>
-    </row>
-    <row r="179" spans="1:4" ht="15" thickBot="1">
+      <c r="A175" s="166"/>
+      <c r="B175" s="166"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="41"/>
+      <c r="B176" s="41"/>
+    </row>
+    <row r="177" spans="1:4" ht="63" customHeight="1" thickBot="1">
+      <c r="A177" s="180" t="s">
+        <v>229</v>
+      </c>
+      <c r="B177" s="180"/>
+      <c r="C177" s="181"/>
+      <c r="D177" s="181"/>
+    </row>
+    <row r="178" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A178" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1">
       <c r="A179" s="55" t="s">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="B179" s="55"/>
       <c r="C179" s="55"/>
       <c r="D179" s="57"/>
     </row>
-    <row r="180" spans="1:4" ht="15" thickBot="1">
+    <row r="180" spans="1:4" ht="15.75" thickBot="1">
       <c r="A180" s="55" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B180" s="55"/>
       <c r="C180" s="55"/>
       <c r="D180" s="57"/>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="118"/>
-      <c r="B181" s="118"/>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A181" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="57"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="43"/>
-      <c r="B182" s="43"/>
-    </row>
-    <row r="183" spans="1:4" ht="54.75" customHeight="1">
-      <c r="A183" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="B183" s="103"/>
-      <c r="C183" s="93"/>
-      <c r="D183" s="93"/>
-    </row>
-    <row r="184" spans="1:4" ht="15" thickBot="1"/>
-    <row r="185" spans="1:4" ht="15" thickBot="1">
-      <c r="A185" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B185" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A186" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="B186" s="57" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" thickBot="1">
-      <c r="A187" s="55"/>
-      <c r="B187" s="57"/>
-    </row>
-    <row r="188" spans="1:4" ht="15" thickBot="1">
+      <c r="A182" s="178"/>
+      <c r="B182" s="178"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
+    </row>
+    <row r="184" spans="1:4" ht="54.75" customHeight="1">
+      <c r="A184" s="179" t="s">
+        <v>288</v>
+      </c>
+      <c r="B184" s="179"/>
+      <c r="C184" s="173"/>
+      <c r="D184" s="173"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="186" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A186" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B186" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A187" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B187" s="57" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1">
       <c r="A188" s="55"/>
       <c r="B188" s="57"/>
     </row>
-    <row r="189" spans="1:4" ht="15" thickBot="1">
+    <row r="189" spans="1:4" ht="15.75" thickBot="1">
       <c r="A189" s="55"/>
       <c r="B189" s="57"/>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="1:4" ht="20.5">
-      <c r="A191" s="44" t="s">
-        <v>299</v>
-      </c>
+    <row r="190" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A190" s="55"/>
+      <c r="B190" s="57"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A192" s="113" t="s">
-        <v>240</v>
-      </c>
-      <c r="B192" s="113"/>
-      <c r="C192" s="114"/>
-      <c r="D192" s="114"/>
-    </row>
-    <row r="193" spans="1:4" ht="15" thickBot="1">
-      <c r="A193" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="B193" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="1:4" ht="15" thickBot="1">
-      <c r="A194" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="B194" s="57" t="s">
-        <v>303</v>
+    <row r="192" spans="1:4" ht="20.25">
+      <c r="A192" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:4" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A193" s="174" t="s">
+        <v>232</v>
+      </c>
+      <c r="B193" s="174"/>
+      <c r="C193" s="175"/>
+      <c r="D193" s="175"/>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A194" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" ht="15" thickBot="1">
+    <row r="195" spans="1:4" ht="15.75" thickBot="1">
       <c r="A195" s="55" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B195" s="57" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" ht="15" thickBot="1">
+    <row r="196" spans="1:4" ht="15.75" thickBot="1">
       <c r="A196" s="55" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B196" s="57" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" ht="15" thickBot="1">
+    <row r="197" spans="1:4" ht="15.75" thickBot="1">
       <c r="A197" s="55" t="s">
-        <v>9</v>
+        <v>294</v>
       </c>
       <c r="B197" s="57" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="110"/>
-      <c r="B198" s="110"/>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A198" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="57" t="s">
+        <v>9</v>
+      </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="41"/>
-      <c r="B199" s="41"/>
+      <c r="A199" s="166"/>
+      <c r="B199" s="166"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4" ht="54.75" customHeight="1">
-      <c r="A200" s="115" t="s">
-        <v>304</v>
-      </c>
-      <c r="B200" s="115"/>
-      <c r="C200" s="94"/>
-      <c r="D200" s="94"/>
-    </row>
-    <row r="201" spans="1:4" ht="15" thickBot="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="1:4" ht="15" thickBot="1">
-      <c r="A202" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B202" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15" thickBot="1">
-      <c r="A203" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="B203" s="57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1">
+    <row r="200" spans="1:4">
+      <c r="A200" s="41"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:4" ht="54.75" customHeight="1">
+      <c r="A201" s="169" t="s">
+        <v>296</v>
+      </c>
+      <c r="B201" s="169"/>
+      <c r="C201" s="170"/>
+      <c r="D201" s="170"/>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A203" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B203" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1">
       <c r="A204" s="55" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="B204" s="57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" thickBot="1">
-      <c r="A205" s="55"/>
-      <c r="B205" s="57"/>
-    </row>
-    <row r="206" spans="1:4" ht="15" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A205" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B205" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1">
       <c r="A206" s="55"/>
       <c r="B206" s="57"/>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="110"/>
-      <c r="B207" s="110"/>
+    <row r="207" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A207" s="55"/>
+      <c r="B207" s="57"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="45"/>
-    </row>
-    <row r="209" spans="1:4" ht="33" customHeight="1" thickBot="1">
-      <c r="A209" s="116" t="s">
-        <v>305</v>
-      </c>
-      <c r="B209" s="116"/>
-      <c r="C209" s="117"/>
-      <c r="D209" s="117"/>
-    </row>
-    <row r="210" spans="1:4" ht="15" thickBot="1">
-      <c r="A210" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B210" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C210" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D210" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15" thickBot="1">
-      <c r="A211" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B211" s="55"/>
-      <c r="C211" s="55"/>
-      <c r="D211" s="57"/>
-    </row>
-    <row r="212" spans="1:4" ht="15" thickBot="1">
+      <c r="A208" s="166"/>
+      <c r="B208" s="166"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="45"/>
+    </row>
+    <row r="210" spans="1:4" ht="33" customHeight="1" thickBot="1">
+      <c r="A210" s="176" t="s">
+        <v>297</v>
+      </c>
+      <c r="B210" s="176"/>
+      <c r="C210" s="177"/>
+      <c r="D210" s="177"/>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A211" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D211" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1">
       <c r="A212" s="55" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B212" s="55"/>
       <c r="C212" s="55"/>
       <c r="D212" s="57"/>
     </row>
-    <row r="213" spans="1:4" ht="15" thickBot="1">
+    <row r="213" spans="1:4" ht="15.75" thickBot="1">
       <c r="A213" s="55" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B213" s="55"/>
       <c r="C213" s="55"/>
       <c r="D213" s="57"/>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="23"/>
-      <c r="B214" s="23"/>
+    <row r="214" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A214" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="B214" s="55"/>
+      <c r="C214" s="55"/>
+      <c r="D214" s="57"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="41"/>
-      <c r="B215" s="41"/>
-    </row>
-    <row r="216" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A216" s="111" t="s">
+      <c r="A215" s="23"/>
+      <c r="B215" s="23"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="41"/>
+      <c r="B216" s="41"/>
+    </row>
+    <row r="217" spans="1:4" ht="47.25" customHeight="1">
+      <c r="A217" s="171" t="s">
+        <v>236</v>
+      </c>
+      <c r="B217" s="171"/>
+      <c r="C217" s="173"/>
+      <c r="D217" s="173"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="36" customHeight="1">
+      <c r="A220" s="169" t="s">
+        <v>238</v>
+      </c>
+      <c r="B220" s="169"/>
+      <c r="C220" s="170"/>
+      <c r="D220" s="170"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4" ht="20.25">
+      <c r="A223" s="47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="43.5" customHeight="1">
+      <c r="A224" s="169" t="s">
+        <v>239</v>
+      </c>
+      <c r="B224" s="169"/>
+      <c r="C224" s="170"/>
+      <c r="D224" s="170"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="20.25">
+      <c r="A227" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A228" s="169" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="169"/>
+      <c r="C228" s="170"/>
+      <c r="D228" s="170"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229" s="48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="33" customHeight="1">
+      <c r="A231" s="169" t="s">
+        <v>241</v>
+      </c>
+      <c r="B231" s="169"/>
+      <c r="C231" s="170"/>
+      <c r="D231" s="170"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="41.25" customHeight="1">
+      <c r="A234" s="169" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" s="169"/>
+      <c r="C234" s="170"/>
+      <c r="D234" s="170"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A237" s="171" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237" s="171"/>
+      <c r="C237" s="170"/>
+      <c r="D237" s="170"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="20.25">
+      <c r="A240" s="47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="45" customHeight="1">
+      <c r="A241" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="B216" s="111"/>
-      <c r="C216" s="93"/>
-      <c r="D216" s="93"/>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="46" t="s">
+      <c r="B241" s="169"/>
+      <c r="C241" s="170"/>
+      <c r="D241" s="170"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="20.25">
+      <c r="A244" s="47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="42" customHeight="1">
+      <c r="A245" s="172" t="s">
         <v>245</v>
       </c>
-      <c r="B217" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="36" customHeight="1">
-      <c r="A219" s="115" t="s">
+      <c r="B245" s="172"/>
+      <c r="C245" s="170"/>
+      <c r="D245" s="170"/>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="247" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A247" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="B219" s="115"/>
-      <c r="C219" s="94"/>
-      <c r="D219" s="94"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B220" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="1:4" ht="20">
-      <c r="A222" s="47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="43.5" customHeight="1">
-      <c r="A223" s="115" t="s">
+      <c r="B247" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A248" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="B223" s="115"/>
-      <c r="C223" s="94"/>
-      <c r="D223" s="94"/>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="20">
-      <c r="A226" s="47" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A227" s="115" t="s">
+      <c r="B248" s="57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A249" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="B249" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A250" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A251" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="41"/>
+      <c r="B252" s="41"/>
+    </row>
+    <row r="253" spans="1:4" ht="20.25">
+      <c r="A253" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A254" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="B227" s="115"/>
-      <c r="C227" s="94"/>
-      <c r="D227" s="94"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B228" s="48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="33" customHeight="1">
-      <c r="A230" s="115" t="s">
+      <c r="B254" s="170"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="49"/>
+    </row>
+    <row r="256" spans="1:4" ht="20.25">
+      <c r="A256" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A257" s="169" t="s">
         <v>249</v>
       </c>
-      <c r="B230" s="115"/>
-      <c r="C230" s="94"/>
-      <c r="D230" s="94"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B231" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A233" s="115" t="s">
+      <c r="B257" s="169"/>
+      <c r="C257" s="170"/>
+      <c r="D257" s="170"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="169" t="s">
         <v>250</v>
       </c>
-      <c r="B233" s="115"/>
-      <c r="C233" s="94"/>
-      <c r="D233" s="94"/>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A236" s="111" t="s">
+      <c r="B260" s="169"/>
+      <c r="C260" s="170"/>
+      <c r="D260" s="170"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="25.5" customHeight="1"/>
+    <row r="263" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A263" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="B236" s="111"/>
-      <c r="C236" s="94"/>
-      <c r="D236" s="94"/>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B237" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="20">
-      <c r="A239" s="47" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="45" customHeight="1">
-      <c r="A240" s="115" t="s">
+      <c r="B263" s="169"/>
+    </row>
+    <row r="264" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A264" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="B240" s="115"/>
-      <c r="C240" s="94"/>
-      <c r="D240" s="94"/>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B241" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="20">
-      <c r="A243" s="47" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="42" customHeight="1">
-      <c r="A244" s="119" t="s">
+      <c r="B264" s="169"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A267" s="167" t="s">
         <v>253</v>
       </c>
-      <c r="B244" s="119"/>
-      <c r="C244" s="94"/>
-      <c r="D244" s="94"/>
-    </row>
-    <row r="245" spans="1:4" ht="15" thickBot="1"/>
-    <row r="246" spans="1:4" ht="15" thickBot="1">
-      <c r="A246" s="27" t="s">
+      <c r="B267" s="167"/>
+      <c r="C267" s="168"/>
+      <c r="D267" s="168"/>
+    </row>
+    <row r="268" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A268" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B268" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C268" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D268" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B246" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15" thickBot="1">
-      <c r="A247" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="B247" s="57" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A248" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="B248" s="57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15" thickBot="1">
-      <c r="A249" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B249" s="57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15" thickBot="1">
-      <c r="A250" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B250" s="57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="41"/>
-      <c r="B251" s="41"/>
-    </row>
-    <row r="252" spans="1:4" ht="20">
-      <c r="A252" s="47" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A253" s="115" t="s">
-        <v>256</v>
-      </c>
-      <c r="B253" s="94"/>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="49"/>
-    </row>
-    <row r="255" spans="1:4" ht="20">
-      <c r="A255" s="47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A256" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="B256" s="115"/>
-      <c r="C256" s="94"/>
-      <c r="D256" s="94"/>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="115" t="s">
-        <v>258</v>
-      </c>
-      <c r="B259" s="115"/>
-      <c r="C259" s="94"/>
-      <c r="D259" s="94"/>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="25.5" customHeight="1"/>
-    <row r="262" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A262" s="115" t="s">
-        <v>259</v>
-      </c>
-      <c r="B262" s="115"/>
-    </row>
-    <row r="263" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A263" s="115" t="s">
-        <v>260</v>
-      </c>
-      <c r="B263" s="115"/>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A266" s="109" t="s">
-        <v>261</v>
-      </c>
-      <c r="B266" s="109"/>
-      <c r="C266" s="120"/>
-      <c r="D266" s="120"/>
-    </row>
-    <row r="267" spans="1:4" ht="15" thickBot="1">
-      <c r="A267" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B267" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C267" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D267" s="28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="15" thickBot="1">
-      <c r="A268" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B268" s="42"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="12"/>
-    </row>
-    <row r="269" spans="1:4" ht="15" thickBot="1">
+    </row>
+    <row r="269" spans="1:4" ht="15.75" thickBot="1">
       <c r="A269" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B269" s="11"/>
+        <v>176</v>
+      </c>
+      <c r="B269" s="42"/>
       <c r="C269" s="11"/>
       <c r="D269" s="12"/>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="110"/>
-      <c r="B270" s="110"/>
+    <row r="270" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A270" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="12"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="41"/>
-      <c r="B271" s="41"/>
-    </row>
-    <row r="272" spans="1:4" ht="20">
-      <c r="A272" s="47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="27">
-      <c r="A273" s="49" t="s">
+      <c r="A271" s="166"/>
+      <c r="B271" s="166"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="41"/>
+      <c r="B272" s="41"/>
+    </row>
+    <row r="273" spans="1:4" ht="20.25">
+      <c r="A273" s="47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="27">
+      <c r="A274" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="20.25">
+      <c r="A275" s="50"/>
+    </row>
+    <row r="276" spans="1:4" ht="20.25">
+      <c r="A276" s="47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="39" customHeight="1">
+      <c r="A277" s="169" t="s">
+        <v>255</v>
+      </c>
+      <c r="B277" s="169"/>
+      <c r="C277" s="170"/>
+      <c r="D277" s="170"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B278" s="8"/>
+    </row>
+    <row r="280" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A280" s="167" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="20">
-      <c r="A274" s="50"/>
-    </row>
-    <row r="275" spans="1:4" ht="20">
-      <c r="A275" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="39" customHeight="1">
-      <c r="A276" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="B276" s="115"/>
-      <c r="C276" s="94"/>
-      <c r="D276" s="94"/>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B277" s="8"/>
-    </row>
-    <row r="279" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A279" s="109" t="s">
-        <v>264</v>
-      </c>
-      <c r="B279" s="109"/>
-      <c r="C279" s="120"/>
-      <c r="D279" s="120"/>
-    </row>
-    <row r="280" spans="1:4" ht="15" thickBot="1"/>
-    <row r="281" spans="1:4" ht="15" thickBot="1">
-      <c r="A281" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B281" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C281" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="D281" s="36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="15" thickBot="1">
-      <c r="A282" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="B282" s="51"/>
-      <c r="C282" s="11"/>
-      <c r="D282" s="63"/>
-    </row>
-    <row r="283" spans="1:4" ht="15" thickBot="1">
-      <c r="A283" s="11"/>
-      <c r="B283" s="42"/>
+      <c r="B280" s="167"/>
+      <c r="C280" s="168"/>
+      <c r="D280" s="168"/>
+    </row>
+    <row r="281" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="282" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A282" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B282" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C282" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D282" s="36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A283" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B283" s="51"/>
       <c r="C283" s="11"/>
-      <c r="D283" s="12"/>
-    </row>
-    <row r="284" spans="1:4" ht="15" thickBot="1">
+      <c r="D283" s="63"/>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" thickBot="1">
       <c r="A284" s="11"/>
-      <c r="B284" s="11"/>
+      <c r="B284" s="42"/>
       <c r="C284" s="11"/>
       <c r="D284" s="12"/>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="23"/>
-      <c r="B285" s="23"/>
+    <row r="285" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A285" s="11"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="12"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="23"/>
+      <c r="B286" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A266:D266"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A256:D256"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A14:B14"/>
+  <mergeCells count="62">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7805,44 +8037,44 @@
   </sheetPr>
   <dimension ref="A1:XFD371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="135.7265625" style="141" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="20" customWidth="1"/>
-    <col min="5" max="7" width="5.7265625" style="21" customWidth="1"/>
-    <col min="8" max="12" width="8.7265625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="29.26953125" style="20" customWidth="1"/>
-    <col min="14" max="14" width="26.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="135.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="20" customWidth="1"/>
+    <col min="5" max="7" width="5.7109375" style="21" customWidth="1"/>
+    <col min="8" max="12" width="8.7109375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" style="20" customWidth="1"/>
-    <col min="16" max="16" width="50.7265625" style="20" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="20"/>
+    <col min="16" max="16" width="50.7109375" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26 16384:16384" s="18" customFormat="1" ht="51.5" customHeight="1" thickBot="1">
-      <c r="A1" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="133" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="133" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="142" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="206" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
+    <row r="1" spans="1:26 16384:16384" s="18" customFormat="1" ht="51.6" customHeight="1" thickBot="1">
+      <c r="A1" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="194" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
@@ -7853,79 +8085,79 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:26 16384:16384" s="18" customFormat="1" ht="28.5" thickBot="1">
+    <row r="2" spans="1:26 16384:16384" s="18" customFormat="1" ht="29.25" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="132"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="161" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="162" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="162" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="162" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="N2" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="O2" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="204" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="205" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="205" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="205" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="205" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="205" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="205" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="205" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="205" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26 16384:16384" s="18" customFormat="1" ht="15" thickBot="1">
+    </row>
+    <row r="3" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="132"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="187" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="199" t="s">
-        <v>314</v>
-      </c>
-      <c r="I3" s="200" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" s="201" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" s="202" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="203"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-    </row>
-    <row r="4" spans="1:26 16384:16384" s="18" customFormat="1" ht="17" customHeight="1" thickBot="1">
+      <c r="E3" s="145" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="156" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" s="158" t="s">
+        <v>308</v>
+      </c>
+      <c r="K3" s="159" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="160"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+    </row>
+    <row r="4" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="195" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B4" s="195"/>
       <c r="C4" s="195"/>
@@ -7933,99 +8165,99 @@
       <c r="E4" s="195"/>
       <c r="F4" s="195"/>
       <c r="G4" s="195"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-    </row>
-    <row r="5" spans="1:26 16384:16384" s="18" customFormat="1" ht="17" customHeight="1" thickBot="1">
-      <c r="A5" s="188" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+    </row>
+    <row r="5" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A5" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="190" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="161" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>312</v>
-      </c>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194"/>
+      <c r="C5" s="148" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="163" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
       <c r="R5" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26 16384:16384" s="18" customFormat="1" ht="17" customHeight="1" thickBot="1">
-      <c r="A6" s="147" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A6" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="134" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="149" t="s">
-        <v>312</v>
-      </c>
-      <c r="F6" s="149"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="R6" s="121" t="s">
-        <v>317</v>
-      </c>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-    </row>
-    <row r="7" spans="1:26 16384:16384" s="18" customFormat="1" ht="17" customHeight="1" thickBot="1">
-      <c r="A7" s="147" t="s">
+      <c r="C6" s="101" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="113"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="R6" s="202" t="s">
+        <v>309</v>
+      </c>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+    </row>
+    <row r="7" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A7" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="134" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7" s="150" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
+      <c r="C7" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="75"/>
       <c r="I7" s="74"/>
       <c r="J7" s="79"/>
@@ -8035,27 +8267,27 @@
       <c r="N7" s="66"/>
       <c r="O7" s="67"/>
       <c r="P7" s="67"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-    </row>
-    <row r="8" spans="1:26 16384:16384" s="18" customFormat="1" ht="17" customHeight="1" thickBot="1">
-      <c r="A8" s="147" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+    </row>
+    <row r="8" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A8" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="134" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8" s="147" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
+      <c r="C8" s="101" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
       <c r="H8" s="75"/>
       <c r="I8" s="68"/>
       <c r="J8" s="77"/>
@@ -8065,27 +8297,27 @@
       <c r="N8" s="65"/>
       <c r="O8" s="65"/>
       <c r="P8" s="65"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-    </row>
-    <row r="9" spans="1:26 16384:16384" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A9" s="147" t="s">
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+    </row>
+    <row r="9" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="134" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
+      <c r="C9" s="101" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
       <c r="H9" s="68"/>
       <c r="I9" s="77"/>
       <c r="J9" s="77"/>
@@ -8095,27 +8327,27 @@
       <c r="N9" s="65"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-    </row>
-    <row r="10" spans="1:26 16384:16384" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A10" s="147" t="s">
+      <c r="R9" s="203"/>
+      <c r="S9" s="203"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+    </row>
+    <row r="10" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="134" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" s="147" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
+      <c r="C10" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
       <c r="H10" s="68"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
@@ -8125,28 +8357,28 @@
       <c r="N10" s="65"/>
       <c r="O10" s="65"/>
       <c r="P10" s="65"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="203"/>
       <c r="XFD10" s="76"/>
     </row>
-    <row r="11" spans="1:26 16384:16384" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A11" s="147" t="s">
+    <row r="11" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A11" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="134" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" s="147" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
+      <c r="C11" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
       <c r="H11" s="68"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
@@ -8156,243 +8388,243 @@
       <c r="N11" s="65"/>
       <c r="O11" s="65"/>
       <c r="P11" s="65"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-    </row>
-    <row r="12" spans="1:26 16384:16384" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A12" s="147" t="s">
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="203"/>
+    </row>
+    <row r="12" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A12" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="134" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
+      <c r="C12" s="101" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
       <c r="J12" s="77"/>
       <c r="K12" s="77"/>
       <c r="L12" s="78"/>
-      <c r="M12" s="151"/>
+      <c r="M12" s="115"/>
       <c r="N12" s="65"/>
       <c r="O12" s="65"/>
       <c r="P12" s="65"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-    </row>
-    <row r="13" spans="1:26 16384:16384" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A13" s="147" t="s">
+      <c r="R12" s="203"/>
+      <c r="S12" s="203"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+    </row>
+    <row r="13" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A13" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="134" t="s">
-        <v>344</v>
-      </c>
-      <c r="D13" s="147" t="s">
-        <v>323</v>
-      </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
+      <c r="C13" s="101" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="77"/>
       <c r="L13" s="78"/>
-      <c r="M13" s="151"/>
+      <c r="M13" s="115"/>
       <c r="N13" s="69"/>
       <c r="O13" s="65"/>
       <c r="P13" s="65"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:26 16384:16384" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A14" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="148" t="s">
+    <row r="14" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A14" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="134" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="152"/>
+      <c r="C14" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="116"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="J14" s="83"/>
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
-      <c r="M14" s="153"/>
+      <c r="M14" s="117"/>
       <c r="N14" s="73"/>
       <c r="O14" s="73"/>
       <c r="P14" s="73"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="203"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:26 16384:16384" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A15" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="148" t="s">
+    <row r="15" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A15" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="134" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="152"/>
+      <c r="C15" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
       <c r="J15" s="83"/>
       <c r="K15" s="83"/>
       <c r="L15" s="83"/>
-      <c r="M15" s="153"/>
+      <c r="M15" s="117"/>
       <c r="N15" s="84"/>
       <c r="O15" s="73"/>
       <c r="P15" s="73"/>
       <c r="Q15" s="19"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
     </row>
-    <row r="16" spans="1:26 16384:16384" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A16" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="148" t="s">
+    <row r="16" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="134" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="152"/>
+      <c r="C16" s="101" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="70"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
-      <c r="M16" s="153"/>
+      <c r="M16" s="117"/>
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
       <c r="P16" s="73"/>
       <c r="Q16" s="19"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="203"/>
+      <c r="T16" s="203"/>
+      <c r="U16" s="203"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A17" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="148" t="s">
+    <row r="17" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A17" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="134" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="152"/>
+      <c r="C17" s="101" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="83"/>
       <c r="K17" s="83"/>
       <c r="L17" s="83"/>
-      <c r="M17" s="153"/>
+      <c r="M17" s="117"/>
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
       <c r="P17" s="73"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
+      <c r="R17" s="203"/>
+      <c r="S17" s="203"/>
+      <c r="T17" s="203"/>
+      <c r="U17" s="203"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
     </row>
-    <row r="18" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A18" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="148" t="s">
+    <row r="18" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A18" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="134" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="152"/>
+      <c r="C18" s="101" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="120"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="70"/>
       <c r="I18" s="85"/>
       <c r="J18" s="86"/>
       <c r="K18" s="83"/>
       <c r="L18" s="83"/>
-      <c r="M18" s="153"/>
+      <c r="M18" s="117"/>
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -8407,28 +8639,28 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A19" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="152"/>
+    <row r="19" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A19" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" s="120"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
       <c r="J19" s="70"/>
       <c r="K19" s="70"/>
       <c r="L19" s="70"/>
-      <c r="M19" s="153"/>
+      <c r="M19" s="117"/>
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -8443,28 +8675,28 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A20" s="154" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="134" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" s="155" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="152"/>
+    <row r="20" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A20" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="116"/>
       <c r="H20" s="87"/>
       <c r="I20" s="87"/>
       <c r="J20" s="70"/>
       <c r="K20" s="70"/>
       <c r="L20" s="70"/>
-      <c r="M20" s="153"/>
+      <c r="M20" s="117"/>
       <c r="N20" s="73"/>
       <c r="O20" s="73"/>
       <c r="P20" s="72"/>
@@ -8479,28 +8711,28 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A21" s="147" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="157" t="s">
+    <row r="21" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A21" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="134" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="152"/>
+      <c r="C21" s="101" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="116"/>
       <c r="H21" s="85"/>
       <c r="I21" s="85"/>
       <c r="J21" s="70"/>
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
-      <c r="M21" s="153"/>
+      <c r="M21" s="117"/>
       <c r="N21" s="72"/>
       <c r="O21" s="73"/>
       <c r="P21" s="71"/>
@@ -8515,28 +8747,28 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A22" s="147" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="148" t="s">
+    <row r="22" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A22" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="134" t="s">
-        <v>353</v>
-      </c>
-      <c r="D22" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="152"/>
+      <c r="C22" s="101" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="116"/>
       <c r="H22" s="87"/>
       <c r="I22" s="85"/>
       <c r="J22" s="70"/>
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
-      <c r="M22" s="153"/>
+      <c r="M22" s="117"/>
       <c r="N22" s="72"/>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
@@ -8551,28 +8783,28 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A23" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="148" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="134" t="s">
-        <v>354</v>
-      </c>
-      <c r="D23" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
+    <row r="23" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A23" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="91"/>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70"/>
       <c r="K23" s="70"/>
       <c r="L23" s="70"/>
-      <c r="M23" s="153"/>
+      <c r="M23" s="117"/>
       <c r="N23" s="72"/>
       <c r="O23" s="73"/>
       <c r="P23" s="72"/>
@@ -8587,28 +8819,28 @@
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A24" s="147" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="148" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="134" t="s">
-        <v>355</v>
-      </c>
-      <c r="D24" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
+    <row r="24" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A24" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
       <c r="G24" s="91"/>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
       <c r="J24" s="70"/>
       <c r="K24" s="70"/>
       <c r="L24" s="70"/>
-      <c r="M24" s="153"/>
+      <c r="M24" s="117"/>
       <c r="N24" s="72"/>
       <c r="O24" s="73"/>
       <c r="P24" s="72"/>
@@ -8623,28 +8855,28 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
     </row>
-    <row r="25" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A25" s="154" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="148" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="134" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
+    <row r="25" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A25" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="91"/>
       <c r="H25" s="83"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
       <c r="K25" s="83"/>
       <c r="L25" s="83"/>
-      <c r="M25" s="153"/>
+      <c r="M25" s="117"/>
       <c r="N25" s="88"/>
       <c r="O25" s="73"/>
       <c r="P25" s="73"/>
@@ -8659,28 +8891,28 @@
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
     </row>
-    <row r="26" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A26" s="147" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="157" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="134" t="s">
-        <v>357</v>
-      </c>
-      <c r="D26" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
+    <row r="26" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A26" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="91"/>
       <c r="H26" s="83"/>
       <c r="I26" s="83"/>
       <c r="J26" s="83"/>
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
-      <c r="M26" s="153"/>
+      <c r="M26" s="117"/>
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
@@ -8695,25 +8927,25 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
     </row>
-    <row r="27" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A27" s="144" t="s">
+    <row r="27" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A27" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
-      <c r="L27" s="185"/>
-      <c r="M27" s="186"/>
-      <c r="N27" s="186"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="192"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="150"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
@@ -8725,29 +8957,29 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
     </row>
-    <row r="28" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A28" s="147" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="159" t="s">
+    <row r="28" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A28" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="134" t="s">
-        <v>358</v>
-      </c>
-      <c r="D28" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
+      <c r="C28" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="91"/>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
       <c r="J28" s="83"/>
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
       <c r="O28" s="73"/>
       <c r="P28" s="73"/>
       <c r="Q28" s="19"/>
@@ -8761,28 +8993,28 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
     </row>
-    <row r="29" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A29" s="147" t="s">
+    <row r="29" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A29" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="159" t="s">
+      <c r="B29" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="134" t="s">
-        <v>359</v>
-      </c>
-      <c r="D29" s="147" t="s">
-        <v>325</v>
-      </c>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
+      <c r="C29" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="111" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="91"/>
       <c r="H29" s="70"/>
       <c r="I29" s="70"/>
       <c r="J29" s="70"/>
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
-      <c r="M29" s="153"/>
+      <c r="M29" s="117"/>
       <c r="N29" s="72"/>
       <c r="O29" s="73"/>
       <c r="P29" s="72"/>
@@ -8797,28 +9029,28 @@
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
     </row>
-    <row r="30" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A30" s="147" t="s">
+    <row r="30" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A30" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="134" t="s">
-        <v>360</v>
-      </c>
-      <c r="D30" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
+      <c r="C30" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="91"/>
       <c r="H30" s="70"/>
       <c r="I30" s="70"/>
       <c r="J30" s="70"/>
       <c r="K30" s="70"/>
       <c r="L30" s="70"/>
-      <c r="M30" s="153"/>
+      <c r="M30" s="117"/>
       <c r="N30" s="72"/>
       <c r="O30" s="73"/>
       <c r="P30" s="72"/>
@@ -8833,28 +9065,28 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A31" s="147" t="s">
+    <row r="31" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A31" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="134" t="s">
-        <v>361</v>
-      </c>
-      <c r="D31" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
+      <c r="C31" s="101" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="91"/>
       <c r="H31" s="83"/>
       <c r="I31" s="83"/>
       <c r="J31" s="70"/>
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
-      <c r="M31" s="153"/>
+      <c r="M31" s="117"/>
       <c r="N31" s="72"/>
       <c r="O31" s="73"/>
       <c r="P31" s="72"/>
@@ -8869,28 +9101,28 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
     </row>
-    <row r="32" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A32" s="147" t="s">
+    <row r="32" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A32" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="159" t="s">
+      <c r="B32" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="134" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" s="147" t="s">
-        <v>320</v>
-      </c>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
+      <c r="C32" s="101" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="111" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
       <c r="G32" s="91"/>
       <c r="H32" s="70"/>
       <c r="I32" s="70"/>
       <c r="J32" s="70"/>
       <c r="K32" s="70"/>
       <c r="L32" s="70"/>
-      <c r="M32" s="153"/>
+      <c r="M32" s="117"/>
       <c r="N32" s="72"/>
       <c r="O32" s="72"/>
       <c r="P32" s="72"/>
@@ -8905,28 +9137,28 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
     </row>
-    <row r="33" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A33" s="147" t="s">
+    <row r="33" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A33" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="D33" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
+      <c r="C33" s="101" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
       <c r="G33" s="91"/>
       <c r="H33" s="70"/>
       <c r="I33" s="70"/>
       <c r="J33" s="70"/>
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
-      <c r="M33" s="153"/>
+      <c r="M33" s="117"/>
       <c r="N33" s="72"/>
       <c r="O33" s="72"/>
       <c r="P33" s="72"/>
@@ -8941,28 +9173,28 @@
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
     </row>
-    <row r="34" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A34" s="147" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="159" t="s">
+    <row r="34" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A34" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="134" t="s">
-        <v>363</v>
-      </c>
-      <c r="D34" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
+      <c r="C34" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="91"/>
       <c r="H34" s="70"/>
       <c r="I34" s="70"/>
       <c r="J34" s="70"/>
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
-      <c r="M34" s="153"/>
+      <c r="M34" s="117"/>
       <c r="N34" s="71"/>
       <c r="O34" s="73"/>
       <c r="P34" s="72"/>
@@ -8977,28 +9209,28 @@
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
     </row>
-    <row r="35" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A35" s="147" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="159" t="s">
+    <row r="35" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A35" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="134" t="s">
-        <v>364</v>
-      </c>
-      <c r="D35" s="147" t="s">
-        <v>318</v>
-      </c>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
+      <c r="C35" s="101" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
       <c r="G35" s="91"/>
       <c r="H35" s="70"/>
       <c r="I35" s="70"/>
       <c r="J35" s="70"/>
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
-      <c r="M35" s="153"/>
+      <c r="M35" s="117"/>
       <c r="N35" s="71"/>
       <c r="O35" s="72"/>
       <c r="P35" s="72"/>
@@ -9013,25 +9245,25 @@
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
     </row>
-    <row r="36" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A36" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="185"/>
-      <c r="L36" s="185"/>
-      <c r="M36" s="186"/>
-      <c r="N36" s="186"/>
-      <c r="O36" s="186"/>
-      <c r="P36" s="192"/>
+    <row r="36" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A36" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="197"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="150"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
@@ -9043,28 +9275,28 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A37" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="160" t="s">
+    <row r="37" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A37" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="135" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37" s="161" t="s">
-        <v>324</v>
-      </c>
-      <c r="E37" s="158"/>
+      <c r="C37" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="125" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="122"/>
       <c r="F37" s="91"/>
-      <c r="G37" s="159"/>
+      <c r="G37" s="123"/>
       <c r="H37" s="70"/>
       <c r="I37" s="70"/>
       <c r="J37" s="70"/>
       <c r="K37" s="70"/>
       <c r="L37" s="70"/>
-      <c r="M37" s="153"/>
+      <c r="M37" s="117"/>
       <c r="N37" s="72"/>
       <c r="O37" s="72"/>
       <c r="P37" s="72"/>
@@ -9079,28 +9311,28 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
     </row>
-    <row r="38" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A38" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="135" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="161" t="s">
-        <v>318</v>
-      </c>
-      <c r="E38" s="158"/>
+    <row r="38" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A38" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="125" t="s">
+        <v>310</v>
+      </c>
+      <c r="E38" s="122"/>
       <c r="F38" s="91"/>
-      <c r="G38" s="159"/>
+      <c r="G38" s="123"/>
       <c r="H38" s="70"/>
       <c r="I38" s="70"/>
       <c r="J38" s="70"/>
       <c r="K38" s="70"/>
       <c r="L38" s="70"/>
-      <c r="M38" s="153"/>
+      <c r="M38" s="117"/>
       <c r="N38" s="72"/>
       <c r="O38" s="73"/>
       <c r="P38" s="72"/>
@@ -9115,25 +9347,25 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
     </row>
-    <row r="39" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A39" s="163" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="185"/>
-      <c r="K39" s="185"/>
-      <c r="L39" s="185"/>
-      <c r="M39" s="186"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="186"/>
-      <c r="P39" s="192"/>
+    <row r="39" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A39" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="200"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="150"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
@@ -9145,24 +9377,24 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
     </row>
-    <row r="40" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A40" s="147" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="159"/>
-      <c r="C40" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="158"/>
+    <row r="40" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A40" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="123"/>
+      <c r="C40" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="119"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="122"/>
       <c r="G40" s="91"/>
       <c r="H40" s="70"/>
       <c r="I40" s="70"/>
       <c r="J40" s="70"/>
       <c r="K40" s="70"/>
       <c r="L40" s="70"/>
-      <c r="M40" s="153"/>
+      <c r="M40" s="117"/>
       <c r="N40" s="71"/>
       <c r="O40" s="72"/>
       <c r="P40" s="72"/>
@@ -9177,28 +9409,28 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
     </row>
-    <row r="41" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A41" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="159" t="s">
+    <row r="41" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A41" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="134" t="s">
-        <v>367</v>
-      </c>
-      <c r="D41" s="155" t="s">
-        <v>326</v>
-      </c>
-      <c r="E41" s="169"/>
-      <c r="F41" s="158"/>
+      <c r="C41" s="101" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41" s="119" t="s">
+        <v>318</v>
+      </c>
+      <c r="E41" s="130"/>
+      <c r="F41" s="122"/>
       <c r="G41" s="91"/>
       <c r="H41" s="70"/>
       <c r="I41" s="70"/>
       <c r="J41" s="70"/>
       <c r="K41" s="70"/>
       <c r="L41" s="70"/>
-      <c r="M41" s="153"/>
+      <c r="M41" s="117"/>
       <c r="N41" s="72"/>
       <c r="O41" s="72"/>
       <c r="P41" s="72"/>
@@ -9213,28 +9445,28 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
     </row>
-    <row r="42" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A42" s="147" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="159" t="s">
+    <row r="42" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A42" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="134" t="s">
-        <v>368</v>
-      </c>
-      <c r="D42" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E42" s="169"/>
-      <c r="F42" s="158"/>
+      <c r="C42" s="101" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" s="130"/>
+      <c r="F42" s="122"/>
       <c r="G42" s="91"/>
       <c r="H42" s="70"/>
       <c r="I42" s="70"/>
       <c r="J42" s="70"/>
       <c r="K42" s="70"/>
       <c r="L42" s="70"/>
-      <c r="M42" s="170"/>
+      <c r="M42" s="131"/>
       <c r="N42" s="72"/>
       <c r="O42" s="73"/>
       <c r="P42" s="72"/>
@@ -9249,28 +9481,28 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
     </row>
-    <row r="43" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A43" s="147" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="159" t="s">
+    <row r="43" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A43" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="134" t="s">
-        <v>369</v>
-      </c>
-      <c r="D43" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E43" s="169"/>
-      <c r="F43" s="158"/>
+      <c r="C43" s="101" t="s">
+        <v>361</v>
+      </c>
+      <c r="D43" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="130"/>
+      <c r="F43" s="122"/>
       <c r="G43" s="91"/>
       <c r="H43" s="83"/>
       <c r="I43" s="83"/>
       <c r="J43" s="83"/>
       <c r="K43" s="83"/>
       <c r="L43" s="83"/>
-      <c r="M43" s="170"/>
+      <c r="M43" s="131"/>
       <c r="N43" s="73"/>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
@@ -9285,28 +9517,28 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
     </row>
-    <row r="44" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A44" s="147" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="159" t="s">
+    <row r="44" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A44" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="134" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E44" s="169"/>
-      <c r="F44" s="158"/>
+      <c r="C44" s="101" t="s">
+        <v>362</v>
+      </c>
+      <c r="D44" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="130"/>
+      <c r="F44" s="122"/>
       <c r="G44" s="91"/>
       <c r="H44" s="83"/>
       <c r="I44" s="83"/>
       <c r="J44" s="83"/>
       <c r="K44" s="83"/>
       <c r="L44" s="83"/>
-      <c r="M44" s="170"/>
+      <c r="M44" s="131"/>
       <c r="N44" s="73"/>
       <c r="O44" s="73"/>
       <c r="P44" s="73"/>
@@ -9321,28 +9553,28 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
     </row>
-    <row r="45" spans="1:26" s="18" customFormat="1" ht="42.5" thickBot="1">
-      <c r="A45" s="147" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="159" t="s">
+    <row r="45" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A45" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="134" t="s">
-        <v>371</v>
-      </c>
-      <c r="D45" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E45" s="169"/>
-      <c r="F45" s="158"/>
+      <c r="C45" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="D45" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E45" s="130"/>
+      <c r="F45" s="122"/>
       <c r="G45" s="91"/>
       <c r="H45" s="70"/>
       <c r="I45" s="70"/>
       <c r="J45" s="70"/>
       <c r="K45" s="70"/>
       <c r="L45" s="70"/>
-      <c r="M45" s="170"/>
+      <c r="M45" s="131"/>
       <c r="N45" s="72"/>
       <c r="O45" s="72"/>
       <c r="P45" s="72"/>
@@ -9357,28 +9589,28 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
     </row>
-    <row r="46" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A46" s="147" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="159" t="s">
+    <row r="46" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A46" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="134" t="s">
-        <v>372</v>
-      </c>
-      <c r="D46" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E46" s="169"/>
-      <c r="F46" s="158"/>
+      <c r="C46" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="D46" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E46" s="130"/>
+      <c r="F46" s="122"/>
       <c r="G46" s="91"/>
       <c r="H46" s="70"/>
       <c r="I46" s="70"/>
       <c r="J46" s="70"/>
       <c r="K46" s="70"/>
       <c r="L46" s="70"/>
-      <c r="M46" s="170"/>
+      <c r="M46" s="131"/>
       <c r="N46" s="72"/>
       <c r="O46" s="72"/>
       <c r="P46" s="72"/>
@@ -9393,28 +9625,28 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A47" s="147" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="159" t="s">
+    <row r="47" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A47" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="134" t="s">
-        <v>373</v>
-      </c>
-      <c r="D47" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E47" s="169"/>
-      <c r="F47" s="158"/>
+      <c r="C47" s="101" t="s">
+        <v>365</v>
+      </c>
+      <c r="D47" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="130"/>
+      <c r="F47" s="122"/>
       <c r="G47" s="91"/>
       <c r="H47" s="70"/>
       <c r="I47" s="70"/>
       <c r="J47" s="70"/>
       <c r="K47" s="70"/>
       <c r="L47" s="70"/>
-      <c r="M47" s="170"/>
+      <c r="M47" s="131"/>
       <c r="N47" s="72"/>
       <c r="O47" s="72"/>
       <c r="P47" s="72"/>
@@ -9429,28 +9661,28 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A48" s="147" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="159" t="s">
+    <row r="48" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A48" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="134" t="s">
-        <v>374</v>
-      </c>
-      <c r="D48" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E48" s="169"/>
-      <c r="F48" s="158"/>
+      <c r="C48" s="101" t="s">
+        <v>366</v>
+      </c>
+      <c r="D48" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="130"/>
+      <c r="F48" s="122"/>
       <c r="G48" s="91"/>
       <c r="H48" s="70"/>
       <c r="I48" s="70"/>
       <c r="J48" s="70"/>
       <c r="K48" s="70"/>
       <c r="L48" s="70"/>
-      <c r="M48" s="170"/>
+      <c r="M48" s="131"/>
       <c r="N48" s="72"/>
       <c r="O48" s="72"/>
       <c r="P48" s="72"/>
@@ -9465,28 +9697,28 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
     </row>
-    <row r="49" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A49" s="147" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="159" t="s">
+    <row r="49" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A49" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="134" t="s">
-        <v>375</v>
-      </c>
-      <c r="D49" s="155" t="s">
-        <v>327</v>
-      </c>
-      <c r="E49" s="171"/>
-      <c r="F49" s="158"/>
+      <c r="C49" s="101" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="E49" s="132"/>
+      <c r="F49" s="122"/>
       <c r="G49" s="91"/>
       <c r="H49" s="70"/>
       <c r="I49" s="70"/>
       <c r="J49" s="70"/>
       <c r="K49" s="70"/>
       <c r="L49" s="70"/>
-      <c r="M49" s="170"/>
+      <c r="M49" s="131"/>
       <c r="N49" s="72"/>
       <c r="O49" s="72"/>
       <c r="P49" s="72"/>
@@ -9501,28 +9733,28 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" spans="1:26" s="18" customFormat="1" ht="29.5" thickBot="1">
-      <c r="A50" s="162" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="159" t="s">
+    <row r="50" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A50" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="136" t="s">
-        <v>329</v>
-      </c>
-      <c r="D50" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E50" s="169"/>
-      <c r="F50" s="158"/>
+      <c r="C50" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E50" s="130"/>
+      <c r="F50" s="122"/>
       <c r="G50" s="91"/>
       <c r="H50" s="70"/>
       <c r="I50" s="70"/>
       <c r="J50" s="70"/>
       <c r="K50" s="70"/>
       <c r="L50" s="70"/>
-      <c r="M50" s="170"/>
+      <c r="M50" s="131"/>
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
       <c r="P50" s="72"/>
@@ -9537,28 +9769,28 @@
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A51" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="157" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="137" t="s">
-        <v>331</v>
-      </c>
-      <c r="D51" s="155" t="s">
-        <v>328</v>
-      </c>
-      <c r="E51" s="169"/>
-      <c r="F51" s="158"/>
+    <row r="51" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="104" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="119" t="s">
+        <v>320</v>
+      </c>
+      <c r="E51" s="130"/>
+      <c r="F51" s="122"/>
       <c r="G51" s="91"/>
       <c r="H51" s="83"/>
       <c r="I51" s="83"/>
       <c r="J51" s="83"/>
       <c r="K51" s="83"/>
       <c r="L51" s="83"/>
-      <c r="M51" s="170"/>
+      <c r="M51" s="131"/>
       <c r="N51" s="73"/>
       <c r="O51" s="73"/>
       <c r="P51" s="73"/>
@@ -9573,28 +9805,28 @@
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
     </row>
-    <row r="52" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A52" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="159" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="134" t="s">
-        <v>376</v>
-      </c>
-      <c r="D52" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E52" s="169"/>
-      <c r="F52" s="158"/>
+    <row r="52" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A52" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="101" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="130"/>
+      <c r="F52" s="122"/>
       <c r="G52" s="91"/>
       <c r="H52" s="70"/>
       <c r="I52" s="70"/>
       <c r="J52" s="70"/>
       <c r="K52" s="70"/>
       <c r="L52" s="70"/>
-      <c r="M52" s="170"/>
+      <c r="M52" s="131"/>
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>
       <c r="P52" s="72"/>
@@ -9609,28 +9841,28 @@
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
     </row>
-    <row r="53" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A53" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="159" t="s">
+    <row r="53" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A53" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="134" t="s">
-        <v>377</v>
-      </c>
-      <c r="D53" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E53" s="169"/>
-      <c r="F53" s="158"/>
+      <c r="C53" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D53" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="130"/>
+      <c r="F53" s="122"/>
       <c r="G53" s="91"/>
       <c r="H53" s="70"/>
       <c r="I53" s="70"/>
       <c r="J53" s="70"/>
       <c r="K53" s="70"/>
       <c r="L53" s="70"/>
-      <c r="M53" s="170"/>
+      <c r="M53" s="131"/>
       <c r="N53" s="72"/>
       <c r="O53" s="72"/>
       <c r="P53" s="72"/>
@@ -9645,28 +9877,28 @@
       <c r="Y53" s="19"/>
       <c r="Z53" s="19"/>
     </row>
-    <row r="54" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A54" s="147" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="134" t="s">
-        <v>378</v>
-      </c>
-      <c r="D54" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="169"/>
-      <c r="F54" s="158"/>
+    <row r="54" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A54" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>370</v>
+      </c>
+      <c r="D54" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54" s="130"/>
+      <c r="F54" s="122"/>
       <c r="G54" s="91"/>
       <c r="H54" s="83"/>
       <c r="I54" s="83"/>
       <c r="J54" s="83"/>
       <c r="K54" s="83"/>
       <c r="L54" s="83"/>
-      <c r="M54" s="170"/>
+      <c r="M54" s="131"/>
       <c r="N54" s="73"/>
       <c r="O54" s="73"/>
       <c r="P54" s="73"/>
@@ -9681,28 +9913,28 @@
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
     </row>
-    <row r="55" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A55" s="147" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="134" t="s">
-        <v>379</v>
-      </c>
-      <c r="D55" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E55" s="169"/>
-      <c r="F55" s="158"/>
+    <row r="55" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A55" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="D55" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="130"/>
+      <c r="F55" s="122"/>
       <c r="G55" s="91"/>
       <c r="H55" s="83"/>
       <c r="I55" s="83"/>
       <c r="J55" s="83"/>
       <c r="K55" s="83"/>
       <c r="L55" s="83"/>
-      <c r="M55" s="170"/>
+      <c r="M55" s="131"/>
       <c r="N55" s="73"/>
       <c r="O55" s="73"/>
       <c r="P55" s="73"/>
@@ -9717,26 +9949,26 @@
       <c r="Y55" s="19"/>
       <c r="Z55" s="19"/>
     </row>
-    <row r="56" spans="1:26" s="18" customFormat="1" ht="29.5" thickBot="1">
-      <c r="A56" s="147" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="159" t="s">
+    <row r="56" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A56" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="136" t="s">
-        <v>330</v>
-      </c>
-      <c r="D56" s="155"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="158"/>
+      <c r="C56" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" s="119"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="122"/>
       <c r="G56" s="91"/>
       <c r="H56" s="70"/>
       <c r="I56" s="70"/>
       <c r="J56" s="70"/>
       <c r="K56" s="70"/>
       <c r="L56" s="70"/>
-      <c r="M56" s="170"/>
+      <c r="M56" s="131"/>
       <c r="N56" s="72"/>
       <c r="O56" s="72"/>
       <c r="P56" s="72"/>
@@ -9751,26 +9983,26 @@
       <c r="Y56" s="19"/>
       <c r="Z56" s="19"/>
     </row>
-    <row r="57" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A57" s="147" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="137" t="s">
-        <v>331</v>
-      </c>
-      <c r="D57" s="155"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="158"/>
+    <row r="57" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A57" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="104" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="119"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="122"/>
       <c r="G57" s="91"/>
       <c r="H57" s="70"/>
       <c r="I57" s="70"/>
       <c r="J57" s="70"/>
       <c r="K57" s="70"/>
       <c r="L57" s="70"/>
-      <c r="M57" s="170"/>
+      <c r="M57" s="131"/>
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
       <c r="P57" s="72"/>
@@ -9785,28 +10017,28 @@
       <c r="Y57" s="19"/>
       <c r="Z57" s="19"/>
     </row>
-    <row r="58" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A58" s="147" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="134" t="s">
-        <v>380</v>
-      </c>
-      <c r="D58" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" s="169"/>
-      <c r="F58" s="158"/>
+    <row r="58" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A58" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="101" t="s">
+        <v>372</v>
+      </c>
+      <c r="D58" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E58" s="130"/>
+      <c r="F58" s="122"/>
       <c r="G58" s="91"/>
       <c r="H58" s="83"/>
       <c r="I58" s="70"/>
       <c r="J58" s="70"/>
       <c r="K58" s="70"/>
       <c r="L58" s="70"/>
-      <c r="M58" s="170"/>
+      <c r="M58" s="131"/>
       <c r="N58" s="72"/>
       <c r="O58" s="72"/>
       <c r="P58" s="72"/>
@@ -9821,28 +10053,28 @@
       <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
     </row>
-    <row r="59" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A59" s="147" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="159" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="134" t="s">
-        <v>381</v>
-      </c>
-      <c r="D59" s="155" t="s">
-        <v>320</v>
-      </c>
-      <c r="E59" s="169"/>
-      <c r="F59" s="158"/>
+    <row r="59" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A59" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="D59" s="119" t="s">
+        <v>312</v>
+      </c>
+      <c r="E59" s="130"/>
+      <c r="F59" s="122"/>
       <c r="G59" s="91"/>
       <c r="H59" s="70"/>
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
       <c r="K59" s="70"/>
       <c r="L59" s="70"/>
-      <c r="M59" s="170"/>
+      <c r="M59" s="131"/>
       <c r="N59" s="72"/>
       <c r="O59" s="72"/>
       <c r="P59" s="72"/>
@@ -9857,28 +10089,28 @@
       <c r="Y59" s="19"/>
       <c r="Z59" s="19"/>
     </row>
-    <row r="60" spans="1:26" s="18" customFormat="1" ht="56.5" thickBot="1">
-      <c r="A60" s="162" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="159" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="134" t="s">
-        <v>382</v>
-      </c>
-      <c r="D60" s="155" t="s">
-        <v>323</v>
-      </c>
-      <c r="E60" s="169"/>
-      <c r="F60" s="158"/>
+    <row r="60" spans="1:26" s="18" customFormat="1" ht="75.75" thickBot="1">
+      <c r="A60" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="101" t="s">
+        <v>374</v>
+      </c>
+      <c r="D60" s="119" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" s="130"/>
+      <c r="F60" s="122"/>
       <c r="G60" s="91"/>
       <c r="H60" s="70"/>
       <c r="I60" s="70"/>
       <c r="J60" s="70"/>
       <c r="K60" s="70"/>
       <c r="L60" s="70"/>
-      <c r="M60" s="170"/>
+      <c r="M60" s="131"/>
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
       <c r="P60" s="72"/>
@@ -9893,28 +10125,28 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A61" s="147" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="134" t="s">
-        <v>383</v>
-      </c>
-      <c r="D61" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E61" s="169"/>
-      <c r="F61" s="158"/>
+    <row r="61" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A61" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E61" s="130"/>
+      <c r="F61" s="122"/>
       <c r="G61" s="91"/>
       <c r="H61" s="70"/>
       <c r="I61" s="70"/>
       <c r="J61" s="70"/>
       <c r="K61" s="70"/>
       <c r="L61" s="70"/>
-      <c r="M61" s="170"/>
+      <c r="M61" s="131"/>
       <c r="N61" s="72"/>
       <c r="O61" s="72"/>
       <c r="P61" s="71"/>
@@ -9929,28 +10161,28 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A62" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="159" t="s">
+    <row r="62" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A62" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="134" t="s">
-        <v>384</v>
-      </c>
-      <c r="D62" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E62" s="169"/>
-      <c r="F62" s="158"/>
+      <c r="C62" s="101" t="s">
+        <v>376</v>
+      </c>
+      <c r="D62" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" s="130"/>
+      <c r="F62" s="122"/>
       <c r="G62" s="91"/>
       <c r="H62" s="70"/>
       <c r="I62" s="70"/>
       <c r="J62" s="70"/>
       <c r="K62" s="70"/>
       <c r="L62" s="70"/>
-      <c r="M62" s="170"/>
+      <c r="M62" s="131"/>
       <c r="N62" s="72"/>
       <c r="O62" s="72"/>
       <c r="P62" s="72"/>
@@ -9965,28 +10197,28 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A63" s="147" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="159" t="s">
+    <row r="63" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A63" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="134" t="s">
-        <v>385</v>
-      </c>
-      <c r="D63" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E63" s="169"/>
-      <c r="F63" s="158"/>
+      <c r="C63" s="101" t="s">
+        <v>377</v>
+      </c>
+      <c r="D63" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" s="130"/>
+      <c r="F63" s="122"/>
       <c r="G63" s="91"/>
       <c r="H63" s="83"/>
       <c r="I63" s="83"/>
       <c r="J63" s="83"/>
       <c r="K63" s="83"/>
       <c r="L63" s="83"/>
-      <c r="M63" s="170"/>
+      <c r="M63" s="131"/>
       <c r="N63" s="73"/>
       <c r="O63" s="73"/>
       <c r="P63" s="73"/>
@@ -10001,28 +10233,28 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A64" s="147" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="159" t="s">
+    <row r="64" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A64" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="134" t="s">
-        <v>386</v>
-      </c>
-      <c r="D64" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E64" s="169"/>
-      <c r="F64" s="158"/>
+      <c r="C64" s="101" t="s">
+        <v>378</v>
+      </c>
+      <c r="D64" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" s="130"/>
+      <c r="F64" s="122"/>
       <c r="G64" s="91"/>
       <c r="H64" s="70"/>
       <c r="I64" s="70"/>
       <c r="J64" s="70"/>
       <c r="K64" s="70"/>
       <c r="L64" s="70"/>
-      <c r="M64" s="170"/>
+      <c r="M64" s="131"/>
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
       <c r="P64" s="72"/>
@@ -10037,28 +10269,28 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A65" s="147" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="159" t="s">
+    <row r="65" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A65" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="134" t="s">
-        <v>387</v>
-      </c>
-      <c r="D65" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E65" s="169"/>
-      <c r="F65" s="158"/>
+      <c r="C65" s="101" t="s">
+        <v>379</v>
+      </c>
+      <c r="D65" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" s="130"/>
+      <c r="F65" s="122"/>
       <c r="G65" s="91"/>
       <c r="H65" s="70"/>
       <c r="I65" s="70"/>
       <c r="J65" s="70"/>
       <c r="K65" s="70"/>
       <c r="L65" s="70"/>
-      <c r="M65" s="170"/>
+      <c r="M65" s="131"/>
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
       <c r="P65" s="72"/>
@@ -10073,28 +10305,28 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="1:26" s="18" customFormat="1" ht="42.5" thickBot="1">
-      <c r="A66" s="147" t="s">
-        <v>129</v>
+    <row r="66" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A66" s="111" t="s">
+        <v>121</v>
       </c>
       <c r="B66" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="134" t="s">
-        <v>388</v>
-      </c>
-      <c r="D66" s="155" t="s">
-        <v>327</v>
-      </c>
-      <c r="E66" s="169"/>
-      <c r="F66" s="158"/>
+      <c r="C66" s="101" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" s="130"/>
+      <c r="F66" s="122"/>
       <c r="G66" s="91"/>
       <c r="H66" s="70"/>
       <c r="I66" s="70"/>
       <c r="J66" s="70"/>
       <c r="K66" s="70"/>
       <c r="L66" s="70"/>
-      <c r="M66" s="170"/>
+      <c r="M66" s="131"/>
       <c r="N66" s="72"/>
       <c r="O66" s="72"/>
       <c r="P66" s="72"/>
@@ -10109,28 +10341,28 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A67" s="147" t="s">
-        <v>130</v>
+    <row r="67" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A67" s="111" t="s">
+        <v>122</v>
       </c>
       <c r="B67" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="134" t="s">
-        <v>389</v>
-      </c>
-      <c r="D67" s="155" t="s">
-        <v>327</v>
-      </c>
-      <c r="E67" s="169"/>
-      <c r="F67" s="158"/>
+      <c r="C67" s="101" t="s">
+        <v>381</v>
+      </c>
+      <c r="D67" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="E67" s="130"/>
+      <c r="F67" s="122"/>
       <c r="G67" s="91"/>
       <c r="H67" s="70"/>
       <c r="I67" s="70"/>
       <c r="J67" s="70"/>
       <c r="K67" s="70"/>
       <c r="L67" s="70"/>
-      <c r="M67" s="170"/>
+      <c r="M67" s="131"/>
       <c r="N67" s="72"/>
       <c r="O67" s="72"/>
       <c r="P67" s="72"/>
@@ -10145,28 +10377,28 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A68" s="147" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="159" t="s">
+    <row r="68" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A68" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="134" t="s">
-        <v>390</v>
-      </c>
-      <c r="D68" s="155" t="s">
-        <v>327</v>
-      </c>
-      <c r="E68" s="169"/>
-      <c r="F68" s="158"/>
+      <c r="C68" s="101" t="s">
+        <v>382</v>
+      </c>
+      <c r="D68" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="E68" s="130"/>
+      <c r="F68" s="122"/>
       <c r="G68" s="91"/>
       <c r="H68" s="70"/>
       <c r="I68" s="70"/>
       <c r="J68" s="70"/>
       <c r="K68" s="70"/>
       <c r="L68" s="70"/>
-      <c r="M68" s="170"/>
+      <c r="M68" s="131"/>
       <c r="N68" s="72"/>
       <c r="O68" s="72"/>
       <c r="P68" s="72"/>
@@ -10181,28 +10413,28 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="1:26" s="18" customFormat="1" ht="42.5" thickBot="1">
-      <c r="A69" s="162" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="157" t="s">
+    <row r="69" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A69" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="134" t="s">
-        <v>391</v>
-      </c>
-      <c r="D69" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E69" s="169"/>
-      <c r="F69" s="158"/>
+      <c r="C69" s="101" t="s">
+        <v>383</v>
+      </c>
+      <c r="D69" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" s="130"/>
+      <c r="F69" s="122"/>
       <c r="G69" s="91"/>
       <c r="H69" s="70"/>
       <c r="I69" s="70"/>
       <c r="J69" s="70"/>
       <c r="K69" s="70"/>
       <c r="L69" s="70"/>
-      <c r="M69" s="170"/>
+      <c r="M69" s="131"/>
       <c r="N69" s="72"/>
       <c r="O69" s="72"/>
       <c r="P69" s="71"/>
@@ -10217,25 +10449,25 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A70" s="144" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="145"/>
-      <c r="C70" s="145"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="145"/>
-      <c r="F70" s="145"/>
-      <c r="G70" s="145"/>
-      <c r="H70" s="184"/>
-      <c r="I70" s="185"/>
-      <c r="J70" s="185"/>
-      <c r="K70" s="185"/>
-      <c r="L70" s="185"/>
-      <c r="M70" s="186"/>
-      <c r="N70" s="186"/>
-      <c r="O70" s="186"/>
-      <c r="P70" s="192"/>
+    <row r="70" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A70" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="197"/>
+      <c r="F70" s="197"/>
+      <c r="G70" s="197"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="143"/>
+      <c r="J70" s="143"/>
+      <c r="K70" s="143"/>
+      <c r="L70" s="143"/>
+      <c r="M70" s="144"/>
+      <c r="N70" s="144"/>
+      <c r="O70" s="144"/>
+      <c r="P70" s="150"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
@@ -10247,21 +10479,21 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A71" s="147" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="160" t="s">
+    <row r="71" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A71" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="135" t="s">
-        <v>392</v>
-      </c>
-      <c r="D71" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E71" s="169"/>
-      <c r="F71" s="158"/>
+      <c r="C71" s="102" t="s">
+        <v>384</v>
+      </c>
+      <c r="D71" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E71" s="130"/>
+      <c r="F71" s="122"/>
       <c r="G71" s="91"/>
       <c r="H71" s="70"/>
       <c r="I71" s="70"/>
@@ -10283,21 +10515,21 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A72" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="160" t="s">
+    <row r="72" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A72" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="135" t="s">
-        <v>393</v>
-      </c>
-      <c r="D72" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E72" s="169"/>
-      <c r="F72" s="158"/>
+      <c r="C72" s="102" t="s">
+        <v>385</v>
+      </c>
+      <c r="D72" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E72" s="130"/>
+      <c r="F72" s="122"/>
       <c r="G72" s="91"/>
       <c r="H72" s="70"/>
       <c r="I72" s="70"/>
@@ -10319,28 +10551,28 @@
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
     </row>
-    <row r="73" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A73" s="147" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="160" t="s">
+    <row r="73" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A73" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="135" t="s">
-        <v>394</v>
-      </c>
-      <c r="D73" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E73" s="169"/>
-      <c r="F73" s="158"/>
+      <c r="C73" s="102" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" s="130"/>
+      <c r="F73" s="122"/>
       <c r="G73" s="91"/>
       <c r="H73" s="70"/>
       <c r="I73" s="70"/>
       <c r="J73" s="70"/>
       <c r="K73" s="70"/>
       <c r="L73" s="70"/>
-      <c r="M73" s="170"/>
+      <c r="M73" s="131"/>
       <c r="N73" s="72"/>
       <c r="O73" s="72"/>
       <c r="P73" s="72"/>
@@ -10355,28 +10587,28 @@
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
     </row>
-    <row r="74" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A74" s="147" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="160" t="s">
+    <row r="74" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A74" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="135" t="s">
-        <v>395</v>
-      </c>
-      <c r="D74" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E74" s="169"/>
-      <c r="F74" s="158"/>
+      <c r="C74" s="102" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E74" s="130"/>
+      <c r="F74" s="122"/>
       <c r="G74" s="91"/>
       <c r="H74" s="70"/>
       <c r="I74" s="70"/>
       <c r="J74" s="70"/>
       <c r="K74" s="70"/>
       <c r="L74" s="70"/>
-      <c r="M74" s="170"/>
+      <c r="M74" s="131"/>
       <c r="N74" s="72"/>
       <c r="O74" s="72"/>
       <c r="P74" s="72"/>
@@ -10391,28 +10623,28 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A75" s="147" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="160" t="s">
+    <row r="75" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A75" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="135" t="s">
-        <v>396</v>
-      </c>
-      <c r="D75" s="135" t="s">
-        <v>332</v>
-      </c>
-      <c r="E75" s="169"/>
-      <c r="F75" s="158"/>
+      <c r="C75" s="102" t="s">
+        <v>388</v>
+      </c>
+      <c r="D75" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="E75" s="130"/>
+      <c r="F75" s="122"/>
       <c r="G75" s="91"/>
       <c r="H75" s="70"/>
       <c r="I75" s="70"/>
       <c r="J75" s="70"/>
       <c r="K75" s="70"/>
       <c r="L75" s="70"/>
-      <c r="M75" s="170"/>
+      <c r="M75" s="131"/>
       <c r="N75" s="72"/>
       <c r="O75" s="72"/>
       <c r="P75" s="72"/>
@@ -10427,28 +10659,28 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
     </row>
-    <row r="76" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A76" s="147" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="160" t="s">
+    <row r="76" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A76" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="135" t="s">
-        <v>397</v>
-      </c>
-      <c r="D76" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E76" s="169"/>
-      <c r="F76" s="158"/>
+      <c r="C76" s="102" t="s">
+        <v>389</v>
+      </c>
+      <c r="D76" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="130"/>
+      <c r="F76" s="122"/>
       <c r="G76" s="91"/>
       <c r="H76" s="83"/>
       <c r="I76" s="70"/>
       <c r="J76" s="70"/>
       <c r="K76" s="70"/>
       <c r="L76" s="70"/>
-      <c r="M76" s="170"/>
+      <c r="M76" s="131"/>
       <c r="N76" s="72"/>
       <c r="O76" s="72"/>
       <c r="P76" s="72"/>
@@ -10464,27 +10696,27 @@
       <c r="Z76" s="19"/>
     </row>
     <row r="77" spans="1:26" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A77" s="147" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="135" t="s">
-        <v>398</v>
-      </c>
-      <c r="D77" s="135" t="s">
-        <v>327</v>
-      </c>
-      <c r="E77" s="169"/>
-      <c r="F77" s="158"/>
+      <c r="A77" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="102" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="E77" s="130"/>
+      <c r="F77" s="122"/>
       <c r="G77" s="91"/>
       <c r="H77" s="70"/>
       <c r="I77" s="70"/>
       <c r="J77" s="70"/>
       <c r="K77" s="70"/>
       <c r="L77" s="70"/>
-      <c r="M77" s="170"/>
+      <c r="M77" s="131"/>
       <c r="N77" s="72"/>
       <c r="O77" s="72"/>
       <c r="P77" s="72"/>
@@ -10499,28 +10731,28 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
     </row>
-    <row r="78" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A78" s="147" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="160" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="135" t="s">
-        <v>399</v>
-      </c>
-      <c r="D78" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E78" s="169"/>
-      <c r="F78" s="158"/>
+    <row r="78" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A78" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="102" t="s">
+        <v>391</v>
+      </c>
+      <c r="D78" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" s="130"/>
+      <c r="F78" s="122"/>
       <c r="G78" s="91"/>
       <c r="H78" s="70"/>
       <c r="I78" s="70"/>
       <c r="J78" s="70"/>
       <c r="K78" s="70"/>
       <c r="L78" s="70"/>
-      <c r="M78" s="170"/>
+      <c r="M78" s="131"/>
       <c r="N78" s="72"/>
       <c r="O78" s="72"/>
       <c r="P78" s="72"/>
@@ -10535,28 +10767,28 @@
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
     </row>
-    <row r="79" spans="1:26" s="18" customFormat="1" ht="42.5" thickBot="1">
-      <c r="A79" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="160" t="s">
+    <row r="79" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A79" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="135" t="s">
-        <v>400</v>
-      </c>
-      <c r="D79" s="135" t="s">
-        <v>323</v>
-      </c>
-      <c r="E79" s="169"/>
-      <c r="F79" s="158"/>
+      <c r="C79" s="102" t="s">
+        <v>392</v>
+      </c>
+      <c r="D79" s="102" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" s="130"/>
+      <c r="F79" s="122"/>
       <c r="G79" s="91"/>
       <c r="H79" s="70"/>
       <c r="I79" s="70"/>
       <c r="J79" s="70"/>
       <c r="K79" s="70"/>
       <c r="L79" s="70"/>
-      <c r="M79" s="170"/>
+      <c r="M79" s="131"/>
       <c r="N79" s="72"/>
       <c r="O79" s="72"/>
       <c r="P79" s="72"/>
@@ -10571,28 +10803,28 @@
       <c r="Y79" s="19"/>
       <c r="Z79" s="19"/>
     </row>
-    <row r="80" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A80" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="160" t="s">
+    <row r="80" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A80" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="135" t="s">
-        <v>401</v>
-      </c>
-      <c r="D80" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" s="169"/>
-      <c r="F80" s="158"/>
+      <c r="C80" s="102" t="s">
+        <v>393</v>
+      </c>
+      <c r="D80" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E80" s="130"/>
+      <c r="F80" s="122"/>
       <c r="G80" s="91"/>
       <c r="H80" s="70"/>
       <c r="I80" s="70"/>
       <c r="J80" s="70"/>
       <c r="K80" s="70"/>
       <c r="L80" s="70"/>
-      <c r="M80" s="170"/>
+      <c r="M80" s="131"/>
       <c r="N80" s="72"/>
       <c r="O80" s="72"/>
       <c r="P80" s="72"/>
@@ -10607,28 +10839,28 @@
       <c r="Y80" s="19"/>
       <c r="Z80" s="19"/>
     </row>
-    <row r="81" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A81" s="147" t="s">
-        <v>144</v>
-      </c>
-      <c r="B81" s="160" t="s">
+    <row r="81" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A81" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="135" t="s">
-        <v>402</v>
-      </c>
-      <c r="D81" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E81" s="169"/>
-      <c r="F81" s="158"/>
+      <c r="C81" s="102" t="s">
+        <v>394</v>
+      </c>
+      <c r="D81" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E81" s="130"/>
+      <c r="F81" s="122"/>
       <c r="G81" s="91"/>
       <c r="H81" s="70"/>
       <c r="I81" s="70"/>
       <c r="J81" s="70"/>
       <c r="K81" s="70"/>
       <c r="L81" s="70"/>
-      <c r="M81" s="170"/>
+      <c r="M81" s="131"/>
       <c r="N81" s="89"/>
       <c r="O81" s="72"/>
       <c r="P81" s="72"/>
@@ -10643,25 +10875,25 @@
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
     </row>
-    <row r="82" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A82" s="144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" s="146"/>
-      <c r="C82" s="146"/>
-      <c r="D82" s="172"/>
-      <c r="E82" s="145"/>
-      <c r="F82" s="145"/>
-      <c r="G82" s="145"/>
-      <c r="H82" s="184"/>
-      <c r="I82" s="185"/>
-      <c r="J82" s="185"/>
-      <c r="K82" s="185"/>
-      <c r="L82" s="185"/>
-      <c r="M82" s="186"/>
-      <c r="N82" s="186"/>
-      <c r="O82" s="186"/>
-      <c r="P82" s="192"/>
+    <row r="82" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A82" s="196" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="198"/>
+      <c r="C82" s="198"/>
+      <c r="D82" s="204"/>
+      <c r="E82" s="197"/>
+      <c r="F82" s="197"/>
+      <c r="G82" s="197"/>
+      <c r="H82" s="142"/>
+      <c r="I82" s="143"/>
+      <c r="J82" s="143"/>
+      <c r="K82" s="143"/>
+      <c r="L82" s="143"/>
+      <c r="M82" s="144"/>
+      <c r="N82" s="144"/>
+      <c r="O82" s="144"/>
+      <c r="P82" s="150"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19"/>
@@ -10673,21 +10905,21 @@
       <c r="Y82" s="19"/>
       <c r="Z82" s="19"/>
     </row>
-    <row r="83" spans="1:26" s="18" customFormat="1" ht="42.5" thickBot="1">
-      <c r="A83" s="154" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="160" t="s">
+    <row r="83" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A83" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="135" t="s">
-        <v>403</v>
-      </c>
-      <c r="D83" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E83" s="169"/>
-      <c r="F83" s="158"/>
+      <c r="C83" s="102" t="s">
+        <v>395</v>
+      </c>
+      <c r="D83" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E83" s="130"/>
+      <c r="F83" s="122"/>
       <c r="G83" s="91"/>
       <c r="H83" s="70"/>
       <c r="I83" s="70"/>
@@ -10709,28 +10941,28 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
     </row>
-    <row r="84" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A84" s="147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" s="160" t="s">
+    <row r="84" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A84" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="135" t="s">
-        <v>404</v>
-      </c>
-      <c r="D84" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E84" s="169"/>
-      <c r="F84" s="158"/>
+      <c r="C84" s="102" t="s">
+        <v>396</v>
+      </c>
+      <c r="D84" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E84" s="130"/>
+      <c r="F84" s="122"/>
       <c r="G84" s="91"/>
       <c r="H84" s="70"/>
       <c r="I84" s="70"/>
       <c r="J84" s="70"/>
       <c r="K84" s="70"/>
       <c r="L84" s="70"/>
-      <c r="M84" s="170"/>
+      <c r="M84" s="131"/>
       <c r="N84" s="72"/>
       <c r="O84" s="72"/>
       <c r="P84" s="72"/>
@@ -10745,21 +10977,21 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
     </row>
-    <row r="85" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A85" s="147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="135" t="s">
-        <v>405</v>
-      </c>
-      <c r="D85" s="135" t="s">
-        <v>327</v>
-      </c>
-      <c r="E85" s="169"/>
-      <c r="F85" s="158"/>
+    <row r="85" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A85" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="102" t="s">
+        <v>397</v>
+      </c>
+      <c r="D85" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="E85" s="130"/>
+      <c r="F85" s="122"/>
       <c r="G85" s="91"/>
       <c r="H85" s="70"/>
       <c r="I85" s="70"/>
@@ -10781,28 +11013,28 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
     </row>
-    <row r="86" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A86" s="147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="160" t="s">
+    <row r="86" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A86" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="135" t="s">
-        <v>406</v>
-      </c>
-      <c r="D86" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E86" s="169"/>
-      <c r="F86" s="158"/>
+      <c r="C86" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="D86" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E86" s="130"/>
+      <c r="F86" s="122"/>
       <c r="G86" s="91"/>
       <c r="H86" s="70"/>
       <c r="I86" s="70"/>
       <c r="J86" s="70"/>
       <c r="K86" s="70"/>
       <c r="L86" s="70"/>
-      <c r="M86" s="170"/>
+      <c r="M86" s="131"/>
       <c r="N86" s="72"/>
       <c r="O86" s="72"/>
       <c r="P86" s="72"/>
@@ -10817,21 +11049,21 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
     </row>
-    <row r="87" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A87" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="C87" s="135" t="s">
-        <v>407</v>
-      </c>
-      <c r="D87" s="135" t="s">
-        <v>327</v>
-      </c>
-      <c r="E87" s="169"/>
-      <c r="F87" s="158"/>
+    <row r="87" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A87" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="D87" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="E87" s="130"/>
+      <c r="F87" s="122"/>
       <c r="G87" s="91"/>
       <c r="H87" s="70"/>
       <c r="I87" s="70"/>
@@ -10853,25 +11085,25 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
     </row>
-    <row r="88" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A88" s="144" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="146"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="145"/>
-      <c r="F88" s="145"/>
-      <c r="G88" s="145"/>
-      <c r="H88" s="184"/>
-      <c r="I88" s="185"/>
-      <c r="J88" s="185"/>
-      <c r="K88" s="185"/>
-      <c r="L88" s="185"/>
-      <c r="M88" s="186"/>
-      <c r="N88" s="186"/>
-      <c r="O88" s="186"/>
-      <c r="P88" s="192"/>
+    <row r="88" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A88" s="196" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="198"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
+      <c r="E88" s="197"/>
+      <c r="F88" s="197"/>
+      <c r="G88" s="197"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="143"/>
+      <c r="J88" s="143"/>
+      <c r="K88" s="143"/>
+      <c r="L88" s="143"/>
+      <c r="M88" s="144"/>
+      <c r="N88" s="144"/>
+      <c r="O88" s="144"/>
+      <c r="P88" s="150"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
@@ -10883,21 +11115,21 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
     </row>
-    <row r="89" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A89" s="154" t="s">
-        <v>152</v>
-      </c>
-      <c r="B89" s="160" t="s">
+    <row r="89" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A89" s="118" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="135" t="s">
-        <v>408</v>
-      </c>
-      <c r="D89" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E89" s="169"/>
-      <c r="F89" s="158"/>
+      <c r="C89" s="102" t="s">
+        <v>400</v>
+      </c>
+      <c r="D89" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E89" s="130"/>
+      <c r="F89" s="122"/>
       <c r="G89" s="91"/>
       <c r="H89" s="70"/>
       <c r="I89" s="70"/>
@@ -10919,28 +11151,28 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
     </row>
-    <row r="90" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A90" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="B90" s="160" t="s">
+    <row r="90" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A90" s="118" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="135" t="s">
-        <v>409</v>
-      </c>
-      <c r="D90" s="135" t="s">
-        <v>327</v>
-      </c>
-      <c r="E90" s="169"/>
-      <c r="F90" s="158"/>
+      <c r="C90" s="102" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="130"/>
+      <c r="F90" s="122"/>
       <c r="G90" s="91"/>
       <c r="H90" s="70"/>
       <c r="I90" s="70"/>
       <c r="J90" s="70"/>
       <c r="K90" s="70"/>
       <c r="L90" s="70"/>
-      <c r="M90" s="170"/>
+      <c r="M90" s="131"/>
       <c r="N90" s="72"/>
       <c r="O90" s="72"/>
       <c r="P90" s="72"/>
@@ -10955,28 +11187,28 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
     </row>
-    <row r="91" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A91" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" s="160" t="s">
+    <row r="91" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A91" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="135" t="s">
-        <v>410</v>
-      </c>
-      <c r="D91" s="135" t="s">
-        <v>333</v>
-      </c>
-      <c r="E91" s="169"/>
-      <c r="F91" s="158"/>
+      <c r="C91" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="D91" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="E91" s="130"/>
+      <c r="F91" s="122"/>
       <c r="G91" s="91"/>
       <c r="H91" s="70"/>
       <c r="I91" s="70"/>
       <c r="J91" s="70"/>
       <c r="K91" s="70"/>
       <c r="L91" s="70"/>
-      <c r="M91" s="153"/>
+      <c r="M91" s="117"/>
       <c r="N91" s="72"/>
       <c r="O91" s="72"/>
       <c r="P91" s="72"/>
@@ -10991,28 +11223,28 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
     </row>
-    <row r="92" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A92" s="154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B92" s="160" t="s">
+    <row r="92" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A92" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="135" t="s">
-        <v>411</v>
-      </c>
-      <c r="D92" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E92" s="169"/>
-      <c r="F92" s="158"/>
+      <c r="C92" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="D92" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E92" s="130"/>
+      <c r="F92" s="122"/>
       <c r="G92" s="91"/>
       <c r="H92" s="70"/>
       <c r="I92" s="70"/>
       <c r="J92" s="70"/>
       <c r="K92" s="70"/>
       <c r="L92" s="70"/>
-      <c r="M92" s="153"/>
+      <c r="M92" s="117"/>
       <c r="N92" s="72"/>
       <c r="O92" s="72"/>
       <c r="P92" s="72"/>
@@ -11027,28 +11259,28 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
     </row>
-    <row r="93" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A93" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" s="157" t="s">
+    <row r="93" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A93" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="135" t="s">
-        <v>412</v>
-      </c>
-      <c r="D93" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E93" s="169"/>
-      <c r="F93" s="158"/>
+      <c r="C93" s="102" t="s">
+        <v>404</v>
+      </c>
+      <c r="D93" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E93" s="130"/>
+      <c r="F93" s="122"/>
       <c r="G93" s="91"/>
       <c r="H93" s="83"/>
       <c r="I93" s="70"/>
       <c r="J93" s="70"/>
       <c r="K93" s="70"/>
       <c r="L93" s="70"/>
-      <c r="M93" s="153"/>
+      <c r="M93" s="117"/>
       <c r="N93" s="72"/>
       <c r="O93" s="72"/>
       <c r="P93" s="72"/>
@@ -11063,25 +11295,25 @@
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
     </row>
-    <row r="94" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A94" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="131"/>
-      <c r="C94" s="183"/>
-      <c r="D94" s="183"/>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="184"/>
-      <c r="I94" s="185"/>
-      <c r="J94" s="185"/>
-      <c r="K94" s="185"/>
-      <c r="L94" s="185"/>
-      <c r="M94" s="186"/>
-      <c r="N94" s="186"/>
-      <c r="O94" s="186"/>
-      <c r="P94" s="192"/>
+    <row r="94" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A94" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="206"/>
+      <c r="C94" s="207"/>
+      <c r="D94" s="207"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="208"/>
+      <c r="G94" s="208"/>
+      <c r="H94" s="142"/>
+      <c r="I94" s="143"/>
+      <c r="J94" s="143"/>
+      <c r="K94" s="143"/>
+      <c r="L94" s="143"/>
+      <c r="M94" s="144"/>
+      <c r="N94" s="144"/>
+      <c r="O94" s="144"/>
+      <c r="P94" s="150"/>
       <c r="Q94" s="19"/>
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
@@ -11093,21 +11325,21 @@
       <c r="Y94" s="19"/>
       <c r="Z94" s="19"/>
     </row>
-    <row r="95" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A95" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="B95" s="160" t="s">
+    <row r="95" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A95" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="135" t="s">
-        <v>413</v>
-      </c>
-      <c r="D95" s="161" t="s">
-        <v>323</v>
-      </c>
-      <c r="E95" s="158"/>
-      <c r="F95" s="158"/>
+      <c r="C95" s="102" t="s">
+        <v>405</v>
+      </c>
+      <c r="D95" s="125" t="s">
+        <v>315</v>
+      </c>
+      <c r="E95" s="122"/>
+      <c r="F95" s="122"/>
       <c r="G95" s="91"/>
       <c r="H95" s="70"/>
       <c r="I95" s="70"/>
@@ -11129,21 +11361,21 @@
       <c r="Y95" s="19"/>
       <c r="Z95" s="19"/>
     </row>
-    <row r="96" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A96" s="147" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96" s="157" t="s">
+    <row r="96" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A96" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="135" t="s">
-        <v>414</v>
-      </c>
-      <c r="D96" s="161" t="s">
-        <v>318</v>
-      </c>
-      <c r="E96" s="158"/>
-      <c r="F96" s="158"/>
+      <c r="C96" s="102" t="s">
+        <v>406</v>
+      </c>
+      <c r="D96" s="125" t="s">
+        <v>310</v>
+      </c>
+      <c r="E96" s="122"/>
+      <c r="F96" s="122"/>
       <c r="G96" s="91"/>
       <c r="H96" s="70"/>
       <c r="I96" s="70"/>
@@ -11165,25 +11397,25 @@
       <c r="Y96" s="19"/>
       <c r="Z96" s="19"/>
     </row>
-    <row r="97" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A97" s="144" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" s="145"/>
-      <c r="C97" s="145"/>
-      <c r="D97" s="145"/>
-      <c r="E97" s="145"/>
-      <c r="F97" s="145"/>
-      <c r="G97" s="145"/>
-      <c r="H97" s="184"/>
-      <c r="I97" s="185"/>
-      <c r="J97" s="185"/>
-      <c r="K97" s="185"/>
-      <c r="L97" s="185"/>
-      <c r="M97" s="186"/>
-      <c r="N97" s="186"/>
-      <c r="O97" s="186"/>
-      <c r="P97" s="192"/>
+    <row r="97" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A97" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="197"/>
+      <c r="C97" s="197"/>
+      <c r="D97" s="197"/>
+      <c r="E97" s="197"/>
+      <c r="F97" s="197"/>
+      <c r="G97" s="197"/>
+      <c r="H97" s="142"/>
+      <c r="I97" s="143"/>
+      <c r="J97" s="143"/>
+      <c r="K97" s="143"/>
+      <c r="L97" s="143"/>
+      <c r="M97" s="144"/>
+      <c r="N97" s="144"/>
+      <c r="O97" s="144"/>
+      <c r="P97" s="150"/>
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="19"/>
@@ -11195,28 +11427,28 @@
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
     </row>
-    <row r="98" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A98" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98" s="157" t="s">
+    <row r="98" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A98" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="138" t="s">
-        <v>415</v>
-      </c>
-      <c r="D98" s="138" t="s">
-        <v>334</v>
-      </c>
-      <c r="E98" s="158"/>
-      <c r="F98" s="158"/>
+      <c r="C98" s="105" t="s">
+        <v>407</v>
+      </c>
+      <c r="D98" s="105" t="s">
+        <v>326</v>
+      </c>
+      <c r="E98" s="122"/>
+      <c r="F98" s="122"/>
       <c r="G98" s="91"/>
       <c r="H98" s="70"/>
       <c r="I98" s="70"/>
       <c r="J98" s="70"/>
       <c r="K98" s="70"/>
       <c r="L98" s="70"/>
-      <c r="M98" s="170"/>
+      <c r="M98" s="131"/>
       <c r="N98" s="71"/>
       <c r="O98" s="72"/>
       <c r="P98" s="72"/>
@@ -11231,25 +11463,25 @@
       <c r="Y98" s="19"/>
       <c r="Z98" s="19"/>
     </row>
-    <row r="99" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A99" s="144" t="s">
-        <v>162</v>
-      </c>
-      <c r="B99" s="146"/>
-      <c r="C99" s="146"/>
-      <c r="D99" s="146"/>
-      <c r="E99" s="145"/>
-      <c r="F99" s="145"/>
-      <c r="G99" s="145"/>
-      <c r="H99" s="184"/>
-      <c r="I99" s="185"/>
-      <c r="J99" s="185"/>
-      <c r="K99" s="185"/>
-      <c r="L99" s="185"/>
-      <c r="M99" s="186"/>
-      <c r="N99" s="186"/>
-      <c r="O99" s="186"/>
-      <c r="P99" s="192"/>
+    <row r="99" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A99" s="196" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="198"/>
+      <c r="C99" s="198"/>
+      <c r="D99" s="198"/>
+      <c r="E99" s="197"/>
+      <c r="F99" s="197"/>
+      <c r="G99" s="197"/>
+      <c r="H99" s="142"/>
+      <c r="I99" s="143"/>
+      <c r="J99" s="143"/>
+      <c r="K99" s="143"/>
+      <c r="L99" s="143"/>
+      <c r="M99" s="144"/>
+      <c r="N99" s="144"/>
+      <c r="O99" s="144"/>
+      <c r="P99" s="150"/>
       <c r="Q99" s="19"/>
       <c r="R99" s="19"/>
       <c r="S99" s="19"/>
@@ -11261,21 +11493,21 @@
       <c r="Y99" s="19"/>
       <c r="Z99" s="19"/>
     </row>
-    <row r="100" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A100" s="154" t="s">
-        <v>163</v>
-      </c>
-      <c r="B100" s="160" t="s">
+    <row r="100" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A100" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="135" t="s">
-        <v>416</v>
-      </c>
-      <c r="D100" s="135" t="s">
-        <v>323</v>
-      </c>
-      <c r="E100" s="171"/>
-      <c r="F100" s="158"/>
+      <c r="C100" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D100" s="102" t="s">
+        <v>315</v>
+      </c>
+      <c r="E100" s="132"/>
+      <c r="F100" s="122"/>
       <c r="G100" s="91"/>
       <c r="H100" s="70"/>
       <c r="I100" s="70"/>
@@ -11297,21 +11529,21 @@
       <c r="Y100" s="19"/>
       <c r="Z100" s="19"/>
     </row>
-    <row r="101" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A101" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101" s="160" t="s">
-        <v>165</v>
-      </c>
-      <c r="C101" s="135" t="s">
-        <v>417</v>
-      </c>
-      <c r="D101" s="135" t="s">
-        <v>323</v>
-      </c>
-      <c r="E101" s="169"/>
-      <c r="F101" s="158"/>
+    <row r="101" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A101" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="102" t="s">
+        <v>409</v>
+      </c>
+      <c r="D101" s="102" t="s">
+        <v>315</v>
+      </c>
+      <c r="E101" s="130"/>
+      <c r="F101" s="122"/>
       <c r="G101" s="91"/>
       <c r="H101" s="70"/>
       <c r="I101" s="83"/>
@@ -11333,21 +11565,21 @@
       <c r="Y101" s="19"/>
       <c r="Z101" s="19"/>
     </row>
-    <row r="102" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A102" s="154" t="s">
-        <v>166</v>
-      </c>
-      <c r="B102" s="160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102" s="135" t="s">
-        <v>418</v>
-      </c>
-      <c r="D102" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E102" s="169"/>
-      <c r="F102" s="158"/>
+    <row r="102" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A102" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E102" s="130"/>
+      <c r="F102" s="122"/>
       <c r="G102" s="91"/>
       <c r="H102" s="70"/>
       <c r="I102" s="70"/>
@@ -11369,25 +11601,25 @@
       <c r="Y102" s="19"/>
       <c r="Z102" s="19"/>
     </row>
-    <row r="103" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A103" s="173" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" s="172"/>
-      <c r="C103" s="172"/>
-      <c r="D103" s="172"/>
-      <c r="E103" s="146"/>
-      <c r="F103" s="146"/>
-      <c r="G103" s="146"/>
-      <c r="H103" s="184"/>
-      <c r="I103" s="185"/>
-      <c r="J103" s="185"/>
-      <c r="K103" s="185"/>
-      <c r="L103" s="185"/>
-      <c r="M103" s="186"/>
-      <c r="N103" s="186"/>
-      <c r="O103" s="186"/>
-      <c r="P103" s="192"/>
+    <row r="103" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A103" s="209" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="204"/>
+      <c r="C103" s="204"/>
+      <c r="D103" s="204"/>
+      <c r="E103" s="198"/>
+      <c r="F103" s="198"/>
+      <c r="G103" s="198"/>
+      <c r="H103" s="142"/>
+      <c r="I103" s="143"/>
+      <c r="J103" s="143"/>
+      <c r="K103" s="143"/>
+      <c r="L103" s="143"/>
+      <c r="M103" s="144"/>
+      <c r="N103" s="144"/>
+      <c r="O103" s="144"/>
+      <c r="P103" s="150"/>
       <c r="Q103" s="19"/>
       <c r="R103" s="19"/>
       <c r="S103" s="19"/>
@@ -11399,21 +11631,21 @@
       <c r="Y103" s="19"/>
       <c r="Z103" s="19"/>
     </row>
-    <row r="104" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A104" s="154" t="s">
-        <v>168</v>
-      </c>
-      <c r="B104" s="160" t="s">
+    <row r="104" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A104" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="135" t="s">
-        <v>419</v>
-      </c>
-      <c r="D104" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E104" s="169"/>
-      <c r="F104" s="158"/>
+      <c r="C104" s="102" t="s">
+        <v>411</v>
+      </c>
+      <c r="D104" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E104" s="130"/>
+      <c r="F104" s="122"/>
       <c r="G104" s="91"/>
       <c r="H104" s="70"/>
       <c r="I104" s="70"/>
@@ -11435,21 +11667,21 @@
       <c r="Y104" s="19"/>
       <c r="Z104" s="19"/>
     </row>
-    <row r="105" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A105" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="B105" s="160" t="s">
+    <row r="105" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A105" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="135" t="s">
-        <v>420</v>
-      </c>
-      <c r="D105" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E105" s="169"/>
-      <c r="F105" s="158"/>
+      <c r="C105" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="D105" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" s="130"/>
+      <c r="F105" s="122"/>
       <c r="G105" s="91"/>
       <c r="H105" s="83"/>
       <c r="I105" s="70"/>
@@ -11471,21 +11703,21 @@
       <c r="Y105" s="19"/>
       <c r="Z105" s="19"/>
     </row>
-    <row r="106" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A106" s="154" t="s">
-        <v>170</v>
-      </c>
-      <c r="B106" s="160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" s="135" t="s">
-        <v>347</v>
-      </c>
-      <c r="D106" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="E106" s="169"/>
-      <c r="F106" s="158"/>
+    <row r="106" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A106" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="D106" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="E106" s="130"/>
+      <c r="F106" s="122"/>
       <c r="G106" s="91"/>
       <c r="H106" s="83"/>
       <c r="I106" s="70"/>
@@ -11507,22 +11739,22 @@
       <c r="Y106" s="19"/>
       <c r="Z106" s="19"/>
     </row>
-    <row r="107" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A107" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="B107" s="160" t="s">
+    <row r="107" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A107" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="139" t="s">
-        <v>421</v>
+      <c r="C107" s="106" t="s">
+        <v>413</v>
       </c>
       <c r="D107" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="E107" s="174"/>
-      <c r="F107" s="208"/>
-      <c r="G107" s="209"/>
+        <v>310</v>
+      </c>
+      <c r="E107" s="133"/>
+      <c r="F107" s="164"/>
+      <c r="G107" s="165"/>
       <c r="H107" s="70"/>
       <c r="I107" s="71"/>
       <c r="J107" s="71"/>
@@ -11543,25 +11775,25 @@
       <c r="Y107" s="19"/>
       <c r="Z107" s="19"/>
     </row>
-    <row r="108" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A108" s="144" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="146"/>
-      <c r="C108" s="172"/>
-      <c r="D108" s="172"/>
-      <c r="E108" s="145"/>
-      <c r="F108" s="145"/>
-      <c r="G108" s="145"/>
-      <c r="H108" s="184"/>
-      <c r="I108" s="185"/>
-      <c r="J108" s="185"/>
-      <c r="K108" s="185"/>
-      <c r="L108" s="185"/>
-      <c r="M108" s="186"/>
-      <c r="N108" s="186"/>
-      <c r="O108" s="186"/>
-      <c r="P108" s="192"/>
+    <row r="108" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A108" s="196" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" s="198"/>
+      <c r="C108" s="204"/>
+      <c r="D108" s="204"/>
+      <c r="E108" s="197"/>
+      <c r="F108" s="197"/>
+      <c r="G108" s="197"/>
+      <c r="H108" s="142"/>
+      <c r="I108" s="143"/>
+      <c r="J108" s="143"/>
+      <c r="K108" s="143"/>
+      <c r="L108" s="143"/>
+      <c r="M108" s="144"/>
+      <c r="N108" s="144"/>
+      <c r="O108" s="144"/>
+      <c r="P108" s="150"/>
       <c r="Q108" s="19"/>
       <c r="R108" s="19"/>
       <c r="S108" s="19"/>
@@ -11573,21 +11805,21 @@
       <c r="Y108" s="19"/>
       <c r="Z108" s="19"/>
     </row>
-    <row r="109" spans="1:26" s="18" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A109" s="175" t="s">
-        <v>173</v>
-      </c>
-      <c r="B109" s="176" t="s">
+    <row r="109" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A109" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="140" t="s">
-        <v>422</v>
-      </c>
-      <c r="D109" s="140" t="s">
-        <v>318</v>
-      </c>
-      <c r="E109" s="169"/>
-      <c r="F109" s="158"/>
+      <c r="C109" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="D109" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="E109" s="130"/>
+      <c r="F109" s="122"/>
       <c r="G109" s="91"/>
       <c r="H109" s="81"/>
       <c r="I109" s="81"/>
@@ -11609,21 +11841,21 @@
       <c r="Y109" s="19"/>
       <c r="Z109" s="19"/>
     </row>
-    <row r="110" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A110" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="B110" s="176" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" s="140" t="s">
-        <v>423</v>
-      </c>
-      <c r="D110" s="140" t="s">
-        <v>327</v>
-      </c>
-      <c r="E110" s="169"/>
-      <c r="F110" s="158"/>
+    <row r="110" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A110" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="D110" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" s="130"/>
+      <c r="F110" s="122"/>
       <c r="G110" s="91"/>
       <c r="H110" s="81"/>
       <c r="I110" s="81"/>
@@ -11645,19 +11877,19 @@
       <c r="Y110" s="19"/>
       <c r="Z110" s="19"/>
     </row>
-    <row r="111" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A111" s="177" t="s">
-        <v>175</v>
-      </c>
-      <c r="B111" s="176"/>
-      <c r="C111" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="D111" s="140" t="s">
-        <v>335</v>
-      </c>
-      <c r="E111" s="169"/>
-      <c r="F111" s="158"/>
+    <row r="111" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A111" s="136" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" s="135"/>
+      <c r="C111" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" s="107" t="s">
+        <v>327</v>
+      </c>
+      <c r="E111" s="130"/>
+      <c r="F111" s="122"/>
       <c r="G111" s="91"/>
       <c r="H111" s="81"/>
       <c r="I111" s="81"/>
@@ -11679,21 +11911,21 @@
       <c r="Y111" s="19"/>
       <c r="Z111" s="19"/>
     </row>
-    <row r="112" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A112" s="177" t="s">
-        <v>177</v>
-      </c>
-      <c r="B112" s="176" t="s">
+    <row r="112" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A112" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="C112" s="140" t="s">
-        <v>424</v>
-      </c>
-      <c r="D112" s="140" t="s">
-        <v>327</v>
-      </c>
-      <c r="E112" s="169"/>
-      <c r="F112" s="158"/>
+      <c r="C112" s="107" t="s">
+        <v>416</v>
+      </c>
+      <c r="D112" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="130"/>
+      <c r="F112" s="122"/>
       <c r="G112" s="91"/>
       <c r="H112" s="81"/>
       <c r="I112" s="81"/>
@@ -11715,25 +11947,25 @@
       <c r="Y112" s="19"/>
       <c r="Z112" s="19"/>
     </row>
-    <row r="113" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A113" s="144" t="s">
-        <v>178</v>
-      </c>
-      <c r="B113" s="146"/>
-      <c r="C113" s="172"/>
-      <c r="D113" s="172"/>
-      <c r="E113" s="145"/>
-      <c r="F113" s="145"/>
-      <c r="G113" s="145"/>
-      <c r="H113" s="184"/>
-      <c r="I113" s="185"/>
-      <c r="J113" s="185"/>
-      <c r="K113" s="185"/>
-      <c r="L113" s="185"/>
-      <c r="M113" s="186"/>
-      <c r="N113" s="186"/>
-      <c r="O113" s="186"/>
-      <c r="P113" s="192"/>
+    <row r="113" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A113" s="196" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="198"/>
+      <c r="C113" s="204"/>
+      <c r="D113" s="204"/>
+      <c r="E113" s="197"/>
+      <c r="F113" s="197"/>
+      <c r="G113" s="197"/>
+      <c r="H113" s="142"/>
+      <c r="I113" s="143"/>
+      <c r="J113" s="143"/>
+      <c r="K113" s="143"/>
+      <c r="L113" s="143"/>
+      <c r="M113" s="144"/>
+      <c r="N113" s="144"/>
+      <c r="O113" s="144"/>
+      <c r="P113" s="150"/>
       <c r="Q113" s="19"/>
       <c r="R113" s="19"/>
       <c r="S113" s="19"/>
@@ -11745,21 +11977,21 @@
       <c r="Y113" s="19"/>
       <c r="Z113" s="19"/>
     </row>
-    <row r="114" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A114" s="175" t="s">
-        <v>179</v>
-      </c>
-      <c r="B114" s="176" t="s">
+    <row r="114" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A114" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="140" t="s">
-        <v>425</v>
-      </c>
-      <c r="D114" s="140" t="s">
-        <v>318</v>
-      </c>
-      <c r="E114" s="169"/>
-      <c r="F114" s="158"/>
+      <c r="C114" s="107" t="s">
+        <v>417</v>
+      </c>
+      <c r="D114" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="E114" s="130"/>
+      <c r="F114" s="122"/>
       <c r="G114" s="91"/>
       <c r="H114" s="81"/>
       <c r="I114" s="81"/>
@@ -11781,21 +12013,21 @@
       <c r="Y114" s="19"/>
       <c r="Z114" s="19"/>
     </row>
-    <row r="115" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A115" s="175" t="s">
-        <v>180</v>
-      </c>
-      <c r="B115" s="178" t="s">
+    <row r="115" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A115" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="140" t="s">
-        <v>426</v>
-      </c>
-      <c r="D115" s="140" t="s">
-        <v>318</v>
-      </c>
-      <c r="E115" s="169"/>
-      <c r="F115" s="158"/>
+      <c r="C115" s="107" t="s">
+        <v>418</v>
+      </c>
+      <c r="D115" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="E115" s="130"/>
+      <c r="F115" s="122"/>
       <c r="G115" s="91"/>
       <c r="H115" s="83"/>
       <c r="I115" s="81"/>
@@ -11817,22 +12049,22 @@
       <c r="Y115" s="19"/>
       <c r="Z115" s="19"/>
     </row>
-    <row r="116" spans="1:26" s="18" customFormat="1" ht="15" thickBot="1">
-      <c r="A116" s="179" t="s">
-        <v>181</v>
-      </c>
-      <c r="B116" s="176" t="s">
-        <v>87</v>
-      </c>
-      <c r="C116" s="140" t="s">
-        <v>427</v>
-      </c>
-      <c r="D116" s="140" t="s">
-        <v>318</v>
-      </c>
-      <c r="E116" s="180"/>
-      <c r="F116" s="181"/>
-      <c r="G116" s="182"/>
+    <row r="116" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A116" s="138" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" s="107" t="s">
+        <v>419</v>
+      </c>
+      <c r="D116" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="E116" s="139"/>
+      <c r="F116" s="140"/>
+      <c r="G116" s="141"/>
       <c r="H116" s="83"/>
       <c r="I116" s="81"/>
       <c r="J116" s="81"/>
@@ -15681,11 +15913,6 @@
   </sheetData>
   <autoFilter ref="B1:B473" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="R6:U17"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A108:G108"/>
@@ -15696,6 +15923,11 @@
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A103:G103"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="36" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B87C57-6F7C-49A1-BF0D-C30A6E11447E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F5CC24-DCDD-4252-AB96-FB0C18C04CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="443">
   <si>
     <t>TR.A.1</t>
   </si>
@@ -110,16 +110,10 @@
     <t>Web GUI</t>
   </si>
   <si>
-    <t>LAN/WLAN</t>
-  </si>
-  <si>
     <t>WLAN</t>
   </si>
   <si>
     <t xml:space="preserve">Antwort: </t>
-  </si>
-  <si>
-    <t>Die WLAN Schnitstelle ist in/kompatibel</t>
   </si>
   <si>
     <t>WiFI Simple Configuration nicht vorhanden .</t>
@@ -677,22 +671,10 @@
     <t>initialized</t>
   </si>
   <si>
-    <t>PSK WiFi: 1234567899876543210</t>
-  </si>
-  <si>
-    <t>Einzigartig</t>
-  </si>
-  <si>
-    <t>Abfrage bei Konfiguration des WLAN Zugangs, wird im Rahmen der Konfiguration geändert</t>
-  </si>
-  <si>
     <t>The applicant MUST detail the mechanism showing the strength of a new desired PSK of a WLAN access profile.</t>
   </si>
   <si>
     <t>Antwort</t>
-  </si>
-  <si>
-    <t>Die Stärke des Passworts wird durch mehrere nebeneinander liegende Balken angezeigt, die sich je nach Stärke des Passwortes füllen. Linke Unterschrift: sehr schwach, rechte Unterschrift: Stark</t>
   </si>
   <si>
     <t>Module B - Public network</t>
@@ -804,9 +786,6 @@
     <t>web server</t>
   </si>
   <si>
-    <t>8-12 alphanumerical characters, and some special characters !"§$%&amp;/()=+#,;.:-_</t>
-  </si>
-  <si>
     <t>The following access methods accept a preset password for end-user authentication. The generation method for the preset password should be disclosed. The applicant MUST detail if the preset password is unique per device.</t>
   </si>
   <si>
@@ -814,12 +793,6 @@
   </si>
   <si>
     <t>Password unique per device?</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>WiFi PSK</t>
   </si>
   <si>
     <t>procedure</t>
@@ -902,9 +875,6 @@
     <t>Authentication mechanism</t>
   </si>
   <si>
-    <t>digital signature</t>
-  </si>
-  <si>
     <t>The applicant MUST provide information about the processes and mechanisms to inform the end-user about firmware updates fixing common vulnerabilities and exposures that have a high severity.</t>
   </si>
   <si>
@@ -1075,15 +1045,6 @@
     </r>
   </si>
   <si>
-    <t>1234/tcp</t>
-  </si>
-  <si>
-    <t>Beliebiges WAN-Interface</t>
-  </si>
-  <si>
-    <t>Remote Configuration…</t>
-  </si>
-  <si>
     <t>customized</t>
   </si>
   <si>
@@ -1093,27 +1054,15 @@
     <t xml:space="preserve"> Module C - Functionalities</t>
   </si>
   <si>
-    <t>The DUT provides the following functionalities. The applicant MUST list all functionalities according to the clarification given below. The applicant MUST provide information about the state(s) where active by default and MUST refer to the corresponding technical documentation (see Table 3, TechnicalDocumentation Reference). ClarificationTypical functionalities to be listed are e.g. WLAN support, DHCP client and server implementation, Firewall,IPv6, VoIP, ssh access, DynDNS client or VPN support, Smart Home functionalities, storage solutions likenetwork attached storage (NAS), DECT support. Those functionalities are also typically listed in themarketing material of the manufacturer.Note that also non security relevant functionalities are addressed by this Module C. The intention is toprovide a complete list of the DUT's functionality to the tester. The tester should be able to decide the testscope and whether or not a functionality is security relevant. It is not the intention of the following listing to provide details about obviously irrelevant functionalitieslike LEDs, buzzer, support for voice encryption, call forwarding, ESATA or USB connections.</t>
-  </si>
-  <si>
     <t>WiFi</t>
   </si>
   <si>
-    <t>Smart Home Server</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
     <t>Firewall, ständig aktiv, nicht deaktivierbar</t>
   </si>
   <si>
-    <t>Mobile App</t>
-  </si>
-  <si>
-    <t>Mobile App um zu konfigurieren,etc. …</t>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -1138,18 +1087,9 @@
     </r>
   </si>
   <si>
-    <t>password policy x</t>
-  </si>
-  <si>
     <t>Gerätepasswort</t>
   </si>
   <si>
-    <t>Zugang zur Gerätekonfiguration über web-Schnittstelle</t>
-  </si>
-  <si>
-    <t>Schlüssel für WiFi</t>
-  </si>
-  <si>
     <t>If passwords are used to restrict access to a method listed before the following password policies are implemented.</t>
   </si>
   <si>
@@ -1160,9 +1100,6 @@
   </si>
   <si>
     <t xml:space="preserve"> A - Login über Webinterface mit dem Browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B - Login über App</t>
   </si>
   <si>
     <t>Beschreiben wie Login ü. App funktioniert</t>
@@ -1250,15 +1187,6 @@
     <t>Manuelles Update</t>
   </si>
   <si>
-    <t>Automatisches Updates</t>
-  </si>
-  <si>
-    <t>Remote Update</t>
-  </si>
-  <si>
-    <t>Beschreibung…</t>
-  </si>
-  <si>
     <t>Firmware package files MUST be authenticated by the DUT. The following mechanisms are implemented to provide this functionality. The applicant MUST list all mechanisms and MUST provide a short description as well as a reference to the corresponding technical documentation (see Table Technical Documentation Reference).</t>
   </si>
   <si>
@@ -3952,6 +3880,105 @@
   </si>
   <si>
     <t xml:space="preserve">	OpenWrt 19.07.4 r11208-ce6496d796 / LuCI openwrt-19.07 branch git-20.247.75781-0d0ab01</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>Factory Setting</t>
+  </si>
+  <si>
+    <t>Customized</t>
+  </si>
+  <si>
+    <t>Die WLAN Schnitstelle ist kompatibel</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/network/wifi/wireless.utilities.wpa-supplicant</t>
+  </si>
+  <si>
+    <t>5 Ghz Wifi</t>
+  </si>
+  <si>
+    <t>All incoming traffic is blocked by the firewall in all states except when this rule is deleted, thus opening all private interfaces to the public</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>Die Stärke des Passworts wird nicht bewertet</t>
+  </si>
+  <si>
+    <t>The DUT provides the following functionalities. The applicant MUST list all functionalities according to the clarification given below. The applicant MUST provide information about the state(s) where active by default and MUST refer to the corresponding technical documentation (see Table 3, TechnicalDocumentation Reference). ClarificationTypical functionalities to be listed are e.g. WLAN support, DHCP client and server implementation, Firewall,IPv6, VoIP, ssh access, DynDNS client or VPN support, Smart Home functionalities, storage solutions likenetwork attached storage (NAS), DECT support. Those functionalities are also typically listed in themarketing material of the manufacturer.Note that also non security relevant functionalities are addressed by this Module C. The intention is to provide a complete list of the DUT's functionality to the tester. The tester should be able to decide the testscope and whether or not a functionality is security relevant. It is not the intention of the following listing to provide details about obviously irrelevant functionalitieslike LEDs, buzzer, support for voice encryption, call forwarding, ESATA or USB connections.</t>
+  </si>
+  <si>
+    <t>ssh access</t>
+  </si>
+  <si>
+    <t>ssh root access to the device</t>
+  </si>
+  <si>
+    <t>Luci Interface for configurartion running on port 56 (root access)</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B - Login über SSH</t>
+  </si>
+  <si>
+    <t>user input</t>
+  </si>
+  <si>
+    <t>Zugang zur Gerätekonfiguration über web-Schnittstelle &amp; ssh</t>
+  </si>
+  <si>
+    <t>ssh is providing full root access to the device. The Luci Interface is also running as root while not providing all configuration options available over the cli</t>
+  </si>
+  <si>
+    <t>welche gibt es noch?</t>
+  </si>
+  <si>
+    <t>gut so?</t>
+  </si>
+  <si>
+    <t>Nachforschung</t>
+  </si>
+  <si>
+    <t>User manually installs an update file via cli or webinterface</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/installation/generic.sysupgrade</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-quick-start/sysupgrade.luci</t>
+  </si>
+  <si>
+    <t>no such mechanism in use</t>
+  </si>
+  <si>
+    <t>infos und doku?</t>
+  </si>
+  <si>
+    <t>Information regarding vulnerabilities and security advisories are placed in a prominently positioned article on the website. https://openwrt.org/docs/guide-developer/security</t>
+  </si>
+  <si>
+    <t>EoS information is available from the release of each major version and prominently positioned on the navigation bar of the website under "security" https://openwrt.org/docs/guide-developer/security</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/firewall/fw3_network</t>
+  </si>
+  <si>
+    <t>OpenWrt uses an open source component called firewall3 (fw3). Fw3 is a netfilter/iptable rule builder application. These rulles are then passed to the firewall in the linux kernel (iptables / netfilter). All firewall componentes are completely open source. https://openwrt.org/docs/guide-user/firewall/overview https://netfilter.org/projects/iptables/index.html</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/techref/odhcpd</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/base-system/dhcp_configuration</t>
   </si>
 </sst>
 </file>
@@ -4749,7 +4776,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -4902,7 +4929,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5246,30 +5272,118 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5278,49 +5392,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5330,18 +5445,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5353,83 +5456,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40 % - Akzent3" xfId="3" builtinId="39"/>
@@ -5719,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5733,32 +5769,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="173" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
+      <c r="A2" s="168" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="191"/>
+      <c r="A6" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="189"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -5771,182 +5807,182 @@
     </row>
     <row r="7" spans="1:11" ht="25.5" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="192" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="213"/>
+      <c r="A14" s="190" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="191"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
       <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="217" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="218"/>
-      <c r="D15" s="219"/>
+      <c r="B15" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A16" s="211" t="s">
-        <v>425</v>
-      </c>
-      <c r="B16" s="220" t="s">
-        <v>429</v>
-      </c>
-      <c r="C16" s="221"/>
-      <c r="D16" s="222"/>
+      <c r="A16" s="166" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="179" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="180"/>
+      <c r="D16" s="181"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A17" s="212" t="s">
-        <v>424</v>
-      </c>
-      <c r="B17" s="214" t="s">
-        <v>430</v>
-      </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="216"/>
+      <c r="A17" s="167" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="182" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="183"/>
+      <c r="D17" s="184"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A18" s="212" t="s">
-        <v>423</v>
-      </c>
-      <c r="B18" s="214" t="s">
-        <v>428</v>
-      </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="216"/>
+      <c r="A18" s="167" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="182" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A19" s="212" t="s">
-        <v>426</v>
-      </c>
-      <c r="B19" s="214" t="s">
-        <v>432</v>
-      </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="216"/>
+      <c r="A19" s="167" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="182" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A20" s="212" t="s">
-        <v>427</v>
-      </c>
-      <c r="B20" s="214" t="s">
-        <v>431</v>
-      </c>
-      <c r="C20" s="215"/>
-      <c r="D20" s="216"/>
+      <c r="A20" s="167" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="182" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A23" s="193" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="223"/>
+      <c r="A23" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="171"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="224" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="B24" s="176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B25" s="220" t="s">
-        <v>429</v>
-      </c>
-      <c r="C25" s="221"/>
-      <c r="D25" s="222"/>
+        <v>401</v>
+      </c>
+      <c r="B25" s="179" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" s="180"/>
+      <c r="D25" s="181"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B26" s="214" t="s">
-        <v>430</v>
-      </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="216"/>
+        <v>400</v>
+      </c>
+      <c r="B26" s="182" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="183"/>
+      <c r="D26" s="184"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B27" s="214" t="s">
-        <v>428</v>
-      </c>
-      <c r="C27" s="215"/>
-      <c r="D27" s="216"/>
+        <v>399</v>
+      </c>
+      <c r="B27" s="182" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="183"/>
+      <c r="D27" s="184"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B28" s="214" t="s">
-        <v>432</v>
-      </c>
-      <c r="C28" s="215"/>
-      <c r="D28" s="216"/>
+        <v>402</v>
+      </c>
+      <c r="B28" s="182" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="183"/>
+      <c r="D28" s="184"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B29" s="214" t="s">
-        <v>431</v>
-      </c>
-      <c r="C29" s="215"/>
-      <c r="D29" s="216"/>
+        <v>403</v>
+      </c>
+      <c r="B29" s="182" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="183"/>
+      <c r="D29" s="184"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="210"/>
-      <c r="B30" s="210"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="165"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
@@ -5954,35 +5990,35 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A32" s="187" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
+      <c r="A32" s="172" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="35" spans="1:5" ht="15.75" thickBot="1">
       <c r="A35" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>45</v>
-      </c>
       <c r="E35" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1">
       <c r="A36" s="9" t="s">
-        <v>26</v>
+        <v>410</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>22</v>
@@ -5999,10 +6035,10 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
       <c r="A37" s="9" t="s">
-        <v>9</v>
+        <v>410</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>9</v>
@@ -6016,10 +6052,10 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="9" t="s">
-        <v>9</v>
+        <v>410</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>9</v>
+        <v>412</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>9</v>
@@ -6033,7 +6069,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>9</v>
@@ -6050,7 +6086,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1">
       <c r="A40" s="9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>9</v>
@@ -6067,7 +6103,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1">
       <c r="A41" s="9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>9</v>
@@ -6151,35 +6187,35 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="57" customHeight="1">
-      <c r="A48" s="187" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="187"/>
-      <c r="C48" s="187"/>
-      <c r="D48" s="187"/>
-      <c r="E48" s="187"/>
+      <c r="A48" s="172" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="172"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
     <row r="50" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
       <c r="A50" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A51" s="55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C51" s="55" t="s">
         <v>9</v>
@@ -6266,83 +6302,91 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A59" s="187" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="187"/>
-      <c r="C59" s="187"/>
-      <c r="D59" s="187"/>
-      <c r="E59" s="187"/>
+      <c r="A59" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="172"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="172"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="10"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>413</v>
+      </c>
+      <c r="C61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="C62" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="36" customHeight="1">
-      <c r="A64" s="187" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="187"/>
-      <c r="C64" s="187"/>
-      <c r="D64" s="187"/>
+      <c r="A64" s="172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="172"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="172"/>
       <c r="E64" s="8"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
         <v>28</v>
       </c>
-      <c r="B66" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="187" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="187"/>
-      <c r="C69" s="187"/>
-      <c r="D69" s="187"/>
+      <c r="A69" s="172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="71" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A71" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1">
       <c r="A72" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1">
       <c r="A73" s="9" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>9</v>
@@ -6353,7 +6397,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>9</v>
@@ -6364,7 +6408,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>9</v>
@@ -6375,7 +6419,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>9</v>
@@ -6386,49 +6430,41 @@
         <v>9</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A80" s="188" t="s">
-        <v>189</v>
-      </c>
-      <c r="B80" s="188"/>
-      <c r="C80" s="184"/>
-      <c r="D80" s="184"/>
-      <c r="E80" s="184"/>
+      <c r="A80" s="185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="185"/>
+      <c r="C80" s="186"/>
+      <c r="D80" s="186"/>
+      <c r="E80" s="186"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="82" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
       <c r="A82" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B82" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="83" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A83" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>196</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1">
       <c r="A84" s="5" t="s">
@@ -6501,60 +6537,56 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="189" t="s">
-        <v>197</v>
-      </c>
-      <c r="B91" s="189"/>
-    </row>
-    <row r="93" spans="1:4" ht="45">
+      <c r="A91" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="187"/>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>199</v>
+        <v>419</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A97" s="183" t="s">
-        <v>201</v>
-      </c>
-      <c r="B97" s="184"/>
-      <c r="C97" s="184"/>
-      <c r="D97" s="184"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1"/>
+      <c r="A97" s="195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="186"/>
+      <c r="C97" s="186"/>
+      <c r="D97" s="186"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A98" t="s">
+        <v>416</v>
+      </c>
+    </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1">
       <c r="A99" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A100" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="B100" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="C100" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="D100" s="61" t="s">
-        <v>259</v>
-      </c>
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="61"/>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1">
       <c r="A101" s="55" t="s">
@@ -6567,7 +6599,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1">
@@ -6581,7 +6613,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1">
@@ -6595,7 +6627,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1">
@@ -6609,7 +6641,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1">
@@ -6623,7 +6655,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6645,39 +6677,39 @@
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A109" s="180" t="s">
-        <v>205</v>
-      </c>
-      <c r="B109" s="180"/>
-      <c r="C109" s="181"/>
-      <c r="D109" s="181"/>
+      <c r="A109" s="193" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="193"/>
+      <c r="C109" s="194"/>
+      <c r="D109" s="194"/>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1">
       <c r="A110" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="45.75" thickBot="1">
       <c r="A111" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="B111" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>177</v>
-      </c>
       <c r="D111" s="60" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1">
@@ -6711,9 +6743,9 @@
       <c r="D116" s="57"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="185"/>
-      <c r="B117" s="185"/>
-      <c r="C117" s="186"/>
+      <c r="A117" s="196"/>
+      <c r="B117" s="196"/>
+      <c r="C117" s="197"/>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4">
@@ -6724,71 +6756,71 @@
     </row>
     <row r="119" spans="1:4" ht="20.25">
       <c r="A119" s="38" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A120" s="179" t="s">
-        <v>265</v>
-      </c>
-      <c r="B120" s="179"/>
-      <c r="C120" s="173"/>
-      <c r="D120" s="173"/>
+      <c r="A120" s="192" t="s">
+        <v>420</v>
+      </c>
+      <c r="B120" s="192"/>
+      <c r="C120" s="168"/>
+      <c r="D120" s="168"/>
     </row>
     <row r="121" spans="1:4" ht="29.25" thickBot="1">
       <c r="A121" s="27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:4" ht="30.75" thickBot="1">
       <c r="A122" s="55" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C122" s="57" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4" ht="15.75" thickBot="1">
       <c r="A123" s="55" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B123" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C123" s="57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1">
       <c r="A124" s="55" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="B124" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C124" s="57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" ht="15.75" thickBot="1">
       <c r="A125" s="55" t="s">
-        <v>9</v>
+        <v>418</v>
       </c>
       <c r="B125" s="55" t="s">
         <v>9</v>
@@ -6914,53 +6946,53 @@
     </row>
     <row r="136" spans="1:4" ht="20.25">
       <c r="A136" s="38" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A137" s="179" t="s">
-        <v>212</v>
-      </c>
-      <c r="B137" s="179"/>
-      <c r="C137" s="173"/>
-      <c r="D137" s="173"/>
+      <c r="A137" s="192" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137" s="192"/>
+      <c r="C137" s="168"/>
+      <c r="D137" s="168"/>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1">
       <c r="A138" s="27" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1">
       <c r="A139" s="55" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B139" s="55" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="C139" s="56" t="s">
-        <v>9</v>
+        <v>424</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1">
       <c r="A140" s="55" t="s">
-        <v>270</v>
+        <v>421</v>
       </c>
       <c r="B140" s="55" t="s">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="C140" s="56" t="s">
-        <v>273</v>
+        <v>424</v>
       </c>
       <c r="D140" s="2"/>
     </row>
@@ -6969,18 +7001,16 @@
         <v>9</v>
       </c>
       <c r="B141" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C141" s="56" t="s">
-        <v>188</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C141" s="56"/>
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="166" t="s">
-        <v>278</v>
-      </c>
-      <c r="B142" s="166"/>
+      <c r="A142" s="199" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" s="199"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
@@ -6991,30 +7021,26 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A144" s="179" t="s">
-        <v>277</v>
-      </c>
-      <c r="B144" s="179"/>
-      <c r="C144" s="173"/>
-      <c r="D144" s="173"/>
+      <c r="A144" s="192" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" s="192"/>
+      <c r="C144" s="168"/>
+      <c r="D144" s="168"/>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1">
       <c r="A145" s="27" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A146" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="B146" s="57" t="s">
-        <v>216</v>
-      </c>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A146" s="55"/>
+      <c r="B146" s="57"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
@@ -7043,54 +7069,46 @@
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A151" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="B151" s="180"/>
-      <c r="C151" s="181"/>
-      <c r="D151" s="181"/>
+      <c r="A151" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" s="193"/>
+      <c r="C151" s="194"/>
+      <c r="D151" s="194"/>
     </row>
     <row r="152" spans="1:4" ht="29.25" thickBot="1">
       <c r="A152" s="27" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1">
       <c r="A153" s="55" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B153" s="55" t="s">
-        <v>275</v>
+        <v>427</v>
       </c>
       <c r="C153" s="55" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="D153" s="57" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A154" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="B154" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="C154" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D154" s="57" t="s">
-        <v>220</v>
-      </c>
+      <c r="A154" s="55"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="55"/>
+      <c r="D154" s="57"/>
     </row>
     <row r="155" spans="1:4" ht="15.75" thickBot="1">
       <c r="A155" s="55" t="s">
@@ -7122,7 +7140,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B157" s="23"/>
       <c r="C157" s="2"/>
@@ -7135,44 +7153,44 @@
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" ht="39" customHeight="1" thickBot="1">
-      <c r="A159" s="167" t="s">
-        <v>279</v>
-      </c>
-      <c r="B159" s="167"/>
+      <c r="A159" s="198" t="s">
+        <v>259</v>
+      </c>
+      <c r="B159" s="198"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1">
       <c r="A160" s="27" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1">
+    <row r="161" spans="1:7" ht="15.75" thickBot="1">
       <c r="A161" s="55" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B161" s="57" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1">
+    <row r="162" spans="1:7" ht="15.75" thickBot="1">
       <c r="A162" s="55" t="s">
-        <v>281</v>
+        <v>425</v>
       </c>
       <c r="B162" s="57" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1">
+    <row r="163" spans="1:7" ht="15.75" thickBot="1">
       <c r="A163" s="55" t="s">
         <v>9</v>
       </c>
@@ -7182,68 +7200,76 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="166" t="s">
-        <v>223</v>
-      </c>
-      <c r="B164" s="166"/>
+    <row r="164" spans="1:7">
+      <c r="A164" s="199" t="s">
+        <v>214</v>
+      </c>
+      <c r="B164" s="199"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:7">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:4" ht="53.25" customHeight="1">
-      <c r="A166" s="171" t="s">
-        <v>224</v>
-      </c>
-      <c r="B166" s="171"/>
-      <c r="C166" s="173"/>
-      <c r="D166" s="173"/>
-    </row>
-    <row r="167" spans="1:4" ht="24" customHeight="1">
+    <row r="166" spans="1:7" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A166" s="200" t="s">
+        <v>215</v>
+      </c>
+      <c r="B166" s="200"/>
+      <c r="C166" s="168"/>
+      <c r="D166" s="168"/>
+    </row>
+    <row r="167" spans="1:7" ht="24" customHeight="1" thickBot="1">
       <c r="A167" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B167" s="62"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:4">
+        <v>216</v>
+      </c>
+      <c r="B167" s="227" t="s">
+        <v>428</v>
+      </c>
+      <c r="C167" s="226"/>
+      <c r="D167" s="228"/>
+      <c r="F167" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" ht="75.75" customHeight="1">
-      <c r="A169" s="182" t="s">
-        <v>226</v>
-      </c>
-      <c r="B169" s="182"/>
-      <c r="C169" s="173"/>
-      <c r="D169" s="173"/>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1">
+    <row r="169" spans="1:7" ht="75.75" customHeight="1">
+      <c r="A169" s="201" t="s">
+        <v>217</v>
+      </c>
+      <c r="B169" s="201"/>
+      <c r="C169" s="168"/>
+      <c r="D169" s="168"/>
+      <c r="F169" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4" ht="22.5" customHeight="1" thickBot="1">
+    <row r="171" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A171" s="53" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B171" s="53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1">
       <c r="A172" s="55" t="s">
         <v>9</v>
       </c>
@@ -7253,8 +7279,9 @@
       <c r="C172" s="56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1">
+      <c r="G172" s="229"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1">
       <c r="A173" s="55" t="s">
         <v>9</v>
       </c>
@@ -7264,8 +7291,9 @@
       <c r="C173" s="56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1">
+      <c r="G173" s="229"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1">
       <c r="A174" s="55" t="s">
         <v>9</v>
       </c>
@@ -7276,167 +7304,166 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="166"/>
-      <c r="B175" s="166"/>
-    </row>
-    <row r="176" spans="1:4">
+    <row r="175" spans="1:7">
+      <c r="A175" s="199"/>
+      <c r="B175" s="199"/>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="41"/>
       <c r="B176" s="41"/>
     </row>
-    <row r="177" spans="1:4" ht="63" customHeight="1" thickBot="1">
-      <c r="A177" s="180" t="s">
-        <v>229</v>
-      </c>
-      <c r="B177" s="180"/>
-      <c r="C177" s="181"/>
-      <c r="D177" s="181"/>
-    </row>
-    <row r="178" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+    <row r="177" spans="1:6" ht="63" customHeight="1" thickBot="1">
+      <c r="A177" s="193" t="s">
+        <v>220</v>
+      </c>
+      <c r="B177" s="193"/>
+      <c r="C177" s="194"/>
+      <c r="D177" s="194"/>
+    </row>
+    <row r="178" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
       <c r="A178" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C178" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1">
       <c r="A179" s="55" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B179" s="55"/>
       <c r="C179" s="55"/>
       <c r="D179" s="57"/>
     </row>
-    <row r="180" spans="1:4" ht="15.75" thickBot="1">
+    <row r="180" spans="1:6" ht="15.75" thickBot="1">
       <c r="A180" s="55" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B180" s="55"/>
       <c r="C180" s="55"/>
       <c r="D180" s="57"/>
     </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1">
+    <row r="181" spans="1:6" ht="15.75" thickBot="1">
       <c r="A181" s="55" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B181" s="55"/>
       <c r="C181" s="55"/>
       <c r="D181" s="57"/>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="178"/>
-      <c r="B182" s="178"/>
-    </row>
-    <row r="183" spans="1:4">
+    <row r="182" spans="1:6">
+      <c r="A182" s="207"/>
+      <c r="B182" s="207"/>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
     </row>
-    <row r="184" spans="1:4" ht="54.75" customHeight="1">
-      <c r="A184" s="179" t="s">
-        <v>288</v>
-      </c>
-      <c r="B184" s="179"/>
-      <c r="C184" s="173"/>
-      <c r="D184" s="173"/>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1">
+    <row r="184" spans="1:6" ht="54.75" customHeight="1">
+      <c r="A184" s="192" t="s">
+        <v>267</v>
+      </c>
+      <c r="B184" s="192"/>
+      <c r="C184" s="168"/>
+      <c r="D184" s="168"/>
+      <c r="F184" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="186" spans="1:6" ht="15.75" thickBot="1">
       <c r="A186" s="27" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B186" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="30.75" thickBot="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="30.75" thickBot="1">
       <c r="A187" s="55" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B187" s="57" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" thickBot="1">
       <c r="A188" s="55"/>
       <c r="B188" s="57"/>
     </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1">
+    <row r="189" spans="1:6" ht="15.75" thickBot="1">
       <c r="A189" s="55"/>
       <c r="B189" s="57"/>
     </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1">
+    <row r="190" spans="1:6" ht="15.75" thickBot="1">
       <c r="A190" s="55"/>
       <c r="B190" s="57"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:6">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" ht="20.25">
+    <row r="192" spans="1:6" ht="20.25">
       <c r="A192" s="44" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A193" s="174" t="s">
-        <v>232</v>
-      </c>
-      <c r="B193" s="174"/>
-      <c r="C193" s="175"/>
-      <c r="D193" s="175"/>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" thickBot="1">
+    <row r="193" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A193" s="202" t="s">
+        <v>223</v>
+      </c>
+      <c r="B193" s="202"/>
+      <c r="C193" s="203"/>
+      <c r="D193" s="203"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" thickBot="1">
       <c r="A194" s="24" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" ht="15.75" thickBot="1">
+    <row r="195" spans="1:6" ht="15.75" thickBot="1">
       <c r="A195" s="55" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B195" s="57" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A196" s="55" t="s">
-        <v>293</v>
-      </c>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A196" s="55"/>
       <c r="B196" s="57" t="s">
-        <v>295</v>
+        <v>433</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A197" s="55" t="s">
-        <v>294</v>
-      </c>
+    <row r="197" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A197" s="55"/>
       <c r="B197" s="57" t="s">
-        <v>295</v>
+        <v>434</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" thickBot="1">
+    <row r="198" spans="1:6" ht="15.75" thickBot="1">
       <c r="A198" s="55" t="s">
         <v>9</v>
       </c>
@@ -7446,96 +7473,94 @@
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="166"/>
-      <c r="B199" s="166"/>
+    <row r="199" spans="1:6">
+      <c r="A199" s="199"/>
+      <c r="B199" s="199"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:6">
       <c r="A200" s="41"/>
       <c r="B200" s="41"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:4" ht="54.75" customHeight="1">
-      <c r="A201" s="169" t="s">
-        <v>296</v>
-      </c>
-      <c r="B201" s="169"/>
-      <c r="C201" s="170"/>
-      <c r="D201" s="170"/>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" thickBot="1">
+    <row r="201" spans="1:6" ht="54.75" customHeight="1">
+      <c r="A201" s="204" t="s">
+        <v>272</v>
+      </c>
+      <c r="B201" s="204"/>
+      <c r="C201" s="169"/>
+      <c r="D201" s="169"/>
+      <c r="F201" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" thickBot="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F202" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" thickBot="1">
       <c r="A203" s="27" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A204" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B204" s="57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A205" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B205" s="57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" thickBot="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A204" s="55"/>
+      <c r="B204" s="57"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A205" s="55"/>
+      <c r="B205" s="57"/>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" thickBot="1">
       <c r="A206" s="55"/>
       <c r="B206" s="57"/>
     </row>
-    <row r="207" spans="1:4" ht="15.75" thickBot="1">
+    <row r="207" spans="1:6" ht="15.75" thickBot="1">
       <c r="A207" s="55"/>
       <c r="B207" s="57"/>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="166"/>
-      <c r="B208" s="166"/>
+    <row r="208" spans="1:6">
+      <c r="A208" s="199"/>
+      <c r="B208" s="199"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="45"/>
     </row>
     <row r="210" spans="1:4" ht="33" customHeight="1" thickBot="1">
-      <c r="A210" s="176" t="s">
-        <v>297</v>
-      </c>
-      <c r="B210" s="176"/>
-      <c r="C210" s="177"/>
-      <c r="D210" s="177"/>
+      <c r="A210" s="205" t="s">
+        <v>273</v>
+      </c>
+      <c r="B210" s="205"/>
+      <c r="C210" s="206"/>
+      <c r="D210" s="206"/>
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1">
       <c r="A211" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C211" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1">
       <c r="A212" s="55" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="B212" s="55"/>
       <c r="C212" s="55"/>
@@ -7543,7 +7568,7 @@
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1">
       <c r="A213" s="55" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B213" s="55"/>
       <c r="C213" s="55"/>
@@ -7551,7 +7576,7 @@
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1">
       <c r="A214" s="55" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B214" s="55"/>
       <c r="C214" s="55"/>
@@ -7566,35 +7591,35 @@
       <c r="B216" s="41"/>
     </row>
     <row r="217" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A217" s="171" t="s">
-        <v>236</v>
-      </c>
-      <c r="B217" s="171"/>
-      <c r="C217" s="173"/>
-      <c r="D217" s="173"/>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="A217" s="200" t="s">
+        <v>226</v>
+      </c>
+      <c r="B217" s="200"/>
+      <c r="C217" s="168"/>
+      <c r="D217" s="168"/>
+    </row>
+    <row r="218" spans="1:4" ht="45">
       <c r="A218" s="46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>9</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="36" customHeight="1">
-      <c r="A220" s="169" t="s">
-        <v>238</v>
-      </c>
-      <c r="B220" s="169"/>
-      <c r="C220" s="170"/>
-      <c r="D220" s="170"/>
+      <c r="A220" s="204" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220" s="204"/>
+      <c r="C220" s="169"/>
+      <c r="D220" s="169"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>438</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7605,110 +7630,118 @@
     </row>
     <row r="223" spans="1:4" ht="20.25">
       <c r="A223" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="43.5" customHeight="1">
-      <c r="A224" s="169" t="s">
-        <v>239</v>
-      </c>
-      <c r="B224" s="169"/>
-      <c r="C224" s="170"/>
-      <c r="D224" s="170"/>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="A224" s="204" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" s="204"/>
+      <c r="C224" s="169"/>
+      <c r="D224" s="169"/>
+    </row>
+    <row r="225" spans="1:6" ht="90">
       <c r="A225" s="46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="20.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="20.25">
       <c r="A227" s="47" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A228" s="169" t="s">
-        <v>240</v>
-      </c>
-      <c r="B228" s="169"/>
-      <c r="C228" s="170"/>
-      <c r="D228" s="170"/>
-    </row>
-    <row r="229" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A228" s="204" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" s="204"/>
+      <c r="C228" s="169"/>
+      <c r="D228" s="169"/>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B229" s="48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="33" customHeight="1">
-      <c r="A231" s="169" t="s">
-        <v>241</v>
-      </c>
-      <c r="B231" s="169"/>
-      <c r="C231" s="170"/>
-      <c r="D231" s="170"/>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="F229" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="F230" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="33" customHeight="1">
+      <c r="A231" s="204" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="204"/>
+      <c r="C231" s="169"/>
+      <c r="D231" s="169"/>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B232" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A234" s="169" t="s">
-        <v>242</v>
-      </c>
-      <c r="B234" s="169"/>
-      <c r="C234" s="170"/>
-      <c r="D234" s="170"/>
-    </row>
-    <row r="235" spans="1:4">
+    <row r="234" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A234" s="204" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" s="204"/>
+      <c r="C234" s="169"/>
+      <c r="D234" s="169"/>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A237" s="171" t="s">
-        <v>243</v>
-      </c>
-      <c r="B237" s="171"/>
-      <c r="C237" s="170"/>
-      <c r="D237" s="170"/>
-    </row>
-    <row r="238" spans="1:4">
+    <row r="237" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A237" s="200" t="s">
+        <v>233</v>
+      </c>
+      <c r="B237" s="200"/>
+      <c r="C237" s="169"/>
+      <c r="D237" s="169"/>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="20.25">
+    <row r="240" spans="1:6" ht="20.25">
       <c r="A240" s="47" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="45" customHeight="1">
-      <c r="A241" s="169" t="s">
-        <v>244</v>
-      </c>
-      <c r="B241" s="169"/>
-      <c r="C241" s="170"/>
-      <c r="D241" s="170"/>
+      <c r="A241" s="204" t="s">
+        <v>234</v>
+      </c>
+      <c r="B241" s="204"/>
+      <c r="C241" s="169"/>
+      <c r="D241" s="169"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B242" t="s">
         <v>10</v>
@@ -7716,37 +7749,37 @@
     </row>
     <row r="244" spans="1:4" ht="20.25">
       <c r="A244" s="47" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="42" customHeight="1">
-      <c r="A245" s="172" t="s">
-        <v>245</v>
-      </c>
-      <c r="B245" s="172"/>
-      <c r="C245" s="170"/>
-      <c r="D245" s="170"/>
+      <c r="A245" s="208" t="s">
+        <v>235</v>
+      </c>
+      <c r="B245" s="208"/>
+      <c r="C245" s="169"/>
+      <c r="D245" s="169"/>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:4" ht="15.75" thickBot="1">
       <c r="A247" s="27" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15.75" thickBot="1">
       <c r="A248" s="55" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B248" s="57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="30.75" thickBot="1">
       <c r="A249" s="55" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B249" s="57" t="s">
         <v>9</v>
@@ -7774,92 +7807,92 @@
     </row>
     <row r="253" spans="1:4" ht="20.25">
       <c r="A253" s="47" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A254" s="169" t="s">
-        <v>248</v>
-      </c>
-      <c r="B254" s="170"/>
+      <c r="A254" s="204" t="s">
+        <v>238</v>
+      </c>
+      <c r="B254" s="169"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="49"/>
     </row>
     <row r="256" spans="1:4" ht="20.25">
       <c r="A256" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A257" s="169" t="s">
-        <v>249</v>
-      </c>
-      <c r="B257" s="169"/>
-      <c r="C257" s="170"/>
-      <c r="D257" s="170"/>
+      <c r="A257" s="204" t="s">
+        <v>239</v>
+      </c>
+      <c r="B257" s="204"/>
+      <c r="C257" s="169"/>
+      <c r="D257" s="169"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="169" t="s">
-        <v>250</v>
-      </c>
-      <c r="B260" s="169"/>
-      <c r="C260" s="170"/>
-      <c r="D260" s="170"/>
+      <c r="A260" s="204" t="s">
+        <v>240</v>
+      </c>
+      <c r="B260" s="204"/>
+      <c r="C260" s="169"/>
+      <c r="D260" s="169"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="263" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A263" s="169" t="s">
-        <v>251</v>
-      </c>
-      <c r="B263" s="169"/>
+      <c r="A263" s="204" t="s">
+        <v>241</v>
+      </c>
+      <c r="B263" s="204"/>
     </row>
     <row r="264" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A264" s="169" t="s">
-        <v>252</v>
-      </c>
-      <c r="B264" s="169"/>
+      <c r="A264" s="204" t="s">
+        <v>242</v>
+      </c>
+      <c r="B264" s="204"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A267" s="167" t="s">
-        <v>253</v>
-      </c>
-      <c r="B267" s="167"/>
-      <c r="C267" s="168"/>
-      <c r="D267" s="168"/>
+      <c r="A267" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="B267" s="198"/>
+      <c r="C267" s="209"/>
+      <c r="D267" s="209"/>
     </row>
     <row r="268" spans="1:4" ht="15.75" thickBot="1">
       <c r="A268" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B268" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C268" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D268" s="28" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15.75" thickBot="1">
       <c r="A269" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B269" s="42"/>
       <c r="C269" s="11"/>
@@ -7867,15 +7900,15 @@
     </row>
     <row r="270" spans="1:4" ht="15.75" thickBot="1">
       <c r="A270" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
       <c r="D270" s="12"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="166"/>
-      <c r="B271" s="166"/>
+      <c r="A271" s="199"/>
+      <c r="B271" s="199"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="41"/>
@@ -7883,12 +7916,12 @@
     </row>
     <row r="273" spans="1:4" ht="20.25">
       <c r="A273" s="47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="27">
       <c r="A274" s="49" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="20.25">
@@ -7896,53 +7929,53 @@
     </row>
     <row r="276" spans="1:4" ht="20.25">
       <c r="A276" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="39" customHeight="1">
-      <c r="A277" s="169" t="s">
-        <v>255</v>
-      </c>
-      <c r="B277" s="169"/>
-      <c r="C277" s="170"/>
-      <c r="D277" s="170"/>
+      <c r="A277" s="204" t="s">
+        <v>245</v>
+      </c>
+      <c r="B277" s="204"/>
+      <c r="C277" s="169"/>
+      <c r="D277" s="169"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B278" s="8"/>
     </row>
     <row r="280" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A280" s="167" t="s">
-        <v>256</v>
-      </c>
-      <c r="B280" s="167"/>
-      <c r="C280" s="168"/>
-      <c r="D280" s="168"/>
+      <c r="A280" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="B280" s="198"/>
+      <c r="C280" s="209"/>
+      <c r="D280" s="209"/>
     </row>
     <row r="281" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:4" ht="15.75" thickBot="1">
       <c r="A282" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B282" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C282" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D282" s="36" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15.75" thickBot="1">
       <c r="A283" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B283" s="51"/>
       <c r="C283" s="11"/>
-      <c r="D283" s="63"/>
+      <c r="D283" s="62"/>
     </row>
     <row r="284" spans="1:4" ht="15.75" thickBot="1">
       <c r="A284" s="11"/>
@@ -7961,7 +7994,55 @@
       <c r="B286" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="63">
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A32:E32"/>
@@ -7977,53 +8058,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8046,7 +8080,7 @@
   <cols>
     <col min="1" max="1" width="11.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="135.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="135.7109375" style="107" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="20" customWidth="1"/>
     <col min="5" max="7" width="5.7109375" style="21" customWidth="1"/>
     <col min="8" max="12" width="8.7109375" style="21" customWidth="1"/>
@@ -8058,23 +8092,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26 16384:16384" s="18" customFormat="1" ht="51.6" customHeight="1" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="D1" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="221" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>313</v>
-      </c>
-      <c r="E1" s="194" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
@@ -8088,371 +8122,371 @@
     <row r="2" spans="1:26 16384:16384" s="18" customFormat="1" ht="29.25" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="99"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="H2" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="I2" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="161" t="s">
+      <c r="J2" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="162" t="s">
+      <c r="K2" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="162" t="s">
+      <c r="L2" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="162" t="s">
+      <c r="M2" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="162" t="s">
+      <c r="N2" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="162" t="s">
+      <c r="O2" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="161" t="s">
         <v>62</v>
-      </c>
-      <c r="N2" s="162" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="162" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="162" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="99"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="155" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" s="156" t="s">
+        <v>283</v>
+      </c>
+      <c r="J3" s="157" t="s">
+        <v>284</v>
+      </c>
+      <c r="K3" s="158" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="159"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+    </row>
+    <row r="4" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="222" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+    </row>
+    <row r="5" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A5" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="147" t="s">
         <v>304</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="156" t="s">
+      <c r="D5" s="124" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="162" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="R5" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A6" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="112"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="R6" s="210" t="s">
+        <v>285</v>
+      </c>
+      <c r="S6" s="211"/>
+      <c r="T6" s="211"/>
+      <c r="U6" s="211"/>
+    </row>
+    <row r="7" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A7" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="D7" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="R7" s="211"/>
+      <c r="S7" s="211"/>
+      <c r="T7" s="211"/>
+      <c r="U7" s="211"/>
+    </row>
+    <row r="8" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A8" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="158" t="s">
+      <c r="D8" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="211"/>
+    </row>
+    <row r="9" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="159" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="160"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-    </row>
-    <row r="4" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="195" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-    </row>
-    <row r="5" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A5" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="147" t="s">
+      <c r="D9" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="211"/>
+      <c r="T9" s="211"/>
+      <c r="U9" s="211"/>
+    </row>
+    <row r="10" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="148" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="125" t="s">
+      <c r="C10" s="100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="211"/>
+      <c r="U10" s="211"/>
+      <c r="XFD10" s="75"/>
+    </row>
+    <row r="11" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A11" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="211"/>
+    </row>
+    <row r="12" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A12" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="163" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="152"/>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="R5" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="113" t="s">
-        <v>304</v>
-      </c>
-      <c r="F6" s="113"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="R6" s="202" t="s">
-        <v>309</v>
-      </c>
-      <c r="S6" s="203"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="203"/>
-    </row>
-    <row r="7" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E7" s="114" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-    </row>
-    <row r="8" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="112" t="s">
+      <c r="D12" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="R12" s="211"/>
+      <c r="S12" s="211"/>
+      <c r="T12" s="211"/>
+      <c r="U12" s="211"/>
+    </row>
+    <row r="13" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A13" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="101" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" s="111" t="s">
+      <c r="C13" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-    </row>
-    <row r="9" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="101" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="R9" s="203"/>
-      <c r="S9" s="203"/>
-      <c r="T9" s="203"/>
-      <c r="U9" s="203"/>
-    </row>
-    <row r="10" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A10" s="111" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>312</v>
-      </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="203"/>
-      <c r="U10" s="203"/>
-      <c r="XFD10" s="76"/>
-    </row>
-    <row r="11" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A11" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="R11" s="203"/>
-      <c r="S11" s="203"/>
-      <c r="T11" s="203"/>
-      <c r="U11" s="203"/>
-    </row>
-    <row r="12" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A12" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="R12" s="203"/>
-      <c r="S12" s="203"/>
-      <c r="T12" s="203"/>
-      <c r="U12" s="203"/>
-    </row>
-    <row r="13" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A13" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="101" t="s">
-        <v>336</v>
-      </c>
-      <c r="D13" s="111" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="D13" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="203"/>
-      <c r="S13" s="203"/>
-      <c r="T13" s="203"/>
-      <c r="U13" s="203"/>
+      <c r="R13" s="211"/>
+      <c r="S13" s="211"/>
+      <c r="T13" s="211"/>
+      <c r="U13" s="211"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
@@ -8460,35 +8494,35 @@
       <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A14" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="C14" s="100" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="203"/>
-      <c r="S14" s="203"/>
-      <c r="T14" s="203"/>
-      <c r="U14" s="203"/>
+      <c r="R14" s="211"/>
+      <c r="S14" s="211"/>
+      <c r="T14" s="211"/>
+      <c r="U14" s="211"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
@@ -8496,35 +8530,35 @@
       <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A15" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="112" t="s">
+      <c r="A15" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="101" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="C15" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
       <c r="Q15" s="19"/>
-      <c r="R15" s="203"/>
-      <c r="S15" s="203"/>
-      <c r="T15" s="203"/>
-      <c r="U15" s="203"/>
+      <c r="R15" s="211"/>
+      <c r="S15" s="211"/>
+      <c r="T15" s="211"/>
+      <c r="U15" s="211"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
@@ -8532,35 +8566,35 @@
       <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="D16" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="C16" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
       <c r="Q16" s="19"/>
-      <c r="R16" s="203"/>
-      <c r="S16" s="203"/>
-      <c r="T16" s="203"/>
-      <c r="U16" s="203"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="211"/>
+      <c r="T16" s="211"/>
+      <c r="U16" s="211"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
@@ -8568,35 +8602,35 @@
       <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A17" s="111" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="112" t="s">
+      <c r="A17" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="101" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="C17" s="100" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="203"/>
-      <c r="S17" s="203"/>
-      <c r="T17" s="203"/>
-      <c r="U17" s="203"/>
+      <c r="R17" s="211"/>
+      <c r="S17" s="211"/>
+      <c r="T17" s="211"/>
+      <c r="U17" s="211"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
@@ -8604,30 +8638,30 @@
       <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A18" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="112" t="s">
+      <c r="A18" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="101" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="C18" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="119"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
@@ -8640,30 +8674,30 @@
       <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A19" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>342</v>
-      </c>
-      <c r="D19" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
+      <c r="A19" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="119"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
@@ -8676,30 +8710,30 @@
       <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A20" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="119" t="s">
-        <v>316</v>
-      </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="72"/>
+      <c r="A20" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="118" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="119"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="71"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
@@ -8712,30 +8746,30 @@
       <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="121" t="s">
+      <c r="A21" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="101" t="s">
-        <v>344</v>
-      </c>
-      <c r="D21" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="71"/>
+      <c r="C21" s="100" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="70"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -8748,30 +8782,30 @@
       <c r="Z21" s="19"/>
     </row>
     <row r="22" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A22" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="112" t="s">
+      <c r="A22" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="101" t="s">
-        <v>345</v>
-      </c>
-      <c r="D22" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
+      <c r="C22" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
@@ -8784,30 +8818,30 @@
       <c r="Z22" s="19"/>
     </row>
     <row r="23" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A23" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="101" t="s">
-        <v>346</v>
-      </c>
-      <c r="D23" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="72"/>
+      <c r="A23" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="71"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -8820,30 +8854,30 @@
       <c r="Z23" s="19"/>
     </row>
     <row r="24" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A24" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="D24" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="72"/>
+      <c r="A24" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="71"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
@@ -8856,30 +8890,30 @@
       <c r="Z24" s="19"/>
     </row>
     <row r="25" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A25" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="112" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="101" t="s">
-        <v>348</v>
-      </c>
-      <c r="D25" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
+      <c r="A25" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
@@ -8892,30 +8926,30 @@
       <c r="Z25" s="19"/>
     </row>
     <row r="26" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A26" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="A26" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
@@ -8928,24 +8962,24 @@
       <c r="Z26" s="19"/>
     </row>
     <row r="27" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A27" s="196" t="s">
+      <c r="A27" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="197"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="150"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="149"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
@@ -8958,30 +8992,30 @@
       <c r="Z27" s="19"/>
     </row>
     <row r="28" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A28" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="123" t="s">
+      <c r="A28" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="101" t="s">
-        <v>350</v>
-      </c>
-      <c r="D28" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
+      <c r="C28" s="100" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
@@ -8994,30 +9028,30 @@
       <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="72"/>
+      <c r="C29" s="100" t="s">
+        <v>327</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="71"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
@@ -9030,30 +9064,30 @@
       <c r="Z29" s="19"/>
     </row>
     <row r="30" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="101" t="s">
-        <v>352</v>
-      </c>
-      <c r="D30" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="72"/>
+      <c r="C30" s="100" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="71"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
@@ -9066,30 +9100,30 @@
       <c r="Z30" s="19"/>
     </row>
     <row r="31" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="101" t="s">
-        <v>353</v>
-      </c>
-      <c r="D31" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="72"/>
+      <c r="C31" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="71"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
@@ -9102,30 +9136,30 @@
       <c r="Z31" s="19"/>
     </row>
     <row r="32" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="101" t="s">
-        <v>331</v>
-      </c>
-      <c r="D32" s="111" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
+      <c r="C32" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -9138,30 +9172,30 @@
       <c r="Z32" s="19"/>
     </row>
     <row r="33" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="101" t="s">
-        <v>354</v>
-      </c>
-      <c r="D33" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
+      <c r="C33" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -9174,30 +9208,30 @@
       <c r="Z33" s="19"/>
     </row>
     <row r="34" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A34" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="123" t="s">
+      <c r="A34" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="D34" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="72"/>
+      <c r="C34" s="100" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="71"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -9210,30 +9244,30 @@
       <c r="Z34" s="19"/>
     </row>
     <row r="35" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A35" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="123" t="s">
+      <c r="A35" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="101" t="s">
-        <v>356</v>
-      </c>
-      <c r="D35" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
+      <c r="C35" s="100" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
@@ -9246,24 +9280,24 @@
       <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A36" s="196" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="197"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="150"/>
+      <c r="A36" s="212" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="213"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="149"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
@@ -9276,30 +9310,30 @@
       <c r="Z36" s="19"/>
     </row>
     <row r="37" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A37" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="124" t="s">
+      <c r="A37" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="102" t="s">
-        <v>357</v>
-      </c>
-      <c r="D37" s="125" t="s">
-        <v>316</v>
-      </c>
-      <c r="E37" s="122"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
+      <c r="C37" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" s="124" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" s="121"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="19"/>
@@ -9312,30 +9346,30 @@
       <c r="Z37" s="19"/>
     </row>
     <row r="38" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A38" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>358</v>
-      </c>
-      <c r="D38" s="125" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="72"/>
+      <c r="A38" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="E38" s="121"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="71"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
@@ -9348,24 +9382,24 @@
       <c r="Z38" s="19"/>
     </row>
     <row r="39" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A39" s="199" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="200"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" s="150"/>
+      <c r="A39" s="223" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="224"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="149"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
@@ -9378,26 +9412,26 @@
       <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A40" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="119"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
+      <c r="A40" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="122"/>
+      <c r="C40" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="118"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
@@ -9410,30 +9444,30 @@
       <c r="Z40" s="19"/>
     </row>
     <row r="41" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A41" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="123" t="s">
+      <c r="A41" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="101" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="119" t="s">
-        <v>318</v>
-      </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
+      <c r="C41" s="100" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="129"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
@@ -9446,30 +9480,30 @@
       <c r="Z41" s="19"/>
     </row>
     <row r="42" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A42" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="123" t="s">
+      <c r="A42" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="101" t="s">
-        <v>360</v>
-      </c>
-      <c r="D42" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="72"/>
+      <c r="C42" s="100" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="129"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="71"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -9482,30 +9516,30 @@
       <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A43" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="123" t="s">
+      <c r="A43" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="101" t="s">
-        <v>361</v>
-      </c>
-      <c r="D43" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E43" s="130"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="131"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
+      <c r="C43" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" s="129"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
@@ -9518,30 +9552,30 @@
       <c r="Z43" s="19"/>
     </row>
     <row r="44" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A44" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="123" t="s">
+      <c r="A44" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="101" t="s">
-        <v>362</v>
-      </c>
-      <c r="D44" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="131"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
+      <c r="C44" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="129"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="130"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -9554,30 +9588,30 @@
       <c r="Z44" s="19"/>
     </row>
     <row r="45" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A45" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="123" t="s">
+      <c r="A45" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="101" t="s">
-        <v>363</v>
-      </c>
-      <c r="D45" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E45" s="130"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="131"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
+      <c r="C45" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" s="129"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
@@ -9590,30 +9624,30 @@
       <c r="Z45" s="19"/>
     </row>
     <row r="46" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A46" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="123" t="s">
+      <c r="A46" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="101" t="s">
-        <v>364</v>
-      </c>
-      <c r="D46" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E46" s="130"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="131"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
+      <c r="C46" s="100" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E46" s="129"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="130"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
@@ -9626,30 +9660,30 @@
       <c r="Z46" s="19"/>
     </row>
     <row r="47" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A47" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="123" t="s">
+      <c r="A47" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="101" t="s">
-        <v>365</v>
-      </c>
-      <c r="D47" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
+      <c r="C47" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="129"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
@@ -9662,30 +9696,30 @@
       <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A48" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="123" t="s">
+      <c r="A48" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="101" t="s">
-        <v>366</v>
-      </c>
-      <c r="D48" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="131"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
+      <c r="C48" s="100" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E48" s="129"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -9698,30 +9732,30 @@
       <c r="Z48" s="19"/>
     </row>
     <row r="49" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A49" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="123" t="s">
+      <c r="A49" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="101" t="s">
-        <v>367</v>
-      </c>
-      <c r="D49" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="E49" s="132"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
+      <c r="C49" s="100" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="131"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
@@ -9734,30 +9768,30 @@
       <c r="Z49" s="19"/>
     </row>
     <row r="50" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A50" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="123" t="s">
+      <c r="A50" s="125" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="D50" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E50" s="130"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="131"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
+      <c r="C50" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="129"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
@@ -9770,30 +9804,30 @@
       <c r="Z50" s="19"/>
     </row>
     <row r="51" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="104" t="s">
-        <v>323</v>
-      </c>
-      <c r="D51" s="119" t="s">
-        <v>320</v>
-      </c>
-      <c r="E51" s="130"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
+      <c r="A51" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="103" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" s="118" t="s">
+        <v>296</v>
+      </c>
+      <c r="E51" s="129"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="130"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
@@ -9806,30 +9840,30 @@
       <c r="Z51" s="19"/>
     </row>
     <row r="52" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A52" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="101" t="s">
-        <v>368</v>
-      </c>
-      <c r="D52" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E52" s="130"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="131"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
+      <c r="A52" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="100" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52" s="129"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
@@ -9842,30 +9876,30 @@
       <c r="Z52" s="19"/>
     </row>
     <row r="53" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A53" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="123" t="s">
+      <c r="A53" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="D53" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
+      <c r="C53" s="100" t="s">
+        <v>345</v>
+      </c>
+      <c r="D53" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E53" s="129"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
@@ -9878,30 +9912,30 @@
       <c r="Z53" s="19"/>
     </row>
     <row r="54" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A54" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="101" t="s">
-        <v>370</v>
-      </c>
-      <c r="D54" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E54" s="130"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
+      <c r="A54" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="129"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
@@ -9914,30 +9948,30 @@
       <c r="Z54" s="19"/>
     </row>
     <row r="55" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A55" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="101" t="s">
-        <v>371</v>
-      </c>
-      <c r="D55" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E55" s="130"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="131"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
+      <c r="A55" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="100" t="s">
+        <v>347</v>
+      </c>
+      <c r="D55" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" s="129"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
@@ -9950,28 +9984,28 @@
       <c r="Z55" s="19"/>
     </row>
     <row r="56" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A56" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="123" t="s">
+      <c r="A56" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="103" t="s">
-        <v>322</v>
-      </c>
-      <c r="D56" s="119"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="131"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
+      <c r="C56" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="D56" s="118"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
@@ -9984,28 +10018,28 @@
       <c r="Z56" s="19"/>
     </row>
     <row r="57" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A57" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="104" t="s">
-        <v>323</v>
-      </c>
-      <c r="D57" s="119"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="131"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
+      <c r="A57" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="103" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="118"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
@@ -10018,30 +10052,30 @@
       <c r="Z57" s="19"/>
     </row>
     <row r="58" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A58" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="101" t="s">
-        <v>372</v>
-      </c>
-      <c r="D58" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E58" s="130"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="131"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="72"/>
+      <c r="A58" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="100" t="s">
+        <v>348</v>
+      </c>
+      <c r="D58" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E58" s="129"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
       <c r="S58" s="19"/>
@@ -10054,30 +10088,30 @@
       <c r="Z58" s="19"/>
     </row>
     <row r="59" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A59" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="101" t="s">
-        <v>373</v>
-      </c>
-      <c r="D59" s="119" t="s">
-        <v>312</v>
-      </c>
-      <c r="E59" s="130"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
+      <c r="A59" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="100" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="118" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="129"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="19"/>
@@ -10090,30 +10124,30 @@
       <c r="Z59" s="19"/>
     </row>
     <row r="60" spans="1:26" s="18" customFormat="1" ht="75.75" thickBot="1">
-      <c r="A60" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="101" t="s">
-        <v>374</v>
-      </c>
-      <c r="D60" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="E60" s="130"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="131"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
+      <c r="A60" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="D60" s="118" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="129"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="19"/>
@@ -10126,30 +10160,30 @@
       <c r="Z60" s="19"/>
     </row>
     <row r="61" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A61" s="111" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="101" t="s">
-        <v>375</v>
-      </c>
-      <c r="D61" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E61" s="130"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="131"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="71"/>
+      <c r="A61" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="100" t="s">
+        <v>351</v>
+      </c>
+      <c r="D61" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="129"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="130"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="70"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
       <c r="S61" s="19"/>
@@ -10162,30 +10196,30 @@
       <c r="Z61" s="19"/>
     </row>
     <row r="62" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A62" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="123" t="s">
+      <c r="A62" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="101" t="s">
-        <v>376</v>
-      </c>
-      <c r="D62" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E62" s="130"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="131"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
+      <c r="C62" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="D62" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E62" s="129"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="130"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
       <c r="S62" s="19"/>
@@ -10198,30 +10232,30 @@
       <c r="Z62" s="19"/>
     </row>
     <row r="63" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A63" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="123" t="s">
+      <c r="A63" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="101" t="s">
-        <v>377</v>
-      </c>
-      <c r="D63" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E63" s="130"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="73"/>
+      <c r="C63" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="D63" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63" s="129"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="19"/>
@@ -10234,30 +10268,30 @@
       <c r="Z63" s="19"/>
     </row>
     <row r="64" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A64" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="123" t="s">
+      <c r="A64" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="101" t="s">
-        <v>378</v>
-      </c>
-      <c r="D64" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E64" s="130"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
+      <c r="C64" s="100" t="s">
+        <v>354</v>
+      </c>
+      <c r="D64" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E64" s="129"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
@@ -10270,30 +10304,30 @@
       <c r="Z64" s="19"/>
     </row>
     <row r="65" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A65" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="123" t="s">
+      <c r="A65" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="101" t="s">
-        <v>379</v>
-      </c>
-      <c r="D65" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E65" s="130"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
-      <c r="P65" s="72"/>
+      <c r="C65" s="100" t="s">
+        <v>355</v>
+      </c>
+      <c r="D65" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" s="129"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="130"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
@@ -10306,30 +10340,30 @@
       <c r="Z65" s="19"/>
     </row>
     <row r="66" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A66" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="91" t="s">
+      <c r="A66" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="101" t="s">
-        <v>380</v>
-      </c>
-      <c r="D66" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="E66" s="130"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="72"/>
-      <c r="O66" s="72"/>
-      <c r="P66" s="72"/>
+      <c r="C66" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="D66" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" s="129"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19"/>
@@ -10342,30 +10376,30 @@
       <c r="Z66" s="19"/>
     </row>
     <row r="67" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A67" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="91" t="s">
+      <c r="A67" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="101" t="s">
-        <v>381</v>
-      </c>
-      <c r="D67" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="E67" s="130"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="70"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
+      <c r="C67" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" s="129"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="130"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="19"/>
@@ -10378,30 +10412,30 @@
       <c r="Z67" s="19"/>
     </row>
     <row r="68" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A68" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="123" t="s">
+      <c r="A68" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="101" t="s">
-        <v>382</v>
-      </c>
-      <c r="D68" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="E68" s="130"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="131"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
-      <c r="P68" s="72"/>
+      <c r="C68" s="100" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68" s="129"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="130"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
       <c r="S68" s="19"/>
@@ -10414,30 +10448,30 @@
       <c r="Z68" s="19"/>
     </row>
     <row r="69" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A69" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" s="121" t="s">
+      <c r="A69" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="101" t="s">
-        <v>383</v>
-      </c>
-      <c r="D69" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E69" s="130"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="131"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="72"/>
-      <c r="P69" s="71"/>
+      <c r="C69" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="D69" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="129"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="70"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
@@ -10450,24 +10484,24 @@
       <c r="Z69" s="19"/>
     </row>
     <row r="70" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A70" s="196" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="197"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="198"/>
-      <c r="E70" s="197"/>
-      <c r="F70" s="197"/>
-      <c r="G70" s="197"/>
-      <c r="H70" s="142"/>
-      <c r="I70" s="143"/>
-      <c r="J70" s="143"/>
-      <c r="K70" s="143"/>
-      <c r="L70" s="143"/>
-      <c r="M70" s="144"/>
-      <c r="N70" s="144"/>
-      <c r="O70" s="144"/>
-      <c r="P70" s="150"/>
+      <c r="A70" s="212" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="213"/>
+      <c r="C70" s="213"/>
+      <c r="D70" s="214"/>
+      <c r="E70" s="213"/>
+      <c r="F70" s="213"/>
+      <c r="G70" s="213"/>
+      <c r="H70" s="141"/>
+      <c r="I70" s="142"/>
+      <c r="J70" s="142"/>
+      <c r="K70" s="142"/>
+      <c r="L70" s="142"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="143"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="149"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
@@ -10480,30 +10514,30 @@
       <c r="Z70" s="19"/>
     </row>
     <row r="71" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A71" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="124" t="s">
+      <c r="A71" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="102" t="s">
-        <v>384</v>
-      </c>
-      <c r="D71" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E71" s="130"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="70"/>
-      <c r="L71" s="70"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
+      <c r="C71" s="101" t="s">
+        <v>360</v>
+      </c>
+      <c r="D71" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E71" s="129"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="19"/>
@@ -10516,30 +10550,30 @@
       <c r="Z71" s="19"/>
     </row>
     <row r="72" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A72" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="124" t="s">
+      <c r="A72" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="102" t="s">
-        <v>385</v>
-      </c>
-      <c r="D72" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E72" s="130"/>
-      <c r="F72" s="122"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="72"/>
-      <c r="O72" s="72"/>
-      <c r="P72" s="72"/>
+      <c r="C72" s="101" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" s="129"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
       <c r="S72" s="19"/>
@@ -10552,30 +10586,30 @@
       <c r="Z72" s="19"/>
     </row>
     <row r="73" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A73" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="124" t="s">
+      <c r="A73" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="102" t="s">
-        <v>386</v>
-      </c>
-      <c r="D73" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E73" s="130"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
+      <c r="C73" s="101" t="s">
+        <v>362</v>
+      </c>
+      <c r="D73" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73" s="129"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="19"/>
@@ -10588,30 +10622,30 @@
       <c r="Z73" s="19"/>
     </row>
     <row r="74" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A74" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="124" t="s">
+      <c r="A74" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="102" t="s">
-        <v>387</v>
-      </c>
-      <c r="D74" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E74" s="130"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="131"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
+      <c r="C74" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="D74" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="129"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="130"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
       <c r="S74" s="19"/>
@@ -10624,30 +10658,30 @@
       <c r="Z74" s="19"/>
     </row>
     <row r="75" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A75" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="124" t="s">
+      <c r="A75" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="102" t="s">
-        <v>388</v>
-      </c>
-      <c r="D75" s="102" t="s">
-        <v>324</v>
-      </c>
-      <c r="E75" s="130"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="131"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
+      <c r="C75" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="101" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75" s="129"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="130"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
       <c r="S75" s="19"/>
@@ -10660,30 +10694,30 @@
       <c r="Z75" s="19"/>
     </row>
     <row r="76" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A76" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="124" t="s">
+      <c r="A76" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="102" t="s">
-        <v>389</v>
-      </c>
-      <c r="D76" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E76" s="130"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="72"/>
-      <c r="O76" s="72"/>
-      <c r="P76" s="72"/>
+      <c r="C76" s="101" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76" s="129"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="130"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
       <c r="Q76" s="19"/>
       <c r="R76" s="19"/>
       <c r="S76" s="19"/>
@@ -10696,30 +10730,30 @@
       <c r="Z76" s="19"/>
     </row>
     <row r="77" spans="1:26" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A77" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="102" t="s">
-        <v>390</v>
-      </c>
-      <c r="D77" s="102" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="130"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="131"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="72"/>
+      <c r="A77" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="101" t="s">
+        <v>366</v>
+      </c>
+      <c r="D77" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" s="129"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="130"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -10732,30 +10766,30 @@
       <c r="Z77" s="19"/>
     </row>
     <row r="78" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A78" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="124" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="102" t="s">
-        <v>391</v>
-      </c>
-      <c r="D78" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E78" s="130"/>
-      <c r="F78" s="122"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="70"/>
-      <c r="M78" s="131"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
+      <c r="A78" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="101" t="s">
+        <v>367</v>
+      </c>
+      <c r="D78" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E78" s="129"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="130"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
@@ -10768,30 +10802,30 @@
       <c r="Z78" s="19"/>
     </row>
     <row r="79" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A79" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="124" t="s">
+      <c r="A79" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="D79" s="102" t="s">
-        <v>315</v>
-      </c>
-      <c r="E79" s="130"/>
-      <c r="F79" s="122"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="72"/>
-      <c r="O79" s="72"/>
-      <c r="P79" s="72"/>
+      <c r="C79" s="101" t="s">
+        <v>368</v>
+      </c>
+      <c r="D79" s="101" t="s">
+        <v>291</v>
+      </c>
+      <c r="E79" s="129"/>
+      <c r="F79" s="121"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="130"/>
+      <c r="N79" s="71"/>
+      <c r="O79" s="71"/>
+      <c r="P79" s="71"/>
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="19"/>
@@ -10804,30 +10838,30 @@
       <c r="Z79" s="19"/>
     </row>
     <row r="80" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A80" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" s="124" t="s">
+      <c r="A80" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="102" t="s">
-        <v>393</v>
-      </c>
-      <c r="D80" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E80" s="130"/>
-      <c r="F80" s="122"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="70"/>
-      <c r="M80" s="131"/>
-      <c r="N80" s="72"/>
-      <c r="O80" s="72"/>
-      <c r="P80" s="72"/>
+      <c r="C80" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D80" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="129"/>
+      <c r="F80" s="121"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="130"/>
+      <c r="N80" s="71"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="71"/>
       <c r="Q80" s="19"/>
       <c r="R80" s="19"/>
       <c r="S80" s="19"/>
@@ -10840,30 +10874,30 @@
       <c r="Z80" s="19"/>
     </row>
     <row r="81" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A81" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="124" t="s">
+      <c r="A81" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="102" t="s">
-        <v>394</v>
-      </c>
-      <c r="D81" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E81" s="130"/>
-      <c r="F81" s="122"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
-      <c r="K81" s="70"/>
-      <c r="L81" s="70"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="89"/>
-      <c r="O81" s="72"/>
-      <c r="P81" s="72"/>
+      <c r="C81" s="101" t="s">
+        <v>370</v>
+      </c>
+      <c r="D81" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" s="129"/>
+      <c r="F81" s="121"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="130"/>
+      <c r="N81" s="88"/>
+      <c r="O81" s="71"/>
+      <c r="P81" s="71"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="19"/>
@@ -10876,24 +10910,24 @@
       <c r="Z81" s="19"/>
     </row>
     <row r="82" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A82" s="196" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="198"/>
-      <c r="C82" s="198"/>
-      <c r="D82" s="204"/>
-      <c r="E82" s="197"/>
-      <c r="F82" s="197"/>
-      <c r="G82" s="197"/>
-      <c r="H82" s="142"/>
-      <c r="I82" s="143"/>
-      <c r="J82" s="143"/>
-      <c r="K82" s="143"/>
-      <c r="L82" s="143"/>
-      <c r="M82" s="144"/>
-      <c r="N82" s="144"/>
-      <c r="O82" s="144"/>
-      <c r="P82" s="150"/>
+      <c r="A82" s="212" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="214"/>
+      <c r="C82" s="214"/>
+      <c r="D82" s="215"/>
+      <c r="E82" s="213"/>
+      <c r="F82" s="213"/>
+      <c r="G82" s="213"/>
+      <c r="H82" s="141"/>
+      <c r="I82" s="142"/>
+      <c r="J82" s="142"/>
+      <c r="K82" s="142"/>
+      <c r="L82" s="142"/>
+      <c r="M82" s="143"/>
+      <c r="N82" s="143"/>
+      <c r="O82" s="143"/>
+      <c r="P82" s="149"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19"/>
@@ -10906,30 +10940,30 @@
       <c r="Z82" s="19"/>
     </row>
     <row r="83" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A83" s="118" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="124" t="s">
+      <c r="A83" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="102" t="s">
-        <v>395</v>
-      </c>
-      <c r="D83" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E83" s="130"/>
-      <c r="F83" s="122"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="70"/>
-      <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
-      <c r="L83" s="70"/>
-      <c r="M83" s="72"/>
-      <c r="N83" s="72"/>
-      <c r="O83" s="72"/>
-      <c r="P83" s="72"/>
+      <c r="C83" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="D83" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" s="129"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="19"/>
@@ -10942,30 +10976,30 @@
       <c r="Z83" s="19"/>
     </row>
     <row r="84" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A84" s="111" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="124" t="s">
+      <c r="A84" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="102" t="s">
-        <v>396</v>
-      </c>
-      <c r="D84" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E84" s="130"/>
-      <c r="F84" s="122"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="131"/>
-      <c r="N84" s="72"/>
-      <c r="O84" s="72"/>
-      <c r="P84" s="72"/>
+      <c r="C84" s="101" t="s">
+        <v>372</v>
+      </c>
+      <c r="D84" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E84" s="129"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="130"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="19"/>
@@ -10978,30 +11012,30 @@
       <c r="Z84" s="19"/>
     </row>
     <row r="85" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A85" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="102" t="s">
-        <v>397</v>
-      </c>
-      <c r="D85" s="102" t="s">
-        <v>319</v>
-      </c>
-      <c r="E85" s="130"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="70"/>
-      <c r="K85" s="70"/>
-      <c r="L85" s="70"/>
-      <c r="M85" s="72"/>
-      <c r="N85" s="72"/>
-      <c r="O85" s="72"/>
-      <c r="P85" s="72"/>
+      <c r="A85" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="D85" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="E85" s="129"/>
+      <c r="F85" s="121"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
       <c r="S85" s="19"/>
@@ -11014,30 +11048,30 @@
       <c r="Z85" s="19"/>
     </row>
     <row r="86" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A86" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="124" t="s">
+      <c r="A86" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="102" t="s">
-        <v>398</v>
-      </c>
-      <c r="D86" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E86" s="130"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
-      <c r="L86" s="70"/>
-      <c r="M86" s="131"/>
-      <c r="N86" s="72"/>
-      <c r="O86" s="72"/>
-      <c r="P86" s="72"/>
+      <c r="C86" s="101" t="s">
+        <v>374</v>
+      </c>
+      <c r="D86" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" s="129"/>
+      <c r="F86" s="121"/>
+      <c r="G86" s="90"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="130"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="19"/>
@@ -11050,30 +11084,30 @@
       <c r="Z86" s="19"/>
     </row>
     <row r="87" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A87" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" s="102" t="s">
-        <v>399</v>
-      </c>
-      <c r="D87" s="102" t="s">
-        <v>319</v>
-      </c>
-      <c r="E87" s="130"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="70"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="72"/>
-      <c r="O87" s="72"/>
-      <c r="P87" s="72"/>
+      <c r="A87" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="D87" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="E87" s="129"/>
+      <c r="F87" s="121"/>
+      <c r="G87" s="90"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="71"/>
+      <c r="N87" s="71"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="19"/>
@@ -11086,24 +11120,24 @@
       <c r="Z87" s="19"/>
     </row>
     <row r="88" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A88" s="196" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="198"/>
-      <c r="C88" s="204"/>
-      <c r="D88" s="204"/>
-      <c r="E88" s="197"/>
-      <c r="F88" s="197"/>
-      <c r="G88" s="197"/>
-      <c r="H88" s="142"/>
-      <c r="I88" s="143"/>
-      <c r="J88" s="143"/>
-      <c r="K88" s="143"/>
-      <c r="L88" s="143"/>
-      <c r="M88" s="144"/>
-      <c r="N88" s="144"/>
-      <c r="O88" s="144"/>
-      <c r="P88" s="150"/>
+      <c r="A88" s="212" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" s="214"/>
+      <c r="C88" s="215"/>
+      <c r="D88" s="215"/>
+      <c r="E88" s="213"/>
+      <c r="F88" s="213"/>
+      <c r="G88" s="213"/>
+      <c r="H88" s="141"/>
+      <c r="I88" s="142"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="142"/>
+      <c r="L88" s="142"/>
+      <c r="M88" s="143"/>
+      <c r="N88" s="143"/>
+      <c r="O88" s="143"/>
+      <c r="P88" s="149"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
@@ -11116,30 +11150,30 @@
       <c r="Z88" s="19"/>
     </row>
     <row r="89" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A89" s="118" t="s">
-        <v>144</v>
-      </c>
-      <c r="B89" s="124" t="s">
+      <c r="A89" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="102" t="s">
-        <v>400</v>
-      </c>
-      <c r="D89" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E89" s="130"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-      <c r="K89" s="70"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="72"/>
-      <c r="N89" s="72"/>
-      <c r="O89" s="72"/>
-      <c r="P89" s="72"/>
+      <c r="C89" s="101" t="s">
+        <v>376</v>
+      </c>
+      <c r="D89" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="129"/>
+      <c r="F89" s="121"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="71"/>
+      <c r="N89" s="71"/>
+      <c r="O89" s="71"/>
+      <c r="P89" s="71"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="19"/>
@@ -11152,30 +11186,30 @@
       <c r="Z89" s="19"/>
     </row>
     <row r="90" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A90" s="118" t="s">
-        <v>145</v>
-      </c>
-      <c r="B90" s="124" t="s">
+      <c r="A90" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="102" t="s">
-        <v>401</v>
-      </c>
-      <c r="D90" s="102" t="s">
-        <v>319</v>
-      </c>
-      <c r="E90" s="130"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="70"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="K90" s="70"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="131"/>
-      <c r="N90" s="72"/>
-      <c r="O90" s="72"/>
-      <c r="P90" s="72"/>
+      <c r="C90" s="101" t="s">
+        <v>377</v>
+      </c>
+      <c r="D90" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" s="129"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="90"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="130"/>
+      <c r="N90" s="71"/>
+      <c r="O90" s="71"/>
+      <c r="P90" s="71"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
       <c r="S90" s="19"/>
@@ -11188,30 +11222,30 @@
       <c r="Z90" s="19"/>
     </row>
     <row r="91" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A91" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="B91" s="124" t="s">
+      <c r="A91" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="102" t="s">
-        <v>402</v>
-      </c>
-      <c r="D91" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="E91" s="130"/>
-      <c r="F91" s="122"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="117"/>
-      <c r="N91" s="72"/>
-      <c r="O91" s="72"/>
-      <c r="P91" s="72"/>
+      <c r="C91" s="101" t="s">
+        <v>378</v>
+      </c>
+      <c r="D91" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="E91" s="129"/>
+      <c r="F91" s="121"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="69"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="69"/>
+      <c r="M91" s="116"/>
+      <c r="N91" s="71"/>
+      <c r="O91" s="71"/>
+      <c r="P91" s="71"/>
       <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
       <c r="S91" s="19"/>
@@ -11224,30 +11258,30 @@
       <c r="Z91" s="19"/>
     </row>
     <row r="92" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A92" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="124" t="s">
+      <c r="A92" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="102" t="s">
-        <v>403</v>
-      </c>
-      <c r="D92" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E92" s="130"/>
-      <c r="F92" s="122"/>
-      <c r="G92" s="91"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="117"/>
-      <c r="N92" s="72"/>
-      <c r="O92" s="72"/>
-      <c r="P92" s="72"/>
+      <c r="C92" s="101" t="s">
+        <v>379</v>
+      </c>
+      <c r="D92" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" s="129"/>
+      <c r="F92" s="121"/>
+      <c r="G92" s="90"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="116"/>
+      <c r="N92" s="71"/>
+      <c r="O92" s="71"/>
+      <c r="P92" s="71"/>
       <c r="Q92" s="19"/>
       <c r="R92" s="19"/>
       <c r="S92" s="19"/>
@@ -11260,30 +11294,30 @@
       <c r="Z92" s="19"/>
     </row>
     <row r="93" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A93" s="111" t="s">
-        <v>148</v>
-      </c>
-      <c r="B93" s="121" t="s">
+      <c r="A93" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="102" t="s">
-        <v>404</v>
-      </c>
-      <c r="D93" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E93" s="130"/>
-      <c r="F93" s="122"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="70"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="70"/>
-      <c r="M93" s="117"/>
-      <c r="N93" s="72"/>
-      <c r="O93" s="72"/>
-      <c r="P93" s="72"/>
+      <c r="C93" s="101" t="s">
+        <v>380</v>
+      </c>
+      <c r="D93" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="129"/>
+      <c r="F93" s="121"/>
+      <c r="G93" s="90"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="116"/>
+      <c r="N93" s="71"/>
+      <c r="O93" s="71"/>
+      <c r="P93" s="71"/>
       <c r="Q93" s="19"/>
       <c r="R93" s="19"/>
       <c r="S93" s="19"/>
@@ -11296,24 +11330,24 @@
       <c r="Z93" s="19"/>
     </row>
     <row r="94" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A94" s="205" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" s="206"/>
-      <c r="C94" s="207"/>
-      <c r="D94" s="207"/>
-      <c r="E94" s="208"/>
-      <c r="F94" s="208"/>
-      <c r="G94" s="208"/>
-      <c r="H94" s="142"/>
-      <c r="I94" s="143"/>
-      <c r="J94" s="143"/>
-      <c r="K94" s="143"/>
-      <c r="L94" s="143"/>
-      <c r="M94" s="144"/>
-      <c r="N94" s="144"/>
-      <c r="O94" s="144"/>
-      <c r="P94" s="150"/>
+      <c r="A94" s="216" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" s="217"/>
+      <c r="C94" s="218"/>
+      <c r="D94" s="218"/>
+      <c r="E94" s="219"/>
+      <c r="F94" s="219"/>
+      <c r="G94" s="219"/>
+      <c r="H94" s="141"/>
+      <c r="I94" s="142"/>
+      <c r="J94" s="142"/>
+      <c r="K94" s="142"/>
+      <c r="L94" s="142"/>
+      <c r="M94" s="143"/>
+      <c r="N94" s="143"/>
+      <c r="O94" s="143"/>
+      <c r="P94" s="149"/>
       <c r="Q94" s="19"/>
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
@@ -11326,30 +11360,30 @@
       <c r="Z94" s="19"/>
     </row>
     <row r="95" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A95" s="118" t="s">
-        <v>150</v>
-      </c>
-      <c r="B95" s="124" t="s">
+      <c r="A95" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="102" t="s">
-        <v>405</v>
-      </c>
-      <c r="D95" s="125" t="s">
-        <v>315</v>
-      </c>
-      <c r="E95" s="122"/>
-      <c r="F95" s="122"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="70"/>
-      <c r="L95" s="70"/>
-      <c r="M95" s="72"/>
-      <c r="N95" s="72"/>
-      <c r="O95" s="72"/>
-      <c r="P95" s="72"/>
+      <c r="C95" s="101" t="s">
+        <v>381</v>
+      </c>
+      <c r="D95" s="124" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="121"/>
+      <c r="F95" s="121"/>
+      <c r="G95" s="90"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="71"/>
       <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
       <c r="S95" s="19"/>
@@ -11362,30 +11396,30 @@
       <c r="Z95" s="19"/>
     </row>
     <row r="96" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A96" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="B96" s="121" t="s">
+      <c r="A96" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="102" t="s">
-        <v>406</v>
-      </c>
-      <c r="D96" s="125" t="s">
-        <v>310</v>
-      </c>
-      <c r="E96" s="122"/>
-      <c r="F96" s="122"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
-      <c r="K96" s="70"/>
-      <c r="L96" s="70"/>
-      <c r="M96" s="72"/>
-      <c r="N96" s="72"/>
-      <c r="O96" s="72"/>
-      <c r="P96" s="72"/>
+      <c r="C96" s="101" t="s">
+        <v>382</v>
+      </c>
+      <c r="D96" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96" s="121"/>
+      <c r="F96" s="121"/>
+      <c r="G96" s="90"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
       <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
       <c r="S96" s="19"/>
@@ -11398,24 +11432,24 @@
       <c r="Z96" s="19"/>
     </row>
     <row r="97" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="197"/>
-      <c r="C97" s="197"/>
-      <c r="D97" s="197"/>
-      <c r="E97" s="197"/>
-      <c r="F97" s="197"/>
-      <c r="G97" s="197"/>
-      <c r="H97" s="142"/>
-      <c r="I97" s="143"/>
-      <c r="J97" s="143"/>
-      <c r="K97" s="143"/>
-      <c r="L97" s="143"/>
-      <c r="M97" s="144"/>
-      <c r="N97" s="144"/>
-      <c r="O97" s="144"/>
-      <c r="P97" s="150"/>
+      <c r="A97" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="213"/>
+      <c r="C97" s="213"/>
+      <c r="D97" s="213"/>
+      <c r="E97" s="213"/>
+      <c r="F97" s="213"/>
+      <c r="G97" s="213"/>
+      <c r="H97" s="141"/>
+      <c r="I97" s="142"/>
+      <c r="J97" s="142"/>
+      <c r="K97" s="142"/>
+      <c r="L97" s="142"/>
+      <c r="M97" s="143"/>
+      <c r="N97" s="143"/>
+      <c r="O97" s="143"/>
+      <c r="P97" s="149"/>
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="19"/>
@@ -11428,30 +11462,30 @@
       <c r="Z97" s="19"/>
     </row>
     <row r="98" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A98" s="111" t="s">
-        <v>153</v>
-      </c>
-      <c r="B98" s="121" t="s">
+      <c r="A98" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="105" t="s">
-        <v>407</v>
-      </c>
-      <c r="D98" s="105" t="s">
-        <v>326</v>
-      </c>
-      <c r="E98" s="122"/>
-      <c r="F98" s="122"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="131"/>
-      <c r="N98" s="71"/>
-      <c r="O98" s="72"/>
-      <c r="P98" s="72"/>
+      <c r="C98" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="D98" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="130"/>
+      <c r="N98" s="70"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="71"/>
       <c r="Q98" s="19"/>
       <c r="R98" s="19"/>
       <c r="S98" s="19"/>
@@ -11464,24 +11498,24 @@
       <c r="Z98" s="19"/>
     </row>
     <row r="99" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A99" s="196" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" s="198"/>
-      <c r="C99" s="198"/>
-      <c r="D99" s="198"/>
-      <c r="E99" s="197"/>
-      <c r="F99" s="197"/>
-      <c r="G99" s="197"/>
-      <c r="H99" s="142"/>
-      <c r="I99" s="143"/>
-      <c r="J99" s="143"/>
-      <c r="K99" s="143"/>
-      <c r="L99" s="143"/>
-      <c r="M99" s="144"/>
-      <c r="N99" s="144"/>
-      <c r="O99" s="144"/>
-      <c r="P99" s="150"/>
+      <c r="A99" s="212" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="214"/>
+      <c r="C99" s="214"/>
+      <c r="D99" s="214"/>
+      <c r="E99" s="213"/>
+      <c r="F99" s="213"/>
+      <c r="G99" s="213"/>
+      <c r="H99" s="141"/>
+      <c r="I99" s="142"/>
+      <c r="J99" s="142"/>
+      <c r="K99" s="142"/>
+      <c r="L99" s="142"/>
+      <c r="M99" s="143"/>
+      <c r="N99" s="143"/>
+      <c r="O99" s="143"/>
+      <c r="P99" s="149"/>
       <c r="Q99" s="19"/>
       <c r="R99" s="19"/>
       <c r="S99" s="19"/>
@@ -11494,30 +11528,30 @@
       <c r="Z99" s="19"/>
     </row>
     <row r="100" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A100" s="118" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" s="124" t="s">
+      <c r="A100" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="102" t="s">
-        <v>408</v>
-      </c>
-      <c r="D100" s="102" t="s">
-        <v>315</v>
-      </c>
-      <c r="E100" s="132"/>
-      <c r="F100" s="122"/>
-      <c r="G100" s="91"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="70"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="71"/>
-      <c r="O100" s="72"/>
-      <c r="P100" s="72"/>
+      <c r="C100" s="101" t="s">
+        <v>384</v>
+      </c>
+      <c r="D100" s="101" t="s">
+        <v>291</v>
+      </c>
+      <c r="E100" s="131"/>
+      <c r="F100" s="121"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="69"/>
+      <c r="J100" s="69"/>
+      <c r="K100" s="69"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="71"/>
+      <c r="N100" s="70"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="71"/>
       <c r="Q100" s="19"/>
       <c r="R100" s="19"/>
       <c r="S100" s="19"/>
@@ -11530,30 +11564,30 @@
       <c r="Z100" s="19"/>
     </row>
     <row r="101" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A101" s="118" t="s">
-        <v>156</v>
-      </c>
-      <c r="B101" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="102" t="s">
-        <v>409</v>
-      </c>
-      <c r="D101" s="102" t="s">
-        <v>315</v>
-      </c>
-      <c r="E101" s="130"/>
-      <c r="F101" s="122"/>
-      <c r="G101" s="91"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="83"/>
-      <c r="J101" s="83"/>
-      <c r="K101" s="83"/>
-      <c r="L101" s="83"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="73"/>
-      <c r="O101" s="73"/>
-      <c r="P101" s="73"/>
+      <c r="A101" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="D101" s="101" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="129"/>
+      <c r="F101" s="121"/>
+      <c r="G101" s="90"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="82"/>
+      <c r="J101" s="82"/>
+      <c r="K101" s="82"/>
+      <c r="L101" s="82"/>
+      <c r="M101" s="71"/>
+      <c r="N101" s="72"/>
+      <c r="O101" s="72"/>
+      <c r="P101" s="72"/>
       <c r="Q101" s="19"/>
       <c r="R101" s="19"/>
       <c r="S101" s="19"/>
@@ -11566,30 +11600,30 @@
       <c r="Z101" s="19"/>
     </row>
     <row r="102" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A102" s="118" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" s="102" t="s">
-        <v>410</v>
-      </c>
-      <c r="D102" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E102" s="130"/>
-      <c r="F102" s="122"/>
-      <c r="G102" s="91"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="70"/>
-      <c r="K102" s="70"/>
-      <c r="L102" s="70"/>
-      <c r="M102" s="72"/>
-      <c r="N102" s="90"/>
-      <c r="O102" s="72"/>
-      <c r="P102" s="72"/>
+      <c r="A102" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="101" t="s">
+        <v>386</v>
+      </c>
+      <c r="D102" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E102" s="129"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="90"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="89"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
       <c r="Q102" s="19"/>
       <c r="R102" s="19"/>
       <c r="S102" s="19"/>
@@ -11602,24 +11636,24 @@
       <c r="Z102" s="19"/>
     </row>
     <row r="103" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="209" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="204"/>
-      <c r="C103" s="204"/>
-      <c r="D103" s="204"/>
-      <c r="E103" s="198"/>
-      <c r="F103" s="198"/>
-      <c r="G103" s="198"/>
-      <c r="H103" s="142"/>
-      <c r="I103" s="143"/>
-      <c r="J103" s="143"/>
-      <c r="K103" s="143"/>
-      <c r="L103" s="143"/>
-      <c r="M103" s="144"/>
-      <c r="N103" s="144"/>
-      <c r="O103" s="144"/>
-      <c r="P103" s="150"/>
+      <c r="A103" s="220" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="215"/>
+      <c r="C103" s="215"/>
+      <c r="D103" s="215"/>
+      <c r="E103" s="214"/>
+      <c r="F103" s="214"/>
+      <c r="G103" s="214"/>
+      <c r="H103" s="141"/>
+      <c r="I103" s="142"/>
+      <c r="J103" s="142"/>
+      <c r="K103" s="142"/>
+      <c r="L103" s="142"/>
+      <c r="M103" s="143"/>
+      <c r="N103" s="143"/>
+      <c r="O103" s="143"/>
+      <c r="P103" s="149"/>
       <c r="Q103" s="19"/>
       <c r="R103" s="19"/>
       <c r="S103" s="19"/>
@@ -11632,30 +11666,30 @@
       <c r="Z103" s="19"/>
     </row>
     <row r="104" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A104" s="118" t="s">
-        <v>160</v>
-      </c>
-      <c r="B104" s="124" t="s">
+      <c r="A104" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="102" t="s">
-        <v>411</v>
-      </c>
-      <c r="D104" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E104" s="130"/>
-      <c r="F104" s="122"/>
-      <c r="G104" s="91"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70"/>
-      <c r="L104" s="70"/>
-      <c r="M104" s="71"/>
-      <c r="N104" s="72"/>
-      <c r="O104" s="72"/>
-      <c r="P104" s="72"/>
+      <c r="C104" s="101" t="s">
+        <v>387</v>
+      </c>
+      <c r="D104" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E104" s="129"/>
+      <c r="F104" s="121"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="69"/>
+      <c r="J104" s="69"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="69"/>
+      <c r="M104" s="70"/>
+      <c r="N104" s="71"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="71"/>
       <c r="Q104" s="19"/>
       <c r="R104" s="19"/>
       <c r="S104" s="19"/>
@@ -11668,30 +11702,30 @@
       <c r="Z104" s="19"/>
     </row>
     <row r="105" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A105" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="B105" s="124" t="s">
+      <c r="A105" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="102" t="s">
-        <v>412</v>
-      </c>
-      <c r="D105" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E105" s="130"/>
-      <c r="F105" s="122"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="71"/>
-      <c r="N105" s="72"/>
-      <c r="O105" s="72"/>
-      <c r="P105" s="72"/>
+      <c r="C105" s="101" t="s">
+        <v>388</v>
+      </c>
+      <c r="D105" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E105" s="129"/>
+      <c r="F105" s="121"/>
+      <c r="G105" s="90"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="70"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="71"/>
       <c r="Q105" s="19"/>
       <c r="R105" s="19"/>
       <c r="S105" s="19"/>
@@ -11704,30 +11738,30 @@
       <c r="Z105" s="19"/>
     </row>
     <row r="106" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A106" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="B106" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="102" t="s">
-        <v>339</v>
-      </c>
-      <c r="D106" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="E106" s="130"/>
-      <c r="F106" s="122"/>
-      <c r="G106" s="91"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="70"/>
-      <c r="M106" s="71"/>
-      <c r="N106" s="71"/>
-      <c r="O106" s="72"/>
-      <c r="P106" s="72"/>
+      <c r="A106" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="101" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E106" s="129"/>
+      <c r="F106" s="121"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="69"/>
+      <c r="J106" s="69"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="70"/>
+      <c r="N106" s="70"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
       <c r="Q106" s="19"/>
       <c r="R106" s="19"/>
       <c r="S106" s="19"/>
@@ -11740,30 +11774,30 @@
       <c r="Z106" s="19"/>
     </row>
     <row r="107" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A107" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="124" t="s">
+      <c r="A107" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="106" t="s">
-        <v>413</v>
-      </c>
-      <c r="D107" s="92" t="s">
-        <v>310</v>
-      </c>
-      <c r="E107" s="133"/>
-      <c r="F107" s="164"/>
-      <c r="G107" s="165"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="71"/>
-      <c r="L107" s="71"/>
-      <c r="M107" s="71"/>
-      <c r="N107" s="72"/>
-      <c r="O107" s="72"/>
-      <c r="P107" s="72"/>
+      <c r="C107" s="105" t="s">
+        <v>389</v>
+      </c>
+      <c r="D107" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="E107" s="132"/>
+      <c r="F107" s="163"/>
+      <c r="G107" s="164"/>
+      <c r="H107" s="69"/>
+      <c r="I107" s="70"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="70"/>
+      <c r="L107" s="70"/>
+      <c r="M107" s="70"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="71"/>
       <c r="Q107" s="19"/>
       <c r="R107" s="19"/>
       <c r="S107" s="19"/>
@@ -11776,24 +11810,24 @@
       <c r="Z107" s="19"/>
     </row>
     <row r="108" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A108" s="196" t="s">
-        <v>164</v>
-      </c>
-      <c r="B108" s="198"/>
-      <c r="C108" s="204"/>
-      <c r="D108" s="204"/>
-      <c r="E108" s="197"/>
-      <c r="F108" s="197"/>
-      <c r="G108" s="197"/>
-      <c r="H108" s="142"/>
-      <c r="I108" s="143"/>
-      <c r="J108" s="143"/>
-      <c r="K108" s="143"/>
-      <c r="L108" s="143"/>
-      <c r="M108" s="144"/>
-      <c r="N108" s="144"/>
-      <c r="O108" s="144"/>
-      <c r="P108" s="150"/>
+      <c r="A108" s="212" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="214"/>
+      <c r="C108" s="215"/>
+      <c r="D108" s="215"/>
+      <c r="E108" s="213"/>
+      <c r="F108" s="213"/>
+      <c r="G108" s="213"/>
+      <c r="H108" s="141"/>
+      <c r="I108" s="142"/>
+      <c r="J108" s="142"/>
+      <c r="K108" s="142"/>
+      <c r="L108" s="142"/>
+      <c r="M108" s="143"/>
+      <c r="N108" s="143"/>
+      <c r="O108" s="143"/>
+      <c r="P108" s="149"/>
       <c r="Q108" s="19"/>
       <c r="R108" s="19"/>
       <c r="S108" s="19"/>
@@ -11806,30 +11840,30 @@
       <c r="Z108" s="19"/>
     </row>
     <row r="109" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A109" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="B109" s="135" t="s">
+      <c r="A109" s="133" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="107" t="s">
-        <v>414</v>
-      </c>
-      <c r="D109" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="E109" s="130"/>
-      <c r="F109" s="122"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="81"/>
-      <c r="J109" s="81"/>
-      <c r="K109" s="81"/>
-      <c r="L109" s="81"/>
-      <c r="M109" s="71"/>
-      <c r="N109" s="82"/>
-      <c r="O109" s="82"/>
-      <c r="P109" s="82"/>
+      <c r="C109" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="D109" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="E109" s="129"/>
+      <c r="F109" s="121"/>
+      <c r="G109" s="90"/>
+      <c r="H109" s="80"/>
+      <c r="I109" s="80"/>
+      <c r="J109" s="80"/>
+      <c r="K109" s="80"/>
+      <c r="L109" s="80"/>
+      <c r="M109" s="70"/>
+      <c r="N109" s="81"/>
+      <c r="O109" s="81"/>
+      <c r="P109" s="81"/>
       <c r="Q109" s="19"/>
       <c r="R109" s="19"/>
       <c r="S109" s="19"/>
@@ -11842,30 +11876,30 @@
       <c r="Z109" s="19"/>
     </row>
     <row r="110" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A110" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="B110" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="D110" s="107" t="s">
-        <v>319</v>
-      </c>
-      <c r="E110" s="130"/>
-      <c r="F110" s="122"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="81"/>
-      <c r="I110" s="81"/>
-      <c r="J110" s="81"/>
-      <c r="K110" s="81"/>
-      <c r="L110" s="81"/>
-      <c r="M110" s="71"/>
-      <c r="N110" s="82"/>
-      <c r="O110" s="82"/>
-      <c r="P110" s="82"/>
+      <c r="A110" s="135" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="106" t="s">
+        <v>391</v>
+      </c>
+      <c r="D110" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="E110" s="129"/>
+      <c r="F110" s="121"/>
+      <c r="G110" s="90"/>
+      <c r="H110" s="80"/>
+      <c r="I110" s="80"/>
+      <c r="J110" s="80"/>
+      <c r="K110" s="80"/>
+      <c r="L110" s="80"/>
+      <c r="M110" s="70"/>
+      <c r="N110" s="81"/>
+      <c r="O110" s="81"/>
+      <c r="P110" s="81"/>
       <c r="Q110" s="19"/>
       <c r="R110" s="19"/>
       <c r="S110" s="19"/>
@@ -11878,28 +11912,28 @@
       <c r="Z110" s="19"/>
     </row>
     <row r="111" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A111" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="B111" s="135"/>
-      <c r="C111" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D111" s="107" t="s">
-        <v>327</v>
-      </c>
-      <c r="E111" s="130"/>
-      <c r="F111" s="122"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="81"/>
-      <c r="I111" s="81"/>
-      <c r="J111" s="81"/>
-      <c r="K111" s="81"/>
-      <c r="L111" s="81"/>
-      <c r="M111" s="71"/>
-      <c r="N111" s="82"/>
-      <c r="O111" s="82"/>
-      <c r="P111" s="82"/>
+      <c r="A111" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="134"/>
+      <c r="C111" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="E111" s="129"/>
+      <c r="F111" s="121"/>
+      <c r="G111" s="90"/>
+      <c r="H111" s="80"/>
+      <c r="I111" s="80"/>
+      <c r="J111" s="80"/>
+      <c r="K111" s="80"/>
+      <c r="L111" s="80"/>
+      <c r="M111" s="70"/>
+      <c r="N111" s="81"/>
+      <c r="O111" s="81"/>
+      <c r="P111" s="81"/>
       <c r="Q111" s="19"/>
       <c r="R111" s="19"/>
       <c r="S111" s="19"/>
@@ -11912,30 +11946,30 @@
       <c r="Z111" s="19"/>
     </row>
     <row r="112" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A112" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="B112" s="135" t="s">
+      <c r="A112" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="C112" s="107" t="s">
-        <v>416</v>
-      </c>
-      <c r="D112" s="107" t="s">
-        <v>319</v>
-      </c>
-      <c r="E112" s="130"/>
-      <c r="F112" s="122"/>
-      <c r="G112" s="91"/>
-      <c r="H112" s="81"/>
-      <c r="I112" s="81"/>
-      <c r="J112" s="81"/>
-      <c r="K112" s="81"/>
-      <c r="L112" s="81"/>
-      <c r="M112" s="71"/>
-      <c r="N112" s="82"/>
-      <c r="O112" s="82"/>
-      <c r="P112" s="82"/>
+      <c r="C112" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="D112" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="E112" s="129"/>
+      <c r="F112" s="121"/>
+      <c r="G112" s="90"/>
+      <c r="H112" s="80"/>
+      <c r="I112" s="80"/>
+      <c r="J112" s="80"/>
+      <c r="K112" s="80"/>
+      <c r="L112" s="80"/>
+      <c r="M112" s="70"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
       <c r="Q112" s="19"/>
       <c r="R112" s="19"/>
       <c r="S112" s="19"/>
@@ -11948,24 +11982,24 @@
       <c r="Z112" s="19"/>
     </row>
     <row r="113" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A113" s="196" t="s">
-        <v>170</v>
-      </c>
-      <c r="B113" s="198"/>
-      <c r="C113" s="204"/>
-      <c r="D113" s="204"/>
-      <c r="E113" s="197"/>
-      <c r="F113" s="197"/>
-      <c r="G113" s="197"/>
-      <c r="H113" s="142"/>
-      <c r="I113" s="143"/>
-      <c r="J113" s="143"/>
-      <c r="K113" s="143"/>
-      <c r="L113" s="143"/>
-      <c r="M113" s="144"/>
-      <c r="N113" s="144"/>
-      <c r="O113" s="144"/>
-      <c r="P113" s="150"/>
+      <c r="A113" s="212" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="214"/>
+      <c r="C113" s="215"/>
+      <c r="D113" s="215"/>
+      <c r="E113" s="213"/>
+      <c r="F113" s="213"/>
+      <c r="G113" s="213"/>
+      <c r="H113" s="141"/>
+      <c r="I113" s="142"/>
+      <c r="J113" s="142"/>
+      <c r="K113" s="142"/>
+      <c r="L113" s="142"/>
+      <c r="M113" s="143"/>
+      <c r="N113" s="143"/>
+      <c r="O113" s="143"/>
+      <c r="P113" s="149"/>
       <c r="Q113" s="19"/>
       <c r="R113" s="19"/>
       <c r="S113" s="19"/>
@@ -11978,30 +12012,30 @@
       <c r="Z113" s="19"/>
     </row>
     <row r="114" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A114" s="134" t="s">
-        <v>171</v>
-      </c>
-      <c r="B114" s="135" t="s">
+      <c r="A114" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="107" t="s">
-        <v>417</v>
-      </c>
-      <c r="D114" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="E114" s="130"/>
-      <c r="F114" s="122"/>
-      <c r="G114" s="91"/>
-      <c r="H114" s="81"/>
-      <c r="I114" s="81"/>
-      <c r="J114" s="81"/>
-      <c r="K114" s="81"/>
-      <c r="L114" s="81"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="82"/>
-      <c r="O114" s="82"/>
-      <c r="P114" s="82"/>
+      <c r="C114" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="E114" s="129"/>
+      <c r="F114" s="121"/>
+      <c r="G114" s="90"/>
+      <c r="H114" s="80"/>
+      <c r="I114" s="80"/>
+      <c r="J114" s="80"/>
+      <c r="K114" s="80"/>
+      <c r="L114" s="80"/>
+      <c r="M114" s="70"/>
+      <c r="N114" s="81"/>
+      <c r="O114" s="81"/>
+      <c r="P114" s="81"/>
       <c r="Q114" s="19"/>
       <c r="R114" s="19"/>
       <c r="S114" s="19"/>
@@ -12014,30 +12048,30 @@
       <c r="Z114" s="19"/>
     </row>
     <row r="115" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A115" s="134" t="s">
-        <v>172</v>
-      </c>
-      <c r="B115" s="137" t="s">
+      <c r="A115" s="133" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="107" t="s">
-        <v>418</v>
-      </c>
-      <c r="D115" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="E115" s="130"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="91"/>
-      <c r="H115" s="83"/>
-      <c r="I115" s="81"/>
-      <c r="J115" s="81"/>
-      <c r="K115" s="81"/>
-      <c r="L115" s="81"/>
-      <c r="M115" s="71"/>
-      <c r="N115" s="82"/>
-      <c r="O115" s="82"/>
-      <c r="P115" s="82"/>
+      <c r="C115" s="106" t="s">
+        <v>394</v>
+      </c>
+      <c r="D115" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="E115" s="129"/>
+      <c r="F115" s="121"/>
+      <c r="G115" s="90"/>
+      <c r="H115" s="82"/>
+      <c r="I115" s="80"/>
+      <c r="J115" s="80"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="80"/>
+      <c r="M115" s="70"/>
+      <c r="N115" s="81"/>
+      <c r="O115" s="81"/>
+      <c r="P115" s="81"/>
       <c r="Q115" s="19"/>
       <c r="R115" s="19"/>
       <c r="S115" s="19"/>
@@ -12050,30 +12084,30 @@
       <c r="Z115" s="19"/>
     </row>
     <row r="116" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A116" s="138" t="s">
-        <v>173</v>
-      </c>
-      <c r="B116" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="C116" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="D116" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="E116" s="139"/>
-      <c r="F116" s="140"/>
-      <c r="G116" s="141"/>
-      <c r="H116" s="83"/>
-      <c r="I116" s="81"/>
-      <c r="J116" s="81"/>
-      <c r="K116" s="81"/>
-      <c r="L116" s="81"/>
-      <c r="M116" s="71"/>
-      <c r="N116" s="82"/>
-      <c r="O116" s="82"/>
-      <c r="P116" s="82"/>
+      <c r="A116" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="106" t="s">
+        <v>395</v>
+      </c>
+      <c r="D116" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="E116" s="138"/>
+      <c r="F116" s="139"/>
+      <c r="G116" s="140"/>
+      <c r="H116" s="82"/>
+      <c r="I116" s="80"/>
+      <c r="J116" s="80"/>
+      <c r="K116" s="80"/>
+      <c r="L116" s="80"/>
+      <c r="M116" s="70"/>
+      <c r="N116" s="81"/>
+      <c r="O116" s="81"/>
+      <c r="P116" s="81"/>
       <c r="Q116" s="19"/>
       <c r="R116" s="19"/>
       <c r="S116" s="19"/>
@@ -15913,6 +15947,11 @@
   </sheetData>
   <autoFilter ref="B1:B473" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="R6:U17"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A108:G108"/>
@@ -15923,11 +15962,6 @@
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="36" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F5CC24-DCDD-4252-AB96-FB0C18C04CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95103779-533D-4953-9E2A-61050ADBCCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformance Statement" sheetId="2" r:id="rId1"/>
@@ -5277,113 +5277,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5392,14 +5310,107 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -5413,6 +5424,24 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -5437,35 +5466,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40 % - Akzent3" xfId="3" builtinId="39"/>
@@ -5755,7 +5755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+    <sheetView topLeftCell="A221" workbookViewId="0">
       <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
@@ -5769,19 +5769,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="176" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
@@ -5791,10 +5791,10 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="189"/>
+      <c r="B6" s="197"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -5844,70 +5844,70 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="191"/>
+      <c r="B14" s="199"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
       <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="207"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="166" t="s">
         <v>401</v>
       </c>
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="211" t="s">
         <v>405</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="181"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="167" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="200" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="202"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="167" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="200" t="s">
         <v>404</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="167" t="s">
         <v>402</v>
       </c>
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="200" t="s">
         <v>408</v>
       </c>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="202"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="167" t="s">
         <v>403</v>
       </c>
-      <c r="B20" s="182" t="s">
+      <c r="B20" s="200" t="s">
         <v>407</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="202"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
@@ -5915,70 +5915,70 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A23" s="170" t="s">
+      <c r="A23" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="204"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="210"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="211" t="s">
         <v>405</v>
       </c>
-      <c r="C25" s="180"/>
-      <c r="D25" s="181"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="213"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="200" t="s">
         <v>406</v>
       </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="184"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B27" s="182" t="s">
+      <c r="B27" s="200" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="183"/>
-      <c r="D27" s="184"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="200" t="s">
         <v>408</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="200" t="s">
         <v>407</v>
       </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="184"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="165"/>
@@ -5990,13 +5990,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A32" s="172" t="s">
+      <c r="A32" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="35" spans="1:5" ht="15.75" thickBot="1">
@@ -6187,13 +6187,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="57" customHeight="1">
-      <c r="A48" s="172" t="s">
+      <c r="A48" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="172"/>
-      <c r="C48" s="172"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="172"/>
+      <c r="B48" s="193"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
     <row r="50" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
@@ -6306,13 +6306,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A59" s="172" t="s">
+      <c r="A59" s="193" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="172"/>
-      <c r="C59" s="172"/>
-      <c r="D59" s="172"/>
-      <c r="E59" s="172"/>
+      <c r="B59" s="193"/>
+      <c r="C59" s="193"/>
+      <c r="D59" s="193"/>
+      <c r="E59" s="193"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="10"/>
@@ -6334,12 +6334,12 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="36" customHeight="1">
-      <c r="A64" s="172" t="s">
+      <c r="A64" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="172"/>
-      <c r="C64" s="172"/>
-      <c r="D64" s="172"/>
+      <c r="B64" s="193"/>
+      <c r="C64" s="193"/>
+      <c r="D64" s="193"/>
       <c r="E64" s="8"/>
     </row>
     <row r="66" spans="1:5">
@@ -6351,12 +6351,12 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="172" t="s">
+      <c r="A69" s="193" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="172"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="172"/>
+      <c r="B69" s="193"/>
+      <c r="C69" s="193"/>
+      <c r="D69" s="193"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="71" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
@@ -6437,13 +6437,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A80" s="185" t="s">
+      <c r="A80" s="194" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="185"/>
-      <c r="C80" s="186"/>
-      <c r="D80" s="186"/>
-      <c r="E80" s="186"/>
+      <c r="B80" s="194"/>
+      <c r="C80" s="190"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="190"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="82" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
@@ -6537,10 +6537,10 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="187" t="s">
+      <c r="A91" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="B91" s="187"/>
+      <c r="B91" s="195"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
@@ -6556,12 +6556,12 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A97" s="195" t="s">
+      <c r="A97" s="189" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="186"/>
-      <c r="C97" s="186"/>
-      <c r="D97" s="186"/>
+      <c r="B97" s="190"/>
+      <c r="C97" s="190"/>
+      <c r="D97" s="190"/>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1">
       <c r="A98" t="s">
@@ -6677,12 +6677,12 @@
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A109" s="193" t="s">
+      <c r="A109" s="183" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="193"/>
-      <c r="C109" s="194"/>
-      <c r="D109" s="194"/>
+      <c r="B109" s="183"/>
+      <c r="C109" s="184"/>
+      <c r="D109" s="184"/>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1">
       <c r="A110" s="27" t="s">
@@ -6743,9 +6743,9 @@
       <c r="D116" s="57"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="196"/>
-      <c r="B117" s="196"/>
-      <c r="C117" s="197"/>
+      <c r="A117" s="191"/>
+      <c r="B117" s="191"/>
+      <c r="C117" s="192"/>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4">
@@ -6763,12 +6763,12 @@
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A120" s="192" t="s">
+      <c r="A120" s="182" t="s">
         <v>420</v>
       </c>
-      <c r="B120" s="192"/>
-      <c r="C120" s="168"/>
-      <c r="D120" s="168"/>
+      <c r="B120" s="182"/>
+      <c r="C120" s="176"/>
+      <c r="D120" s="176"/>
     </row>
     <row r="121" spans="1:4" ht="29.25" thickBot="1">
       <c r="A121" s="27" t="s">
@@ -6953,12 +6953,12 @@
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A137" s="192" t="s">
+      <c r="A137" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="B137" s="192"/>
-      <c r="C137" s="168"/>
-      <c r="D137" s="168"/>
+      <c r="B137" s="182"/>
+      <c r="C137" s="176"/>
+      <c r="D137" s="176"/>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1">
       <c r="A138" s="27" t="s">
@@ -7007,10 +7007,10 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="199" t="s">
+      <c r="A142" s="169" t="s">
         <v>258</v>
       </c>
-      <c r="B142" s="199"/>
+      <c r="B142" s="169"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
@@ -7021,12 +7021,12 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A144" s="192" t="s">
+      <c r="A144" s="182" t="s">
         <v>257</v>
       </c>
-      <c r="B144" s="192"/>
-      <c r="C144" s="168"/>
-      <c r="D144" s="168"/>
+      <c r="B144" s="182"/>
+      <c r="C144" s="176"/>
+      <c r="D144" s="176"/>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1">
       <c r="A145" s="27" t="s">
@@ -7069,12 +7069,12 @@
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A151" s="193" t="s">
+      <c r="A151" s="183" t="s">
         <v>210</v>
       </c>
-      <c r="B151" s="193"/>
-      <c r="C151" s="194"/>
-      <c r="D151" s="194"/>
+      <c r="B151" s="183"/>
+      <c r="C151" s="184"/>
+      <c r="D151" s="184"/>
     </row>
     <row r="152" spans="1:4" ht="29.25" thickBot="1">
       <c r="A152" s="27" t="s">
@@ -7153,10 +7153,10 @@
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" ht="39" customHeight="1" thickBot="1">
-      <c r="A159" s="198" t="s">
+      <c r="A159" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="B159" s="198"/>
+      <c r="B159" s="170"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
@@ -7201,10 +7201,10 @@
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="199" t="s">
+      <c r="A164" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B164" s="199"/>
+      <c r="B164" s="169"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
@@ -7215,22 +7215,22 @@
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:7" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A166" s="200" t="s">
+      <c r="A166" s="174" t="s">
         <v>215</v>
       </c>
-      <c r="B166" s="200"/>
-      <c r="C166" s="168"/>
-      <c r="D166" s="168"/>
+      <c r="B166" s="174"/>
+      <c r="C166" s="176"/>
+      <c r="D166" s="176"/>
     </row>
     <row r="167" spans="1:7" ht="24" customHeight="1" thickBot="1">
       <c r="A167" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="B167" s="227" t="s">
+      <c r="B167" s="186" t="s">
         <v>428</v>
       </c>
-      <c r="C167" s="226"/>
-      <c r="D167" s="228"/>
+      <c r="C167" s="187"/>
+      <c r="D167" s="188"/>
       <c r="F167" t="s">
         <v>430</v>
       </c>
@@ -7242,12 +7242,12 @@
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A169" s="201" t="s">
+      <c r="A169" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="B169" s="201"/>
-      <c r="C169" s="168"/>
-      <c r="D169" s="168"/>
+      <c r="B169" s="185"/>
+      <c r="C169" s="176"/>
+      <c r="D169" s="176"/>
       <c r="F169" t="s">
         <v>429</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="C172" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G172" s="229"/>
+      <c r="G172" s="168"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" thickBot="1">
       <c r="A173" s="55" t="s">
@@ -7291,7 +7291,7 @@
       <c r="C173" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G173" s="229"/>
+      <c r="G173" s="168"/>
     </row>
     <row r="174" spans="1:7" ht="15.75" thickBot="1">
       <c r="A174" s="55" t="s">
@@ -7305,20 +7305,20 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="199"/>
-      <c r="B175" s="199"/>
+      <c r="A175" s="169"/>
+      <c r="B175" s="169"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="41"/>
       <c r="B176" s="41"/>
     </row>
     <row r="177" spans="1:6" ht="63" customHeight="1" thickBot="1">
-      <c r="A177" s="193" t="s">
+      <c r="A177" s="183" t="s">
         <v>220</v>
       </c>
-      <c r="B177" s="193"/>
-      <c r="C177" s="194"/>
-      <c r="D177" s="194"/>
+      <c r="B177" s="183"/>
+      <c r="C177" s="184"/>
+      <c r="D177" s="184"/>
     </row>
     <row r="178" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
       <c r="A178" s="27" t="s">
@@ -7359,20 +7359,20 @@
       <c r="D181" s="57"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="207"/>
-      <c r="B182" s="207"/>
+      <c r="A182" s="181"/>
+      <c r="B182" s="181"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
     </row>
     <row r="184" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A184" s="192" t="s">
+      <c r="A184" s="182" t="s">
         <v>267</v>
       </c>
-      <c r="B184" s="192"/>
-      <c r="C184" s="168"/>
-      <c r="D184" s="168"/>
+      <c r="B184" s="182"/>
+      <c r="C184" s="176"/>
+      <c r="D184" s="176"/>
       <c r="F184" t="s">
         <v>431</v>
       </c>
@@ -7420,12 +7420,12 @@
       <c r="D192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A193" s="202" t="s">
+      <c r="A193" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="B193" s="202"/>
-      <c r="C193" s="203"/>
-      <c r="D193" s="203"/>
+      <c r="B193" s="177"/>
+      <c r="C193" s="178"/>
+      <c r="D193" s="178"/>
     </row>
     <row r="194" spans="1:6" ht="15.75" thickBot="1">
       <c r="A194" s="24" t="s">
@@ -7474,8 +7474,8 @@
       <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="199"/>
-      <c r="B199" s="199"/>
+      <c r="A199" s="169"/>
+      <c r="B199" s="169"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
@@ -7486,12 +7486,12 @@
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A201" s="204" t="s">
+      <c r="A201" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="B201" s="204"/>
-      <c r="C201" s="169"/>
-      <c r="D201" s="169"/>
+      <c r="B201" s="172"/>
+      <c r="C201" s="173"/>
+      <c r="D201" s="173"/>
       <c r="F201" t="s">
         <v>435</v>
       </c>
@@ -7530,19 +7530,19 @@
       <c r="B207" s="57"/>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="199"/>
-      <c r="B208" s="199"/>
+      <c r="A208" s="169"/>
+      <c r="B208" s="169"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="45"/>
     </row>
     <row r="210" spans="1:4" ht="33" customHeight="1" thickBot="1">
-      <c r="A210" s="205" t="s">
+      <c r="A210" s="179" t="s">
         <v>273</v>
       </c>
-      <c r="B210" s="205"/>
-      <c r="C210" s="206"/>
-      <c r="D210" s="206"/>
+      <c r="B210" s="179"/>
+      <c r="C210" s="180"/>
+      <c r="D210" s="180"/>
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1">
       <c r="A211" s="27" t="s">
@@ -7591,12 +7591,12 @@
       <c r="B216" s="41"/>
     </row>
     <row r="217" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A217" s="200" t="s">
+      <c r="A217" s="174" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="200"/>
-      <c r="C217" s="168"/>
-      <c r="D217" s="168"/>
+      <c r="B217" s="174"/>
+      <c r="C217" s="176"/>
+      <c r="D217" s="176"/>
     </row>
     <row r="218" spans="1:4" ht="45">
       <c r="A218" s="46" t="s">
@@ -7607,12 +7607,12 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="36" customHeight="1">
-      <c r="A220" s="204" t="s">
+      <c r="A220" s="172" t="s">
         <v>228</v>
       </c>
-      <c r="B220" s="204"/>
-      <c r="C220" s="169"/>
-      <c r="D220" s="169"/>
+      <c r="B220" s="172"/>
+      <c r="C220" s="173"/>
+      <c r="D220" s="173"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="46" t="s">
@@ -7634,12 +7634,12 @@
       </c>
     </row>
     <row r="224" spans="1:4" ht="43.5" customHeight="1">
-      <c r="A224" s="204" t="s">
+      <c r="A224" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="B224" s="204"/>
-      <c r="C224" s="169"/>
-      <c r="D224" s="169"/>
+      <c r="B224" s="172"/>
+      <c r="C224" s="173"/>
+      <c r="D224" s="173"/>
     </row>
     <row r="225" spans="1:6" ht="90">
       <c r="A225" s="46" t="s">
@@ -7655,12 +7655,12 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A228" s="204" t="s">
+      <c r="A228" s="172" t="s">
         <v>230</v>
       </c>
-      <c r="B228" s="204"/>
-      <c r="C228" s="169"/>
-      <c r="D228" s="169"/>
+      <c r="B228" s="172"/>
+      <c r="C228" s="173"/>
+      <c r="D228" s="173"/>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="46" t="s">
@@ -7679,12 +7679,12 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="33" customHeight="1">
-      <c r="A231" s="204" t="s">
+      <c r="A231" s="172" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="204"/>
-      <c r="C231" s="169"/>
-      <c r="D231" s="169"/>
+      <c r="B231" s="172"/>
+      <c r="C231" s="173"/>
+      <c r="D231" s="173"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="46" t="s">
@@ -7695,12 +7695,12 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A234" s="204" t="s">
+      <c r="A234" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="B234" s="204"/>
-      <c r="C234" s="169"/>
-      <c r="D234" s="169"/>
+      <c r="B234" s="172"/>
+      <c r="C234" s="173"/>
+      <c r="D234" s="173"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="46" t="s">
@@ -7711,12 +7711,12 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A237" s="200" t="s">
+      <c r="A237" s="174" t="s">
         <v>233</v>
       </c>
-      <c r="B237" s="200"/>
-      <c r="C237" s="169"/>
-      <c r="D237" s="169"/>
+      <c r="B237" s="174"/>
+      <c r="C237" s="173"/>
+      <c r="D237" s="173"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="46" t="s">
@@ -7732,12 +7732,12 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="45" customHeight="1">
-      <c r="A241" s="204" t="s">
+      <c r="A241" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="B241" s="204"/>
-      <c r="C241" s="169"/>
-      <c r="D241" s="169"/>
+      <c r="B241" s="172"/>
+      <c r="C241" s="173"/>
+      <c r="D241" s="173"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="46" t="s">
@@ -7753,12 +7753,12 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="42" customHeight="1">
-      <c r="A245" s="208" t="s">
+      <c r="A245" s="175" t="s">
         <v>235</v>
       </c>
-      <c r="B245" s="208"/>
-      <c r="C245" s="169"/>
-      <c r="D245" s="169"/>
+      <c r="B245" s="175"/>
+      <c r="C245" s="173"/>
+      <c r="D245" s="173"/>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:4" ht="15.75" thickBot="1">
@@ -7811,10 +7811,10 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A254" s="204" t="s">
+      <c r="A254" s="172" t="s">
         <v>238</v>
       </c>
-      <c r="B254" s="169"/>
+      <c r="B254" s="173"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="49"/>
@@ -7825,12 +7825,12 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A257" s="204" t="s">
+      <c r="A257" s="172" t="s">
         <v>239</v>
       </c>
-      <c r="B257" s="204"/>
-      <c r="C257" s="169"/>
-      <c r="D257" s="169"/>
+      <c r="B257" s="172"/>
+      <c r="C257" s="173"/>
+      <c r="D257" s="173"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="46" t="s">
@@ -7838,12 +7838,12 @@
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="204" t="s">
+      <c r="A260" s="172" t="s">
         <v>240</v>
       </c>
-      <c r="B260" s="204"/>
-      <c r="C260" s="169"/>
-      <c r="D260" s="169"/>
+      <c r="B260" s="172"/>
+      <c r="C260" s="173"/>
+      <c r="D260" s="173"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="46" t="s">
@@ -7852,16 +7852,16 @@
     </row>
     <row r="262" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="263" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A263" s="204" t="s">
+      <c r="A263" s="172" t="s">
         <v>241</v>
       </c>
-      <c r="B263" s="204"/>
+      <c r="B263" s="172"/>
     </row>
     <row r="264" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A264" s="204" t="s">
+      <c r="A264" s="172" t="s">
         <v>242</v>
       </c>
-      <c r="B264" s="204"/>
+      <c r="B264" s="172"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="46" t="s">
@@ -7869,12 +7869,12 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A267" s="198" t="s">
+      <c r="A267" s="170" t="s">
         <v>243</v>
       </c>
-      <c r="B267" s="198"/>
-      <c r="C267" s="209"/>
-      <c r="D267" s="209"/>
+      <c r="B267" s="170"/>
+      <c r="C267" s="171"/>
+      <c r="D267" s="171"/>
     </row>
     <row r="268" spans="1:4" ht="15.75" thickBot="1">
       <c r="A268" s="27" t="s">
@@ -7907,8 +7907,8 @@
       <c r="D270" s="12"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="199"/>
-      <c r="B271" s="199"/>
+      <c r="A271" s="169"/>
+      <c r="B271" s="169"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="41"/>
@@ -7933,12 +7933,12 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="39" customHeight="1">
-      <c r="A277" s="204" t="s">
+      <c r="A277" s="172" t="s">
         <v>245</v>
       </c>
-      <c r="B277" s="204"/>
-      <c r="C277" s="169"/>
-      <c r="D277" s="169"/>
+      <c r="B277" s="172"/>
+      <c r="C277" s="173"/>
+      <c r="D277" s="173"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="46" t="s">
@@ -7947,12 +7947,12 @@
       <c r="B278" s="8"/>
     </row>
     <row r="280" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A280" s="198" t="s">
+      <c r="A280" s="170" t="s">
         <v>246</v>
       </c>
-      <c r="B280" s="198"/>
-      <c r="C280" s="209"/>
-      <c r="D280" s="209"/>
+      <c r="B280" s="170"/>
+      <c r="C280" s="171"/>
+      <c r="D280" s="171"/>
     </row>
     <row r="281" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:4" ht="15.75" thickBot="1">
@@ -7995,54 +7995,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A32:E32"/>
@@ -8058,6 +8010,54 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8071,9 +8071,9 @@
   </sheetPr>
   <dimension ref="A1:XFD371"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8104,11 +8104,11 @@
       <c r="D1" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="221" t="s">
+      <c r="E1" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
@@ -8190,15 +8190,15 @@
       <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
       <c r="H4" s="152"/>
       <c r="I4" s="153"/>
       <c r="J4" s="153"/>
@@ -8267,12 +8267,12 @@
       <c r="N6" s="97"/>
       <c r="O6" s="97"/>
       <c r="P6" s="97"/>
-      <c r="R6" s="210" t="s">
+      <c r="R6" s="222" t="s">
         <v>285</v>
       </c>
-      <c r="S6" s="211"/>
-      <c r="T6" s="211"/>
-      <c r="U6" s="211"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="223"/>
+      <c r="U6" s="223"/>
     </row>
     <row r="7" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="110" t="s">
@@ -8301,10 +8301,10 @@
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
-      <c r="R7" s="211"/>
-      <c r="S7" s="211"/>
-      <c r="T7" s="211"/>
-      <c r="U7" s="211"/>
+      <c r="R7" s="223"/>
+      <c r="S7" s="223"/>
+      <c r="T7" s="223"/>
+      <c r="U7" s="223"/>
     </row>
     <row r="8" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="110" t="s">
@@ -8331,10 +8331,10 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
       <c r="P8" s="64"/>
-      <c r="R8" s="211"/>
-      <c r="S8" s="211"/>
-      <c r="T8" s="211"/>
-      <c r="U8" s="211"/>
+      <c r="R8" s="223"/>
+      <c r="S8" s="223"/>
+      <c r="T8" s="223"/>
+      <c r="U8" s="223"/>
     </row>
     <row r="9" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="110" t="s">
@@ -8361,10 +8361,10 @@
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
       <c r="P9" s="64"/>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="211"/>
-      <c r="U9" s="211"/>
+      <c r="R9" s="223"/>
+      <c r="S9" s="223"/>
+      <c r="T9" s="223"/>
+      <c r="U9" s="223"/>
     </row>
     <row r="10" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="110" t="s">
@@ -8391,10 +8391,10 @@
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
       <c r="P10" s="64"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="211"/>
-      <c r="U10" s="211"/>
+      <c r="R10" s="223"/>
+      <c r="S10" s="223"/>
+      <c r="T10" s="223"/>
+      <c r="U10" s="223"/>
       <c r="XFD10" s="75"/>
     </row>
     <row r="11" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
@@ -8422,10 +8422,10 @@
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="211"/>
+      <c r="R11" s="223"/>
+      <c r="S11" s="223"/>
+      <c r="T11" s="223"/>
+      <c r="U11" s="223"/>
     </row>
     <row r="12" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="110" t="s">
@@ -8452,10 +8452,10 @@
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
       <c r="P12" s="64"/>
-      <c r="R12" s="211"/>
-      <c r="S12" s="211"/>
-      <c r="T12" s="211"/>
-      <c r="U12" s="211"/>
+      <c r="R12" s="223"/>
+      <c r="S12" s="223"/>
+      <c r="T12" s="223"/>
+      <c r="U12" s="223"/>
     </row>
     <row r="13" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
       <c r="A13" s="110" t="s">
@@ -8483,10 +8483,10 @@
       <c r="O13" s="64"/>
       <c r="P13" s="64"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="211"/>
-      <c r="S13" s="211"/>
-      <c r="T13" s="211"/>
-      <c r="U13" s="211"/>
+      <c r="R13" s="223"/>
+      <c r="S13" s="223"/>
+      <c r="T13" s="223"/>
+      <c r="U13" s="223"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
@@ -8519,10 +8519,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="211"/>
-      <c r="S14" s="211"/>
-      <c r="T14" s="211"/>
-      <c r="U14" s="211"/>
+      <c r="R14" s="223"/>
+      <c r="S14" s="223"/>
+      <c r="T14" s="223"/>
+      <c r="U14" s="223"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
@@ -8555,10 +8555,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="19"/>
-      <c r="R15" s="211"/>
-      <c r="S15" s="211"/>
-      <c r="T15" s="211"/>
-      <c r="U15" s="211"/>
+      <c r="R15" s="223"/>
+      <c r="S15" s="223"/>
+      <c r="T15" s="223"/>
+      <c r="U15" s="223"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
@@ -8591,10 +8591,10 @@
       <c r="O16" s="72"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="19"/>
-      <c r="R16" s="211"/>
-      <c r="S16" s="211"/>
-      <c r="T16" s="211"/>
-      <c r="U16" s="211"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="223"/>
+      <c r="U16" s="223"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
@@ -8627,10 +8627,10 @@
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="211"/>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="223"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
@@ -8962,15 +8962,15 @@
       <c r="Z26" s="19"/>
     </row>
     <row r="27" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A27" s="212" t="s">
+      <c r="A27" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
+      <c r="B27" s="217"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="217"/>
       <c r="H27" s="141"/>
       <c r="I27" s="142"/>
       <c r="J27" s="142"/>
@@ -9280,15 +9280,15 @@
       <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A36" s="212" t="s">
+      <c r="A36" s="216" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="213"/>
-      <c r="C36" s="214"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="214"/>
+      <c r="B36" s="217"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="218"/>
       <c r="H36" s="141"/>
       <c r="I36" s="142"/>
       <c r="J36" s="142"/>
@@ -9382,11 +9382,11 @@
       <c r="Z38" s="19"/>
     </row>
     <row r="39" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A39" s="223" t="s">
+      <c r="A39" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="224"/>
-      <c r="C39" s="225"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="221"/>
       <c r="D39" s="126"/>
       <c r="E39" s="127"/>
       <c r="F39" s="127"/>
@@ -10484,15 +10484,15 @@
       <c r="Z69" s="19"/>
     </row>
     <row r="70" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A70" s="212" t="s">
+      <c r="A70" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="213"/>
-      <c r="C70" s="213"/>
-      <c r="D70" s="214"/>
-      <c r="E70" s="213"/>
-      <c r="F70" s="213"/>
-      <c r="G70" s="213"/>
+      <c r="B70" s="217"/>
+      <c r="C70" s="217"/>
+      <c r="D70" s="218"/>
+      <c r="E70" s="217"/>
+      <c r="F70" s="217"/>
+      <c r="G70" s="217"/>
       <c r="H70" s="141"/>
       <c r="I70" s="142"/>
       <c r="J70" s="142"/>
@@ -10910,15 +10910,15 @@
       <c r="Z81" s="19"/>
     </row>
     <row r="82" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A82" s="212" t="s">
+      <c r="A82" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="214"/>
-      <c r="C82" s="214"/>
-      <c r="D82" s="215"/>
-      <c r="E82" s="213"/>
-      <c r="F82" s="213"/>
-      <c r="G82" s="213"/>
+      <c r="B82" s="218"/>
+      <c r="C82" s="218"/>
+      <c r="D82" s="224"/>
+      <c r="E82" s="217"/>
+      <c r="F82" s="217"/>
+      <c r="G82" s="217"/>
       <c r="H82" s="141"/>
       <c r="I82" s="142"/>
       <c r="J82" s="142"/>
@@ -11120,15 +11120,15 @@
       <c r="Z87" s="19"/>
     </row>
     <row r="88" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A88" s="212" t="s">
+      <c r="A88" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="214"/>
-      <c r="C88" s="215"/>
-      <c r="D88" s="215"/>
-      <c r="E88" s="213"/>
-      <c r="F88" s="213"/>
-      <c r="G88" s="213"/>
+      <c r="B88" s="218"/>
+      <c r="C88" s="224"/>
+      <c r="D88" s="224"/>
+      <c r="E88" s="217"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
       <c r="H88" s="141"/>
       <c r="I88" s="142"/>
       <c r="J88" s="142"/>
@@ -11330,15 +11330,15 @@
       <c r="Z93" s="19"/>
     </row>
     <row r="94" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A94" s="216" t="s">
+      <c r="A94" s="225" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="217"/>
-      <c r="C94" s="218"/>
-      <c r="D94" s="218"/>
-      <c r="E94" s="219"/>
-      <c r="F94" s="219"/>
-      <c r="G94" s="219"/>
+      <c r="B94" s="226"/>
+      <c r="C94" s="227"/>
+      <c r="D94" s="227"/>
+      <c r="E94" s="228"/>
+      <c r="F94" s="228"/>
+      <c r="G94" s="228"/>
       <c r="H94" s="141"/>
       <c r="I94" s="142"/>
       <c r="J94" s="142"/>
@@ -11432,15 +11432,15 @@
       <c r="Z96" s="19"/>
     </row>
     <row r="97" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="212" t="s">
+      <c r="A97" s="216" t="s">
         <v>150</v>
       </c>
-      <c r="B97" s="213"/>
-      <c r="C97" s="213"/>
-      <c r="D97" s="213"/>
-      <c r="E97" s="213"/>
-      <c r="F97" s="213"/>
-      <c r="G97" s="213"/>
+      <c r="B97" s="217"/>
+      <c r="C97" s="217"/>
+      <c r="D97" s="217"/>
+      <c r="E97" s="217"/>
+      <c r="F97" s="217"/>
+      <c r="G97" s="217"/>
       <c r="H97" s="141"/>
       <c r="I97" s="142"/>
       <c r="J97" s="142"/>
@@ -11498,15 +11498,15 @@
       <c r="Z98" s="19"/>
     </row>
     <row r="99" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A99" s="212" t="s">
+      <c r="A99" s="216" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="214"/>
-      <c r="C99" s="214"/>
-      <c r="D99" s="214"/>
-      <c r="E99" s="213"/>
-      <c r="F99" s="213"/>
-      <c r="G99" s="213"/>
+      <c r="B99" s="218"/>
+      <c r="C99" s="218"/>
+      <c r="D99" s="218"/>
+      <c r="E99" s="217"/>
+      <c r="F99" s="217"/>
+      <c r="G99" s="217"/>
       <c r="H99" s="141"/>
       <c r="I99" s="142"/>
       <c r="J99" s="142"/>
@@ -11636,15 +11636,15 @@
       <c r="Z102" s="19"/>
     </row>
     <row r="103" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="220" t="s">
+      <c r="A103" s="229" t="s">
         <v>157</v>
       </c>
-      <c r="B103" s="215"/>
-      <c r="C103" s="215"/>
-      <c r="D103" s="215"/>
-      <c r="E103" s="214"/>
-      <c r="F103" s="214"/>
-      <c r="G103" s="214"/>
+      <c r="B103" s="224"/>
+      <c r="C103" s="224"/>
+      <c r="D103" s="224"/>
+      <c r="E103" s="218"/>
+      <c r="F103" s="218"/>
+      <c r="G103" s="218"/>
       <c r="H103" s="141"/>
       <c r="I103" s="142"/>
       <c r="J103" s="142"/>
@@ -11810,15 +11810,15 @@
       <c r="Z107" s="19"/>
     </row>
     <row r="108" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A108" s="212" t="s">
+      <c r="A108" s="216" t="s">
         <v>162</v>
       </c>
-      <c r="B108" s="214"/>
-      <c r="C108" s="215"/>
-      <c r="D108" s="215"/>
-      <c r="E108" s="213"/>
-      <c r="F108" s="213"/>
-      <c r="G108" s="213"/>
+      <c r="B108" s="218"/>
+      <c r="C108" s="224"/>
+      <c r="D108" s="224"/>
+      <c r="E108" s="217"/>
+      <c r="F108" s="217"/>
+      <c r="G108" s="217"/>
       <c r="H108" s="141"/>
       <c r="I108" s="142"/>
       <c r="J108" s="142"/>
@@ -11982,15 +11982,15 @@
       <c r="Z112" s="19"/>
     </row>
     <row r="113" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A113" s="212" t="s">
+      <c r="A113" s="216" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="214"/>
-      <c r="C113" s="215"/>
-      <c r="D113" s="215"/>
-      <c r="E113" s="213"/>
-      <c r="F113" s="213"/>
-      <c r="G113" s="213"/>
+      <c r="B113" s="218"/>
+      <c r="C113" s="224"/>
+      <c r="D113" s="224"/>
+      <c r="E113" s="217"/>
+      <c r="F113" s="217"/>
+      <c r="G113" s="217"/>
       <c r="H113" s="141"/>
       <c r="I113" s="142"/>
       <c r="J113" s="142"/>
@@ -15947,11 +15947,6 @@
   </sheetData>
   <autoFilter ref="B1:B473" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="R6:U17"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A108:G108"/>
@@ -15962,6 +15957,11 @@
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A103:G103"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="36" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95103779-533D-4953-9E2A-61050ADBCCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE596E-1757-45F4-B323-43B7638A0A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Documentation'!$B$1:$B$473</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Documentation'!$A$1:$P$116</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="454">
   <si>
     <t>TR.A.1</t>
   </si>
@@ -3979,6 +3987,39 @@
   </si>
   <si>
     <t>https://openwrt.org/docs/guide-user/base-system/dhcp_configuration</t>
+  </si>
+  <si>
+    <t>browseer</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>oder über git hash</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-developer/security</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/faq/how_to_get_a_list_of_connected_clients</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>siehe TR.D.28</t>
+  </si>
+  <si>
+    <t>shows md5 + sha2 for user to check. Uses simple checks with hardcoded metadata to verify that the firmware is correct for the device</t>
+  </si>
+  <si>
+    <t>no signature</t>
+  </si>
+  <si>
+    <t>can be installed</t>
+  </si>
+  <si>
+    <t>can be installed? Danish?</t>
   </si>
 </sst>
 </file>
@@ -8071,9 +8112,9 @@
   </sheetPr>
   <dimension ref="A1:XFD371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8319,7 +8360,9 @@
       <c r="D8" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="113"/>
+      <c r="E8" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="F8" s="113"/>
       <c r="G8" s="113"/>
       <c r="H8" s="74"/>
@@ -8349,7 +8392,9 @@
       <c r="D9" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="F9" s="113"/>
       <c r="G9" s="113"/>
       <c r="H9" s="67"/>
@@ -8379,7 +8424,9 @@
       <c r="D10" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="113"/>
+      <c r="E10" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="F10" s="113"/>
       <c r="G10" s="113"/>
       <c r="H10" s="67"/>
@@ -8411,7 +8458,9 @@
         <v>290</v>
       </c>
       <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
+      <c r="F11" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="G11" s="113"/>
       <c r="H11" s="67"/>
       <c r="I11" s="76"/>
@@ -8440,7 +8489,9 @@
       <c r="D12" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E12" s="113"/>
+      <c r="E12" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="F12" s="113"/>
       <c r="G12" s="113"/>
       <c r="H12" s="67"/>
@@ -8468,9 +8519,11 @@
         <v>312</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13" s="113"/>
+        <v>443</v>
+      </c>
+      <c r="E13" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="F13" s="113"/>
       <c r="G13" s="113"/>
       <c r="H13" s="67"/>
@@ -8507,7 +8560,9 @@
         <v>286</v>
       </c>
       <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="G14" s="115"/>
       <c r="H14" s="69"/>
       <c r="I14" s="69"/>
@@ -8543,7 +8598,9 @@
         <v>286</v>
       </c>
       <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
+      <c r="F15" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="G15" s="115"/>
       <c r="H15" s="69"/>
       <c r="I15" s="69"/>
@@ -8614,7 +8671,9 @@
       <c r="D17" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E17" s="113"/>
+      <c r="E17" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="F17" s="113"/>
       <c r="G17" s="115"/>
       <c r="H17" s="69"/>
@@ -8650,10 +8709,14 @@
       <c r="D18" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E18" s="119"/>
+      <c r="E18" s="119" t="s">
+        <v>280</v>
+      </c>
       <c r="F18" s="113"/>
       <c r="G18" s="115"/>
-      <c r="H18" s="69"/>
+      <c r="H18" s="69" t="s">
+        <v>444</v>
+      </c>
       <c r="I18" s="84"/>
       <c r="J18" s="85"/>
       <c r="K18" s="82"/>
@@ -8723,7 +8786,9 @@
         <v>292</v>
       </c>
       <c r="E20" s="119"/>
-      <c r="F20" s="113"/>
+      <c r="F20" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="G20" s="115"/>
       <c r="H20" s="86"/>
       <c r="I20" s="86"/>
@@ -8759,7 +8824,9 @@
         <v>286</v>
       </c>
       <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
+      <c r="F21" s="113" t="s">
+        <v>280</v>
+      </c>
       <c r="G21" s="115"/>
       <c r="H21" s="84"/>
       <c r="I21" s="84"/>
@@ -9006,7 +9073,9 @@
       </c>
       <c r="E28" s="121"/>
       <c r="F28" s="121"/>
-      <c r="G28" s="90"/>
+      <c r="G28" s="90" t="s">
+        <v>280</v>
+      </c>
       <c r="H28" s="82"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
@@ -9040,7 +9109,9 @@
       <c r="D29" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="121"/>
+      <c r="E29" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F29" s="121"/>
       <c r="G29" s="90"/>
       <c r="H29" s="69"/>
@@ -9076,7 +9147,9 @@
       <c r="D30" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E30" s="121"/>
+      <c r="E30" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F30" s="121"/>
       <c r="G30" s="90"/>
       <c r="H30" s="69"/>
@@ -9113,7 +9186,9 @@
         <v>286</v>
       </c>
       <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
+      <c r="F31" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G31" s="90"/>
       <c r="H31" s="82"/>
       <c r="I31" s="82"/>
@@ -9148,7 +9223,9 @@
       <c r="D32" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="121"/>
+      <c r="E32" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F32" s="121"/>
       <c r="G32" s="90"/>
       <c r="H32" s="69"/>
@@ -9184,7 +9261,9 @@
       <c r="D33" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E33" s="121"/>
+      <c r="E33" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F33" s="121"/>
       <c r="G33" s="90"/>
       <c r="H33" s="69"/>
@@ -9220,7 +9299,9 @@
       <c r="D34" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E34" s="121"/>
+      <c r="E34" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F34" s="121"/>
       <c r="G34" s="90"/>
       <c r="H34" s="69"/>
@@ -9256,7 +9337,9 @@
       <c r="D35" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="E35" s="121"/>
+      <c r="E35" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F35" s="121"/>
       <c r="G35" s="90"/>
       <c r="H35" s="69"/>
@@ -9322,7 +9405,9 @@
       <c r="D37" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="E37" s="121"/>
+      <c r="E37" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F37" s="90"/>
       <c r="G37" s="122"/>
       <c r="H37" s="69"/>
@@ -9358,7 +9443,9 @@
       <c r="D38" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="121"/>
+      <c r="E38" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F38" s="90"/>
       <c r="G38" s="122"/>
       <c r="H38" s="69"/>
@@ -9420,7 +9507,9 @@
         <v>91</v>
       </c>
       <c r="D40" s="118"/>
-      <c r="E40" s="129"/>
+      <c r="E40" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F40" s="121"/>
       <c r="G40" s="90"/>
       <c r="H40" s="69"/>
@@ -9456,7 +9545,9 @@
       <c r="D41" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="E41" s="129"/>
+      <c r="E41" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F41" s="121"/>
       <c r="G41" s="90"/>
       <c r="H41" s="69"/>
@@ -9492,7 +9583,9 @@
       <c r="D42" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E42" s="129"/>
+      <c r="E42" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F42" s="121"/>
       <c r="G42" s="90"/>
       <c r="H42" s="69"/>
@@ -9600,7 +9693,9 @@
       <c r="D45" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E45" s="129"/>
+      <c r="E45" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F45" s="121"/>
       <c r="G45" s="90"/>
       <c r="H45" s="69"/>
@@ -9636,7 +9731,9 @@
       <c r="D46" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E46" s="129"/>
+      <c r="E46" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F46" s="121"/>
       <c r="G46" s="90"/>
       <c r="H46" s="69"/>
@@ -9674,7 +9771,9 @@
       </c>
       <c r="E47" s="129"/>
       <c r="F47" s="121"/>
-      <c r="G47" s="90"/>
+      <c r="G47" s="90" t="s">
+        <v>280</v>
+      </c>
       <c r="H47" s="69"/>
       <c r="I47" s="69"/>
       <c r="J47" s="69"/>
@@ -9708,7 +9807,9 @@
       <c r="D48" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E48" s="129"/>
+      <c r="E48" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F48" s="121"/>
       <c r="G48" s="90"/>
       <c r="H48" s="69"/>
@@ -9744,7 +9845,9 @@
       <c r="D49" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="E49" s="131"/>
+      <c r="E49" s="131" t="s">
+        <v>280</v>
+      </c>
       <c r="F49" s="121"/>
       <c r="G49" s="90"/>
       <c r="H49" s="69"/>
@@ -9780,7 +9883,9 @@
       <c r="D50" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E50" s="129"/>
+      <c r="E50" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F50" s="121"/>
       <c r="G50" s="90"/>
       <c r="H50" s="69"/>
@@ -9816,7 +9921,9 @@
       <c r="D51" s="118" t="s">
         <v>296</v>
       </c>
-      <c r="E51" s="129"/>
+      <c r="E51" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F51" s="121"/>
       <c r="G51" s="90"/>
       <c r="H51" s="82"/>
@@ -9852,7 +9959,9 @@
       <c r="D52" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E52" s="129"/>
+      <c r="E52" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F52" s="121"/>
       <c r="G52" s="90"/>
       <c r="H52" s="69"/>
@@ -9888,7 +9997,9 @@
       <c r="D53" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E53" s="129"/>
+      <c r="E53" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F53" s="121"/>
       <c r="G53" s="90"/>
       <c r="H53" s="69"/>
@@ -9926,7 +10037,9 @@
       </c>
       <c r="E54" s="129"/>
       <c r="F54" s="121"/>
-      <c r="G54" s="90"/>
+      <c r="G54" s="90" t="s">
+        <v>280</v>
+      </c>
       <c r="H54" s="82"/>
       <c r="I54" s="82"/>
       <c r="J54" s="82"/>
@@ -9962,7 +10075,9 @@
       </c>
       <c r="E55" s="129"/>
       <c r="F55" s="121"/>
-      <c r="G55" s="90"/>
+      <c r="G55" s="90" t="s">
+        <v>280</v>
+      </c>
       <c r="H55" s="82"/>
       <c r="I55" s="82"/>
       <c r="J55" s="82"/>
@@ -10066,7 +10181,9 @@
       </c>
       <c r="E58" s="129"/>
       <c r="F58" s="121"/>
-      <c r="G58" s="90"/>
+      <c r="G58" s="90" t="s">
+        <v>280</v>
+      </c>
       <c r="H58" s="82"/>
       <c r="I58" s="69"/>
       <c r="J58" s="69"/>
@@ -10100,7 +10217,9 @@
       <c r="D59" s="118" t="s">
         <v>288</v>
       </c>
-      <c r="E59" s="129"/>
+      <c r="E59" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F59" s="121"/>
       <c r="G59" s="90"/>
       <c r="H59" s="69"/>
@@ -10172,7 +10291,9 @@
       <c r="D61" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E61" s="129"/>
+      <c r="E61" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F61" s="121"/>
       <c r="G61" s="90"/>
       <c r="H61" s="69"/>
@@ -10180,7 +10301,9 @@
       <c r="J61" s="69"/>
       <c r="K61" s="69"/>
       <c r="L61" s="69"/>
-      <c r="M61" s="130"/>
+      <c r="M61" s="130" t="s">
+        <v>445</v>
+      </c>
       <c r="N61" s="71"/>
       <c r="O61" s="71"/>
       <c r="P61" s="70"/>
@@ -10244,7 +10367,9 @@
       <c r="D63" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E63" s="129"/>
+      <c r="E63" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F63" s="121"/>
       <c r="G63" s="90"/>
       <c r="H63" s="82"/>
@@ -10252,7 +10377,9 @@
       <c r="J63" s="82"/>
       <c r="K63" s="82"/>
       <c r="L63" s="82"/>
-      <c r="M63" s="130"/>
+      <c r="M63" s="130" t="s">
+        <v>446</v>
+      </c>
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
       <c r="P63" s="72"/>
@@ -10280,7 +10407,9 @@
       <c r="D64" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E64" s="129"/>
+      <c r="E64" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F64" s="121"/>
       <c r="G64" s="90"/>
       <c r="H64" s="69"/>
@@ -10317,7 +10446,9 @@
         <v>286</v>
       </c>
       <c r="E65" s="129"/>
-      <c r="F65" s="121"/>
+      <c r="F65" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G65" s="90"/>
       <c r="H65" s="69"/>
       <c r="I65" s="69"/>
@@ -10352,7 +10483,9 @@
       <c r="D66" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="E66" s="129"/>
+      <c r="E66" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F66" s="121"/>
       <c r="G66" s="90"/>
       <c r="H66" s="69"/>
@@ -10388,7 +10521,9 @@
       <c r="D67" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="E67" s="129"/>
+      <c r="E67" s="129" t="s">
+        <v>448</v>
+      </c>
       <c r="F67" s="121"/>
       <c r="G67" s="90"/>
       <c r="H67" s="69"/>
@@ -10411,7 +10546,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
+    <row r="68" spans="1:26" s="18" customFormat="1" ht="45.75" thickBot="1">
       <c r="A68" s="110" t="s">
         <v>121</v>
       </c>
@@ -10424,7 +10559,9 @@
       <c r="D68" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="E68" s="129"/>
+      <c r="E68" s="129" t="s">
+        <v>448</v>
+      </c>
       <c r="F68" s="121"/>
       <c r="G68" s="90"/>
       <c r="H68" s="69"/>
@@ -10432,7 +10569,9 @@
       <c r="J68" s="69"/>
       <c r="K68" s="69"/>
       <c r="L68" s="69"/>
-      <c r="M68" s="130"/>
+      <c r="M68" s="130" t="s">
+        <v>447</v>
+      </c>
       <c r="N68" s="71"/>
       <c r="O68" s="71"/>
       <c r="P68" s="71"/>
@@ -10460,7 +10599,9 @@
       <c r="D69" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E69" s="129"/>
+      <c r="E69" s="129" t="s">
+        <v>448</v>
+      </c>
       <c r="F69" s="121"/>
       <c r="G69" s="90"/>
       <c r="H69" s="69"/>
@@ -10468,7 +10609,9 @@
       <c r="J69" s="69"/>
       <c r="K69" s="69"/>
       <c r="L69" s="69"/>
-      <c r="M69" s="130"/>
+      <c r="M69" s="130" t="s">
+        <v>449</v>
+      </c>
       <c r="N69" s="71"/>
       <c r="O69" s="71"/>
       <c r="P69" s="70"/>
@@ -10526,7 +10669,9 @@
       <c r="D71" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E71" s="129"/>
+      <c r="E71" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F71" s="121"/>
       <c r="G71" s="90"/>
       <c r="H71" s="69"/>
@@ -10562,7 +10707,9 @@
       <c r="D72" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="129"/>
+      <c r="E72" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F72" s="121"/>
       <c r="G72" s="90"/>
       <c r="H72" s="69"/>
@@ -10598,7 +10745,9 @@
       <c r="D73" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E73" s="129"/>
+      <c r="E73" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F73" s="121"/>
       <c r="G73" s="90"/>
       <c r="H73" s="69"/>
@@ -10635,7 +10784,9 @@
         <v>286</v>
       </c>
       <c r="E74" s="129"/>
-      <c r="F74" s="121"/>
+      <c r="F74" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G74" s="90"/>
       <c r="H74" s="69"/>
       <c r="I74" s="69"/>
@@ -10657,7 +10808,7 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+    <row r="75" spans="1:26" s="18" customFormat="1" ht="75.75" thickBot="1">
       <c r="A75" s="110" t="s">
         <v>128</v>
       </c>
@@ -10670,7 +10821,9 @@
       <c r="D75" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="E75" s="129"/>
+      <c r="E75" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F75" s="121"/>
       <c r="G75" s="90"/>
       <c r="H75" s="69"/>
@@ -10678,7 +10831,9 @@
       <c r="J75" s="69"/>
       <c r="K75" s="69"/>
       <c r="L75" s="69"/>
-      <c r="M75" s="130"/>
+      <c r="M75" s="130" t="s">
+        <v>450</v>
+      </c>
       <c r="N75" s="71"/>
       <c r="O75" s="71"/>
       <c r="P75" s="71"/>
@@ -10706,7 +10861,9 @@
       <c r="D76" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E76" s="129"/>
+      <c r="E76" s="129" t="s">
+        <v>448</v>
+      </c>
       <c r="F76" s="121"/>
       <c r="G76" s="90"/>
       <c r="H76" s="82"/>
@@ -10714,7 +10871,9 @@
       <c r="J76" s="69"/>
       <c r="K76" s="69"/>
       <c r="L76" s="69"/>
-      <c r="M76" s="130"/>
+      <c r="M76" s="130" t="s">
+        <v>451</v>
+      </c>
       <c r="N76" s="71"/>
       <c r="O76" s="71"/>
       <c r="P76" s="71"/>
@@ -10742,7 +10901,9 @@
       <c r="D77" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="E77" s="129"/>
+      <c r="E77" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F77" s="121"/>
       <c r="G77" s="90"/>
       <c r="H77" s="69"/>
@@ -10778,7 +10939,9 @@
       <c r="D78" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E78" s="129"/>
+      <c r="E78" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F78" s="121"/>
       <c r="G78" s="90"/>
       <c r="H78" s="69"/>
@@ -10814,7 +10977,9 @@
       <c r="D79" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="E79" s="129"/>
+      <c r="E79" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F79" s="121"/>
       <c r="G79" s="90"/>
       <c r="H79" s="69"/>
@@ -10852,7 +11017,9 @@
       </c>
       <c r="E80" s="129"/>
       <c r="F80" s="121"/>
-      <c r="G80" s="90"/>
+      <c r="G80" s="90" t="s">
+        <v>280</v>
+      </c>
       <c r="H80" s="69"/>
       <c r="I80" s="69"/>
       <c r="J80" s="69"/>
@@ -10886,7 +11053,9 @@
       <c r="D81" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E81" s="129"/>
+      <c r="E81" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F81" s="121"/>
       <c r="G81" s="90"/>
       <c r="H81" s="69"/>
@@ -10952,7 +11121,9 @@
       <c r="D83" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E83" s="129"/>
+      <c r="E83" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F83" s="121"/>
       <c r="G83" s="90"/>
       <c r="H83" s="69"/>
@@ -10988,7 +11159,9 @@
       <c r="D84" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E84" s="129"/>
+      <c r="E84" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F84" s="121"/>
       <c r="G84" s="90"/>
       <c r="H84" s="69"/>
@@ -11024,7 +11197,9 @@
       <c r="D85" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="E85" s="129"/>
+      <c r="E85" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F85" s="121"/>
       <c r="G85" s="90"/>
       <c r="H85" s="69"/>
@@ -11060,7 +11235,9 @@
       <c r="D86" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E86" s="129"/>
+      <c r="E86" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F86" s="121"/>
       <c r="G86" s="90"/>
       <c r="H86" s="69"/>
@@ -11096,7 +11273,9 @@
       <c r="D87" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="E87" s="129"/>
+      <c r="E87" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F87" s="121"/>
       <c r="G87" s="90"/>
       <c r="H87" s="69"/>
@@ -11162,7 +11341,9 @@
       <c r="D89" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E89" s="129"/>
+      <c r="E89" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F89" s="121"/>
       <c r="G89" s="90"/>
       <c r="H89" s="69"/>
@@ -11198,7 +11379,9 @@
       <c r="D90" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="129"/>
+      <c r="E90" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F90" s="121"/>
       <c r="G90" s="90"/>
       <c r="H90" s="69"/>
@@ -11234,7 +11417,9 @@
       <c r="D91" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="E91" s="129"/>
+      <c r="E91" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F91" s="121"/>
       <c r="G91" s="90"/>
       <c r="H91" s="69"/>
@@ -11278,7 +11463,9 @@
       <c r="J92" s="69"/>
       <c r="K92" s="69"/>
       <c r="L92" s="69"/>
-      <c r="M92" s="116"/>
+      <c r="M92" s="116" t="s">
+        <v>452</v>
+      </c>
       <c r="N92" s="71"/>
       <c r="O92" s="71"/>
       <c r="P92" s="71"/>
@@ -11314,7 +11501,9 @@
       <c r="J93" s="69"/>
       <c r="K93" s="69"/>
       <c r="L93" s="69"/>
-      <c r="M93" s="116"/>
+      <c r="M93" s="116" t="s">
+        <v>453</v>
+      </c>
       <c r="N93" s="71"/>
       <c r="O93" s="71"/>
       <c r="P93" s="71"/>
@@ -11372,7 +11561,9 @@
       <c r="D95" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="E95" s="121"/>
+      <c r="E95" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F95" s="121"/>
       <c r="G95" s="90"/>
       <c r="H95" s="69"/>
@@ -11408,7 +11599,9 @@
       <c r="D96" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="E96" s="121"/>
+      <c r="E96" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F96" s="121"/>
       <c r="G96" s="90"/>
       <c r="H96" s="69"/>
@@ -11474,7 +11667,9 @@
       <c r="D98" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="E98" s="121"/>
+      <c r="E98" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="F98" s="121"/>
       <c r="G98" s="90"/>
       <c r="H98" s="69"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE596E-1757-45F4-B323-43B7638A0A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35403F2B-FF65-4411-A304-CCF19E5A5D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="454">
   <si>
     <t>TR.A.1</t>
   </si>
@@ -4016,10 +4016,10 @@
     <t>no signature</t>
   </si>
   <si>
-    <t>can be installed</t>
-  </si>
-  <si>
     <t>can be installed? Danish?</t>
+  </si>
+  <si>
+    <t>can be installed. Not in standard installation</t>
   </si>
 </sst>
 </file>
@@ -5319,30 +5319,122 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5351,100 +5443,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5454,18 +5496,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5475,36 +5505,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5810,19 +5810,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="169" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
@@ -5832,10 +5832,10 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="197"/>
+      <c r="B6" s="190"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -5885,70 +5885,70 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="199"/>
+      <c r="B14" s="192"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
       <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="205" t="s">
+      <c r="B15" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="206"/>
-      <c r="D15" s="207"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="166" t="s">
         <v>401</v>
       </c>
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="180" t="s">
         <v>405</v>
       </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="213"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="182"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="167" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="183" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="167" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="200" t="s">
+      <c r="B18" s="183" t="s">
         <v>404</v>
       </c>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="185"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="167" t="s">
         <v>402</v>
       </c>
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="183" t="s">
         <v>408</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="167" t="s">
         <v>403</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="183" t="s">
         <v>407</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
@@ -5956,70 +5956,70 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="204"/>
+      <c r="B23" s="172"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="208" t="s">
+      <c r="B24" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="209"/>
-      <c r="D24" s="210"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="179"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B25" s="211" t="s">
+      <c r="B25" s="180" t="s">
         <v>405</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="213"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="182"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="183" t="s">
         <v>406</v>
       </c>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="185"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="183" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="185"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="200" t="s">
+      <c r="B28" s="183" t="s">
         <v>408</v>
       </c>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="185"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="183" t="s">
         <v>407</v>
       </c>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="185"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="165"/>
@@ -6031,13 +6031,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A32" s="193" t="s">
+      <c r="A32" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="35" spans="1:5" ht="15.75" thickBot="1">
@@ -6228,13 +6228,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="57" customHeight="1">
-      <c r="A48" s="193" t="s">
+      <c r="A48" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="193"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
+      <c r="B48" s="173"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="173"/>
+      <c r="E48" s="173"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
     <row r="50" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
@@ -6347,13 +6347,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A59" s="193" t="s">
+      <c r="A59" s="173" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="193"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="173"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="10"/>
@@ -6375,12 +6375,12 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="36" customHeight="1">
-      <c r="A64" s="193" t="s">
+      <c r="A64" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="193"/>
-      <c r="C64" s="193"/>
-      <c r="D64" s="193"/>
+      <c r="B64" s="173"/>
+      <c r="C64" s="173"/>
+      <c r="D64" s="173"/>
       <c r="E64" s="8"/>
     </row>
     <row r="66" spans="1:5">
@@ -6392,12 +6392,12 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="193" t="s">
+      <c r="A69" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="193"/>
-      <c r="C69" s="193"/>
-      <c r="D69" s="193"/>
+      <c r="B69" s="173"/>
+      <c r="C69" s="173"/>
+      <c r="D69" s="173"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="71" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
@@ -6478,13 +6478,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A80" s="194" t="s">
+      <c r="A80" s="186" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="194"/>
-      <c r="C80" s="190"/>
-      <c r="D80" s="190"/>
-      <c r="E80" s="190"/>
+      <c r="B80" s="186"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="187"/>
+      <c r="E80" s="187"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="82" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
@@ -6578,10 +6578,10 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="195" t="s">
+      <c r="A91" s="188" t="s">
         <v>192</v>
       </c>
-      <c r="B91" s="195"/>
+      <c r="B91" s="188"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
@@ -6597,12 +6597,12 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A97" s="189" t="s">
+      <c r="A97" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="190"/>
-      <c r="C97" s="190"/>
-      <c r="D97" s="190"/>
+      <c r="B97" s="187"/>
+      <c r="C97" s="187"/>
+      <c r="D97" s="187"/>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1">
       <c r="A98" t="s">
@@ -6718,12 +6718,12 @@
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A109" s="183" t="s">
+      <c r="A109" s="194" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="183"/>
-      <c r="C109" s="184"/>
-      <c r="D109" s="184"/>
+      <c r="B109" s="194"/>
+      <c r="C109" s="195"/>
+      <c r="D109" s="195"/>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1">
       <c r="A110" s="27" t="s">
@@ -6784,9 +6784,9 @@
       <c r="D116" s="57"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="191"/>
-      <c r="B117" s="191"/>
-      <c r="C117" s="192"/>
+      <c r="A117" s="197"/>
+      <c r="B117" s="197"/>
+      <c r="C117" s="198"/>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4">
@@ -6804,12 +6804,12 @@
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A120" s="182" t="s">
+      <c r="A120" s="193" t="s">
         <v>420</v>
       </c>
-      <c r="B120" s="182"/>
-      <c r="C120" s="176"/>
-      <c r="D120" s="176"/>
+      <c r="B120" s="193"/>
+      <c r="C120" s="169"/>
+      <c r="D120" s="169"/>
     </row>
     <row r="121" spans="1:4" ht="29.25" thickBot="1">
       <c r="A121" s="27" t="s">
@@ -6994,12 +6994,12 @@
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A137" s="182" t="s">
+      <c r="A137" s="193" t="s">
         <v>206</v>
       </c>
-      <c r="B137" s="182"/>
-      <c r="C137" s="176"/>
-      <c r="D137" s="176"/>
+      <c r="B137" s="193"/>
+      <c r="C137" s="169"/>
+      <c r="D137" s="169"/>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1">
       <c r="A138" s="27" t="s">
@@ -7048,10 +7048,10 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="169" t="s">
+      <c r="A142" s="200" t="s">
         <v>258</v>
       </c>
-      <c r="B142" s="169"/>
+      <c r="B142" s="200"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
@@ -7062,12 +7062,12 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A144" s="182" t="s">
+      <c r="A144" s="193" t="s">
         <v>257</v>
       </c>
-      <c r="B144" s="182"/>
-      <c r="C144" s="176"/>
-      <c r="D144" s="176"/>
+      <c r="B144" s="193"/>
+      <c r="C144" s="169"/>
+      <c r="D144" s="169"/>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1">
       <c r="A145" s="27" t="s">
@@ -7110,12 +7110,12 @@
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A151" s="183" t="s">
+      <c r="A151" s="194" t="s">
         <v>210</v>
       </c>
-      <c r="B151" s="183"/>
-      <c r="C151" s="184"/>
-      <c r="D151" s="184"/>
+      <c r="B151" s="194"/>
+      <c r="C151" s="195"/>
+      <c r="D151" s="195"/>
     </row>
     <row r="152" spans="1:4" ht="29.25" thickBot="1">
       <c r="A152" s="27" t="s">
@@ -7194,10 +7194,10 @@
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" ht="39" customHeight="1" thickBot="1">
-      <c r="A159" s="170" t="s">
+      <c r="A159" s="199" t="s">
         <v>259</v>
       </c>
-      <c r="B159" s="170"/>
+      <c r="B159" s="199"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
@@ -7242,10 +7242,10 @@
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="169" t="s">
+      <c r="A164" s="200" t="s">
         <v>214</v>
       </c>
-      <c r="B164" s="169"/>
+      <c r="B164" s="200"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
@@ -7256,22 +7256,22 @@
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:7" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A166" s="174" t="s">
+      <c r="A166" s="201" t="s">
         <v>215</v>
       </c>
-      <c r="B166" s="174"/>
-      <c r="C166" s="176"/>
-      <c r="D166" s="176"/>
+      <c r="B166" s="201"/>
+      <c r="C166" s="169"/>
+      <c r="D166" s="169"/>
     </row>
     <row r="167" spans="1:7" ht="24" customHeight="1" thickBot="1">
       <c r="A167" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="B167" s="186" t="s">
+      <c r="B167" s="203" t="s">
         <v>428</v>
       </c>
-      <c r="C167" s="187"/>
-      <c r="D167" s="188"/>
+      <c r="C167" s="204"/>
+      <c r="D167" s="205"/>
       <c r="F167" t="s">
         <v>430</v>
       </c>
@@ -7283,12 +7283,12 @@
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A169" s="185" t="s">
+      <c r="A169" s="202" t="s">
         <v>217</v>
       </c>
-      <c r="B169" s="185"/>
-      <c r="C169" s="176"/>
-      <c r="D169" s="176"/>
+      <c r="B169" s="202"/>
+      <c r="C169" s="169"/>
+      <c r="D169" s="169"/>
       <c r="F169" t="s">
         <v>429</v>
       </c>
@@ -7346,20 +7346,20 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="169"/>
-      <c r="B175" s="169"/>
+      <c r="A175" s="200"/>
+      <c r="B175" s="200"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="41"/>
       <c r="B176" s="41"/>
     </row>
     <row r="177" spans="1:6" ht="63" customHeight="1" thickBot="1">
-      <c r="A177" s="183" t="s">
+      <c r="A177" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="B177" s="183"/>
-      <c r="C177" s="184"/>
-      <c r="D177" s="184"/>
+      <c r="B177" s="194"/>
+      <c r="C177" s="195"/>
+      <c r="D177" s="195"/>
     </row>
     <row r="178" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
       <c r="A178" s="27" t="s">
@@ -7400,20 +7400,20 @@
       <c r="D181" s="57"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="181"/>
-      <c r="B182" s="181"/>
+      <c r="A182" s="211"/>
+      <c r="B182" s="211"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
     </row>
     <row r="184" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A184" s="182" t="s">
+      <c r="A184" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="B184" s="182"/>
-      <c r="C184" s="176"/>
-      <c r="D184" s="176"/>
+      <c r="B184" s="193"/>
+      <c r="C184" s="169"/>
+      <c r="D184" s="169"/>
       <c r="F184" t="s">
         <v>431</v>
       </c>
@@ -7461,12 +7461,12 @@
       <c r="D192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A193" s="177" t="s">
+      <c r="A193" s="206" t="s">
         <v>223</v>
       </c>
-      <c r="B193" s="177"/>
-      <c r="C193" s="178"/>
-      <c r="D193" s="178"/>
+      <c r="B193" s="206"/>
+      <c r="C193" s="207"/>
+      <c r="D193" s="207"/>
     </row>
     <row r="194" spans="1:6" ht="15.75" thickBot="1">
       <c r="A194" s="24" t="s">
@@ -7515,8 +7515,8 @@
       <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="169"/>
-      <c r="B199" s="169"/>
+      <c r="A199" s="200"/>
+      <c r="B199" s="200"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
@@ -7527,12 +7527,12 @@
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A201" s="172" t="s">
+      <c r="A201" s="208" t="s">
         <v>272</v>
       </c>
-      <c r="B201" s="172"/>
-      <c r="C201" s="173"/>
-      <c r="D201" s="173"/>
+      <c r="B201" s="208"/>
+      <c r="C201" s="170"/>
+      <c r="D201" s="170"/>
       <c r="F201" t="s">
         <v>435</v>
       </c>
@@ -7571,19 +7571,19 @@
       <c r="B207" s="57"/>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="169"/>
-      <c r="B208" s="169"/>
+      <c r="A208" s="200"/>
+      <c r="B208" s="200"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="45"/>
     </row>
     <row r="210" spans="1:4" ht="33" customHeight="1" thickBot="1">
-      <c r="A210" s="179" t="s">
+      <c r="A210" s="209" t="s">
         <v>273</v>
       </c>
-      <c r="B210" s="179"/>
-      <c r="C210" s="180"/>
-      <c r="D210" s="180"/>
+      <c r="B210" s="209"/>
+      <c r="C210" s="210"/>
+      <c r="D210" s="210"/>
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1">
       <c r="A211" s="27" t="s">
@@ -7632,12 +7632,12 @@
       <c r="B216" s="41"/>
     </row>
     <row r="217" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A217" s="174" t="s">
+      <c r="A217" s="201" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="174"/>
-      <c r="C217" s="176"/>
-      <c r="D217" s="176"/>
+      <c r="B217" s="201"/>
+      <c r="C217" s="169"/>
+      <c r="D217" s="169"/>
     </row>
     <row r="218" spans="1:4" ht="45">
       <c r="A218" s="46" t="s">
@@ -7648,12 +7648,12 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="36" customHeight="1">
-      <c r="A220" s="172" t="s">
+      <c r="A220" s="208" t="s">
         <v>228</v>
       </c>
-      <c r="B220" s="172"/>
-      <c r="C220" s="173"/>
-      <c r="D220" s="173"/>
+      <c r="B220" s="208"/>
+      <c r="C220" s="170"/>
+      <c r="D220" s="170"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="46" t="s">
@@ -7675,12 +7675,12 @@
       </c>
     </row>
     <row r="224" spans="1:4" ht="43.5" customHeight="1">
-      <c r="A224" s="172" t="s">
+      <c r="A224" s="208" t="s">
         <v>229</v>
       </c>
-      <c r="B224" s="172"/>
-      <c r="C224" s="173"/>
-      <c r="D224" s="173"/>
+      <c r="B224" s="208"/>
+      <c r="C224" s="170"/>
+      <c r="D224" s="170"/>
     </row>
     <row r="225" spans="1:6" ht="90">
       <c r="A225" s="46" t="s">
@@ -7696,12 +7696,12 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A228" s="172" t="s">
+      <c r="A228" s="208" t="s">
         <v>230</v>
       </c>
-      <c r="B228" s="172"/>
-      <c r="C228" s="173"/>
-      <c r="D228" s="173"/>
+      <c r="B228" s="208"/>
+      <c r="C228" s="170"/>
+      <c r="D228" s="170"/>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="46" t="s">
@@ -7720,12 +7720,12 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="33" customHeight="1">
-      <c r="A231" s="172" t="s">
+      <c r="A231" s="208" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="172"/>
-      <c r="C231" s="173"/>
-      <c r="D231" s="173"/>
+      <c r="B231" s="208"/>
+      <c r="C231" s="170"/>
+      <c r="D231" s="170"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="46" t="s">
@@ -7736,12 +7736,12 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A234" s="172" t="s">
+      <c r="A234" s="208" t="s">
         <v>232</v>
       </c>
-      <c r="B234" s="172"/>
-      <c r="C234" s="173"/>
-      <c r="D234" s="173"/>
+      <c r="B234" s="208"/>
+      <c r="C234" s="170"/>
+      <c r="D234" s="170"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="46" t="s">
@@ -7752,12 +7752,12 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A237" s="174" t="s">
+      <c r="A237" s="201" t="s">
         <v>233</v>
       </c>
-      <c r="B237" s="174"/>
-      <c r="C237" s="173"/>
-      <c r="D237" s="173"/>
+      <c r="B237" s="201"/>
+      <c r="C237" s="170"/>
+      <c r="D237" s="170"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="46" t="s">
@@ -7773,12 +7773,12 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="45" customHeight="1">
-      <c r="A241" s="172" t="s">
+      <c r="A241" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="B241" s="172"/>
-      <c r="C241" s="173"/>
-      <c r="D241" s="173"/>
+      <c r="B241" s="208"/>
+      <c r="C241" s="170"/>
+      <c r="D241" s="170"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="46" t="s">
@@ -7794,12 +7794,12 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="42" customHeight="1">
-      <c r="A245" s="175" t="s">
+      <c r="A245" s="212" t="s">
         <v>235</v>
       </c>
-      <c r="B245" s="175"/>
-      <c r="C245" s="173"/>
-      <c r="D245" s="173"/>
+      <c r="B245" s="212"/>
+      <c r="C245" s="170"/>
+      <c r="D245" s="170"/>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:4" ht="15.75" thickBot="1">
@@ -7852,10 +7852,10 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A254" s="172" t="s">
+      <c r="A254" s="208" t="s">
         <v>238</v>
       </c>
-      <c r="B254" s="173"/>
+      <c r="B254" s="170"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="49"/>
@@ -7866,12 +7866,12 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A257" s="172" t="s">
+      <c r="A257" s="208" t="s">
         <v>239</v>
       </c>
-      <c r="B257" s="172"/>
-      <c r="C257" s="173"/>
-      <c r="D257" s="173"/>
+      <c r="B257" s="208"/>
+      <c r="C257" s="170"/>
+      <c r="D257" s="170"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="46" t="s">
@@ -7879,12 +7879,12 @@
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="172" t="s">
+      <c r="A260" s="208" t="s">
         <v>240</v>
       </c>
-      <c r="B260" s="172"/>
-      <c r="C260" s="173"/>
-      <c r="D260" s="173"/>
+      <c r="B260" s="208"/>
+      <c r="C260" s="170"/>
+      <c r="D260" s="170"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="46" t="s">
@@ -7893,16 +7893,16 @@
     </row>
     <row r="262" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="263" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A263" s="172" t="s">
+      <c r="A263" s="208" t="s">
         <v>241</v>
       </c>
-      <c r="B263" s="172"/>
+      <c r="B263" s="208"/>
     </row>
     <row r="264" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A264" s="172" t="s">
+      <c r="A264" s="208" t="s">
         <v>242</v>
       </c>
-      <c r="B264" s="172"/>
+      <c r="B264" s="208"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="46" t="s">
@@ -7910,12 +7910,12 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A267" s="170" t="s">
+      <c r="A267" s="199" t="s">
         <v>243</v>
       </c>
-      <c r="B267" s="170"/>
-      <c r="C267" s="171"/>
-      <c r="D267" s="171"/>
+      <c r="B267" s="199"/>
+      <c r="C267" s="213"/>
+      <c r="D267" s="213"/>
     </row>
     <row r="268" spans="1:4" ht="15.75" thickBot="1">
       <c r="A268" s="27" t="s">
@@ -7948,8 +7948,8 @@
       <c r="D270" s="12"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="169"/>
-      <c r="B271" s="169"/>
+      <c r="A271" s="200"/>
+      <c r="B271" s="200"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="41"/>
@@ -7974,12 +7974,12 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="39" customHeight="1">
-      <c r="A277" s="172" t="s">
+      <c r="A277" s="208" t="s">
         <v>245</v>
       </c>
-      <c r="B277" s="172"/>
-      <c r="C277" s="173"/>
-      <c r="D277" s="173"/>
+      <c r="B277" s="208"/>
+      <c r="C277" s="170"/>
+      <c r="D277" s="170"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="46" t="s">
@@ -7988,12 +7988,12 @@
       <c r="B278" s="8"/>
     </row>
     <row r="280" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A280" s="170" t="s">
+      <c r="A280" s="199" t="s">
         <v>246</v>
       </c>
-      <c r="B280" s="170"/>
-      <c r="C280" s="171"/>
-      <c r="D280" s="171"/>
+      <c r="B280" s="199"/>
+      <c r="C280" s="213"/>
+      <c r="D280" s="213"/>
     </row>
     <row r="281" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:4" ht="15.75" thickBot="1">
@@ -8036,6 +8036,54 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A32:E32"/>
@@ -8051,54 +8099,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8113,8 +8113,8 @@
   <dimension ref="A1:XFD371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8145,11 +8145,11 @@
       <c r="D1" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
@@ -8231,15 +8231,15 @@
       <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="226" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="152"/>
       <c r="I4" s="153"/>
       <c r="J4" s="153"/>
@@ -8308,12 +8308,12 @@
       <c r="N6" s="97"/>
       <c r="O6" s="97"/>
       <c r="P6" s="97"/>
-      <c r="R6" s="222" t="s">
+      <c r="R6" s="214" t="s">
         <v>285</v>
       </c>
-      <c r="S6" s="223"/>
-      <c r="T6" s="223"/>
-      <c r="U6" s="223"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="215"/>
+      <c r="U6" s="215"/>
     </row>
     <row r="7" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="110" t="s">
@@ -8342,10 +8342,10 @@
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
-      <c r="R7" s="223"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="223"/>
+      <c r="R7" s="215"/>
+      <c r="S7" s="215"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="215"/>
     </row>
     <row r="8" spans="1:26 16384:16384" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="110" t="s">
@@ -8374,10 +8374,10 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
       <c r="P8" s="64"/>
-      <c r="R8" s="223"/>
-      <c r="S8" s="223"/>
-      <c r="T8" s="223"/>
-      <c r="U8" s="223"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
     </row>
     <row r="9" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="110" t="s">
@@ -8406,10 +8406,10 @@
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
       <c r="P9" s="64"/>
-      <c r="R9" s="223"/>
-      <c r="S9" s="223"/>
-      <c r="T9" s="223"/>
-      <c r="U9" s="223"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="215"/>
     </row>
     <row r="10" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="110" t="s">
@@ -8438,10 +8438,10 @@
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
       <c r="P10" s="64"/>
-      <c r="R10" s="223"/>
-      <c r="S10" s="223"/>
-      <c r="T10" s="223"/>
-      <c r="U10" s="223"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="215"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="215"/>
       <c r="XFD10" s="75"/>
     </row>
     <row r="11" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
@@ -8471,10 +8471,10 @@
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
-      <c r="R11" s="223"/>
-      <c r="S11" s="223"/>
-      <c r="T11" s="223"/>
-      <c r="U11" s="223"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
     </row>
     <row r="12" spans="1:26 16384:16384" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="110" t="s">
@@ -8503,10 +8503,10 @@
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
       <c r="P12" s="64"/>
-      <c r="R12" s="223"/>
-      <c r="S12" s="223"/>
-      <c r="T12" s="223"/>
-      <c r="U12" s="223"/>
+      <c r="R12" s="215"/>
+      <c r="S12" s="215"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="215"/>
     </row>
     <row r="13" spans="1:26 16384:16384" s="18" customFormat="1" ht="30.75" thickBot="1">
       <c r="A13" s="110" t="s">
@@ -8536,10 +8536,10 @@
       <c r="O13" s="64"/>
       <c r="P13" s="64"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="223"/>
-      <c r="S13" s="223"/>
-      <c r="T13" s="223"/>
-      <c r="U13" s="223"/>
+      <c r="R13" s="215"/>
+      <c r="S13" s="215"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="215"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
@@ -8574,10 +8574,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="223"/>
-      <c r="S14" s="223"/>
-      <c r="T14" s="223"/>
-      <c r="U14" s="223"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
@@ -8612,10 +8612,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="19"/>
-      <c r="R15" s="223"/>
-      <c r="S15" s="223"/>
-      <c r="T15" s="223"/>
-      <c r="U15" s="223"/>
+      <c r="R15" s="215"/>
+      <c r="S15" s="215"/>
+      <c r="T15" s="215"/>
+      <c r="U15" s="215"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
@@ -8648,10 +8648,10 @@
       <c r="O16" s="72"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="19"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="223"/>
-      <c r="U16" s="223"/>
+      <c r="R16" s="215"/>
+      <c r="S16" s="215"/>
+      <c r="T16" s="215"/>
+      <c r="U16" s="215"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
@@ -8686,10 +8686,10 @@
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
+      <c r="R17" s="215"/>
+      <c r="S17" s="215"/>
+      <c r="T17" s="215"/>
+      <c r="U17" s="215"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
@@ -9469,11 +9469,11 @@
       <c r="Z38" s="19"/>
     </row>
     <row r="39" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A39" s="219" t="s">
+      <c r="A39" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="220"/>
-      <c r="C39" s="221"/>
+      <c r="B39" s="228"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="126"/>
       <c r="E39" s="127"/>
       <c r="F39" s="127"/>
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B82" s="218"/>
       <c r="C82" s="218"/>
-      <c r="D82" s="224"/>
+      <c r="D82" s="219"/>
       <c r="E82" s="217"/>
       <c r="F82" s="217"/>
       <c r="G82" s="217"/>
@@ -11303,8 +11303,8 @@
         <v>141</v>
       </c>
       <c r="B88" s="218"/>
-      <c r="C88" s="224"/>
-      <c r="D88" s="224"/>
+      <c r="C88" s="219"/>
+      <c r="D88" s="219"/>
       <c r="E88" s="217"/>
       <c r="F88" s="217"/>
       <c r="G88" s="217"/>
@@ -11442,7 +11442,7 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
     </row>
-    <row r="92" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
+    <row r="92" spans="1:26" s="18" customFormat="1" ht="30.75" thickBot="1">
       <c r="A92" s="117" t="s">
         <v>145</v>
       </c>
@@ -11464,7 +11464,7 @@
       <c r="K92" s="69"/>
       <c r="L92" s="69"/>
       <c r="M92" s="116" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N92" s="71"/>
       <c r="O92" s="71"/>
@@ -11502,7 +11502,7 @@
       <c r="K93" s="69"/>
       <c r="L93" s="69"/>
       <c r="M93" s="116" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N93" s="71"/>
       <c r="O93" s="71"/>
@@ -11519,15 +11519,15 @@
       <c r="Z93" s="19"/>
     </row>
     <row r="94" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A94" s="225" t="s">
+      <c r="A94" s="220" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="226"/>
-      <c r="C94" s="227"/>
-      <c r="D94" s="227"/>
-      <c r="E94" s="228"/>
-      <c r="F94" s="228"/>
-      <c r="G94" s="228"/>
+      <c r="B94" s="221"/>
+      <c r="C94" s="222"/>
+      <c r="D94" s="222"/>
+      <c r="E94" s="223"/>
+      <c r="F94" s="223"/>
+      <c r="G94" s="223"/>
       <c r="H94" s="141"/>
       <c r="I94" s="142"/>
       <c r="J94" s="142"/>
@@ -11735,7 +11735,9 @@
       <c r="D100" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="E100" s="131"/>
+      <c r="E100" s="131" t="s">
+        <v>280</v>
+      </c>
       <c r="F100" s="121"/>
       <c r="G100" s="90"/>
       <c r="H100" s="69"/>
@@ -11807,7 +11809,9 @@
       <c r="D102" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E102" s="129"/>
+      <c r="E102" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F102" s="121"/>
       <c r="G102" s="90"/>
       <c r="H102" s="69"/>
@@ -11831,12 +11835,12 @@
       <c r="Z102" s="19"/>
     </row>
     <row r="103" spans="1:26" s="18" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="229" t="s">
+      <c r="A103" s="224" t="s">
         <v>157</v>
       </c>
-      <c r="B103" s="224"/>
-      <c r="C103" s="224"/>
-      <c r="D103" s="224"/>
+      <c r="B103" s="219"/>
+      <c r="C103" s="219"/>
+      <c r="D103" s="219"/>
       <c r="E103" s="218"/>
       <c r="F103" s="218"/>
       <c r="G103" s="218"/>
@@ -11874,7 +11878,9 @@
         <v>286</v>
       </c>
       <c r="E104" s="129"/>
-      <c r="F104" s="121"/>
+      <c r="F104" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G104" s="90"/>
       <c r="H104" s="69"/>
       <c r="I104" s="69"/>
@@ -11910,7 +11916,9 @@
         <v>286</v>
       </c>
       <c r="E105" s="129"/>
-      <c r="F105" s="121"/>
+      <c r="F105" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G105" s="90"/>
       <c r="H105" s="82"/>
       <c r="I105" s="69"/>
@@ -11946,7 +11954,9 @@
         <v>286</v>
       </c>
       <c r="E106" s="129"/>
-      <c r="F106" s="121"/>
+      <c r="F106" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G106" s="90"/>
       <c r="H106" s="82"/>
       <c r="I106" s="69"/>
@@ -11982,7 +11992,9 @@
         <v>286</v>
       </c>
       <c r="E107" s="132"/>
-      <c r="F107" s="163"/>
+      <c r="F107" s="163" t="s">
+        <v>280</v>
+      </c>
       <c r="G107" s="164"/>
       <c r="H107" s="69"/>
       <c r="I107" s="70"/>
@@ -12009,8 +12021,8 @@
         <v>162</v>
       </c>
       <c r="B108" s="218"/>
-      <c r="C108" s="224"/>
-      <c r="D108" s="224"/>
+      <c r="C108" s="219"/>
+      <c r="D108" s="219"/>
       <c r="E108" s="217"/>
       <c r="F108" s="217"/>
       <c r="G108" s="217"/>
@@ -12048,7 +12060,9 @@
         <v>286</v>
       </c>
       <c r="E109" s="129"/>
-      <c r="F109" s="121"/>
+      <c r="F109" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G109" s="90"/>
       <c r="H109" s="80"/>
       <c r="I109" s="80"/>
@@ -12083,7 +12097,9 @@
       <c r="D110" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="E110" s="129"/>
+      <c r="E110" s="129" t="s">
+        <v>280</v>
+      </c>
       <c r="F110" s="121"/>
       <c r="G110" s="90"/>
       <c r="H110" s="80"/>
@@ -12118,7 +12134,9 @@
         <v>303</v>
       </c>
       <c r="E111" s="129"/>
-      <c r="F111" s="121"/>
+      <c r="F111" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G111" s="90"/>
       <c r="H111" s="80"/>
       <c r="I111" s="80"/>
@@ -12154,7 +12172,9 @@
         <v>295</v>
       </c>
       <c r="E112" s="129"/>
-      <c r="F112" s="121"/>
+      <c r="F112" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G112" s="90"/>
       <c r="H112" s="80"/>
       <c r="I112" s="80"/>
@@ -12181,8 +12201,8 @@
         <v>168</v>
       </c>
       <c r="B113" s="218"/>
-      <c r="C113" s="224"/>
-      <c r="D113" s="224"/>
+      <c r="C113" s="219"/>
+      <c r="D113" s="219"/>
       <c r="E113" s="217"/>
       <c r="F113" s="217"/>
       <c r="G113" s="217"/>
@@ -12220,7 +12240,9 @@
         <v>286</v>
       </c>
       <c r="E114" s="129"/>
-      <c r="F114" s="121"/>
+      <c r="F114" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G114" s="90"/>
       <c r="H114" s="80"/>
       <c r="I114" s="80"/>
@@ -12256,7 +12278,9 @@
         <v>286</v>
       </c>
       <c r="E115" s="129"/>
-      <c r="F115" s="121"/>
+      <c r="F115" s="121" t="s">
+        <v>280</v>
+      </c>
       <c r="G115" s="90"/>
       <c r="H115" s="82"/>
       <c r="I115" s="80"/>
@@ -12292,7 +12316,9 @@
         <v>286</v>
       </c>
       <c r="E116" s="138"/>
-      <c r="F116" s="139"/>
+      <c r="F116" s="139" t="s">
+        <v>280</v>
+      </c>
       <c r="G116" s="140"/>
       <c r="H116" s="82"/>
       <c r="I116" s="80"/>
@@ -16142,6 +16168,11 @@
   </sheetData>
   <autoFilter ref="B1:B473" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="R6:U17"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A108:G108"/>
@@ -16152,11 +16183,6 @@
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="36" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D453D-27A5-4194-85E9-A3527460B1F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D83FD-B810-448C-8226-1CF1BF480DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="476">
   <si>
     <t>TR.A.1</t>
   </si>
@@ -112,9 +112,6 @@
     <t>http</t>
   </si>
   <si>
-    <t>11/tcp</t>
-  </si>
-  <si>
     <t>Web GUI</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">Antwort: </t>
-  </si>
-  <si>
-    <t>WiFI Simple Configuration nicht vorhanden .</t>
   </si>
   <si>
     <t>Technical Documentation</t>
@@ -280,9 +274,6 @@
   </si>
   <si>
     <t>MUST / MUST NOT</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>TR.A.22</t>
@@ -615,9 +606,6 @@
     <t>2,4 Ghz Wifi</t>
   </si>
   <si>
-    <t>Normale WiFi Funktionen</t>
-  </si>
-  <si>
     <t>Technische Dok.</t>
   </si>
   <si>
@@ -1095,9 +1083,6 @@
     </r>
   </si>
   <si>
-    <t>Gerätepasswort</t>
-  </si>
-  <si>
     <t>If passwords are used to restrict access to a method listed before the following password policies are implemented.</t>
   </si>
   <si>
@@ -1105,12 +1090,6 @@
   </si>
   <si>
     <t>If passwords are used to restrict access to a method listed in Table 1 the DUT provides the following procedures for an authenticated end-user to change his password:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A - Login über Webinterface mit dem Browser</t>
-  </si>
-  <si>
-    <t>Beschreiben wie Login ü. App funktioniert</t>
   </si>
   <si>
     <t>Beschreiben wie Login ü. Webinterface funktioniert</t>
@@ -3899,9 +3878,6 @@
     <t>Customized</t>
   </si>
   <si>
-    <t>Die WLAN Schnitstelle ist kompatibel</t>
-  </si>
-  <si>
     <t>https://openwrt.org/docs/guide-user/network/wifi/wireless.utilities.wpa-supplicant</t>
   </si>
   <si>
@@ -3917,42 +3893,18 @@
     <t>SSH</t>
   </si>
   <si>
-    <t>Die Stärke des Passworts wird nicht bewertet</t>
-  </si>
-  <si>
     <t>The DUT provides the following functionalities. The applicant MUST list all functionalities according to the clarification given below. The applicant MUST provide information about the state(s) where active by default and MUST refer to the corresponding technical documentation (see Table 3, TechnicalDocumentation Reference). ClarificationTypical functionalities to be listed are e.g. WLAN support, DHCP client and server implementation, Firewall,IPv6, VoIP, ssh access, DynDNS client or VPN support, Smart Home functionalities, storage solutions likenetwork attached storage (NAS), DECT support. Those functionalities are also typically listed in themarketing material of the manufacturer.Note that also non security relevant functionalities are addressed by this Module C. The intention is to provide a complete list of the DUT's functionality to the tester. The tester should be able to decide the testscope and whether or not a functionality is security relevant. It is not the intention of the following listing to provide details about obviously irrelevant functionalitieslike LEDs, buzzer, support for voice encryption, call forwarding, ESATA or USB connections.</t>
   </si>
   <si>
     <t>ssh access</t>
   </si>
   <si>
-    <t>ssh root access to the device</t>
-  </si>
-  <si>
-    <t>Luci Interface for configurartion running on port 56 (root access)</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve"> B - Login über SSH</t>
-  </si>
-  <si>
-    <t>user input</t>
-  </si>
-  <si>
-    <t>Zugang zur Gerätekonfiguration über web-Schnittstelle &amp; ssh</t>
-  </si>
-  <si>
     <t>ssh is providing full root access to the device. The Luci Interface is also running as root while not providing all configuration options available over the cli</t>
   </si>
   <si>
-    <t>welche gibt es noch?</t>
-  </si>
-  <si>
-    <t>gut so?</t>
-  </si>
-  <si>
     <t>Nachforschung</t>
   </si>
   <si>
@@ -4050,13 +4002,97 @@
   </si>
   <si>
     <t>Userguide as paper/brochure in the packaging</t>
+  </si>
+  <si>
+    <t>80 / tcp</t>
+  </si>
+  <si>
+    <t>22 / tcp</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>Dropbear sshd (protocol 2.0)</t>
+  </si>
+  <si>
+    <t>53/tcp</t>
+  </si>
+  <si>
+    <t>domain name service (DNS)</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>WLAN Interface is implemented according to IEEE 802.11i and supports WPA2</t>
+  </si>
+  <si>
+    <t>Wi-Fi Simple configuration is not supported by default</t>
+  </si>
+  <si>
+    <t>Normal Wi-Fi functionality</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>no password is configured initally</t>
+  </si>
+  <si>
+    <t>user defined only</t>
+  </si>
+  <si>
+    <t>password set by user only. Ssh keys can be used instead of password in [customized] state</t>
+  </si>
+  <si>
+    <t>Strength of the password is not evaluated</t>
+  </si>
+  <si>
+    <t>password policy 1</t>
+  </si>
+  <si>
+    <t>access the web server at TCP port 80 on the LAN interface</t>
+  </si>
+  <si>
+    <t>ssh root access to the device on port 22</t>
+  </si>
+  <si>
+    <t>user set password. No inital password is set on the device</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A - use a browser on your PC, Laptop, Tablet, Mobile Phone etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B - changing via ssh</t>
+  </si>
+  <si>
+    <t>Beschreiben wie Login ü. ssh funktioniert</t>
+  </si>
+  <si>
+    <t>session with webserver luci</t>
+  </si>
+  <si>
+    <t>The session is protected by a unique token that is generated when successfully logging in and is kept in a cookie</t>
+  </si>
+  <si>
+    <t>Communicating with the DUT via the integrated webserver running "luci"</t>
+  </si>
+  <si>
+    <t>ssh connection</t>
+  </si>
+  <si>
+    <t>connecting via ssh to the dropbear instance of OpenWrt</t>
+  </si>
+  <si>
+    <t>no such attacks are known / ssh audit results are available in the results folder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4278,6 +4314,12 @@
       <sz val="11"/>
       <name val="BundesSerif Office"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -4939,7 +4981,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -5437,6 +5479,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5667,6 +5713,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5955,10 +6005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K288"/>
+  <dimension ref="A2:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5967,36 +6017,36 @@
     <col min="2" max="2" width="62.85546875" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="174" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
+      <c r="A2" s="176" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="194" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="228"/>
+      <c r="A6" s="196" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="230"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -6009,203 +6059,203 @@
     </row>
     <row r="7" spans="1:11" ht="25.5" customHeight="1">
       <c r="A7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="234" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="230"/>
-      <c r="D7" s="231"/>
+        <v>30</v>
+      </c>
+      <c r="B7" s="236" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="234" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="232"/>
+        <v>35</v>
+      </c>
+      <c r="B8" s="236" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="234"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="234" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="232"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="236" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="234"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="235" t="s">
-        <v>409</v>
-      </c>
-      <c r="C10" s="233"/>
+        <v>37</v>
+      </c>
+      <c r="B10" s="237" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="235"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="229"/>
-      <c r="C11" s="229"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="231"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="195" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="196"/>
+      <c r="A14" s="197" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="198"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
       <c r="A15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="202" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
+      <c r="B15" s="204" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="205"/>
+      <c r="D15" s="206"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="164" t="s">
-        <v>454</v>
-      </c>
-      <c r="B16" s="208" t="s">
-        <v>458</v>
-      </c>
-      <c r="C16" s="209"/>
-      <c r="D16" s="210"/>
+        <v>438</v>
+      </c>
+      <c r="B16" s="210" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="211"/>
+      <c r="D16" s="212"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="165" t="s">
-        <v>455</v>
-      </c>
-      <c r="B17" s="236" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
+        <v>439</v>
+      </c>
+      <c r="B17" s="238" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="165" t="s">
-        <v>455</v>
-      </c>
-      <c r="B18" s="236" t="s">
-        <v>460</v>
-      </c>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="227"/>
+        <v>439</v>
+      </c>
+      <c r="B18" s="238" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="165" t="s">
-        <v>456</v>
-      </c>
-      <c r="B19" s="197" t="s">
-        <v>461</v>
-      </c>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
+        <v>440</v>
+      </c>
+      <c r="B19" s="199" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A20" s="237" t="s">
-        <v>457</v>
-      </c>
-      <c r="B20" s="238" t="s">
-        <v>462</v>
-      </c>
-      <c r="C20" s="239"/>
-      <c r="D20" s="240"/>
+      <c r="A20" s="239" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" s="240" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A21" s="241" t="s">
-        <v>463</v>
-      </c>
-      <c r="B21" s="242"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="244"/>
+      <c r="A21" s="243" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" s="244"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="246"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" customHeight="1" thickBot="1">
-      <c r="A25" s="200" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="201"/>
+      <c r="A25" s="202" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="203"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="205" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="206"/>
-      <c r="D26" s="207"/>
+      <c r="B26" s="207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="208"/>
+      <c r="D26" s="209"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B27" s="208" t="s">
-        <v>405</v>
-      </c>
-      <c r="C27" s="209"/>
-      <c r="D27" s="210"/>
+        <v>394</v>
+      </c>
+      <c r="B27" s="210" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="211"/>
+      <c r="D27" s="212"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B28" s="197" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="199"/>
+        <v>393</v>
+      </c>
+      <c r="B28" s="199" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" s="200"/>
+      <c r="D28" s="201"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B29" s="197" t="s">
-        <v>404</v>
-      </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199"/>
+        <v>392</v>
+      </c>
+      <c r="B29" s="199" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="200"/>
+      <c r="D29" s="201"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B30" s="197" t="s">
-        <v>408</v>
-      </c>
-      <c r="C30" s="198"/>
-      <c r="D30" s="199"/>
+        <v>395</v>
+      </c>
+      <c r="B30" s="199" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" s="200"/>
+      <c r="D30" s="201"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B31" s="197" t="s">
-        <v>407</v>
-      </c>
-      <c r="C31" s="198"/>
-      <c r="D31" s="199"/>
+        <v>396</v>
+      </c>
+      <c r="B31" s="199" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="200"/>
+      <c r="D31" s="201"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="163"/>
@@ -6217,35 +6267,35 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A34" s="191" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
+      <c r="A34" s="193" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
       <c r="A37" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>43</v>
-      </c>
       <c r="E37" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>22</v>
@@ -6254,896 +6304,945 @@
         <v>23</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1">
       <c r="A40" s="9" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1">
       <c r="A41" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1">
       <c r="A42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>9</v>
+        <v>404</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1">
       <c r="A43" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="9" t="s">
-        <v>9</v>
+        <v>403</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>9</v>
+        <v>450</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>9</v>
+        <v>449</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>9</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1">
       <c r="A45" s="9" t="s">
-        <v>9</v>
+        <v>403</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>9</v>
+        <v>404</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>9</v>
+        <v>450</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>9</v>
+        <v>449</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>9</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
       <c r="A46" s="9" t="s">
-        <v>9</v>
+        <v>403</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>9</v>
+        <v>450</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>9</v>
+        <v>449</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>9</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
       <c r="A47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A50" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="247" t="s">
+        <v>453</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E50" s="247" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A51" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C51" s="247" t="s">
+        <v>453</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E51" s="247" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A52" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C52" s="247" t="s">
+        <v>453</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E52" s="247" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="247" t="s">
+        <v>453</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E53" s="247" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C54" s="247" t="s">
+        <v>453</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E54" s="247" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C55" s="247" t="s">
+        <v>453</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E55" s="247" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="57" customHeight="1">
+      <c r="A58" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="193"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="193"/>
+      <c r="E58" s="193"/>
+    </row>
+    <row r="59" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
+    <row r="60" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="A61" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="D61" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="9" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A62" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="B62" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="C62" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="57" customHeight="1">
-      <c r="A50" s="191" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="191"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="191"/>
-    </row>
-    <row r="51" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
-    <row r="52" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A52" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="23" t="s">
+      <c r="D62" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="A65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A69" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="193"/>
+      <c r="C69" s="193"/>
+      <c r="D69" s="193"/>
+      <c r="E69" s="193"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" ht="30">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="167" t="s">
+        <v>455</v>
+      </c>
+      <c r="C71" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" s="168"/>
+      <c r="C72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="36" customHeight="1">
+      <c r="A74" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="193"/>
+      <c r="C74" s="193"/>
+      <c r="D74" s="193"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="B79" s="193"/>
+      <c r="C79" s="193"/>
+      <c r="D79" s="193"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="81" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A81" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A82" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A83" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A90" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="194"/>
+      <c r="C90" s="190"/>
+      <c r="D90" s="190"/>
+      <c r="E90" s="190"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A92" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A93" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A94" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="195" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" s="195"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="70.5" customHeight="1">
+      <c r="A107" s="189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" s="190"/>
+      <c r="C107" s="190"/>
+      <c r="D107" s="190"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A108" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A109" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="59"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A111" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A112" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A113" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A114" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A115" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A119" s="183" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" s="183"/>
+      <c r="C119" s="184"/>
+      <c r="D119" s="184"/>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A120" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A121" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B121" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="56" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A53" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A61" s="191" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="191"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="191"/>
-      <c r="E61" s="191"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="10"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C63" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="C64" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="36" customHeight="1">
-      <c r="A66" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="B66" s="191"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="191"/>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="191" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" s="191"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="191"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="73" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A73" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A74" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A75" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A76" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A77" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A78" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A79" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A82" s="192" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="192"/>
-      <c r="C82" s="188"/>
-      <c r="D82" s="188"/>
-      <c r="E82" s="188"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="84" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A84" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="35"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A89" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" s="193"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A99" s="187" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="188"/>
-      <c r="C99" s="188"/>
-      <c r="D99" s="188"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A100" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A101" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B101" s="25" t="s">
+      <c r="D121" s="58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A122" s="53"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="55"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A123" s="53"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="55"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A124" s="53"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="55"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A125" s="53"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="55"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A126" s="53"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="55"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="191"/>
+      <c r="B127" s="191"/>
+      <c r="C127" s="192"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" ht="20.25">
+      <c r="A129" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
+      <c r="A130" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="B130" s="182"/>
+      <c r="C130" s="176"/>
+      <c r="D130" s="176"/>
+    </row>
+    <row r="131" spans="1:4" ht="29.25" thickBot="1">
+      <c r="A131" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C101" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="26" t="s">
+      <c r="B131" s="25" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A102" s="53"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="59"/>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A103" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A104" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A105" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A106" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A107" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="50"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A111" s="181" t="s">
+      <c r="C131" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A132" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="B111" s="181"/>
-      <c r="C111" s="182"/>
-      <c r="D111" s="182"/>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A112" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A113" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" s="57" t="s">
+      <c r="B132" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="C113" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" s="58" t="s">
+      <c r="C132" s="55" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A114" s="53"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="55"/>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A115" s="53"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="55"/>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A116" s="53"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="55"/>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A117" s="53"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="55"/>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A118" s="53"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="55"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="189"/>
-      <c r="B119" s="189"/>
-      <c r="C119" s="190"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" ht="20.25">
-      <c r="A121" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A122" s="180" t="s">
-        <v>420</v>
-      </c>
-      <c r="B122" s="180"/>
-      <c r="C122" s="174"/>
-      <c r="D122" s="174"/>
-    </row>
-    <row r="123" spans="1:4" ht="29.25" thickBot="1">
-      <c r="A123" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A124" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="B124" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="C124" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A125" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="B125" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C125" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A126" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="B126" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C126" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A127" s="53" t="s">
-        <v>418</v>
-      </c>
-      <c r="B127" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A128" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A129" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A130" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A131" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A132" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" s="55" t="s">
-        <v>9</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1">
       <c r="A133" s="53" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="C133" s="55" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1">
       <c r="A134" s="53" t="s">
-        <v>9</v>
+        <v>409</v>
       </c>
       <c r="B134" s="53" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="C134" s="55" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1">
       <c r="A135" s="53" t="s">
-        <v>9</v>
+        <v>410</v>
       </c>
       <c r="B135" s="53" t="s">
         <v>9</v>
@@ -7165,61 +7264,75 @@
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A137" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="55" t="s">
+        <v>9</v>
+      </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="20.25">
-      <c r="A138" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A138" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="55" t="s">
+        <v>9</v>
+      </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A139" s="180" t="s">
-        <v>206</v>
-      </c>
-      <c r="B139" s="180"/>
-      <c r="C139" s="174"/>
-      <c r="D139" s="174"/>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A139" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A140" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B140" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>208</v>
+      <c r="A140" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1">
       <c r="A141" s="53" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="B141" s="53" t="s">
-        <v>423</v>
-      </c>
-      <c r="C141" s="54" t="s">
-        <v>424</v>
+        <v>9</v>
+      </c>
+      <c r="C141" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1">
       <c r="A142" s="53" t="s">
-        <v>421</v>
+        <v>9</v>
       </c>
       <c r="B142" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="C142" s="54" t="s">
-        <v>424</v>
+        <v>9</v>
+      </c>
+      <c r="C142" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="D142" s="2"/>
     </row>
@@ -7228,17 +7341,23 @@
         <v>9</v>
       </c>
       <c r="B143" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C143" s="54"/>
+        <v>9</v>
+      </c>
+      <c r="C143" s="55" t="s">
+        <v>9</v>
+      </c>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="167" t="s">
-        <v>258</v>
-      </c>
-      <c r="B144" s="167"/>
-      <c r="C144" s="2"/>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A144" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="55" t="s">
+        <v>9</v>
+      </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145" spans="1:4">
@@ -7247,986 +7366,1052 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A146" s="180" t="s">
-        <v>257</v>
-      </c>
-      <c r="B146" s="180"/>
-      <c r="C146" s="174"/>
-      <c r="D146" s="174"/>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A147" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B147" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+    <row r="146" spans="1:4" ht="20.25">
+      <c r="A146" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A147" s="182" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" s="182"/>
+      <c r="C147" s="176"/>
+      <c r="D147" s="176"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A148" s="53"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="2"/>
+      <c r="A148" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>204</v>
+      </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A149" s="53"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="2"/>
+      <c r="A149" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B149" s="248" t="s">
+        <v>464</v>
+      </c>
+      <c r="C149" s="54" t="s">
+        <v>463</v>
+      </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A150" s="53"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="2"/>
+      <c r="A150" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B150" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="C150" s="54" t="s">
+        <v>463</v>
+      </c>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="21"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="2"/>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A151" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" s="54"/>
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="A152" s="169" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" s="169"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A153" s="181" t="s">
-        <v>210</v>
-      </c>
-      <c r="B153" s="181"/>
-      <c r="C153" s="182"/>
-      <c r="D153" s="182"/>
-    </row>
-    <row r="154" spans="1:4" ht="29.25" thickBot="1">
-      <c r="A154" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B154" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>212</v>
-      </c>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A154" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="B154" s="182"/>
+      <c r="C154" s="176"/>
+      <c r="D154" s="176"/>
     </row>
     <row r="155" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A155" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="B155" s="53" t="s">
-        <v>427</v>
-      </c>
-      <c r="C155" s="53" t="s">
-        <v>426</v>
-      </c>
-      <c r="D155" s="55" t="s">
-        <v>80</v>
-      </c>
+      <c r="A155" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A156" s="53"/>
-      <c r="B156" s="53"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="55"/>
+      <c r="A156" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="B156" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A157" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="A157" s="53"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A158" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B158" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="A158" s="53"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="21" t="s">
-        <v>87</v>
-      </c>
+      <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="37"/>
+      <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:7" ht="39" customHeight="1" thickBot="1">
-      <c r="A161" s="168" t="s">
-        <v>259</v>
-      </c>
-      <c r="B161" s="168"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" thickBot="1">
+    <row r="161" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A161" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" s="183"/>
+      <c r="C161" s="184"/>
+      <c r="D161" s="184"/>
+    </row>
+    <row r="162" spans="1:4" ht="29.25" thickBot="1">
       <c r="A162" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B162" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A163" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="B163" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A164" s="53" t="s">
-        <v>425</v>
-      </c>
-      <c r="B164" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" thickBot="1">
+        <v>203</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A163" s="53"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="55"/>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A164" s="53"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="55"/>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1">
       <c r="A165" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B165" s="55" t="s">
+      <c r="B165" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B166" s="167"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+      <c r="C165" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A166" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B167" s="21"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:7" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A168" s="172" t="s">
-        <v>215</v>
-      </c>
-      <c r="B168" s="172"/>
-      <c r="C168" s="174"/>
-      <c r="D168" s="174"/>
-    </row>
-    <row r="169" spans="1:7" ht="24" customHeight="1" thickBot="1">
-      <c r="A169" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B169" s="184" t="s">
-        <v>428</v>
-      </c>
-      <c r="C169" s="185"/>
-      <c r="D169" s="186"/>
-      <c r="F169" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+    <row r="168" spans="1:4">
+      <c r="A168" s="37"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" ht="39" customHeight="1" thickBot="1">
+      <c r="A169" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="B169" s="170"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A170" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>169</v>
+      </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A171" s="183" t="s">
-        <v>217</v>
-      </c>
-      <c r="B171" s="183"/>
-      <c r="C171" s="174"/>
-      <c r="D171" s="174"/>
-      <c r="F171" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
+    <row r="171" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A171" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="B171" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A172" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="B172" s="55" t="s">
+        <v>469</v>
+      </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A173" s="51" t="s">
+    <row r="173" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A173" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="B174" s="169"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A176" s="174" t="s">
+        <v>211</v>
+      </c>
+      <c r="B176" s="174"/>
+      <c r="C176" s="176"/>
+      <c r="D176" s="176"/>
+    </row>
+    <row r="177" spans="1:7" ht="24" customHeight="1" thickBot="1">
+      <c r="A177" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B177" s="186" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="187"/>
+      <c r="D177" s="188"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:7" ht="75.75" customHeight="1">
+      <c r="A179" s="185" t="s">
+        <v>213</v>
+      </c>
+      <c r="B179" s="185"/>
+      <c r="C179" s="176"/>
+      <c r="D179" s="176"/>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A181" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B181" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C181" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A182" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="B182" s="167" t="s">
+        <v>472</v>
+      </c>
+      <c r="C182" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="G182" s="166"/>
+    </row>
+    <row r="183" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A183" s="53" t="s">
+        <v>473</v>
+      </c>
+      <c r="B183" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="G183" s="166"/>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A184" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="169"/>
+      <c r="B185" s="169"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="39"/>
+      <c r="B186" s="39"/>
+    </row>
+    <row r="187" spans="1:7" ht="63" customHeight="1" thickBot="1">
+      <c r="A187" s="183" t="s">
+        <v>216</v>
+      </c>
+      <c r="B187" s="183"/>
+      <c r="C187" s="184"/>
+      <c r="D187" s="184"/>
+    </row>
+    <row r="188" spans="1:7" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A188" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A189" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="55"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A190" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B190" s="53"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="55"/>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A191" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B191" s="53"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="55"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="181"/>
+      <c r="B192" s="181"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="41"/>
+      <c r="B193" s="41"/>
+    </row>
+    <row r="194" spans="1:6" ht="54.75" customHeight="1">
+      <c r="A194" s="182" t="s">
+        <v>260</v>
+      </c>
+      <c r="B194" s="182"/>
+      <c r="C194" s="176"/>
+      <c r="D194" s="176"/>
+      <c r="F194" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A196" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B173" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="C173" s="52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A174" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B174" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C174" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G174" s="166"/>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A175" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B175" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G175" s="166"/>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A176" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B176" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C176" s="54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="167"/>
-      <c r="B177" s="167"/>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="39"/>
-      <c r="B178" s="39"/>
-    </row>
-    <row r="179" spans="1:6" ht="63" customHeight="1" thickBot="1">
-      <c r="A179" s="181" t="s">
-        <v>220</v>
-      </c>
-      <c r="B179" s="181"/>
-      <c r="C179" s="182"/>
-      <c r="D179" s="182"/>
-    </row>
-    <row r="180" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A180" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B180" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C180" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D180" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A181" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="55"/>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A182" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="B182" s="53"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="55"/>
-    </row>
-    <row r="183" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A183" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="B183" s="53"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="55"/>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="179"/>
-      <c r="B184" s="179"/>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="41"/>
-      <c r="B185" s="41"/>
-    </row>
-    <row r="186" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A186" s="180" t="s">
-        <v>267</v>
-      </c>
-      <c r="B186" s="180"/>
-      <c r="C186" s="174"/>
-      <c r="D186" s="174"/>
-      <c r="F186" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="188" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A188" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A189" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B189" s="55" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A190" s="53"/>
-      <c r="B190" s="55"/>
-    </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A191" s="53"/>
-      <c r="B191" s="55"/>
-    </row>
-    <row r="192" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A192" s="53"/>
-      <c r="B192" s="55"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="1:6" ht="20.25">
-      <c r="A194" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A195" s="175" t="s">
-        <v>223</v>
-      </c>
-      <c r="B195" s="175"/>
-      <c r="C195" s="176"/>
-      <c r="D195" s="176"/>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A196" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B196" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B196" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="30.75" thickBot="1">
       <c r="A197" s="53" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B197" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
+        <v>262</v>
+      </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" thickBot="1">
       <c r="A198" s="53"/>
-      <c r="B198" s="55" t="s">
-        <v>433</v>
-      </c>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="B198" s="55"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" thickBot="1">
       <c r="A199" s="53"/>
-      <c r="B199" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
+      <c r="B199" s="55"/>
     </row>
     <row r="200" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A200" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B200" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
+      <c r="A200" s="53"/>
+      <c r="B200" s="55"/>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="167"/>
-      <c r="B201" s="167"/>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
+    <row r="202" spans="1:6" ht="20.25">
+      <c r="A202" s="42" t="s">
+        <v>263</v>
+      </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A203" s="170" t="s">
-        <v>272</v>
-      </c>
-      <c r="B203" s="170"/>
-      <c r="C203" s="171"/>
-      <c r="D203" s="171"/>
-      <c r="F203" t="s">
-        <v>435</v>
-      </c>
+    <row r="203" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A203" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="B203" s="177"/>
+      <c r="C203" s="178"/>
+      <c r="D203" s="178"/>
     </row>
     <row r="204" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
+      <c r="A204" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
-      <c r="F204" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A205" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B205" s="26" t="s">
-        <v>202</v>
-      </c>
+      <c r="A205" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B205" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="15.75" thickBot="1">
       <c r="A206" s="53"/>
-      <c r="B206" s="55"/>
+      <c r="B206" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:6" ht="15.75" thickBot="1">
       <c r="A207" s="53"/>
-      <c r="B207" s="55"/>
+      <c r="B207" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A208" s="53"/>
-      <c r="B208" s="55"/>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A209" s="53"/>
-      <c r="B209" s="55"/>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="167"/>
-      <c r="B210" s="167"/>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="43"/>
-    </row>
-    <row r="212" spans="1:4" ht="33" customHeight="1" thickBot="1">
-      <c r="A212" s="177" t="s">
-        <v>273</v>
-      </c>
-      <c r="B212" s="177"/>
-      <c r="C212" s="178"/>
-      <c r="D212" s="178"/>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A208" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="169"/>
+      <c r="B209" s="169"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="1:6" ht="54.75" customHeight="1">
+      <c r="A211" s="172" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211" s="172"/>
+      <c r="C211" s="173"/>
+      <c r="D211" s="173"/>
+      <c r="F211" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="F212" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" thickBot="1">
       <c r="A213" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B213" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C213" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D213" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A214" s="53"/>
+      <c r="B214" s="55"/>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A215" s="53"/>
+      <c r="B215" s="55"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A216" s="53"/>
+      <c r="B216" s="55"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A217" s="53"/>
+      <c r="B217" s="55"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="169"/>
+      <c r="B218" s="169"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="43"/>
+    </row>
+    <row r="220" spans="1:6" ht="33" customHeight="1" thickBot="1">
+      <c r="A220" s="179" t="s">
+        <v>266</v>
+      </c>
+      <c r="B220" s="179"/>
+      <c r="C220" s="180"/>
+      <c r="D220" s="180"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A221" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B221" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D221" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A222" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="55"/>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A223" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B223" s="53"/>
+      <c r="C223" s="53"/>
+      <c r="D223" s="55"/>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A224" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B224" s="53"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="55"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="21"/>
+      <c r="B225" s="21"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="39"/>
+      <c r="B226" s="39"/>
+    </row>
+    <row r="227" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A227" s="174" t="s">
+        <v>222</v>
+      </c>
+      <c r="B227" s="174"/>
+      <c r="C227" s="176"/>
+      <c r="D227" s="176"/>
+    </row>
+    <row r="228" spans="1:6" ht="45">
+      <c r="A228" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="36" customHeight="1">
+      <c r="A230" s="172" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A214" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="B214" s="53"/>
-      <c r="C214" s="53"/>
-      <c r="D214" s="55"/>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A215" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="B215" s="53"/>
-      <c r="C215" s="53"/>
-      <c r="D215" s="55"/>
-    </row>
-    <row r="216" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A216" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="B216" s="53"/>
-      <c r="C216" s="53"/>
-      <c r="D216" s="55"/>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="21"/>
-      <c r="B217" s="21"/>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="39"/>
-      <c r="B218" s="39"/>
-    </row>
-    <row r="219" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A219" s="172" t="s">
-        <v>226</v>
-      </c>
-      <c r="B219" s="172"/>
-      <c r="C219" s="174"/>
-      <c r="D219" s="174"/>
-    </row>
-    <row r="220" spans="1:4" ht="45">
-      <c r="A220" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="36" customHeight="1">
-      <c r="A222" s="170" t="s">
-        <v>228</v>
-      </c>
-      <c r="B222" s="170"/>
-      <c r="C222" s="171"/>
-      <c r="D222" s="171"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B223" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="1:6" ht="20.25">
-      <c r="A225" s="45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A226" s="170" t="s">
-        <v>229</v>
-      </c>
-      <c r="B226" s="170"/>
-      <c r="C226" s="171"/>
-      <c r="D226" s="171"/>
-    </row>
-    <row r="227" spans="1:6" ht="90">
-      <c r="A227" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="20.25">
-      <c r="A229" s="45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A230" s="170" t="s">
-        <v>230</v>
-      </c>
-      <c r="B230" s="170"/>
-      <c r="C230" s="171"/>
-      <c r="D230" s="171"/>
+      <c r="B230" s="172"/>
+      <c r="C230" s="173"/>
+      <c r="D230" s="173"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B231" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" ht="20.25">
+      <c r="A233" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A234" s="172" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234" s="172"/>
+      <c r="C234" s="173"/>
+      <c r="D234" s="173"/>
+    </row>
+    <row r="235" spans="1:6" ht="90">
+      <c r="A235" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="20.25">
+      <c r="A237" s="45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A238" s="172" t="s">
+        <v>226</v>
+      </c>
+      <c r="B238" s="172"/>
+      <c r="C238" s="173"/>
+      <c r="D238" s="173"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B239" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="F240" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="33" customHeight="1">
+      <c r="A241" s="172" t="s">
         <v>227</v>
       </c>
-      <c r="B231" s="46" t="s">
+      <c r="B241" s="172"/>
+      <c r="C241" s="173"/>
+      <c r="D241" s="173"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B242" t="s">
         <v>9</v>
       </c>
-      <c r="F231" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="F232" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="33" customHeight="1">
-      <c r="A233" s="170" t="s">
+    </row>
+    <row r="244" spans="1:4" ht="41.25" customHeight="1">
+      <c r="A244" s="172" t="s">
+        <v>228</v>
+      </c>
+      <c r="B244" s="172"/>
+      <c r="C244" s="173"/>
+      <c r="D244" s="173"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A247" s="174" t="s">
+        <v>229</v>
+      </c>
+      <c r="B247" s="174"/>
+      <c r="C247" s="173"/>
+      <c r="D247" s="173"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="20.25">
+      <c r="A250" s="45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="45" customHeight="1">
+      <c r="A251" s="172" t="s">
+        <v>230</v>
+      </c>
+      <c r="B251" s="172"/>
+      <c r="C251" s="173"/>
+      <c r="D251" s="173"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="20.25">
+      <c r="A254" s="45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="42" customHeight="1">
+      <c r="A255" s="175" t="s">
         <v>231</v>
       </c>
-      <c r="B233" s="170"/>
-      <c r="C233" s="171"/>
-      <c r="D233" s="171"/>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="B255" s="175"/>
+      <c r="C255" s="173"/>
+      <c r="D255" s="173"/>
+    </row>
+    <row r="256" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="257" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A257" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B257" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A258" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B258" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A259" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="B259" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A236" s="170" t="s">
-        <v>232</v>
-      </c>
-      <c r="B236" s="170"/>
-      <c r="C236" s="171"/>
-      <c r="D236" s="171"/>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A239" s="172" t="s">
-        <v>233</v>
-      </c>
-      <c r="B239" s="172"/>
-      <c r="C239" s="171"/>
-      <c r="D239" s="171"/>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B240" t="s">
+    <row r="260" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A260" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="20.25">
-      <c r="A242" s="45" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="45" customHeight="1">
-      <c r="A243" s="170" t="s">
+      <c r="B260" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A261" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
+    </row>
+    <row r="263" spans="1:4" ht="20.25">
+      <c r="A263" s="45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A264" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="B243" s="170"/>
-      <c r="C243" s="171"/>
-      <c r="D243" s="171"/>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="B244" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="20.25">
-      <c r="A246" s="45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="42" customHeight="1">
-      <c r="A247" s="173" t="s">
+      <c r="B264" s="173"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="47"/>
+    </row>
+    <row r="266" spans="1:4" ht="20.25">
+      <c r="A266" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A267" s="172" t="s">
         <v>235</v>
       </c>
-      <c r="B247" s="173"/>
-      <c r="C247" s="171"/>
-      <c r="D247" s="171"/>
-    </row>
-    <row r="248" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="249" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A249" s="25" t="s">
+      <c r="B267" s="172"/>
+      <c r="C267" s="173"/>
+      <c r="D267" s="173"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="172" t="s">
         <v>236</v>
       </c>
-      <c r="B249" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A250" s="53" t="s">
+      <c r="B270" s="172"/>
+      <c r="C270" s="173"/>
+      <c r="D270" s="173"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="25.5" customHeight="1"/>
+    <row r="273" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A273" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="B250" s="55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A251" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="B251" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A252" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B252" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A253" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B253" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="39"/>
-      <c r="B254" s="39"/>
-    </row>
-    <row r="255" spans="1:4" ht="20.25">
-      <c r="A255" s="45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A256" s="170" t="s">
+      <c r="B273" s="172"/>
+    </row>
+    <row r="274" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A274" s="172" t="s">
         <v>238</v>
       </c>
-      <c r="B256" s="171"/>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="47"/>
-    </row>
-    <row r="258" spans="1:4" ht="20.25">
-      <c r="A258" s="45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A259" s="170" t="s">
+      <c r="B274" s="172"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A277" s="170" t="s">
         <v>239</v>
       </c>
-      <c r="B259" s="170"/>
-      <c r="C259" s="171"/>
-      <c r="D259" s="171"/>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="170" t="s">
+      <c r="B277" s="170"/>
+      <c r="C277" s="171"/>
+      <c r="D277" s="171"/>
+    </row>
+    <row r="278" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A278" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C278" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D278" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="170"/>
-      <c r="C262" s="171"/>
-      <c r="D262" s="171"/>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="25.5" customHeight="1"/>
-    <row r="265" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A265" s="170" t="s">
+    </row>
+    <row r="279" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A279" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B279" s="40"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="12"/>
+    </row>
+    <row r="280" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A280" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="12"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="169"/>
+      <c r="B281" s="169"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
+    </row>
+    <row r="283" spans="1:4" ht="20.25">
+      <c r="A283" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="27">
+      <c r="A284" s="47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="20.25">
+      <c r="A285" s="48"/>
+    </row>
+    <row r="286" spans="1:4" ht="20.25">
+      <c r="A286" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="39" customHeight="1">
+      <c r="A287" s="172" t="s">
         <v>241</v>
       </c>
-      <c r="B265" s="170"/>
-    </row>
-    <row r="266" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A266" s="170" t="s">
+      <c r="B287" s="172"/>
+      <c r="C287" s="173"/>
+      <c r="D287" s="173"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B288" s="8"/>
+    </row>
+    <row r="290" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A290" s="170" t="s">
         <v>242</v>
       </c>
-      <c r="B266" s="170"/>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A269" s="168" t="s">
+      <c r="B290" s="170"/>
+      <c r="C290" s="171"/>
+      <c r="D290" s="171"/>
+    </row>
+    <row r="291" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="292" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A292" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B292" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C292" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D292" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="B269" s="168"/>
-      <c r="C269" s="169"/>
-      <c r="D269" s="169"/>
-    </row>
-    <row r="270" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A270" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B270" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C270" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D270" s="26" t="s">
+    </row>
+    <row r="293" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A293" s="11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A271" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B271" s="40"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="12"/>
-    </row>
-    <row r="272" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A272" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
-      <c r="D272" s="12"/>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="167"/>
-      <c r="B273" s="167"/>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="39"/>
-      <c r="B274" s="39"/>
-    </row>
-    <row r="275" spans="1:4" ht="20.25">
-      <c r="A275" s="45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="27">
-      <c r="A276" s="47" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="20.25">
-      <c r="A277" s="48"/>
-    </row>
-    <row r="278" spans="1:4" ht="20.25">
-      <c r="A278" s="45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="39" customHeight="1">
-      <c r="A279" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="B279" s="170"/>
-      <c r="C279" s="171"/>
-      <c r="D279" s="171"/>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="B280" s="8"/>
-    </row>
-    <row r="282" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A282" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="B282" s="168"/>
-      <c r="C282" s="169"/>
-      <c r="D282" s="169"/>
-    </row>
-    <row r="283" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="284" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A284" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B284" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C284" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D284" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A285" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B285" s="49"/>
-      <c r="C285" s="11"/>
-      <c r="D285" s="60"/>
-    </row>
-    <row r="286" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A286" s="11"/>
-      <c r="B286" s="40"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="12"/>
-    </row>
-    <row r="287" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A287" s="11"/>
-      <c r="B287" s="11"/>
-      <c r="C287" s="11"/>
-      <c r="D287" s="12"/>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="21"/>
-      <c r="B288" s="21"/>
+      <c r="B293" s="49"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="60"/>
+    </row>
+    <row r="294" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A294" s="11"/>
+      <c r="B294" s="40"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="12"/>
+    </row>
+    <row r="295" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A295" s="11"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="12"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="21"/>
+      <c r="B296" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="68">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A74:D74"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B16:D16"/>
@@ -8236,11 +8421,11 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A58:E58"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
@@ -8250,47 +8435,48 @@
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="B177:D177"/>
     <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A227:D227"/>
     <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A244:D244"/>
     <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A255:D255"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A290:D290"/>
     <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A269:D269"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A274:B274"/>
   </mergeCells>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8325,22 +8511,22 @@
   <sheetData>
     <row r="1" spans="1:26 16384:16384" s="16" customFormat="1" ht="51.6" customHeight="1" thickBot="1">
       <c r="A1" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="D1" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="106" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="211" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8357,40 +8543,40 @@
       <c r="C2" s="96"/>
       <c r="D2" s="15"/>
       <c r="E2" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="H2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="I2" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="158" t="s">
+      <c r="J2" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="K2" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="L2" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="159" t="s">
+      <c r="M2" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="159" t="s">
+      <c r="N2" s="159" t="s">
         <v>59</v>
-      </c>
-      <c r="M2" s="159" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="159" t="s">
-        <v>61</v>
       </c>
       <c r="O2" s="159" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="159" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
@@ -8399,21 +8585,21 @@
       <c r="C3" s="96"/>
       <c r="D3" s="15"/>
       <c r="E3" s="142" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F3" s="142"/>
       <c r="G3" s="142"/>
       <c r="H3" s="153" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I3" s="154" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J3" s="155" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K3" s="156" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L3" s="157"/>
       <c r="M3" s="107"/>
@@ -8422,15 +8608,15 @@
       <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="212" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
+      <c r="A4" s="214" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
       <c r="H4" s="150"/>
       <c r="I4" s="151"/>
       <c r="J4" s="151"/>
@@ -8449,13 +8635,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D5" s="122" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E5" s="160" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F5" s="160"/>
       <c r="G5" s="160"/>
@@ -8469,7 +8655,7 @@
       <c r="O5" s="149"/>
       <c r="P5" s="149"/>
       <c r="R5" s="16" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
@@ -8480,13 +8666,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E6" s="110" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F6" s="110"/>
       <c r="G6" s="90"/>
@@ -8499,12 +8685,12 @@
       <c r="N6" s="95"/>
       <c r="O6" s="95"/>
       <c r="P6" s="95"/>
-      <c r="R6" s="219" t="s">
-        <v>285</v>
-      </c>
-      <c r="S6" s="220"/>
-      <c r="T6" s="220"/>
-      <c r="U6" s="220"/>
+      <c r="R6" s="221" t="s">
+        <v>278</v>
+      </c>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
     </row>
     <row r="7" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="108" t="s">
@@ -8514,13 +8700,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F7" s="111"/>
       <c r="G7" s="111"/>
@@ -8533,10 +8719,10 @@
       <c r="N7" s="63"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
-      <c r="R7" s="220"/>
-      <c r="S7" s="220"/>
-      <c r="T7" s="220"/>
-      <c r="U7" s="220"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="222"/>
     </row>
     <row r="8" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="108" t="s">
@@ -8546,13 +8732,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F8" s="111"/>
       <c r="G8" s="111"/>
@@ -8565,10 +8751,10 @@
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
+      <c r="R8" s="222"/>
+      <c r="S8" s="222"/>
+      <c r="T8" s="222"/>
+      <c r="U8" s="222"/>
     </row>
     <row r="9" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="108" t="s">
@@ -8578,13 +8764,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F9" s="111"/>
       <c r="G9" s="111"/>
@@ -8597,10 +8783,10 @@
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="220"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
     </row>
     <row r="10" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="108" t="s">
@@ -8610,13 +8796,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F10" s="111"/>
       <c r="G10" s="111"/>
@@ -8629,10 +8815,10 @@
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="220"/>
-      <c r="T10" s="220"/>
-      <c r="U10" s="220"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
       <c r="XFD10" s="73"/>
     </row>
     <row r="11" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
@@ -8643,14 +8829,14 @@
         <v>18</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E11" s="111"/>
       <c r="F11" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G11" s="111"/>
       <c r="H11" s="65"/>
@@ -8662,10 +8848,10 @@
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="220"/>
-      <c r="T11" s="220"/>
-      <c r="U11" s="220"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
     </row>
     <row r="12" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="108" t="s">
@@ -8675,13 +8861,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F12" s="111"/>
       <c r="G12" s="111"/>
@@ -8694,10 +8880,10 @@
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
-      <c r="R12" s="220"/>
-      <c r="S12" s="220"/>
-      <c r="T12" s="220"/>
-      <c r="U12" s="220"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="222"/>
     </row>
     <row r="13" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A13" s="108" t="s">
@@ -8707,13 +8893,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F13" s="111"/>
       <c r="G13" s="111"/>
@@ -8727,10 +8913,10 @@
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="220"/>
-      <c r="S13" s="220"/>
-      <c r="T13" s="220"/>
-      <c r="U13" s="220"/>
+      <c r="R13" s="222"/>
+      <c r="S13" s="222"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="222"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -8739,20 +8925,20 @@
     </row>
     <row r="14" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A14" s="108" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="109" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E14" s="111"/>
       <c r="F14" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G14" s="113"/>
       <c r="H14" s="67"/>
@@ -8765,10 +8951,10 @@
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="220"/>
-      <c r="S14" s="220"/>
-      <c r="T14" s="220"/>
-      <c r="U14" s="220"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -8777,20 +8963,20 @@
     </row>
     <row r="15" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A15" s="108" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="109" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G15" s="113"/>
       <c r="H15" s="67"/>
@@ -8803,10 +8989,10 @@
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="220"/>
-      <c r="S15" s="220"/>
-      <c r="T15" s="220"/>
-      <c r="U15" s="220"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="222"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -8815,16 +9001,16 @@
     </row>
     <row r="16" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="108" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="109" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E16" s="111"/>
       <c r="F16" s="111"/>
@@ -8839,10 +9025,10 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="220"/>
-      <c r="S16" s="220"/>
-      <c r="T16" s="220"/>
-      <c r="U16" s="220"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
@@ -8851,19 +9037,19 @@
     </row>
     <row r="17" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A17" s="108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="109" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F17" s="111"/>
       <c r="G17" s="113"/>
@@ -8877,10 +9063,10 @@
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="220"/>
-      <c r="S17" s="220"/>
-      <c r="T17" s="220"/>
-      <c r="U17" s="220"/>
+      <c r="R17" s="222"/>
+      <c r="S17" s="222"/>
+      <c r="T17" s="222"/>
+      <c r="U17" s="222"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
@@ -8889,24 +9075,24 @@
     </row>
     <row r="18" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A18" s="115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="109" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D18" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E18" s="117" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F18" s="111"/>
       <c r="G18" s="113"/>
       <c r="H18" s="67" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="I18" s="82"/>
       <c r="J18" s="83"/>
@@ -8929,16 +9115,16 @@
     </row>
     <row r="19" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A19" s="115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D19" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E19" s="117"/>
       <c r="F19" s="111"/>
@@ -8965,20 +9151,20 @@
     </row>
     <row r="20" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A20" s="115" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D20" s="116" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E20" s="117"/>
       <c r="F20" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G20" s="113"/>
       <c r="H20" s="84"/>
@@ -9003,20 +9189,20 @@
     </row>
     <row r="21" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A21" s="108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="118" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D21" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E21" s="111"/>
       <c r="F21" s="111" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G21" s="113"/>
       <c r="H21" s="82"/>
@@ -9041,16 +9227,16 @@
     </row>
     <row r="22" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A22" s="108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="109" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E22" s="111"/>
       <c r="F22" s="111"/>
@@ -9077,16 +9263,16 @@
     </row>
     <row r="23" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A23" s="108" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E23" s="119"/>
       <c r="F23" s="119"/>
@@ -9113,16 +9299,16 @@
     </row>
     <row r="24" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A24" s="108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E24" s="119"/>
       <c r="F24" s="119"/>
@@ -9149,16 +9335,16 @@
     </row>
     <row r="25" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A25" s="115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D25" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E25" s="119"/>
       <c r="F25" s="119"/>
@@ -9185,16 +9371,16 @@
     </row>
     <row r="26" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A26" s="108" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D26" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E26" s="119"/>
       <c r="F26" s="119"/>
@@ -9220,15 +9406,15 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A27" s="213" t="s">
+      <c r="A27" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
       <c r="H27" s="139"/>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
@@ -9251,21 +9437,21 @@
     </row>
     <row r="28" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A28" s="108" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E28" s="119"/>
       <c r="F28" s="119"/>
       <c r="G28" s="88" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H28" s="80"/>
       <c r="I28" s="80"/>
@@ -9295,13 +9481,13 @@
         <v>17</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E29" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F29" s="119"/>
       <c r="G29" s="88"/>
@@ -9333,13 +9519,13 @@
         <v>17</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E30" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F30" s="119"/>
       <c r="G30" s="88"/>
@@ -9371,14 +9557,14 @@
         <v>17</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E31" s="119"/>
       <c r="F31" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G31" s="88"/>
       <c r="H31" s="80"/>
@@ -9409,13 +9595,13 @@
         <v>17</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D32" s="108" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E32" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F32" s="119"/>
       <c r="G32" s="88"/>
@@ -9447,13 +9633,13 @@
         <v>17</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E33" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F33" s="119"/>
       <c r="G33" s="88"/>
@@ -9479,19 +9665,19 @@
     </row>
     <row r="34" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A34" s="108" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E34" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F34" s="119"/>
       <c r="G34" s="88"/>
@@ -9517,19 +9703,19 @@
     </row>
     <row r="35" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A35" s="108" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B35" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E35" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F35" s="119"/>
       <c r="G35" s="88"/>
@@ -9554,15 +9740,15 @@
       <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A36" s="213" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="214"/>
-      <c r="C36" s="215"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="215"/>
+      <c r="A36" s="215" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="216"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="217"/>
       <c r="H36" s="139"/>
       <c r="I36" s="140"/>
       <c r="J36" s="140"/>
@@ -9585,19 +9771,19 @@
     </row>
     <row r="37" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A37" s="108" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B37" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="99" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D37" s="122" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E37" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F37" s="88"/>
       <c r="G37" s="120"/>
@@ -9623,19 +9809,19 @@
     </row>
     <row r="38" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A38" s="123" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B38" s="121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="99" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D38" s="122" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E38" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F38" s="88"/>
       <c r="G38" s="120"/>
@@ -9660,11 +9846,11 @@
       <c r="Z38" s="17"/>
     </row>
     <row r="39" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A39" s="216" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="217"/>
-      <c r="C39" s="218"/>
+      <c r="A39" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="219"/>
+      <c r="C39" s="220"/>
       <c r="D39" s="124"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
@@ -9691,15 +9877,15 @@
     </row>
     <row r="40" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A40" s="108" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B40" s="120"/>
       <c r="C40" s="98" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F40" s="119"/>
       <c r="G40" s="88"/>
@@ -9725,19 +9911,19 @@
     </row>
     <row r="41" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A41" s="108" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B41" s="120" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D41" s="116" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E41" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F41" s="119"/>
       <c r="G41" s="88"/>
@@ -9763,19 +9949,19 @@
     </row>
     <row r="42" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="108" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B42" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E42" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F42" s="119"/>
       <c r="G42" s="88"/>
@@ -9801,16 +9987,16 @@
     </row>
     <row r="43" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A43" s="108" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B43" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D43" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E43" s="127"/>
       <c r="F43" s="119"/>
@@ -9837,16 +10023,16 @@
     </row>
     <row r="44" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A44" s="108" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B44" s="120" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="98" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E44" s="127"/>
       <c r="F44" s="119"/>
@@ -9873,19 +10059,19 @@
     </row>
     <row r="45" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A45" s="108" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" s="120" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="98" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D45" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E45" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F45" s="119"/>
       <c r="G45" s="88"/>
@@ -9911,19 +10097,19 @@
     </row>
     <row r="46" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="108" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B46" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="98" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D46" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E46" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F46" s="119"/>
       <c r="G46" s="88"/>
@@ -9949,21 +10135,21 @@
     </row>
     <row r="47" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A47" s="108" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B47" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="98" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D47" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E47" s="127"/>
       <c r="F47" s="119"/>
       <c r="G47" s="88" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H47" s="67"/>
       <c r="I47" s="67"/>
@@ -9987,19 +10173,19 @@
     </row>
     <row r="48" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A48" s="108" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B48" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D48" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E48" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F48" s="119"/>
       <c r="G48" s="88"/>
@@ -10025,19 +10211,19 @@
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A49" s="108" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B49" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E49" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F49" s="119"/>
       <c r="G49" s="88"/>
@@ -10063,19 +10249,19 @@
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A50" s="123" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B50" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="100" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D50" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E50" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F50" s="119"/>
       <c r="G50" s="88"/>
@@ -10101,19 +10287,19 @@
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A51" s="108" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B51" s="118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" s="101" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D51" s="116" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E51" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F51" s="119"/>
       <c r="G51" s="88"/>
@@ -10139,19 +10325,19 @@
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A52" s="108" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D52" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E52" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F52" s="119"/>
       <c r="G52" s="88"/>
@@ -10177,19 +10363,19 @@
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A53" s="108" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="98" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E53" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F53" s="119"/>
       <c r="G53" s="88"/>
@@ -10215,21 +10401,21 @@
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A54" s="108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="98" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D54" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E54" s="127"/>
       <c r="F54" s="119"/>
       <c r="G54" s="88" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H54" s="80"/>
       <c r="I54" s="80"/>
@@ -10253,21 +10439,21 @@
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A55" s="108" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="98" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D55" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E55" s="127"/>
       <c r="F55" s="119"/>
       <c r="G55" s="88" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
@@ -10291,13 +10477,13 @@
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A56" s="108" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B56" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="100" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="127"/>
@@ -10325,13 +10511,13 @@
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A57" s="108" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="101" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="127"/>
@@ -10359,21 +10545,21 @@
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A58" s="108" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="98" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D58" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E58" s="127"/>
       <c r="F58" s="119"/>
       <c r="G58" s="88" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H58" s="80"/>
       <c r="I58" s="67"/>
@@ -10397,19 +10583,19 @@
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A59" s="108" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C59" s="98" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D59" s="116" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E59" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F59" s="119"/>
       <c r="G59" s="88"/>
@@ -10435,16 +10621,16 @@
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="75.75" thickBot="1">
       <c r="A60" s="123" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C60" s="98" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D60" s="116" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E60" s="127"/>
       <c r="F60" s="119"/>
@@ -10471,19 +10657,19 @@
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A61" s="108" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D61" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E61" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F61" s="119"/>
       <c r="G61" s="88"/>
@@ -10493,7 +10679,7 @@
       <c r="K61" s="67"/>
       <c r="L61" s="67"/>
       <c r="M61" s="128" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="N61" s="69"/>
       <c r="O61" s="69"/>
@@ -10511,16 +10697,16 @@
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A62" s="108" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B62" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="98" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D62" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E62" s="127"/>
       <c r="F62" s="119"/>
@@ -10547,19 +10733,19 @@
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A63" s="108" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B63" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="98" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D63" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E63" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F63" s="119"/>
       <c r="G63" s="88"/>
@@ -10569,7 +10755,7 @@
       <c r="K63" s="80"/>
       <c r="L63" s="80"/>
       <c r="M63" s="128" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="N63" s="70"/>
       <c r="O63" s="70"/>
@@ -10587,19 +10773,19 @@
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A64" s="108" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B64" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D64" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E64" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F64" s="119"/>
       <c r="G64" s="88"/>
@@ -10625,20 +10811,20 @@
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A65" s="108" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B65" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="98" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D65" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E65" s="127"/>
       <c r="F65" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G65" s="88"/>
       <c r="H65" s="67"/>
@@ -10663,19 +10849,19 @@
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A66" s="108" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B66" s="88" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D66" s="116" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E66" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F66" s="119"/>
       <c r="G66" s="88"/>
@@ -10701,19 +10887,19 @@
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A67" s="108" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B67" s="88" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="98" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D67" s="116" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E67" s="127" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F67" s="119"/>
       <c r="G67" s="88"/>
@@ -10739,19 +10925,19 @@
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A68" s="108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B68" s="120" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="98" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D68" s="116" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E68" s="127" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F68" s="119"/>
       <c r="G68" s="88"/>
@@ -10761,7 +10947,7 @@
       <c r="K68" s="67"/>
       <c r="L68" s="67"/>
       <c r="M68" s="128" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="N68" s="69"/>
       <c r="O68" s="69"/>
@@ -10779,19 +10965,19 @@
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A69" s="123" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B69" s="118" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D69" s="116" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E69" s="127" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="88"/>
@@ -10801,7 +10987,7 @@
       <c r="K69" s="67"/>
       <c r="L69" s="67"/>
       <c r="M69" s="128" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="N69" s="69"/>
       <c r="O69" s="69"/>
@@ -10818,15 +11004,15 @@
       <c r="Z69" s="17"/>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A70" s="213" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="214"/>
-      <c r="C70" s="214"/>
-      <c r="D70" s="215"/>
-      <c r="E70" s="214"/>
-      <c r="F70" s="214"/>
-      <c r="G70" s="214"/>
+      <c r="A70" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="216"/>
+      <c r="C70" s="216"/>
+      <c r="D70" s="217"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216"/>
+      <c r="G70" s="216"/>
       <c r="H70" s="139"/>
       <c r="I70" s="140"/>
       <c r="J70" s="140"/>
@@ -10849,19 +11035,19 @@
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A71" s="108" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B71" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="99" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D71" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E71" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F71" s="119"/>
       <c r="G71" s="88"/>
@@ -10887,19 +11073,19 @@
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A72" s="108" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B72" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="99" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D72" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E72" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F72" s="119"/>
       <c r="G72" s="88"/>
@@ -10925,19 +11111,19 @@
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A73" s="108" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" s="121" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D73" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E73" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F73" s="119"/>
       <c r="G73" s="88"/>
@@ -10963,20 +11149,20 @@
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A74" s="108" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B74" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="99" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D74" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E74" s="127"/>
       <c r="F74" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G74" s="88"/>
       <c r="H74" s="67"/>
@@ -11001,19 +11187,19 @@
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="75.75" thickBot="1">
       <c r="A75" s="108" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B75" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="99" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D75" s="99" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E75" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F75" s="119"/>
       <c r="G75" s="88"/>
@@ -11023,7 +11209,7 @@
       <c r="K75" s="67"/>
       <c r="L75" s="67"/>
       <c r="M75" s="128" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="N75" s="69"/>
       <c r="O75" s="69"/>
@@ -11041,19 +11227,19 @@
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A76" s="108" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B76" s="121" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="99" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D76" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E76" s="127" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F76" s="119"/>
       <c r="G76" s="88"/>
@@ -11063,7 +11249,7 @@
       <c r="K76" s="67"/>
       <c r="L76" s="67"/>
       <c r="M76" s="128" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="N76" s="69"/>
       <c r="O76" s="69"/>
@@ -11081,19 +11267,19 @@
     </row>
     <row r="77" spans="1:26" s="16" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A77" s="108" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D77" s="99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E77" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F77" s="119"/>
       <c r="G77" s="88"/>
@@ -11119,19 +11305,19 @@
     </row>
     <row r="78" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A78" s="108" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78" s="99" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D78" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E78" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F78" s="119"/>
       <c r="G78" s="88"/>
@@ -11157,19 +11343,19 @@
     </row>
     <row r="79" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A79" s="108" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B79" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="99" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D79" s="99" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E79" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F79" s="119"/>
       <c r="G79" s="88"/>
@@ -11195,21 +11381,21 @@
     </row>
     <row r="80" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A80" s="108" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B80" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="99" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D80" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E80" s="127"/>
       <c r="F80" s="119"/>
       <c r="G80" s="88" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H80" s="67"/>
       <c r="I80" s="67"/>
@@ -11233,19 +11419,19 @@
     </row>
     <row r="81" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A81" s="108" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B81" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="99" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D81" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E81" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F81" s="119"/>
       <c r="G81" s="88"/>
@@ -11270,15 +11456,15 @@
       <c r="Z81" s="17"/>
     </row>
     <row r="82" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A82" s="213" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="215"/>
-      <c r="C82" s="215"/>
-      <c r="D82" s="221"/>
-      <c r="E82" s="214"/>
-      <c r="F82" s="214"/>
-      <c r="G82" s="214"/>
+      <c r="A82" s="215" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="217"/>
+      <c r="C82" s="217"/>
+      <c r="D82" s="223"/>
+      <c r="E82" s="216"/>
+      <c r="F82" s="216"/>
+      <c r="G82" s="216"/>
       <c r="H82" s="139"/>
       <c r="I82" s="140"/>
       <c r="J82" s="140"/>
@@ -11301,19 +11487,19 @@
     </row>
     <row r="83" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A83" s="115" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B83" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="99" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D83" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E83" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F83" s="119"/>
       <c r="G83" s="88"/>
@@ -11339,19 +11525,19 @@
     </row>
     <row r="84" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A84" s="108" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B84" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="99" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D84" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E84" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F84" s="119"/>
       <c r="G84" s="88"/>
@@ -11377,19 +11563,19 @@
     </row>
     <row r="85" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A85" s="108" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B85" s="121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C85" s="99" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D85" s="99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E85" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F85" s="119"/>
       <c r="G85" s="88"/>
@@ -11415,19 +11601,19 @@
     </row>
     <row r="86" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A86" s="108" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B86" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="99" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D86" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E86" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F86" s="119"/>
       <c r="G86" s="88"/>
@@ -11453,19 +11639,19 @@
     </row>
     <row r="87" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A87" s="108" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B87" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C87" s="99" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D87" s="99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E87" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F87" s="119"/>
       <c r="G87" s="88"/>
@@ -11490,15 +11676,15 @@
       <c r="Z87" s="17"/>
     </row>
     <row r="88" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A88" s="213" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" s="215"/>
-      <c r="C88" s="221"/>
-      <c r="D88" s="221"/>
-      <c r="E88" s="214"/>
-      <c r="F88" s="214"/>
-      <c r="G88" s="214"/>
+      <c r="A88" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="217"/>
+      <c r="C88" s="223"/>
+      <c r="D88" s="223"/>
+      <c r="E88" s="216"/>
+      <c r="F88" s="216"/>
+      <c r="G88" s="216"/>
       <c r="H88" s="139"/>
       <c r="I88" s="140"/>
       <c r="J88" s="140"/>
@@ -11521,19 +11707,19 @@
     </row>
     <row r="89" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A89" s="115" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B89" s="121" t="s">
         <v>18</v>
       </c>
       <c r="C89" s="99" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D89" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E89" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F89" s="119"/>
       <c r="G89" s="88"/>
@@ -11559,19 +11745,19 @@
     </row>
     <row r="90" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A90" s="115" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B90" s="121" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="99" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D90" s="99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E90" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F90" s="119"/>
       <c r="G90" s="88"/>
@@ -11597,19 +11783,19 @@
     </row>
     <row r="91" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A91" s="115" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B91" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="99" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D91" s="99" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E91" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F91" s="119"/>
       <c r="G91" s="88"/>
@@ -11635,16 +11821,16 @@
     </row>
     <row r="92" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A92" s="115" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B92" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="99" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D92" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E92" s="127"/>
       <c r="F92" s="119"/>
@@ -11655,7 +11841,7 @@
       <c r="K92" s="67"/>
       <c r="L92" s="67"/>
       <c r="M92" s="114" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="N92" s="69"/>
       <c r="O92" s="69"/>
@@ -11673,16 +11859,16 @@
     </row>
     <row r="93" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A93" s="108" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B93" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="99" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D93" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E93" s="127"/>
       <c r="F93" s="119"/>
@@ -11693,7 +11879,7 @@
       <c r="K93" s="67"/>
       <c r="L93" s="67"/>
       <c r="M93" s="114" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="N93" s="69"/>
       <c r="O93" s="69"/>
@@ -11710,15 +11896,15 @@
       <c r="Z93" s="17"/>
     </row>
     <row r="94" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A94" s="222" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" s="223"/>
-      <c r="C94" s="224"/>
-      <c r="D94" s="224"/>
-      <c r="E94" s="225"/>
-      <c r="F94" s="225"/>
-      <c r="G94" s="225"/>
+      <c r="A94" s="224" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="225"/>
+      <c r="C94" s="226"/>
+      <c r="D94" s="226"/>
+      <c r="E94" s="227"/>
+      <c r="F94" s="227"/>
+      <c r="G94" s="227"/>
       <c r="H94" s="139"/>
       <c r="I94" s="140"/>
       <c r="J94" s="140"/>
@@ -11741,19 +11927,19 @@
     </row>
     <row r="95" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A95" s="115" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B95" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="99" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D95" s="122" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E95" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F95" s="119"/>
       <c r="G95" s="88"/>
@@ -11779,19 +11965,19 @@
     </row>
     <row r="96" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A96" s="108" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B96" s="118" t="s">
         <v>18</v>
       </c>
       <c r="C96" s="99" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D96" s="122" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E96" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F96" s="119"/>
       <c r="G96" s="88"/>
@@ -11816,15 +12002,15 @@
       <c r="Z96" s="17"/>
     </row>
     <row r="97" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="213" t="s">
-        <v>150</v>
-      </c>
-      <c r="B97" s="214"/>
-      <c r="C97" s="214"/>
-      <c r="D97" s="214"/>
-      <c r="E97" s="214"/>
-      <c r="F97" s="214"/>
-      <c r="G97" s="214"/>
+      <c r="A97" s="215" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="216"/>
+      <c r="C97" s="216"/>
+      <c r="D97" s="216"/>
+      <c r="E97" s="216"/>
+      <c r="F97" s="216"/>
+      <c r="G97" s="216"/>
       <c r="H97" s="139"/>
       <c r="I97" s="140"/>
       <c r="J97" s="140"/>
@@ -11847,19 +12033,19 @@
     </row>
     <row r="98" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="108" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B98" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="102" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D98" s="102" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E98" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F98" s="119"/>
       <c r="G98" s="88"/>
@@ -11884,15 +12070,15 @@
       <c r="Z98" s="17"/>
     </row>
     <row r="99" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A99" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="215"/>
-      <c r="C99" s="215"/>
-      <c r="D99" s="215"/>
-      <c r="E99" s="214"/>
-      <c r="F99" s="214"/>
-      <c r="G99" s="214"/>
+      <c r="A99" s="215" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="217"/>
+      <c r="C99" s="217"/>
+      <c r="D99" s="217"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="216"/>
+      <c r="G99" s="216"/>
       <c r="H99" s="139"/>
       <c r="I99" s="140"/>
       <c r="J99" s="140"/>
@@ -11915,19 +12101,19 @@
     </row>
     <row r="100" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A100" s="115" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B100" s="121" t="s">
         <v>18</v>
       </c>
       <c r="C100" s="99" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D100" s="99" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E100" s="129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F100" s="119"/>
       <c r="G100" s="88"/>
@@ -11953,16 +12139,16 @@
     </row>
     <row r="101" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A101" s="115" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B101" s="121" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C101" s="99" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D101" s="99" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E101" s="127"/>
       <c r="F101" s="119"/>
@@ -11989,19 +12175,19 @@
     </row>
     <row r="102" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="115" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B102" s="121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C102" s="99" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D102" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E102" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F102" s="119"/>
       <c r="G102" s="88"/>
@@ -12026,15 +12212,15 @@
       <c r="Z102" s="17"/>
     </row>
     <row r="103" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="226" t="s">
-        <v>157</v>
-      </c>
-      <c r="B103" s="221"/>
-      <c r="C103" s="221"/>
-      <c r="D103" s="221"/>
-      <c r="E103" s="215"/>
-      <c r="F103" s="215"/>
-      <c r="G103" s="215"/>
+      <c r="A103" s="228" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="223"/>
+      <c r="C103" s="223"/>
+      <c r="D103" s="223"/>
+      <c r="E103" s="217"/>
+      <c r="F103" s="217"/>
+      <c r="G103" s="217"/>
       <c r="H103" s="139"/>
       <c r="I103" s="140"/>
       <c r="J103" s="140"/>
@@ -12057,20 +12243,20 @@
     </row>
     <row r="104" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A104" s="115" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B104" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="99" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D104" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E104" s="127"/>
       <c r="F104" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G104" s="88"/>
       <c r="H104" s="67"/>
@@ -12095,20 +12281,20 @@
     </row>
     <row r="105" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A105" s="115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B105" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="99" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D105" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E105" s="127"/>
       <c r="F105" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G105" s="88"/>
       <c r="H105" s="80"/>
@@ -12133,20 +12319,20 @@
     </row>
     <row r="106" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="115" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B106" s="121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C106" s="99" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D106" s="99" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E106" s="127"/>
       <c r="F106" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G106" s="88"/>
       <c r="H106" s="80"/>
@@ -12171,20 +12357,20 @@
     </row>
     <row r="107" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="99" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B107" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="103" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D107" s="89" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E107" s="130"/>
       <c r="F107" s="161" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G107" s="162"/>
       <c r="H107" s="67"/>
@@ -12208,15 +12394,15 @@
       <c r="Z107" s="17"/>
     </row>
     <row r="108" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A108" s="213" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" s="215"/>
-      <c r="C108" s="221"/>
-      <c r="D108" s="221"/>
-      <c r="E108" s="214"/>
-      <c r="F108" s="214"/>
-      <c r="G108" s="214"/>
+      <c r="A108" s="215" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="217"/>
+      <c r="C108" s="223"/>
+      <c r="D108" s="223"/>
+      <c r="E108" s="216"/>
+      <c r="F108" s="216"/>
+      <c r="G108" s="216"/>
       <c r="H108" s="139"/>
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
@@ -12239,20 +12425,20 @@
     </row>
     <row r="109" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A109" s="131" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B109" s="132" t="s">
         <v>18</v>
       </c>
       <c r="C109" s="104" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D109" s="104" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E109" s="127"/>
       <c r="F109" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G109" s="88"/>
       <c r="H109" s="78"/>
@@ -12277,19 +12463,19 @@
     </row>
     <row r="110" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="133" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B110" s="132" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C110" s="104" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D110" s="104" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E110" s="127" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F110" s="119"/>
       <c r="G110" s="88"/>
@@ -12315,18 +12501,18 @@
     </row>
     <row r="111" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="133" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B111" s="132"/>
       <c r="C111" s="104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D111" s="104" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E111" s="127"/>
       <c r="F111" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G111" s="88"/>
       <c r="H111" s="78"/>
@@ -12351,20 +12537,20 @@
     </row>
     <row r="112" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="133" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B112" s="132" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="104" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D112" s="104" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E112" s="127"/>
       <c r="F112" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G112" s="88"/>
       <c r="H112" s="78"/>
@@ -12388,15 +12574,15 @@
       <c r="Z112" s="17"/>
     </row>
     <row r="113" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A113" s="213" t="s">
-        <v>168</v>
-      </c>
-      <c r="B113" s="215"/>
-      <c r="C113" s="221"/>
-      <c r="D113" s="221"/>
-      <c r="E113" s="214"/>
-      <c r="F113" s="214"/>
-      <c r="G113" s="214"/>
+      <c r="A113" s="215" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" s="217"/>
+      <c r="C113" s="223"/>
+      <c r="D113" s="223"/>
+      <c r="E113" s="216"/>
+      <c r="F113" s="216"/>
+      <c r="G113" s="216"/>
       <c r="H113" s="139"/>
       <c r="I113" s="140"/>
       <c r="J113" s="140"/>
@@ -12419,20 +12605,20 @@
     </row>
     <row r="114" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A114" s="131" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B114" s="132" t="s">
         <v>18</v>
       </c>
       <c r="C114" s="104" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D114" s="104" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E114" s="127"/>
       <c r="F114" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G114" s="88"/>
       <c r="H114" s="78"/>
@@ -12457,20 +12643,20 @@
     </row>
     <row r="115" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A115" s="131" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B115" s="134" t="s">
         <v>18</v>
       </c>
       <c r="C115" s="104" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D115" s="104" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E115" s="127"/>
       <c r="F115" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G115" s="88"/>
       <c r="H115" s="80"/>
@@ -12495,20 +12681,20 @@
     </row>
     <row r="116" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A116" s="135" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B116" s="132" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C116" s="104" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D116" s="104" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E116" s="136"/>
       <c r="F116" s="137" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G116" s="138"/>
       <c r="H116" s="80"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D83FD-B810-448C-8226-1CF1BF480DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC07A60-0CF2-4FDA-99E9-18FEC0497E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="478">
   <si>
     <t>TR.A.1</t>
   </si>
@@ -3932,9 +3932,6 @@
     <t>https://openwrt.org/docs/guide-user/firewall/fw3_network</t>
   </si>
   <si>
-    <t>OpenWrt uses an open source component called firewall3 (fw3). Fw3 is a netfilter/iptable rule builder application. These rulles are then passed to the firewall in the linux kernel (iptables / netfilter). All firewall componentes are completely open source. https://openwrt.org/docs/guide-user/firewall/overview https://netfilter.org/projects/iptables/index.html</t>
-  </si>
-  <si>
     <t>https://openwrt.org/docs/techref/odhcpd</t>
   </si>
   <si>
@@ -4086,6 +4083,17 @@
   </si>
   <si>
     <t>no such attacks are known / ssh audit results are available in the results folder</t>
+  </si>
+  <si>
+    <t>Metadata embedded into firmware package file</t>
+  </si>
+  <si>
+    <t>SHA256 / MD5 hashes [not checked, just displayed for the user to check]</t>
+  </si>
+  <si>
+    <t>OpenWrt uses an open source component called firewall3 (fw3). Fw3 is a netfilter/iptable rule builder application. All firewall componentes are completely open source. https://openwrt.org/docs/guide-user/firewall/overview https://netfilter.org/projects/iptables/index.html
+- iptables - 1.8.3-1: https://ipset.netfilter.org/iptables.man.html
+- firewall - 2019-11-22-8174814a-2</t>
   </si>
 </sst>
 </file>
@@ -5483,30 +5491,169 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5515,97 +5662,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5615,18 +5715,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5637,86 +5725,6 @@
     <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6007,8 +6015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:D194"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6021,19 +6029,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="175" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
@@ -6043,10 +6051,10 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="230"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -6061,42 +6069,42 @@
       <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="195" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="236" t="s">
+      <c r="B8" s="195" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="234"/>
+      <c r="C8" s="204"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="195" t="s">
         <v>391</v>
       </c>
-      <c r="C9" s="234"/>
+      <c r="C9" s="204"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="237" t="s">
+      <c r="B10" s="205" t="s">
         <v>402</v>
       </c>
-      <c r="C10" s="235"/>
+      <c r="C10" s="206"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -6105,86 +6113,86 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="198"/>
+      <c r="B14" s="203"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
       <c r="A15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="164" t="s">
-        <v>438</v>
-      </c>
-      <c r="B16" s="210" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" s="211"/>
-      <c r="D16" s="212"/>
+        <v>437</v>
+      </c>
+      <c r="B16" s="186" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="187"/>
+      <c r="D16" s="188"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="165" t="s">
-        <v>439</v>
-      </c>
-      <c r="B17" s="238" t="s">
-        <v>443</v>
-      </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="229"/>
-      <c r="G17" s="229"/>
-      <c r="H17" s="229"/>
+        <v>438</v>
+      </c>
+      <c r="B17" s="207" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="165" t="s">
-        <v>439</v>
-      </c>
-      <c r="B18" s="238" t="s">
-        <v>444</v>
-      </c>
-      <c r="C18" s="229"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="229"/>
-      <c r="G18" s="229"/>
-      <c r="H18" s="229"/>
+        <v>438</v>
+      </c>
+      <c r="B18" s="207" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="208"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="B19" s="189" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="190"/>
+      <c r="D19" s="191"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A20" s="171" t="s">
         <v>440</v>
       </c>
-      <c r="B19" s="199" t="s">
+      <c r="B20" s="192" t="s">
         <v>445</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A20" s="239" t="s">
-        <v>441</v>
-      </c>
-      <c r="B20" s="240" t="s">
+      <c r="C20" s="193"/>
+      <c r="D20" s="194"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="172" t="s">
         <v>446</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="242"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A21" s="243" t="s">
-        <v>447</v>
-      </c>
-      <c r="B21" s="244"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="246"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6" t="s">
@@ -6192,70 +6200,70 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" customHeight="1" thickBot="1">
-      <c r="A25" s="202" t="s">
+      <c r="A25" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="203"/>
+      <c r="B25" s="178"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="207" t="s">
+      <c r="B26" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="208"/>
-      <c r="D26" s="209"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="185"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="186" t="s">
         <v>398</v>
       </c>
-      <c r="C27" s="211"/>
-      <c r="D27" s="212"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="188"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B28" s="199" t="s">
+      <c r="B28" s="189" t="s">
         <v>399</v>
       </c>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="191"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B29" s="199" t="s">
+      <c r="B29" s="189" t="s">
         <v>397</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="191"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B30" s="199" t="s">
+      <c r="B30" s="189" t="s">
         <v>401</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="D30" s="201"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="199" t="s">
+      <c r="B31" s="189" t="s">
         <v>400</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="D31" s="201"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="191"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="163"/>
@@ -6267,13 +6275,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A34" s="193" t="s">
+      <c r="A34" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
@@ -6304,7 +6312,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>24</v>
@@ -6321,7 +6329,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>24</v>
@@ -6338,7 +6346,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>24</v>
@@ -6355,7 +6363,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>24</v>
@@ -6372,7 +6380,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>24</v>
@@ -6389,7 +6397,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>24</v>
@@ -6403,13 +6411,13 @@
         <v>22</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1">
@@ -6420,13 +6428,13 @@
         <v>404</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
@@ -6437,13 +6445,13 @@
         <v>405</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
@@ -6454,13 +6462,13 @@
         <v>22</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1">
@@ -6471,13 +6479,13 @@
         <v>404</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1">
@@ -6488,13 +6496,13 @@
         <v>405</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
@@ -6504,14 +6512,14 @@
       <c r="B50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="247" t="s">
+      <c r="C50" s="173" t="s">
+        <v>452</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E50" s="173" t="s">
         <v>453</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E50" s="247" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
@@ -6521,14 +6529,14 @@
       <c r="B51" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C51" s="247" t="s">
+      <c r="C51" s="173" t="s">
+        <v>452</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E51" s="173" t="s">
         <v>453</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E51" s="247" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1">
@@ -6538,14 +6546,14 @@
       <c r="B52" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C52" s="247" t="s">
+      <c r="C52" s="173" t="s">
+        <v>452</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E52" s="173" t="s">
         <v>453</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E52" s="247" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
@@ -6555,14 +6563,14 @@
       <c r="B53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="247" t="s">
+      <c r="C53" s="173" t="s">
+        <v>452</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E53" s="173" t="s">
         <v>453</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E53" s="247" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
@@ -6572,14 +6580,14 @@
       <c r="B54" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C54" s="247" t="s">
+      <c r="C54" s="173" t="s">
+        <v>452</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E54" s="173" t="s">
         <v>453</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E54" s="247" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1">
@@ -6589,24 +6597,24 @@
       <c r="B55" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C55" s="247" t="s">
+      <c r="C55" s="173" t="s">
+        <v>452</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E55" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E55" s="247" t="s">
-        <v>454</v>
-      </c>
     </row>
     <row r="58" spans="1:5" ht="57" customHeight="1">
-      <c r="A58" s="193" t="s">
+      <c r="A58" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="193"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="193"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="179"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
     <row r="60" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
@@ -6719,13 +6727,13 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A69" s="193" t="s">
+      <c r="A69" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="193"/>
-      <c r="C69" s="193"/>
-      <c r="D69" s="193"/>
-      <c r="E69" s="193"/>
+      <c r="B69" s="179"/>
+      <c r="C69" s="179"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="179"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="10"/>
@@ -6735,7 +6743,7 @@
         <v>26</v>
       </c>
       <c r="B71" s="167" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C71" t="s">
         <v>406</v>
@@ -6748,12 +6756,12 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="36" customHeight="1">
-      <c r="A74" s="193" t="s">
+      <c r="A74" s="179" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="193"/>
-      <c r="C74" s="193"/>
-      <c r="D74" s="193"/>
+      <c r="B74" s="179"/>
+      <c r="C74" s="179"/>
+      <c r="D74" s="179"/>
       <c r="E74" s="8"/>
     </row>
     <row r="76" spans="1:5">
@@ -6761,16 +6769,16 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="193" t="s">
+      <c r="A79" s="179" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="193"/>
-      <c r="C79" s="193"/>
-      <c r="D79" s="193"/>
+      <c r="B79" s="179"/>
+      <c r="C79" s="179"/>
+      <c r="D79" s="179"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="81" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
@@ -6789,7 +6797,7 @@
         <v>180</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>181</v>
@@ -6800,7 +6808,7 @@
         <v>407</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>9</v>
@@ -6851,13 +6859,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A90" s="194" t="s">
+      <c r="A90" s="197" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="194"/>
-      <c r="C90" s="190"/>
-      <c r="D90" s="190"/>
-      <c r="E90" s="190"/>
+      <c r="B90" s="197"/>
+      <c r="C90" s="198"/>
+      <c r="D90" s="198"/>
+      <c r="E90" s="198"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="92" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
@@ -6882,10 +6890,10 @@
         <v>413</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D93" s="35" t="s">
         <v>458</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="45.75" thickBot="1">
@@ -6893,13 +6901,13 @@
         <v>22</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D94" s="35" t="s">
         <v>460</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1">
@@ -6959,17 +6967,17 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="195" t="s">
+      <c r="A101" s="199" t="s">
         <v>188</v>
       </c>
-      <c r="B101" s="195"/>
+      <c r="B101" s="199"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6978,12 +6986,12 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A107" s="189" t="s">
+      <c r="A107" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="B107" s="190"/>
-      <c r="C107" s="190"/>
-      <c r="D107" s="190"/>
+      <c r="B107" s="198"/>
+      <c r="C107" s="198"/>
+      <c r="D107" s="198"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1">
       <c r="A108" t="s">
@@ -7099,12 +7107,12 @@
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A119" s="183" t="s">
+      <c r="A119" s="213" t="s">
         <v>195</v>
       </c>
-      <c r="B119" s="183"/>
-      <c r="C119" s="184"/>
-      <c r="D119" s="184"/>
+      <c r="B119" s="213"/>
+      <c r="C119" s="214"/>
+      <c r="D119" s="214"/>
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1">
       <c r="A120" s="25" t="s">
@@ -7165,9 +7173,9 @@
       <c r="D126" s="55"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="191"/>
-      <c r="B127" s="191"/>
-      <c r="C127" s="192"/>
+      <c r="A127" s="216"/>
+      <c r="B127" s="216"/>
+      <c r="C127" s="217"/>
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4">
@@ -7185,12 +7193,12 @@
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A130" s="182" t="s">
+      <c r="A130" s="212" t="s">
         <v>411</v>
       </c>
-      <c r="B130" s="182"/>
-      <c r="C130" s="176"/>
-      <c r="D130" s="176"/>
+      <c r="B130" s="212"/>
+      <c r="C130" s="175"/>
+      <c r="D130" s="175"/>
     </row>
     <row r="131" spans="1:4" ht="29.25" thickBot="1">
       <c r="A131" s="25" t="s">
@@ -7375,12 +7383,12 @@
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A147" s="182" t="s">
+      <c r="A147" s="212" t="s">
         <v>202</v>
       </c>
-      <c r="B147" s="182"/>
-      <c r="C147" s="176"/>
-      <c r="D147" s="176"/>
+      <c r="B147" s="212"/>
+      <c r="C147" s="175"/>
+      <c r="D147" s="175"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1">
       <c r="A148" s="25" t="s">
@@ -7398,11 +7406,11 @@
       <c r="A149" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B149" s="248" t="s">
-        <v>464</v>
+      <c r="B149" s="174" t="s">
+        <v>463</v>
       </c>
       <c r="C149" s="54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D149" s="2"/>
     </row>
@@ -7411,10 +7419,10 @@
         <v>412</v>
       </c>
       <c r="B150" s="53" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C150" s="54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -7429,10 +7437,10 @@
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="169" t="s">
+      <c r="A152" s="219" t="s">
         <v>253</v>
       </c>
-      <c r="B152" s="169"/>
+      <c r="B152" s="219"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
@@ -7443,12 +7451,12 @@
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A154" s="182" t="s">
+      <c r="A154" s="212" t="s">
         <v>252</v>
       </c>
-      <c r="B154" s="182"/>
-      <c r="C154" s="176"/>
-      <c r="D154" s="176"/>
+      <c r="B154" s="212"/>
+      <c r="C154" s="175"/>
+      <c r="D154" s="175"/>
     </row>
     <row r="155" spans="1:4" ht="15.75" thickBot="1">
       <c r="A155" s="25" t="s">
@@ -7462,10 +7470,10 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1">
       <c r="A156" s="54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B156" s="55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -7495,12 +7503,12 @@
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A161" s="183" t="s">
+      <c r="A161" s="213" t="s">
         <v>206</v>
       </c>
-      <c r="B161" s="183"/>
-      <c r="C161" s="184"/>
-      <c r="D161" s="184"/>
+      <c r="B161" s="213"/>
+      <c r="C161" s="214"/>
+      <c r="D161" s="214"/>
     </row>
     <row r="162" spans="1:4" ht="29.25" thickBot="1">
       <c r="A162" s="25" t="s">
@@ -7571,10 +7579,10 @@
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4" ht="39" customHeight="1" thickBot="1">
-      <c r="A169" s="170" t="s">
+      <c r="A169" s="218" t="s">
         <v>254</v>
       </c>
-      <c r="B169" s="170"/>
+      <c r="B169" s="218"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
@@ -7590,7 +7598,7 @@
     </row>
     <row r="171" spans="1:4" ht="30.75" thickBot="1">
       <c r="A171" s="53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B171" s="55" t="s">
         <v>255</v>
@@ -7600,10 +7608,10 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1">
       <c r="A172" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="B172" s="55" t="s">
         <v>468</v>
-      </c>
-      <c r="B172" s="55" t="s">
-        <v>469</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -7619,10 +7627,10 @@
       <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="169" t="s">
+      <c r="A174" s="219" t="s">
         <v>210</v>
       </c>
-      <c r="B174" s="169"/>
+      <c r="B174" s="219"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
@@ -7633,22 +7641,22 @@
       <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A176" s="174" t="s">
+      <c r="A176" s="220" t="s">
         <v>211</v>
       </c>
-      <c r="B176" s="174"/>
-      <c r="C176" s="176"/>
-      <c r="D176" s="176"/>
+      <c r="B176" s="220"/>
+      <c r="C176" s="175"/>
+      <c r="D176" s="175"/>
     </row>
     <row r="177" spans="1:7" ht="24" customHeight="1" thickBot="1">
       <c r="A177" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="B177" s="186" t="s">
+      <c r="B177" s="222" t="s">
         <v>414</v>
       </c>
-      <c r="C177" s="187"/>
-      <c r="D177" s="188"/>
+      <c r="C177" s="223"/>
+      <c r="D177" s="224"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2"/>
@@ -7657,12 +7665,12 @@
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A179" s="185" t="s">
+      <c r="A179" s="221" t="s">
         <v>213</v>
       </c>
-      <c r="B179" s="185"/>
-      <c r="C179" s="176"/>
-      <c r="D179" s="176"/>
+      <c r="B179" s="221"/>
+      <c r="C179" s="175"/>
+      <c r="D179" s="175"/>
     </row>
     <row r="180" spans="1:7" ht="15.75" thickBot="1">
       <c r="A180" s="2"/>
@@ -7683,25 +7691,25 @@
     </row>
     <row r="182" spans="1:7" ht="60.75" thickBot="1">
       <c r="A182" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="B182" s="167" t="s">
+        <v>471</v>
+      </c>
+      <c r="C182" s="53" t="s">
         <v>470</v>
-      </c>
-      <c r="B182" s="167" t="s">
-        <v>472</v>
-      </c>
-      <c r="C182" s="53" t="s">
-        <v>471</v>
       </c>
       <c r="G182" s="166"/>
     </row>
     <row r="183" spans="1:7" ht="45.75" thickBot="1">
       <c r="A183" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B183" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="B183" s="53" t="s">
+      <c r="C183" s="54" t="s">
         <v>474</v>
-      </c>
-      <c r="C183" s="54" t="s">
-        <v>475</v>
       </c>
       <c r="G183" s="166"/>
     </row>
@@ -7717,20 +7725,20 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="169"/>
-      <c r="B185" s="169"/>
+      <c r="A185" s="219"/>
+      <c r="B185" s="219"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="39"/>
       <c r="B186" s="39"/>
     </row>
     <row r="187" spans="1:7" ht="63" customHeight="1" thickBot="1">
-      <c r="A187" s="183" t="s">
+      <c r="A187" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="B187" s="183"/>
-      <c r="C187" s="184"/>
-      <c r="D187" s="184"/>
+      <c r="B187" s="213"/>
+      <c r="C187" s="214"/>
+      <c r="D187" s="214"/>
     </row>
     <row r="188" spans="1:7" ht="26.25" customHeight="1" thickBot="1">
       <c r="A188" s="25" t="s">
@@ -7771,20 +7779,20 @@
       <c r="D191" s="55"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="181"/>
-      <c r="B192" s="181"/>
+      <c r="A192" s="230"/>
+      <c r="B192" s="230"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="41"/>
       <c r="B193" s="41"/>
     </row>
     <row r="194" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A194" s="182" t="s">
+      <c r="A194" s="212" t="s">
         <v>260</v>
       </c>
-      <c r="B194" s="182"/>
-      <c r="C194" s="176"/>
-      <c r="D194" s="176"/>
+      <c r="B194" s="212"/>
+      <c r="C194" s="175"/>
+      <c r="D194" s="175"/>
       <c r="F194" t="s">
         <v>415</v>
       </c>
@@ -7832,12 +7840,12 @@
       <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A203" s="177" t="s">
+      <c r="A203" s="225" t="s">
         <v>219</v>
       </c>
-      <c r="B203" s="177"/>
-      <c r="C203" s="178"/>
-      <c r="D203" s="178"/>
+      <c r="B203" s="225"/>
+      <c r="C203" s="226"/>
+      <c r="D203" s="226"/>
     </row>
     <row r="204" spans="1:6" ht="15.75" thickBot="1">
       <c r="A204" s="22" t="s">
@@ -7886,8 +7894,8 @@
       <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="169"/>
-      <c r="B209" s="169"/>
+      <c r="A209" s="219"/>
+      <c r="B209" s="219"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
     </row>
@@ -7898,12 +7906,12 @@
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A211" s="172" t="s">
+      <c r="A211" s="227" t="s">
         <v>265</v>
       </c>
-      <c r="B211" s="172"/>
-      <c r="C211" s="173"/>
-      <c r="D211" s="173"/>
+      <c r="B211" s="227"/>
+      <c r="C211" s="176"/>
+      <c r="D211" s="176"/>
       <c r="F211" t="s">
         <v>419</v>
       </c>
@@ -7926,11 +7934,15 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A214" s="53"/>
+      <c r="A214" s="53" t="s">
+        <v>475</v>
+      </c>
       <c r="B214" s="55"/>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A215" s="53"/>
+    <row r="215" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A215" s="53" t="s">
+        <v>476</v>
+      </c>
       <c r="B215" s="55"/>
     </row>
     <row r="216" spans="1:6" ht="15.75" thickBot="1">
@@ -7942,19 +7954,19 @@
       <c r="B217" s="55"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="169"/>
-      <c r="B218" s="169"/>
+      <c r="A218" s="219"/>
+      <c r="B218" s="219"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="43"/>
     </row>
     <row r="220" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A220" s="179" t="s">
+      <c r="A220" s="228" t="s">
         <v>266</v>
       </c>
-      <c r="B220" s="179"/>
-      <c r="C220" s="180"/>
-      <c r="D220" s="180"/>
+      <c r="B220" s="228"/>
+      <c r="C220" s="229"/>
+      <c r="D220" s="229"/>
     </row>
     <row r="221" spans="1:6" ht="15.75" thickBot="1">
       <c r="A221" s="25" t="s">
@@ -8003,12 +8015,12 @@
       <c r="B226" s="39"/>
     </row>
     <row r="227" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A227" s="174" t="s">
+      <c r="A227" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="B227" s="174"/>
-      <c r="C227" s="176"/>
-      <c r="D227" s="176"/>
+      <c r="B227" s="220"/>
+      <c r="C227" s="175"/>
+      <c r="D227" s="175"/>
     </row>
     <row r="228" spans="1:6" ht="45">
       <c r="A228" s="44" t="s">
@@ -8019,12 +8031,12 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="36" customHeight="1">
-      <c r="A230" s="172" t="s">
+      <c r="A230" s="227" t="s">
         <v>224</v>
       </c>
-      <c r="B230" s="172"/>
-      <c r="C230" s="173"/>
-      <c r="D230" s="173"/>
+      <c r="B230" s="227"/>
+      <c r="C230" s="176"/>
+      <c r="D230" s="176"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="44" t="s">
@@ -8046,19 +8058,19 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A234" s="172" t="s">
+      <c r="A234" s="227" t="s">
         <v>225</v>
       </c>
-      <c r="B234" s="172"/>
-      <c r="C234" s="173"/>
-      <c r="D234" s="173"/>
-    </row>
-    <row r="235" spans="1:6" ht="90">
+      <c r="B234" s="227"/>
+      <c r="C234" s="176"/>
+      <c r="D234" s="176"/>
+    </row>
+    <row r="235" spans="1:6" ht="105">
       <c r="A235" s="44" t="s">
         <v>223</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="20.25">
@@ -8067,12 +8079,12 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A238" s="172" t="s">
+      <c r="A238" s="227" t="s">
         <v>226</v>
       </c>
-      <c r="B238" s="172"/>
-      <c r="C238" s="173"/>
-      <c r="D238" s="173"/>
+      <c r="B238" s="227"/>
+      <c r="C238" s="176"/>
+      <c r="D238" s="176"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="44" t="s">
@@ -8082,21 +8094,21 @@
         <v>9</v>
       </c>
       <c r="F239" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="F240" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="33" customHeight="1">
-      <c r="A241" s="172" t="s">
+      <c r="A241" s="227" t="s">
         <v>227</v>
       </c>
-      <c r="B241" s="172"/>
-      <c r="C241" s="173"/>
-      <c r="D241" s="173"/>
+      <c r="B241" s="227"/>
+      <c r="C241" s="176"/>
+      <c r="D241" s="176"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="44" t="s">
@@ -8107,12 +8119,12 @@
       </c>
     </row>
     <row r="244" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A244" s="172" t="s">
+      <c r="A244" s="227" t="s">
         <v>228</v>
       </c>
-      <c r="B244" s="172"/>
-      <c r="C244" s="173"/>
-      <c r="D244" s="173"/>
+      <c r="B244" s="227"/>
+      <c r="C244" s="176"/>
+      <c r="D244" s="176"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="44" t="s">
@@ -8123,12 +8135,12 @@
       </c>
     </row>
     <row r="247" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A247" s="174" t="s">
+      <c r="A247" s="220" t="s">
         <v>229</v>
       </c>
-      <c r="B247" s="174"/>
-      <c r="C247" s="173"/>
-      <c r="D247" s="173"/>
+      <c r="B247" s="220"/>
+      <c r="C247" s="176"/>
+      <c r="D247" s="176"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="44" t="s">
@@ -8144,12 +8156,12 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="45" customHeight="1">
-      <c r="A251" s="172" t="s">
+      <c r="A251" s="227" t="s">
         <v>230</v>
       </c>
-      <c r="B251" s="172"/>
-      <c r="C251" s="173"/>
-      <c r="D251" s="173"/>
+      <c r="B251" s="227"/>
+      <c r="C251" s="176"/>
+      <c r="D251" s="176"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="44" t="s">
@@ -8165,12 +8177,12 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="42" customHeight="1">
-      <c r="A255" s="175" t="s">
+      <c r="A255" s="231" t="s">
         <v>231</v>
       </c>
-      <c r="B255" s="175"/>
-      <c r="C255" s="173"/>
-      <c r="D255" s="173"/>
+      <c r="B255" s="231"/>
+      <c r="C255" s="176"/>
+      <c r="D255" s="176"/>
     </row>
     <row r="256" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="257" spans="1:4" ht="15.75" thickBot="1">
@@ -8223,10 +8235,10 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A264" s="172" t="s">
+      <c r="A264" s="227" t="s">
         <v>234</v>
       </c>
-      <c r="B264" s="173"/>
+      <c r="B264" s="176"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="47"/>
@@ -8237,12 +8249,12 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A267" s="172" t="s">
+      <c r="A267" s="227" t="s">
         <v>235</v>
       </c>
-      <c r="B267" s="172"/>
-      <c r="C267" s="173"/>
-      <c r="D267" s="173"/>
+      <c r="B267" s="227"/>
+      <c r="C267" s="176"/>
+      <c r="D267" s="176"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="44" t="s">
@@ -8250,12 +8262,12 @@
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="172" t="s">
+      <c r="A270" s="227" t="s">
         <v>236</v>
       </c>
-      <c r="B270" s="172"/>
-      <c r="C270" s="173"/>
-      <c r="D270" s="173"/>
+      <c r="B270" s="227"/>
+      <c r="C270" s="176"/>
+      <c r="D270" s="176"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="44" t="s">
@@ -8264,16 +8276,16 @@
     </row>
     <row r="272" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="273" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A273" s="172" t="s">
+      <c r="A273" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="B273" s="172"/>
+      <c r="B273" s="227"/>
     </row>
     <row r="274" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A274" s="172" t="s">
+      <c r="A274" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="B274" s="172"/>
+      <c r="B274" s="227"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="44" t="s">
@@ -8281,12 +8293,12 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A277" s="170" t="s">
+      <c r="A277" s="218" t="s">
         <v>239</v>
       </c>
-      <c r="B277" s="170"/>
-      <c r="C277" s="171"/>
-      <c r="D277" s="171"/>
+      <c r="B277" s="218"/>
+      <c r="C277" s="232"/>
+      <c r="D277" s="232"/>
     </row>
     <row r="278" spans="1:4" ht="15.75" thickBot="1">
       <c r="A278" s="25" t="s">
@@ -8319,8 +8331,8 @@
       <c r="D280" s="12"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="169"/>
-      <c r="B281" s="169"/>
+      <c r="A281" s="219"/>
+      <c r="B281" s="219"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="39"/>
@@ -8345,12 +8357,12 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="39" customHeight="1">
-      <c r="A287" s="172" t="s">
+      <c r="A287" s="227" t="s">
         <v>241</v>
       </c>
-      <c r="B287" s="172"/>
-      <c r="C287" s="173"/>
-      <c r="D287" s="173"/>
+      <c r="B287" s="227"/>
+      <c r="C287" s="176"/>
+      <c r="D287" s="176"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="44" t="s">
@@ -8359,12 +8371,12 @@
       <c r="B288" s="8"/>
     </row>
     <row r="290" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A290" s="170" t="s">
+      <c r="A290" s="218" t="s">
         <v>242</v>
       </c>
-      <c r="B290" s="170"/>
-      <c r="C290" s="171"/>
-      <c r="D290" s="171"/>
+      <c r="B290" s="218"/>
+      <c r="C290" s="232"/>
+      <c r="D290" s="232"/>
     </row>
     <row r="291" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="292" spans="1:4" ht="15.75" thickBot="1">
@@ -8407,6 +8419,60 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A255:D255"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A34:E34"/>
@@ -8421,60 +8487,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A255:D255"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A274:B274"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8522,11 +8534,11 @@
       <c r="D1" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="213" t="s">
+      <c r="E1" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8608,15 +8620,15 @@
       <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="245" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
+      <c r="B4" s="245"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="150"/>
       <c r="I4" s="151"/>
       <c r="J4" s="151"/>
@@ -8685,12 +8697,12 @@
       <c r="N6" s="95"/>
       <c r="O6" s="95"/>
       <c r="P6" s="95"/>
-      <c r="R6" s="221" t="s">
+      <c r="R6" s="233" t="s">
         <v>278</v>
       </c>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
+      <c r="S6" s="234"/>
+      <c r="T6" s="234"/>
+      <c r="U6" s="234"/>
     </row>
     <row r="7" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="108" t="s">
@@ -8719,10 +8731,10 @@
       <c r="N7" s="63"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
-      <c r="R7" s="222"/>
-      <c r="S7" s="222"/>
-      <c r="T7" s="222"/>
-      <c r="U7" s="222"/>
+      <c r="R7" s="234"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="234"/>
+      <c r="U7" s="234"/>
     </row>
     <row r="8" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="108" t="s">
@@ -8751,10 +8763,10 @@
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
-      <c r="R8" s="222"/>
-      <c r="S8" s="222"/>
-      <c r="T8" s="222"/>
-      <c r="U8" s="222"/>
+      <c r="R8" s="234"/>
+      <c r="S8" s="234"/>
+      <c r="T8" s="234"/>
+      <c r="U8" s="234"/>
     </row>
     <row r="9" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="108" t="s">
@@ -8783,10 +8795,10 @@
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="222"/>
+      <c r="R9" s="234"/>
+      <c r="S9" s="234"/>
+      <c r="T9" s="234"/>
+      <c r="U9" s="234"/>
     </row>
     <row r="10" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="108" t="s">
@@ -8815,10 +8827,10 @@
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
-      <c r="R10" s="222"/>
-      <c r="S10" s="222"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="222"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="234"/>
+      <c r="U10" s="234"/>
       <c r="XFD10" s="73"/>
     </row>
     <row r="11" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
@@ -8848,10 +8860,10 @@
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
-      <c r="R11" s="222"/>
-      <c r="S11" s="222"/>
-      <c r="T11" s="222"/>
-      <c r="U11" s="222"/>
+      <c r="R11" s="234"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="234"/>
+      <c r="U11" s="234"/>
     </row>
     <row r="12" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="108" t="s">
@@ -8880,10 +8892,10 @@
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="222"/>
+      <c r="R12" s="234"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="234"/>
+      <c r="U12" s="234"/>
     </row>
     <row r="13" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A13" s="108" t="s">
@@ -8896,7 +8908,7 @@
         <v>305</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13" s="111" t="s">
         <v>273</v>
@@ -8913,10 +8925,10 @@
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="222"/>
-      <c r="S13" s="222"/>
-      <c r="T13" s="222"/>
-      <c r="U13" s="222"/>
+      <c r="R13" s="234"/>
+      <c r="S13" s="234"/>
+      <c r="T13" s="234"/>
+      <c r="U13" s="234"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -8951,10 +8963,10 @@
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="222"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
-      <c r="U14" s="222"/>
+      <c r="R14" s="234"/>
+      <c r="S14" s="234"/>
+      <c r="T14" s="234"/>
+      <c r="U14" s="234"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -8989,10 +9001,10 @@
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="222"/>
-      <c r="T15" s="222"/>
-      <c r="U15" s="222"/>
+      <c r="R15" s="234"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="234"/>
+      <c r="U15" s="234"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -9025,10 +9037,10 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
+      <c r="R16" s="234"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="234"/>
+      <c r="U16" s="234"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
@@ -9063,10 +9075,10 @@
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="222"/>
-      <c r="U17" s="222"/>
+      <c r="R17" s="234"/>
+      <c r="S17" s="234"/>
+      <c r="T17" s="234"/>
+      <c r="U17" s="234"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
@@ -9092,7 +9104,7 @@
       <c r="F18" s="111"/>
       <c r="G18" s="113"/>
       <c r="H18" s="67" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I18" s="82"/>
       <c r="J18" s="83"/>
@@ -9406,15 +9418,15 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A27" s="215" t="s">
+      <c r="A27" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="216"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
+      <c r="F27" s="236"/>
+      <c r="G27" s="236"/>
       <c r="H27" s="139"/>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
@@ -9740,15 +9752,15 @@
       <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A36" s="215" t="s">
+      <c r="A36" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="216"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="217"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="237"/>
+      <c r="D36" s="236"/>
+      <c r="E36" s="236"/>
+      <c r="F36" s="236"/>
+      <c r="G36" s="237"/>
       <c r="H36" s="139"/>
       <c r="I36" s="140"/>
       <c r="J36" s="140"/>
@@ -9846,11 +9858,11 @@
       <c r="Z38" s="17"/>
     </row>
     <row r="39" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A39" s="218" t="s">
+      <c r="A39" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="219"/>
-      <c r="C39" s="220"/>
+      <c r="B39" s="247"/>
+      <c r="C39" s="248"/>
       <c r="D39" s="124"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
@@ -10679,7 +10691,7 @@
       <c r="K61" s="67"/>
       <c r="L61" s="67"/>
       <c r="M61" s="128" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N61" s="69"/>
       <c r="O61" s="69"/>
@@ -10755,7 +10767,7 @@
       <c r="K63" s="80"/>
       <c r="L63" s="80"/>
       <c r="M63" s="128" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N63" s="70"/>
       <c r="O63" s="70"/>
@@ -10899,7 +10911,7 @@
         <v>288</v>
       </c>
       <c r="E67" s="127" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F67" s="119"/>
       <c r="G67" s="88"/>
@@ -10937,7 +10949,7 @@
         <v>288</v>
       </c>
       <c r="E68" s="127" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F68" s="119"/>
       <c r="G68" s="88"/>
@@ -10947,7 +10959,7 @@
       <c r="K68" s="67"/>
       <c r="L68" s="67"/>
       <c r="M68" s="128" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N68" s="69"/>
       <c r="O68" s="69"/>
@@ -10977,7 +10989,7 @@
         <v>279</v>
       </c>
       <c r="E69" s="127" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="88"/>
@@ -10987,7 +10999,7 @@
       <c r="K69" s="67"/>
       <c r="L69" s="67"/>
       <c r="M69" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N69" s="69"/>
       <c r="O69" s="69"/>
@@ -11004,15 +11016,15 @@
       <c r="Z69" s="17"/>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A70" s="215" t="s">
+      <c r="A70" s="235" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="216"/>
-      <c r="C70" s="216"/>
-      <c r="D70" s="217"/>
-      <c r="E70" s="216"/>
-      <c r="F70" s="216"/>
-      <c r="G70" s="216"/>
+      <c r="B70" s="236"/>
+      <c r="C70" s="236"/>
+      <c r="D70" s="237"/>
+      <c r="E70" s="236"/>
+      <c r="F70" s="236"/>
+      <c r="G70" s="236"/>
       <c r="H70" s="139"/>
       <c r="I70" s="140"/>
       <c r="J70" s="140"/>
@@ -11209,7 +11221,7 @@
       <c r="K75" s="67"/>
       <c r="L75" s="67"/>
       <c r="M75" s="128" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N75" s="69"/>
       <c r="O75" s="69"/>
@@ -11239,7 +11251,7 @@
         <v>279</v>
       </c>
       <c r="E76" s="127" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F76" s="119"/>
       <c r="G76" s="88"/>
@@ -11249,7 +11261,7 @@
       <c r="K76" s="67"/>
       <c r="L76" s="67"/>
       <c r="M76" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N76" s="69"/>
       <c r="O76" s="69"/>
@@ -11456,15 +11468,15 @@
       <c r="Z81" s="17"/>
     </row>
     <row r="82" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A82" s="215" t="s">
+      <c r="A82" s="235" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="217"/>
-      <c r="C82" s="217"/>
-      <c r="D82" s="223"/>
-      <c r="E82" s="216"/>
-      <c r="F82" s="216"/>
-      <c r="G82" s="216"/>
+      <c r="B82" s="237"/>
+      <c r="C82" s="237"/>
+      <c r="D82" s="238"/>
+      <c r="E82" s="236"/>
+      <c r="F82" s="236"/>
+      <c r="G82" s="236"/>
       <c r="H82" s="139"/>
       <c r="I82" s="140"/>
       <c r="J82" s="140"/>
@@ -11676,15 +11688,15 @@
       <c r="Z87" s="17"/>
     </row>
     <row r="88" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A88" s="215" t="s">
+      <c r="A88" s="235" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="217"/>
-      <c r="C88" s="223"/>
-      <c r="D88" s="223"/>
-      <c r="E88" s="216"/>
-      <c r="F88" s="216"/>
-      <c r="G88" s="216"/>
+      <c r="B88" s="237"/>
+      <c r="C88" s="238"/>
+      <c r="D88" s="238"/>
+      <c r="E88" s="236"/>
+      <c r="F88" s="236"/>
+      <c r="G88" s="236"/>
       <c r="H88" s="139"/>
       <c r="I88" s="140"/>
       <c r="J88" s="140"/>
@@ -11841,7 +11853,7 @@
       <c r="K92" s="67"/>
       <c r="L92" s="67"/>
       <c r="M92" s="114" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N92" s="69"/>
       <c r="O92" s="69"/>
@@ -11879,7 +11891,7 @@
       <c r="K93" s="67"/>
       <c r="L93" s="67"/>
       <c r="M93" s="114" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N93" s="69"/>
       <c r="O93" s="69"/>
@@ -11896,15 +11908,15 @@
       <c r="Z93" s="17"/>
     </row>
     <row r="94" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A94" s="224" t="s">
+      <c r="A94" s="239" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="225"/>
-      <c r="C94" s="226"/>
-      <c r="D94" s="226"/>
-      <c r="E94" s="227"/>
-      <c r="F94" s="227"/>
-      <c r="G94" s="227"/>
+      <c r="B94" s="240"/>
+      <c r="C94" s="241"/>
+      <c r="D94" s="241"/>
+      <c r="E94" s="242"/>
+      <c r="F94" s="242"/>
+      <c r="G94" s="242"/>
       <c r="H94" s="139"/>
       <c r="I94" s="140"/>
       <c r="J94" s="140"/>
@@ -12002,15 +12014,15 @@
       <c r="Z96" s="17"/>
     </row>
     <row r="97" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="215" t="s">
+      <c r="A97" s="235" t="s">
         <v>147</v>
       </c>
-      <c r="B97" s="216"/>
-      <c r="C97" s="216"/>
-      <c r="D97" s="216"/>
-      <c r="E97" s="216"/>
-      <c r="F97" s="216"/>
-      <c r="G97" s="216"/>
+      <c r="B97" s="236"/>
+      <c r="C97" s="236"/>
+      <c r="D97" s="236"/>
+      <c r="E97" s="236"/>
+      <c r="F97" s="236"/>
+      <c r="G97" s="236"/>
       <c r="H97" s="139"/>
       <c r="I97" s="140"/>
       <c r="J97" s="140"/>
@@ -12070,15 +12082,15 @@
       <c r="Z98" s="17"/>
     </row>
     <row r="99" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A99" s="215" t="s">
+      <c r="A99" s="235" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="217"/>
-      <c r="C99" s="217"/>
-      <c r="D99" s="217"/>
-      <c r="E99" s="216"/>
-      <c r="F99" s="216"/>
-      <c r="G99" s="216"/>
+      <c r="B99" s="237"/>
+      <c r="C99" s="237"/>
+      <c r="D99" s="237"/>
+      <c r="E99" s="236"/>
+      <c r="F99" s="236"/>
+      <c r="G99" s="236"/>
       <c r="H99" s="139"/>
       <c r="I99" s="140"/>
       <c r="J99" s="140"/>
@@ -12212,15 +12224,15 @@
       <c r="Z102" s="17"/>
     </row>
     <row r="103" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="228" t="s">
+      <c r="A103" s="243" t="s">
         <v>154</v>
       </c>
-      <c r="B103" s="223"/>
-      <c r="C103" s="223"/>
-      <c r="D103" s="223"/>
-      <c r="E103" s="217"/>
-      <c r="F103" s="217"/>
-      <c r="G103" s="217"/>
+      <c r="B103" s="238"/>
+      <c r="C103" s="238"/>
+      <c r="D103" s="238"/>
+      <c r="E103" s="237"/>
+      <c r="F103" s="237"/>
+      <c r="G103" s="237"/>
       <c r="H103" s="139"/>
       <c r="I103" s="140"/>
       <c r="J103" s="140"/>
@@ -12394,15 +12406,15 @@
       <c r="Z107" s="17"/>
     </row>
     <row r="108" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A108" s="215" t="s">
+      <c r="A108" s="235" t="s">
         <v>159</v>
       </c>
-      <c r="B108" s="217"/>
-      <c r="C108" s="223"/>
-      <c r="D108" s="223"/>
-      <c r="E108" s="216"/>
-      <c r="F108" s="216"/>
-      <c r="G108" s="216"/>
+      <c r="B108" s="237"/>
+      <c r="C108" s="238"/>
+      <c r="D108" s="238"/>
+      <c r="E108" s="236"/>
+      <c r="F108" s="236"/>
+      <c r="G108" s="236"/>
       <c r="H108" s="139"/>
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
@@ -12574,15 +12586,15 @@
       <c r="Z112" s="17"/>
     </row>
     <row r="113" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A113" s="215" t="s">
+      <c r="A113" s="235" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="217"/>
-      <c r="C113" s="223"/>
-      <c r="D113" s="223"/>
-      <c r="E113" s="216"/>
-      <c r="F113" s="216"/>
-      <c r="G113" s="216"/>
+      <c r="B113" s="237"/>
+      <c r="C113" s="238"/>
+      <c r="D113" s="238"/>
+      <c r="E113" s="236"/>
+      <c r="F113" s="236"/>
+      <c r="G113" s="236"/>
       <c r="H113" s="139"/>
       <c r="I113" s="140"/>
       <c r="J113" s="140"/>
@@ -16545,6 +16557,11 @@
   </sheetData>
   <autoFilter ref="B1:B473" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="R6:U17"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A108:G108"/>
@@ -16555,11 +16572,6 @@
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="25" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC07A60-0CF2-4FDA-99E9-18FEC0497E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE87171F-A24E-4B12-BBF5-2E0F85C4D971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="504">
   <si>
     <t>TR.A.1</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>….</t>
   </si>
   <si>
     <t>Module B - Public Network</t>
@@ -1229,9 +1226,6 @@
     <t xml:space="preserve"> Module I - Factory Reset</t>
   </si>
   <si>
-    <t>reset function in der Konfiguration per Weboberfläche…</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Module J - Internet Protocol version 6 (IPv6)</t>
   </si>
   <si>
@@ -4011,9 +4005,6 @@
   </si>
   <si>
     <t>Dropbear sshd (protocol 2.0)</t>
-  </si>
-  <si>
-    <t>53/tcp</t>
   </si>
   <si>
     <t>domain name service (DNS)</t>
@@ -4094,6 +4085,110 @@
     <t>OpenWrt uses an open source component called firewall3 (fw3). Fw3 is a netfilter/iptable rule builder application. All firewall componentes are completely open source. https://openwrt.org/docs/guide-user/firewall/overview https://netfilter.org/projects/iptables/index.html
 - iptables - 1.8.3-1: https://ipset.netfilter.org/iptables.man.html
 - firewall - 2019-11-22-8174814a-2</t>
+  </si>
+  <si>
+    <t>53/TCP   53/UDP</t>
+  </si>
+  <si>
+    <t>UDP ?</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/base-system/dhcp</t>
+  </si>
+  <si>
+    <t>https://github.com/openwrt/openwrt/tree/openwrt-19.07/package/network/services/dnsmasq</t>
+  </si>
+  <si>
+    <t>http://www.thekelleys.org.uk/dnsmasq/doc.html</t>
+  </si>
+  <si>
+    <t>dnsmasq - 2.80-16.1, open source GPL-2.0/GPL-3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnsmasq provides an option '–stop-dns-rebind' which is turned on by default. </t>
+  </si>
+  <si>
+    <t>http://www.thekelleys.org.uk/dnsmasq/docs/dnsmasq-man.html</t>
+  </si>
+  <si>
+    <t>From /etc/config/dhcp:</t>
+  </si>
+  <si>
+    <t>option rebind_protection 1  # disable if upstream must serve RFC1918 addresses</t>
+  </si>
+  <si>
+    <t>option rebind_localhost 1  # enable for RBL checking and similar services</t>
+  </si>
+  <si>
+    <t>-stop-dns-rebind: Reject (and log) addresses from upstream nameservers which are in the private ranges. This blocks an attack where a browser behind a firewall is used to probe machines on the local network. For IPv6, the private range covers the IPv4-mapped addresses in private space plus all link-local (LL) and site-local (ULA) addresses.
+--rebind-localhost-ok: Exempt 127.0.0.0/8 and ::1 from rebinding checks. This address range is returned by realtime black hole servers, so blocking it may disable these services.</t>
+  </si>
+  <si>
+    <t>dnsmasq is able to forward DNSSEC Packages</t>
+  </si>
+  <si>
+    <t>n/a (additional software is required: danish https://openwrt.org/packages/pkgdata/danish</t>
+  </si>
+  <si>
+    <t>https://www.middlebox-dane.org)</t>
+  </si>
+  <si>
+    <t>odhcpd-ipv6only 2020-05-03-49e4949c-3 - open source GPL-2.0</t>
+  </si>
+  <si>
+    <t>https://github.com/openwrt/odhcpd</t>
+  </si>
+  <si>
+    <t>reset function over the luci web interface</t>
+  </si>
+  <si>
+    <t>reset via ssh</t>
+  </si>
+  <si>
+    <t>reset via flashing a firmware image</t>
+  </si>
+  <si>
+    <t>1. Power on the device and wait for the status led to stop flashing […] 
+2. Press and hold the reset button for 10 seconds.
+3. Release the reset button.
+https://openwrt.org/docs/guide-user/troubleshooting/failsafe_and_factory_reset#factory_reset</t>
+  </si>
+  <si>
+    <t>1. Log in web interface (typically under: 192.168.1.1)
+2. Goto "System" -&gt; "Backup/Flash Firmware"
+3. Press the "perform reset" button (red)
+4. Confirm pop-up message</t>
+  </si>
+  <si>
+    <t>1. Log in web interface (typically under: 192.168.1.1)
+2. Goto "System" -&gt; "Backup/Flash Firmware"
+3. Press the "flash image" button
+4. Follow the procedure to upload an image file and make sure to uncheck "Keep settings and retain the current configuration"</t>
+  </si>
+  <si>
+    <t>Soft(ish) factory Reset: 
+1. Log into the device via SSH.
+2. Issue the command "firstboot &amp;&amp; reboot now"
+Note: "for most routers, “firstboot” actually just issues a “jffs2reset” command, so there is not much difference compared to the “hard reset” advice below."
+Hard Factory Reset:
+1. Log into the device via SSH
+2. Issue the command "umount /overlay &amp;&amp; jffs2reset &amp;&amp; reboot now"</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/troubleshooting/failsafe_and_factory_reset#factory_reset</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/installation/sysupgrade.cli
+https://openwrt.org/docs/guide-user/installation/generic.sysupgrade</t>
+  </si>
+  <si>
+    <t>no dedicated remote configuration support</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>no dedicated VPN support in factory or initalized state. Additional packages (like OpenVPN) that enable VPN support can be installed but these are all implemented differently so a conclusive answer is not possible</t>
   </si>
 </sst>
 </file>
@@ -4989,7 +5084,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -5499,161 +5594,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5662,14 +5626,146 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -5683,6 +5779,24 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -5707,24 +5821,17 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6013,10 +6120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K296"/>
+  <dimension ref="A2:K302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6029,32 +6136,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="175" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
+      <c r="A2" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
       <c r="A5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A6" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="200" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="201"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -6067,40 +6174,40 @@
     </row>
     <row r="7" spans="1:11" ht="25.5" customHeight="1">
       <c r="A7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="195" t="s">
-        <v>390</v>
-      </c>
-      <c r="C7" s="196"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="209" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="232"/>
       <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="195" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="204"/>
+        <v>34</v>
+      </c>
+      <c r="B8" s="209" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="210"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="195" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" s="204"/>
+        <v>35</v>
+      </c>
+      <c r="B9" s="209" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="210"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="205" t="s">
-        <v>402</v>
-      </c>
-      <c r="C10" s="206"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="211" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="212"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="169"/>
@@ -6108,162 +6215,162 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="202" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="203"/>
+      <c r="B14" s="205"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
       <c r="A15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="180" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
+        <v>19</v>
+      </c>
+      <c r="B15" s="220" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="221"/>
+      <c r="D15" s="222"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="164" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" s="186" t="s">
-        <v>441</v>
-      </c>
-      <c r="C16" s="187"/>
-      <c r="D16" s="188"/>
+        <v>435</v>
+      </c>
+      <c r="B16" s="226" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="227"/>
+      <c r="D16" s="228"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="165" t="s">
-        <v>438</v>
-      </c>
-      <c r="B17" s="207" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
+        <v>436</v>
+      </c>
+      <c r="B17" s="213" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="165" t="s">
-        <v>438</v>
-      </c>
-      <c r="B18" s="207" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
+        <v>436</v>
+      </c>
+      <c r="B18" s="213" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="165" t="s">
-        <v>439</v>
-      </c>
-      <c r="B19" s="189" t="s">
-        <v>444</v>
-      </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="191"/>
+        <v>437</v>
+      </c>
+      <c r="B19" s="206" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="207"/>
+      <c r="D19" s="208"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="171" t="s">
-        <v>440</v>
-      </c>
-      <c r="B20" s="192" t="s">
-        <v>445</v>
-      </c>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
+        <v>438</v>
+      </c>
+      <c r="B20" s="229" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="172" t="s">
-        <v>446</v>
-      </c>
-      <c r="B21" s="209"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+        <v>444</v>
+      </c>
+      <c r="B21" s="215"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" customHeight="1" thickBot="1">
+      <c r="A25" s="218" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" customHeight="1" thickBot="1">
-      <c r="A25" s="177" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="178"/>
+      <c r="B25" s="219"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="183" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="185"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="223" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="224"/>
+      <c r="D26" s="225"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B27" s="186" t="s">
-        <v>398</v>
-      </c>
-      <c r="C27" s="187"/>
-      <c r="D27" s="188"/>
+        <v>392</v>
+      </c>
+      <c r="B27" s="226" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="227"/>
+      <c r="D27" s="228"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B28" s="189" t="s">
-        <v>399</v>
-      </c>
-      <c r="C28" s="190"/>
-      <c r="D28" s="191"/>
+        <v>391</v>
+      </c>
+      <c r="B28" s="206" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="207"/>
+      <c r="D28" s="208"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B29" s="189" t="s">
-        <v>397</v>
-      </c>
-      <c r="C29" s="190"/>
-      <c r="D29" s="191"/>
+        <v>390</v>
+      </c>
+      <c r="B29" s="206" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" s="207"/>
+      <c r="D29" s="208"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B30" s="189" t="s">
-        <v>401</v>
-      </c>
-      <c r="C30" s="190"/>
-      <c r="D30" s="191"/>
+        <v>393</v>
+      </c>
+      <c r="B30" s="206" t="s">
+        <v>399</v>
+      </c>
+      <c r="C30" s="207"/>
+      <c r="D30" s="208"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B31" s="189" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="190"/>
-      <c r="D31" s="191"/>
+        <v>394</v>
+      </c>
+      <c r="B31" s="206" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="207"/>
+      <c r="D31" s="208"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="163"/>
@@ -6271,372 +6378,393 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A34" s="179" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
+      <c r="A34" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
       <c r="A37" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1">
       <c r="A40" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="C40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1">
       <c r="A41" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1">
       <c r="A42" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1">
       <c r="A43" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1">
       <c r="A45" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
       <c r="A46" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="C46" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
       <c r="A47" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D47" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1">
       <c r="A48" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A49" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A50" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="173" t="s">
         <v>449</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D50" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E50" s="173" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="F50" t="s">
+        <v>477</v>
+      </c>
+      <c r="K50" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A51" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="173" t="s">
         <v>449</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D51" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E51" s="173" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A50" s="9" t="s">
+      <c r="F51" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A52" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="173" t="s">
-        <v>452</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E50" s="173" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A51" s="9" t="s">
+      <c r="C52" s="173" t="s">
+        <v>449</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E52" s="173" t="s">
+        <v>450</v>
+      </c>
+      <c r="F52" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="173" t="s">
+        <v>449</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E53" s="173" t="s">
+        <v>450</v>
+      </c>
+      <c r="F53" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A54" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" s="173" t="s">
+        <v>449</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E54" s="173" t="s">
+        <v>450</v>
+      </c>
+      <c r="F54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C51" s="173" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E51" s="173" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A52" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C52" s="173" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E52" s="173" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="173" t="s">
-        <v>452</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E53" s="173" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C54" s="173" t="s">
-        <v>452</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E54" s="173" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A55" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="C55" s="173" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="E55" s="173" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="57" customHeight="1">
-      <c r="A58" s="179" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="179"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
-      <c r="E58" s="179"/>
-    </row>
-    <row r="59" spans="1:5" ht="31.5" customHeight="1" thickBot="1"/>
-    <row r="60" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
+        <v>450</v>
+      </c>
+      <c r="F55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="57" customHeight="1">
+      <c r="A58" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="199"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+    </row>
+    <row r="59" spans="1:11" ht="31.5" customHeight="1" thickBot="1"/>
+    <row r="60" spans="1:11" ht="44.25" customHeight="1" thickBot="1">
       <c r="A60" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="C60" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A61" s="53" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A61" s="53" t="s">
-        <v>170</v>
-      </c>
       <c r="B61" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C61" s="53" t="s">
         <v>9</v>
@@ -6645,7 +6773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1">
       <c r="A62" s="53" t="s">
         <v>9</v>
       </c>
@@ -6659,7 +6787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1">
       <c r="A63" s="11" t="s">
         <v>9</v>
       </c>
@@ -6673,7 +6801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1">
       <c r="A64" s="11" t="s">
         <v>9</v>
       </c>
@@ -6723,92 +6851,92 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A69" s="179" t="s">
-        <v>174</v>
-      </c>
-      <c r="B69" s="179"/>
-      <c r="C69" s="179"/>
-      <c r="D69" s="179"/>
-      <c r="E69" s="179"/>
+      <c r="A69" s="199" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="199"/>
+      <c r="C69" s="199"/>
+      <c r="D69" s="199"/>
+      <c r="E69" s="199"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="10"/>
     </row>
     <row r="71" spans="1:5" ht="30">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="167" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="B72" s="168"/>
       <c r="C72" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="36" customHeight="1">
-      <c r="A74" s="179" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74" s="179"/>
-      <c r="C74" s="179"/>
-      <c r="D74" s="179"/>
+      <c r="A74" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="199"/>
+      <c r="C74" s="199"/>
+      <c r="D74" s="199"/>
       <c r="E74" s="8"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="179" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="179"/>
-      <c r="C79" s="179"/>
-      <c r="D79" s="179"/>
+      <c r="A79" s="199" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="199"/>
+      <c r="C79" s="199"/>
+      <c r="D79" s="199"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="81" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A81" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="C81" s="31" t="s">
         <v>178</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1">
       <c r="A82" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1">
       <c r="A83" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>9</v>
@@ -6819,7 +6947,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>9</v>
@@ -6830,7 +6958,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>9</v>
@@ -6841,7 +6969,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>9</v>
@@ -6852,62 +6980,62 @@
         <v>9</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A90" s="197" t="s">
-        <v>183</v>
-      </c>
-      <c r="B90" s="197"/>
-      <c r="C90" s="198"/>
-      <c r="D90" s="198"/>
-      <c r="E90" s="198"/>
+      <c r="A90" s="200" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="200"/>
+      <c r="C90" s="196"/>
+      <c r="D90" s="196"/>
+      <c r="E90" s="196"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="92" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A92" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="D92" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="38.25" customHeight="1" thickBot="1">
       <c r="A93" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="45.75" thickBot="1">
       <c r="A94" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D94" s="35" t="s">
         <v>457</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1">
@@ -6967,49 +7095,49 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="199" t="s">
-        <v>188</v>
-      </c>
-      <c r="B101" s="199"/>
+      <c r="A101" s="201" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" s="201"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="70.5" customHeight="1">
+      <c r="A107" s="195" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A107" s="215" t="s">
-        <v>191</v>
-      </c>
-      <c r="B107" s="198"/>
-      <c r="C107" s="198"/>
-      <c r="D107" s="198"/>
+      <c r="B107" s="196"/>
+      <c r="C107" s="196"/>
+      <c r="D107" s="196"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" thickBot="1">
       <c r="A109" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B109" s="25" t="s">
+      <c r="D109" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1">
@@ -7029,7 +7157,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1">
@@ -7043,7 +7171,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1">
@@ -7057,7 +7185,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1">
@@ -7071,7 +7199,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1">
@@ -7085,7 +7213,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -7107,39 +7235,39 @@
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A119" s="213" t="s">
-        <v>195</v>
-      </c>
-      <c r="B119" s="213"/>
-      <c r="C119" s="214"/>
-      <c r="D119" s="214"/>
+      <c r="A119" s="189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" s="189"/>
+      <c r="C119" s="190"/>
+      <c r="D119" s="190"/>
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1">
       <c r="A120" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="C120" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="45.75" thickBot="1">
       <c r="A121" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B121" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" s="58" t="s">
         <v>245</v>
-      </c>
-      <c r="C121" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D121" s="58" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" thickBot="1">
@@ -7173,9 +7301,9 @@
       <c r="D126" s="55"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="216"/>
-      <c r="B127" s="216"/>
-      <c r="C127" s="217"/>
+      <c r="A127" s="197"/>
+      <c r="B127" s="197"/>
+      <c r="C127" s="198"/>
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4">
@@ -7186,71 +7314,71 @@
     </row>
     <row r="129" spans="1:4" ht="20.25">
       <c r="A129" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A130" s="212" t="s">
-        <v>411</v>
-      </c>
-      <c r="B130" s="212"/>
-      <c r="C130" s="175"/>
-      <c r="D130" s="175"/>
+      <c r="A130" s="188" t="s">
+        <v>409</v>
+      </c>
+      <c r="B130" s="188"/>
+      <c r="C130" s="182"/>
+      <c r="D130" s="182"/>
     </row>
     <row r="131" spans="1:4" ht="29.25" thickBot="1">
       <c r="A131" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B131" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B131" s="25" t="s">
+      <c r="C131" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" ht="30.75" thickBot="1">
       <c r="A132" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="55" t="s">
         <v>249</v>
-      </c>
-      <c r="C132" s="55" t="s">
-        <v>250</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1">
       <c r="A133" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C133" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1">
       <c r="A134" s="53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B134" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1">
       <c r="A135" s="53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B135" s="53" t="s">
         <v>9</v>
@@ -7376,53 +7504,53 @@
     </row>
     <row r="146" spans="1:4" ht="20.25">
       <c r="A146" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A147" s="212" t="s">
-        <v>202</v>
-      </c>
-      <c r="B147" s="212"/>
-      <c r="C147" s="175"/>
-      <c r="D147" s="175"/>
+      <c r="A147" s="188" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" s="188"/>
+      <c r="C147" s="182"/>
+      <c r="D147" s="182"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1">
       <c r="A148" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="B148" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>204</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" ht="15.75" thickBot="1">
       <c r="A149" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B149" s="174" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C149" s="54" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1">
       <c r="A150" s="53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B150" s="53" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C150" s="54" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -7431,16 +7559,16 @@
         <v>9</v>
       </c>
       <c r="B151" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C151" s="54"/>
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="219" t="s">
-        <v>253</v>
-      </c>
-      <c r="B152" s="219"/>
+      <c r="A152" s="175" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" s="175"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
@@ -7451,29 +7579,29 @@
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A154" s="212" t="s">
-        <v>252</v>
-      </c>
-      <c r="B154" s="212"/>
-      <c r="C154" s="175"/>
-      <c r="D154" s="175"/>
+      <c r="A154" s="188" t="s">
+        <v>251</v>
+      </c>
+      <c r="B154" s="188"/>
+      <c r="C154" s="182"/>
+      <c r="D154" s="182"/>
     </row>
     <row r="155" spans="1:4" ht="15.75" thickBot="1">
       <c r="A155" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1">
       <c r="A156" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" s="55" t="s">
         <v>462</v>
-      </c>
-      <c r="B156" s="55" t="s">
-        <v>465</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -7503,25 +7631,25 @@
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A161" s="213" t="s">
-        <v>206</v>
-      </c>
-      <c r="B161" s="213"/>
-      <c r="C161" s="214"/>
-      <c r="D161" s="214"/>
+      <c r="A161" s="189" t="s">
+        <v>205</v>
+      </c>
+      <c r="B161" s="189"/>
+      <c r="C161" s="190"/>
+      <c r="D161" s="190"/>
     </row>
     <row r="162" spans="1:4" ht="29.25" thickBot="1">
       <c r="A162" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C162" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D162" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.75" thickBot="1">
@@ -7566,7 +7694,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="2"/>
@@ -7579,39 +7707,39 @@
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4" ht="39" customHeight="1" thickBot="1">
-      <c r="A169" s="218" t="s">
-        <v>254</v>
-      </c>
-      <c r="B169" s="218"/>
+      <c r="A169" s="176" t="s">
+        <v>253</v>
+      </c>
+      <c r="B169" s="176"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1">
       <c r="A170" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:4" ht="30.75" thickBot="1">
       <c r="A171" s="53" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B171" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1">
       <c r="A172" s="53" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B172" s="55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -7627,10 +7755,10 @@
       <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="219" t="s">
-        <v>210</v>
-      </c>
-      <c r="B174" s="219"/>
+      <c r="A174" s="175" t="s">
+        <v>209</v>
+      </c>
+      <c r="B174" s="175"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
@@ -7641,22 +7769,22 @@
       <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A176" s="220" t="s">
-        <v>211</v>
-      </c>
-      <c r="B176" s="220"/>
-      <c r="C176" s="175"/>
-      <c r="D176" s="175"/>
+      <c r="A176" s="180" t="s">
+        <v>210</v>
+      </c>
+      <c r="B176" s="180"/>
+      <c r="C176" s="182"/>
+      <c r="D176" s="182"/>
     </row>
     <row r="177" spans="1:7" ht="24" customHeight="1" thickBot="1">
       <c r="A177" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B177" s="222" t="s">
-        <v>414</v>
-      </c>
-      <c r="C177" s="223"/>
-      <c r="D177" s="224"/>
+        <v>211</v>
+      </c>
+      <c r="B177" s="192" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" s="193"/>
+      <c r="D177" s="194"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2"/>
@@ -7665,12 +7793,12 @@
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A179" s="221" t="s">
-        <v>213</v>
-      </c>
-      <c r="B179" s="221"/>
-      <c r="C179" s="175"/>
-      <c r="D179" s="175"/>
+      <c r="A179" s="191" t="s">
+        <v>212</v>
+      </c>
+      <c r="B179" s="191"/>
+      <c r="C179" s="182"/>
+      <c r="D179" s="182"/>
     </row>
     <row r="180" spans="1:7" ht="15.75" thickBot="1">
       <c r="A180" s="2"/>
@@ -7680,36 +7808,36 @@
     </row>
     <row r="181" spans="1:7" ht="36.75" customHeight="1" thickBot="1">
       <c r="A181" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B181" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C181" s="52" t="s">
         <v>214</v>
-      </c>
-      <c r="B181" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="C181" s="52" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="60.75" thickBot="1">
       <c r="A182" s="53" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B182" s="167" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C182" s="53" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G182" s="166"/>
     </row>
     <row r="183" spans="1:7" ht="45.75" thickBot="1">
       <c r="A183" s="53" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B183" s="53" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C183" s="54" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G183" s="166"/>
     </row>
@@ -7725,38 +7853,38 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="219"/>
-      <c r="B185" s="219"/>
+      <c r="A185" s="175"/>
+      <c r="B185" s="175"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="39"/>
       <c r="B186" s="39"/>
     </row>
     <row r="187" spans="1:7" ht="63" customHeight="1" thickBot="1">
-      <c r="A187" s="213" t="s">
-        <v>216</v>
-      </c>
-      <c r="B187" s="213"/>
-      <c r="C187" s="214"/>
-      <c r="D187" s="214"/>
+      <c r="A187" s="189" t="s">
+        <v>215</v>
+      </c>
+      <c r="B187" s="189"/>
+      <c r="C187" s="190"/>
+      <c r="D187" s="190"/>
     </row>
     <row r="188" spans="1:7" ht="26.25" customHeight="1" thickBot="1">
       <c r="A188" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B188" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C188" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="25" t="s">
-        <v>185</v>
-      </c>
       <c r="D188" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15.75" thickBot="1">
       <c r="A189" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B189" s="53"/>
       <c r="C189" s="53"/>
@@ -7764,7 +7892,7 @@
     </row>
     <row r="190" spans="1:7" ht="15.75" thickBot="1">
       <c r="A190" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B190" s="53"/>
       <c r="C190" s="53"/>
@@ -7772,46 +7900,46 @@
     </row>
     <row r="191" spans="1:7" ht="15.75" thickBot="1">
       <c r="A191" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B191" s="53"/>
       <c r="C191" s="53"/>
       <c r="D191" s="55"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="230"/>
-      <c r="B192" s="230"/>
+      <c r="A192" s="187"/>
+      <c r="B192" s="187"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="41"/>
       <c r="B193" s="41"/>
     </row>
     <row r="194" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A194" s="212" t="s">
-        <v>260</v>
-      </c>
-      <c r="B194" s="212"/>
-      <c r="C194" s="175"/>
-      <c r="D194" s="175"/>
+      <c r="A194" s="188" t="s">
+        <v>259</v>
+      </c>
+      <c r="B194" s="188"/>
+      <c r="C194" s="182"/>
+      <c r="D194" s="182"/>
       <c r="F194" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="196" spans="1:6" ht="15.75" thickBot="1">
       <c r="A196" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="30.75" thickBot="1">
       <c r="A197" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B197" s="55" t="s">
         <v>261</v>
-      </c>
-      <c r="B197" s="55" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" thickBot="1">
@@ -7834,35 +7962,35 @@
     </row>
     <row r="202" spans="1:6" ht="20.25">
       <c r="A202" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A203" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="B203" s="225"/>
-      <c r="C203" s="226"/>
-      <c r="D203" s="226"/>
+      <c r="A203" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="B203" s="183"/>
+      <c r="C203" s="184"/>
+      <c r="D203" s="184"/>
     </row>
     <row r="204" spans="1:6" ht="15.75" thickBot="1">
       <c r="A204" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:6" ht="15.75" thickBot="1">
       <c r="A205" s="53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B205" s="55" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -7870,7 +7998,7 @@
     <row r="206" spans="1:6" ht="15.75" thickBot="1">
       <c r="A206" s="53"/>
       <c r="B206" s="55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -7878,7 +8006,7 @@
     <row r="207" spans="1:6" ht="15.75" thickBot="1">
       <c r="A207" s="53"/>
       <c r="B207" s="55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -7894,8 +8022,8 @@
       <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="219"/>
-      <c r="B209" s="219"/>
+      <c r="A209" s="175"/>
+      <c r="B209" s="175"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
     </row>
@@ -7906,14 +8034,14 @@
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A211" s="227" t="s">
-        <v>265</v>
-      </c>
-      <c r="B211" s="227"/>
-      <c r="C211" s="176"/>
-      <c r="D211" s="176"/>
+      <c r="A211" s="178" t="s">
+        <v>264</v>
+      </c>
+      <c r="B211" s="178"/>
+      <c r="C211" s="179"/>
+      <c r="D211" s="179"/>
       <c r="F211" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15.75" thickBot="1">
@@ -7922,26 +8050,26 @@
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15.75" thickBot="1">
       <c r="A213" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B213" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" thickBot="1">
       <c r="A214" s="53" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B214" s="55"/>
     </row>
     <row r="215" spans="1:6" ht="30.75" thickBot="1">
       <c r="A215" s="53" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B215" s="55"/>
     </row>
@@ -7954,37 +8082,37 @@
       <c r="B217" s="55"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="219"/>
-      <c r="B218" s="219"/>
+      <c r="A218" s="175"/>
+      <c r="B218" s="175"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="43"/>
     </row>
     <row r="220" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A220" s="228" t="s">
-        <v>266</v>
-      </c>
-      <c r="B220" s="228"/>
-      <c r="C220" s="229"/>
-      <c r="D220" s="229"/>
+      <c r="A220" s="185" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" s="185"/>
+      <c r="C220" s="186"/>
+      <c r="D220" s="186"/>
     </row>
     <row r="221" spans="1:6" ht="15.75" thickBot="1">
       <c r="A221" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B221" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C221" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C221" s="25" t="s">
-        <v>185</v>
-      </c>
       <c r="D221" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15.75" thickBot="1">
       <c r="A222" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B222" s="53"/>
       <c r="C222" s="53"/>
@@ -7992,7 +8120,7 @@
     </row>
     <row r="223" spans="1:6" ht="15.75" thickBot="1">
       <c r="A223" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B223" s="53"/>
       <c r="C223" s="53"/>
@@ -8000,465 +8128,514 @@
     </row>
     <row r="224" spans="1:6" ht="15.75" thickBot="1">
       <c r="A224" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B224" s="53"/>
       <c r="C224" s="53"/>
       <c r="D224" s="55"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:5">
       <c r="A225" s="21"/>
       <c r="B225" s="21"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:5">
       <c r="A226" s="39"/>
       <c r="B226" s="39"/>
     </row>
-    <row r="227" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A227" s="220" t="s">
+    <row r="227" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A227" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="B227" s="180"/>
+      <c r="C227" s="182"/>
+      <c r="D227" s="182"/>
+    </row>
+    <row r="228" spans="1:5" ht="45">
+      <c r="A228" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="B227" s="220"/>
-      <c r="C227" s="175"/>
-      <c r="D227" s="175"/>
-    </row>
-    <row r="228" spans="1:6" ht="45">
-      <c r="A228" s="44" t="s">
+      <c r="B228" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="36" customHeight="1">
+      <c r="A230" s="178" t="s">
         <v>223</v>
       </c>
-      <c r="B228" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="36" customHeight="1">
-      <c r="A230" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="B230" s="227"/>
-      <c r="C230" s="176"/>
-      <c r="D230" s="176"/>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="B230" s="178"/>
+      <c r="C230" s="179"/>
+      <c r="D230" s="179"/>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B231" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:6" ht="20.25">
+    <row r="233" spans="1:5" ht="20.25">
       <c r="A233" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A234" s="227" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A234" s="178" t="s">
+        <v>224</v>
+      </c>
+      <c r="B234" s="178"/>
+      <c r="C234" s="179"/>
+      <c r="D234" s="179"/>
+    </row>
+    <row r="235" spans="1:5" ht="105">
+      <c r="A235" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="20.25">
+      <c r="A237" s="45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="49.5" customHeight="1">
+      <c r="A238" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="B234" s="227"/>
-      <c r="C234" s="176"/>
-      <c r="D234" s="176"/>
-    </row>
-    <row r="235" spans="1:6" ht="105">
-      <c r="A235" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B235" s="8" t="s">
+      <c r="B238" s="178"/>
+      <c r="C238" s="179"/>
+      <c r="D238" s="179"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B239" s="46" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="B240" t="s">
+        <v>479</v>
+      </c>
+      <c r="C240" t="s">
+        <v>423</v>
+      </c>
+      <c r="E240" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="C241" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="20.25">
-      <c r="A237" s="45" t="s">
+    <row r="243" spans="1:5" ht="33" customHeight="1">
+      <c r="A243" s="178" t="s">
+        <v>226</v>
+      </c>
+      <c r="B243" s="178"/>
+      <c r="C243" s="179"/>
+      <c r="D243" s="179"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B244" t="s">
+        <v>481</v>
+      </c>
+      <c r="D244" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="144.75" customHeight="1">
+      <c r="D245" s="250" t="s">
+        <v>486</v>
+      </c>
+      <c r="E245" s="251"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="D246" t="s">
+        <v>483</v>
+      </c>
+      <c r="E246" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="E247" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="41.25" customHeight="1">
+      <c r="A249" s="178" t="s">
+        <v>227</v>
+      </c>
+      <c r="B249" s="178"/>
+      <c r="C249" s="179"/>
+      <c r="D249" s="179"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A252" s="180" t="s">
+        <v>228</v>
+      </c>
+      <c r="B252" s="180"/>
+      <c r="C252" s="179"/>
+      <c r="D252" s="179"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B253" t="s">
+        <v>488</v>
+      </c>
+      <c r="D253" s="46" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="20.25">
+      <c r="A255" s="45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A238" s="227" t="s">
-        <v>226</v>
-      </c>
-      <c r="B238" s="227"/>
-      <c r="C238" s="176"/>
-      <c r="D238" s="176"/>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B239" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="F240" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="33" customHeight="1">
-      <c r="A241" s="227" t="s">
-        <v>227</v>
-      </c>
-      <c r="B241" s="227"/>
-      <c r="C241" s="176"/>
-      <c r="D241" s="176"/>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B242" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A244" s="227" t="s">
-        <v>228</v>
-      </c>
-      <c r="B244" s="227"/>
-      <c r="C244" s="176"/>
-      <c r="D244" s="176"/>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A247" s="220" t="s">
+    <row r="256" spans="1:5" ht="45" customHeight="1">
+      <c r="A256" s="178" t="s">
         <v>229</v>
       </c>
-      <c r="B247" s="220"/>
-      <c r="C247" s="176"/>
-      <c r="D247" s="176"/>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B248" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="20.25">
-      <c r="A250" s="45" t="s">
+      <c r="B256" s="178"/>
+      <c r="C256" s="179"/>
+      <c r="D256" s="179"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B257" t="s">
+        <v>480</v>
+      </c>
+      <c r="C257" t="s">
+        <v>477</v>
+      </c>
+      <c r="E257" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="B258" t="s">
+        <v>490</v>
+      </c>
+      <c r="C258" t="s">
+        <v>422</v>
+      </c>
+      <c r="E258" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="20.25">
+      <c r="A260" s="45" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="45" customHeight="1">
-      <c r="A251" s="227" t="s">
+    <row r="261" spans="1:5" ht="42" customHeight="1">
+      <c r="A261" s="181" t="s">
         <v>230</v>
       </c>
-      <c r="B251" s="227"/>
-      <c r="C251" s="176"/>
-      <c r="D251" s="176"/>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B252" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="20.25">
-      <c r="A254" s="45" t="s">
+      <c r="B261" s="181"/>
+      <c r="C261" s="179"/>
+      <c r="D261" s="179"/>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="263" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A263" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B263" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="75.75" thickBot="1">
+      <c r="A264" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B264" s="55" t="s">
+        <v>495</v>
+      </c>
+      <c r="C264" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="60.75" thickBot="1">
+      <c r="A265" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="B265" s="55" t="s">
+        <v>496</v>
+      </c>
+      <c r="C265" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="165.75" thickBot="1">
+      <c r="A266" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="B266" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="C266" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="75.75" thickBot="1">
+      <c r="A267" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="B267" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="C267" s="252" t="s">
+        <v>500</v>
+      </c>
+      <c r="D267" s="249"/>
+      <c r="E267" s="249"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="39"/>
+      <c r="B268" s="39"/>
+    </row>
+    <row r="269" spans="1:5" ht="20.25">
+      <c r="A269" s="45" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="42" customHeight="1">
-      <c r="A255" s="231" t="s">
-        <v>231</v>
-      </c>
-      <c r="B255" s="231"/>
-      <c r="C255" s="176"/>
-      <c r="D255" s="176"/>
-    </row>
-    <row r="256" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="257" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A257" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B257" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A258" s="53" t="s">
+    <row r="270" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A270" s="178" t="s">
         <v>233</v>
       </c>
-      <c r="B258" s="55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A259" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="B259" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A260" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B260" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A261" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B261" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="39"/>
-      <c r="B262" s="39"/>
-    </row>
-    <row r="263" spans="1:4" ht="20.25">
-      <c r="A263" s="45" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A264" s="227" t="s">
+      <c r="B270" s="179"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="47"/>
+    </row>
+    <row r="272" spans="1:5" ht="20.25">
+      <c r="A272" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A273" s="178" t="s">
         <v>234</v>
       </c>
-      <c r="B264" s="176"/>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="47"/>
-    </row>
-    <row r="266" spans="1:4" ht="20.25">
-      <c r="A266" s="45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A267" s="227" t="s">
+      <c r="B273" s="178"/>
+      <c r="C273" s="179"/>
+      <c r="D273" s="179"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B274" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="42.75" customHeight="1">
+      <c r="A276" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="B267" s="227"/>
-      <c r="C267" s="176"/>
-      <c r="D267" s="176"/>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="227" t="s">
+      <c r="B276" s="178"/>
+      <c r="C276" s="179"/>
+      <c r="D276" s="179"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B277" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="25.5" customHeight="1"/>
+    <row r="279" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A279" s="178" t="s">
         <v>236</v>
       </c>
-      <c r="B270" s="227"/>
-      <c r="C270" s="176"/>
-      <c r="D270" s="176"/>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="25.5" customHeight="1"/>
-    <row r="273" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A273" s="227" t="s">
+      <c r="B279" s="178"/>
+    </row>
+    <row r="280" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A280" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="B273" s="227"/>
-    </row>
-    <row r="274" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A274" s="227" t="s">
+      <c r="B280" s="178"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B281" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A283" s="176" t="s">
         <v>238</v>
       </c>
-      <c r="B274" s="227"/>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A277" s="218" t="s">
+      <c r="B283" s="176"/>
+      <c r="C283" s="177"/>
+      <c r="D283" s="177"/>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A284" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C284" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D284" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B277" s="218"/>
-      <c r="C277" s="232"/>
-      <c r="D277" s="232"/>
-    </row>
-    <row r="278" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A278" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B278" s="25" t="s">
+    </row>
+    <row r="285" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A285" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B285" s="40"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="12"/>
+    </row>
+    <row r="286" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A286" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B286" s="11"/>
+      <c r="C286" s="11"/>
+      <c r="D286" s="12"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="175"/>
+      <c r="B287" s="175"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
+    </row>
+    <row r="289" spans="1:4" ht="20.25">
+      <c r="A289" s="45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="27">
+      <c r="A290" s="47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="20.25">
+      <c r="A291" s="48"/>
+    </row>
+    <row r="292" spans="1:4" ht="20.25">
+      <c r="A292" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="39" customHeight="1">
+      <c r="A293" s="178" t="s">
+        <v>240</v>
+      </c>
+      <c r="B293" s="178"/>
+      <c r="C293" s="179"/>
+      <c r="D293" s="179"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B294" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A296" s="176" t="s">
+        <v>241</v>
+      </c>
+      <c r="B296" s="176"/>
+      <c r="C296" s="177"/>
+      <c r="D296" s="177"/>
+    </row>
+    <row r="297" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="298" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A298" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B298" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C298" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C278" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D278" s="26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A279" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B279" s="40"/>
-      <c r="C279" s="11"/>
-      <c r="D279" s="12"/>
-    </row>
-    <row r="280" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A280" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
-      <c r="D280" s="12"/>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="219"/>
-      <c r="B281" s="219"/>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="39"/>
-      <c r="B282" s="39"/>
-    </row>
-    <row r="283" spans="1:4" ht="20.25">
-      <c r="A283" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="27">
-      <c r="A284" s="47" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="20.25">
-      <c r="A285" s="48"/>
-    </row>
-    <row r="286" spans="1:4" ht="20.25">
-      <c r="A286" s="45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="39" customHeight="1">
-      <c r="A287" s="227" t="s">
-        <v>241</v>
-      </c>
-      <c r="B287" s="227"/>
-      <c r="C287" s="176"/>
-      <c r="D287" s="176"/>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="B288" s="8"/>
-    </row>
-    <row r="290" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A290" s="218" t="s">
+      <c r="D298" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B290" s="218"/>
-      <c r="C290" s="232"/>
-      <c r="D290" s="232"/>
-    </row>
-    <row r="291" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="292" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A292" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B292" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C292" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D292" s="34" t="s">
+    </row>
+    <row r="299" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A299" s="11" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A293" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B293" s="49"/>
-      <c r="C293" s="11"/>
-      <c r="D293" s="60"/>
-    </row>
-    <row r="294" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A294" s="11"/>
-      <c r="B294" s="40"/>
-      <c r="C294" s="11"/>
-      <c r="D294" s="12"/>
-    </row>
-    <row r="295" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A295" s="11"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
-      <c r="D295" s="12"/>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="21"/>
-      <c r="B296" s="21"/>
+      <c r="B299" s="49"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="60"/>
+    </row>
+    <row r="300" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A300" s="11"/>
+      <c r="B300" s="40"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="12"/>
+    </row>
+    <row r="301" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A301" s="11"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="12"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="21"/>
+      <c r="B302" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A255:D255"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A130:D130"/>
+  <mergeCells count="70">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A101:B101"/>
@@ -8473,20 +8650,48 @@
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A256:D256"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="C267:E267"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A280:B280"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8523,22 +8728,22 @@
   <sheetData>
     <row r="1" spans="1:26 16384:16384" s="16" customFormat="1" ht="51.6" customHeight="1" thickBot="1">
       <c r="A1" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="C1" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="D1" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="233" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="106" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="244" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8555,40 +8760,40 @@
       <c r="C2" s="96"/>
       <c r="D2" s="15"/>
       <c r="E2" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="G2" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="H2" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="158" t="s">
+      <c r="I2" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="J2" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="K2" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="159" t="s">
+      <c r="L2" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="159" t="s">
+      <c r="M2" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="159" t="s">
+      <c r="N2" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="159" t="s">
+      <c r="O2" s="159" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="159" t="s">
         <v>59</v>
-      </c>
-      <c r="O2" s="159" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="159" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
@@ -8597,21 +8802,21 @@
       <c r="C3" s="96"/>
       <c r="D3" s="15"/>
       <c r="E3" s="142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F3" s="142"/>
       <c r="G3" s="142"/>
       <c r="H3" s="153" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="154" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="I3" s="154" t="s">
-        <v>276</v>
-      </c>
-      <c r="J3" s="155" t="s">
-        <v>277</v>
-      </c>
       <c r="K3" s="156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="157"/>
       <c r="M3" s="107"/>
@@ -8620,15 +8825,15 @@
       <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="245" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
+      <c r="A4" s="234" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="234"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
       <c r="H4" s="150"/>
       <c r="I4" s="151"/>
       <c r="J4" s="151"/>
@@ -8644,16 +8849,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D5" s="122" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5" s="160" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F5" s="160"/>
       <c r="G5" s="160"/>
@@ -8667,7 +8872,7 @@
       <c r="O5" s="149"/>
       <c r="P5" s="149"/>
       <c r="R5" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
@@ -8675,16 +8880,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" s="110" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F6" s="110"/>
       <c r="G6" s="90"/>
@@ -8697,28 +8902,28 @@
       <c r="N6" s="95"/>
       <c r="O6" s="95"/>
       <c r="P6" s="95"/>
-      <c r="R6" s="233" t="s">
-        <v>278</v>
-      </c>
-      <c r="S6" s="234"/>
-      <c r="T6" s="234"/>
-      <c r="U6" s="234"/>
+      <c r="R6" s="241" t="s">
+        <v>276</v>
+      </c>
+      <c r="S6" s="242"/>
+      <c r="T6" s="242"/>
+      <c r="U6" s="242"/>
     </row>
     <row r="7" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="108" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="111"/>
       <c r="G7" s="111"/>
@@ -8731,26 +8936,26 @@
       <c r="N7" s="63"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
-      <c r="R7" s="234"/>
-      <c r="S7" s="234"/>
-      <c r="T7" s="234"/>
-      <c r="U7" s="234"/>
+      <c r="R7" s="242"/>
+      <c r="S7" s="242"/>
+      <c r="T7" s="242"/>
+      <c r="U7" s="242"/>
     </row>
     <row r="8" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="108" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F8" s="111"/>
       <c r="G8" s="111"/>
@@ -8763,26 +8968,26 @@
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
-      <c r="R8" s="234"/>
-      <c r="S8" s="234"/>
-      <c r="T8" s="234"/>
-      <c r="U8" s="234"/>
+      <c r="R8" s="242"/>
+      <c r="S8" s="242"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
     </row>
     <row r="9" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="108" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F9" s="111"/>
       <c r="G9" s="111"/>
@@ -8795,26 +9000,26 @@
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
-      <c r="R9" s="234"/>
-      <c r="S9" s="234"/>
-      <c r="T9" s="234"/>
-      <c r="U9" s="234"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="242"/>
+      <c r="T9" s="242"/>
+      <c r="U9" s="242"/>
     </row>
     <row r="10" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="108" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F10" s="111"/>
       <c r="G10" s="111"/>
@@ -8827,10 +9032,10 @@
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
+      <c r="R10" s="242"/>
+      <c r="S10" s="242"/>
+      <c r="T10" s="242"/>
+      <c r="U10" s="242"/>
       <c r="XFD10" s="73"/>
     </row>
     <row r="11" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
@@ -8838,17 +9043,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E11" s="111"/>
       <c r="F11" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G11" s="111"/>
       <c r="H11" s="65"/>
@@ -8860,26 +9065,26 @@
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
-      <c r="R11" s="234"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="234"/>
-      <c r="U11" s="234"/>
+      <c r="R11" s="242"/>
+      <c r="S11" s="242"/>
+      <c r="T11" s="242"/>
+      <c r="U11" s="242"/>
     </row>
     <row r="12" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="108" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F12" s="111"/>
       <c r="G12" s="111"/>
@@ -8892,26 +9097,26 @@
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="234"/>
-      <c r="U12" s="234"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="242"/>
+      <c r="T12" s="242"/>
+      <c r="U12" s="242"/>
     </row>
     <row r="13" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A13" s="108" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F13" s="111"/>
       <c r="G13" s="111"/>
@@ -8925,10 +9130,10 @@
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="234"/>
-      <c r="S13" s="234"/>
-      <c r="T13" s="234"/>
-      <c r="U13" s="234"/>
+      <c r="R13" s="242"/>
+      <c r="S13" s="242"/>
+      <c r="T13" s="242"/>
+      <c r="U13" s="242"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -8937,20 +9142,20 @@
     </row>
     <row r="14" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A14" s="108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14" s="111"/>
       <c r="F14" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G14" s="113"/>
       <c r="H14" s="67"/>
@@ -8963,10 +9168,10 @@
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="234"/>
-      <c r="S14" s="234"/>
-      <c r="T14" s="234"/>
-      <c r="U14" s="234"/>
+      <c r="R14" s="242"/>
+      <c r="S14" s="242"/>
+      <c r="T14" s="242"/>
+      <c r="U14" s="242"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -8975,20 +9180,20 @@
     </row>
     <row r="15" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A15" s="108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E15" s="111"/>
       <c r="F15" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G15" s="113"/>
       <c r="H15" s="67"/>
@@ -9001,10 +9206,10 @@
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="234"/>
-      <c r="S15" s="234"/>
-      <c r="T15" s="234"/>
-      <c r="U15" s="234"/>
+      <c r="R15" s="242"/>
+      <c r="S15" s="242"/>
+      <c r="T15" s="242"/>
+      <c r="U15" s="242"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -9013,16 +9218,16 @@
     </row>
     <row r="16" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E16" s="111"/>
       <c r="F16" s="111"/>
@@ -9037,10 +9242,10 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="234"/>
-      <c r="S16" s="234"/>
-      <c r="T16" s="234"/>
-      <c r="U16" s="234"/>
+      <c r="R16" s="242"/>
+      <c r="S16" s="242"/>
+      <c r="T16" s="242"/>
+      <c r="U16" s="242"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
@@ -9049,19 +9254,19 @@
     </row>
     <row r="17" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A17" s="108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F17" s="111"/>
       <c r="G17" s="113"/>
@@ -9075,10 +9280,10 @@
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="234"/>
-      <c r="S17" s="234"/>
-      <c r="T17" s="234"/>
-      <c r="U17" s="234"/>
+      <c r="R17" s="242"/>
+      <c r="S17" s="242"/>
+      <c r="T17" s="242"/>
+      <c r="U17" s="242"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
@@ -9087,24 +9292,24 @@
     </row>
     <row r="18" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A18" s="115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D18" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E18" s="117" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F18" s="111"/>
       <c r="G18" s="113"/>
       <c r="H18" s="67" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I18" s="82"/>
       <c r="J18" s="83"/>
@@ -9127,16 +9332,16 @@
     </row>
     <row r="19" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A19" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109" t="s">
-        <v>68</v>
-      </c>
       <c r="C19" s="98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D19" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E19" s="117"/>
       <c r="F19" s="111"/>
@@ -9163,20 +9368,20 @@
     </row>
     <row r="20" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A20" s="115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D20" s="116" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E20" s="117"/>
       <c r="F20" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G20" s="113"/>
       <c r="H20" s="84"/>
@@ -9201,20 +9406,20 @@
     </row>
     <row r="21" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A21" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D21" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E21" s="111"/>
       <c r="F21" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G21" s="113"/>
       <c r="H21" s="82"/>
@@ -9239,16 +9444,16 @@
     </row>
     <row r="22" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A22" s="108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E22" s="111"/>
       <c r="F22" s="111"/>
@@ -9275,16 +9480,16 @@
     </row>
     <row r="23" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A23" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="109" t="s">
-        <v>73</v>
-      </c>
       <c r="C23" s="98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E23" s="119"/>
       <c r="F23" s="119"/>
@@ -9311,16 +9516,16 @@
     </row>
     <row r="24" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A24" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="109" t="s">
-        <v>75</v>
-      </c>
       <c r="C24" s="98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E24" s="119"/>
       <c r="F24" s="119"/>
@@ -9347,16 +9552,16 @@
     </row>
     <row r="25" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A25" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="109" t="s">
-        <v>77</v>
-      </c>
       <c r="C25" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D25" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E25" s="119"/>
       <c r="F25" s="119"/>
@@ -9383,16 +9588,16 @@
     </row>
     <row r="26" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A26" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D26" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E26" s="119"/>
       <c r="F26" s="119"/>
@@ -9419,7 +9624,7 @@
     </row>
     <row r="27" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A27" s="235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="236"/>
       <c r="C27" s="236"/>
@@ -9449,21 +9654,21 @@
     </row>
     <row r="28" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A28" s="108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E28" s="119"/>
       <c r="F28" s="119"/>
       <c r="G28" s="88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H28" s="80"/>
       <c r="I28" s="80"/>
@@ -9487,19 +9692,19 @@
     </row>
     <row r="29" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A29" s="108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E29" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F29" s="119"/>
       <c r="G29" s="88"/>
@@ -9525,19 +9730,19 @@
     </row>
     <row r="30" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A30" s="108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E30" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F30" s="119"/>
       <c r="G30" s="88"/>
@@ -9563,20 +9768,20 @@
     </row>
     <row r="31" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A31" s="108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E31" s="119"/>
       <c r="F31" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G31" s="88"/>
       <c r="H31" s="80"/>
@@ -9601,19 +9806,19 @@
     </row>
     <row r="32" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A32" s="108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D32" s="108" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E32" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F32" s="119"/>
       <c r="G32" s="88"/>
@@ -9639,19 +9844,19 @@
     </row>
     <row r="33" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="120" t="s">
-        <v>17</v>
-      </c>
       <c r="C33" s="98" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E33" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F33" s="119"/>
       <c r="G33" s="88"/>
@@ -9677,19 +9882,19 @@
     </row>
     <row r="34" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A34" s="108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E34" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F34" s="119"/>
       <c r="G34" s="88"/>
@@ -9715,19 +9920,19 @@
     </row>
     <row r="35" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A35" s="108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E35" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F35" s="119"/>
       <c r="G35" s="88"/>
@@ -9753,7 +9958,7 @@
     </row>
     <row r="36" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A36" s="235" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="236"/>
       <c r="C36" s="237"/>
@@ -9783,19 +9988,19 @@
     </row>
     <row r="37" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A37" s="108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="99" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D37" s="122" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E37" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F37" s="88"/>
       <c r="G37" s="120"/>
@@ -9821,19 +10026,19 @@
     </row>
     <row r="38" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A38" s="123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="99" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D38" s="122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E38" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F38" s="88"/>
       <c r="G38" s="120"/>
@@ -9858,11 +10063,11 @@
       <c r="Z38" s="17"/>
     </row>
     <row r="39" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A39" s="246" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="247"/>
-      <c r="C39" s="248"/>
+      <c r="A39" s="238" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="239"/>
+      <c r="C39" s="240"/>
       <c r="D39" s="124"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
@@ -9889,15 +10094,15 @@
     </row>
     <row r="40" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A40" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="120"/>
       <c r="C40" s="98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F40" s="119"/>
       <c r="G40" s="88"/>
@@ -9923,19 +10128,19 @@
     </row>
     <row r="41" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A41" s="108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D41" s="116" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E41" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F41" s="119"/>
       <c r="G41" s="88"/>
@@ -9961,19 +10166,19 @@
     </row>
     <row r="42" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E42" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F42" s="119"/>
       <c r="G42" s="88"/>
@@ -9999,16 +10204,16 @@
     </row>
     <row r="43" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A43" s="108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D43" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E43" s="127"/>
       <c r="F43" s="119"/>
@@ -10035,16 +10240,16 @@
     </row>
     <row r="44" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A44" s="108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="98" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E44" s="127"/>
       <c r="F44" s="119"/>
@@ -10071,19 +10276,19 @@
     </row>
     <row r="45" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A45" s="108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="98" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D45" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E45" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F45" s="119"/>
       <c r="G45" s="88"/>
@@ -10109,19 +10314,19 @@
     </row>
     <row r="46" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D46" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E46" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F46" s="119"/>
       <c r="G46" s="88"/>
@@ -10147,21 +10352,21 @@
     </row>
     <row r="47" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A47" s="108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="98" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D47" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E47" s="127"/>
       <c r="F47" s="119"/>
       <c r="G47" s="88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H47" s="67"/>
       <c r="I47" s="67"/>
@@ -10185,19 +10390,19 @@
     </row>
     <row r="48" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A48" s="108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D48" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E48" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F48" s="119"/>
       <c r="G48" s="88"/>
@@ -10223,19 +10428,19 @@
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A49" s="108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E49" s="129" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F49" s="119"/>
       <c r="G49" s="88"/>
@@ -10261,19 +10466,19 @@
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A50" s="123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D50" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E50" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F50" s="119"/>
       <c r="G50" s="88"/>
@@ -10299,19 +10504,19 @@
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A51" s="108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="101" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D51" s="116" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E51" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F51" s="119"/>
       <c r="G51" s="88"/>
@@ -10337,19 +10542,19 @@
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A52" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D52" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E52" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F52" s="119"/>
       <c r="G52" s="88"/>
@@ -10375,19 +10580,19 @@
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A53" s="108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E53" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F53" s="119"/>
       <c r="G53" s="88"/>
@@ -10413,21 +10618,21 @@
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A54" s="108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D54" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E54" s="127"/>
       <c r="F54" s="119"/>
       <c r="G54" s="88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H54" s="80"/>
       <c r="I54" s="80"/>
@@ -10451,21 +10656,21 @@
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A55" s="108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="98" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D55" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E55" s="127"/>
       <c r="F55" s="119"/>
       <c r="G55" s="88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
@@ -10489,13 +10694,13 @@
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A56" s="108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="127"/>
@@ -10523,13 +10728,13 @@
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A57" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="101" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="127"/>
@@ -10557,21 +10762,21 @@
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A58" s="108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="98" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D58" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E58" s="127"/>
       <c r="F58" s="119"/>
       <c r="G58" s="88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H58" s="80"/>
       <c r="I58" s="67"/>
@@ -10595,19 +10800,19 @@
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A59" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="120" t="s">
-        <v>108</v>
-      </c>
       <c r="C59" s="98" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D59" s="116" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E59" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F59" s="119"/>
       <c r="G59" s="88"/>
@@ -10633,16 +10838,16 @@
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="75.75" thickBot="1">
       <c r="A60" s="123" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="98" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D60" s="116" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E60" s="127"/>
       <c r="F60" s="119"/>
@@ -10669,19 +10874,19 @@
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A61" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="120" t="s">
-        <v>111</v>
-      </c>
       <c r="C61" s="98" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D61" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E61" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F61" s="119"/>
       <c r="G61" s="88"/>
@@ -10691,7 +10896,7 @@
       <c r="K61" s="67"/>
       <c r="L61" s="67"/>
       <c r="M61" s="128" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N61" s="69"/>
       <c r="O61" s="69"/>
@@ -10709,16 +10914,16 @@
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A62" s="108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="98" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D62" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E62" s="127"/>
       <c r="F62" s="119"/>
@@ -10745,19 +10950,19 @@
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A63" s="108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="98" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D63" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E63" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F63" s="119"/>
       <c r="G63" s="88"/>
@@ -10767,7 +10972,7 @@
       <c r="K63" s="80"/>
       <c r="L63" s="80"/>
       <c r="M63" s="128" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N63" s="70"/>
       <c r="O63" s="70"/>
@@ -10785,19 +10990,19 @@
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A64" s="108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D64" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E64" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F64" s="119"/>
       <c r="G64" s="88"/>
@@ -10823,20 +11028,20 @@
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A65" s="108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="98" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D65" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E65" s="127"/>
       <c r="F65" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G65" s="88"/>
       <c r="H65" s="67"/>
@@ -10861,19 +11066,19 @@
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A66" s="108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" s="88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D66" s="116" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E66" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F66" s="119"/>
       <c r="G66" s="88"/>
@@ -10899,19 +11104,19 @@
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A67" s="108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="98" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D67" s="116" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E67" s="127" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F67" s="119"/>
       <c r="G67" s="88"/>
@@ -10937,19 +11142,19 @@
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A68" s="108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" s="98" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D68" s="116" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E68" s="127" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F68" s="119"/>
       <c r="G68" s="88"/>
@@ -10959,7 +11164,7 @@
       <c r="K68" s="67"/>
       <c r="L68" s="67"/>
       <c r="M68" s="128" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N68" s="69"/>
       <c r="O68" s="69"/>
@@ -10977,19 +11182,19 @@
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A69" s="123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D69" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E69" s="127" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="88"/>
@@ -10999,7 +11204,7 @@
       <c r="K69" s="67"/>
       <c r="L69" s="67"/>
       <c r="M69" s="128" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N69" s="69"/>
       <c r="O69" s="69"/>
@@ -11017,7 +11222,7 @@
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A70" s="235" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" s="236"/>
       <c r="C70" s="236"/>
@@ -11047,19 +11252,19 @@
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A71" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="99" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D71" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E71" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F71" s="119"/>
       <c r="G71" s="88"/>
@@ -11085,19 +11290,19 @@
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A72" s="108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="99" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D72" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E72" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F72" s="119"/>
       <c r="G72" s="88"/>
@@ -11123,19 +11328,19 @@
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A73" s="108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D73" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E73" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F73" s="119"/>
       <c r="G73" s="88"/>
@@ -11161,20 +11366,20 @@
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A74" s="108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="99" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D74" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E74" s="127"/>
       <c r="F74" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G74" s="88"/>
       <c r="H74" s="67"/>
@@ -11199,19 +11404,19 @@
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="75.75" thickBot="1">
       <c r="A75" s="108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D75" s="99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E75" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F75" s="119"/>
       <c r="G75" s="88"/>
@@ -11221,7 +11426,7 @@
       <c r="K75" s="67"/>
       <c r="L75" s="67"/>
       <c r="M75" s="128" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N75" s="69"/>
       <c r="O75" s="69"/>
@@ -11239,19 +11444,19 @@
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A76" s="108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" s="99" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D76" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E76" s="127" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F76" s="119"/>
       <c r="G76" s="88"/>
@@ -11261,7 +11466,7 @@
       <c r="K76" s="67"/>
       <c r="L76" s="67"/>
       <c r="M76" s="128" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N76" s="69"/>
       <c r="O76" s="69"/>
@@ -11279,19 +11484,19 @@
     </row>
     <row r="77" spans="1:26" s="16" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A77" s="108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D77" s="99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E77" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F77" s="119"/>
       <c r="G77" s="88"/>
@@ -11317,19 +11522,19 @@
     </row>
     <row r="78" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A78" s="108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D78" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E78" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F78" s="119"/>
       <c r="G78" s="88"/>
@@ -11355,19 +11560,19 @@
     </row>
     <row r="79" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A79" s="108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" s="99" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D79" s="99" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E79" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F79" s="119"/>
       <c r="G79" s="88"/>
@@ -11393,21 +11598,21 @@
     </row>
     <row r="80" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A80" s="108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="99" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D80" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E80" s="127"/>
       <c r="F80" s="119"/>
       <c r="G80" s="88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H80" s="67"/>
       <c r="I80" s="67"/>
@@ -11431,19 +11636,19 @@
     </row>
     <row r="81" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A81" s="108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D81" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E81" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F81" s="119"/>
       <c r="G81" s="88"/>
@@ -11469,11 +11674,11 @@
     </row>
     <row r="82" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A82" s="235" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="237"/>
       <c r="C82" s="237"/>
-      <c r="D82" s="238"/>
+      <c r="D82" s="243"/>
       <c r="E82" s="236"/>
       <c r="F82" s="236"/>
       <c r="G82" s="236"/>
@@ -11499,19 +11704,19 @@
     </row>
     <row r="83" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
       <c r="A83" s="115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" s="99" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D83" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E83" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F83" s="119"/>
       <c r="G83" s="88"/>
@@ -11537,19 +11742,19 @@
     </row>
     <row r="84" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A84" s="108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="99" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D84" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E84" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F84" s="119"/>
       <c r="G84" s="88"/>
@@ -11575,19 +11780,19 @@
     </row>
     <row r="85" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A85" s="108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" s="99" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D85" s="99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E85" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F85" s="119"/>
       <c r="G85" s="88"/>
@@ -11613,19 +11818,19 @@
     </row>
     <row r="86" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A86" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="99" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D86" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E86" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F86" s="119"/>
       <c r="G86" s="88"/>
@@ -11651,19 +11856,19 @@
     </row>
     <row r="87" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A87" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="99" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D87" s="99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E87" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F87" s="119"/>
       <c r="G87" s="88"/>
@@ -11689,11 +11894,11 @@
     </row>
     <row r="88" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A88" s="235" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B88" s="237"/>
-      <c r="C88" s="238"/>
-      <c r="D88" s="238"/>
+      <c r="C88" s="243"/>
+      <c r="D88" s="243"/>
       <c r="E88" s="236"/>
       <c r="F88" s="236"/>
       <c r="G88" s="236"/>
@@ -11719,19 +11924,19 @@
     </row>
     <row r="89" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A89" s="115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B89" s="121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C89" s="99" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D89" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E89" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F89" s="119"/>
       <c r="G89" s="88"/>
@@ -11757,19 +11962,19 @@
     </row>
     <row r="90" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A90" s="115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B90" s="121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90" s="99" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D90" s="99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E90" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F90" s="119"/>
       <c r="G90" s="88"/>
@@ -11795,19 +12000,19 @@
     </row>
     <row r="91" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A91" s="115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B91" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="99" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D91" s="99" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E91" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F91" s="119"/>
       <c r="G91" s="88"/>
@@ -11833,16 +12038,16 @@
     </row>
     <row r="92" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A92" s="115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B92" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="99" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D92" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E92" s="127"/>
       <c r="F92" s="119"/>
@@ -11853,7 +12058,7 @@
       <c r="K92" s="67"/>
       <c r="L92" s="67"/>
       <c r="M92" s="114" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N92" s="69"/>
       <c r="O92" s="69"/>
@@ -11871,16 +12076,16 @@
     </row>
     <row r="93" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A93" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B93" s="118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="99" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D93" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E93" s="127"/>
       <c r="F93" s="119"/>
@@ -11891,7 +12096,7 @@
       <c r="K93" s="67"/>
       <c r="L93" s="67"/>
       <c r="M93" s="114" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="N93" s="69"/>
       <c r="O93" s="69"/>
@@ -11908,15 +12113,15 @@
       <c r="Z93" s="17"/>
     </row>
     <row r="94" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A94" s="239" t="s">
-        <v>144</v>
-      </c>
-      <c r="B94" s="240"/>
-      <c r="C94" s="241"/>
-      <c r="D94" s="241"/>
-      <c r="E94" s="242"/>
-      <c r="F94" s="242"/>
-      <c r="G94" s="242"/>
+      <c r="A94" s="244" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="245"/>
+      <c r="C94" s="246"/>
+      <c r="D94" s="246"/>
+      <c r="E94" s="247"/>
+      <c r="F94" s="247"/>
+      <c r="G94" s="247"/>
       <c r="H94" s="139"/>
       <c r="I94" s="140"/>
       <c r="J94" s="140"/>
@@ -11939,19 +12144,19 @@
     </row>
     <row r="95" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A95" s="115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B95" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="99" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D95" s="122" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E95" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F95" s="119"/>
       <c r="G95" s="88"/>
@@ -11977,19 +12182,19 @@
     </row>
     <row r="96" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A96" s="108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" s="118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C96" s="99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D96" s="122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E96" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F96" s="119"/>
       <c r="G96" s="88"/>
@@ -12015,7 +12220,7 @@
     </row>
     <row r="97" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A97" s="235" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B97" s="236"/>
       <c r="C97" s="236"/>
@@ -12045,19 +12250,19 @@
     </row>
     <row r="98" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B98" s="118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="102" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D98" s="102" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E98" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F98" s="119"/>
       <c r="G98" s="88"/>
@@ -12083,7 +12288,7 @@
     </row>
     <row r="99" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="235" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B99" s="237"/>
       <c r="C99" s="237"/>
@@ -12113,19 +12318,19 @@
     </row>
     <row r="100" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A100" s="115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B100" s="121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C100" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D100" s="99" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E100" s="129" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F100" s="119"/>
       <c r="G100" s="88"/>
@@ -12151,16 +12356,16 @@
     </row>
     <row r="101" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A101" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="B101" s="121" t="s">
-        <v>152</v>
-      </c>
       <c r="C101" s="99" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D101" s="99" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E101" s="127"/>
       <c r="F101" s="119"/>
@@ -12187,19 +12392,19 @@
     </row>
     <row r="102" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B102" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C102" s="99" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D102" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E102" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F102" s="119"/>
       <c r="G102" s="88"/>
@@ -12224,12 +12429,12 @@
       <c r="Z102" s="17"/>
     </row>
     <row r="103" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="243" t="s">
-        <v>154</v>
-      </c>
-      <c r="B103" s="238"/>
-      <c r="C103" s="238"/>
-      <c r="D103" s="238"/>
+      <c r="A103" s="248" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="243"/>
+      <c r="C103" s="243"/>
+      <c r="D103" s="243"/>
       <c r="E103" s="237"/>
       <c r="F103" s="237"/>
       <c r="G103" s="237"/>
@@ -12255,20 +12460,20 @@
     </row>
     <row r="104" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A104" s="115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B104" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" s="99" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D104" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E104" s="127"/>
       <c r="F104" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G104" s="88"/>
       <c r="H104" s="67"/>
@@ -12293,20 +12498,20 @@
     </row>
     <row r="105" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A105" s="115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B105" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C105" s="99" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D105" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E105" s="127"/>
       <c r="F105" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G105" s="88"/>
       <c r="H105" s="80"/>
@@ -12331,20 +12536,20 @@
     </row>
     <row r="106" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B106" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C106" s="99" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D106" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E106" s="127"/>
       <c r="F106" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G106" s="88"/>
       <c r="H106" s="80"/>
@@ -12369,20 +12574,20 @@
     </row>
     <row r="107" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B107" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="103" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D107" s="89" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E107" s="130"/>
       <c r="F107" s="161" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G107" s="162"/>
       <c r="H107" s="67"/>
@@ -12407,11 +12612,11 @@
     </row>
     <row r="108" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="235" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B108" s="237"/>
-      <c r="C108" s="238"/>
-      <c r="D108" s="238"/>
+      <c r="C108" s="243"/>
+      <c r="D108" s="243"/>
       <c r="E108" s="236"/>
       <c r="F108" s="236"/>
       <c r="G108" s="236"/>
@@ -12437,20 +12642,20 @@
     </row>
     <row r="109" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
       <c r="A109" s="131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B109" s="132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109" s="104" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D109" s="104" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E109" s="127"/>
       <c r="F109" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G109" s="88"/>
       <c r="H109" s="78"/>
@@ -12475,19 +12680,19 @@
     </row>
     <row r="110" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" s="132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C110" s="104" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D110" s="104" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E110" s="127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F110" s="119"/>
       <c r="G110" s="88"/>
@@ -12513,18 +12718,18 @@
     </row>
     <row r="111" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B111" s="132"/>
       <c r="C111" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D111" s="104" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E111" s="127"/>
       <c r="F111" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G111" s="88"/>
       <c r="H111" s="78"/>
@@ -12549,20 +12754,20 @@
     </row>
     <row r="112" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B112" s="132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112" s="104" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D112" s="104" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E112" s="127"/>
       <c r="F112" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G112" s="88"/>
       <c r="H112" s="78"/>
@@ -12587,11 +12792,11 @@
     </row>
     <row r="113" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A113" s="235" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B113" s="237"/>
-      <c r="C113" s="238"/>
-      <c r="D113" s="238"/>
+      <c r="C113" s="243"/>
+      <c r="D113" s="243"/>
       <c r="E113" s="236"/>
       <c r="F113" s="236"/>
       <c r="G113" s="236"/>
@@ -12617,20 +12822,20 @@
     </row>
     <row r="114" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A114" s="131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114" s="132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C114" s="104" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D114" s="104" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E114" s="127"/>
       <c r="F114" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G114" s="88"/>
       <c r="H114" s="78"/>
@@ -12655,20 +12860,20 @@
     </row>
     <row r="115" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A115" s="131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" s="134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C115" s="104" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D115" s="104" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E115" s="127"/>
       <c r="F115" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G115" s="88"/>
       <c r="H115" s="80"/>
@@ -12693,20 +12898,20 @@
     </row>
     <row r="116" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A116" s="135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" s="132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C116" s="104" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D116" s="104" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E116" s="136"/>
       <c r="F116" s="137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G116" s="138"/>
       <c r="H116" s="80"/>
@@ -16557,11 +16762,6 @@
   </sheetData>
   <autoFilter ref="B1:B473" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="R6:U17"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A108:G108"/>
@@ -16572,6 +16772,11 @@
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A103:G103"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="25" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE87171F-A24E-4B12-BBF5-2E0F85C4D971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2246A68-731A-4A68-B96E-7C5AE59CBD5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformance Statement" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="507">
   <si>
     <t>TR.A.1</t>
   </si>
@@ -4189,6 +4189,15 @@
   </si>
   <si>
     <t>no dedicated VPN support in factory or initalized state. Additional packages (like OpenVPN) that enable VPN support can be installed but these are all implemented differently so a conclusive answer is not possible</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/services/webserver/uhttpd</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/services/webserver/http.uhttpd</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/base-system/dropbear</t>
   </si>
 </sst>
 </file>
@@ -5594,30 +5603,161 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5626,139 +5766,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5768,18 +5831,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5790,48 +5841,6 @@
     <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6122,33 +6131,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.81640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="175" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
@@ -6158,10 +6167,10 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="203"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -6176,38 +6185,38 @@
       <c r="A7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="195" t="s">
         <v>388</v>
       </c>
-      <c r="C7" s="232"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="195" t="s">
         <v>387</v>
       </c>
-      <c r="C8" s="210"/>
+      <c r="C8" s="204"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="209" t="s">
+      <c r="B9" s="195" t="s">
         <v>389</v>
       </c>
-      <c r="C9" s="210"/>
+      <c r="C9" s="204"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="205" t="s">
         <v>400</v>
       </c>
-      <c r="C10" s="212"/>
+      <c r="C10" s="206"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="169"/>
@@ -6220,86 +6229,86 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="204" t="s">
+      <c r="A14" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="205"/>
+      <c r="B14" s="203"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
       <c r="A15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="221"/>
-      <c r="D15" s="222"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="164" t="s">
         <v>435</v>
       </c>
-      <c r="B16" s="226" t="s">
+      <c r="B16" s="186" t="s">
         <v>439</v>
       </c>
-      <c r="C16" s="227"/>
-      <c r="D16" s="228"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C16" s="187"/>
+      <c r="D16" s="188"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" s="165" t="s">
         <v>436</v>
       </c>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="207" t="s">
         <v>440</v>
       </c>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" s="165" t="s">
         <v>436</v>
       </c>
-      <c r="B18" s="213" t="s">
+      <c r="B18" s="207" t="s">
         <v>441</v>
       </c>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C18" s="208"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="189" t="s">
         <v>442</v>
       </c>
-      <c r="C19" s="207"/>
-      <c r="D19" s="208"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C19" s="190"/>
+      <c r="D19" s="191"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20" s="171" t="s">
         <v>438</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="192" t="s">
         <v>443</v>
       </c>
-      <c r="C20" s="230"/>
-      <c r="D20" s="231"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C20" s="193"/>
+      <c r="D20" s="194"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="172" t="s">
         <v>444</v>
       </c>
-      <c r="B21" s="215"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6" t="s">
@@ -6307,91 +6316,91 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" customHeight="1" thickBot="1">
-      <c r="A25" s="218" t="s">
+      <c r="A25" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="219"/>
+      <c r="B25" s="178"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="223" t="s">
+      <c r="B26" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="224"/>
-      <c r="D26" s="225"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C26" s="184"/>
+      <c r="D26" s="185"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B27" s="226" t="s">
+      <c r="B27" s="186" t="s">
         <v>396</v>
       </c>
-      <c r="C27" s="227"/>
-      <c r="D27" s="228"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C27" s="187"/>
+      <c r="D27" s="188"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B28" s="206" t="s">
+      <c r="B28" s="189" t="s">
         <v>397</v>
       </c>
-      <c r="C28" s="207"/>
-      <c r="D28" s="208"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C28" s="190"/>
+      <c r="D28" s="191"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B29" s="206" t="s">
+      <c r="B29" s="189" t="s">
         <v>395</v>
       </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="208"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C29" s="190"/>
+      <c r="D29" s="191"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="189" t="s">
         <v>399</v>
       </c>
-      <c r="C30" s="207"/>
-      <c r="D30" s="208"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B31" s="206" t="s">
+      <c r="B31" s="189" t="s">
         <v>398</v>
       </c>
-      <c r="C31" s="207"/>
-      <c r="D31" s="208"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="191"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="163"/>
       <c r="B32" s="163"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A34" s="199" t="s">
+    <row r="34" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A34" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="182"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1"/>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="A37" s="29" t="s">
         <v>38</v>
       </c>
@@ -6408,7 +6417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15" thickBot="1">
       <c r="A38" s="9" t="s">
         <v>401</v>
       </c>
@@ -6424,8 +6433,11 @@
       <c r="E38" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F38" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="A39" s="9" t="s">
         <v>401</v>
       </c>
@@ -6441,8 +6453,11 @@
       <c r="E39" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" s="9" t="s">
         <v>401</v>
       </c>
@@ -6459,7 +6474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1">
       <c r="A41" s="9" t="s">
         <v>24</v>
       </c>
@@ -6476,7 +6491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -6493,7 +6508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" s="9" t="s">
         <v>24</v>
       </c>
@@ -6510,7 +6525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>401</v>
       </c>
@@ -6526,8 +6541,11 @@
       <c r="E44" s="9" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F44" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" s="9" t="s">
         <v>401</v>
       </c>
@@ -6544,7 +6562,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+    <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" s="9" t="s">
         <v>401</v>
       </c>
@@ -6561,7 +6579,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1">
+    <row r="47" spans="1:6" ht="15" thickBot="1">
       <c r="A47" s="9" t="s">
         <v>24</v>
       </c>
@@ -6578,7 +6596,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1">
+    <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="9" t="s">
         <v>24</v>
       </c>
@@ -6595,7 +6613,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1">
+    <row r="49" spans="1:11" ht="15" thickBot="1">
       <c r="A49" s="9" t="s">
         <v>24</v>
       </c>
@@ -6612,7 +6630,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1">
+    <row r="50" spans="1:11" ht="15" thickBot="1">
       <c r="A50" s="9" t="s">
         <v>401</v>
       </c>
@@ -6635,7 +6653,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1">
+    <row r="51" spans="1:11" ht="15" thickBot="1">
       <c r="A51" s="9" t="s">
         <v>401</v>
       </c>
@@ -6655,7 +6673,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" thickBot="1">
+    <row r="52" spans="1:11" ht="15" thickBot="1">
       <c r="A52" s="9" t="s">
         <v>401</v>
       </c>
@@ -6675,7 +6693,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1">
+    <row r="53" spans="1:11" ht="15" thickBot="1">
       <c r="A53" s="9" t="s">
         <v>24</v>
       </c>
@@ -6695,7 +6713,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1">
+    <row r="54" spans="1:11" ht="15" thickBot="1">
       <c r="A54" s="9" t="s">
         <v>24</v>
       </c>
@@ -6715,7 +6733,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1">
+    <row r="55" spans="1:11" ht="15" thickBot="1">
       <c r="A55" s="9" t="s">
         <v>24</v>
       </c>
@@ -6736,13 +6754,13 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="57" customHeight="1">
-      <c r="A58" s="199" t="s">
+      <c r="A58" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="199"/>
-      <c r="C58" s="199"/>
-      <c r="D58" s="199"/>
-      <c r="E58" s="199"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="179"/>
     </row>
     <row r="59" spans="1:11" ht="31.5" customHeight="1" thickBot="1"/>
     <row r="60" spans="1:11" ht="44.25" customHeight="1" thickBot="1">
@@ -6773,7 +6791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1">
+    <row r="62" spans="1:11" ht="15" thickBot="1">
       <c r="A62" s="53" t="s">
         <v>9</v>
       </c>
@@ -6787,7 +6805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1">
+    <row r="63" spans="1:11" ht="15" thickBot="1">
       <c r="A63" s="11" t="s">
         <v>9</v>
       </c>
@@ -6801,7 +6819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1">
+    <row r="64" spans="1:11" ht="15" thickBot="1">
       <c r="A64" s="11" t="s">
         <v>9</v>
       </c>
@@ -6829,7 +6847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+    <row r="66" spans="1:5" ht="15" thickBot="1">
       <c r="A66" s="11" t="s">
         <v>9</v>
       </c>
@@ -6855,18 +6873,18 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A69" s="199" t="s">
+      <c r="A69" s="179" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="199"/>
-      <c r="C69" s="199"/>
-      <c r="D69" s="199"/>
-      <c r="E69" s="199"/>
+      <c r="B69" s="179"/>
+      <c r="C69" s="179"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="179"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:5" ht="30">
+    <row r="71" spans="1:5" ht="29">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -6884,12 +6902,12 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="36" customHeight="1">
-      <c r="A74" s="199" t="s">
+      <c r="A74" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="B74" s="199"/>
-      <c r="C74" s="199"/>
-      <c r="D74" s="199"/>
+      <c r="B74" s="179"/>
+      <c r="C74" s="179"/>
+      <c r="D74" s="179"/>
       <c r="E74" s="8"/>
     </row>
     <row r="76" spans="1:5">
@@ -6901,14 +6919,14 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="199" t="s">
+      <c r="A79" s="179" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="199"/>
-      <c r="C79" s="199"/>
-      <c r="D79" s="199"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1"/>
+      <c r="B79" s="179"/>
+      <c r="C79" s="179"/>
+      <c r="D79" s="179"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1"/>
     <row r="81" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A81" s="27" t="s">
         <v>176</v>
@@ -6920,7 +6938,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1">
+    <row r="82" spans="1:5" ht="15" thickBot="1">
       <c r="A82" s="9" t="s">
         <v>179</v>
       </c>
@@ -6931,7 +6949,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1">
+    <row r="83" spans="1:5" ht="15" thickBot="1">
       <c r="A83" s="9" t="s">
         <v>405</v>
       </c>
@@ -6942,7 +6960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1">
+    <row r="84" spans="1:5" ht="15" thickBot="1">
       <c r="A84" s="9" t="s">
         <v>9</v>
       </c>
@@ -6953,7 +6971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1">
+    <row r="85" spans="1:5" ht="15" thickBot="1">
       <c r="A85" s="9" t="s">
         <v>9</v>
       </c>
@@ -6964,7 +6982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1">
+    <row r="86" spans="1:5" ht="15" thickBot="1">
       <c r="A86" s="9" t="s">
         <v>9</v>
       </c>
@@ -6975,7 +6993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1">
+    <row r="87" spans="1:5" ht="15" thickBot="1">
       <c r="A87" s="9" t="s">
         <v>9</v>
       </c>
@@ -6987,15 +7005,15 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A90" s="200" t="s">
+      <c r="A90" s="197" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="200"/>
-      <c r="C90" s="196"/>
-      <c r="D90" s="196"/>
-      <c r="E90" s="196"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1"/>
+      <c r="B90" s="197"/>
+      <c r="C90" s="198"/>
+      <c r="D90" s="198"/>
+      <c r="E90" s="198"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1"/>
     <row r="92" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A92" s="26" t="s">
         <v>43</v>
@@ -7024,7 +7042,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="45.75" thickBot="1">
+    <row r="94" spans="1:5" ht="29.5" thickBot="1">
       <c r="A94" s="9" t="s">
         <v>21</v>
       </c>
@@ -7038,7 +7056,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1">
+    <row r="95" spans="1:5" ht="15" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>9</v>
       </c>
@@ -7052,7 +7070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1">
+    <row r="96" spans="1:5" ht="15" thickBot="1">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
@@ -7066,7 +7084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1">
+    <row r="97" spans="1:4" ht="15" thickBot="1">
       <c r="A97" s="5" t="s">
         <v>9</v>
       </c>
@@ -7080,7 +7098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1">
+    <row r="98" spans="1:4" ht="15" thickBot="1">
       <c r="A98" s="5" t="s">
         <v>9</v>
       </c>
@@ -7095,10 +7113,10 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="201" t="s">
+      <c r="A101" s="199" t="s">
         <v>187</v>
       </c>
-      <c r="B101" s="201"/>
+      <c r="B101" s="199"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
@@ -7114,19 +7132,19 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A107" s="195" t="s">
+      <c r="A107" s="215" t="s">
         <v>190</v>
       </c>
-      <c r="B107" s="196"/>
-      <c r="C107" s="196"/>
-      <c r="D107" s="196"/>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B107" s="198"/>
+      <c r="C107" s="198"/>
+      <c r="D107" s="198"/>
+    </row>
+    <row r="108" spans="1:4" ht="15" thickBot="1">
       <c r="A108" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1">
+    <row r="109" spans="1:4" ht="15" thickBot="1">
       <c r="A109" s="25" t="s">
         <v>38</v>
       </c>
@@ -7140,13 +7158,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1">
+    <row r="110" spans="1:4" ht="15" thickBot="1">
       <c r="A110" s="53"/>
       <c r="B110" s="53"/>
       <c r="C110" s="53"/>
       <c r="D110" s="59"/>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1">
+    <row r="111" spans="1:4" ht="15" thickBot="1">
       <c r="A111" s="53" t="s">
         <v>9</v>
       </c>
@@ -7160,7 +7178,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1">
+    <row r="112" spans="1:4" ht="15" thickBot="1">
       <c r="A112" s="53" t="s">
         <v>9</v>
       </c>
@@ -7174,7 +7192,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1">
+    <row r="113" spans="1:4" ht="15" thickBot="1">
       <c r="A113" s="53" t="s">
         <v>9</v>
       </c>
@@ -7188,7 +7206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1">
+    <row r="114" spans="1:4" ht="15" thickBot="1">
       <c r="A114" s="53" t="s">
         <v>9</v>
       </c>
@@ -7202,7 +7220,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1">
+    <row r="115" spans="1:4" ht="15" thickBot="1">
       <c r="A115" s="53" t="s">
         <v>9</v>
       </c>
@@ -7235,14 +7253,14 @@
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A119" s="189" t="s">
+      <c r="A119" s="213" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="189"/>
-      <c r="C119" s="190"/>
-      <c r="D119" s="190"/>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B119" s="213"/>
+      <c r="C119" s="214"/>
+      <c r="D119" s="214"/>
+    </row>
+    <row r="120" spans="1:4" ht="15" thickBot="1">
       <c r="A120" s="25" t="s">
         <v>38</v>
       </c>
@@ -7256,7 +7274,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45.75" thickBot="1">
+    <row r="121" spans="1:4" ht="29.5" thickBot="1">
       <c r="A121" s="56" t="s">
         <v>169</v>
       </c>
@@ -7270,40 +7288,40 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1">
+    <row r="122" spans="1:4" ht="15" thickBot="1">
       <c r="A122" s="53"/>
       <c r="B122" s="53"/>
       <c r="C122" s="53"/>
       <c r="D122" s="55"/>
     </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1">
+    <row r="123" spans="1:4" ht="15" thickBot="1">
       <c r="A123" s="53"/>
       <c r="B123" s="53"/>
       <c r="C123" s="53"/>
       <c r="D123" s="55"/>
     </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1">
+    <row r="124" spans="1:4" ht="15" thickBot="1">
       <c r="A124" s="53"/>
       <c r="B124" s="53"/>
       <c r="C124" s="53"/>
       <c r="D124" s="55"/>
     </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1">
+    <row r="125" spans="1:4" ht="15" thickBot="1">
       <c r="A125" s="53"/>
       <c r="B125" s="53"/>
       <c r="C125" s="53"/>
       <c r="D125" s="55"/>
     </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1">
+    <row r="126" spans="1:4" ht="15" thickBot="1">
       <c r="A126" s="53"/>
       <c r="B126" s="53"/>
       <c r="C126" s="53"/>
       <c r="D126" s="55"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="197"/>
-      <c r="B127" s="197"/>
-      <c r="C127" s="198"/>
+      <c r="A127" s="216"/>
+      <c r="B127" s="216"/>
+      <c r="C127" s="217"/>
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4">
@@ -7312,7 +7330,7 @@
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" ht="20.25">
+    <row r="129" spans="1:4" ht="20.5">
       <c r="A129" s="36" t="s">
         <v>246</v>
       </c>
@@ -7321,14 +7339,14 @@
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A130" s="188" t="s">
+      <c r="A130" s="212" t="s">
         <v>409</v>
       </c>
-      <c r="B130" s="188"/>
-      <c r="C130" s="182"/>
-      <c r="D130" s="182"/>
-    </row>
-    <row r="131" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B130" s="212"/>
+      <c r="C130" s="175"/>
+      <c r="D130" s="175"/>
+    </row>
+    <row r="131" spans="1:4" ht="28.5" thickBot="1">
       <c r="A131" s="25" t="s">
         <v>195</v>
       </c>
@@ -7340,7 +7358,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" ht="30.75" thickBot="1">
+    <row r="132" spans="1:4" ht="28.5" thickBot="1">
       <c r="A132" s="53" t="s">
         <v>198</v>
       </c>
@@ -7352,7 +7370,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1">
+    <row r="133" spans="1:4" ht="15" thickBot="1">
       <c r="A133" s="53" t="s">
         <v>247</v>
       </c>
@@ -7364,7 +7382,7 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1">
+    <row r="134" spans="1:4" ht="15" thickBot="1">
       <c r="A134" s="53" t="s">
         <v>407</v>
       </c>
@@ -7376,7 +7394,7 @@
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1">
+    <row r="135" spans="1:4" ht="15" thickBot="1">
       <c r="A135" s="53" t="s">
         <v>408</v>
       </c>
@@ -7388,7 +7406,7 @@
       </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1">
+    <row r="136" spans="1:4" ht="15" thickBot="1">
       <c r="A136" s="53" t="s">
         <v>9</v>
       </c>
@@ -7400,7 +7418,7 @@
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1">
+    <row r="137" spans="1:4" ht="15" thickBot="1">
       <c r="A137" s="53" t="s">
         <v>9</v>
       </c>
@@ -7412,7 +7430,7 @@
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1">
+    <row r="138" spans="1:4" ht="15" thickBot="1">
       <c r="A138" s="53" t="s">
         <v>9</v>
       </c>
@@ -7424,7 +7442,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1">
+    <row r="139" spans="1:4" ht="15" thickBot="1">
       <c r="A139" s="53" t="s">
         <v>9</v>
       </c>
@@ -7436,7 +7454,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1">
+    <row r="140" spans="1:4" ht="15" thickBot="1">
       <c r="A140" s="53" t="s">
         <v>9</v>
       </c>
@@ -7448,7 +7466,7 @@
       </c>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1">
+    <row r="141" spans="1:4" ht="15" thickBot="1">
       <c r="A141" s="53" t="s">
         <v>9</v>
       </c>
@@ -7460,7 +7478,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1">
+    <row r="142" spans="1:4" ht="15" thickBot="1">
       <c r="A142" s="53" t="s">
         <v>9</v>
       </c>
@@ -7472,7 +7490,7 @@
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1">
+    <row r="143" spans="1:4" ht="15" thickBot="1">
       <c r="A143" s="53" t="s">
         <v>9</v>
       </c>
@@ -7484,7 +7502,7 @@
       </c>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1">
+    <row r="144" spans="1:4" ht="15" thickBot="1">
       <c r="A144" s="53" t="s">
         <v>9</v>
       </c>
@@ -7502,7 +7520,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="20.25">
+    <row r="146" spans="1:4" ht="20.5">
       <c r="A146" s="36" t="s">
         <v>200</v>
       </c>
@@ -7511,14 +7529,14 @@
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A147" s="188" t="s">
+      <c r="A147" s="212" t="s">
         <v>201</v>
       </c>
-      <c r="B147" s="188"/>
-      <c r="C147" s="182"/>
-      <c r="D147" s="182"/>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B147" s="212"/>
+      <c r="C147" s="175"/>
+      <c r="D147" s="175"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" thickBot="1">
       <c r="A148" s="25" t="s">
         <v>202</v>
       </c>
@@ -7530,7 +7548,7 @@
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1">
+    <row r="149" spans="1:4" ht="15" thickBot="1">
       <c r="A149" s="53" t="s">
         <v>204</v>
       </c>
@@ -7542,7 +7560,7 @@
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1">
+    <row r="150" spans="1:4" ht="15" thickBot="1">
       <c r="A150" s="53" t="s">
         <v>410</v>
       </c>
@@ -7554,7 +7572,7 @@
       </c>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1">
+    <row r="151" spans="1:4" ht="15" thickBot="1">
       <c r="A151" s="53" t="s">
         <v>9</v>
       </c>
@@ -7565,10 +7583,10 @@
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="175" t="s">
+      <c r="A152" s="219" t="s">
         <v>252</v>
       </c>
-      <c r="B152" s="175"/>
+      <c r="B152" s="219"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
@@ -7579,14 +7597,14 @@
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A154" s="188" t="s">
+      <c r="A154" s="212" t="s">
         <v>251</v>
       </c>
-      <c r="B154" s="188"/>
-      <c r="C154" s="182"/>
-      <c r="D154" s="182"/>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B154" s="212"/>
+      <c r="C154" s="175"/>
+      <c r="D154" s="175"/>
+    </row>
+    <row r="155" spans="1:4" ht="15" thickBot="1">
       <c r="A155" s="25" t="s">
         <v>203</v>
       </c>
@@ -7596,7 +7614,7 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" ht="15.75" thickBot="1">
+    <row r="156" spans="1:4" ht="15" thickBot="1">
       <c r="A156" s="54" t="s">
         <v>459</v>
       </c>
@@ -7606,13 +7624,13 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" ht="15.75" thickBot="1">
+    <row r="157" spans="1:4" ht="15" thickBot="1">
       <c r="A157" s="53"/>
       <c r="B157" s="55"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" ht="15.75" thickBot="1">
+    <row r="158" spans="1:4" ht="15" thickBot="1">
       <c r="A158" s="53"/>
       <c r="B158" s="55"/>
       <c r="C158" s="2"/>
@@ -7631,14 +7649,14 @@
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A161" s="189" t="s">
+      <c r="A161" s="213" t="s">
         <v>205</v>
       </c>
-      <c r="B161" s="189"/>
-      <c r="C161" s="190"/>
-      <c r="D161" s="190"/>
-    </row>
-    <row r="162" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B161" s="213"/>
+      <c r="C161" s="214"/>
+      <c r="D161" s="214"/>
+    </row>
+    <row r="162" spans="1:4" ht="28.5" thickBot="1">
       <c r="A162" s="25" t="s">
         <v>202</v>
       </c>
@@ -7652,19 +7670,19 @@
         <v>207</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1">
+    <row r="163" spans="1:4" ht="15" thickBot="1">
       <c r="A163" s="53"/>
       <c r="B163" s="53"/>
       <c r="C163" s="53"/>
       <c r="D163" s="55"/>
     </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1">
+    <row r="164" spans="1:4" ht="15" thickBot="1">
       <c r="A164" s="53"/>
       <c r="B164" s="53"/>
       <c r="C164" s="53"/>
       <c r="D164" s="55"/>
     </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1">
+    <row r="165" spans="1:4" ht="15" thickBot="1">
       <c r="A165" s="53" t="s">
         <v>9</v>
       </c>
@@ -7678,7 +7696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1">
+    <row r="166" spans="1:4" ht="15" thickBot="1">
       <c r="A166" s="53" t="s">
         <v>9</v>
       </c>
@@ -7707,14 +7725,14 @@
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4" ht="39" customHeight="1" thickBot="1">
-      <c r="A169" s="176" t="s">
+      <c r="A169" s="218" t="s">
         <v>253</v>
       </c>
-      <c r="B169" s="176"/>
+      <c r="B169" s="218"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1">
+    <row r="170" spans="1:4" ht="15" thickBot="1">
       <c r="A170" s="25" t="s">
         <v>208</v>
       </c>
@@ -7724,7 +7742,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4" ht="30.75" thickBot="1">
+    <row r="171" spans="1:4" ht="28.5" thickBot="1">
       <c r="A171" s="53" t="s">
         <v>463</v>
       </c>
@@ -7734,7 +7752,7 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1">
+    <row r="172" spans="1:4" ht="15" thickBot="1">
       <c r="A172" s="53" t="s">
         <v>464</v>
       </c>
@@ -7744,7 +7762,7 @@
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1">
+    <row r="173" spans="1:4" ht="15" thickBot="1">
       <c r="A173" s="53" t="s">
         <v>9</v>
       </c>
@@ -7755,10 +7773,10 @@
       <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="175" t="s">
+      <c r="A174" s="219" t="s">
         <v>209</v>
       </c>
-      <c r="B174" s="175"/>
+      <c r="B174" s="219"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
@@ -7769,22 +7787,22 @@
       <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A176" s="180" t="s">
+      <c r="A176" s="220" t="s">
         <v>210</v>
       </c>
-      <c r="B176" s="180"/>
-      <c r="C176" s="182"/>
-      <c r="D176" s="182"/>
+      <c r="B176" s="220"/>
+      <c r="C176" s="175"/>
+      <c r="D176" s="175"/>
     </row>
     <row r="177" spans="1:7" ht="24" customHeight="1" thickBot="1">
       <c r="A177" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B177" s="192" t="s">
+      <c r="B177" s="222" t="s">
         <v>412</v>
       </c>
-      <c r="C177" s="193"/>
-      <c r="D177" s="194"/>
+      <c r="C177" s="223"/>
+      <c r="D177" s="224"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2"/>
@@ -7793,14 +7811,14 @@
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A179" s="191" t="s">
+      <c r="A179" s="221" t="s">
         <v>212</v>
       </c>
-      <c r="B179" s="191"/>
-      <c r="C179" s="182"/>
-      <c r="D179" s="182"/>
-    </row>
-    <row r="180" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B179" s="221"/>
+      <c r="C179" s="175"/>
+      <c r="D179" s="175"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" thickBot="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7817,7 +7835,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="60.75" thickBot="1">
+    <row r="182" spans="1:7" ht="56.5" thickBot="1">
       <c r="A182" s="53" t="s">
         <v>466</v>
       </c>
@@ -7829,7 +7847,7 @@
       </c>
       <c r="G182" s="166"/>
     </row>
-    <row r="183" spans="1:7" ht="45.75" thickBot="1">
+    <row r="183" spans="1:7" ht="42.5" thickBot="1">
       <c r="A183" s="53" t="s">
         <v>469</v>
       </c>
@@ -7841,7 +7859,7 @@
       </c>
       <c r="G183" s="166"/>
     </row>
-    <row r="184" spans="1:7" ht="15.75" thickBot="1">
+    <row r="184" spans="1:7" ht="15" thickBot="1">
       <c r="A184" s="53" t="s">
         <v>9</v>
       </c>
@@ -7853,20 +7871,20 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="175"/>
-      <c r="B185" s="175"/>
+      <c r="A185" s="219"/>
+      <c r="B185" s="219"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="39"/>
       <c r="B186" s="39"/>
     </row>
     <row r="187" spans="1:7" ht="63" customHeight="1" thickBot="1">
-      <c r="A187" s="189" t="s">
+      <c r="A187" s="213" t="s">
         <v>215</v>
       </c>
-      <c r="B187" s="189"/>
-      <c r="C187" s="190"/>
-      <c r="D187" s="190"/>
+      <c r="B187" s="213"/>
+      <c r="C187" s="214"/>
+      <c r="D187" s="214"/>
     </row>
     <row r="188" spans="1:7" ht="26.25" customHeight="1" thickBot="1">
       <c r="A188" s="25" t="s">
@@ -7882,7 +7900,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" thickBot="1">
+    <row r="189" spans="1:7" ht="15" thickBot="1">
       <c r="A189" s="53" t="s">
         <v>199</v>
       </c>
@@ -7890,7 +7908,7 @@
       <c r="C189" s="53"/>
       <c r="D189" s="55"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" thickBot="1">
+    <row r="190" spans="1:7" ht="15" thickBot="1">
       <c r="A190" s="53" t="s">
         <v>257</v>
       </c>
@@ -7898,7 +7916,7 @@
       <c r="C190" s="53"/>
       <c r="D190" s="55"/>
     </row>
-    <row r="191" spans="1:7" ht="15.75" thickBot="1">
+    <row r="191" spans="1:7" ht="15" thickBot="1">
       <c r="A191" s="53" t="s">
         <v>258</v>
       </c>
@@ -7907,26 +7925,26 @@
       <c r="D191" s="55"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="187"/>
-      <c r="B192" s="187"/>
+      <c r="A192" s="230"/>
+      <c r="B192" s="230"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="41"/>
       <c r="B193" s="41"/>
     </row>
     <row r="194" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A194" s="188" t="s">
+      <c r="A194" s="212" t="s">
         <v>259</v>
       </c>
-      <c r="B194" s="188"/>
-      <c r="C194" s="182"/>
-      <c r="D194" s="182"/>
+      <c r="B194" s="212"/>
+      <c r="C194" s="175"/>
+      <c r="D194" s="175"/>
       <c r="F194" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="196" spans="1:6" ht="15.75" thickBot="1">
+    <row r="195" spans="1:6" ht="15" thickBot="1"/>
+    <row r="196" spans="1:6" ht="15" thickBot="1">
       <c r="A196" s="25" t="s">
         <v>217</v>
       </c>
@@ -7934,7 +7952,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="30.75" thickBot="1">
+    <row r="197" spans="1:6" ht="28.5" thickBot="1">
       <c r="A197" s="53" t="s">
         <v>260</v>
       </c>
@@ -7942,15 +7960,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" thickBot="1">
+    <row r="198" spans="1:6" ht="15" thickBot="1">
       <c r="A198" s="53"/>
       <c r="B198" s="55"/>
     </row>
-    <row r="199" spans="1:6" ht="15.75" thickBot="1">
+    <row r="199" spans="1:6" ht="15" thickBot="1">
       <c r="A199" s="53"/>
       <c r="B199" s="55"/>
     </row>
-    <row r="200" spans="1:6" ht="15.75" thickBot="1">
+    <row r="200" spans="1:6" ht="15" thickBot="1">
       <c r="A200" s="53"/>
       <c r="B200" s="55"/>
     </row>
@@ -7960,7 +7978,7 @@
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:6" ht="20.25">
+    <row r="202" spans="1:6" ht="20.5">
       <c r="A202" s="42" t="s">
         <v>262</v>
       </c>
@@ -7968,14 +7986,14 @@
       <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A203" s="183" t="s">
+      <c r="A203" s="225" t="s">
         <v>218</v>
       </c>
-      <c r="B203" s="183"/>
-      <c r="C203" s="184"/>
-      <c r="D203" s="184"/>
-    </row>
-    <row r="204" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B203" s="225"/>
+      <c r="C203" s="226"/>
+      <c r="D203" s="226"/>
+    </row>
+    <row r="204" spans="1:6" ht="15" thickBot="1">
       <c r="A204" s="22" t="s">
         <v>219</v>
       </c>
@@ -7985,7 +8003,7 @@
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1">
+    <row r="205" spans="1:6" ht="15" thickBot="1">
       <c r="A205" s="53" t="s">
         <v>263</v>
       </c>
@@ -7995,7 +8013,7 @@
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1">
+    <row r="206" spans="1:6" ht="15" thickBot="1">
       <c r="A206" s="53"/>
       <c r="B206" s="55" t="s">
         <v>415</v>
@@ -8003,7 +8021,7 @@
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:6" ht="15.75" thickBot="1">
+    <row r="207" spans="1:6" ht="15" thickBot="1">
       <c r="A207" s="53"/>
       <c r="B207" s="55" t="s">
         <v>416</v>
@@ -8011,7 +8029,7 @@
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:6" ht="15.75" thickBot="1">
+    <row r="208" spans="1:6" ht="15" thickBot="1">
       <c r="A208" s="53" t="s">
         <v>9</v>
       </c>
@@ -8022,8 +8040,8 @@
       <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="175"/>
-      <c r="B209" s="175"/>
+      <c r="A209" s="219"/>
+      <c r="B209" s="219"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
     </row>
@@ -8034,17 +8052,17 @@
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A211" s="178" t="s">
+      <c r="A211" s="227" t="s">
         <v>264</v>
       </c>
-      <c r="B211" s="178"/>
-      <c r="C211" s="179"/>
-      <c r="D211" s="179"/>
+      <c r="B211" s="227"/>
+      <c r="C211" s="176"/>
+      <c r="D211" s="176"/>
       <c r="F211" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" thickBot="1">
+    <row r="212" spans="1:6" ht="15" thickBot="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -8053,7 +8071,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" thickBot="1">
+    <row r="213" spans="1:6" ht="15" thickBot="1">
       <c r="A213" s="25" t="s">
         <v>220</v>
       </c>
@@ -8061,42 +8079,42 @@
         <v>197</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" thickBot="1">
+    <row r="214" spans="1:6" ht="15" thickBot="1">
       <c r="A214" s="53" t="s">
         <v>472</v>
       </c>
       <c r="B214" s="55"/>
     </row>
-    <row r="215" spans="1:6" ht="30.75" thickBot="1">
+    <row r="215" spans="1:6" ht="28.5" thickBot="1">
       <c r="A215" s="53" t="s">
         <v>473</v>
       </c>
       <c r="B215" s="55"/>
     </row>
-    <row r="216" spans="1:6" ht="15.75" thickBot="1">
+    <row r="216" spans="1:6" ht="15" thickBot="1">
       <c r="A216" s="53"/>
       <c r="B216" s="55"/>
     </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1">
+    <row r="217" spans="1:6" ht="15" thickBot="1">
       <c r="A217" s="53"/>
       <c r="B217" s="55"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="175"/>
-      <c r="B218" s="175"/>
+      <c r="A218" s="219"/>
+      <c r="B218" s="219"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="43"/>
     </row>
     <row r="220" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A220" s="185" t="s">
+      <c r="A220" s="228" t="s">
         <v>265</v>
       </c>
-      <c r="B220" s="185"/>
-      <c r="C220" s="186"/>
-      <c r="D220" s="186"/>
-    </row>
-    <row r="221" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B220" s="228"/>
+      <c r="C220" s="229"/>
+      <c r="D220" s="229"/>
+    </row>
+    <row r="221" spans="1:6" ht="15" thickBot="1">
       <c r="A221" s="25" t="s">
         <v>43</v>
       </c>
@@ -8110,7 +8128,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" thickBot="1">
+    <row r="222" spans="1:6" ht="15" thickBot="1">
       <c r="A222" s="53" t="s">
         <v>255</v>
       </c>
@@ -8118,7 +8136,7 @@
       <c r="C222" s="53"/>
       <c r="D222" s="55"/>
     </row>
-    <row r="223" spans="1:6" ht="15.75" thickBot="1">
+    <row r="223" spans="1:6" ht="15" thickBot="1">
       <c r="A223" s="53" t="s">
         <v>250</v>
       </c>
@@ -8126,7 +8144,7 @@
       <c r="C223" s="53"/>
       <c r="D223" s="55"/>
     </row>
-    <row r="224" spans="1:6" ht="15.75" thickBot="1">
+    <row r="224" spans="1:6" ht="15" thickBot="1">
       <c r="A224" s="53" t="s">
         <v>256</v>
       </c>
@@ -8143,14 +8161,14 @@
       <c r="B226" s="39"/>
     </row>
     <row r="227" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A227" s="180" t="s">
+      <c r="A227" s="220" t="s">
         <v>221</v>
       </c>
-      <c r="B227" s="180"/>
-      <c r="C227" s="182"/>
-      <c r="D227" s="182"/>
-    </row>
-    <row r="228" spans="1:5" ht="45">
+      <c r="B227" s="220"/>
+      <c r="C227" s="175"/>
+      <c r="D227" s="175"/>
+    </row>
+    <row r="228" spans="1:5" ht="43.5">
       <c r="A228" s="44" t="s">
         <v>222</v>
       </c>
@@ -8159,12 +8177,12 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="36" customHeight="1">
-      <c r="A230" s="178" t="s">
+      <c r="A230" s="227" t="s">
         <v>223</v>
       </c>
-      <c r="B230" s="178"/>
-      <c r="C230" s="179"/>
-      <c r="D230" s="179"/>
+      <c r="B230" s="227"/>
+      <c r="C230" s="176"/>
+      <c r="D230" s="176"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="44" t="s">
@@ -8180,20 +8198,20 @@
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:5" ht="20.25">
+    <row r="233" spans="1:5" ht="20">
       <c r="A233" s="45" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A234" s="178" t="s">
+      <c r="A234" s="227" t="s">
         <v>224</v>
       </c>
-      <c r="B234" s="178"/>
-      <c r="C234" s="179"/>
-      <c r="D234" s="179"/>
-    </row>
-    <row r="235" spans="1:5" ht="105">
+      <c r="B234" s="227"/>
+      <c r="C234" s="176"/>
+      <c r="D234" s="176"/>
+    </row>
+    <row r="235" spans="1:5" ht="87">
       <c r="A235" s="44" t="s">
         <v>222</v>
       </c>
@@ -8201,18 +8219,18 @@
         <v>474</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="20.25">
+    <row r="237" spans="1:5" ht="20">
       <c r="A237" s="45" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A238" s="178" t="s">
+      <c r="A238" s="227" t="s">
         <v>225</v>
       </c>
-      <c r="B238" s="178"/>
-      <c r="C238" s="179"/>
-      <c r="D238" s="179"/>
+      <c r="B238" s="227"/>
+      <c r="C238" s="176"/>
+      <c r="D238" s="176"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="44" t="s">
@@ -8239,12 +8257,12 @@
       </c>
     </row>
     <row r="243" spans="1:5" ht="33" customHeight="1">
-      <c r="A243" s="178" t="s">
+      <c r="A243" s="227" t="s">
         <v>226</v>
       </c>
-      <c r="B243" s="178"/>
-      <c r="C243" s="179"/>
-      <c r="D243" s="179"/>
+      <c r="B243" s="227"/>
+      <c r="C243" s="176"/>
+      <c r="D243" s="176"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="44" t="s">
@@ -8258,10 +8276,10 @@
       </c>
     </row>
     <row r="245" spans="1:5" ht="144.75" customHeight="1">
-      <c r="D245" s="250" t="s">
+      <c r="D245" s="232" t="s">
         <v>486</v>
       </c>
-      <c r="E245" s="251"/>
+      <c r="E245" s="233"/>
     </row>
     <row r="246" spans="1:5">
       <c r="D246" t="s">
@@ -8277,12 +8295,12 @@
       </c>
     </row>
     <row r="249" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A249" s="178" t="s">
+      <c r="A249" s="227" t="s">
         <v>227</v>
       </c>
-      <c r="B249" s="178"/>
-      <c r="C249" s="179"/>
-      <c r="D249" s="179"/>
+      <c r="B249" s="227"/>
+      <c r="C249" s="176"/>
+      <c r="D249" s="176"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="44" t="s">
@@ -8293,12 +8311,12 @@
       </c>
     </row>
     <row r="252" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A252" s="180" t="s">
+      <c r="A252" s="220" t="s">
         <v>228</v>
       </c>
-      <c r="B252" s="180"/>
-      <c r="C252" s="179"/>
-      <c r="D252" s="179"/>
+      <c r="B252" s="220"/>
+      <c r="C252" s="176"/>
+      <c r="D252" s="176"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="44" t="s">
@@ -8311,18 +8329,18 @@
         <v>489</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="20.25">
+    <row r="255" spans="1:5" ht="20">
       <c r="A255" s="45" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="45" customHeight="1">
-      <c r="A256" s="178" t="s">
+      <c r="A256" s="227" t="s">
         <v>229</v>
       </c>
-      <c r="B256" s="178"/>
-      <c r="C256" s="179"/>
-      <c r="D256" s="179"/>
+      <c r="B256" s="227"/>
+      <c r="C256" s="176"/>
+      <c r="D256" s="176"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="44" t="s">
@@ -8349,21 +8367,21 @@
         <v>491</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="20.25">
+    <row r="260" spans="1:5" ht="20">
       <c r="A260" s="45" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="42" customHeight="1">
-      <c r="A261" s="181" t="s">
+      <c r="A261" s="231" t="s">
         <v>230</v>
       </c>
-      <c r="B261" s="181"/>
-      <c r="C261" s="179"/>
-      <c r="D261" s="179"/>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="263" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B261" s="231"/>
+      <c r="C261" s="176"/>
+      <c r="D261" s="176"/>
+    </row>
+    <row r="262" spans="1:5" ht="15" thickBot="1"/>
+    <row r="263" spans="1:5" ht="15" thickBot="1">
       <c r="A263" s="25" t="s">
         <v>231</v>
       </c>
@@ -8371,7 +8389,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="75.75" thickBot="1">
+    <row r="264" spans="1:5" ht="70.5" thickBot="1">
       <c r="A264" s="53" t="s">
         <v>232</v>
       </c>
@@ -8382,7 +8400,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="60.75" thickBot="1">
+    <row r="265" spans="1:5" ht="56.5" thickBot="1">
       <c r="A265" s="53" t="s">
         <v>492</v>
       </c>
@@ -8393,7 +8411,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="165.75" thickBot="1">
+    <row r="266" spans="1:5" ht="154.5" thickBot="1">
       <c r="A266" s="53" t="s">
         <v>493</v>
       </c>
@@ -8404,49 +8422,49 @@
         <v>499</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="75.75" thickBot="1">
+    <row r="267" spans="1:5" ht="70.5" thickBot="1">
       <c r="A267" s="53" t="s">
         <v>494</v>
       </c>
       <c r="B267" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="C267" s="252" t="s">
+      <c r="C267" s="234" t="s">
         <v>500</v>
       </c>
-      <c r="D267" s="249"/>
-      <c r="E267" s="249"/>
+      <c r="D267" s="235"/>
+      <c r="E267" s="235"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="39"/>
       <c r="B268" s="39"/>
     </row>
-    <row r="269" spans="1:5" ht="20.25">
+    <row r="269" spans="1:5" ht="20">
       <c r="A269" s="45" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A270" s="178" t="s">
+      <c r="A270" s="227" t="s">
         <v>233</v>
       </c>
-      <c r="B270" s="179"/>
+      <c r="B270" s="176"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="47"/>
     </row>
-    <row r="272" spans="1:5" ht="20.25">
+    <row r="272" spans="1:5" ht="20">
       <c r="A272" s="45" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A273" s="178" t="s">
+      <c r="A273" s="227" t="s">
         <v>234</v>
       </c>
-      <c r="B273" s="178"/>
-      <c r="C273" s="179"/>
-      <c r="D273" s="179"/>
+      <c r="B273" s="227"/>
+      <c r="C273" s="176"/>
+      <c r="D273" s="176"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="44" t="s">
@@ -8457,12 +8475,12 @@
       </c>
     </row>
     <row r="276" spans="1:4" ht="42.75" customHeight="1">
-      <c r="A276" s="178" t="s">
+      <c r="A276" s="227" t="s">
         <v>235</v>
       </c>
-      <c r="B276" s="178"/>
-      <c r="C276" s="179"/>
-      <c r="D276" s="179"/>
+      <c r="B276" s="227"/>
+      <c r="C276" s="176"/>
+      <c r="D276" s="176"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="44" t="s">
@@ -8474,16 +8492,16 @@
     </row>
     <row r="278" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="279" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A279" s="178" t="s">
+      <c r="A279" s="227" t="s">
         <v>236</v>
       </c>
-      <c r="B279" s="178"/>
+      <c r="B279" s="227"/>
     </row>
     <row r="280" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A280" s="178" t="s">
+      <c r="A280" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="B280" s="178"/>
+      <c r="B280" s="227"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="44" t="s">
@@ -8494,14 +8512,14 @@
       </c>
     </row>
     <row r="283" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A283" s="176" t="s">
+      <c r="A283" s="218" t="s">
         <v>238</v>
       </c>
-      <c r="B283" s="176"/>
-      <c r="C283" s="177"/>
-      <c r="D283" s="177"/>
-    </row>
-    <row r="284" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B283" s="218"/>
+      <c r="C283" s="236"/>
+      <c r="D283" s="236"/>
+    </row>
+    <row r="284" spans="1:4" ht="15" thickBot="1">
       <c r="A284" s="25" t="s">
         <v>43</v>
       </c>
@@ -8515,7 +8533,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" thickBot="1">
+    <row r="285" spans="1:4" ht="15" thickBot="1">
       <c r="A285" s="11" t="s">
         <v>170</v>
       </c>
@@ -8523,7 +8541,7 @@
       <c r="C285" s="11"/>
       <c r="D285" s="12"/>
     </row>
-    <row r="286" spans="1:4" ht="15.75" thickBot="1">
+    <row r="286" spans="1:4" ht="15" thickBot="1">
       <c r="A286" s="11" t="s">
         <v>193</v>
       </c>
@@ -8532,14 +8550,14 @@
       <c r="D286" s="12"/>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="175"/>
-      <c r="B287" s="175"/>
+      <c r="A287" s="219"/>
+      <c r="B287" s="219"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="39"/>
       <c r="B288" s="39"/>
     </row>
-    <row r="289" spans="1:4" ht="20.25">
+    <row r="289" spans="1:4" ht="20">
       <c r="A289" s="45" t="s">
         <v>158</v>
       </c>
@@ -8549,21 +8567,21 @@
         <v>233</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="20.25">
+    <row r="291" spans="1:4" ht="20">
       <c r="A291" s="48"/>
     </row>
-    <row r="292" spans="1:4" ht="20.25">
+    <row r="292" spans="1:4" ht="20">
       <c r="A292" s="45" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="39" customHeight="1">
-      <c r="A293" s="178" t="s">
+      <c r="A293" s="227" t="s">
         <v>240</v>
       </c>
-      <c r="B293" s="178"/>
-      <c r="C293" s="179"/>
-      <c r="D293" s="179"/>
+      <c r="B293" s="227"/>
+      <c r="C293" s="176"/>
+      <c r="D293" s="176"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="44" t="s">
@@ -8574,15 +8592,15 @@
       </c>
     </row>
     <row r="296" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A296" s="176" t="s">
+      <c r="A296" s="218" t="s">
         <v>241</v>
       </c>
-      <c r="B296" s="176"/>
-      <c r="C296" s="177"/>
-      <c r="D296" s="177"/>
-    </row>
-    <row r="297" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="298" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B296" s="218"/>
+      <c r="C296" s="236"/>
+      <c r="D296" s="236"/>
+    </row>
+    <row r="297" spans="1:4" ht="15" thickBot="1"/>
+    <row r="298" spans="1:4" ht="15" thickBot="1">
       <c r="A298" s="33" t="s">
         <v>43</v>
       </c>
@@ -8596,7 +8614,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" thickBot="1">
+    <row r="299" spans="1:4" ht="15" thickBot="1">
       <c r="A299" s="11" t="s">
         <v>243</v>
       </c>
@@ -8604,13 +8622,13 @@
       <c r="C299" s="11"/>
       <c r="D299" s="60"/>
     </row>
-    <row r="300" spans="1:4" ht="15.75" thickBot="1">
+    <row r="300" spans="1:4" ht="15" thickBot="1">
       <c r="A300" s="11"/>
       <c r="B300" s="40"/>
       <c r="C300" s="11"/>
       <c r="D300" s="12"/>
     </row>
-    <row r="301" spans="1:4" ht="15.75" thickBot="1">
+    <row r="301" spans="1:4" ht="15" thickBot="1">
       <c r="A301" s="11"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
@@ -8622,6 +8640,62 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A256:D256"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="C267:E267"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A34:E34"/>
@@ -8636,62 +8710,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A256:D256"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="C267:E267"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A293:D293"/>
-    <mergeCell ref="A296:D296"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A280:B280"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8706,27 +8724,27 @@
   </sheetPr>
   <dimension ref="A1:XFD371"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="135.7109375" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="18" customWidth="1"/>
-    <col min="5" max="7" width="5.7109375" style="19" customWidth="1"/>
-    <col min="8" max="12" width="8.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="135.7265625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="18" customWidth="1"/>
+    <col min="5" max="7" width="5.7265625" style="19" customWidth="1"/>
+    <col min="8" max="12" width="8.7265625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="29.26953125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="26.7265625" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" style="18" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" style="18" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="18"/>
+    <col min="16" max="16" width="50.7265625" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26 16384:16384" s="16" customFormat="1" ht="51.6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26 16384:16384" s="16" customFormat="1" ht="51.65" customHeight="1" thickBot="1">
       <c r="A1" s="97" t="s">
         <v>45</v>
       </c>
@@ -8739,11 +8757,11 @@
       <c r="D1" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="233" t="s">
+      <c r="E1" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8754,7 +8772,7 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:26 16384:16384" s="16" customFormat="1" ht="29.25" thickBot="1">
+    <row r="2" spans="1:26 16384:16384" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="96"/>
@@ -8796,7 +8814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:26 16384:16384" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="96"/>
@@ -8824,16 +8842,16 @@
       <c r="O3" s="107"/>
       <c r="P3" s="107"/>
     </row>
-    <row r="4" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="234" t="s">
+    <row r="4" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1">
+      <c r="A4" s="249" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
       <c r="H4" s="150"/>
       <c r="I4" s="151"/>
       <c r="J4" s="151"/>
@@ -8844,7 +8862,7 @@
       <c r="O4" s="152"/>
       <c r="P4" s="152"/>
     </row>
-    <row r="5" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1">
       <c r="A5" s="143" t="s">
         <v>0</v>
       </c>
@@ -8862,7 +8880,9 @@
       </c>
       <c r="F5" s="160"/>
       <c r="G5" s="160"/>
-      <c r="H5" s="146"/>
+      <c r="H5" s="153" t="s">
+        <v>273</v>
+      </c>
       <c r="I5" s="146"/>
       <c r="J5" s="146"/>
       <c r="K5" s="146"/>
@@ -8875,7 +8895,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="108" t="s">
         <v>1</v>
       </c>
@@ -8902,14 +8922,14 @@
       <c r="N6" s="95"/>
       <c r="O6" s="95"/>
       <c r="P6" s="95"/>
-      <c r="R6" s="241" t="s">
+      <c r="R6" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="S6" s="242"/>
-      <c r="T6" s="242"/>
-      <c r="U6" s="242"/>
-    </row>
-    <row r="7" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="S6" s="238"/>
+      <c r="T6" s="238"/>
+      <c r="U6" s="238"/>
+    </row>
+    <row r="7" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1">
       <c r="A7" s="108" t="s">
         <v>2</v>
       </c>
@@ -8936,12 +8956,12 @@
       <c r="N7" s="63"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-    </row>
-    <row r="8" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="238"/>
+      <c r="U7" s="238"/>
+    </row>
+    <row r="8" spans="1:26 16384:16384" s="16" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="108" t="s">
         <v>3</v>
       </c>
@@ -8968,12 +8988,12 @@
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
-      <c r="R8" s="242"/>
-      <c r="S8" s="242"/>
-      <c r="T8" s="242"/>
-      <c r="U8" s="242"/>
-    </row>
-    <row r="9" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
+      <c r="R8" s="238"/>
+      <c r="S8" s="238"/>
+      <c r="T8" s="238"/>
+      <c r="U8" s="238"/>
+    </row>
+    <row r="9" spans="1:26 16384:16384" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="108" t="s">
         <v>4</v>
       </c>
@@ -9000,12 +9020,12 @@
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
-      <c r="R9" s="242"/>
-      <c r="S9" s="242"/>
-      <c r="T9" s="242"/>
-      <c r="U9" s="242"/>
-    </row>
-    <row r="10" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
+      <c r="R9" s="238"/>
+      <c r="S9" s="238"/>
+      <c r="T9" s="238"/>
+      <c r="U9" s="238"/>
+    </row>
+    <row r="10" spans="1:26 16384:16384" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="108" t="s">
         <v>5</v>
       </c>
@@ -9032,13 +9052,13 @@
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
-      <c r="R10" s="242"/>
-      <c r="S10" s="242"/>
-      <c r="T10" s="242"/>
-      <c r="U10" s="242"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+      <c r="U10" s="238"/>
       <c r="XFD10" s="73"/>
     </row>
-    <row r="11" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="11" spans="1:26 16384:16384" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>6</v>
       </c>
@@ -9065,12 +9085,12 @@
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
-      <c r="R11" s="242"/>
-      <c r="S11" s="242"/>
-      <c r="T11" s="242"/>
-      <c r="U11" s="242"/>
-    </row>
-    <row r="12" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+    </row>
+    <row r="12" spans="1:26 16384:16384" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A12" s="108" t="s">
         <v>7</v>
       </c>
@@ -9097,12 +9117,12 @@
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
-      <c r="R12" s="242"/>
-      <c r="S12" s="242"/>
-      <c r="T12" s="242"/>
-      <c r="U12" s="242"/>
-    </row>
-    <row r="13" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
+      <c r="R12" s="238"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="238"/>
+      <c r="U12" s="238"/>
+    </row>
+    <row r="13" spans="1:26 16384:16384" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A13" s="108" t="s">
         <v>8</v>
       </c>
@@ -9130,17 +9150,17 @@
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="242"/>
-      <c r="S13" s="242"/>
-      <c r="T13" s="242"/>
-      <c r="U13" s="242"/>
+      <c r="R13" s="238"/>
+      <c r="S13" s="238"/>
+      <c r="T13" s="238"/>
+      <c r="U13" s="238"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
-    <row r="14" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="14" spans="1:26 16384:16384" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A14" s="108" t="s">
         <v>61</v>
       </c>
@@ -9168,17 +9188,17 @@
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="242"/>
-      <c r="S14" s="242"/>
-      <c r="T14" s="242"/>
-      <c r="U14" s="242"/>
+      <c r="R14" s="238"/>
+      <c r="S14" s="238"/>
+      <c r="T14" s="238"/>
+      <c r="U14" s="238"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26 16384:16384" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="15" spans="1:26 16384:16384" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A15" s="108" t="s">
         <v>62</v>
       </c>
@@ -9206,17 +9226,17 @@
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="242"/>
-      <c r="S15" s="242"/>
-      <c r="T15" s="242"/>
-      <c r="U15" s="242"/>
+      <c r="R15" s="238"/>
+      <c r="S15" s="238"/>
+      <c r="T15" s="238"/>
+      <c r="U15" s="238"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
-    <row r="16" spans="1:26 16384:16384" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:26 16384:16384" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>63</v>
       </c>
@@ -9242,17 +9262,17 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="242"/>
-      <c r="S16" s="242"/>
-      <c r="T16" s="242"/>
-      <c r="U16" s="242"/>
+      <c r="R16" s="238"/>
+      <c r="S16" s="238"/>
+      <c r="T16" s="238"/>
+      <c r="U16" s="238"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="17" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A17" s="108" t="s">
         <v>64</v>
       </c>
@@ -9280,17 +9300,17 @@
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="242"/>
-      <c r="S17" s="242"/>
-      <c r="T17" s="242"/>
-      <c r="U17" s="242"/>
+      <c r="R17" s="238"/>
+      <c r="S17" s="238"/>
+      <c r="T17" s="238"/>
+      <c r="U17" s="238"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
-    <row r="18" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="18" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A18" s="115" t="s">
         <v>65</v>
       </c>
@@ -9330,7 +9350,7 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="19" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A19" s="115" t="s">
         <v>66</v>
       </c>
@@ -9366,7 +9386,7 @@
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
     </row>
-    <row r="20" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="20" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A20" s="115" t="s">
         <v>68</v>
       </c>
@@ -9404,7 +9424,7 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="21" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>69</v>
       </c>
@@ -9442,7 +9462,7 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="22" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A22" s="108" t="s">
         <v>70</v>
       </c>
@@ -9478,7 +9498,7 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="23" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A23" s="108" t="s">
         <v>71</v>
       </c>
@@ -9514,7 +9534,7 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
     </row>
-    <row r="24" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A24" s="108" t="s">
         <v>73</v>
       </c>
@@ -9550,7 +9570,7 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
     </row>
-    <row r="25" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="25" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A25" s="115" t="s">
         <v>75</v>
       </c>
@@ -9586,7 +9606,7 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
     </row>
-    <row r="26" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="26" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A26" s="108" t="s">
         <v>77</v>
       </c>
@@ -9622,16 +9642,16 @@
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
     </row>
-    <row r="27" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A27" s="235" t="s">
+    <row r="27" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A27" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="236"/>
+      <c r="B27" s="240"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="240"/>
       <c r="H27" s="139"/>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
@@ -9652,7 +9672,7 @@
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
     </row>
-    <row r="28" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="28" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A28" s="108" t="s">
         <v>78</v>
       </c>
@@ -9690,7 +9710,7 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
     </row>
-    <row r="29" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A29" s="108" t="s">
         <v>11</v>
       </c>
@@ -9728,7 +9748,7 @@
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
     </row>
-    <row r="30" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="30" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>12</v>
       </c>
@@ -9766,7 +9786,7 @@
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
     </row>
-    <row r="31" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="31" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>13</v>
       </c>
@@ -9804,7 +9824,7 @@
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
     </row>
-    <row r="32" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="32" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A32" s="108" t="s">
         <v>14</v>
       </c>
@@ -9842,7 +9862,7 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A33" s="108" t="s">
         <v>15</v>
       </c>
@@ -9880,7 +9900,7 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
     </row>
-    <row r="34" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="34" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>79</v>
       </c>
@@ -9918,7 +9938,7 @@
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
     </row>
-    <row r="35" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="35" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A35" s="108" t="s">
         <v>80</v>
       </c>
@@ -9956,16 +9976,16 @@
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
     </row>
-    <row r="36" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A36" s="235" t="s">
+    <row r="36" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A36" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="236"/>
-      <c r="C36" s="237"/>
-      <c r="D36" s="236"/>
-      <c r="E36" s="236"/>
-      <c r="F36" s="236"/>
-      <c r="G36" s="237"/>
+      <c r="B36" s="240"/>
+      <c r="C36" s="241"/>
+      <c r="D36" s="240"/>
+      <c r="E36" s="240"/>
+      <c r="F36" s="240"/>
+      <c r="G36" s="241"/>
       <c r="H36" s="139"/>
       <c r="I36" s="140"/>
       <c r="J36" s="140"/>
@@ -9986,7 +10006,7 @@
       <c r="Y36" s="17"/>
       <c r="Z36" s="17"/>
     </row>
-    <row r="37" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="37" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>82</v>
       </c>
@@ -10024,7 +10044,7 @@
       <c r="Y37" s="17"/>
       <c r="Z37" s="17"/>
     </row>
-    <row r="38" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="38" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A38" s="123" t="s">
         <v>84</v>
       </c>
@@ -10062,12 +10082,12 @@
       <c r="Y38" s="17"/>
       <c r="Z38" s="17"/>
     </row>
-    <row r="39" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A39" s="238" t="s">
+    <row r="39" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A39" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="239"/>
-      <c r="C39" s="240"/>
+      <c r="B39" s="251"/>
+      <c r="C39" s="252"/>
       <c r="D39" s="124"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
@@ -10092,7 +10112,7 @@
       <c r="Y39" s="17"/>
       <c r="Z39" s="17"/>
     </row>
-    <row r="40" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="40" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A40" s="108" t="s">
         <v>86</v>
       </c>
@@ -10126,7 +10146,7 @@
       <c r="Y40" s="17"/>
       <c r="Z40" s="17"/>
     </row>
-    <row r="41" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="41" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A41" s="108" t="s">
         <v>88</v>
       </c>
@@ -10164,7 +10184,7 @@
       <c r="Y41" s="17"/>
       <c r="Z41" s="17"/>
     </row>
-    <row r="42" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A42" s="108" t="s">
         <v>89</v>
       </c>
@@ -10202,7 +10222,7 @@
       <c r="Y42" s="17"/>
       <c r="Z42" s="17"/>
     </row>
-    <row r="43" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="43" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A43" s="108" t="s">
         <v>90</v>
       </c>
@@ -10238,7 +10258,7 @@
       <c r="Y43" s="17"/>
       <c r="Z43" s="17"/>
     </row>
-    <row r="44" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="44" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A44" s="108" t="s">
         <v>91</v>
       </c>
@@ -10274,7 +10294,7 @@
       <c r="Y44" s="17"/>
       <c r="Z44" s="17"/>
     </row>
-    <row r="45" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
+    <row r="45" spans="1:26" s="16" customFormat="1" ht="42.5" thickBot="1">
       <c r="A45" s="108" t="s">
         <v>92</v>
       </c>
@@ -10312,7 +10332,7 @@
       <c r="Y45" s="17"/>
       <c r="Z45" s="17"/>
     </row>
-    <row r="46" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="108" t="s">
         <v>93</v>
       </c>
@@ -10350,7 +10370,7 @@
       <c r="Y46" s="17"/>
       <c r="Z46" s="17"/>
     </row>
-    <row r="47" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="47" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A47" s="108" t="s">
         <v>94</v>
       </c>
@@ -10388,7 +10408,7 @@
       <c r="Y47" s="17"/>
       <c r="Z47" s="17"/>
     </row>
-    <row r="48" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="48" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A48" s="108" t="s">
         <v>95</v>
       </c>
@@ -10426,7 +10446,7 @@
       <c r="Y48" s="17"/>
       <c r="Z48" s="17"/>
     </row>
-    <row r="49" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="49" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A49" s="108" t="s">
         <v>96</v>
       </c>
@@ -10464,7 +10484,7 @@
       <c r="Y49" s="17"/>
       <c r="Z49" s="17"/>
     </row>
-    <row r="50" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="50" spans="1:26" s="16" customFormat="1" ht="29.5" thickBot="1">
       <c r="A50" s="123" t="s">
         <v>97</v>
       </c>
@@ -10502,7 +10522,7 @@
       <c r="Y50" s="17"/>
       <c r="Z50" s="17"/>
     </row>
-    <row r="51" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="51" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A51" s="108" t="s">
         <v>98</v>
       </c>
@@ -10540,7 +10560,7 @@
       <c r="Y51" s="17"/>
       <c r="Z51" s="17"/>
     </row>
-    <row r="52" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="52" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A52" s="108" t="s">
         <v>99</v>
       </c>
@@ -10578,7 +10598,7 @@
       <c r="Y52" s="17"/>
       <c r="Z52" s="17"/>
     </row>
-    <row r="53" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="53" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A53" s="108" t="s">
         <v>100</v>
       </c>
@@ -10616,7 +10636,7 @@
       <c r="Y53" s="17"/>
       <c r="Z53" s="17"/>
     </row>
-    <row r="54" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="54" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A54" s="108" t="s">
         <v>101</v>
       </c>
@@ -10654,7 +10674,7 @@
       <c r="Y54" s="17"/>
       <c r="Z54" s="17"/>
     </row>
-    <row r="55" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="55" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A55" s="108" t="s">
         <v>102</v>
       </c>
@@ -10692,7 +10712,7 @@
       <c r="Y55" s="17"/>
       <c r="Z55" s="17"/>
     </row>
-    <row r="56" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="56" spans="1:26" s="16" customFormat="1" ht="29.5" thickBot="1">
       <c r="A56" s="108" t="s">
         <v>103</v>
       </c>
@@ -10726,7 +10746,7 @@
       <c r="Y56" s="17"/>
       <c r="Z56" s="17"/>
     </row>
-    <row r="57" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="57" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A57" s="108" t="s">
         <v>104</v>
       </c>
@@ -10760,7 +10780,7 @@
       <c r="Y57" s="17"/>
       <c r="Z57" s="17"/>
     </row>
-    <row r="58" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="58" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A58" s="108" t="s">
         <v>105</v>
       </c>
@@ -10798,7 +10818,7 @@
       <c r="Y58" s="17"/>
       <c r="Z58" s="17"/>
     </row>
-    <row r="59" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="59" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A59" s="108" t="s">
         <v>106</v>
       </c>
@@ -10836,7 +10856,7 @@
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
     </row>
-    <row r="60" spans="1:26" s="16" customFormat="1" ht="75.75" thickBot="1">
+    <row r="60" spans="1:26" s="16" customFormat="1" ht="56.5" thickBot="1">
       <c r="A60" s="123" t="s">
         <v>108</v>
       </c>
@@ -10872,7 +10892,7 @@
       <c r="Y60" s="17"/>
       <c r="Z60" s="17"/>
     </row>
-    <row r="61" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="61" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A61" s="108" t="s">
         <v>109</v>
       </c>
@@ -10912,7 +10932,7 @@
       <c r="Y61" s="17"/>
       <c r="Z61" s="17"/>
     </row>
-    <row r="62" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="62" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A62" s="108" t="s">
         <v>111</v>
       </c>
@@ -10948,7 +10968,7 @@
       <c r="Y62" s="17"/>
       <c r="Z62" s="17"/>
     </row>
-    <row r="63" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="63" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A63" s="108" t="s">
         <v>112</v>
       </c>
@@ -10988,7 +11008,7 @@
       <c r="Y63" s="17"/>
       <c r="Z63" s="17"/>
     </row>
-    <row r="64" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="64" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A64" s="108" t="s">
         <v>113</v>
       </c>
@@ -11026,7 +11046,7 @@
       <c r="Y64" s="17"/>
       <c r="Z64" s="17"/>
     </row>
-    <row r="65" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="65" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A65" s="108" t="s">
         <v>114</v>
       </c>
@@ -11064,7 +11084,7 @@
       <c r="Y65" s="17"/>
       <c r="Z65" s="17"/>
     </row>
-    <row r="66" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
+    <row r="66" spans="1:26" s="16" customFormat="1" ht="42.5" thickBot="1">
       <c r="A66" s="108" t="s">
         <v>115</v>
       </c>
@@ -11102,7 +11122,7 @@
       <c r="Y66" s="17"/>
       <c r="Z66" s="17"/>
     </row>
-    <row r="67" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="67" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A67" s="108" t="s">
         <v>116</v>
       </c>
@@ -11140,7 +11160,7 @@
       <c r="Y67" s="17"/>
       <c r="Z67" s="17"/>
     </row>
-    <row r="68" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
+    <row r="68" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A68" s="108" t="s">
         <v>117</v>
       </c>
@@ -11180,7 +11200,7 @@
       <c r="Y68" s="17"/>
       <c r="Z68" s="17"/>
     </row>
-    <row r="69" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
+    <row r="69" spans="1:26" s="16" customFormat="1" ht="42.5" thickBot="1">
       <c r="A69" s="123" t="s">
         <v>118</v>
       </c>
@@ -11220,16 +11240,16 @@
       <c r="Y69" s="17"/>
       <c r="Z69" s="17"/>
     </row>
-    <row r="70" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A70" s="235" t="s">
+    <row r="70" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A70" s="239" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="236"/>
-      <c r="C70" s="236"/>
-      <c r="D70" s="237"/>
-      <c r="E70" s="236"/>
-      <c r="F70" s="236"/>
-      <c r="G70" s="236"/>
+      <c r="B70" s="240"/>
+      <c r="C70" s="240"/>
+      <c r="D70" s="241"/>
+      <c r="E70" s="240"/>
+      <c r="F70" s="240"/>
+      <c r="G70" s="240"/>
       <c r="H70" s="139"/>
       <c r="I70" s="140"/>
       <c r="J70" s="140"/>
@@ -11250,7 +11270,7 @@
       <c r="Y70" s="17"/>
       <c r="Z70" s="17"/>
     </row>
-    <row r="71" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="71" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A71" s="108" t="s">
         <v>120</v>
       </c>
@@ -11288,7 +11308,7 @@
       <c r="Y71" s="17"/>
       <c r="Z71" s="17"/>
     </row>
-    <row r="72" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="72" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A72" s="108" t="s">
         <v>121</v>
       </c>
@@ -11326,7 +11346,7 @@
       <c r="Y72" s="17"/>
       <c r="Z72" s="17"/>
     </row>
-    <row r="73" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="73" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A73" s="108" t="s">
         <v>122</v>
       </c>
@@ -11364,7 +11384,7 @@
       <c r="Y73" s="17"/>
       <c r="Z73" s="17"/>
     </row>
-    <row r="74" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="74" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A74" s="108" t="s">
         <v>123</v>
       </c>
@@ -11402,7 +11422,7 @@
       <c r="Y74" s="17"/>
       <c r="Z74" s="17"/>
     </row>
-    <row r="75" spans="1:26" s="16" customFormat="1" ht="75.75" thickBot="1">
+    <row r="75" spans="1:26" s="16" customFormat="1" ht="70.5" thickBot="1">
       <c r="A75" s="108" t="s">
         <v>124</v>
       </c>
@@ -11442,7 +11462,7 @@
       <c r="Y75" s="17"/>
       <c r="Z75" s="17"/>
     </row>
-    <row r="76" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="76" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A76" s="108" t="s">
         <v>125</v>
       </c>
@@ -11520,7 +11540,7 @@
       <c r="Y77" s="17"/>
       <c r="Z77" s="17"/>
     </row>
-    <row r="78" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="78" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A78" s="108" t="s">
         <v>127</v>
       </c>
@@ -11558,7 +11578,7 @@
       <c r="Y78" s="17"/>
       <c r="Z78" s="17"/>
     </row>
-    <row r="79" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
+    <row r="79" spans="1:26" s="16" customFormat="1" ht="42.5" thickBot="1">
       <c r="A79" s="108" t="s">
         <v>128</v>
       </c>
@@ -11596,7 +11616,7 @@
       <c r="Y79" s="17"/>
       <c r="Z79" s="17"/>
     </row>
-    <row r="80" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="80" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A80" s="108" t="s">
         <v>129</v>
       </c>
@@ -11634,7 +11654,7 @@
       <c r="Y80" s="17"/>
       <c r="Z80" s="17"/>
     </row>
-    <row r="81" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="81" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A81" s="108" t="s">
         <v>130</v>
       </c>
@@ -11672,16 +11692,16 @@
       <c r="Y81" s="17"/>
       <c r="Z81" s="17"/>
     </row>
-    <row r="82" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A82" s="235" t="s">
+    <row r="82" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A82" s="239" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="237"/>
-      <c r="C82" s="237"/>
-      <c r="D82" s="243"/>
-      <c r="E82" s="236"/>
-      <c r="F82" s="236"/>
-      <c r="G82" s="236"/>
+      <c r="B82" s="241"/>
+      <c r="C82" s="241"/>
+      <c r="D82" s="242"/>
+      <c r="E82" s="240"/>
+      <c r="F82" s="240"/>
+      <c r="G82" s="240"/>
       <c r="H82" s="139"/>
       <c r="I82" s="140"/>
       <c r="J82" s="140"/>
@@ -11702,7 +11722,7 @@
       <c r="Y82" s="17"/>
       <c r="Z82" s="17"/>
     </row>
-    <row r="83" spans="1:26" s="16" customFormat="1" ht="45.75" thickBot="1">
+    <row r="83" spans="1:26" s="16" customFormat="1" ht="42.5" thickBot="1">
       <c r="A83" s="115" t="s">
         <v>132</v>
       </c>
@@ -11740,7 +11760,7 @@
       <c r="Y83" s="17"/>
       <c r="Z83" s="17"/>
     </row>
-    <row r="84" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="84" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A84" s="108" t="s">
         <v>133</v>
       </c>
@@ -11778,7 +11798,7 @@
       <c r="Y84" s="17"/>
       <c r="Z84" s="17"/>
     </row>
-    <row r="85" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="85" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A85" s="108" t="s">
         <v>134</v>
       </c>
@@ -11816,7 +11836,7 @@
       <c r="Y85" s="17"/>
       <c r="Z85" s="17"/>
     </row>
-    <row r="86" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="86" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A86" s="108" t="s">
         <v>135</v>
       </c>
@@ -11854,7 +11874,7 @@
       <c r="Y86" s="17"/>
       <c r="Z86" s="17"/>
     </row>
-    <row r="87" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="87" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A87" s="108" t="s">
         <v>136</v>
       </c>
@@ -11892,16 +11912,16 @@
       <c r="Y87" s="17"/>
       <c r="Z87" s="17"/>
     </row>
-    <row r="88" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A88" s="235" t="s">
+    <row r="88" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A88" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="B88" s="237"/>
-      <c r="C88" s="243"/>
-      <c r="D88" s="243"/>
-      <c r="E88" s="236"/>
-      <c r="F88" s="236"/>
-      <c r="G88" s="236"/>
+      <c r="B88" s="241"/>
+      <c r="C88" s="242"/>
+      <c r="D88" s="242"/>
+      <c r="E88" s="240"/>
+      <c r="F88" s="240"/>
+      <c r="G88" s="240"/>
       <c r="H88" s="139"/>
       <c r="I88" s="140"/>
       <c r="J88" s="140"/>
@@ -11922,7 +11942,7 @@
       <c r="Y88" s="17"/>
       <c r="Z88" s="17"/>
     </row>
-    <row r="89" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="89" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A89" s="115" t="s">
         <v>138</v>
       </c>
@@ -11960,7 +11980,7 @@
       <c r="Y89" s="17"/>
       <c r="Z89" s="17"/>
     </row>
-    <row r="90" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="90" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A90" s="115" t="s">
         <v>139</v>
       </c>
@@ -11998,7 +12018,7 @@
       <c r="Y90" s="17"/>
       <c r="Z90" s="17"/>
     </row>
-    <row r="91" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="91" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A91" s="115" t="s">
         <v>140</v>
       </c>
@@ -12036,7 +12056,7 @@
       <c r="Y91" s="17"/>
       <c r="Z91" s="17"/>
     </row>
-    <row r="92" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="92" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A92" s="115" t="s">
         <v>141</v>
       </c>
@@ -12074,7 +12094,7 @@
       <c r="Y92" s="17"/>
       <c r="Z92" s="17"/>
     </row>
-    <row r="93" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="93" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A93" s="108" t="s">
         <v>142</v>
       </c>
@@ -12112,16 +12132,16 @@
       <c r="Y93" s="17"/>
       <c r="Z93" s="17"/>
     </row>
-    <row r="94" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A94" s="244" t="s">
+    <row r="94" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A94" s="243" t="s">
         <v>143</v>
       </c>
-      <c r="B94" s="245"/>
-      <c r="C94" s="246"/>
-      <c r="D94" s="246"/>
-      <c r="E94" s="247"/>
-      <c r="F94" s="247"/>
-      <c r="G94" s="247"/>
+      <c r="B94" s="244"/>
+      <c r="C94" s="245"/>
+      <c r="D94" s="245"/>
+      <c r="E94" s="246"/>
+      <c r="F94" s="246"/>
+      <c r="G94" s="246"/>
       <c r="H94" s="139"/>
       <c r="I94" s="140"/>
       <c r="J94" s="140"/>
@@ -12142,7 +12162,7 @@
       <c r="Y94" s="17"/>
       <c r="Z94" s="17"/>
     </row>
-    <row r="95" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="95" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A95" s="115" t="s">
         <v>144</v>
       </c>
@@ -12180,7 +12200,7 @@
       <c r="Y95" s="17"/>
       <c r="Z95" s="17"/>
     </row>
-    <row r="96" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="96" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A96" s="108" t="s">
         <v>145</v>
       </c>
@@ -12218,16 +12238,16 @@
       <c r="Y96" s="17"/>
       <c r="Z96" s="17"/>
     </row>
-    <row r="97" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="235" t="s">
+    <row r="97" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A97" s="239" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="236"/>
-      <c r="C97" s="236"/>
-      <c r="D97" s="236"/>
-      <c r="E97" s="236"/>
-      <c r="F97" s="236"/>
-      <c r="G97" s="236"/>
+      <c r="B97" s="240"/>
+      <c r="C97" s="240"/>
+      <c r="D97" s="240"/>
+      <c r="E97" s="240"/>
+      <c r="F97" s="240"/>
+      <c r="G97" s="240"/>
       <c r="H97" s="139"/>
       <c r="I97" s="140"/>
       <c r="J97" s="140"/>
@@ -12248,7 +12268,7 @@
       <c r="Y97" s="17"/>
       <c r="Z97" s="17"/>
     </row>
-    <row r="98" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A98" s="108" t="s">
         <v>147</v>
       </c>
@@ -12286,16 +12306,16 @@
       <c r="Y98" s="17"/>
       <c r="Z98" s="17"/>
     </row>
-    <row r="99" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A99" s="235" t="s">
+    <row r="99" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A99" s="239" t="s">
         <v>148</v>
       </c>
-      <c r="B99" s="237"/>
-      <c r="C99" s="237"/>
-      <c r="D99" s="237"/>
-      <c r="E99" s="236"/>
-      <c r="F99" s="236"/>
-      <c r="G99" s="236"/>
+      <c r="B99" s="241"/>
+      <c r="C99" s="241"/>
+      <c r="D99" s="241"/>
+      <c r="E99" s="240"/>
+      <c r="F99" s="240"/>
+      <c r="G99" s="240"/>
       <c r="H99" s="139"/>
       <c r="I99" s="140"/>
       <c r="J99" s="140"/>
@@ -12316,7 +12336,7 @@
       <c r="Y99" s="17"/>
       <c r="Z99" s="17"/>
     </row>
-    <row r="100" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="100" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A100" s="115" t="s">
         <v>149</v>
       </c>
@@ -12354,7 +12374,7 @@
       <c r="Y100" s="17"/>
       <c r="Z100" s="17"/>
     </row>
-    <row r="101" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="101" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A101" s="115" t="s">
         <v>150</v>
       </c>
@@ -12390,7 +12410,7 @@
       <c r="Y101" s="17"/>
       <c r="Z101" s="17"/>
     </row>
-    <row r="102" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="102" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A102" s="115" t="s">
         <v>152</v>
       </c>
@@ -12428,16 +12448,16 @@
       <c r="Y102" s="17"/>
       <c r="Z102" s="17"/>
     </row>
-    <row r="103" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="248" t="s">
+    <row r="103" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A103" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="B103" s="243"/>
-      <c r="C103" s="243"/>
-      <c r="D103" s="243"/>
-      <c r="E103" s="237"/>
-      <c r="F103" s="237"/>
-      <c r="G103" s="237"/>
+      <c r="B103" s="242"/>
+      <c r="C103" s="242"/>
+      <c r="D103" s="242"/>
+      <c r="E103" s="241"/>
+      <c r="F103" s="241"/>
+      <c r="G103" s="241"/>
       <c r="H103" s="139"/>
       <c r="I103" s="140"/>
       <c r="J103" s="140"/>
@@ -12458,7 +12478,7 @@
       <c r="Y103" s="17"/>
       <c r="Z103" s="17"/>
     </row>
-    <row r="104" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="104" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A104" s="115" t="s">
         <v>154</v>
       </c>
@@ -12496,7 +12516,7 @@
       <c r="Y104" s="17"/>
       <c r="Z104" s="17"/>
     </row>
-    <row r="105" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="105" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A105" s="115" t="s">
         <v>155</v>
       </c>
@@ -12534,7 +12554,7 @@
       <c r="Y105" s="17"/>
       <c r="Z105" s="17"/>
     </row>
-    <row r="106" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="106" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A106" s="115" t="s">
         <v>156</v>
       </c>
@@ -12572,7 +12592,7 @@
       <c r="Y106" s="17"/>
       <c r="Z106" s="17"/>
     </row>
-    <row r="107" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="107" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A107" s="99" t="s">
         <v>157</v>
       </c>
@@ -12610,16 +12630,16 @@
       <c r="Y107" s="17"/>
       <c r="Z107" s="17"/>
     </row>
-    <row r="108" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A108" s="235" t="s">
+    <row r="108" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A108" s="239" t="s">
         <v>158</v>
       </c>
-      <c r="B108" s="237"/>
-      <c r="C108" s="243"/>
-      <c r="D108" s="243"/>
-      <c r="E108" s="236"/>
-      <c r="F108" s="236"/>
-      <c r="G108" s="236"/>
+      <c r="B108" s="241"/>
+      <c r="C108" s="242"/>
+      <c r="D108" s="242"/>
+      <c r="E108" s="240"/>
+      <c r="F108" s="240"/>
+      <c r="G108" s="240"/>
       <c r="H108" s="139"/>
       <c r="I108" s="140"/>
       <c r="J108" s="140"/>
@@ -12640,7 +12660,7 @@
       <c r="Y108" s="17"/>
       <c r="Z108" s="17"/>
     </row>
-    <row r="109" spans="1:26" s="16" customFormat="1" ht="30.75" thickBot="1">
+    <row r="109" spans="1:26" s="16" customFormat="1" ht="28.5" thickBot="1">
       <c r="A109" s="131" t="s">
         <v>159</v>
       </c>
@@ -12678,7 +12698,7 @@
       <c r="Y109" s="17"/>
       <c r="Z109" s="17"/>
     </row>
-    <row r="110" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A110" s="133" t="s">
         <v>160</v>
       </c>
@@ -12716,7 +12736,7 @@
       <c r="Y110" s="17"/>
       <c r="Z110" s="17"/>
     </row>
-    <row r="111" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A111" s="133" t="s">
         <v>161</v>
       </c>
@@ -12752,7 +12772,7 @@
       <c r="Y111" s="17"/>
       <c r="Z111" s="17"/>
     </row>
-    <row r="112" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="112" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A112" s="133" t="s">
         <v>163</v>
       </c>
@@ -12790,16 +12810,16 @@
       <c r="Y112" s="17"/>
       <c r="Z112" s="17"/>
     </row>
-    <row r="113" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A113" s="235" t="s">
+    <row r="113" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A113" s="239" t="s">
         <v>164</v>
       </c>
-      <c r="B113" s="237"/>
-      <c r="C113" s="243"/>
-      <c r="D113" s="243"/>
-      <c r="E113" s="236"/>
-      <c r="F113" s="236"/>
-      <c r="G113" s="236"/>
+      <c r="B113" s="241"/>
+      <c r="C113" s="242"/>
+      <c r="D113" s="242"/>
+      <c r="E113" s="240"/>
+      <c r="F113" s="240"/>
+      <c r="G113" s="240"/>
       <c r="H113" s="139"/>
       <c r="I113" s="140"/>
       <c r="J113" s="140"/>
@@ -12820,7 +12840,7 @@
       <c r="Y113" s="17"/>
       <c r="Z113" s="17"/>
     </row>
-    <row r="114" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="114" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A114" s="131" t="s">
         <v>165</v>
       </c>
@@ -12858,7 +12878,7 @@
       <c r="Y114" s="17"/>
       <c r="Z114" s="17"/>
     </row>
-    <row r="115" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="115" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A115" s="131" t="s">
         <v>166</v>
       </c>
@@ -12896,7 +12916,7 @@
       <c r="Y115" s="17"/>
       <c r="Z115" s="17"/>
     </row>
-    <row r="116" spans="1:26" s="16" customFormat="1" ht="15.75" thickBot="1">
+    <row r="116" spans="1:26" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="A116" s="135" t="s">
         <v>167</v>
       </c>
@@ -16762,6 +16782,11 @@
   </sheetData>
   <autoFilter ref="B1:B473" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="R6:U17"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A108:G108"/>
@@ -16772,11 +16797,6 @@
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="25" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="543">
   <si>
     <t xml:space="preserve">Im Rahmen von [BSI TR-03148 -P] muss ein Implementation Conformance Statement ausgefüllt werden. Im folgenden finden Sie eine Vorlage für das ICS. Das Originaldokument ist auf Englisch, weswegen hier die englischen Formulierungen übernommen wurden, da keine offizielle Übersetzung des Dokuments existiert. Die Eintragungen können aber auf deutsch oder englisch gemacht werden. Die hier eingetragenen Beispieldaten sind durch Echtdaten zu ersetzen. Alternativ oder ergänzend zu dem ICS in dieser Tabelle kann auch das ICS aus [BSI TR-03148-P] als Vorlage genutzt werden.</t>
   </si>
@@ -562,36 +562,6 @@
   </si>
   <si>
     <t xml:space="preserve">ssh </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="BundesSerif Office"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="BundesSerif Office"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">initialized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="BundesSerif Office"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">][factory]</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">drobear
@@ -2811,6 +2781,9 @@
     <t xml:space="preserve">Nmap 7.90</t>
   </si>
   <si>
+    <t xml:space="preserve">see port scans from Module A and B</t>
+  </si>
+  <si>
     <t xml:space="preserve">TR.C.2</t>
   </si>
   <si>
@@ -2886,6 +2859,7 @@
         <sz val="10.5"/>
         <rFont val="BundesSerif Office"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Access to the configuration of the DUT </t>
     </r>
@@ -2897,6 +2871,7 @@
         <color rgb="FF000000"/>
         <rFont val="BundesSerif Office"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MUST</t>
     </r>
@@ -2905,6 +2880,7 @@
         <sz val="10.5"/>
         <rFont val="BundesSerif Office"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> at least be secured by a password in the initialized and customized state. The DUT </t>
     </r>
@@ -2916,6 +2892,7 @@
         <color rgb="FF000000"/>
         <rFont val="BundesSerif Office"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MAY</t>
     </r>
@@ -2924,6 +2901,7 @@
         <sz val="10.5"/>
         <rFont val="BundesSerif Office"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> offer a higher level of security by providing alternative authentication mechanisms.</t>
     </r>
@@ -2932,7 +2910,15 @@
     <t xml:space="preserve">TP.D.2.1: 
 - web: password based authentication
 - ssh: password based [initalized] / key based [customized]
-There is no password required to use the device.</t>
+There is no password required to use the device.
+There are no requirements for the passwords
+It is possible to set no password → equivalent to disabling the authentication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP.D.2.3_deactivate_password_luci.gif
+TP.D.2.3_deactivate_luci_password.png
+TP.D.2.3_deactivate_password_ssh.gif
+</t>
   </si>
   <si>
     <t xml:space="preserve">TR.D.3</t>
@@ -2968,6 +2954,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="BundesSerif Office"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">in factory or initalized the DUT does not support HTTP over TLS. It must be noted that this feature can be added when compiling the firmware but for the DUT this feature has not been enabled while compilation. This could be because of storage concerns or reuse of other makefiles. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="BundesSerif Office"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://openwrt.org/docs/guide-user/services/webserver/uhttpd</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TR.D.4</t>
   </si>
   <si>
@@ -2999,6 +3007,9 @@
       </rPr>
       <t xml:space="preserve"> allow end-user access to the configuration only using an interface of the private network.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">TR.D.5</t>
@@ -5493,7 +5504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5638,19 +5649,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="BundesSerif Office"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="BundesSerif Office"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="16"/>
       <name val="BundesSerif Office"/>
       <family val="1"/>
@@ -5751,6 +5749,7 @@
       <sz val="10.5"/>
       <name val="BundesSerif Office"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -5759,6 +5758,7 @@
       <color rgb="FF000000"/>
       <name val="BundesSerif Office"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -6079,23 +6079,23 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="178">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6320,10 +6320,6 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6372,7 +6368,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6380,11 +6376,11 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6392,7 +6388,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6404,7 +6400,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6428,15 +6424,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="11" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6444,15 +6440,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6464,19 +6460,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6484,27 +6480,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="11" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="11" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="17" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="17" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="17" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="13" borderId="17" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6512,75 +6508,75 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="11" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="11" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="11" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="11" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="11" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="11" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="11" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="11" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="9" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="9" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6588,175 +6584,175 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="5" borderId="10" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="10" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="21" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="21" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="23" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="23" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="24" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="24" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="7" borderId="11" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="11" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -6764,51 +6760,51 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="13" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="13" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -6907,7 +6903,7 @@
       <selection pane="topLeft" activeCell="D135" activeCellId="0" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.86"/>
@@ -8182,23 +8178,23 @@
       <c r="A136" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="36" t="s">
         <v>122</v>
-      </c>
-      <c r="C136" s="36" t="s">
-        <v>123</v>
       </c>
       <c r="D136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137" s="36" t="s">
         <v>124</v>
-      </c>
-      <c r="B137" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="36" t="s">
-        <v>125</v>
       </c>
       <c r="D137" s="3"/>
     </row>
@@ -8246,7 +8242,7 @@
     </row>
     <row r="142" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -8254,7 +8250,7 @@
     </row>
     <row r="143" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="55"/>
       <c r="C143" s="55"/>
@@ -8262,37 +8258,37 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B145" s="57" t="s">
+      <c r="C145" s="57" t="s">
         <v>131</v>
-      </c>
-      <c r="C145" s="58" t="s">
-        <v>132</v>
       </c>
       <c r="D145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C146" s="58" t="s">
-        <v>132</v>
+      <c r="C146" s="57" t="s">
+        <v>131</v>
       </c>
       <c r="D146" s="3"/>
     </row>
@@ -8303,12 +8299,12 @@
       <c r="B147" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C147" s="58"/>
+      <c r="C147" s="57"/>
       <c r="D147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B148" s="39"/>
       <c r="C148" s="3"/>
@@ -8322,7 +8318,7 @@
     </row>
     <row r="150" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B150" s="55"/>
       <c r="C150" s="55"/>
@@ -8330,7 +8326,7 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B151" s="26" t="s">
         <v>66</v>
@@ -8339,11 +8335,11 @@
       <c r="D151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="58" t="s">
-        <v>132</v>
+      <c r="A152" s="57" t="s">
+        <v>131</v>
       </c>
       <c r="B152" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -8374,7 +8370,7 @@
     </row>
     <row r="157" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B157" s="49"/>
       <c r="C157" s="49"/>
@@ -8382,16 +8378,16 @@
     </row>
     <row r="158" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C158" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D158" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8436,29 +8432,29 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B163" s="39"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="59"/>
+      <c r="A164" s="58"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="B165" s="60"/>
+      <c r="A165" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165" s="59"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B166" s="26" t="s">
         <v>66</v>
@@ -8468,20 +8464,20 @@
     </row>
     <row r="167" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B167" s="36" t="s">
         <v>144</v>
-      </c>
-      <c r="B167" s="36" t="s">
-        <v>145</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B168" s="36" t="s">
         <v>146</v>
-      </c>
-      <c r="B168" s="36" t="s">
-        <v>147</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -8498,7 +8494,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B170" s="39"/>
       <c r="C170" s="3"/>
@@ -8512,21 +8508,21 @@
     </row>
     <row r="172" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B172" s="55"/>
       <c r="C172" s="55"/>
       <c r="D172" s="55"/>
     </row>
     <row r="173" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="61" t="s">
+      <c r="A173" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="B173" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C173" s="62"/>
-      <c r="D173" s="62"/>
+      <c r="C173" s="61"/>
+      <c r="D173" s="61"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
@@ -8535,12 +8531,12 @@
       <c r="D174" s="3"/>
     </row>
     <row r="175" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="B175" s="63"/>
-      <c r="C175" s="63"/>
-      <c r="D175" s="63"/>
+      <c r="A175" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B175" s="62"/>
+      <c r="C175" s="62"/>
+      <c r="D175" s="62"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
@@ -8549,39 +8545,39 @@
       <c r="D176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="64" t="s">
+      <c r="A177" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B177" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C177" s="64" t="s">
         <v>153</v>
-      </c>
-      <c r="B177" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C177" s="65" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B178" s="41" t="s">
+      <c r="C178" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C178" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G178" s="66"/>
+      <c r="G178" s="65"/>
     </row>
     <row r="179" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B179" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B179" s="35" t="s">
+      <c r="C179" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C179" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="G179" s="66"/>
+      <c r="G179" s="65"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="35" t="s">
@@ -8590,7 +8586,7 @@
       <c r="B180" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C180" s="58" t="s">
+      <c r="C180" s="57" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8599,12 +8595,12 @@
       <c r="B181" s="39"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="67"/>
-      <c r="B182" s="67"/>
+      <c r="A182" s="66"/>
+      <c r="B182" s="66"/>
     </row>
     <row r="183" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B183" s="49"/>
       <c r="C183" s="49"/>
@@ -8621,12 +8617,12 @@
         <v>88</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B185" s="35"/>
       <c r="C185" s="35"/>
@@ -8634,7 +8630,7 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B186" s="35"/>
       <c r="C186" s="35"/>
@@ -8642,7 +8638,7 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B187" s="35"/>
       <c r="C187" s="35"/>
@@ -8653,24 +8649,24 @@
       <c r="B188" s="48"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="68"/>
-      <c r="B189" s="68"/>
+      <c r="A189" s="67"/>
+      <c r="B189" s="67"/>
     </row>
     <row r="190" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B190" s="55"/>
       <c r="C190" s="55"/>
       <c r="D190" s="55"/>
       <c r="F190" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B192" s="26" t="s">
         <v>66</v>
@@ -8678,10 +8674,10 @@
     </row>
     <row r="193" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" s="36" t="s">
         <v>169</v>
-      </c>
-      <c r="B193" s="36" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8703,25 +8699,25 @@
       <c r="D197" s="3"/>
     </row>
     <row r="198" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="69" t="s">
-        <v>171</v>
+      <c r="A198" s="68" t="s">
+        <v>170</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
     </row>
     <row r="199" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="70" t="s">
+      <c r="A199" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B199" s="69"/>
+      <c r="C199" s="69"/>
+      <c r="D199" s="69"/>
+    </row>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="B199" s="70"/>
-      <c r="C199" s="70"/>
-      <c r="D199" s="70"/>
-    </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="B200" s="72" t="s">
+      <c r="B200" s="71" t="s">
         <v>111</v>
       </c>
       <c r="C200" s="3"/>
@@ -8729,10 +8725,10 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B201" s="36" t="s">
         <v>174</v>
-      </c>
-      <c r="B201" s="36" t="s">
-        <v>175</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -8740,7 +8736,7 @@
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="35"/>
       <c r="B202" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -8748,7 +8744,7 @@
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="35"/>
       <c r="B203" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -8770,20 +8766,20 @@
       <c r="D205" s="3"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="67"/>
-      <c r="B206" s="67"/>
+      <c r="A206" s="66"/>
+      <c r="B206" s="66"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
     </row>
     <row r="207" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="73" t="s">
+      <c r="A207" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B207" s="72"/>
+      <c r="C207" s="72"/>
+      <c r="D207" s="72"/>
+      <c r="F207" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="B207" s="73"/>
-      <c r="C207" s="73"/>
-      <c r="D207" s="73"/>
-      <c r="F207" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8792,12 +8788,12 @@
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="F208" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B209" s="26" t="s">
         <v>111</v>
@@ -8805,13 +8801,13 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B210" s="36"/>
     </row>
     <row r="211" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B211" s="36"/>
     </row>
@@ -8828,15 +8824,15 @@
       <c r="B214" s="39"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="74"/>
+      <c r="A215" s="73"/>
     </row>
     <row r="216" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="B216" s="75"/>
-      <c r="C216" s="75"/>
-      <c r="D216" s="75"/>
+      <c r="A216" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B216" s="74"/>
+      <c r="C216" s="74"/>
+      <c r="D216" s="74"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="14" t="s">
@@ -8849,12 +8845,12 @@
         <v>88</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B218" s="35"/>
       <c r="C218" s="35"/>
@@ -8870,7 +8866,7 @@
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B220" s="35"/>
       <c r="C220" s="35"/>
@@ -8881,39 +8877,39 @@
       <c r="B221" s="39"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="67"/>
-      <c r="B222" s="67"/>
+      <c r="A222" s="66"/>
+      <c r="B222" s="66"/>
     </row>
     <row r="223" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B223" s="55"/>
       <c r="C223" s="55"/>
       <c r="D223" s="55"/>
     </row>
     <row r="224" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="76" t="s">
+      <c r="A224" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B224" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="B224" s="41" t="s">
+    </row>
+    <row r="226" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="72" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="226" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="73" t="s">
+      <c r="B226" s="72"/>
+      <c r="C226" s="72"/>
+      <c r="D226" s="72"/>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B227" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="B226" s="73"/>
-      <c r="C226" s="73"/>
-      <c r="D226" s="73"/>
-    </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8923,56 +8919,56 @@
       <c r="D228" s="3"/>
     </row>
     <row r="229" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="77" t="s">
+      <c r="A229" s="76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="72" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="230" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="73" t="s">
+      <c r="B230" s="72"/>
+      <c r="C230" s="72"/>
+      <c r="D230" s="72"/>
+    </row>
+    <row r="231" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B231" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="B230" s="73"/>
-      <c r="C230" s="73"/>
-      <c r="D230" s="73"/>
-    </row>
-    <row r="231" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B231" s="41" t="s">
+    </row>
+    <row r="233" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="76" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="77" t="s">
+    <row r="234" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="72" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="234" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="73" t="s">
+      <c r="B234" s="72"/>
+      <c r="C234" s="72"/>
+      <c r="D234" s="72"/>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B235" s="77" t="s">
         <v>196</v>
-      </c>
-      <c r="B234" s="73"/>
-      <c r="C234" s="73"/>
-      <c r="D234" s="73"/>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B235" s="78" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C236" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="E236" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8981,133 +8977,133 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="73" t="s">
+      <c r="A239" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" s="72"/>
+      <c r="C239" s="72"/>
+      <c r="D239" s="72"/>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B239" s="73"/>
-      <c r="C239" s="73"/>
-      <c r="D239" s="73"/>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B240" s="0" t="s">
+      <c r="D240" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D240" s="0" t="s">
+    </row>
+    <row r="241" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D241" s="78" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="241" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D241" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="E241" s="79"/>
+      <c r="E241" s="78"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D242" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E242" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E243" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="72" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="245" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="73" t="s">
+      <c r="B245" s="72"/>
+      <c r="C245" s="72"/>
+      <c r="D245" s="72"/>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B246" s="41" t="s">
         <v>208</v>
-      </c>
-      <c r="B245" s="73"/>
-      <c r="C245" s="73"/>
-      <c r="D245" s="73"/>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B246" s="41" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B248" s="55"/>
       <c r="C248" s="55"/>
       <c r="D248" s="55"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="76" t="s">
-        <v>188</v>
+      <c r="A249" s="75" t="s">
+        <v>187</v>
       </c>
       <c r="B249" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D249" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="D249" s="78" t="s">
+    </row>
+    <row r="251" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="76" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="77" t="s">
+    <row r="252" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="72" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="252" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="B252" s="73"/>
-      <c r="C252" s="73"/>
-      <c r="D252" s="73"/>
+      <c r="B252" s="72"/>
+      <c r="C252" s="72"/>
+      <c r="D252" s="72"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="76" t="s">
-        <v>188</v>
+      <c r="A253" s="75" t="s">
+        <v>187</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>61</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C254" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="E254" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E254" s="0" t="s">
+    </row>
+    <row r="256" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="76" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="77" t="s">
+    <row r="257" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="72" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="257" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="B257" s="73"/>
-      <c r="C257" s="73"/>
-      <c r="D257" s="73"/>
+      <c r="B257" s="72"/>
+      <c r="C257" s="72"/>
+      <c r="D257" s="72"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B259" s="26" t="s">
         <v>111</v>
@@ -9115,133 +9111,133 @@
     </row>
     <row r="260" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B260" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="B260" s="36" t="s">
+      <c r="C260" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B261" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="B261" s="36" t="s">
-        <v>225</v>
-      </c>
       <c r="C261" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="165.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B262" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="B262" s="36" t="s">
-        <v>227</v>
-      </c>
       <c r="C262" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B263" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B263" s="36" t="s">
+      <c r="C263" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="C263" s="80" t="s">
+      <c r="D263" s="79"/>
+      <c r="E263" s="79"/>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="66"/>
+      <c r="B264" s="66"/>
+    </row>
+    <row r="265" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="D263" s="80"/>
-      <c r="E263" s="80"/>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="67"/>
-      <c r="B264" s="67"/>
-    </row>
-    <row r="265" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="77" t="s">
+    </row>
+    <row r="266" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="72" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="73" t="s">
+      <c r="B266" s="72"/>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="80"/>
+    </row>
+    <row r="268" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="B266" s="73"/>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="81"/>
-    </row>
-    <row r="268" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="77" t="s">
+    </row>
+    <row r="269" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="72" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="269" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="73" t="s">
+      <c r="B269" s="72"/>
+      <c r="C269" s="72"/>
+      <c r="D269" s="72"/>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B269" s="73"/>
-      <c r="C269" s="73"/>
-      <c r="D269" s="73"/>
-    </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="76" t="s">
+    </row>
+    <row r="272" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B272" s="72"/>
+      <c r="C272" s="72"/>
+      <c r="D272" s="72"/>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B270" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="B272" s="73"/>
-      <c r="C272" s="73"/>
-      <c r="D272" s="73"/>
-    </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="76" t="s">
-        <v>96</v>
-      </c>
       <c r="B273" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="275" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="73" t="s">
+      <c r="A275" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="B275" s="72"/>
+    </row>
+    <row r="276" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="B275" s="73"/>
-    </row>
-    <row r="276" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="73" t="s">
+      <c r="B276" s="72"/>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B277" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B276" s="73"/>
-    </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B277" s="0" t="s">
+    </row>
+    <row r="279" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="59" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="279" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="B279" s="60"/>
-      <c r="C279" s="60"/>
-      <c r="D279" s="60"/>
+      <c r="B279" s="59"/>
+      <c r="C279" s="59"/>
+      <c r="D279" s="59"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="14" t="s">
@@ -9254,20 +9250,20 @@
         <v>88</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B281" s="82"/>
+        <v>241</v>
+      </c>
+      <c r="B281" s="81"/>
       <c r="C281" s="37"/>
       <c r="D281" s="38"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B282" s="37"/>
       <c r="C282" s="37"/>
@@ -9278,77 +9274,77 @@
       <c r="B283" s="39"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="67"/>
-      <c r="B284" s="67"/>
+      <c r="A284" s="66"/>
+      <c r="B284" s="66"/>
     </row>
     <row r="285" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="77" t="s">
+      <c r="A285" s="76" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="82"/>
+    </row>
+    <row r="288" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="76" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="81" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="83"/>
-    </row>
-    <row r="288" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="77" t="s">
+    <row r="289" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A289" s="72" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="289" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="73" t="s">
+      <c r="B289" s="72"/>
+      <c r="C289" s="72"/>
+      <c r="D289" s="72"/>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B289" s="73"/>
-      <c r="C289" s="73"/>
-      <c r="D289" s="73"/>
-    </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B290" s="0" t="s">
+    </row>
+    <row r="292" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A292" s="59" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="B292" s="60"/>
-      <c r="C292" s="60"/>
-      <c r="D292" s="60"/>
+      <c r="B292" s="59"/>
+      <c r="C292" s="59"/>
+      <c r="D292" s="59"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="84" t="s">
+      <c r="A294" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B294" s="84" t="s">
+      <c r="B294" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="C294" s="84" t="s">
+      <c r="C294" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D294" s="85" t="s">
-        <v>249</v>
+      <c r="D294" s="84" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B295" s="37"/>
       <c r="C295" s="37"/>
-      <c r="D295" s="86"/>
+      <c r="D295" s="85"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="37"/>
-      <c r="B296" s="82"/>
+      <c r="B296" s="81"/>
       <c r="C296" s="37"/>
       <c r="D296" s="38"/>
     </row>
@@ -9440,7 +9436,7 @@
     <mergeCell ref="A292:D292"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C132" r:id="rId1" display="https://openwrt.org/docs/guide-user/base-system/dhcp"/>
+    <hyperlink ref="C132" r:id="rId1" display="dnsmasq, odhcpd-ipv6only&#10;https://openwrt.org/docs/guide-user/base-system/dhcp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9460,3116 +9456,3138 @@
   <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="87" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="87" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="88" width="142.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="89" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="89" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="87" width="78.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="87" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="87" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="87" width="50.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="87" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="86" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="86" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="87" width="142.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="88" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="88" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="86" width="78.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="86" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="86" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="86" width="50.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="86" width="11.42"/>
   </cols>
   <sheetData>
-    <row r="1" s="94" customFormat="true" ht="51.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90" t="s">
+    <row r="1" s="93" customFormat="true" ht="51.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="C1" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="D1" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+    </row>
+    <row r="2" s="93" customFormat="true" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-    </row>
-    <row r="2" s="94" customFormat="true" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="90" t="s">
+      <c r="E2" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="F2" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="G2" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="H2" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="I2" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="J2" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="K2" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="L2" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="L2" s="96" t="s">
+      <c r="M2" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="N2" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="O2" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="96" t="s">
+    </row>
+    <row r="3" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="96" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="97" t="s">
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="H3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="I3" s="99" t="s">
         <v>269</v>
       </c>
-      <c r="I3" s="100" t="s">
+      <c r="J3" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+    </row>
+    <row r="4" s="93" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="J3" s="101" t="s">
-        <v>257</v>
-      </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-    </row>
-    <row r="4" s="94" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="104" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+    </row>
+    <row r="5" s="93" customFormat="true" ht="201.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-    </row>
-    <row r="5" s="94" customFormat="true" ht="201.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="108" t="s">
+      <c r="B5" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="C5" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="D5" s="110" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="M5" s="113"/>
+      <c r="N5" s="113" t="s">
+        <v>275</v>
+      </c>
+      <c r="O5" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q5" s="93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" s="93" customFormat="true" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="114" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="98" t="s">
+      <c r="H6" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="M6" s="119" t="s">
+        <v>282</v>
+      </c>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q6" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+    </row>
+    <row r="7" s="93" customFormat="true" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="N7" s="124"/>
+      <c r="O7" s="127" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+    </row>
+    <row r="8" s="93" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+    </row>
+    <row r="9" s="93" customFormat="true" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="129" t="s">
+        <v>294</v>
+      </c>
+      <c r="N9" s="129"/>
+      <c r="O9" s="131" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+    </row>
+    <row r="10" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="114" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="126" t="s">
+        <v>298</v>
+      </c>
+      <c r="M10" s="129" t="s">
+        <v>299</v>
+      </c>
+      <c r="N10" s="129"/>
+      <c r="O10" s="131" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+    </row>
+    <row r="11" s="93" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="96"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="126" t="s">
+        <v>303</v>
+      </c>
+      <c r="M11" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+    </row>
+    <row r="12" s="93" customFormat="true" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="114" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="133" t="s">
+        <v>306</v>
+      </c>
+      <c r="M12" s="131" t="s">
+        <v>307</v>
+      </c>
+      <c r="N12" s="129"/>
+      <c r="O12" s="131" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+    </row>
+    <row r="13" s="93" customFormat="true" ht="100.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="114" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="K13" s="132"/>
+      <c r="L13" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="M13" s="129" t="s">
+        <v>299</v>
+      </c>
+      <c r="N13" s="129" t="s">
+        <v>312</v>
+      </c>
+      <c r="O13" s="131" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+    </row>
+    <row r="14" s="93" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="138" t="s">
+        <v>316</v>
+      </c>
+      <c r="M14" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+    </row>
+    <row r="15" s="93" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="116" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="135"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="138" t="s">
+        <v>319</v>
+      </c>
+      <c r="M15" s="139"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+    </row>
+    <row r="16" s="93" customFormat="true" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="114" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="135"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="138" t="s">
+        <v>322</v>
+      </c>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+    </row>
+    <row r="17" s="93" customFormat="true" ht="91.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="114" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="96"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138" t="s">
+        <v>325</v>
+      </c>
+      <c r="M17" s="137" t="s">
+        <v>326</v>
+      </c>
+      <c r="N17" s="137" t="s">
+        <v>312</v>
+      </c>
+      <c r="O17" s="140" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+    </row>
+    <row r="18" s="93" customFormat="true" ht="53.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="141" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="96"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="H18" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113" t="s">
+      <c r="I18" s="140"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="138" t="s">
+        <v>330</v>
+      </c>
+      <c r="M18" s="140" t="s">
+        <v>331</v>
+      </c>
+      <c r="N18" s="137" t="s">
+        <v>312</v>
+      </c>
+      <c r="O18" s="140" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" s="93" customFormat="true" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" s="115" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="142"/>
+      <c r="E19" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="135"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="138" t="s">
+        <v>336</v>
+      </c>
+      <c r="M19" s="136" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="136" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" s="93" customFormat="true" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="141" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="115" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="142"/>
+      <c r="E20" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="135"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="138" t="s">
+        <v>339</v>
+      </c>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="136"/>
+    </row>
+    <row r="21" s="93" customFormat="true" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="144" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="135"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="138" t="s">
+        <v>342</v>
+      </c>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="146"/>
+    </row>
+    <row r="22" s="93" customFormat="true" ht="107.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="114" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="116" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="138" t="s">
+        <v>345</v>
+      </c>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136" t="s">
+        <v>312</v>
+      </c>
+      <c r="O22" s="136"/>
+    </row>
+    <row r="23" s="93" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="149" t="s">
+        <v>350</v>
+      </c>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="136"/>
+    </row>
+    <row r="24" s="93" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="114" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="136" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24" s="136" t="s">
+        <v>349</v>
+      </c>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="136"/>
+    </row>
+    <row r="25" s="93" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="141" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="115" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="148"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="138" t="s">
+        <v>357</v>
+      </c>
+      <c r="M25" s="150"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+    </row>
+    <row r="26" s="93" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="114" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="144" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="148"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="138" t="s">
+        <v>357</v>
+      </c>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+    </row>
+    <row r="27" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="151" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="155"/>
+    </row>
+    <row r="28" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="114" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="116" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+    </row>
+    <row r="29" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="114" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="147"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="136"/>
+    </row>
+    <row r="30" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="114" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="144" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="116" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="136"/>
+    </row>
+    <row r="31" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="114" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="116" t="s">
+        <v>368</v>
+      </c>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="148"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="136"/>
+    </row>
+    <row r="32" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="114" t="s">
+        <v>369</v>
+      </c>
+      <c r="B32" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+    </row>
+    <row r="33" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="114" t="s">
+        <v>370</v>
+      </c>
+      <c r="B33" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="116" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="147"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+    </row>
+    <row r="34" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="114" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="116" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="147"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="136"/>
+    </row>
+    <row r="35" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="114" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="147"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="136"/>
+    </row>
+    <row r="36" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="151" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="155"/>
+    </row>
+    <row r="37" s="93" customFormat="true" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="114" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="148"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H37" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="138" t="s">
+        <v>379</v>
+      </c>
+      <c r="M37" s="136" t="s">
+        <v>380</v>
+      </c>
+      <c r="N37" s="136" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" s="136" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" s="93" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="114" t="s">
+        <v>382</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C38" s="116" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="148"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="H38" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="136"/>
+    </row>
+    <row r="39" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="157" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="155"/>
+    </row>
+    <row r="40" s="93" customFormat="true" ht="73.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="114" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" s="156"/>
+      <c r="C40" s="116" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="147"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="138" t="s">
+        <v>387</v>
+      </c>
+      <c r="M40" s="146" t="s">
+        <v>380</v>
+      </c>
+      <c r="N40" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114" t="s">
-        <v>276</v>
-      </c>
-      <c r="O5" s="113" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q5" s="94" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" s="94" customFormat="true" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="115" t="s">
+      <c r="O40" s="136" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" s="93" customFormat="true" ht="73.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="114" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="147"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="H41" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="I41" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="138" t="s">
+        <v>390</v>
+      </c>
+      <c r="M41" s="146"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="146" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" s="93" customFormat="true" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="114" t="s">
+        <v>392</v>
+      </c>
+      <c r="B42" s="156" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="117" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="118" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="98" t="s">
+      <c r="C42" s="116" t="s">
+        <v>393</v>
+      </c>
+      <c r="D42" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="147"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="H6" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122" t="s">
-        <v>282</v>
-      </c>
-      <c r="M6" s="120" t="s">
-        <v>283</v>
-      </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q6" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-    </row>
-    <row r="7" s="94" customFormat="true" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="115" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127" t="s">
-        <v>288</v>
-      </c>
-      <c r="M7" s="120" t="s">
-        <v>289</v>
-      </c>
-      <c r="N7" s="125"/>
-      <c r="O7" s="128" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-    </row>
-    <row r="8" s="94" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="122" t="s">
-        <v>282</v>
-      </c>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-    </row>
-    <row r="9" s="94" customFormat="true" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="115" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="117" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="130" t="s">
-        <v>295</v>
-      </c>
-      <c r="N9" s="130"/>
-      <c r="O9" s="132" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-    </row>
-    <row r="10" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="115" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="127" t="s">
-        <v>299</v>
-      </c>
-      <c r="M10" s="130" t="s">
-        <v>300</v>
-      </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="132" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-    </row>
-    <row r="11" s="94" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="115" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="127" t="s">
-        <v>304</v>
-      </c>
-      <c r="M11" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-    </row>
-    <row r="12" s="94" customFormat="true" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="115" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H12" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134" t="s">
-        <v>307</v>
-      </c>
-      <c r="M12" s="132" t="s">
-        <v>308</v>
-      </c>
-      <c r="N12" s="130"/>
-      <c r="O12" s="132" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-    </row>
-    <row r="13" s="94" customFormat="true" ht="100.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="115" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="I13" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="J13" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="K13" s="133"/>
-      <c r="L13" s="135" t="s">
-        <v>312</v>
-      </c>
-      <c r="M13" s="130" t="s">
-        <v>300</v>
-      </c>
-      <c r="N13" s="130" t="s">
-        <v>313</v>
-      </c>
-      <c r="O13" s="132" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-    </row>
-    <row r="14" s="94" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="115" t="s">
-        <v>315</v>
-      </c>
-      <c r="B14" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="139" t="s">
-        <v>317</v>
-      </c>
-      <c r="M14" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-    </row>
-    <row r="15" s="94" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="115" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>319</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="139" t="s">
-        <v>320</v>
-      </c>
-      <c r="M15" s="140"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-    </row>
-    <row r="16" s="94" customFormat="true" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="115" t="s">
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="138" t="s">
+        <v>394</v>
+      </c>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="136"/>
+    </row>
+    <row r="43" s="93" customFormat="true" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="114" t="s">
+        <v>395</v>
+      </c>
+      <c r="B43" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="116" t="s">
+        <v>396</v>
+      </c>
+      <c r="D43" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="147"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="136" t="s">
+        <v>397</v>
+      </c>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="136"/>
+      <c r="N43" s="137"/>
+      <c r="O43" s="136"/>
+    </row>
+    <row r="44" s="93" customFormat="true" ht="45.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="B44" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="D44" s="160"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="137" t="s">
+        <v>397</v>
+      </c>
+      <c r="H44" s="137" t="s">
+        <v>397</v>
+      </c>
+      <c r="I44" s="137" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" s="137"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="162"/>
+      <c r="M44" s="137"/>
+      <c r="N44" s="137"/>
+      <c r="O44" s="137"/>
+    </row>
+    <row r="45" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="114" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45" s="156" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="116" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" s="160"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="137"/>
+      <c r="L45" s="162"/>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="137"/>
+    </row>
+    <row r="46" s="93" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="114" t="s">
+        <v>402</v>
+      </c>
+      <c r="B46" s="156" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="116" t="s">
+        <v>403</v>
+      </c>
+      <c r="D46" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="147"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="136"/>
+    </row>
+    <row r="47" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="114" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" s="116" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="147"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="162"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="136"/>
+      <c r="O47" s="136"/>
+    </row>
+    <row r="48" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="114" t="s">
+        <v>406</v>
+      </c>
+      <c r="B48" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="116" t="s">
+        <v>407</v>
+      </c>
+      <c r="D48" s="160"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="136"/>
+      <c r="L48" s="162"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="136"/>
+      <c r="O48" s="136"/>
+    </row>
+    <row r="49" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="114" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="D49" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="147"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="162"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="136"/>
+    </row>
+    <row r="50" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="114" t="s">
+        <v>410</v>
+      </c>
+      <c r="B50" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="D50" s="163" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="147"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="136"/>
+      <c r="L50" s="162"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="136"/>
+    </row>
+    <row r="51" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="114" t="s">
+        <v>412</v>
+      </c>
+      <c r="B51" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="164" t="s">
+        <v>413</v>
+      </c>
+      <c r="D51" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="147"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="162"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="136"/>
+    </row>
+    <row r="52" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="114" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" s="144" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" s="165" t="s">
+        <v>415</v>
+      </c>
+      <c r="D52" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="147"/>
+      <c r="F52" s="148"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="162"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="137"/>
+    </row>
+    <row r="53" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="B53" s="156" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" s="116" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="147"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="162"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="136"/>
+      <c r="O53" s="136"/>
+    </row>
+    <row r="54" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="114" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="116" t="s">
+        <v>419</v>
+      </c>
+      <c r="D54" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="147"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="136"/>
+      <c r="L54" s="162"/>
+      <c r="M54" s="136"/>
+      <c r="N54" s="136"/>
+      <c r="O54" s="136"/>
+    </row>
+    <row r="55" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="114" t="s">
+        <v>420</v>
+      </c>
+      <c r="B55" s="156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C55" s="116" t="s">
+        <v>421</v>
+      </c>
+      <c r="D55" s="160"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="162"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="137"/>
+      <c r="O55" s="137"/>
+    </row>
+    <row r="56" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="114" t="s">
+        <v>422</v>
+      </c>
+      <c r="B56" s="156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" s="116" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" s="160"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="162"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="137"/>
+      <c r="O56" s="137"/>
+    </row>
+    <row r="57" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="114" t="s">
+        <v>424</v>
+      </c>
+      <c r="B57" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="164" t="s">
+        <v>425</v>
+      </c>
+      <c r="D57" s="160"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="162"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="136"/>
+    </row>
+    <row r="58" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="114" t="s">
+        <v>426</v>
+      </c>
+      <c r="B58" s="156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" s="165" t="s">
+        <v>415</v>
+      </c>
+      <c r="D58" s="160"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="162"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="136"/>
+    </row>
+    <row r="59" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="114" t="s">
+        <v>427</v>
+      </c>
+      <c r="B59" s="156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C59" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="D59" s="160"/>
+      <c r="E59" s="147"/>
+      <c r="F59" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="137"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="162"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+    </row>
+    <row r="60" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="114" t="s">
+        <v>429</v>
+      </c>
+      <c r="B60" s="156" t="s">
+        <v>430</v>
+      </c>
+      <c r="C60" s="116" t="s">
+        <v>431</v>
+      </c>
+      <c r="D60" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="147"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="136"/>
+      <c r="L60" s="162"/>
+      <c r="M60" s="136"/>
+      <c r="N60" s="136"/>
+      <c r="O60" s="136"/>
+    </row>
+    <row r="61" s="93" customFormat="true" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="B61" s="156" t="s">
+        <v>430</v>
+      </c>
+      <c r="C61" s="116" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="160"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="136"/>
+      <c r="H61" s="136"/>
+      <c r="I61" s="136"/>
+      <c r="J61" s="136"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="162"/>
+      <c r="M61" s="136"/>
+      <c r="N61" s="136"/>
+      <c r="O61" s="136"/>
+    </row>
+    <row r="62" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="114" t="s">
+        <v>434</v>
+      </c>
+      <c r="B62" s="156" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" s="116" t="s">
+        <v>436</v>
+      </c>
+      <c r="D62" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="147"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="136"/>
+      <c r="I62" s="136"/>
+      <c r="J62" s="136"/>
+      <c r="K62" s="136"/>
+      <c r="L62" s="162" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" s="136"/>
+      <c r="N62" s="136"/>
+      <c r="O62" s="146"/>
+    </row>
+    <row r="63" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="114" t="s">
+        <v>438</v>
+      </c>
+      <c r="B63" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" s="116" t="s">
+        <v>439</v>
+      </c>
+      <c r="D63" s="160"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="136"/>
+      <c r="K63" s="136"/>
+      <c r="L63" s="162"/>
+      <c r="M63" s="136"/>
+      <c r="N63" s="136"/>
+      <c r="O63" s="136"/>
+    </row>
+    <row r="64" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="114" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="147"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="162" t="s">
+        <v>442</v>
+      </c>
+      <c r="M64" s="137"/>
+      <c r="N64" s="137"/>
+      <c r="O64" s="137"/>
+    </row>
+    <row r="65" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="B65" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C65" s="116" t="s">
+        <v>444</v>
+      </c>
+      <c r="D65" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="147"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="136"/>
+      <c r="J65" s="136"/>
+      <c r="K65" s="136"/>
+      <c r="L65" s="162"/>
+      <c r="M65" s="136"/>
+      <c r="N65" s="136"/>
+      <c r="O65" s="136"/>
+    </row>
+    <row r="66" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="114" t="s">
+        <v>445</v>
+      </c>
+      <c r="B66" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="116" t="s">
+        <v>446</v>
+      </c>
+      <c r="D66" s="160"/>
+      <c r="E66" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="148"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="136"/>
+      <c r="L66" s="162"/>
+      <c r="M66" s="136"/>
+      <c r="N66" s="136"/>
+      <c r="O66" s="136"/>
+    </row>
+    <row r="67" s="93" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="114" t="s">
+        <v>447</v>
+      </c>
+      <c r="B67" s="148" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="116" t="s">
+        <v>448</v>
+      </c>
+      <c r="D67" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" s="147"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="136"/>
+      <c r="H67" s="136"/>
+      <c r="I67" s="136"/>
+      <c r="J67" s="136"/>
+      <c r="K67" s="136"/>
+      <c r="L67" s="162"/>
+      <c r="M67" s="136"/>
+      <c r="N67" s="136"/>
+      <c r="O67" s="136"/>
+    </row>
+    <row r="68" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="114" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="148" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="D68" s="160" t="s">
+        <v>451</v>
+      </c>
+      <c r="E68" s="147"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="136"/>
+      <c r="K68" s="136"/>
+      <c r="L68" s="162"/>
+      <c r="M68" s="136"/>
+      <c r="N68" s="136"/>
+      <c r="O68" s="136"/>
+    </row>
+    <row r="69" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="114" t="s">
+        <v>452</v>
+      </c>
+      <c r="B69" s="156" t="s">
+        <v>279</v>
+      </c>
+      <c r="C69" s="116" t="s">
+        <v>453</v>
+      </c>
+      <c r="D69" s="160" t="s">
+        <v>451</v>
+      </c>
+      <c r="E69" s="147"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="136"/>
+      <c r="I69" s="136"/>
+      <c r="J69" s="136"/>
+      <c r="K69" s="136"/>
+      <c r="L69" s="162" t="s">
+        <v>454</v>
+      </c>
+      <c r="M69" s="136"/>
+      <c r="N69" s="136"/>
+      <c r="O69" s="136"/>
+    </row>
+    <row r="70" s="93" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="114" t="s">
+        <v>455</v>
+      </c>
+      <c r="B70" s="144" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="116" t="s">
+        <v>456</v>
+      </c>
+      <c r="D70" s="160" t="s">
+        <v>451</v>
+      </c>
+      <c r="E70" s="147"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="136"/>
+      <c r="H70" s="136"/>
+      <c r="I70" s="136"/>
+      <c r="J70" s="136"/>
+      <c r="K70" s="136"/>
+      <c r="L70" s="162" t="s">
+        <v>457</v>
+      </c>
+      <c r="M70" s="136"/>
+      <c r="N70" s="136"/>
+      <c r="O70" s="146"/>
+    </row>
+    <row r="71" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="151" t="s">
+        <v>458</v>
+      </c>
+      <c r="B71" s="151"/>
+      <c r="C71" s="151"/>
+      <c r="D71" s="151"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="151"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="153"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154"/>
+      <c r="N71" s="154"/>
+      <c r="O71" s="155"/>
+    </row>
+    <row r="72" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="B72" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="D72" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" s="147"/>
+      <c r="F72" s="148"/>
+      <c r="G72" s="136"/>
+      <c r="H72" s="136"/>
+      <c r="I72" s="136"/>
+      <c r="J72" s="136"/>
+      <c r="K72" s="136"/>
+      <c r="L72" s="136"/>
+      <c r="M72" s="136"/>
+      <c r="N72" s="136"/>
+      <c r="O72" s="136"/>
+    </row>
+    <row r="73" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="114" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="116" t="s">
+        <v>462</v>
+      </c>
+      <c r="D73" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73" s="147"/>
+      <c r="F73" s="148"/>
+      <c r="G73" s="136"/>
+      <c r="H73" s="136"/>
+      <c r="I73" s="136"/>
+      <c r="J73" s="136"/>
+      <c r="K73" s="136"/>
+      <c r="L73" s="136"/>
+      <c r="M73" s="136"/>
+      <c r="N73" s="136"/>
+      <c r="O73" s="136"/>
+    </row>
+    <row r="74" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="114" t="s">
+        <v>463</v>
+      </c>
+      <c r="B74" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="116" t="s">
+        <v>464</v>
+      </c>
+      <c r="D74" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E74" s="147"/>
+      <c r="F74" s="148"/>
+      <c r="G74" s="136"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="136"/>
+      <c r="J74" s="136"/>
+      <c r="K74" s="136"/>
+      <c r="L74" s="162"/>
+      <c r="M74" s="136"/>
+      <c r="N74" s="136"/>
+      <c r="O74" s="136"/>
+    </row>
+    <row r="75" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="114" t="s">
+        <v>465</v>
+      </c>
+      <c r="B75" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="116" t="s">
+        <v>466</v>
+      </c>
+      <c r="D75" s="160"/>
+      <c r="E75" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="148"/>
+      <c r="G75" s="136"/>
+      <c r="H75" s="136"/>
+      <c r="I75" s="136"/>
+      <c r="J75" s="136"/>
+      <c r="K75" s="136"/>
+      <c r="L75" s="162"/>
+      <c r="M75" s="136"/>
+      <c r="N75" s="136"/>
+      <c r="O75" s="136"/>
+    </row>
+    <row r="76" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="114" t="s">
+        <v>467</v>
+      </c>
+      <c r="B76" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="116" t="s">
+        <v>468</v>
+      </c>
+      <c r="D76" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E76" s="147"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="136"/>
+      <c r="H76" s="136"/>
+      <c r="I76" s="136"/>
+      <c r="J76" s="136"/>
+      <c r="K76" s="136"/>
+      <c r="L76" s="162" t="s">
+        <v>469</v>
+      </c>
+      <c r="M76" s="136"/>
+      <c r="N76" s="136"/>
+      <c r="O76" s="136"/>
+    </row>
+    <row r="77" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="114" t="s">
+        <v>470</v>
+      </c>
+      <c r="B77" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="116" t="s">
+        <v>471</v>
+      </c>
+      <c r="D77" s="160" t="s">
+        <v>451</v>
+      </c>
+      <c r="E77" s="147"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="137"/>
+      <c r="H77" s="136"/>
+      <c r="I77" s="136"/>
+      <c r="J77" s="136"/>
+      <c r="K77" s="136"/>
+      <c r="L77" s="162" t="s">
+        <v>472</v>
+      </c>
+      <c r="M77" s="136"/>
+      <c r="N77" s="136"/>
+      <c r="O77" s="136"/>
+    </row>
+    <row r="78" s="93" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="114" t="s">
+        <v>473</v>
+      </c>
+      <c r="B78" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C78" s="116" t="s">
+        <v>474</v>
+      </c>
+      <c r="D78" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="147"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="136"/>
+      <c r="H78" s="136"/>
+      <c r="I78" s="136"/>
+      <c r="J78" s="136"/>
+      <c r="K78" s="136"/>
+      <c r="L78" s="162"/>
+      <c r="M78" s="136"/>
+      <c r="N78" s="136"/>
+      <c r="O78" s="136"/>
+    </row>
+    <row r="79" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="114" t="s">
+        <v>475</v>
+      </c>
+      <c r="B79" s="115" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" s="116" t="s">
+        <v>476</v>
+      </c>
+      <c r="D79" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E79" s="147"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="136"/>
+      <c r="K79" s="136"/>
+      <c r="L79" s="162"/>
+      <c r="M79" s="136"/>
+      <c r="N79" s="136"/>
+      <c r="O79" s="136"/>
+    </row>
+    <row r="80" s="93" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="114" t="s">
+        <v>477</v>
+      </c>
+      <c r="B80" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="116" t="s">
+        <v>478</v>
+      </c>
+      <c r="D80" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="147"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="136"/>
+      <c r="H80" s="136"/>
+      <c r="I80" s="136"/>
+      <c r="J80" s="136"/>
+      <c r="K80" s="136"/>
+      <c r="L80" s="162"/>
+      <c r="M80" s="136"/>
+      <c r="N80" s="136"/>
+      <c r="O80" s="136"/>
+    </row>
+    <row r="81" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="114" t="s">
+        <v>479</v>
+      </c>
+      <c r="B81" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="116" t="s">
+        <v>480</v>
+      </c>
+      <c r="D81" s="160"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="G81" s="136"/>
+      <c r="H81" s="136"/>
+      <c r="I81" s="136"/>
+      <c r="J81" s="136"/>
+      <c r="K81" s="136"/>
+      <c r="L81" s="162"/>
+      <c r="M81" s="136"/>
+      <c r="N81" s="136"/>
+      <c r="O81" s="136"/>
+    </row>
+    <row r="82" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="B82" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="116" t="s">
+        <v>482</v>
+      </c>
+      <c r="D82" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="147"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="136"/>
+      <c r="H82" s="136"/>
+      <c r="I82" s="136"/>
+      <c r="J82" s="136"/>
+      <c r="K82" s="136"/>
+      <c r="L82" s="162"/>
+      <c r="M82" s="146"/>
+      <c r="N82" s="136"/>
+      <c r="O82" s="136"/>
+    </row>
+    <row r="83" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="151"/>
+      <c r="C83" s="151"/>
+      <c r="D83" s="151"/>
+      <c r="E83" s="151"/>
+      <c r="F83" s="151"/>
+      <c r="G83" s="152"/>
+      <c r="H83" s="153"/>
+      <c r="I83" s="153"/>
+      <c r="J83" s="153"/>
+      <c r="K83" s="153"/>
+      <c r="L83" s="154"/>
+      <c r="M83" s="154"/>
+      <c r="N83" s="154"/>
+      <c r="O83" s="155"/>
+    </row>
+    <row r="84" s="93" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="141" t="s">
+        <v>483</v>
+      </c>
+      <c r="B84" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="116" t="s">
+        <v>484</v>
+      </c>
+      <c r="D84" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E84" s="147"/>
+      <c r="F84" s="148"/>
+      <c r="G84" s="136"/>
+      <c r="H84" s="136"/>
+      <c r="I84" s="136"/>
+      <c r="J84" s="136"/>
+      <c r="K84" s="136"/>
+      <c r="L84" s="136"/>
+      <c r="M84" s="136"/>
+      <c r="N84" s="136"/>
+      <c r="O84" s="136"/>
+    </row>
+    <row r="85" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="114" t="s">
+        <v>485</v>
+      </c>
+      <c r="B85" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="116" t="s">
+        <v>486</v>
+      </c>
+      <c r="D85" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E85" s="147"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="136"/>
+      <c r="H85" s="136"/>
+      <c r="I85" s="136"/>
+      <c r="J85" s="136"/>
+      <c r="K85" s="136"/>
+      <c r="L85" s="162"/>
+      <c r="M85" s="136"/>
+      <c r="N85" s="136"/>
+      <c r="O85" s="136"/>
+    </row>
+    <row r="86" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="114" t="s">
+        <v>487</v>
+      </c>
+      <c r="B86" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" s="116" t="s">
+        <v>488</v>
+      </c>
+      <c r="D86" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="147"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="136"/>
+      <c r="H86" s="136"/>
+      <c r="I86" s="136"/>
+      <c r="J86" s="136"/>
+      <c r="K86" s="136"/>
+      <c r="L86" s="136"/>
+      <c r="M86" s="136"/>
+      <c r="N86" s="136"/>
+      <c r="O86" s="136"/>
+    </row>
+    <row r="87" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="114" t="s">
+        <v>489</v>
+      </c>
+      <c r="B87" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="D87" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E87" s="147"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="136"/>
+      <c r="H87" s="136"/>
+      <c r="I87" s="136"/>
+      <c r="J87" s="136"/>
+      <c r="K87" s="136"/>
+      <c r="L87" s="162"/>
+      <c r="M87" s="136"/>
+      <c r="N87" s="136"/>
+      <c r="O87" s="136"/>
+    </row>
+    <row r="88" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="114" t="s">
+        <v>491</v>
+      </c>
+      <c r="B88" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="C88" s="116" t="s">
+        <v>492</v>
+      </c>
+      <c r="D88" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E88" s="147"/>
+      <c r="F88" s="148"/>
+      <c r="G88" s="136"/>
+      <c r="H88" s="136"/>
+      <c r="I88" s="136"/>
+      <c r="J88" s="136"/>
+      <c r="K88" s="136"/>
+      <c r="L88" s="136"/>
+      <c r="M88" s="136"/>
+      <c r="N88" s="136"/>
+      <c r="O88" s="136"/>
+    </row>
+    <row r="89" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="151" t="s">
+        <v>493</v>
+      </c>
+      <c r="B89" s="151"/>
+      <c r="C89" s="151"/>
+      <c r="D89" s="151"/>
+      <c r="E89" s="151"/>
+      <c r="F89" s="151"/>
+      <c r="G89" s="152"/>
+      <c r="H89" s="153"/>
+      <c r="I89" s="153"/>
+      <c r="J89" s="153"/>
+      <c r="K89" s="153"/>
+      <c r="L89" s="154"/>
+      <c r="M89" s="154"/>
+      <c r="N89" s="154"/>
+      <c r="O89" s="155"/>
+    </row>
+    <row r="90" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="141" t="s">
+        <v>494</v>
+      </c>
+      <c r="B90" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="116" t="s">
+        <v>495</v>
+      </c>
+      <c r="D90" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E90" s="147"/>
+      <c r="F90" s="148"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="136"/>
+      <c r="I90" s="136"/>
+      <c r="J90" s="136"/>
+      <c r="K90" s="136"/>
+      <c r="L90" s="136"/>
+      <c r="M90" s="136"/>
+      <c r="N90" s="136"/>
+      <c r="O90" s="136"/>
+    </row>
+    <row r="91" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="141" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="116" t="s">
+        <v>497</v>
+      </c>
+      <c r="D91" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" s="147"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="136"/>
+      <c r="H91" s="136"/>
+      <c r="I91" s="136"/>
+      <c r="J91" s="136"/>
+      <c r="K91" s="136"/>
+      <c r="L91" s="162"/>
+      <c r="M91" s="136"/>
+      <c r="N91" s="136"/>
+      <c r="O91" s="136"/>
+    </row>
+    <row r="92" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="141" t="s">
+        <v>498</v>
+      </c>
+      <c r="B92" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="116" t="s">
+        <v>499</v>
+      </c>
+      <c r="D92" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" s="147"/>
+      <c r="F92" s="148"/>
+      <c r="G92" s="136"/>
+      <c r="H92" s="136"/>
+      <c r="I92" s="136"/>
+      <c r="J92" s="136"/>
+      <c r="K92" s="136"/>
+      <c r="L92" s="138"/>
+      <c r="M92" s="136"/>
+      <c r="N92" s="136"/>
+      <c r="O92" s="136"/>
+    </row>
+    <row r="93" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="141" t="s">
+        <v>500</v>
+      </c>
+      <c r="B93" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" s="116" t="s">
+        <v>501</v>
+      </c>
+      <c r="D93" s="160"/>
+      <c r="E93" s="147"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="136"/>
+      <c r="H93" s="136"/>
+      <c r="I93" s="136"/>
+      <c r="J93" s="136"/>
+      <c r="K93" s="136"/>
+      <c r="L93" s="138" t="s">
+        <v>502</v>
+      </c>
+      <c r="M93" s="136"/>
+      <c r="N93" s="136"/>
+      <c r="O93" s="136"/>
+    </row>
+    <row r="94" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="114" t="s">
+        <v>503</v>
+      </c>
+      <c r="B94" s="144" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="116" t="s">
+        <v>504</v>
+      </c>
+      <c r="D94" s="160"/>
+      <c r="E94" s="147"/>
+      <c r="F94" s="148"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="136"/>
+      <c r="I94" s="136"/>
+      <c r="J94" s="136"/>
+      <c r="K94" s="136"/>
+      <c r="L94" s="138" t="s">
+        <v>505</v>
+      </c>
+      <c r="M94" s="136"/>
+      <c r="N94" s="136"/>
+      <c r="O94" s="136"/>
+    </row>
+    <row r="95" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="151" t="s">
+        <v>506</v>
+      </c>
+      <c r="B95" s="151"/>
+      <c r="C95" s="151"/>
+      <c r="D95" s="151"/>
+      <c r="E95" s="151"/>
+      <c r="F95" s="151"/>
+      <c r="G95" s="152"/>
+      <c r="H95" s="153"/>
+      <c r="I95" s="153"/>
+      <c r="J95" s="153"/>
+      <c r="K95" s="153"/>
+      <c r="L95" s="154"/>
+      <c r="M95" s="154"/>
+      <c r="N95" s="154"/>
+      <c r="O95" s="155"/>
+    </row>
+    <row r="96" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="141" t="s">
+        <v>507</v>
+      </c>
+      <c r="B96" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="116" t="s">
+        <v>508</v>
+      </c>
+      <c r="D96" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E96" s="147"/>
+      <c r="F96" s="148"/>
+      <c r="G96" s="136"/>
+      <c r="H96" s="136"/>
+      <c r="I96" s="136"/>
+      <c r="J96" s="136"/>
+      <c r="K96" s="136"/>
+      <c r="L96" s="136"/>
+      <c r="M96" s="136"/>
+      <c r="N96" s="136"/>
+      <c r="O96" s="136"/>
+    </row>
+    <row r="97" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="114" t="s">
+        <v>509</v>
+      </c>
+      <c r="B97" s="144" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="116" t="s">
+        <v>510</v>
+      </c>
+      <c r="D97" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E97" s="147"/>
+      <c r="F97" s="148"/>
+      <c r="G97" s="136"/>
+      <c r="H97" s="136"/>
+      <c r="I97" s="136"/>
+      <c r="J97" s="136"/>
+      <c r="K97" s="136"/>
+      <c r="L97" s="136"/>
+      <c r="M97" s="136"/>
+      <c r="N97" s="136"/>
+      <c r="O97" s="136"/>
+    </row>
+    <row r="98" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="151" t="s">
+        <v>511</v>
+      </c>
+      <c r="B98" s="151"/>
+      <c r="C98" s="151"/>
+      <c r="D98" s="151"/>
+      <c r="E98" s="151"/>
+      <c r="F98" s="151"/>
+      <c r="G98" s="152"/>
+      <c r="H98" s="153"/>
+      <c r="I98" s="153"/>
+      <c r="J98" s="153"/>
+      <c r="K98" s="153"/>
+      <c r="L98" s="154"/>
+      <c r="M98" s="154"/>
+      <c r="N98" s="154"/>
+      <c r="O98" s="155"/>
+    </row>
+    <row r="99" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="114" t="s">
+        <v>512</v>
+      </c>
+      <c r="B99" s="144" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="166" t="s">
+        <v>513</v>
+      </c>
+      <c r="D99" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99" s="147"/>
+      <c r="F99" s="148"/>
+      <c r="G99" s="136"/>
+      <c r="H99" s="136"/>
+      <c r="I99" s="136"/>
+      <c r="J99" s="136"/>
+      <c r="K99" s="136"/>
+      <c r="L99" s="162"/>
+      <c r="M99" s="146"/>
+      <c r="N99" s="136"/>
+      <c r="O99" s="136"/>
+    </row>
+    <row r="100" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="151" t="s">
+        <v>514</v>
+      </c>
+      <c r="B100" s="151"/>
+      <c r="C100" s="151"/>
+      <c r="D100" s="151"/>
+      <c r="E100" s="151"/>
+      <c r="F100" s="151"/>
+      <c r="G100" s="152"/>
+      <c r="H100" s="153"/>
+      <c r="I100" s="153"/>
+      <c r="J100" s="153"/>
+      <c r="K100" s="153"/>
+      <c r="L100" s="154"/>
+      <c r="M100" s="154"/>
+      <c r="N100" s="154"/>
+      <c r="O100" s="155"/>
+    </row>
+    <row r="101" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="141" t="s">
+        <v>515</v>
+      </c>
+      <c r="B101" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" s="116" t="s">
+        <v>516</v>
+      </c>
+      <c r="D101" s="163" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" s="147"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="136"/>
+      <c r="H101" s="136"/>
+      <c r="I101" s="136"/>
+      <c r="J101" s="136"/>
+      <c r="K101" s="136"/>
+      <c r="L101" s="136"/>
+      <c r="M101" s="146"/>
+      <c r="N101" s="136"/>
+      <c r="O101" s="136"/>
+    </row>
+    <row r="102" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="141" t="s">
+        <v>517</v>
+      </c>
+      <c r="B102" s="115" t="s">
+        <v>518</v>
+      </c>
+      <c r="C102" s="116" t="s">
+        <v>519</v>
+      </c>
+      <c r="D102" s="160"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="148"/>
+      <c r="G102" s="136"/>
+      <c r="H102" s="137"/>
+      <c r="I102" s="137"/>
+      <c r="J102" s="137"/>
+      <c r="K102" s="137"/>
+      <c r="L102" s="136"/>
+      <c r="M102" s="137"/>
+      <c r="N102" s="137"/>
+      <c r="O102" s="137"/>
+    </row>
+    <row r="103" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="141" t="s">
+        <v>520</v>
+      </c>
+      <c r="B103" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C103" s="116" t="s">
+        <v>521</v>
+      </c>
+      <c r="D103" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E103" s="147"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="136"/>
+      <c r="H103" s="136"/>
+      <c r="I103" s="136"/>
+      <c r="J103" s="136"/>
+      <c r="K103" s="136"/>
+      <c r="L103" s="136"/>
+      <c r="M103" s="167"/>
+      <c r="N103" s="136"/>
+      <c r="O103" s="136"/>
+    </row>
+    <row r="104" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="168" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" s="168"/>
+      <c r="C104" s="168"/>
+      <c r="D104" s="168"/>
+      <c r="E104" s="168"/>
+      <c r="F104" s="168"/>
+      <c r="G104" s="152"/>
+      <c r="H104" s="153"/>
+      <c r="I104" s="153"/>
+      <c r="J104" s="153"/>
+      <c r="K104" s="153"/>
+      <c r="L104" s="154"/>
+      <c r="M104" s="154"/>
+      <c r="N104" s="154"/>
+      <c r="O104" s="155"/>
+    </row>
+    <row r="105" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="141" t="s">
+        <v>522</v>
+      </c>
+      <c r="B105" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" s="116" t="s">
+        <v>523</v>
+      </c>
+      <c r="D105" s="160"/>
+      <c r="E105" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F105" s="148"/>
+      <c r="G105" s="136"/>
+      <c r="H105" s="136"/>
+      <c r="I105" s="136"/>
+      <c r="J105" s="136"/>
+      <c r="K105" s="136"/>
+      <c r="L105" s="146"/>
+      <c r="M105" s="136"/>
+      <c r="N105" s="136"/>
+      <c r="O105" s="136"/>
+    </row>
+    <row r="106" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="141" t="s">
+        <v>524</v>
+      </c>
+      <c r="B106" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="116" t="s">
+        <v>525</v>
+      </c>
+      <c r="D106" s="160"/>
+      <c r="E106" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F106" s="148"/>
+      <c r="G106" s="137"/>
+      <c r="H106" s="136"/>
+      <c r="I106" s="136"/>
+      <c r="J106" s="136"/>
+      <c r="K106" s="136"/>
+      <c r="L106" s="146"/>
+      <c r="M106" s="136"/>
+      <c r="N106" s="136"/>
+      <c r="O106" s="136"/>
+    </row>
+    <row r="107" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="141" t="s">
+        <v>526</v>
+      </c>
+      <c r="B107" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C107" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="B16" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>322</v>
-      </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="139" t="s">
-        <v>323</v>
-      </c>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-    </row>
-    <row r="17" s="94" customFormat="true" ht="91.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="115" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="117" t="s">
-        <v>325</v>
-      </c>
-      <c r="D17" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H17" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="139" t="s">
-        <v>326</v>
-      </c>
-      <c r="M17" s="138" t="s">
-        <v>327</v>
-      </c>
-      <c r="N17" s="138" t="s">
-        <v>313</v>
-      </c>
-      <c r="O17" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-    </row>
-    <row r="18" s="94" customFormat="true" ht="53.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="142" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="143" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" s="141"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="139" t="s">
-        <v>331</v>
-      </c>
-      <c r="M18" s="141" t="s">
-        <v>332</v>
-      </c>
-      <c r="N18" s="138" t="s">
-        <v>313</v>
-      </c>
-      <c r="O18" s="141" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" s="94" customFormat="true" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="142" t="s">
-        <v>334</v>
-      </c>
-      <c r="B19" s="116" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="117" t="s">
-        <v>336</v>
-      </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="139" t="s">
-        <v>337</v>
-      </c>
-      <c r="M19" s="137" t="s">
-        <v>91</v>
-      </c>
-      <c r="N19" s="137" t="s">
-        <v>91</v>
-      </c>
-      <c r="O19" s="137" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" s="94" customFormat="true" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="142" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20" s="116" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="117" t="s">
-        <v>339</v>
-      </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="139" t="s">
-        <v>340</v>
-      </c>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="137"/>
-    </row>
-    <row r="21" s="94" customFormat="true" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="115" t="s">
-        <v>341</v>
-      </c>
-      <c r="B21" s="145" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="117" t="s">
-        <v>342</v>
-      </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="136"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="139" t="s">
-        <v>343</v>
-      </c>
-      <c r="M21" s="137"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="147"/>
-    </row>
-    <row r="22" s="94" customFormat="true" ht="107.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="115" t="s">
-        <v>344</v>
-      </c>
-      <c r="B22" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>345</v>
-      </c>
-      <c r="D22" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H22" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="139" t="s">
-        <v>346</v>
-      </c>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137" t="s">
-        <v>313</v>
-      </c>
-      <c r="O22" s="137"/>
-    </row>
-    <row r="23" s="94" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="115" t="s">
-        <v>347</v>
-      </c>
-      <c r="B23" s="116" t="s">
-        <v>348</v>
-      </c>
-      <c r="C23" s="117" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="148"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="150" t="s">
-        <v>351</v>
-      </c>
-      <c r="M23" s="137"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="137"/>
-    </row>
-    <row r="24" s="94" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="115" t="s">
+      <c r="D107" s="160"/>
+      <c r="E107" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F107" s="148"/>
+      <c r="G107" s="137"/>
+      <c r="H107" s="136"/>
+      <c r="I107" s="136"/>
+      <c r="J107" s="136"/>
+      <c r="K107" s="136"/>
+      <c r="L107" s="146"/>
+      <c r="M107" s="146"/>
+      <c r="N107" s="136"/>
+      <c r="O107" s="136"/>
+    </row>
+    <row r="108" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="116" t="s">
+        <v>527</v>
+      </c>
+      <c r="B108" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" s="169" t="s">
+        <v>528</v>
+      </c>
+      <c r="D108" s="170"/>
+      <c r="E108" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="F108" s="156"/>
+      <c r="G108" s="136"/>
+      <c r="H108" s="146"/>
+      <c r="I108" s="146"/>
+      <c r="J108" s="146"/>
+      <c r="K108" s="146"/>
+      <c r="L108" s="146"/>
+      <c r="M108" s="136"/>
+      <c r="N108" s="136"/>
+      <c r="O108" s="136"/>
+    </row>
+    <row r="109" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="151" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" s="151"/>
+      <c r="C109" s="151"/>
+      <c r="D109" s="151"/>
+      <c r="E109" s="151"/>
+      <c r="F109" s="151"/>
+      <c r="G109" s="152"/>
+      <c r="H109" s="153"/>
+      <c r="I109" s="153"/>
+      <c r="J109" s="153"/>
+      <c r="K109" s="153"/>
+      <c r="L109" s="154"/>
+      <c r="M109" s="154"/>
+      <c r="N109" s="154"/>
+      <c r="O109" s="155"/>
+    </row>
+    <row r="110" s="93" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="171" t="s">
+        <v>529</v>
+      </c>
+      <c r="B110" s="172" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" s="173" t="s">
+        <v>530</v>
+      </c>
+      <c r="D110" s="160"/>
+      <c r="E110" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F110" s="148"/>
+      <c r="G110" s="174"/>
+      <c r="H110" s="174"/>
+      <c r="I110" s="174"/>
+      <c r="J110" s="174"/>
+      <c r="K110" s="174"/>
+      <c r="L110" s="146"/>
+      <c r="M110" s="174"/>
+      <c r="N110" s="174"/>
+      <c r="O110" s="174"/>
+    </row>
+    <row r="111" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="175" t="s">
+        <v>531</v>
+      </c>
+      <c r="B111" s="172" t="s">
         <v>352</v>
       </c>
-      <c r="B24" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24" s="117" t="s">
-        <v>354</v>
-      </c>
-      <c r="D24" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="148"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="H24" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="137"/>
-    </row>
-    <row r="25" s="94" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="142" t="s">
-        <v>355</v>
-      </c>
-      <c r="B25" s="116" t="s">
-        <v>356</v>
-      </c>
-      <c r="C25" s="117" t="s">
-        <v>357</v>
-      </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="149"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139" t="s">
-        <v>358</v>
-      </c>
-      <c r="M25" s="151"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-    </row>
-    <row r="26" s="94" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="115" t="s">
-        <v>359</v>
-      </c>
-      <c r="B26" s="145" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="117" t="s">
-        <v>360</v>
-      </c>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="139" t="s">
-        <v>358</v>
-      </c>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-    </row>
-    <row r="27" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="152" t="s">
-        <v>361</v>
-      </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="156"/>
-    </row>
-    <row r="28" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="115" t="s">
-        <v>362</v>
-      </c>
-      <c r="B28" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="117" t="s">
-        <v>363</v>
-      </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-    </row>
-    <row r="29" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="115" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C29" s="117" t="s">
-        <v>365</v>
-      </c>
-      <c r="D29" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E29" s="148"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="137"/>
-    </row>
-    <row r="30" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="115" t="s">
-        <v>366</v>
-      </c>
-      <c r="B30" s="145" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" s="117" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="148"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="137"/>
-    </row>
-    <row r="31" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="115" t="s">
-        <v>368</v>
-      </c>
-      <c r="B31" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="117" t="s">
-        <v>369</v>
-      </c>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F31" s="149"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="137"/>
-    </row>
-    <row r="32" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="115" t="s">
-        <v>370</v>
-      </c>
-      <c r="B32" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C32" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="D32" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E32" s="148"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137"/>
-    </row>
-    <row r="33" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="115" t="s">
-        <v>371</v>
-      </c>
-      <c r="B33" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="117" t="s">
-        <v>372</v>
-      </c>
-      <c r="D33" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="148"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="137"/>
-    </row>
-    <row r="34" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="115" t="s">
-        <v>373</v>
-      </c>
-      <c r="B34" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C34" s="117" t="s">
-        <v>374</v>
-      </c>
-      <c r="D34" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="148"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="137"/>
-    </row>
-    <row r="35" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="115" t="s">
-        <v>375</v>
-      </c>
-      <c r="B35" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C35" s="117" t="s">
-        <v>376</v>
-      </c>
-      <c r="D35" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="137"/>
-    </row>
-    <row r="36" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="152" t="s">
-        <v>377</v>
-      </c>
-      <c r="B36" s="152"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="156"/>
-    </row>
-    <row r="37" s="94" customFormat="true" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="115" t="s">
-        <v>378</v>
-      </c>
-      <c r="B37" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C37" s="117" t="s">
-        <v>379</v>
-      </c>
-      <c r="D37" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H37" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="139" t="s">
-        <v>380</v>
-      </c>
-      <c r="M37" s="137" t="s">
-        <v>381</v>
-      </c>
-      <c r="N37" s="137" t="s">
-        <v>313</v>
-      </c>
-      <c r="O37" s="137"/>
-    </row>
-    <row r="38" s="94" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="115" t="s">
-        <v>382</v>
-      </c>
-      <c r="B38" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="C38" s="117" t="s">
-        <v>383</v>
-      </c>
-      <c r="D38" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="H38" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="137"/>
-    </row>
-    <row r="39" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="158" t="s">
-        <v>384</v>
-      </c>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="154"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="156"/>
-    </row>
-    <row r="40" s="94" customFormat="true" ht="73.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="115" t="s">
-        <v>385</v>
-      </c>
-      <c r="B40" s="157"/>
-      <c r="C40" s="117" t="s">
-        <v>386</v>
-      </c>
-      <c r="D40" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="148"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="H40" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="139" t="s">
-        <v>387</v>
-      </c>
-      <c r="M40" s="147" t="s">
-        <v>381</v>
-      </c>
-      <c r="N40" s="137" t="s">
-        <v>276</v>
-      </c>
-      <c r="O40" s="137"/>
-    </row>
-    <row r="41" s="94" customFormat="true" ht="73.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="115" t="s">
-        <v>388</v>
-      </c>
-      <c r="B41" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="162" t="s">
-        <v>389</v>
-      </c>
-      <c r="D41" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E41" s="148"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="H41" s="0"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="139" t="s">
-        <v>390</v>
-      </c>
-      <c r="M41" s="147"/>
-      <c r="N41" s="137"/>
-      <c r="O41" s="137"/>
-    </row>
-    <row r="42" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="115" t="s">
-        <v>391</v>
-      </c>
-      <c r="B42" s="157" t="s">
-        <v>280</v>
-      </c>
-      <c r="C42" s="117" t="s">
-        <v>392</v>
-      </c>
-      <c r="D42" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" s="148"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
-      <c r="O42" s="137"/>
-    </row>
-    <row r="43" s="94" customFormat="true" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="115" t="s">
-        <v>393</v>
-      </c>
-      <c r="B43" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="117" t="s">
-        <v>394</v>
-      </c>
-      <c r="D43" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E43" s="148"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="137"/>
-    </row>
-    <row r="44" s="94" customFormat="true" ht="45.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="115" t="s">
-        <v>395</v>
-      </c>
-      <c r="B44" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" s="117" t="s">
-        <v>396</v>
-      </c>
-      <c r="D44" s="161"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
-      <c r="O44" s="138"/>
-    </row>
-    <row r="45" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="115" t="s">
-        <v>397</v>
-      </c>
-      <c r="B45" s="157" t="s">
-        <v>280</v>
-      </c>
-      <c r="C45" s="117" t="s">
-        <v>398</v>
-      </c>
-      <c r="D45" s="161"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="163"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
-    </row>
-    <row r="46" s="94" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="115" t="s">
-        <v>399</v>
-      </c>
-      <c r="B46" s="157" t="s">
-        <v>280</v>
-      </c>
-      <c r="C46" s="117" t="s">
-        <v>400</v>
-      </c>
-      <c r="D46" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E46" s="148"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="163"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="137"/>
-    </row>
-    <row r="47" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="115" t="s">
-        <v>401</v>
-      </c>
-      <c r="B47" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C47" s="117" t="s">
-        <v>402</v>
-      </c>
-      <c r="D47" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E47" s="148"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="137"/>
-      <c r="L47" s="163"/>
-      <c r="M47" s="137"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="137"/>
-    </row>
-    <row r="48" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="115" t="s">
-        <v>403</v>
-      </c>
-      <c r="B48" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="117" t="s">
-        <v>404</v>
-      </c>
-      <c r="D48" s="161"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="137"/>
-      <c r="L48" s="163"/>
-      <c r="M48" s="137"/>
-      <c r="N48" s="137"/>
-      <c r="O48" s="137"/>
-    </row>
-    <row r="49" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="115" t="s">
-        <v>405</v>
-      </c>
-      <c r="B49" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="117" t="s">
-        <v>406</v>
-      </c>
-      <c r="D49" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E49" s="148"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="137"/>
-      <c r="L49" s="163"/>
-      <c r="M49" s="137"/>
-      <c r="N49" s="137"/>
-      <c r="O49" s="137"/>
-    </row>
-    <row r="50" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="115" t="s">
-        <v>407</v>
-      </c>
-      <c r="B50" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="117" t="s">
-        <v>408</v>
-      </c>
-      <c r="D50" s="164" t="s">
-        <v>267</v>
-      </c>
-      <c r="E50" s="148"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="137"/>
-      <c r="L50" s="163"/>
-      <c r="M50" s="137"/>
-      <c r="N50" s="137"/>
-      <c r="O50" s="137"/>
-    </row>
-    <row r="51" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="115" t="s">
-        <v>409</v>
-      </c>
-      <c r="B51" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C51" s="165" t="s">
-        <v>410</v>
-      </c>
-      <c r="D51" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="148"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="137"/>
-      <c r="L51" s="163"/>
-      <c r="M51" s="137"/>
-      <c r="N51" s="137"/>
-      <c r="O51" s="137"/>
-    </row>
-    <row r="52" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="115" t="s">
-        <v>411</v>
-      </c>
-      <c r="B52" s="145" t="s">
-        <v>353</v>
-      </c>
-      <c r="C52" s="166" t="s">
-        <v>412</v>
-      </c>
-      <c r="D52" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E52" s="148"/>
-      <c r="F52" s="149"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="163"/>
-      <c r="M52" s="138"/>
-      <c r="N52" s="138"/>
-      <c r="O52" s="138"/>
-    </row>
-    <row r="53" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="115" t="s">
-        <v>413</v>
-      </c>
-      <c r="B53" s="157" t="s">
-        <v>335</v>
-      </c>
-      <c r="C53" s="117" t="s">
-        <v>414</v>
-      </c>
-      <c r="D53" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E53" s="148"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="137"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="137"/>
-      <c r="N53" s="137"/>
-      <c r="O53" s="137"/>
-    </row>
-    <row r="54" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="115" t="s">
-        <v>415</v>
-      </c>
-      <c r="B54" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C54" s="117" t="s">
-        <v>416</v>
-      </c>
-      <c r="D54" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E54" s="148"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="137"/>
-      <c r="L54" s="163"/>
-      <c r="M54" s="137"/>
-      <c r="N54" s="137"/>
-      <c r="O54" s="137"/>
-    </row>
-    <row r="55" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="115" t="s">
-        <v>417</v>
-      </c>
-      <c r="B55" s="157" t="s">
-        <v>353</v>
-      </c>
-      <c r="C55" s="117" t="s">
-        <v>418</v>
-      </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138"/>
-      <c r="L55" s="163"/>
-      <c r="M55" s="138"/>
-      <c r="N55" s="138"/>
-      <c r="O55" s="138"/>
-    </row>
-    <row r="56" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="115" t="s">
-        <v>419</v>
-      </c>
-      <c r="B56" s="157" t="s">
-        <v>353</v>
-      </c>
-      <c r="C56" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="D56" s="161"/>
-      <c r="E56" s="148"/>
-      <c r="F56" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="163"/>
-      <c r="M56" s="138"/>
-      <c r="N56" s="138"/>
-      <c r="O56" s="138"/>
-    </row>
-    <row r="57" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="115" t="s">
-        <v>421</v>
-      </c>
-      <c r="B57" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C57" s="165" t="s">
-        <v>422</v>
-      </c>
-      <c r="D57" s="161"/>
-      <c r="E57" s="148"/>
-      <c r="F57" s="149"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="137"/>
-      <c r="L57" s="163"/>
-      <c r="M57" s="137"/>
-      <c r="N57" s="137"/>
-      <c r="O57" s="137"/>
-    </row>
-    <row r="58" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="115" t="s">
-        <v>423</v>
-      </c>
-      <c r="B58" s="157" t="s">
-        <v>353</v>
-      </c>
-      <c r="C58" s="166" t="s">
-        <v>412</v>
-      </c>
-      <c r="D58" s="161"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
-      <c r="J58" s="137"/>
-      <c r="K58" s="137"/>
-      <c r="L58" s="163"/>
-      <c r="M58" s="137"/>
-      <c r="N58" s="137"/>
-      <c r="O58" s="137"/>
-    </row>
-    <row r="59" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="115" t="s">
-        <v>424</v>
-      </c>
-      <c r="B59" s="157" t="s">
-        <v>353</v>
-      </c>
-      <c r="C59" s="117" t="s">
-        <v>425</v>
-      </c>
-      <c r="D59" s="161"/>
-      <c r="E59" s="148"/>
-      <c r="F59" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G59" s="138"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="137"/>
-      <c r="K59" s="137"/>
-      <c r="L59" s="163"/>
-      <c r="M59" s="137"/>
-      <c r="N59" s="137"/>
-      <c r="O59" s="137"/>
-    </row>
-    <row r="60" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="115" t="s">
-        <v>426</v>
-      </c>
-      <c r="B60" s="157" t="s">
-        <v>427</v>
-      </c>
-      <c r="C60" s="117" t="s">
-        <v>428</v>
-      </c>
-      <c r="D60" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E60" s="148"/>
-      <c r="F60" s="149"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="137"/>
-      <c r="L60" s="163"/>
-      <c r="M60" s="137"/>
-      <c r="N60" s="137"/>
-      <c r="O60" s="137"/>
-    </row>
-    <row r="61" s="94" customFormat="true" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="115" t="s">
-        <v>429</v>
-      </c>
-      <c r="B61" s="157" t="s">
-        <v>427</v>
-      </c>
-      <c r="C61" s="117" t="s">
-        <v>430</v>
-      </c>
-      <c r="D61" s="161"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="137"/>
-      <c r="L61" s="163"/>
-      <c r="M61" s="137"/>
-      <c r="N61" s="137"/>
-      <c r="O61" s="137"/>
-    </row>
-    <row r="62" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="115" t="s">
-        <v>431</v>
-      </c>
-      <c r="B62" s="157" t="s">
-        <v>432</v>
-      </c>
-      <c r="C62" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="D62" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E62" s="148"/>
-      <c r="F62" s="149"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="137"/>
-      <c r="L62" s="163" t="s">
-        <v>434</v>
-      </c>
-      <c r="M62" s="137"/>
-      <c r="N62" s="137"/>
-      <c r="O62" s="147"/>
-    </row>
-    <row r="63" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="115" t="s">
-        <v>435</v>
-      </c>
-      <c r="B63" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C63" s="117" t="s">
-        <v>436</v>
-      </c>
-      <c r="D63" s="161"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="149"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
-      <c r="J63" s="137"/>
-      <c r="K63" s="137"/>
-      <c r="L63" s="163"/>
-      <c r="M63" s="137"/>
-      <c r="N63" s="137"/>
-      <c r="O63" s="137"/>
-    </row>
-    <row r="64" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="B64" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C64" s="117" t="s">
-        <v>438</v>
-      </c>
-      <c r="D64" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E64" s="148"/>
-      <c r="F64" s="149"/>
-      <c r="G64" s="138"/>
-      <c r="H64" s="138"/>
-      <c r="I64" s="138"/>
-      <c r="J64" s="138"/>
-      <c r="K64" s="138"/>
-      <c r="L64" s="163" t="s">
-        <v>439</v>
-      </c>
-      <c r="M64" s="138"/>
-      <c r="N64" s="138"/>
-      <c r="O64" s="138"/>
-    </row>
-    <row r="65" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="115" t="s">
-        <v>440</v>
-      </c>
-      <c r="B65" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C65" s="117" t="s">
-        <v>441</v>
-      </c>
-      <c r="D65" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E65" s="148"/>
-      <c r="F65" s="149"/>
-      <c r="G65" s="137"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="137"/>
-      <c r="J65" s="137"/>
-      <c r="K65" s="137"/>
-      <c r="L65" s="163"/>
-      <c r="M65" s="137"/>
-      <c r="N65" s="137"/>
-      <c r="O65" s="137"/>
-    </row>
-    <row r="66" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="115" t="s">
-        <v>442</v>
-      </c>
-      <c r="B66" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C66" s="117" t="s">
-        <v>443</v>
-      </c>
-      <c r="D66" s="161"/>
-      <c r="E66" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F66" s="149"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="137"/>
-      <c r="L66" s="163"/>
-      <c r="M66" s="137"/>
-      <c r="N66" s="137"/>
-      <c r="O66" s="137"/>
-    </row>
-    <row r="67" s="94" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="B67" s="149" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="117" t="s">
-        <v>445</v>
-      </c>
-      <c r="D67" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E67" s="148"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="137"/>
-      <c r="L67" s="163"/>
-      <c r="M67" s="137"/>
-      <c r="N67" s="137"/>
-      <c r="O67" s="137"/>
-    </row>
-    <row r="68" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="115" t="s">
-        <v>446</v>
-      </c>
-      <c r="B68" s="149" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="D68" s="161" t="s">
-        <v>448</v>
-      </c>
-      <c r="E68" s="148"/>
-      <c r="F68" s="149"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="137"/>
-      <c r="J68" s="137"/>
-      <c r="K68" s="137"/>
-      <c r="L68" s="163"/>
-      <c r="M68" s="137"/>
-      <c r="N68" s="137"/>
-      <c r="O68" s="137"/>
-    </row>
-    <row r="69" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="115" t="s">
-        <v>449</v>
-      </c>
-      <c r="B69" s="157" t="s">
-        <v>280</v>
-      </c>
-      <c r="C69" s="117" t="s">
-        <v>450</v>
-      </c>
-      <c r="D69" s="161" t="s">
-        <v>448</v>
-      </c>
-      <c r="E69" s="148"/>
-      <c r="F69" s="149"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="137"/>
-      <c r="J69" s="137"/>
-      <c r="K69" s="137"/>
-      <c r="L69" s="163" t="s">
-        <v>451</v>
-      </c>
-      <c r="M69" s="137"/>
-      <c r="N69" s="137"/>
-      <c r="O69" s="137"/>
-    </row>
-    <row r="70" s="94" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="115" t="s">
-        <v>452</v>
-      </c>
-      <c r="B70" s="145" t="s">
-        <v>280</v>
-      </c>
-      <c r="C70" s="117" t="s">
-        <v>453</v>
-      </c>
-      <c r="D70" s="161" t="s">
-        <v>448</v>
-      </c>
-      <c r="E70" s="148"/>
-      <c r="F70" s="149"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="137"/>
-      <c r="I70" s="137"/>
-      <c r="J70" s="137"/>
-      <c r="K70" s="137"/>
-      <c r="L70" s="163" t="s">
-        <v>454</v>
-      </c>
-      <c r="M70" s="137"/>
-      <c r="N70" s="137"/>
-      <c r="O70" s="147"/>
-    </row>
-    <row r="71" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="152" t="s">
-        <v>455</v>
-      </c>
-      <c r="B71" s="152"/>
-      <c r="C71" s="152"/>
-      <c r="D71" s="152"/>
-      <c r="E71" s="152"/>
-      <c r="F71" s="152"/>
-      <c r="G71" s="153"/>
-      <c r="H71" s="154"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="154"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="156"/>
-    </row>
-    <row r="72" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="115" t="s">
-        <v>456</v>
-      </c>
-      <c r="B72" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C72" s="117" t="s">
-        <v>457</v>
-      </c>
-      <c r="D72" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E72" s="148"/>
-      <c r="F72" s="149"/>
-      <c r="G72" s="137"/>
-      <c r="H72" s="137"/>
-      <c r="I72" s="137"/>
-      <c r="J72" s="137"/>
-      <c r="K72" s="137"/>
-      <c r="L72" s="137"/>
-      <c r="M72" s="137"/>
-      <c r="N72" s="137"/>
-      <c r="O72" s="137"/>
-    </row>
-    <row r="73" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="115" t="s">
-        <v>458</v>
-      </c>
-      <c r="B73" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C73" s="117" t="s">
-        <v>459</v>
-      </c>
-      <c r="D73" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E73" s="148"/>
-      <c r="F73" s="149"/>
-      <c r="G73" s="137"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="137"/>
-      <c r="J73" s="137"/>
-      <c r="K73" s="137"/>
-      <c r="L73" s="137"/>
-      <c r="M73" s="137"/>
-      <c r="N73" s="137"/>
-      <c r="O73" s="137"/>
-    </row>
-    <row r="74" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="115" t="s">
-        <v>460</v>
-      </c>
-      <c r="B74" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C74" s="117" t="s">
-        <v>461</v>
-      </c>
-      <c r="D74" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E74" s="148"/>
-      <c r="F74" s="149"/>
-      <c r="G74" s="137"/>
-      <c r="H74" s="137"/>
-      <c r="I74" s="137"/>
-      <c r="J74" s="137"/>
-      <c r="K74" s="137"/>
-      <c r="L74" s="163"/>
-      <c r="M74" s="137"/>
-      <c r="N74" s="137"/>
-      <c r="O74" s="137"/>
-    </row>
-    <row r="75" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="115" t="s">
-        <v>462</v>
-      </c>
-      <c r="B75" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C75" s="117" t="s">
-        <v>463</v>
-      </c>
-      <c r="D75" s="161"/>
-      <c r="E75" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F75" s="149"/>
-      <c r="G75" s="137"/>
-      <c r="H75" s="137"/>
-      <c r="I75" s="137"/>
-      <c r="J75" s="137"/>
-      <c r="K75" s="137"/>
-      <c r="L75" s="163"/>
-      <c r="M75" s="137"/>
-      <c r="N75" s="137"/>
-      <c r="O75" s="137"/>
-    </row>
-    <row r="76" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="115" t="s">
-        <v>464</v>
-      </c>
-      <c r="B76" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C76" s="117" t="s">
-        <v>465</v>
-      </c>
-      <c r="D76" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E76" s="148"/>
-      <c r="F76" s="149"/>
-      <c r="G76" s="137"/>
-      <c r="H76" s="137"/>
-      <c r="I76" s="137"/>
-      <c r="J76" s="137"/>
-      <c r="K76" s="137"/>
-      <c r="L76" s="163" t="s">
-        <v>466</v>
-      </c>
-      <c r="M76" s="137"/>
-      <c r="N76" s="137"/>
-      <c r="O76" s="137"/>
-    </row>
-    <row r="77" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="115" t="s">
-        <v>467</v>
-      </c>
-      <c r="B77" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C77" s="117" t="s">
-        <v>468</v>
-      </c>
-      <c r="D77" s="161" t="s">
-        <v>448</v>
-      </c>
-      <c r="E77" s="148"/>
-      <c r="F77" s="149"/>
-      <c r="G77" s="138"/>
-      <c r="H77" s="137"/>
-      <c r="I77" s="137"/>
-      <c r="J77" s="137"/>
-      <c r="K77" s="137"/>
-      <c r="L77" s="163" t="s">
-        <v>469</v>
-      </c>
-      <c r="M77" s="137"/>
-      <c r="N77" s="137"/>
-      <c r="O77" s="137"/>
-    </row>
-    <row r="78" s="94" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="115" t="s">
-        <v>470</v>
-      </c>
-      <c r="B78" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="C78" s="117" t="s">
-        <v>471</v>
-      </c>
-      <c r="D78" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E78" s="148"/>
-      <c r="F78" s="149"/>
-      <c r="G78" s="137"/>
-      <c r="H78" s="137"/>
-      <c r="I78" s="137"/>
-      <c r="J78" s="137"/>
-      <c r="K78" s="137"/>
-      <c r="L78" s="163"/>
-      <c r="M78" s="137"/>
-      <c r="N78" s="137"/>
-      <c r="O78" s="137"/>
-    </row>
-    <row r="79" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="115" t="s">
-        <v>472</v>
-      </c>
-      <c r="B79" s="116" t="s">
-        <v>335</v>
-      </c>
-      <c r="C79" s="117" t="s">
-        <v>473</v>
-      </c>
-      <c r="D79" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E79" s="148"/>
-      <c r="F79" s="149"/>
-      <c r="G79" s="137"/>
-      <c r="H79" s="137"/>
-      <c r="I79" s="137"/>
-      <c r="J79" s="137"/>
-      <c r="K79" s="137"/>
-      <c r="L79" s="163"/>
-      <c r="M79" s="137"/>
-      <c r="N79" s="137"/>
-      <c r="O79" s="137"/>
-    </row>
-    <row r="80" s="94" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="115" t="s">
-        <v>474</v>
-      </c>
-      <c r="B80" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C80" s="117" t="s">
-        <v>475</v>
-      </c>
-      <c r="D80" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E80" s="148"/>
-      <c r="F80" s="149"/>
-      <c r="G80" s="137"/>
-      <c r="H80" s="137"/>
-      <c r="I80" s="137"/>
-      <c r="J80" s="137"/>
-      <c r="K80" s="137"/>
-      <c r="L80" s="163"/>
-      <c r="M80" s="137"/>
-      <c r="N80" s="137"/>
-      <c r="O80" s="137"/>
-    </row>
-    <row r="81" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="115" t="s">
-        <v>476</v>
-      </c>
-      <c r="B81" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" s="117" t="s">
-        <v>477</v>
-      </c>
-      <c r="D81" s="161"/>
-      <c r="E81" s="148"/>
-      <c r="F81" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G81" s="137"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="137"/>
-      <c r="J81" s="137"/>
-      <c r="K81" s="137"/>
-      <c r="L81" s="163"/>
-      <c r="M81" s="137"/>
-      <c r="N81" s="137"/>
-      <c r="O81" s="137"/>
-    </row>
-    <row r="82" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="115" t="s">
-        <v>478</v>
-      </c>
-      <c r="B82" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C82" s="117" t="s">
-        <v>479</v>
-      </c>
-      <c r="D82" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E82" s="148"/>
-      <c r="F82" s="149"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="137"/>
-      <c r="J82" s="137"/>
-      <c r="K82" s="137"/>
-      <c r="L82" s="163"/>
-      <c r="M82" s="147"/>
-      <c r="N82" s="137"/>
-      <c r="O82" s="137"/>
-    </row>
-    <row r="83" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="152" t="s">
-        <v>192</v>
-      </c>
-      <c r="B83" s="152"/>
-      <c r="C83" s="152"/>
-      <c r="D83" s="152"/>
-      <c r="E83" s="152"/>
-      <c r="F83" s="152"/>
-      <c r="G83" s="153"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
-      <c r="K83" s="154"/>
-      <c r="L83" s="155"/>
-      <c r="M83" s="155"/>
-      <c r="N83" s="155"/>
-      <c r="O83" s="156"/>
-    </row>
-    <row r="84" s="94" customFormat="true" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="B84" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C84" s="117" t="s">
-        <v>481</v>
-      </c>
-      <c r="D84" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E84" s="148"/>
-      <c r="F84" s="149"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
-      <c r="J84" s="137"/>
-      <c r="K84" s="137"/>
-      <c r="L84" s="137"/>
-      <c r="M84" s="137"/>
-      <c r="N84" s="137"/>
-      <c r="O84" s="137"/>
-    </row>
-    <row r="85" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="115" t="s">
-        <v>482</v>
-      </c>
-      <c r="B85" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" s="117" t="s">
-        <v>483</v>
-      </c>
-      <c r="D85" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E85" s="148"/>
-      <c r="F85" s="149"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="137"/>
-      <c r="K85" s="137"/>
-      <c r="L85" s="163"/>
-      <c r="M85" s="137"/>
-      <c r="N85" s="137"/>
-      <c r="O85" s="137"/>
-    </row>
-    <row r="86" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="115" t="s">
-        <v>484</v>
-      </c>
-      <c r="B86" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="C86" s="117" t="s">
-        <v>485</v>
-      </c>
-      <c r="D86" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E86" s="148"/>
-      <c r="F86" s="149"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
-      <c r="J86" s="137"/>
-      <c r="K86" s="137"/>
-      <c r="L86" s="137"/>
-      <c r="M86" s="137"/>
-      <c r="N86" s="137"/>
-      <c r="O86" s="137"/>
-    </row>
-    <row r="87" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="115" t="s">
-        <v>486</v>
-      </c>
-      <c r="B87" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" s="117" t="s">
-        <v>487</v>
-      </c>
-      <c r="D87" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E87" s="148"/>
-      <c r="F87" s="149"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
-      <c r="J87" s="137"/>
-      <c r="K87" s="137"/>
-      <c r="L87" s="163"/>
-      <c r="M87" s="137"/>
-      <c r="N87" s="137"/>
-      <c r="O87" s="137"/>
-    </row>
-    <row r="88" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="115" t="s">
-        <v>488</v>
-      </c>
-      <c r="B88" s="116" t="s">
-        <v>427</v>
-      </c>
-      <c r="C88" s="117" t="s">
-        <v>489</v>
-      </c>
-      <c r="D88" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E88" s="148"/>
-      <c r="F88" s="149"/>
-      <c r="G88" s="137"/>
-      <c r="H88" s="137"/>
-      <c r="I88" s="137"/>
-      <c r="J88" s="137"/>
-      <c r="K88" s="137"/>
-      <c r="L88" s="137"/>
-      <c r="M88" s="137"/>
-      <c r="N88" s="137"/>
-      <c r="O88" s="137"/>
-    </row>
-    <row r="89" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="152" t="s">
-        <v>490</v>
-      </c>
-      <c r="B89" s="152"/>
-      <c r="C89" s="152"/>
-      <c r="D89" s="152"/>
-      <c r="E89" s="152"/>
-      <c r="F89" s="152"/>
-      <c r="G89" s="153"/>
-      <c r="H89" s="154"/>
-      <c r="I89" s="154"/>
-      <c r="J89" s="154"/>
-      <c r="K89" s="154"/>
-      <c r="L89" s="155"/>
-      <c r="M89" s="155"/>
-      <c r="N89" s="155"/>
-      <c r="O89" s="156"/>
-    </row>
-    <row r="90" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="142" t="s">
-        <v>491</v>
-      </c>
-      <c r="B90" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="117" t="s">
-        <v>492</v>
-      </c>
-      <c r="D90" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E90" s="148"/>
-      <c r="F90" s="149"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="137"/>
-      <c r="I90" s="137"/>
-      <c r="J90" s="137"/>
-      <c r="K90" s="137"/>
-      <c r="L90" s="137"/>
-      <c r="M90" s="137"/>
-      <c r="N90" s="137"/>
-      <c r="O90" s="137"/>
-    </row>
-    <row r="91" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="142" t="s">
-        <v>493</v>
-      </c>
-      <c r="B91" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C91" s="117" t="s">
-        <v>494</v>
-      </c>
-      <c r="D91" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E91" s="148"/>
-      <c r="F91" s="149"/>
-      <c r="G91" s="137"/>
-      <c r="H91" s="137"/>
-      <c r="I91" s="137"/>
-      <c r="J91" s="137"/>
-      <c r="K91" s="137"/>
-      <c r="L91" s="163"/>
-      <c r="M91" s="137"/>
-      <c r="N91" s="137"/>
-      <c r="O91" s="137"/>
-    </row>
-    <row r="92" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="142" t="s">
-        <v>495</v>
-      </c>
-      <c r="B92" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C92" s="117" t="s">
-        <v>496</v>
-      </c>
-      <c r="D92" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E92" s="148"/>
-      <c r="F92" s="149"/>
-      <c r="G92" s="137"/>
-      <c r="H92" s="137"/>
-      <c r="I92" s="137"/>
-      <c r="J92" s="137"/>
-      <c r="K92" s="137"/>
-      <c r="L92" s="139"/>
-      <c r="M92" s="137"/>
-      <c r="N92" s="137"/>
-      <c r="O92" s="137"/>
-    </row>
-    <row r="93" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="142" t="s">
-        <v>497</v>
-      </c>
-      <c r="B93" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93" s="117" t="s">
-        <v>498</v>
-      </c>
-      <c r="D93" s="161"/>
-      <c r="E93" s="148"/>
-      <c r="F93" s="149"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="137"/>
-      <c r="I93" s="137"/>
-      <c r="J93" s="137"/>
-      <c r="K93" s="137"/>
-      <c r="L93" s="139" t="s">
-        <v>499</v>
-      </c>
-      <c r="M93" s="137"/>
-      <c r="N93" s="137"/>
-      <c r="O93" s="137"/>
-    </row>
-    <row r="94" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="115" t="s">
-        <v>500</v>
-      </c>
-      <c r="B94" s="145" t="s">
-        <v>273</v>
-      </c>
-      <c r="C94" s="117" t="s">
-        <v>501</v>
-      </c>
-      <c r="D94" s="161"/>
-      <c r="E94" s="148"/>
-      <c r="F94" s="149"/>
-      <c r="G94" s="138"/>
-      <c r="H94" s="137"/>
-      <c r="I94" s="137"/>
-      <c r="J94" s="137"/>
-      <c r="K94" s="137"/>
-      <c r="L94" s="139" t="s">
-        <v>502</v>
-      </c>
-      <c r="M94" s="137"/>
-      <c r="N94" s="137"/>
-      <c r="O94" s="137"/>
-    </row>
-    <row r="95" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="152" t="s">
-        <v>503</v>
-      </c>
-      <c r="B95" s="152"/>
-      <c r="C95" s="152"/>
-      <c r="D95" s="152"/>
-      <c r="E95" s="152"/>
-      <c r="F95" s="152"/>
-      <c r="G95" s="153"/>
-      <c r="H95" s="154"/>
-      <c r="I95" s="154"/>
-      <c r="J95" s="154"/>
-      <c r="K95" s="154"/>
-      <c r="L95" s="155"/>
-      <c r="M95" s="155"/>
-      <c r="N95" s="155"/>
-      <c r="O95" s="156"/>
-    </row>
-    <row r="96" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="142" t="s">
-        <v>504</v>
-      </c>
-      <c r="B96" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C96" s="117" t="s">
-        <v>505</v>
-      </c>
-      <c r="D96" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E96" s="148"/>
-      <c r="F96" s="149"/>
-      <c r="G96" s="137"/>
-      <c r="H96" s="137"/>
-      <c r="I96" s="137"/>
-      <c r="J96" s="137"/>
-      <c r="K96" s="137"/>
-      <c r="L96" s="137"/>
-      <c r="M96" s="137"/>
-      <c r="N96" s="137"/>
-      <c r="O96" s="137"/>
-    </row>
-    <row r="97" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="115" t="s">
-        <v>506</v>
-      </c>
-      <c r="B97" s="145" t="s">
-        <v>280</v>
-      </c>
-      <c r="C97" s="117" t="s">
-        <v>507</v>
-      </c>
-      <c r="D97" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E97" s="148"/>
-      <c r="F97" s="149"/>
-      <c r="G97" s="137"/>
-      <c r="H97" s="137"/>
-      <c r="I97" s="137"/>
-      <c r="J97" s="137"/>
-      <c r="K97" s="137"/>
-      <c r="L97" s="137"/>
-      <c r="M97" s="137"/>
-      <c r="N97" s="137"/>
-      <c r="O97" s="137"/>
-    </row>
-    <row r="98" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="152" t="s">
-        <v>508</v>
-      </c>
-      <c r="B98" s="152"/>
-      <c r="C98" s="152"/>
-      <c r="D98" s="152"/>
-      <c r="E98" s="152"/>
-      <c r="F98" s="152"/>
-      <c r="G98" s="153"/>
-      <c r="H98" s="154"/>
-      <c r="I98" s="154"/>
-      <c r="J98" s="154"/>
-      <c r="K98" s="154"/>
-      <c r="L98" s="155"/>
-      <c r="M98" s="155"/>
-      <c r="N98" s="155"/>
-      <c r="O98" s="156"/>
-    </row>
-    <row r="99" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="115" t="s">
-        <v>509</v>
-      </c>
-      <c r="B99" s="145" t="s">
-        <v>273</v>
-      </c>
-      <c r="C99" s="167" t="s">
-        <v>510</v>
-      </c>
-      <c r="D99" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="E99" s="148"/>
-      <c r="F99" s="149"/>
-      <c r="G99" s="137"/>
-      <c r="H99" s="137"/>
-      <c r="I99" s="137"/>
-      <c r="J99" s="137"/>
-      <c r="K99" s="137"/>
-      <c r="L99" s="163"/>
-      <c r="M99" s="147"/>
-      <c r="N99" s="137"/>
-      <c r="O99" s="137"/>
-    </row>
-    <row r="100" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="152" t="s">
-        <v>511</v>
-      </c>
-      <c r="B100" s="152"/>
-      <c r="C100" s="152"/>
-      <c r="D100" s="152"/>
-      <c r="E100" s="152"/>
-      <c r="F100" s="152"/>
-      <c r="G100" s="153"/>
-      <c r="H100" s="154"/>
-      <c r="I100" s="154"/>
-      <c r="J100" s="154"/>
-      <c r="K100" s="154"/>
-      <c r="L100" s="155"/>
-      <c r="M100" s="155"/>
-      <c r="N100" s="155"/>
-      <c r="O100" s="156"/>
-    </row>
-    <row r="101" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="142" t="s">
-        <v>512</v>
-      </c>
-      <c r="B101" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C101" s="117" t="s">
-        <v>513</v>
-      </c>
-      <c r="D101" s="164" t="s">
-        <v>267</v>
-      </c>
-      <c r="E101" s="148"/>
-      <c r="F101" s="149"/>
-      <c r="G101" s="137"/>
-      <c r="H101" s="137"/>
-      <c r="I101" s="137"/>
-      <c r="J101" s="137"/>
-      <c r="K101" s="137"/>
-      <c r="L101" s="137"/>
-      <c r="M101" s="147"/>
-      <c r="N101" s="137"/>
-      <c r="O101" s="137"/>
-    </row>
-    <row r="102" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="142" t="s">
-        <v>514</v>
-      </c>
-      <c r="B102" s="116" t="s">
-        <v>515</v>
-      </c>
-      <c r="C102" s="117" t="s">
-        <v>516</v>
-      </c>
-      <c r="D102" s="161"/>
-      <c r="E102" s="148"/>
-      <c r="F102" s="149"/>
-      <c r="G102" s="137"/>
-      <c r="H102" s="138"/>
-      <c r="I102" s="138"/>
-      <c r="J102" s="138"/>
-      <c r="K102" s="138"/>
-      <c r="L102" s="137"/>
-      <c r="M102" s="138"/>
-      <c r="N102" s="138"/>
-      <c r="O102" s="138"/>
-    </row>
-    <row r="103" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="142" t="s">
-        <v>517</v>
-      </c>
-      <c r="B103" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="C103" s="117" t="s">
-        <v>518</v>
-      </c>
-      <c r="D103" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E103" s="148"/>
-      <c r="F103" s="149"/>
-      <c r="G103" s="137"/>
-      <c r="H103" s="137"/>
-      <c r="I103" s="137"/>
-      <c r="J103" s="137"/>
-      <c r="K103" s="137"/>
-      <c r="L103" s="137"/>
-      <c r="M103" s="168"/>
-      <c r="N103" s="137"/>
-      <c r="O103" s="137"/>
-    </row>
-    <row r="104" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="169" t="s">
-        <v>233</v>
-      </c>
-      <c r="B104" s="169"/>
-      <c r="C104" s="169"/>
-      <c r="D104" s="169"/>
-      <c r="E104" s="169"/>
-      <c r="F104" s="169"/>
-      <c r="G104" s="153"/>
-      <c r="H104" s="154"/>
-      <c r="I104" s="154"/>
-      <c r="J104" s="154"/>
-      <c r="K104" s="154"/>
-      <c r="L104" s="155"/>
-      <c r="M104" s="155"/>
-      <c r="N104" s="155"/>
-      <c r="O104" s="156"/>
-    </row>
-    <row r="105" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="B105" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C105" s="117" t="s">
-        <v>520</v>
-      </c>
-      <c r="D105" s="161"/>
-      <c r="E105" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F105" s="149"/>
-      <c r="G105" s="137"/>
-      <c r="H105" s="137"/>
-      <c r="I105" s="137"/>
-      <c r="J105" s="137"/>
-      <c r="K105" s="137"/>
-      <c r="L105" s="147"/>
-      <c r="M105" s="137"/>
-      <c r="N105" s="137"/>
-      <c r="O105" s="137"/>
-    </row>
-    <row r="106" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="142" t="s">
-        <v>521</v>
-      </c>
-      <c r="B106" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C106" s="117" t="s">
-        <v>522</v>
-      </c>
-      <c r="D106" s="161"/>
-      <c r="E106" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F106" s="149"/>
-      <c r="G106" s="138"/>
-      <c r="H106" s="137"/>
-      <c r="I106" s="137"/>
-      <c r="J106" s="137"/>
-      <c r="K106" s="137"/>
-      <c r="L106" s="147"/>
-      <c r="M106" s="137"/>
-      <c r="N106" s="137"/>
-      <c r="O106" s="137"/>
-    </row>
-    <row r="107" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="142" t="s">
-        <v>523</v>
-      </c>
-      <c r="B107" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="C107" s="117" t="s">
-        <v>322</v>
-      </c>
-      <c r="D107" s="161"/>
-      <c r="E107" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F107" s="149"/>
-      <c r="G107" s="138"/>
-      <c r="H107" s="137"/>
-      <c r="I107" s="137"/>
-      <c r="J107" s="137"/>
-      <c r="K107" s="137"/>
-      <c r="L107" s="147"/>
-      <c r="M107" s="147"/>
-      <c r="N107" s="137"/>
-      <c r="O107" s="137"/>
-    </row>
-    <row r="108" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="117" t="s">
-        <v>524</v>
-      </c>
-      <c r="B108" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C108" s="170" t="s">
-        <v>525</v>
-      </c>
-      <c r="D108" s="171"/>
-      <c r="E108" s="116" t="s">
-        <v>267</v>
-      </c>
-      <c r="F108" s="157"/>
-      <c r="G108" s="137"/>
-      <c r="H108" s="147"/>
-      <c r="I108" s="147"/>
-      <c r="J108" s="147"/>
-      <c r="K108" s="147"/>
-      <c r="L108" s="147"/>
-      <c r="M108" s="137"/>
-      <c r="N108" s="137"/>
-      <c r="O108" s="137"/>
-    </row>
-    <row r="109" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="152" t="s">
+      <c r="C111" s="173" t="s">
+        <v>532</v>
+      </c>
+      <c r="D111" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="E111" s="147"/>
+      <c r="F111" s="148"/>
+      <c r="G111" s="174"/>
+      <c r="H111" s="174"/>
+      <c r="I111" s="174"/>
+      <c r="J111" s="174"/>
+      <c r="K111" s="174"/>
+      <c r="L111" s="146"/>
+      <c r="M111" s="174"/>
+      <c r="N111" s="174"/>
+      <c r="O111" s="174"/>
+    </row>
+    <row r="112" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="175" t="s">
+        <v>533</v>
+      </c>
+      <c r="B112" s="172"/>
+      <c r="C112" s="173" t="s">
+        <v>534</v>
+      </c>
+      <c r="D112" s="160"/>
+      <c r="E112" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F112" s="148"/>
+      <c r="G112" s="174"/>
+      <c r="H112" s="174"/>
+      <c r="I112" s="174"/>
+      <c r="J112" s="174"/>
+      <c r="K112" s="174"/>
+      <c r="L112" s="146"/>
+      <c r="M112" s="174"/>
+      <c r="N112" s="174"/>
+      <c r="O112" s="174"/>
+    </row>
+    <row r="113" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="175" t="s">
+        <v>535</v>
+      </c>
+      <c r="B113" s="172" t="s">
+        <v>272</v>
+      </c>
+      <c r="C113" s="173" t="s">
+        <v>536</v>
+      </c>
+      <c r="D113" s="160"/>
+      <c r="E113" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F113" s="148"/>
+      <c r="G113" s="174"/>
+      <c r="H113" s="174"/>
+      <c r="I113" s="174"/>
+      <c r="J113" s="174"/>
+      <c r="K113" s="174"/>
+      <c r="L113" s="146"/>
+      <c r="M113" s="174"/>
+      <c r="N113" s="174"/>
+      <c r="O113" s="174"/>
+    </row>
+    <row r="114" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="B109" s="152"/>
-      <c r="C109" s="152"/>
-      <c r="D109" s="152"/>
-      <c r="E109" s="152"/>
-      <c r="F109" s="152"/>
-      <c r="G109" s="153"/>
-      <c r="H109" s="154"/>
-      <c r="I109" s="154"/>
-      <c r="J109" s="154"/>
-      <c r="K109" s="154"/>
-      <c r="L109" s="155"/>
-      <c r="M109" s="155"/>
-      <c r="N109" s="155"/>
-      <c r="O109" s="156"/>
-    </row>
-    <row r="110" s="94" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="172" t="s">
-        <v>526</v>
-      </c>
-      <c r="B110" s="173" t="s">
-        <v>280</v>
-      </c>
-      <c r="C110" s="174" t="s">
-        <v>527</v>
-      </c>
-      <c r="D110" s="161"/>
-      <c r="E110" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F110" s="149"/>
-      <c r="G110" s="175"/>
-      <c r="H110" s="175"/>
-      <c r="I110" s="175"/>
-      <c r="J110" s="175"/>
-      <c r="K110" s="175"/>
-      <c r="L110" s="147"/>
-      <c r="M110" s="175"/>
-      <c r="N110" s="175"/>
-      <c r="O110" s="175"/>
-    </row>
-    <row r="111" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="176" t="s">
-        <v>528</v>
-      </c>
-      <c r="B111" s="173" t="s">
-        <v>353</v>
-      </c>
-      <c r="C111" s="174" t="s">
-        <v>529</v>
-      </c>
-      <c r="D111" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E111" s="148"/>
-      <c r="F111" s="149"/>
-      <c r="G111" s="175"/>
-      <c r="H111" s="175"/>
-      <c r="I111" s="175"/>
-      <c r="J111" s="175"/>
-      <c r="K111" s="175"/>
-      <c r="L111" s="147"/>
-      <c r="M111" s="175"/>
-      <c r="N111" s="175"/>
-      <c r="O111" s="175"/>
-    </row>
-    <row r="112" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="176" t="s">
-        <v>530</v>
-      </c>
-      <c r="B112" s="173"/>
-      <c r="C112" s="174" t="s">
-        <v>531</v>
-      </c>
-      <c r="D112" s="161"/>
-      <c r="E112" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F112" s="149"/>
-      <c r="G112" s="175"/>
-      <c r="H112" s="175"/>
-      <c r="I112" s="175"/>
-      <c r="J112" s="175"/>
-      <c r="K112" s="175"/>
-      <c r="L112" s="147"/>
-      <c r="M112" s="175"/>
-      <c r="N112" s="175"/>
-      <c r="O112" s="175"/>
-    </row>
-    <row r="113" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="176" t="s">
-        <v>532</v>
-      </c>
-      <c r="B113" s="173" t="s">
-        <v>273</v>
-      </c>
-      <c r="C113" s="174" t="s">
-        <v>533</v>
-      </c>
-      <c r="D113" s="161"/>
-      <c r="E113" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F113" s="149"/>
-      <c r="G113" s="175"/>
-      <c r="H113" s="175"/>
-      <c r="I113" s="175"/>
-      <c r="J113" s="175"/>
-      <c r="K113" s="175"/>
-      <c r="L113" s="147"/>
-      <c r="M113" s="175"/>
-      <c r="N113" s="175"/>
-      <c r="O113" s="175"/>
-    </row>
-    <row r="114" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="152" t="s">
-        <v>245</v>
-      </c>
-      <c r="B114" s="152"/>
-      <c r="C114" s="152"/>
-      <c r="D114" s="152"/>
-      <c r="E114" s="152"/>
-      <c r="F114" s="152"/>
-      <c r="G114" s="153"/>
-      <c r="H114" s="154"/>
-      <c r="I114" s="154"/>
-      <c r="J114" s="154"/>
-      <c r="K114" s="154"/>
-      <c r="L114" s="155"/>
-      <c r="M114" s="155"/>
-      <c r="N114" s="155"/>
-      <c r="O114" s="156"/>
-    </row>
-    <row r="115" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="172" t="s">
-        <v>534</v>
-      </c>
-      <c r="B115" s="173" t="s">
-        <v>280</v>
-      </c>
-      <c r="C115" s="174" t="s">
-        <v>535</v>
-      </c>
-      <c r="D115" s="161"/>
-      <c r="E115" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F115" s="149"/>
-      <c r="G115" s="175"/>
-      <c r="H115" s="175"/>
-      <c r="I115" s="175"/>
-      <c r="J115" s="175"/>
-      <c r="K115" s="175"/>
-      <c r="L115" s="147"/>
-      <c r="M115" s="175"/>
-      <c r="N115" s="175"/>
-      <c r="O115" s="175"/>
-    </row>
-    <row r="116" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="172" t="s">
-        <v>536</v>
-      </c>
-      <c r="B116" s="177" t="s">
-        <v>280</v>
-      </c>
-      <c r="C116" s="174" t="s">
+      <c r="B114" s="151"/>
+      <c r="C114" s="151"/>
+      <c r="D114" s="151"/>
+      <c r="E114" s="151"/>
+      <c r="F114" s="151"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="153"/>
+      <c r="I114" s="153"/>
+      <c r="J114" s="153"/>
+      <c r="K114" s="153"/>
+      <c r="L114" s="154"/>
+      <c r="M114" s="154"/>
+      <c r="N114" s="154"/>
+      <c r="O114" s="155"/>
+    </row>
+    <row r="115" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="171" t="s">
         <v>537</v>
       </c>
-      <c r="D116" s="161"/>
-      <c r="E116" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="F116" s="149"/>
-      <c r="G116" s="138"/>
-      <c r="H116" s="175"/>
-      <c r="I116" s="175"/>
-      <c r="J116" s="175"/>
-      <c r="K116" s="175"/>
-      <c r="L116" s="147"/>
-      <c r="M116" s="175"/>
-      <c r="N116" s="175"/>
-      <c r="O116" s="175"/>
-    </row>
-    <row r="117" s="94" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="178" t="s">
+      <c r="B115" s="172" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" s="173" t="s">
         <v>538</v>
       </c>
-      <c r="B117" s="173" t="s">
-        <v>353</v>
-      </c>
-      <c r="C117" s="174" t="s">
+      <c r="D115" s="160"/>
+      <c r="E115" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F115" s="148"/>
+      <c r="G115" s="174"/>
+      <c r="H115" s="174"/>
+      <c r="I115" s="174"/>
+      <c r="J115" s="174"/>
+      <c r="K115" s="174"/>
+      <c r="L115" s="146"/>
+      <c r="M115" s="174"/>
+      <c r="N115" s="174"/>
+      <c r="O115" s="174"/>
+    </row>
+    <row r="116" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="171" t="s">
         <v>539</v>
       </c>
-      <c r="D117" s="171"/>
-      <c r="E117" s="116" t="s">
-        <v>267</v>
-      </c>
-      <c r="F117" s="157"/>
-      <c r="G117" s="138"/>
-      <c r="H117" s="175"/>
-      <c r="I117" s="175"/>
-      <c r="J117" s="175"/>
-      <c r="K117" s="175"/>
-      <c r="L117" s="147"/>
-      <c r="M117" s="175"/>
-      <c r="N117" s="175"/>
-      <c r="O117" s="175"/>
+      <c r="B116" s="176" t="s">
+        <v>279</v>
+      </c>
+      <c r="C116" s="173" t="s">
+        <v>540</v>
+      </c>
+      <c r="D116" s="160"/>
+      <c r="E116" s="147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F116" s="148"/>
+      <c r="G116" s="137"/>
+      <c r="H116" s="174"/>
+      <c r="I116" s="174"/>
+      <c r="J116" s="174"/>
+      <c r="K116" s="174"/>
+      <c r="L116" s="146"/>
+      <c r="M116" s="174"/>
+      <c r="N116" s="174"/>
+      <c r="O116" s="174"/>
+    </row>
+    <row r="117" s="93" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="177" t="s">
+        <v>541</v>
+      </c>
+      <c r="B117" s="172" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" s="173" t="s">
+        <v>542</v>
+      </c>
+      <c r="D117" s="170"/>
+      <c r="E117" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="156"/>
+      <c r="G117" s="137"/>
+      <c r="H117" s="174"/>
+      <c r="I117" s="174"/>
+      <c r="J117" s="174"/>
+      <c r="K117" s="174"/>
+      <c r="L117" s="146"/>
+      <c r="M117" s="174"/>
+      <c r="N117" s="174"/>
+      <c r="O117" s="174"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B474"/>
@@ -12593,6 +12611,7 @@
   <hyperlinks>
     <hyperlink ref="L12" r:id="rId1" display="https://openwrt.org/docs/guide-user/network/wifi/basic&#10;https://openwrt.org/docs/guide-user/network/wifi/start"/>
     <hyperlink ref="L23" r:id="rId2" display="no WLAN is configured in factory settings&#10;TP.A.19.2: Because the user has complete control over everything the DUT does, the DUT could be configured to not seperate clients in the self defined guest WLAN and the other interfaces. Devices are properly separated if the instructions https://openwrt.org/docs/guide-user/network/wifi/guestwifi/guest-wlan are followed"/>
+    <hyperlink ref="L42" r:id="rId3" display="https://openwrt.org/docs/guide-user/services/webserver/uhttpd"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -12601,6 +12620,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5354E-D789-4571-8CFF-C3CCD1A57121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6CFA71-C672-471D-9BFF-54A332604510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformance Statement" sheetId="1" r:id="rId1"/>
@@ -2780,9 +2780,6 @@
     </r>
   </si>
   <si>
-    <t>from factory to initialized state the user only needs to set a password ssh and the luci web-interface. No additional functionality is activated when setting a password. OpenWrt can be fully used even without a passwird. This is not recommended.</t>
-  </si>
-  <si>
     <t>Nmap 7.90</t>
   </si>
   <si>
@@ -5761,6 +5758,9 @@
   <si>
     <t>TP_E_11_1_time_to_fix_graph.PNG
 TP_E_11_1_time_to_fix.xlsx</t>
+  </si>
+  <si>
+    <t>from factory to initialized state the user only needs to set a password ssh and the luci web-interface. No additional functionality is activated when setting a password. OpenWrt can be fully used even without a password. This is not recommended.</t>
   </si>
 </sst>
 </file>
@@ -6432,7 +6432,7 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6853,150 +6853,151 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7394,29 +7395,29 @@
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
@@ -7426,10 +7427,10 @@
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="170"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7444,38 +7445,38 @@
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="171"/>
+      <c r="C7" s="159"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="172"/>
+      <c r="C8" s="160"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="172"/>
+      <c r="C9" s="160"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="166"/>
+      <c r="C10" s="161"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="7"/>
@@ -7488,86 +7489,86 @@
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="167"/>
+      <c r="B14" s="162"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="168" t="s">
+      <c r="B15" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="14" t="s">
@@ -7575,70 +7576,70 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" customHeight="1">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="165"/>
+      <c r="B25" s="168"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="161" t="s">
+      <c r="B26" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="160" t="s">
+      <c r="B30" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="18"/>
@@ -7650,13 +7651,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="19" t="s">
@@ -8012,13 +8013,13 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="57" customHeight="1">
-      <c r="A58" s="157" t="s">
+      <c r="A58" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="157"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
+      <c r="E58" s="170"/>
     </row>
     <row r="59" spans="1:11" ht="31.5" customHeight="1"/>
     <row r="60" spans="1:11" ht="44.25" customHeight="1">
@@ -8131,18 +8132,18 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A69" s="157" t="s">
+      <c r="A69" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="157"/>
-      <c r="C69" s="157"/>
-      <c r="D69" s="157"/>
-      <c r="E69" s="157"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="170"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="28"/>
     </row>
-    <row r="71" spans="1:5" ht="30">
+    <row r="71" spans="1:5" ht="29">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -8160,12 +8161,12 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="36" customHeight="1">
-      <c r="A74" s="157" t="s">
+      <c r="A74" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="157"/>
-      <c r="C74" s="157"/>
-      <c r="D74" s="157"/>
+      <c r="B74" s="170"/>
+      <c r="C74" s="170"/>
+      <c r="D74" s="170"/>
       <c r="E74" s="29"/>
     </row>
     <row r="76" spans="1:5">
@@ -8177,12 +8178,12 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1">
-      <c r="A79" s="157" t="s">
+      <c r="A79" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="157"/>
-      <c r="C79" s="157"/>
-      <c r="D79" s="157"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
     </row>
     <row r="81" spans="1:5" ht="33.75" customHeight="1">
       <c r="A81" s="30" t="s">
@@ -8262,13 +8263,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A90" s="158" t="s">
+      <c r="A90" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="158"/>
-      <c r="C90" s="158"/>
-      <c r="D90" s="158"/>
-      <c r="E90" s="158"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="171"/>
     </row>
     <row r="92" spans="1:5" ht="35.25" customHeight="1">
       <c r="A92" s="15" t="s">
@@ -8298,7 +8299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="45">
+    <row r="94" spans="1:5" ht="29">
       <c r="A94" s="21" t="s">
         <v>45</v>
       </c>
@@ -8368,13 +8369,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A101" s="159" t="s">
+    <row r="101" spans="1:4" ht="30.65" customHeight="1">
+      <c r="A101" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="159"/>
-    </row>
-    <row r="103" spans="1:4" ht="45">
+      <c r="B101" s="172"/>
+    </row>
+    <row r="103" spans="1:4" ht="29">
       <c r="A103" s="3" t="s">
         <v>96</v>
       </c>
@@ -8388,12 +8389,12 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A107" s="158" t="s">
+      <c r="A107" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="158"/>
-      <c r="C107" s="158"/>
-      <c r="D107" s="158"/>
+      <c r="B107" s="171"/>
+      <c r="C107" s="171"/>
+      <c r="D107" s="171"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
@@ -8509,12 +8510,12 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" ht="56.25" customHeight="1">
-      <c r="A119" s="153" t="s">
+      <c r="A119" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="B119" s="153"/>
-      <c r="C119" s="153"/>
-      <c r="D119" s="153"/>
+      <c r="B119" s="173"/>
+      <c r="C119" s="173"/>
+      <c r="D119" s="173"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="9" t="s">
@@ -8530,7 +8531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45">
+    <row r="121" spans="1:4" ht="29">
       <c r="A121" s="35" t="s">
         <v>67</v>
       </c>
@@ -8575,9 +8576,9 @@
       <c r="D126" s="24"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="156"/>
-      <c r="B127" s="156"/>
-      <c r="C127" s="156"/>
+      <c r="A127" s="174"/>
+      <c r="B127" s="174"/>
+      <c r="C127" s="174"/>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4">
@@ -8586,7 +8587,7 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" ht="20.25">
+    <row r="129" spans="1:4" ht="20.5">
       <c r="A129" s="38" t="s">
         <v>107</v>
       </c>
@@ -8595,14 +8596,14 @@
       <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:4" ht="113.25" customHeight="1">
-      <c r="A130" s="149" t="s">
+      <c r="A130" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="B130" s="149"/>
-      <c r="C130" s="149"/>
-      <c r="D130" s="149"/>
-    </row>
-    <row r="131" spans="1:4" ht="28.5">
+      <c r="B130" s="175"/>
+      <c r="C130" s="175"/>
+      <c r="D130" s="175"/>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>109</v>
       </c>
@@ -8614,7 +8615,7 @@
       </c>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" ht="29.1" customHeight="1">
+    <row r="132" spans="1:4" ht="29.15" customHeight="1">
       <c r="A132" s="25" t="s">
         <v>112</v>
       </c>
@@ -8638,7 +8639,7 @@
       </c>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" ht="101.25">
+    <row r="134" spans="1:4" ht="63">
       <c r="A134" s="25" t="s">
         <v>117</v>
       </c>
@@ -8650,7 +8651,7 @@
       </c>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" ht="56.25">
+    <row r="135" spans="1:4" ht="31.5">
       <c r="A135" s="25" t="s">
         <v>119</v>
       </c>
@@ -8662,7 +8663,7 @@
       </c>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" ht="105">
+    <row r="136" spans="1:4" ht="98">
       <c r="A136" s="23" t="s">
         <v>121</v>
       </c>
@@ -8728,7 +8729,7 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" ht="20.25">
+    <row r="142" spans="1:4" ht="20.5">
       <c r="A142" s="38" t="s">
         <v>125</v>
       </c>
@@ -8737,12 +8738,12 @@
       <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A143" s="149" t="s">
+      <c r="A143" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="B143" s="149"/>
-      <c r="C143" s="149"/>
-      <c r="D143" s="149"/>
+      <c r="B143" s="175"/>
+      <c r="C143" s="175"/>
+      <c r="D143" s="175"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="9" t="s">
@@ -8791,10 +8792,10 @@
       <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="146" t="s">
+      <c r="A148" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="146"/>
+      <c r="B148" s="176"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
@@ -8805,12 +8806,12 @@
       <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A150" s="149" t="s">
+      <c r="A150" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="149"/>
-      <c r="C150" s="149"/>
-      <c r="D150" s="149"/>
+      <c r="B150" s="175"/>
+      <c r="C150" s="175"/>
+      <c r="D150" s="175"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="9" t="s">
@@ -8857,14 +8858,14 @@
       <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A157" s="153" t="s">
+      <c r="A157" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="B157" s="153"/>
-      <c r="C157" s="153"/>
-      <c r="D157" s="153"/>
-    </row>
-    <row r="158" spans="1:4" ht="28.5">
+      <c r="B157" s="173"/>
+      <c r="C157" s="173"/>
+      <c r="D157" s="173"/>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>127</v>
       </c>
@@ -8933,10 +8934,10 @@
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4" ht="39" customHeight="1">
-      <c r="A165" s="145" t="s">
+      <c r="A165" s="177" t="s">
         <v>141</v>
       </c>
-      <c r="B165" s="145"/>
+      <c r="B165" s="177"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
@@ -8950,7 +8951,7 @@
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" ht="30">
+    <row r="167" spans="1:4" ht="28">
       <c r="A167" s="23" t="s">
         <v>143</v>
       </c>
@@ -8981,10 +8982,10 @@
       <c r="D169" s="3"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="146" t="s">
+      <c r="A170" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="B170" s="146"/>
+      <c r="B170" s="176"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
@@ -8995,22 +8996,22 @@
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" ht="53.25" customHeight="1">
-      <c r="A172" s="149" t="s">
+      <c r="A172" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="B172" s="149"/>
-      <c r="C172" s="149"/>
-      <c r="D172" s="149"/>
+      <c r="B172" s="175"/>
+      <c r="C172" s="175"/>
+      <c r="D172" s="175"/>
     </row>
     <row r="173" spans="1:4" ht="24" customHeight="1">
       <c r="A173" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B173" s="155" t="s">
+      <c r="B173" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C173" s="155"/>
-      <c r="D173" s="155"/>
+      <c r="C173" s="178"/>
+      <c r="D173" s="178"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3"/>
@@ -9019,12 +9020,12 @@
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" ht="75.75" customHeight="1">
-      <c r="A175" s="152" t="s">
+      <c r="A175" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="B175" s="152"/>
-      <c r="C175" s="152"/>
-      <c r="D175" s="152"/>
+      <c r="B175" s="179"/>
+      <c r="C175" s="179"/>
+      <c r="D175" s="179"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="3"/>
@@ -9043,7 +9044,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="45">
+    <row r="178" spans="1:7" ht="42">
       <c r="A178" s="23" t="s">
         <v>154</v>
       </c>
@@ -9055,7 +9056,7 @@
       </c>
       <c r="G178" s="45"/>
     </row>
-    <row r="179" spans="1:7" ht="30">
+    <row r="179" spans="1:7" ht="28">
       <c r="A179" s="23" t="s">
         <v>157</v>
       </c>
@@ -9079,20 +9080,20 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="146"/>
-      <c r="B181" s="146"/>
+      <c r="A181" s="176"/>
+      <c r="B181" s="176"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="46"/>
       <c r="B182" s="46"/>
     </row>
     <row r="183" spans="1:7" ht="63" customHeight="1">
-      <c r="A183" s="153" t="s">
+      <c r="A183" s="173" t="s">
         <v>160</v>
       </c>
-      <c r="B183" s="153"/>
-      <c r="C183" s="153"/>
-      <c r="D183" s="153"/>
+      <c r="B183" s="173"/>
+      <c r="C183" s="173"/>
+      <c r="D183" s="173"/>
     </row>
     <row r="184" spans="1:7" ht="26.25" customHeight="1">
       <c r="A184" s="9" t="s">
@@ -9133,20 +9134,20 @@
       <c r="D187" s="24"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="154"/>
-      <c r="B188" s="154"/>
+      <c r="A188" s="180"/>
+      <c r="B188" s="180"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="47"/>
       <c r="B189" s="47"/>
     </row>
     <row r="190" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A190" s="149" t="s">
+      <c r="A190" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="B190" s="149"/>
-      <c r="C190" s="149"/>
-      <c r="D190" s="149"/>
+      <c r="B190" s="175"/>
+      <c r="C190" s="175"/>
+      <c r="D190" s="175"/>
       <c r="F190" t="s">
         <v>166</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="30">
+    <row r="193" spans="1:6" ht="28">
       <c r="A193" s="23" t="s">
         <v>168</v>
       </c>
@@ -9185,7 +9186,7 @@
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:6" ht="20.25">
+    <row r="198" spans="1:6" ht="20.5">
       <c r="A198" s="48" t="s">
         <v>170</v>
       </c>
@@ -9193,12 +9194,12 @@
       <c r="D198" s="3"/>
     </row>
     <row r="199" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A199" s="150" t="s">
+      <c r="A199" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="B199" s="150"/>
-      <c r="C199" s="150"/>
-      <c r="D199" s="150"/>
+      <c r="B199" s="181"/>
+      <c r="C199" s="181"/>
+      <c r="D199" s="181"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="49" t="s">
@@ -9247,8 +9248,8 @@
       <c r="D204" s="3"/>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="146"/>
-      <c r="B205" s="146"/>
+      <c r="A205" s="176"/>
+      <c r="B205" s="176"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
@@ -9259,12 +9260,12 @@
       <c r="D206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A207" s="144" t="s">
+      <c r="A207" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="144"/>
-      <c r="C207" s="144"/>
-      <c r="D207" s="144"/>
+      <c r="B207" s="182"/>
+      <c r="C207" s="182"/>
+      <c r="D207" s="182"/>
       <c r="F207" t="s">
         <v>178</v>
       </c>
@@ -9292,7 +9293,7 @@
       </c>
       <c r="B210" s="24"/>
     </row>
-    <row r="211" spans="1:4" ht="30">
+    <row r="211" spans="1:4" ht="28">
       <c r="A211" s="23" t="s">
         <v>182</v>
       </c>
@@ -9307,19 +9308,19 @@
       <c r="B213" s="24"/>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="146"/>
-      <c r="B214" s="146"/>
+      <c r="A214" s="176"/>
+      <c r="B214" s="176"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="51"/>
     </row>
     <row r="216" spans="1:4" ht="33" customHeight="1">
-      <c r="A216" s="151" t="s">
+      <c r="A216" s="183" t="s">
         <v>183</v>
       </c>
-      <c r="B216" s="151"/>
-      <c r="C216" s="151"/>
-      <c r="D216" s="151"/>
+      <c r="B216" s="183"/>
+      <c r="C216" s="183"/>
+      <c r="D216" s="183"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="9" t="s">
@@ -9368,14 +9369,14 @@
       <c r="B222" s="46"/>
     </row>
     <row r="223" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A223" s="149" t="s">
+      <c r="A223" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="B223" s="149"/>
-      <c r="C223" s="149"/>
-      <c r="D223" s="149"/>
-    </row>
-    <row r="224" spans="1:4" ht="45">
+      <c r="B223" s="175"/>
+      <c r="C223" s="175"/>
+      <c r="D223" s="175"/>
+    </row>
+    <row r="224" spans="1:4" ht="43.5">
       <c r="A224" s="52" t="s">
         <v>187</v>
       </c>
@@ -9384,12 +9385,12 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="36" customHeight="1">
-      <c r="A226" s="144" t="s">
+      <c r="A226" s="182" t="s">
         <v>189</v>
       </c>
-      <c r="B226" s="144"/>
-      <c r="C226" s="144"/>
-      <c r="D226" s="144"/>
+      <c r="B226" s="182"/>
+      <c r="C226" s="182"/>
+      <c r="D226" s="182"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="52" t="s">
@@ -9405,20 +9406,20 @@
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:5" ht="20.25">
+    <row r="229" spans="1:5" ht="20">
       <c r="A229" s="53" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A230" s="144" t="s">
+      <c r="A230" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="B230" s="144"/>
-      <c r="C230" s="144"/>
-      <c r="D230" s="144"/>
-    </row>
-    <row r="231" spans="1:5" ht="105">
+      <c r="B230" s="182"/>
+      <c r="C230" s="182"/>
+      <c r="D230" s="182"/>
+    </row>
+    <row r="231" spans="1:5" ht="87">
       <c r="A231" s="52" t="s">
         <v>187</v>
       </c>
@@ -9426,18 +9427,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="20.25">
+    <row r="233" spans="1:5" ht="20">
       <c r="A233" s="53" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A234" s="144" t="s">
+      <c r="A234" s="182" t="s">
         <v>195</v>
       </c>
-      <c r="B234" s="144"/>
-      <c r="C234" s="144"/>
-      <c r="D234" s="144"/>
+      <c r="B234" s="182"/>
+      <c r="C234" s="182"/>
+      <c r="D234" s="182"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="52" t="s">
@@ -9464,12 +9465,12 @@
       </c>
     </row>
     <row r="239" spans="1:5" ht="33" customHeight="1">
-      <c r="A239" s="144" t="s">
+      <c r="A239" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="B239" s="144"/>
-      <c r="C239" s="144"/>
-      <c r="D239" s="144"/>
+      <c r="B239" s="182"/>
+      <c r="C239" s="182"/>
+      <c r="D239" s="182"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="52" t="s">
@@ -9483,10 +9484,10 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="144.75" customHeight="1">
-      <c r="D241" s="148" t="s">
+      <c r="D241" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="E241" s="148"/>
+      <c r="E241" s="184"/>
     </row>
     <row r="242" spans="1:5">
       <c r="D242" t="s">
@@ -9502,12 +9503,12 @@
       </c>
     </row>
     <row r="245" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A245" s="144" t="s">
+      <c r="A245" s="182" t="s">
         <v>207</v>
       </c>
-      <c r="B245" s="144"/>
-      <c r="C245" s="144"/>
-      <c r="D245" s="144"/>
+      <c r="B245" s="182"/>
+      <c r="C245" s="182"/>
+      <c r="D245" s="182"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="52" t="s">
@@ -9518,12 +9519,12 @@
       </c>
     </row>
     <row r="248" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A248" s="149" t="s">
+      <c r="A248" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="B248" s="149"/>
-      <c r="C248" s="149"/>
-      <c r="D248" s="149"/>
+      <c r="B248" s="175"/>
+      <c r="C248" s="175"/>
+      <c r="D248" s="175"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="52" t="s">
@@ -9536,18 +9537,18 @@
         <v>211</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="20.25">
+    <row r="251" spans="1:5" ht="20">
       <c r="A251" s="53" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="45" customHeight="1">
-      <c r="A252" s="144" t="s">
+      <c r="A252" s="182" t="s">
         <v>213</v>
       </c>
-      <c r="B252" s="144"/>
-      <c r="C252" s="144"/>
-      <c r="D252" s="144"/>
+      <c r="B252" s="182"/>
+      <c r="C252" s="182"/>
+      <c r="D252" s="182"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="52" t="s">
@@ -9574,18 +9575,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="20.25">
+    <row r="256" spans="1:5" ht="20">
       <c r="A256" s="53" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="42" customHeight="1">
-      <c r="A257" s="144" t="s">
+      <c r="A257" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="B257" s="144"/>
-      <c r="C257" s="144"/>
-      <c r="D257" s="144"/>
+      <c r="B257" s="182"/>
+      <c r="C257" s="182"/>
+      <c r="D257" s="182"/>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="9" t="s">
@@ -9595,7 +9596,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="75">
+    <row r="260" spans="1:5" ht="70">
       <c r="A260" s="23" t="s">
         <v>220</v>
       </c>
@@ -9606,7 +9607,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="60">
+    <row r="261" spans="1:5" ht="56">
       <c r="A261" s="23" t="s">
         <v>223</v>
       </c>
@@ -9617,7 +9618,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="165">
+    <row r="262" spans="1:5" ht="154">
       <c r="A262" s="23" t="s">
         <v>225</v>
       </c>
@@ -9635,42 +9636,42 @@
       <c r="B263" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C263" s="147" t="s">
+      <c r="C263" s="185" t="s">
         <v>229</v>
       </c>
-      <c r="D263" s="147"/>
-      <c r="E263" s="147"/>
+      <c r="D263" s="185"/>
+      <c r="E263" s="185"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="46"/>
       <c r="B264" s="46"/>
     </row>
-    <row r="265" spans="1:5" ht="20.25">
+    <row r="265" spans="1:5" ht="20">
       <c r="A265" s="53" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A266" s="144" t="s">
+      <c r="A266" s="182" t="s">
         <v>231</v>
       </c>
-      <c r="B266" s="144"/>
+      <c r="B266" s="182"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="55"/>
     </row>
-    <row r="268" spans="1:5" ht="20.25">
+    <row r="268" spans="1:5" ht="20">
       <c r="A268" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A269" s="144" t="s">
+      <c r="A269" s="182" t="s">
         <v>233</v>
       </c>
-      <c r="B269" s="144"/>
-      <c r="C269" s="144"/>
-      <c r="D269" s="144"/>
+      <c r="B269" s="182"/>
+      <c r="C269" s="182"/>
+      <c r="D269" s="182"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="52" t="s">
@@ -9681,12 +9682,12 @@
       </c>
     </row>
     <row r="272" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A272" s="144" t="s">
+      <c r="A272" s="182" t="s">
         <v>235</v>
       </c>
-      <c r="B272" s="144"/>
-      <c r="C272" s="144"/>
-      <c r="D272" s="144"/>
+      <c r="B272" s="182"/>
+      <c r="C272" s="182"/>
+      <c r="D272" s="182"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="52" t="s">
@@ -9698,16 +9699,16 @@
     </row>
     <row r="274" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="275" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A275" s="144" t="s">
+      <c r="A275" s="182" t="s">
         <v>236</v>
       </c>
-      <c r="B275" s="144"/>
+      <c r="B275" s="182"/>
     </row>
     <row r="276" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A276" s="144" t="s">
+      <c r="A276" s="182" t="s">
         <v>237</v>
       </c>
-      <c r="B276" s="144"/>
+      <c r="B276" s="182"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="52" t="s">
@@ -9718,12 +9719,12 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="55.5" customHeight="1">
-      <c r="A279" s="145" t="s">
+      <c r="A279" s="177" t="s">
         <v>239</v>
       </c>
-      <c r="B279" s="145"/>
-      <c r="C279" s="145"/>
-      <c r="D279" s="145"/>
+      <c r="B279" s="177"/>
+      <c r="C279" s="177"/>
+      <c r="D279" s="177"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="9" t="s">
@@ -9756,14 +9757,14 @@
       <c r="D282" s="26"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="146"/>
-      <c r="B283" s="146"/>
+      <c r="A283" s="176"/>
+      <c r="B283" s="176"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="46"/>
       <c r="B284" s="46"/>
     </row>
-    <row r="285" spans="1:4" ht="20.25">
+    <row r="285" spans="1:4" ht="20">
       <c r="A285" s="53" t="s">
         <v>243</v>
       </c>
@@ -9773,21 +9774,21 @@
         <v>231</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="20.25">
+    <row r="287" spans="1:4" ht="20">
       <c r="A287" s="57"/>
     </row>
-    <row r="288" spans="1:4" ht="20.25">
+    <row r="288" spans="1:4" ht="20">
       <c r="A288" s="53" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="39" customHeight="1">
-      <c r="A289" s="144" t="s">
+      <c r="A289" s="182" t="s">
         <v>245</v>
       </c>
-      <c r="B289" s="144"/>
-      <c r="C289" s="144"/>
-      <c r="D289" s="144"/>
+      <c r="B289" s="182"/>
+      <c r="C289" s="182"/>
+      <c r="D289" s="182"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="52" t="s">
@@ -9798,12 +9799,12 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="44.25" customHeight="1">
-      <c r="A292" s="145" t="s">
+      <c r="A292" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="B292" s="145"/>
-      <c r="C292" s="145"/>
-      <c r="D292" s="145"/>
+      <c r="B292" s="177"/>
+      <c r="C292" s="177"/>
+      <c r="D292" s="177"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="58" t="s">
@@ -9845,76 +9846,76 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A292:D292"/>
+    <mergeCell ref="C263:E263"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A269:D269"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:H17"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="C263:E263"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A269:D269"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A292:D292"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C132" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -9931,26 +9932,27 @@
   </sheetPr>
   <dimension ref="A1:AMJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="142.140625" style="62" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" style="63" customWidth="1"/>
-    <col min="7" max="11" width="8.7109375" style="63" customWidth="1"/>
-    <col min="12" max="12" width="78.7109375" style="61" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" style="61" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="61" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="142.1796875" style="62" customWidth="1"/>
+    <col min="4" max="6" width="5.7265625" style="63" customWidth="1"/>
+    <col min="7" max="11" width="8.7265625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="78.7265625" style="61" customWidth="1"/>
+    <col min="13" max="13" width="26.7265625" style="61" customWidth="1"/>
     <col min="14" max="14" width="29" style="61" customWidth="1"/>
-    <col min="15" max="15" width="73.7109375" style="61" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="61" customWidth="1"/>
-    <col min="17" max="1024" width="11.42578125" style="61"/>
+    <col min="15" max="15" width="73.7265625" style="61" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" style="61" customWidth="1"/>
+    <col min="17" max="1024" width="11.453125" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="67" customFormat="1" ht="51.6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" s="67" customFormat="1" ht="51.65" customHeight="1" thickBot="1">
       <c r="A1" s="64" t="s">
         <v>250</v>
       </c>
@@ -9960,11 +9962,11 @@
       <c r="C1" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="186" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
@@ -9974,11 +9976,11 @@
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
       <c r="O1" s="66"/>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="69" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="67" customFormat="1" ht="29.25" thickBot="1">
+    <row r="2" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="68"/>
@@ -10018,9 +10020,9 @@
       <c r="O2" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="66"/>
-    </row>
-    <row r="3" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="P2" s="192"/>
+    </row>
+    <row r="3" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="66"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68"/>
@@ -10048,15 +10050,15 @@
       <c r="O3" s="76"/>
       <c r="P3" s="66"/>
     </row>
-    <row r="4" spans="1:20" s="67" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="177" t="s">
+    <row r="4" spans="1:20" s="67" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1">
+      <c r="A4" s="187" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
       <c r="G4" s="77"/>
       <c r="H4" s="78"/>
       <c r="I4" s="78"/>
@@ -10066,7 +10068,7 @@
       <c r="M4" s="79"/>
       <c r="N4" s="79"/>
       <c r="O4" s="79"/>
-      <c r="P4" s="188"/>
+      <c r="P4" s="152"/>
     </row>
     <row r="5" spans="1:20" s="67" customFormat="1" ht="219" customHeight="1" thickBot="1">
       <c r="A5" s="80" t="s">
@@ -10083,13 +10085,13 @@
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="183" t="s">
+      <c r="H5" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="I5" s="183" t="s">
+      <c r="I5" s="148" t="s">
         <v>267</v>
       </c>
       <c r="J5" s="84"/>
@@ -10101,7 +10103,7 @@
       <c r="N5" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="187" t="s">
+      <c r="O5" s="151" t="s">
         <v>276</v>
       </c>
       <c r="P5" s="80" t="s">
@@ -10126,10 +10128,10 @@
       </c>
       <c r="E6" s="90"/>
       <c r="F6" s="91"/>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="183" t="s">
+      <c r="H6" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I6" s="92"/>
@@ -10148,12 +10150,12 @@
       <c r="P6" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="Q6" s="178" t="s">
+      <c r="Q6" s="188" t="s">
         <v>284</v>
       </c>
-      <c r="R6" s="178"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="178"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
     </row>
     <row r="7" spans="1:20" s="67" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
       <c r="A7" s="87" t="s">
@@ -10170,10 +10172,10 @@
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="70"/>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="185"/>
+      <c r="H7" s="150"/>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
       <c r="K7" s="96"/>
@@ -10190,10 +10192,10 @@
       <c r="P7" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="188"/>
     </row>
     <row r="8" spans="1:20" s="67" customFormat="1" ht="87.75" customHeight="1" thickBot="1">
       <c r="A8" s="87" t="s">
@@ -10210,7 +10212,7 @@
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="70"/>
-      <c r="G8" s="183" t="s">
+      <c r="G8" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H8" s="99"/>
@@ -10226,10 +10228,10 @@
       <c r="P8" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="178"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="188"/>
     </row>
     <row r="9" spans="1:20" s="67" customFormat="1" ht="80.25" customHeight="1" thickBot="1">
       <c r="A9" s="87" t="s">
@@ -10246,7 +10248,7 @@
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="70"/>
-      <c r="G9" s="183" t="s">
+      <c r="G9" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H9" s="100"/>
@@ -10264,12 +10266,12 @@
       <c r="P9" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="178"/>
-    </row>
-    <row r="10" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
+      <c r="Q9" s="188"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="188"/>
+    </row>
+    <row r="10" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A10" s="87" t="s">
         <v>296</v>
       </c>
@@ -10284,7 +10286,7 @@
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="70"/>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H10" s="100"/>
@@ -10304,10 +10306,10 @@
       <c r="P10" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="178"/>
+      <c r="Q10" s="188"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="188"/>
     </row>
     <row r="11" spans="1:20" s="67" customFormat="1" ht="62.25" customHeight="1" thickBot="1">
       <c r="A11" s="87" t="s">
@@ -10344,10 +10346,10 @@
       <c r="P11" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="178"/>
+      <c r="Q11" s="188"/>
+      <c r="R11" s="188"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="188"/>
     </row>
     <row r="12" spans="1:20" s="67" customFormat="1" ht="103.5" customHeight="1" thickBot="1">
       <c r="A12" s="87" t="s">
@@ -10364,10 +10366,10 @@
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
-      <c r="G12" s="183" t="s">
+      <c r="G12" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H12" s="183" t="s">
+      <c r="H12" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I12" s="95"/>
@@ -10386,12 +10388,12 @@
       <c r="P12" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-    </row>
-    <row r="13" spans="1:20" s="67" customFormat="1" ht="100.15" customHeight="1" thickBot="1">
+      <c r="Q12" s="188"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="188"/>
+    </row>
+    <row r="13" spans="1:20" s="67" customFormat="1" ht="129" customHeight="1" thickBot="1">
       <c r="A13" s="87" t="s">
         <v>309</v>
       </c>
@@ -10406,16 +10408,16 @@
       </c>
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
-      <c r="G13" s="183" t="s">
+      <c r="G13" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="183" t="s">
+      <c r="H13" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="I13" s="183" t="s">
+      <c r="I13" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="J13" s="184" t="s">
+      <c r="J13" s="149" t="s">
         <v>268</v>
       </c>
       <c r="K13" s="103"/>
@@ -10434,12 +10436,12 @@
       <c r="P13" s="87" t="s">
         <v>309</v>
       </c>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-    </row>
-    <row r="14" spans="1:20" s="67" customFormat="1" ht="23.45" customHeight="1" thickBot="1">
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="188"/>
+    </row>
+    <row r="14" spans="1:20" s="67" customFormat="1" ht="23.5" customHeight="1" thickBot="1">
       <c r="A14" s="87" t="s">
         <v>314</v>
       </c>
@@ -10474,12 +10476,12 @@
       <c r="P14" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="Q14" s="178"/>
-      <c r="R14" s="178"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="178"/>
-    </row>
-    <row r="15" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
+      <c r="Q14" s="188"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="188"/>
+    </row>
+    <row r="15" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A15" s="87" t="s">
         <v>317</v>
       </c>
@@ -10508,10 +10510,10 @@
       <c r="P15" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="178"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="188"/>
     </row>
     <row r="16" spans="1:20" s="67" customFormat="1" ht="19.149999999999999" customHeight="1" thickBot="1">
       <c r="A16" s="87" t="s">
@@ -10542,12 +10544,12 @@
       <c r="P16" s="87" t="s">
         <v>320</v>
       </c>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="178"/>
-    </row>
-    <row r="17" spans="1:20" s="67" customFormat="1" ht="91.7" customHeight="1" thickBot="1">
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="188"/>
+    </row>
+    <row r="17" spans="1:20" s="67" customFormat="1" ht="91.75" customHeight="1" thickBot="1">
       <c r="A17" s="87" t="s">
         <v>323</v>
       </c>
@@ -10562,10 +10564,10 @@
       </c>
       <c r="E17" s="70"/>
       <c r="F17" s="106"/>
-      <c r="G17" s="183" t="s">
+      <c r="G17" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H17" s="183" t="s">
+      <c r="H17" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I17" s="108"/>
@@ -10586,12 +10588,12 @@
       <c r="P17" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
-    </row>
-    <row r="18" spans="1:20" s="67" customFormat="1" ht="45.75" thickBot="1">
+      <c r="Q17" s="188"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="188"/>
+      <c r="T17" s="188"/>
+    </row>
+    <row r="18" spans="1:20" s="67" customFormat="1" ht="42.5" thickBot="1">
       <c r="A18" s="112" t="s">
         <v>328</v>
       </c>
@@ -10606,10 +10608,10 @@
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="106"/>
-      <c r="G18" s="184" t="s">
+      <c r="G18" s="149" t="s">
         <v>268</v>
       </c>
-      <c r="H18" s="184" t="s">
+      <c r="H18" s="149" t="s">
         <v>268</v>
       </c>
       <c r="I18" s="111"/>
@@ -10631,7 +10633,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="67" customFormat="1" ht="42.6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:20" s="67" customFormat="1" ht="42.65" customHeight="1" thickBot="1">
       <c r="A19" s="112" t="s">
         <v>333</v>
       </c>
@@ -10667,7 +10669,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="67" customFormat="1" ht="37.35" customHeight="1" thickBot="1">
+    <row r="20" spans="1:20" s="67" customFormat="1" ht="37.4" customHeight="1" thickBot="1">
       <c r="A20" s="112" t="s">
         <v>337</v>
       </c>
@@ -10727,7 +10729,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="67" customFormat="1" ht="120.75" thickBot="1">
+    <row r="22" spans="1:20" s="67" customFormat="1" ht="112.5" thickBot="1">
       <c r="A22" s="87" t="s">
         <v>343</v>
       </c>
@@ -10742,10 +10744,10 @@
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="106"/>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H22" s="184" t="s">
+      <c r="H22" s="149" t="s">
         <v>268</v>
       </c>
       <c r="I22" s="107"/>
@@ -10763,7 +10765,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="67" customFormat="1" ht="75.75" thickBot="1">
+    <row r="23" spans="1:20" s="67" customFormat="1" ht="70.5" thickBot="1">
       <c r="A23" s="87" t="s">
         <v>346</v>
       </c>
@@ -10778,7 +10780,7 @@
       </c>
       <c r="E23" s="118"/>
       <c r="F23" s="119"/>
-      <c r="G23" s="183" t="s">
+      <c r="G23" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H23" t="s">
@@ -10797,7 +10799,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A24" s="87" t="s">
         <v>351</v>
       </c>
@@ -10829,7 +10831,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
+    <row r="25" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A25" s="112" t="s">
         <v>354</v>
       </c>
@@ -10859,7 +10861,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="26" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A26" s="87" t="s">
         <v>358</v>
       </c>
@@ -10890,14 +10892,14 @@
       </c>
     </row>
     <row r="27" spans="1:20" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="189" t="s">
         <v>360</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
       <c r="G27" s="122"/>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -10909,7 +10911,7 @@
       <c r="O27" s="125"/>
       <c r="P27" s="124"/>
     </row>
-    <row r="28" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
+    <row r="28" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A28" s="87" t="s">
         <v>361</v>
       </c>
@@ -10937,7 +10939,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A29" s="87" t="s">
         <v>363</v>
       </c>
@@ -10965,7 +10967,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
+    <row r="30" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A30" s="87" t="s">
         <v>365</v>
       </c>
@@ -10993,7 +10995,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
+    <row r="31" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A31" s="87" t="s">
         <v>367</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="32" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A32" s="87" t="s">
         <v>369</v>
       </c>
@@ -11049,7 +11051,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A33" s="87" t="s">
         <v>370</v>
       </c>
@@ -11077,7 +11079,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+    <row r="34" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A34" s="87" t="s">
         <v>372</v>
       </c>
@@ -11105,7 +11107,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="35" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A35" s="87" t="s">
         <v>374</v>
       </c>
@@ -11134,14 +11136,14 @@
       </c>
     </row>
     <row r="36" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="173" t="s">
+      <c r="A36" s="189" t="s">
         <v>376</v>
       </c>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
       <c r="G36" s="122"/>
       <c r="H36" s="123"/>
       <c r="I36" s="123"/>
@@ -11168,50 +11170,50 @@
       </c>
       <c r="E37" s="119"/>
       <c r="F37" s="126"/>
-      <c r="G37" s="183" t="s">
+      <c r="G37" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H37" s="183" t="s">
+      <c r="H37" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I37" s="107"/>
       <c r="J37" s="107"/>
       <c r="K37" s="107"/>
       <c r="L37" s="109" t="s">
+        <v>592</v>
+      </c>
+      <c r="M37" s="107" t="s">
         <v>379</v>
-      </c>
-      <c r="M37" s="107" t="s">
-        <v>380</v>
       </c>
       <c r="N37" s="107" t="s">
         <v>312</v>
       </c>
       <c r="O37" s="107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P37" s="87" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="67" customFormat="1" ht="23.45" customHeight="1" thickBot="1">
+    <row r="38" spans="1:16" s="67" customFormat="1" ht="23.5" customHeight="1" thickBot="1">
       <c r="A38" s="87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B38" s="88" t="s">
         <v>352</v>
       </c>
       <c r="C38" s="89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D38" s="118" t="s">
         <v>266</v>
       </c>
       <c r="E38" s="119"/>
       <c r="F38" s="126"/>
-      <c r="G38" s="180" t="s">
+      <c r="G38" s="145" t="s">
         <v>349</v>
       </c>
-      <c r="H38" s="183" t="s">
+      <c r="H38" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I38" s="107"/>
@@ -11222,15 +11224,15 @@
       <c r="N38" s="108"/>
       <c r="O38" s="107"/>
       <c r="P38" s="87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="175" t="s">
-        <v>384</v>
-      </c>
-      <c r="B39" s="175"/>
-      <c r="C39" s="175"/>
+      <c r="A39" s="190" t="s">
+        <v>383</v>
+      </c>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
       <c r="D39" s="127"/>
       <c r="E39" s="127"/>
       <c r="F39" s="128"/>
@@ -11247,61 +11249,61 @@
     </row>
     <row r="40" spans="1:16" s="67" customFormat="1" ht="73.5" customHeight="1" thickBot="1">
       <c r="A40" s="87" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B40" s="126"/>
       <c r="C40" s="89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D40" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="119"/>
-      <c r="G40" s="181" t="s">
+      <c r="G40" s="146" t="s">
         <v>267</v>
       </c>
-      <c r="H40" s="181" t="s">
+      <c r="H40" s="146" t="s">
         <v>267</v>
       </c>
       <c r="I40" s="107"/>
       <c r="J40" s="107"/>
       <c r="K40" s="107"/>
       <c r="L40" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M40" s="117" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N40" s="107" t="s">
         <v>275</v>
       </c>
       <c r="O40" s="107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P40" s="87" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="67" customFormat="1" ht="73.5" customHeight="1" thickBot="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="67" customFormat="1" ht="100" customHeight="1" thickBot="1">
       <c r="A41" s="87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B41" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C41" s="130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D41" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E41" s="118"/>
       <c r="F41" s="119"/>
-      <c r="G41" s="184" t="s">
+      <c r="G41" s="149" t="s">
         <v>268</v>
       </c>
-      <c r="H41" s="184" t="s">
+      <c r="H41" s="149" t="s">
         <v>268</v>
       </c>
       <c r="I41" s="72" t="s">
@@ -11310,26 +11312,26 @@
       <c r="J41" s="107"/>
       <c r="K41" s="107"/>
       <c r="L41" s="109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M41" s="117"/>
       <c r="N41" s="107"/>
       <c r="O41" s="117" t="s">
+        <v>390</v>
+      </c>
+      <c r="P41" s="87" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
+      <c r="A42" s="87" t="s">
         <v>391</v>
-      </c>
-      <c r="P41" s="87" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="67" customFormat="1" ht="75.75" thickBot="1">
-      <c r="A42" s="87" t="s">
-        <v>392</v>
       </c>
       <c r="B42" s="126" t="s">
         <v>279</v>
       </c>
       <c r="C42" s="89" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D42" s="129" t="s">
         <v>266</v>
@@ -11344,24 +11346,24 @@
       <c r="J42" s="107"/>
       <c r="K42" s="107"/>
       <c r="L42" s="109" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M42" s="107"/>
       <c r="N42" s="107"/>
       <c r="O42" s="107"/>
       <c r="P42" s="87" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="67" customFormat="1" ht="26.65" customHeight="1" thickBot="1">
       <c r="A43" s="87" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B43" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D43" s="129" t="s">
         <v>266</v>
@@ -11369,7 +11371,7 @@
       <c r="E43" s="118"/>
       <c r="F43" s="119"/>
       <c r="G43" s="107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H43" s="107"/>
       <c r="I43" s="107"/>
@@ -11380,30 +11382,30 @@
       <c r="N43" s="108"/>
       <c r="O43" s="107"/>
       <c r="P43" s="87" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="67" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
       <c r="A44" s="87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D44" s="129"/>
       <c r="E44" s="118"/>
       <c r="F44" s="119"/>
       <c r="G44" s="108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H44" s="108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I44" s="108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J44" s="108"/>
       <c r="K44" s="108"/>
@@ -11412,25 +11414,25 @@
       <c r="N44" s="108"/>
       <c r="O44" s="108"/>
       <c r="P44" s="87" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="67" customFormat="1" ht="75.75" thickBot="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
       <c r="A45" s="87" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" s="126" t="s">
         <v>279</v>
       </c>
       <c r="C45" s="89" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D45" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E45" s="118"/>
       <c r="F45" s="119"/>
-      <c r="G45" s="183" t="s">
+      <c r="G45" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H45" s="108"/>
@@ -11439,27 +11441,27 @@
       <c r="K45" s="108"/>
       <c r="L45" s="131"/>
       <c r="M45" s="117" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N45" s="108" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O45" s="111" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P45" s="87" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="67" customFormat="1" ht="157.5" thickBot="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="67" customFormat="1" ht="154.5" thickBot="1">
       <c r="A46" s="87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" s="126" t="s">
         <v>279</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D46" s="129" t="s">
         <v>266</v>
@@ -11475,59 +11477,59 @@
       <c r="I46" s="107"/>
       <c r="J46" s="107"/>
       <c r="K46" s="107"/>
-      <c r="L46" s="179" t="s">
-        <v>540</v>
+      <c r="L46" s="144" t="s">
+        <v>539</v>
       </c>
       <c r="M46" s="107"/>
       <c r="N46" s="108" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O46" s="107"/>
       <c r="P46" s="87" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="67" customFormat="1" ht="114.75" thickBot="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="67" customFormat="1" ht="114.5" thickBot="1">
       <c r="A47" s="87" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D47" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E47" s="118"/>
       <c r="F47" s="119"/>
-      <c r="G47" s="183" t="s">
+      <c r="G47" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H47" s="107"/>
       <c r="I47" s="107"/>
       <c r="J47" s="107"/>
       <c r="K47" s="107"/>
-      <c r="L47" s="179" t="s">
-        <v>545</v>
+      <c r="L47" s="144" t="s">
+        <v>544</v>
       </c>
       <c r="M47" s="107"/>
       <c r="N47" s="107"/>
       <c r="O47" s="107"/>
       <c r="P47" s="87" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A48" s="87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B48" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D48" s="129"/>
       <c r="E48" s="118"/>
@@ -11539,249 +11541,249 @@
       <c r="I48" s="107"/>
       <c r="J48" s="107"/>
       <c r="K48" s="107"/>
-      <c r="L48" s="179" t="s">
-        <v>541</v>
+      <c r="L48" s="144" t="s">
+        <v>540</v>
       </c>
       <c r="M48" s="107"/>
       <c r="N48" s="107"/>
       <c r="O48" s="107"/>
       <c r="P48" s="87" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="67" customFormat="1" ht="86.25" thickBot="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="67" customFormat="1" ht="86" thickBot="1">
       <c r="A49" s="87" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B49" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D49" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E49" s="118"/>
       <c r="F49" s="119"/>
-      <c r="G49" s="184" t="s">
+      <c r="G49" s="149" t="s">
         <v>268</v>
       </c>
       <c r="H49" s="107"/>
       <c r="I49" s="107"/>
       <c r="J49" s="107"/>
       <c r="K49" s="107"/>
-      <c r="L49" s="179" t="s">
-        <v>544</v>
+      <c r="L49" s="144" t="s">
+        <v>543</v>
       </c>
       <c r="M49" s="107"/>
       <c r="N49" s="108" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O49" s="117" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P49" s="87" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="67" customFormat="1" ht="157.5" thickBot="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="67" customFormat="1" ht="126.5" thickBot="1">
       <c r="A50" s="87" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D50" s="132" t="s">
         <v>266</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="119"/>
-      <c r="G50" s="184" t="s">
+      <c r="G50" s="149" t="s">
         <v>268</v>
       </c>
-      <c r="H50" s="184" t="s">
+      <c r="H50" s="149" t="s">
         <v>268</v>
       </c>
       <c r="I50" s="107"/>
       <c r="J50" s="107"/>
       <c r="K50" s="107"/>
-      <c r="L50" s="179" t="s">
-        <v>547</v>
+      <c r="L50" s="144" t="s">
+        <v>546</v>
       </c>
       <c r="M50" s="117" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N50" s="107"/>
       <c r="O50" s="117" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P50" s="87" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="67" customFormat="1" ht="171.75" thickBot="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="67" customFormat="1" ht="168.5" thickBot="1">
       <c r="A51" s="87" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B51" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="186" t="s">
-        <v>413</v>
+      <c r="C51" s="193" t="s">
+        <v>412</v>
       </c>
       <c r="D51" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E51" s="118"/>
       <c r="F51" s="119"/>
-      <c r="G51" s="182" t="s">
+      <c r="G51" s="147" t="s">
         <v>268</v>
       </c>
-      <c r="H51" s="183" t="s">
+      <c r="H51" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I51" s="107"/>
       <c r="J51" s="107"/>
       <c r="K51" s="107"/>
-      <c r="L51" s="179" t="s">
-        <v>551</v>
+      <c r="L51" s="144" t="s">
+        <v>550</v>
       </c>
       <c r="M51" s="117" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N51" s="107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O51" s="117" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P51" s="87" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="67" customFormat="1" ht="86.25" thickBot="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
       <c r="A52" s="87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B52" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C52" s="180" t="s">
-        <v>415</v>
+      <c r="C52" s="145" t="s">
+        <v>414</v>
       </c>
       <c r="D52" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="119"/>
-      <c r="G52" s="183" t="s">
+      <c r="G52" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H52" s="183" t="s">
+      <c r="H52" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I52" s="108"/>
       <c r="J52" s="108"/>
       <c r="K52" s="108"/>
-      <c r="L52" s="179" t="s">
-        <v>552</v>
+      <c r="L52" s="144" t="s">
+        <v>551</v>
       </c>
       <c r="M52" s="108"/>
       <c r="N52" s="108" t="s">
         <v>54</v>
       </c>
       <c r="O52" s="108" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P52" s="87" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="67" customFormat="1" ht="214.5" thickBot="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="67" customFormat="1" ht="210.5" thickBot="1">
       <c r="A53" s="87" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B53" s="126" t="s">
         <v>334</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D53" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E53" s="118"/>
       <c r="F53" s="119"/>
-      <c r="G53" s="183" t="s">
+      <c r="G53" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H53" s="107"/>
       <c r="I53" s="107"/>
       <c r="J53" s="107"/>
       <c r="K53" s="107"/>
-      <c r="L53" s="179" t="s">
-        <v>553</v>
+      <c r="L53" s="144" t="s">
+        <v>552</v>
       </c>
       <c r="M53" s="107"/>
       <c r="N53" s="107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O53" s="117" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P53" s="87" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" s="67" customFormat="1" ht="57.75" thickBot="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
       <c r="A54" s="87" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B54" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C54" s="89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D54" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="119"/>
-      <c r="G54" s="182" t="s">
+      <c r="G54" s="147" t="s">
         <v>268</v>
       </c>
       <c r="H54" s="107"/>
       <c r="I54" s="107"/>
       <c r="J54" s="107"/>
       <c r="K54" s="107"/>
-      <c r="L54" s="179" t="s">
-        <v>554</v>
+      <c r="L54" s="144" t="s">
+        <v>553</v>
       </c>
       <c r="M54" s="107"/>
       <c r="N54" s="107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O54" s="117" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P54" s="87" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A55" s="87" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" s="126" t="s">
         <v>352</v>
       </c>
       <c r="C55" s="89" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D55" s="129"/>
       <c r="E55" s="118"/>
@@ -11798,18 +11800,18 @@
       <c r="N55" s="108"/>
       <c r="O55" s="108"/>
       <c r="P55" s="87" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A56" s="87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" s="126" t="s">
         <v>352</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D56" s="129"/>
       <c r="E56" s="118"/>
@@ -11826,18 +11828,18 @@
       <c r="N56" s="108"/>
       <c r="O56" s="108"/>
       <c r="P56" s="87" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A57" s="87" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B57" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="180" t="s">
-        <v>425</v>
+      <c r="C57" s="145" t="s">
+        <v>424</v>
       </c>
       <c r="D57" s="88"/>
       <c r="E57" s="118"/>
@@ -11851,27 +11853,27 @@
       <c r="I57" s="107"/>
       <c r="J57" s="107"/>
       <c r="K57" s="107"/>
-      <c r="L57" s="179" t="s">
-        <v>559</v>
+      <c r="L57" s="144" t="s">
+        <v>558</v>
       </c>
       <c r="M57" s="107"/>
       <c r="N57" s="107"/>
       <c r="O57" s="117" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P57" s="87" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A58" s="87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B58" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="C58" s="180" t="s">
-        <v>415</v>
+      <c r="C58" s="145" t="s">
+        <v>414</v>
       </c>
       <c r="D58" s="88"/>
       <c r="E58" s="118"/>
@@ -11888,18 +11890,18 @@
       <c r="N58" s="107"/>
       <c r="O58" s="107"/>
       <c r="P58" s="87" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+      <c r="A59" s="87" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A59" s="87" t="s">
-        <v>427</v>
       </c>
       <c r="B59" s="126" t="s">
         <v>352</v>
       </c>
       <c r="C59" s="89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D59" s="129"/>
       <c r="E59" s="118"/>
@@ -11916,54 +11918,54 @@
       <c r="N59" s="107"/>
       <c r="O59" s="107"/>
       <c r="P59" s="87" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" s="67" customFormat="1" ht="90.75" thickBot="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="67" customFormat="1" ht="84.5" thickBot="1">
       <c r="A60" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="B60" s="126" t="s">
         <v>429</v>
       </c>
-      <c r="B60" s="126" t="s">
+      <c r="C60" s="89" t="s">
         <v>430</v>
-      </c>
-      <c r="C60" s="89" t="s">
-        <v>431</v>
       </c>
       <c r="D60" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E60" s="118"/>
       <c r="F60" s="119"/>
-      <c r="G60" s="183" t="s">
+      <c r="G60" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H60" s="183" t="s">
+      <c r="H60" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I60" s="107"/>
       <c r="J60" s="107"/>
       <c r="K60" s="107"/>
-      <c r="L60" s="179" t="s">
-        <v>562</v>
+      <c r="L60" s="144" t="s">
+        <v>561</v>
       </c>
       <c r="M60" s="107"/>
       <c r="N60" s="107"/>
       <c r="O60" s="117" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P60" s="87" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="67" customFormat="1" ht="70.5" customHeight="1" thickBot="1">
+      <c r="A61" s="87" t="s">
+        <v>431</v>
+      </c>
+      <c r="B61" s="126" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" s="67" customFormat="1" ht="75.75" thickBot="1">
-      <c r="A61" s="87" t="s">
+      <c r="C61" s="89" t="s">
         <v>432</v>
-      </c>
-      <c r="B61" s="126" t="s">
-        <v>430</v>
-      </c>
-      <c r="C61" s="89" t="s">
-        <v>433</v>
       </c>
       <c r="D61" s="129"/>
       <c r="E61" s="118" t="s">
@@ -11975,32 +11977,32 @@
       <c r="I61" s="107"/>
       <c r="J61" s="107"/>
       <c r="K61" s="107"/>
-      <c r="L61" s="179" t="s">
-        <v>563</v>
+      <c r="L61" s="144" t="s">
+        <v>562</v>
       </c>
       <c r="M61" s="107"/>
       <c r="N61" s="107"/>
       <c r="O61" s="107"/>
       <c r="P61" s="87" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" s="67" customFormat="1" ht="57.75" thickBot="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="67" customFormat="1" ht="56.5" thickBot="1">
       <c r="A62" s="87" t="s">
+        <v>433</v>
+      </c>
+      <c r="B62" s="126" t="s">
         <v>434</v>
       </c>
-      <c r="B62" s="126" t="s">
+      <c r="C62" s="89" t="s">
         <v>435</v>
-      </c>
-      <c r="C62" s="89" t="s">
-        <v>436</v>
       </c>
       <c r="D62" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E62" s="118"/>
       <c r="F62" s="119"/>
-      <c r="G62" s="183" t="s">
+      <c r="G62" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H62" s="73" t="s">
@@ -12009,129 +12011,129 @@
       <c r="I62" s="107"/>
       <c r="J62" s="107"/>
       <c r="K62" s="107"/>
-      <c r="L62" s="179" t="s">
-        <v>564</v>
+      <c r="L62" s="144" t="s">
+        <v>563</v>
       </c>
       <c r="M62" s="107"/>
       <c r="N62" s="107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O62" s="117" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P62" s="87" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A63" s="87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C63" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D63" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E63" s="118"/>
       <c r="F63" s="119"/>
-      <c r="G63" s="182" t="s">
+      <c r="G63" s="147" t="s">
         <v>268</v>
       </c>
       <c r="H63" s="107"/>
       <c r="I63" s="107"/>
       <c r="J63" s="107"/>
       <c r="K63" s="107"/>
-      <c r="L63" s="179" t="s">
-        <v>565</v>
+      <c r="L63" s="144" t="s">
+        <v>564</v>
       </c>
       <c r="M63" s="107"/>
       <c r="N63" s="107"/>
       <c r="O63" s="107"/>
       <c r="P63" s="87" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="67" customFormat="1" ht="43" customHeight="1" thickBot="1">
       <c r="A64" s="87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B64" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C64" s="89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D64" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E64" s="118"/>
       <c r="F64" s="119"/>
-      <c r="G64" s="182" t="s">
+      <c r="G64" s="147" t="s">
         <v>268</v>
       </c>
       <c r="H64" s="108"/>
       <c r="I64" s="108"/>
       <c r="J64" s="108"/>
       <c r="K64" s="108"/>
-      <c r="L64" s="179" t="s">
-        <v>566</v>
+      <c r="L64" s="144" t="s">
+        <v>565</v>
       </c>
       <c r="M64" s="108"/>
       <c r="N64" s="108"/>
       <c r="O64" s="108"/>
       <c r="P64" s="87" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="67" customFormat="1" ht="105.75" thickBot="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="67" customFormat="1" ht="98.5" thickBot="1">
       <c r="A65" s="87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B65" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C65" s="89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D65" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E65" s="118"/>
       <c r="F65" s="119"/>
-      <c r="G65" s="183" t="s">
+      <c r="G65" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H65" s="183" t="s">
+      <c r="H65" s="148" t="s">
         <v>267</v>
       </c>
       <c r="I65" s="107"/>
       <c r="J65" s="107"/>
       <c r="K65" s="107"/>
-      <c r="L65" s="179" t="s">
-        <v>567</v>
+      <c r="L65" s="144" t="s">
+        <v>566</v>
       </c>
       <c r="M65" s="107"/>
       <c r="N65" s="107"/>
       <c r="O65" s="117" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P65" s="87" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="67" customFormat="1" ht="29.5" customHeight="1" thickBot="1">
       <c r="A66" s="87" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B66" s="126" t="s">
         <v>272</v>
       </c>
       <c r="C66" s="89" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D66" s="129"/>
       <c r="E66" s="118" t="s">
@@ -12143,169 +12145,169 @@
       <c r="I66" s="107"/>
       <c r="J66" s="107"/>
       <c r="K66" s="107"/>
-      <c r="L66" s="179"/>
+      <c r="L66" s="144"/>
       <c r="M66" s="107"/>
       <c r="N66" s="107"/>
       <c r="O66" s="107"/>
       <c r="P66" s="87" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" s="67" customFormat="1" ht="45.75" thickBot="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
       <c r="A67" s="87" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B67" s="119" t="s">
         <v>272</v>
       </c>
       <c r="C67" s="89" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D67" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="119"/>
-      <c r="G67" s="183" t="s">
+      <c r="G67" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="H67" s="182" t="s">
+      <c r="H67" s="147" t="s">
         <v>268</v>
       </c>
       <c r="I67" s="107"/>
       <c r="J67" s="107"/>
       <c r="K67" s="107"/>
-      <c r="L67" s="179" t="s">
-        <v>568</v>
+      <c r="L67" s="144" t="s">
+        <v>567</v>
       </c>
       <c r="M67" s="107"/>
       <c r="N67" s="107"/>
       <c r="O67" s="117" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P67" s="87" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="67" customFormat="1" ht="75.75" thickBot="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
       <c r="A68" s="87" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B68" s="119" t="s">
         <v>272</v>
       </c>
       <c r="C68" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D68" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E68" s="118"/>
       <c r="F68" s="119"/>
-      <c r="G68" s="183" t="s">
+      <c r="G68" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H68" s="107"/>
       <c r="I68" s="107"/>
       <c r="J68" s="107"/>
       <c r="K68" s="107"/>
-      <c r="L68" s="179" t="s">
-        <v>569</v>
+      <c r="L68" s="144" t="s">
+        <v>568</v>
       </c>
       <c r="M68" s="107" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N68" s="107"/>
       <c r="O68" s="117" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P68" s="87" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="67" customFormat="1" ht="90.75" thickBot="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="67" customFormat="1" ht="84.5" thickBot="1">
       <c r="A69" s="87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B69" s="126" t="s">
         <v>279</v>
       </c>
       <c r="C69" s="89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D69" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E69" s="118"/>
       <c r="F69" s="119"/>
-      <c r="G69" s="183" t="s">
+      <c r="G69" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H69" s="107"/>
       <c r="I69" s="107"/>
       <c r="J69" s="107"/>
       <c r="K69" s="107"/>
-      <c r="L69" s="189" t="s">
-        <v>570</v>
+      <c r="L69" s="153" t="s">
+        <v>569</v>
       </c>
       <c r="M69" s="107" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N69" s="107"/>
       <c r="O69" s="117" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P69" s="87" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="67" customFormat="1" ht="72" thickBot="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
       <c r="A70" s="87" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B70" s="115" t="s">
         <v>279</v>
       </c>
       <c r="C70" s="89" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D70" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E70" s="118"/>
       <c r="F70" s="119"/>
-      <c r="G70" s="183" t="s">
+      <c r="G70" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H70" s="107"/>
       <c r="I70" s="107"/>
       <c r="J70" s="107"/>
       <c r="K70" s="107"/>
-      <c r="L70" s="179" t="s">
-        <v>580</v>
+      <c r="L70" s="144" t="s">
+        <v>579</v>
       </c>
       <c r="M70" s="117" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N70" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O70" s="117" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P70" s="87" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A71" s="173" t="s">
-        <v>453</v>
-      </c>
-      <c r="B71" s="173"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="173"/>
-      <c r="E71" s="173"/>
-      <c r="F71" s="173"/>
+      <c r="A71" s="189" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="189"/>
+      <c r="C71" s="189"/>
+      <c r="D71" s="189"/>
+      <c r="E71" s="189"/>
+      <c r="F71" s="189"/>
       <c r="G71" s="122"/>
       <c r="H71" s="123"/>
       <c r="I71" s="123"/>
@@ -12317,22 +12319,22 @@
       <c r="O71" s="125"/>
       <c r="P71" s="124"/>
     </row>
-    <row r="72" spans="1:16" s="67" customFormat="1" ht="45.75" thickBot="1">
+    <row r="72" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
       <c r="A72" s="87" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B72" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C72" s="89" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D72" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E72" s="118"/>
       <c r="F72" s="119"/>
-      <c r="G72" s="183" t="s">
+      <c r="G72" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H72" s="107"/>
@@ -12340,64 +12342,64 @@
       <c r="J72" s="107"/>
       <c r="K72" s="107"/>
       <c r="L72" s="117" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M72" s="107"/>
       <c r="N72" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O72" s="117" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P72" s="87" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A73" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C73" s="89" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D73" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E73" s="118"/>
       <c r="F73" s="119"/>
-      <c r="G73" s="183" t="s">
+      <c r="G73" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H73" s="107"/>
       <c r="I73" s="107"/>
       <c r="J73" s="107"/>
       <c r="K73" s="107"/>
-      <c r="L73" s="190" t="s">
-        <v>582</v>
+      <c r="L73" s="154" t="s">
+        <v>581</v>
       </c>
       <c r="M73" s="107"/>
       <c r="N73" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O73" s="107"/>
       <c r="P73" s="87" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A74" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B74" s="88" t="s">
         <v>279</v>
       </c>
       <c r="C74" s="89" t="s">
-        <v>459</v>
-      </c>
-      <c r="D74" s="191"/>
+        <v>458</v>
+      </c>
+      <c r="D74" s="155"/>
       <c r="E74" s="129" t="s">
         <v>266</v>
       </c>
@@ -12407,27 +12409,27 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="107"/>
-      <c r="L74" s="190" t="s">
-        <v>583</v>
+      <c r="L74" s="154" t="s">
+        <v>582</v>
       </c>
       <c r="M74" s="107"/>
       <c r="N74" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O74" s="107"/>
       <c r="P74" s="87" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A75" s="87" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C75" s="89" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D75" s="129"/>
       <c r="E75" s="118" t="s">
@@ -12439,23 +12441,23 @@
       <c r="I75" s="107"/>
       <c r="J75" s="107"/>
       <c r="K75" s="107"/>
-      <c r="L75" s="179"/>
+      <c r="L75" s="144"/>
       <c r="M75" s="107"/>
       <c r="N75" s="107"/>
       <c r="O75" s="107"/>
       <c r="P75" s="87" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="67" customFormat="1" ht="43.5" thickBot="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
       <c r="A76" s="87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B76" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C76" s="89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D76" s="129" t="s">
         <v>266</v>
@@ -12469,93 +12471,93 @@
       <c r="I76" s="107"/>
       <c r="J76" s="107"/>
       <c r="K76" s="107"/>
-      <c r="L76" s="179" t="s">
-        <v>584</v>
+      <c r="L76" s="144" t="s">
+        <v>583</v>
       </c>
       <c r="M76" s="107"/>
       <c r="N76" s="107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O76" s="107" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P76" s="87" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" s="67" customFormat="1" ht="43.5" thickBot="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
       <c r="A77" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B77" s="88" t="s">
         <v>279</v>
       </c>
       <c r="C77" s="89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D77" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E77" s="118"/>
       <c r="F77" s="119"/>
-      <c r="G77" s="192" t="s">
+      <c r="G77" s="156" t="s">
         <v>269</v>
       </c>
       <c r="H77" s="107"/>
       <c r="I77" s="107"/>
       <c r="J77" s="107"/>
       <c r="K77" s="107"/>
-      <c r="L77" s="179" t="s">
-        <v>584</v>
+      <c r="L77" s="144" t="s">
+        <v>583</v>
       </c>
       <c r="M77" s="107"/>
       <c r="N77" s="107"/>
       <c r="O77" s="107"/>
       <c r="P77" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="67" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A78" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B78" s="88" t="s">
         <v>352</v>
       </c>
       <c r="C78" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D78" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E78" s="118"/>
       <c r="F78" s="119"/>
-      <c r="G78" s="192" t="s">
+      <c r="G78" s="156" t="s">
         <v>269</v>
       </c>
       <c r="H78" s="107"/>
       <c r="I78" s="107"/>
       <c r="J78" s="107"/>
       <c r="K78" s="107"/>
-      <c r="L78" s="179" t="s">
-        <v>585</v>
+      <c r="L78" s="144" t="s">
+        <v>584</v>
       </c>
       <c r="M78" s="107"/>
       <c r="N78" s="107"/>
       <c r="O78" s="107"/>
       <c r="P78" s="87" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A79" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B79" s="88" t="s">
         <v>334</v>
       </c>
       <c r="C79" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D79" s="129" t="s">
         <v>266</v>
@@ -12570,119 +12572,119 @@
       <c r="M79" s="107"/>
       <c r="N79" s="107"/>
       <c r="O79" s="117" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P79" s="87" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="67" customFormat="1" ht="86.25" thickBot="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="67" customFormat="1" ht="84.5" thickBot="1">
       <c r="A80" s="87" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B80" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C80" s="89" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D80" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E80" s="118"/>
       <c r="F80" s="119"/>
-      <c r="G80" s="183" t="s">
+      <c r="G80" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H80" s="107"/>
       <c r="I80" s="107"/>
       <c r="J80" s="107"/>
       <c r="K80" s="107"/>
-      <c r="L80" s="179" t="s">
-        <v>586</v>
+      <c r="L80" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="M80" s="107"/>
       <c r="N80" s="107"/>
       <c r="O80" s="107"/>
       <c r="P80" s="87" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" s="67" customFormat="1" ht="43.5" thickBot="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
       <c r="A81" s="87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B81" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C81" s="89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D81" s="119" t="s">
         <v>266</v>
       </c>
       <c r="E81" s="118"/>
-      <c r="F81" s="191"/>
-      <c r="G81" s="183" t="s">
+      <c r="F81" s="155"/>
+      <c r="G81" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H81" s="107"/>
       <c r="I81" s="107"/>
       <c r="J81" s="107"/>
       <c r="K81" s="107"/>
-      <c r="L81" s="179" t="s">
-        <v>587</v>
+      <c r="L81" s="144" t="s">
+        <v>586</v>
       </c>
       <c r="M81" s="107"/>
       <c r="N81" s="107"/>
       <c r="O81" s="107"/>
       <c r="P81" s="87" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A82" s="87" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B82" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C82" s="89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D82" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E82" s="118"/>
       <c r="F82" s="119"/>
-      <c r="G82" s="183" t="s">
+      <c r="G82" s="148" t="s">
         <v>267</v>
       </c>
       <c r="H82" s="107"/>
       <c r="I82" s="107"/>
       <c r="J82" s="107"/>
       <c r="K82" s="107"/>
-      <c r="L82" s="179" t="s">
-        <v>588</v>
+      <c r="L82" s="144" t="s">
+        <v>587</v>
       </c>
       <c r="M82" s="117"/>
       <c r="N82" s="107"/>
       <c r="O82" s="117" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P82" s="87" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="173" t="s">
+      <c r="A83" s="189" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
-      <c r="F83" s="173"/>
+      <c r="B83" s="189"/>
+      <c r="C83" s="189"/>
+      <c r="D83" s="189"/>
+      <c r="E83" s="189"/>
+      <c r="F83" s="189"/>
       <c r="G83" s="122"/>
       <c r="H83" s="123"/>
       <c r="I83" s="123"/>
@@ -12694,15 +12696,15 @@
       <c r="O83" s="125"/>
       <c r="P83" s="124"/>
     </row>
-    <row r="84" spans="1:16" s="67" customFormat="1" ht="45.75" thickBot="1">
+    <row r="84" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
       <c r="A84" s="112" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B84" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C84" s="89" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D84" s="129" t="s">
         <v>266</v>
@@ -12718,19 +12720,19 @@
       <c r="M84" s="107"/>
       <c r="N84" s="107"/>
       <c r="O84" s="107"/>
-      <c r="P84" s="112" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="P84" s="89" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A85" s="87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B85" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C85" s="89" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D85" s="129" t="s">
         <v>266</v>
@@ -12747,18 +12749,18 @@
       <c r="N85" s="107"/>
       <c r="O85" s="107"/>
       <c r="P85" s="87" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A86" s="87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B86" s="88" t="s">
         <v>352</v>
       </c>
       <c r="C86" s="89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D86" s="129" t="s">
         <v>266</v>
@@ -12775,18 +12777,18 @@
       <c r="N86" s="107"/>
       <c r="O86" s="107"/>
       <c r="P86" s="87" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A87" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B87" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C87" s="89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D87" s="129" t="s">
         <v>266</v>
@@ -12803,18 +12805,18 @@
       <c r="N87" s="107"/>
       <c r="O87" s="107"/>
       <c r="P87" s="87" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A88" s="87" t="s">
+        <v>483</v>
+      </c>
+      <c r="B88" s="88" t="s">
+        <v>429</v>
+      </c>
+      <c r="C88" s="89" t="s">
         <v>484</v>
-      </c>
-      <c r="B88" s="88" t="s">
-        <v>430</v>
-      </c>
-      <c r="C88" s="89" t="s">
-        <v>485</v>
       </c>
       <c r="D88" s="129" t="s">
         <v>266</v>
@@ -12831,18 +12833,18 @@
       <c r="N88" s="107"/>
       <c r="O88" s="107"/>
       <c r="P88" s="87" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="173" t="s">
-        <v>486</v>
-      </c>
-      <c r="B89" s="173"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="173"/>
-      <c r="E89" s="173"/>
-      <c r="F89" s="173"/>
+      <c r="A89" s="189" t="s">
+        <v>485</v>
+      </c>
+      <c r="B89" s="189"/>
+      <c r="C89" s="189"/>
+      <c r="D89" s="189"/>
+      <c r="E89" s="189"/>
+      <c r="F89" s="189"/>
       <c r="G89" s="122"/>
       <c r="H89" s="123"/>
       <c r="I89" s="123"/>
@@ -12854,15 +12856,15 @@
       <c r="O89" s="125"/>
       <c r="P89" s="124"/>
     </row>
-    <row r="90" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="90" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A90" s="112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B90" s="88" t="s">
         <v>279</v>
       </c>
       <c r="C90" s="89" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D90" s="129" t="s">
         <v>266</v>
@@ -12879,18 +12881,18 @@
       <c r="N90" s="107"/>
       <c r="O90" s="107"/>
       <c r="P90" s="112" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A91" s="112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B91" s="88" t="s">
         <v>279</v>
       </c>
       <c r="C91" s="89" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D91" s="129" t="s">
         <v>266</v>
@@ -12907,18 +12909,18 @@
       <c r="N91" s="107"/>
       <c r="O91" s="107"/>
       <c r="P91" s="112" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A92" s="112" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B92" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C92" s="89" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D92" s="129" t="s">
         <v>266</v>
@@ -12935,18 +12937,18 @@
       <c r="N92" s="107"/>
       <c r="O92" s="107"/>
       <c r="P92" s="112" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A93" s="112" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B93" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C93" s="89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D93" s="129"/>
       <c r="E93" s="118"/>
@@ -12957,24 +12959,24 @@
       <c r="J93" s="107"/>
       <c r="K93" s="107"/>
       <c r="L93" s="109" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M93" s="107"/>
       <c r="N93" s="107"/>
       <c r="O93" s="107"/>
       <c r="P93" s="112" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A94" s="87" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B94" s="115" t="s">
         <v>272</v>
       </c>
       <c r="C94" s="89" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D94" s="129"/>
       <c r="E94" s="118"/>
@@ -12985,24 +12987,24 @@
       <c r="J94" s="107"/>
       <c r="K94" s="107"/>
       <c r="L94" s="109" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M94" s="107"/>
       <c r="N94" s="107"/>
       <c r="O94" s="107"/>
       <c r="P94" s="87" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A95" s="173" t="s">
-        <v>499</v>
-      </c>
-      <c r="B95" s="173"/>
-      <c r="C95" s="173"/>
-      <c r="D95" s="173"/>
-      <c r="E95" s="173"/>
-      <c r="F95" s="173"/>
+      <c r="A95" s="189" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="189"/>
+      <c r="C95" s="189"/>
+      <c r="D95" s="189"/>
+      <c r="E95" s="189"/>
+      <c r="F95" s="189"/>
       <c r="G95" s="122"/>
       <c r="H95" s="123"/>
       <c r="I95" s="123"/>
@@ -13014,15 +13016,15 @@
       <c r="O95" s="125"/>
       <c r="P95" s="124"/>
     </row>
-    <row r="96" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="96" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A96" s="112" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B96" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C96" s="89" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D96" s="118" t="s">
         <v>266</v>
@@ -13039,18 +13041,18 @@
       <c r="N96" s="107"/>
       <c r="O96" s="107"/>
       <c r="P96" s="112" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A97" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B97" s="115" t="s">
         <v>279</v>
       </c>
       <c r="C97" s="89" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D97" s="118" t="s">
         <v>266</v>
@@ -13067,18 +13069,18 @@
       <c r="N97" s="107"/>
       <c r="O97" s="107"/>
       <c r="P97" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A98" s="173" t="s">
-        <v>504</v>
-      </c>
-      <c r="B98" s="173"/>
-      <c r="C98" s="173"/>
-      <c r="D98" s="173"/>
-      <c r="E98" s="173"/>
-      <c r="F98" s="173"/>
+      <c r="A98" s="189" t="s">
+        <v>503</v>
+      </c>
+      <c r="B98" s="189"/>
+      <c r="C98" s="189"/>
+      <c r="D98" s="189"/>
+      <c r="E98" s="189"/>
+      <c r="F98" s="189"/>
       <c r="G98" s="122"/>
       <c r="H98" s="123"/>
       <c r="I98" s="123"/>
@@ -13090,15 +13092,15 @@
       <c r="O98" s="125"/>
       <c r="P98" s="124"/>
     </row>
-    <row r="99" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+    <row r="99" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A99" s="87" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B99" s="115" t="s">
         <v>272</v>
       </c>
       <c r="C99" s="133" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D99" s="118" t="s">
         <v>266</v>
@@ -13115,18 +13117,18 @@
       <c r="N99" s="107"/>
       <c r="O99" s="107"/>
       <c r="P99" s="87" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A100" s="173" t="s">
-        <v>507</v>
-      </c>
-      <c r="B100" s="173"/>
-      <c r="C100" s="173"/>
-      <c r="D100" s="173"/>
-      <c r="E100" s="173"/>
-      <c r="F100" s="173"/>
+      <c r="A100" s="189" t="s">
+        <v>506</v>
+      </c>
+      <c r="B100" s="189"/>
+      <c r="C100" s="189"/>
+      <c r="D100" s="189"/>
+      <c r="E100" s="189"/>
+      <c r="F100" s="189"/>
       <c r="G100" s="122"/>
       <c r="H100" s="123"/>
       <c r="I100" s="123"/>
@@ -13138,15 +13140,15 @@
       <c r="O100" s="125"/>
       <c r="P100" s="124"/>
     </row>
-    <row r="101" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="101" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A101" s="112" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B101" s="88" t="s">
         <v>279</v>
       </c>
       <c r="C101" s="89" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D101" s="132" t="s">
         <v>266</v>
@@ -13163,18 +13165,18 @@
       <c r="N101" s="107"/>
       <c r="O101" s="107"/>
       <c r="P101" s="112" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A102" s="112" t="s">
+        <v>509</v>
+      </c>
+      <c r="B102" s="88" t="s">
         <v>510</v>
       </c>
-      <c r="B102" s="88" t="s">
+      <c r="C102" s="89" t="s">
         <v>511</v>
-      </c>
-      <c r="C102" s="89" t="s">
-        <v>512</v>
       </c>
       <c r="D102" s="129"/>
       <c r="E102" s="118"/>
@@ -13189,18 +13191,18 @@
       <c r="N102" s="108"/>
       <c r="O102" s="108"/>
       <c r="P102" s="112" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A103" s="112" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B103" s="88" t="s">
         <v>352</v>
       </c>
       <c r="C103" s="89" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D103" s="129" t="s">
         <v>266</v>
@@ -13217,18 +13219,18 @@
       <c r="N103" s="107"/>
       <c r="O103" s="107"/>
       <c r="P103" s="112" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A104" s="174" t="s">
+      <c r="A104" s="191" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="174"/>
-      <c r="C104" s="174"/>
-      <c r="D104" s="174"/>
-      <c r="E104" s="174"/>
-      <c r="F104" s="174"/>
+      <c r="B104" s="191"/>
+      <c r="C104" s="191"/>
+      <c r="D104" s="191"/>
+      <c r="E104" s="191"/>
+      <c r="F104" s="191"/>
       <c r="G104" s="122"/>
       <c r="H104" s="123"/>
       <c r="I104" s="123"/>
@@ -13240,15 +13242,15 @@
       <c r="O104" s="125"/>
       <c r="P104" s="124"/>
     </row>
-    <row r="105" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="105" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A105" s="112" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B105" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C105" s="89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D105" s="129"/>
       <c r="E105" s="118" t="s">
@@ -13265,18 +13267,18 @@
       <c r="N105" s="107"/>
       <c r="O105" s="107"/>
       <c r="P105" s="112" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A106" s="112" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B106" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C106" s="89" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D106" s="129"/>
       <c r="E106" s="118" t="s">
@@ -13293,12 +13295,12 @@
       <c r="N106" s="107"/>
       <c r="O106" s="107"/>
       <c r="P106" s="112" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A107" s="112" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B107" s="88" t="s">
         <v>352</v>
@@ -13321,18 +13323,18 @@
       <c r="N107" s="107"/>
       <c r="O107" s="107"/>
       <c r="P107" s="112" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+      <c r="A108" s="89" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A108" s="89" t="s">
-        <v>520</v>
       </c>
       <c r="B108" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C108" s="135" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D108" s="136"/>
       <c r="E108" s="88" t="s">
@@ -13349,18 +13351,18 @@
       <c r="N108" s="107"/>
       <c r="O108" s="107"/>
       <c r="P108" s="89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A109" s="173" t="s">
+      <c r="A109" s="189" t="s">
         <v>243</v>
       </c>
-      <c r="B109" s="173"/>
-      <c r="C109" s="173"/>
-      <c r="D109" s="173"/>
-      <c r="E109" s="173"/>
-      <c r="F109" s="173"/>
+      <c r="B109" s="189"/>
+      <c r="C109" s="189"/>
+      <c r="D109" s="189"/>
+      <c r="E109" s="189"/>
+      <c r="F109" s="189"/>
       <c r="G109" s="122"/>
       <c r="H109" s="123"/>
       <c r="I109" s="123"/>
@@ -13372,15 +13374,15 @@
       <c r="O109" s="125"/>
       <c r="P109" s="124"/>
     </row>
-    <row r="110" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+    <row r="110" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
       <c r="A110" s="137" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B110" s="138" t="s">
         <v>279</v>
       </c>
       <c r="C110" s="139" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D110" s="129"/>
       <c r="E110" s="118" t="s">
@@ -13397,18 +13399,18 @@
       <c r="N110" s="140"/>
       <c r="O110" s="140"/>
       <c r="P110" s="137" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A111" s="141" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B111" s="138" t="s">
         <v>352</v>
       </c>
       <c r="C111" s="139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D111" s="129" t="s">
         <v>266</v>
@@ -13425,16 +13427,16 @@
       <c r="N111" s="140"/>
       <c r="O111" s="140"/>
       <c r="P111" s="141" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A112" s="141" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B112" s="138"/>
       <c r="C112" s="139" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D112" s="129"/>
       <c r="E112" s="118" t="s">
@@ -13451,18 +13453,18 @@
       <c r="N112" s="140"/>
       <c r="O112" s="140"/>
       <c r="P112" s="141" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A113" s="141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B113" s="138" t="s">
         <v>272</v>
       </c>
       <c r="C113" s="139" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D113" s="129"/>
       <c r="E113" s="118" t="s">
@@ -13479,18 +13481,18 @@
       <c r="N113" s="140"/>
       <c r="O113" s="140"/>
       <c r="P113" s="141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A114" s="173" t="s">
+      <c r="A114" s="189" t="s">
         <v>244</v>
       </c>
-      <c r="B114" s="173"/>
-      <c r="C114" s="173"/>
-      <c r="D114" s="173"/>
-      <c r="E114" s="173"/>
-      <c r="F114" s="173"/>
+      <c r="B114" s="189"/>
+      <c r="C114" s="189"/>
+      <c r="D114" s="189"/>
+      <c r="E114" s="189"/>
+      <c r="F114" s="189"/>
       <c r="G114" s="122"/>
       <c r="H114" s="123"/>
       <c r="I114" s="123"/>
@@ -13502,15 +13504,15 @@
       <c r="O114" s="125"/>
       <c r="P114" s="124"/>
     </row>
-    <row r="115" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+    <row r="115" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A115" s="137" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B115" s="138" t="s">
         <v>279</v>
       </c>
       <c r="C115" s="139" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D115" s="129"/>
       <c r="E115" s="118" t="s">
@@ -13527,18 +13529,18 @@
       <c r="N115" s="140"/>
       <c r="O115" s="140"/>
       <c r="P115" s="137" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A116" s="137" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B116" s="142" t="s">
         <v>279</v>
       </c>
       <c r="C116" s="139" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D116" s="129"/>
       <c r="E116" s="118" t="s">
@@ -13555,18 +13557,18 @@
       <c r="N116" s="140"/>
       <c r="O116" s="140"/>
       <c r="P116" s="137" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
       <c r="A117" s="143" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B117" s="138" t="s">
         <v>352</v>
       </c>
       <c r="C117" s="139" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D117" s="136"/>
       <c r="E117" s="88" t="s">
@@ -13583,27 +13585,27 @@
       <c r="N117" s="140"/>
       <c r="O117" s="140"/>
       <c r="P117" s="143" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B474" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A95:F95"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="Q6:T17"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A114:F114"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
+++ b/Bachelorarbeit/ICS and Test Docu_HW edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6CFA71-C672-471D-9BFF-54A332604510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C9CB6D-93B3-475F-873C-8301BAD0E727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformance Statement" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="594">
   <si>
     <t>Im Rahmen von [BSI TR-03148 -P] muss ein Implementation Conformance Statement ausgefüllt werden. Im folgenden finden Sie eine Vorlage für das ICS. Das Originaldokument ist auf Englisch, weswegen hier die englischen Formulierungen übernommen wurden, da keine offizielle Übersetzung des Dokuments existiert. Die Eintragungen können aber auf deutsch oder englisch gemacht werden. Die hier eingetragenen Beispieldaten sind durch Echtdaten zu ersetzen. Alternativ oder ergänzend zu dem ICS in dieser Tabelle kann auch das ICS aus [BSI TR-03148-P] als Vorlage genutzt werden.</t>
   </si>
@@ -4884,9 +4884,6 @@
     </r>
   </si>
   <si>
-    <t>can be installed. Not in standard installation</t>
-  </si>
-  <si>
     <t>TR.G.5</t>
   </si>
   <si>
@@ -4918,9 +4915,6 @@
       </rPr>
       <t xml:space="preserve"> support forwarding of DANE packets according to [IETF RFC 6698].</t>
     </r>
-  </si>
-  <si>
-    <t>can be installed? Danish?</t>
   </si>
   <si>
     <t>Module H - Dynamic Host Configuration Protocol (DHCP)</t>
@@ -5761,6 +5755,19 @@
   </si>
   <si>
     <t>from factory to initialized state the user only needs to set a password ssh and the luci web-interface. No additional functionality is activated when setting a password. OpenWrt can be fully used even without a password. This is not recommended.</t>
+  </si>
+  <si>
+    <t>hping3 / nmap 7.90</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/firewall/firewall_configuration</t>
+  </si>
+  <si>
+    <t>https://openwrt.org/docs/guide-user/firewall/firewall_configuration
+https://openwrt.org/docs/guide-user/firewall/start
+https://ipset.netfilter.org/iptables.man.html
+https://openwrt.org/docs/guide-user/firewall/netfilter_iptables/netfilter_openwrt
+Logging has to be enabled first.</t>
   </si>
 </sst>
 </file>
@@ -6432,7 +6439,7 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6886,6 +6893,85 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6898,80 +6984,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6983,22 +7006,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel Built-in 40% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -7395,29 +7403,29 @@
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.81640625" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
@@ -7427,10 +7435,10 @@
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="158"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7445,38 +7453,38 @@
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="159"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="160"/>
+      <c r="C8" s="187"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="160"/>
+      <c r="C9" s="187"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="161"/>
+      <c r="C10" s="181"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="7"/>
@@ -7489,86 +7497,86 @@
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="182"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="167" t="s">
+      <c r="B20" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="14" t="s">
@@ -7576,70 +7584,70 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" customHeight="1">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="168"/>
+      <c r="B25" s="180"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="164" t="s">
+      <c r="B27" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="18"/>
@@ -7651,13 +7659,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A34" s="170" t="s">
+      <c r="A34" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="19" t="s">
@@ -8013,13 +8021,13 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="57" customHeight="1">
-      <c r="A58" s="170" t="s">
+      <c r="A58" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
+      <c r="B58" s="172"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="172"/>
     </row>
     <row r="59" spans="1:11" ht="31.5" customHeight="1"/>
     <row r="60" spans="1:11" ht="44.25" customHeight="1">
@@ -8132,18 +8140,18 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A69" s="170" t="s">
+      <c r="A69" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="170"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
-      <c r="E69" s="170"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="28"/>
     </row>
-    <row r="71" spans="1:5" ht="29">
+    <row r="71" spans="1:5" ht="30">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -8161,12 +8169,12 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="36" customHeight="1">
-      <c r="A74" s="170" t="s">
+      <c r="A74" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="170"/>
-      <c r="C74" s="170"/>
-      <c r="D74" s="170"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
       <c r="E74" s="29"/>
     </row>
     <row r="76" spans="1:5">
@@ -8178,12 +8186,12 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1">
-      <c r="A79" s="170" t="s">
+      <c r="A79" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="170"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
     </row>
     <row r="81" spans="1:5" ht="33.75" customHeight="1">
       <c r="A81" s="30" t="s">
@@ -8263,13 +8271,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A90" s="171" t="s">
+      <c r="A90" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="171"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
-      <c r="E90" s="171"/>
+      <c r="B90" s="173"/>
+      <c r="C90" s="173"/>
+      <c r="D90" s="173"/>
+      <c r="E90" s="173"/>
     </row>
     <row r="92" spans="1:5" ht="35.25" customHeight="1">
       <c r="A92" s="15" t="s">
@@ -8299,7 +8307,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="29">
+    <row r="94" spans="1:5" ht="45">
       <c r="A94" s="21" t="s">
         <v>45</v>
       </c>
@@ -8369,13 +8377,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30.65" customHeight="1">
-      <c r="A101" s="172" t="s">
+    <row r="101" spans="1:4" ht="30.6" customHeight="1">
+      <c r="A101" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="172"/>
-    </row>
-    <row r="103" spans="1:4" ht="29">
+      <c r="B101" s="174"/>
+    </row>
+    <row r="103" spans="1:4" ht="45">
       <c r="A103" s="3" t="s">
         <v>96</v>
       </c>
@@ -8389,12 +8397,12 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A107" s="171" t="s">
+      <c r="A107" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="171"/>
-      <c r="C107" s="171"/>
-      <c r="D107" s="171"/>
+      <c r="B107" s="173"/>
+      <c r="C107" s="173"/>
+      <c r="D107" s="173"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
@@ -8510,12 +8518,12 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" ht="56.25" customHeight="1">
-      <c r="A119" s="173" t="s">
+      <c r="A119" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="B119" s="173"/>
-      <c r="C119" s="173"/>
-      <c r="D119" s="173"/>
+      <c r="B119" s="168"/>
+      <c r="C119" s="168"/>
+      <c r="D119" s="168"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="9" t="s">
@@ -8531,7 +8539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="29">
+    <row r="121" spans="1:4" ht="45">
       <c r="A121" s="35" t="s">
         <v>67</v>
       </c>
@@ -8576,9 +8584,9 @@
       <c r="D126" s="24"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="174"/>
-      <c r="B127" s="174"/>
-      <c r="C127" s="174"/>
+      <c r="A127" s="171"/>
+      <c r="B127" s="171"/>
+      <c r="C127" s="171"/>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4">
@@ -8587,7 +8595,7 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" ht="20.5">
+    <row r="129" spans="1:4" ht="20.25">
       <c r="A129" s="38" t="s">
         <v>107</v>
       </c>
@@ -8596,14 +8604,14 @@
       <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:4" ht="113.25" customHeight="1">
-      <c r="A130" s="175" t="s">
+      <c r="A130" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="B130" s="175"/>
-      <c r="C130" s="175"/>
-      <c r="D130" s="175"/>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="B130" s="164"/>
+      <c r="C130" s="164"/>
+      <c r="D130" s="164"/>
+    </row>
+    <row r="131" spans="1:4" ht="28.5">
       <c r="A131" s="9" t="s">
         <v>109</v>
       </c>
@@ -8615,7 +8623,7 @@
       </c>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" ht="29.15" customHeight="1">
+    <row r="132" spans="1:4" ht="29.1" customHeight="1">
       <c r="A132" s="25" t="s">
         <v>112</v>
       </c>
@@ -8639,7 +8647,7 @@
       </c>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" ht="63">
+    <row r="134" spans="1:4" ht="101.25">
       <c r="A134" s="25" t="s">
         <v>117</v>
       </c>
@@ -8651,7 +8659,7 @@
       </c>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" ht="31.5">
+    <row r="135" spans="1:4" ht="56.25">
       <c r="A135" s="25" t="s">
         <v>119</v>
       </c>
@@ -8663,7 +8671,7 @@
       </c>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" ht="98">
+    <row r="136" spans="1:4" ht="105">
       <c r="A136" s="23" t="s">
         <v>121</v>
       </c>
@@ -8729,7 +8737,7 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" ht="20.5">
+    <row r="142" spans="1:4" ht="20.25">
       <c r="A142" s="38" t="s">
         <v>125</v>
       </c>
@@ -8738,12 +8746,12 @@
       <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A143" s="175" t="s">
+      <c r="A143" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="B143" s="175"/>
-      <c r="C143" s="175"/>
-      <c r="D143" s="175"/>
+      <c r="B143" s="164"/>
+      <c r="C143" s="164"/>
+      <c r="D143" s="164"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="9" t="s">
@@ -8792,10 +8800,10 @@
       <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="176" t="s">
+      <c r="A148" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="176"/>
+      <c r="B148" s="161"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
@@ -8806,12 +8814,12 @@
       <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A150" s="175" t="s">
+      <c r="A150" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="175"/>
-      <c r="C150" s="175"/>
-      <c r="D150" s="175"/>
+      <c r="B150" s="164"/>
+      <c r="C150" s="164"/>
+      <c r="D150" s="164"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="9" t="s">
@@ -8858,14 +8866,14 @@
       <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A157" s="173" t="s">
+      <c r="A157" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="B157" s="173"/>
-      <c r="C157" s="173"/>
-      <c r="D157" s="173"/>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="B157" s="168"/>
+      <c r="C157" s="168"/>
+      <c r="D157" s="168"/>
+    </row>
+    <row r="158" spans="1:4" ht="28.5">
       <c r="A158" s="9" t="s">
         <v>127</v>
       </c>
@@ -8934,10 +8942,10 @@
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4" ht="39" customHeight="1">
-      <c r="A165" s="177" t="s">
+      <c r="A165" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="B165" s="177"/>
+      <c r="B165" s="160"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
@@ -8951,7 +8959,7 @@
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" ht="28">
+    <row r="167" spans="1:4" ht="30">
       <c r="A167" s="23" t="s">
         <v>143</v>
       </c>
@@ -8982,10 +8990,10 @@
       <c r="D169" s="3"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="176" t="s">
+      <c r="A170" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="B170" s="176"/>
+      <c r="B170" s="161"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
@@ -8996,22 +9004,22 @@
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" ht="53.25" customHeight="1">
-      <c r="A172" s="175" t="s">
+      <c r="A172" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="B172" s="175"/>
-      <c r="C172" s="175"/>
-      <c r="D172" s="175"/>
+      <c r="B172" s="164"/>
+      <c r="C172" s="164"/>
+      <c r="D172" s="164"/>
     </row>
     <row r="173" spans="1:4" ht="24" customHeight="1">
       <c r="A173" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B173" s="178" t="s">
+      <c r="B173" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="C173" s="178"/>
-      <c r="D173" s="178"/>
+      <c r="C173" s="170"/>
+      <c r="D173" s="170"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3"/>
@@ -9020,12 +9028,12 @@
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" ht="75.75" customHeight="1">
-      <c r="A175" s="179" t="s">
+      <c r="A175" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="B175" s="179"/>
-      <c r="C175" s="179"/>
-      <c r="D175" s="179"/>
+      <c r="B175" s="167"/>
+      <c r="C175" s="167"/>
+      <c r="D175" s="167"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="3"/>
@@ -9044,7 +9052,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="42">
+    <row r="178" spans="1:7" ht="45">
       <c r="A178" s="23" t="s">
         <v>154</v>
       </c>
@@ -9056,7 +9064,7 @@
       </c>
       <c r="G178" s="45"/>
     </row>
-    <row r="179" spans="1:7" ht="28">
+    <row r="179" spans="1:7" ht="30">
       <c r="A179" s="23" t="s">
         <v>157</v>
       </c>
@@ -9080,20 +9088,20 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="176"/>
-      <c r="B181" s="176"/>
+      <c r="A181" s="161"/>
+      <c r="B181" s="161"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="46"/>
       <c r="B182" s="46"/>
     </row>
     <row r="183" spans="1:7" ht="63" customHeight="1">
-      <c r="A183" s="173" t="s">
+      <c r="A183" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="B183" s="173"/>
-      <c r="C183" s="173"/>
-      <c r="D183" s="173"/>
+      <c r="B183" s="168"/>
+      <c r="C183" s="168"/>
+      <c r="D183" s="168"/>
     </row>
     <row r="184" spans="1:7" ht="26.25" customHeight="1">
       <c r="A184" s="9" t="s">
@@ -9134,20 +9142,20 @@
       <c r="D187" s="24"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="180"/>
-      <c r="B188" s="180"/>
+      <c r="A188" s="169"/>
+      <c r="B188" s="169"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="47"/>
       <c r="B189" s="47"/>
     </row>
     <row r="190" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A190" s="175" t="s">
+      <c r="A190" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="B190" s="175"/>
-      <c r="C190" s="175"/>
-      <c r="D190" s="175"/>
+      <c r="B190" s="164"/>
+      <c r="C190" s="164"/>
+      <c r="D190" s="164"/>
       <c r="F190" t="s">
         <v>166</v>
       </c>
@@ -9160,7 +9168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="28">
+    <row r="193" spans="1:6" ht="30">
       <c r="A193" s="23" t="s">
         <v>168</v>
       </c>
@@ -9186,7 +9194,7 @@
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:6" ht="20.5">
+    <row r="198" spans="1:6" ht="20.25">
       <c r="A198" s="48" t="s">
         <v>170</v>
       </c>
@@ -9194,12 +9202,12 @@
       <c r="D198" s="3"/>
     </row>
     <row r="199" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A199" s="181" t="s">
+      <c r="A199" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="B199" s="181"/>
-      <c r="C199" s="181"/>
-      <c r="D199" s="181"/>
+      <c r="B199" s="165"/>
+      <c r="C199" s="165"/>
+      <c r="D199" s="165"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="49" t="s">
@@ -9248,8 +9256,8 @@
       <c r="D204" s="3"/>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="176"/>
-      <c r="B205" s="176"/>
+      <c r="A205" s="161"/>
+      <c r="B205" s="161"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
@@ -9260,12 +9268,12 @@
       <c r="D206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A207" s="182" t="s">
+      <c r="A207" s="159" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="182"/>
-      <c r="C207" s="182"/>
-      <c r="D207" s="182"/>
+      <c r="B207" s="159"/>
+      <c r="C207" s="159"/>
+      <c r="D207" s="159"/>
       <c r="F207" t="s">
         <v>178</v>
       </c>
@@ -9293,7 +9301,7 @@
       </c>
       <c r="B210" s="24"/>
     </row>
-    <row r="211" spans="1:4" ht="28">
+    <row r="211" spans="1:4" ht="30">
       <c r="A211" s="23" t="s">
         <v>182</v>
       </c>
@@ -9308,19 +9316,19 @@
       <c r="B213" s="24"/>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="176"/>
-      <c r="B214" s="176"/>
+      <c r="A214" s="161"/>
+      <c r="B214" s="161"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="51"/>
     </row>
     <row r="216" spans="1:4" ht="33" customHeight="1">
-      <c r="A216" s="183" t="s">
+      <c r="A216" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="B216" s="183"/>
-      <c r="C216" s="183"/>
-      <c r="D216" s="183"/>
+      <c r="B216" s="166"/>
+      <c r="C216" s="166"/>
+      <c r="D216" s="166"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="9" t="s">
@@ -9369,14 +9377,14 @@
       <c r="B222" s="46"/>
     </row>
     <row r="223" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A223" s="175" t="s">
+      <c r="A223" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="B223" s="175"/>
-      <c r="C223" s="175"/>
-      <c r="D223" s="175"/>
-    </row>
-    <row r="224" spans="1:4" ht="43.5">
+      <c r="B223" s="164"/>
+      <c r="C223" s="164"/>
+      <c r="D223" s="164"/>
+    </row>
+    <row r="224" spans="1:4" ht="45">
       <c r="A224" s="52" t="s">
         <v>187</v>
       </c>
@@ -9385,12 +9393,12 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="36" customHeight="1">
-      <c r="A226" s="182" t="s">
+      <c r="A226" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B226" s="182"/>
-      <c r="C226" s="182"/>
-      <c r="D226" s="182"/>
+      <c r="B226" s="159"/>
+      <c r="C226" s="159"/>
+      <c r="D226" s="159"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="52" t="s">
@@ -9406,20 +9414,20 @@
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:5" ht="20">
+    <row r="229" spans="1:5" ht="20.25">
       <c r="A229" s="53" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A230" s="182" t="s">
+      <c r="A230" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="B230" s="182"/>
-      <c r="C230" s="182"/>
-      <c r="D230" s="182"/>
-    </row>
-    <row r="231" spans="1:5" ht="87">
+      <c r="B230" s="159"/>
+      <c r="C230" s="159"/>
+      <c r="D230" s="159"/>
+    </row>
+    <row r="231" spans="1:5" ht="105">
       <c r="A231" s="52" t="s">
         <v>187</v>
       </c>
@@ -9427,18 +9435,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="20">
+    <row r="233" spans="1:5" ht="20.25">
       <c r="A233" s="53" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A234" s="182" t="s">
+      <c r="A234" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="B234" s="182"/>
-      <c r="C234" s="182"/>
-      <c r="D234" s="182"/>
+      <c r="B234" s="159"/>
+      <c r="C234" s="159"/>
+      <c r="D234" s="159"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="52" t="s">
@@ -9465,12 +9473,12 @@
       </c>
     </row>
     <row r="239" spans="1:5" ht="33" customHeight="1">
-      <c r="A239" s="182" t="s">
+      <c r="A239" s="159" t="s">
         <v>200</v>
       </c>
-      <c r="B239" s="182"/>
-      <c r="C239" s="182"/>
-      <c r="D239" s="182"/>
+      <c r="B239" s="159"/>
+      <c r="C239" s="159"/>
+      <c r="D239" s="159"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="52" t="s">
@@ -9484,10 +9492,10 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="144.75" customHeight="1">
-      <c r="D241" s="184" t="s">
+      <c r="D241" s="163" t="s">
         <v>203</v>
       </c>
-      <c r="E241" s="184"/>
+      <c r="E241" s="163"/>
     </row>
     <row r="242" spans="1:5">
       <c r="D242" t="s">
@@ -9503,12 +9511,12 @@
       </c>
     </row>
     <row r="245" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A245" s="182" t="s">
+      <c r="A245" s="159" t="s">
         <v>207</v>
       </c>
-      <c r="B245" s="182"/>
-      <c r="C245" s="182"/>
-      <c r="D245" s="182"/>
+      <c r="B245" s="159"/>
+      <c r="C245" s="159"/>
+      <c r="D245" s="159"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="52" t="s">
@@ -9519,12 +9527,12 @@
       </c>
     </row>
     <row r="248" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A248" s="175" t="s">
+      <c r="A248" s="164" t="s">
         <v>209</v>
       </c>
-      <c r="B248" s="175"/>
-      <c r="C248" s="175"/>
-      <c r="D248" s="175"/>
+      <c r="B248" s="164"/>
+      <c r="C248" s="164"/>
+      <c r="D248" s="164"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="52" t="s">
@@ -9537,18 +9545,18 @@
         <v>211</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="20">
+    <row r="251" spans="1:5" ht="20.25">
       <c r="A251" s="53" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="45" customHeight="1">
-      <c r="A252" s="182" t="s">
+      <c r="A252" s="159" t="s">
         <v>213</v>
       </c>
-      <c r="B252" s="182"/>
-      <c r="C252" s="182"/>
-      <c r="D252" s="182"/>
+      <c r="B252" s="159"/>
+      <c r="C252" s="159"/>
+      <c r="D252" s="159"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="52" t="s">
@@ -9575,18 +9583,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="20">
+    <row r="256" spans="1:5" ht="20.25">
       <c r="A256" s="53" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="42" customHeight="1">
-      <c r="A257" s="182" t="s">
+      <c r="A257" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="B257" s="182"/>
-      <c r="C257" s="182"/>
-      <c r="D257" s="182"/>
+      <c r="B257" s="159"/>
+      <c r="C257" s="159"/>
+      <c r="D257" s="159"/>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="9" t="s">
@@ -9596,7 +9604,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="70">
+    <row r="260" spans="1:5" ht="75">
       <c r="A260" s="23" t="s">
         <v>220</v>
       </c>
@@ -9607,7 +9615,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="56">
+    <row r="261" spans="1:5" ht="60">
       <c r="A261" s="23" t="s">
         <v>223</v>
       </c>
@@ -9618,7 +9626,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="154">
+    <row r="262" spans="1:5" ht="165">
       <c r="A262" s="23" t="s">
         <v>225</v>
       </c>
@@ -9636,42 +9644,42 @@
       <c r="B263" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C263" s="185" t="s">
+      <c r="C263" s="162" t="s">
         <v>229</v>
       </c>
-      <c r="D263" s="185"/>
-      <c r="E263" s="185"/>
+      <c r="D263" s="162"/>
+      <c r="E263" s="162"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="46"/>
       <c r="B264" s="46"/>
     </row>
-    <row r="265" spans="1:5" ht="20">
+    <row r="265" spans="1:5" ht="20.25">
       <c r="A265" s="53" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A266" s="182" t="s">
+      <c r="A266" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="B266" s="182"/>
+      <c r="B266" s="159"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="55"/>
     </row>
-    <row r="268" spans="1:5" ht="20">
+    <row r="268" spans="1:5" ht="20.25">
       <c r="A268" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A269" s="182" t="s">
+      <c r="A269" s="159" t="s">
         <v>233</v>
       </c>
-      <c r="B269" s="182"/>
-      <c r="C269" s="182"/>
-      <c r="D269" s="182"/>
+      <c r="B269" s="159"/>
+      <c r="C269" s="159"/>
+      <c r="D269" s="159"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="52" t="s">
@@ -9682,12 +9690,12 @@
       </c>
     </row>
     <row r="272" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A272" s="182" t="s">
+      <c r="A272" s="159" t="s">
         <v>235</v>
       </c>
-      <c r="B272" s="182"/>
-      <c r="C272" s="182"/>
-      <c r="D272" s="182"/>
+      <c r="B272" s="159"/>
+      <c r="C272" s="159"/>
+      <c r="D272" s="159"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="52" t="s">
@@ -9699,16 +9707,16 @@
     </row>
     <row r="274" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="275" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A275" s="182" t="s">
+      <c r="A275" s="159" t="s">
         <v>236</v>
       </c>
-      <c r="B275" s="182"/>
+      <c r="B275" s="159"/>
     </row>
     <row r="276" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A276" s="182" t="s">
+      <c r="A276" s="159" t="s">
         <v>237</v>
       </c>
-      <c r="B276" s="182"/>
+      <c r="B276" s="159"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="52" t="s">
@@ -9719,12 +9727,12 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="55.5" customHeight="1">
-      <c r="A279" s="177" t="s">
+      <c r="A279" s="160" t="s">
         <v>239</v>
       </c>
-      <c r="B279" s="177"/>
-      <c r="C279" s="177"/>
-      <c r="D279" s="177"/>
+      <c r="B279" s="160"/>
+      <c r="C279" s="160"/>
+      <c r="D279" s="160"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="9" t="s">
@@ -9757,14 +9765,14 @@
       <c r="D282" s="26"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="176"/>
-      <c r="B283" s="176"/>
+      <c r="A283" s="161"/>
+      <c r="B283" s="161"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="46"/>
       <c r="B284" s="46"/>
     </row>
-    <row r="285" spans="1:4" ht="20">
+    <row r="285" spans="1:4" ht="20.25">
       <c r="A285" s="53" t="s">
         <v>243</v>
       </c>
@@ -9774,21 +9782,21 @@
         <v>231</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="20">
+    <row r="287" spans="1:4" ht="20.25">
       <c r="A287" s="57"/>
     </row>
-    <row r="288" spans="1:4" ht="20">
+    <row r="288" spans="1:4" ht="20.25">
       <c r="A288" s="53" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="39" customHeight="1">
-      <c r="A289" s="182" t="s">
+      <c r="A289" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="B289" s="182"/>
-      <c r="C289" s="182"/>
-      <c r="D289" s="182"/>
+      <c r="B289" s="159"/>
+      <c r="C289" s="159"/>
+      <c r="D289" s="159"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="52" t="s">
@@ -9799,12 +9807,12 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="44.25" customHeight="1">
-      <c r="A292" s="177" t="s">
+      <c r="A292" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="B292" s="177"/>
-      <c r="C292" s="177"/>
-      <c r="D292" s="177"/>
+      <c r="B292" s="160"/>
+      <c r="C292" s="160"/>
+      <c r="D292" s="160"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="58" t="s">
@@ -9846,76 +9854,76 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="C263:E263"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A269:D269"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A275:B275"/>
     <mergeCell ref="A276:B276"/>
     <mergeCell ref="A279:D279"/>
     <mergeCell ref="A283:B283"/>
     <mergeCell ref="A289:D289"/>
     <mergeCell ref="A292:D292"/>
-    <mergeCell ref="C263:E263"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A269:D269"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C132" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -9933,26 +9941,26 @@
   <dimension ref="A1:AMJ117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C82"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="61" customWidth="1"/>
-    <col min="3" max="3" width="142.1796875" style="62" customWidth="1"/>
-    <col min="4" max="6" width="5.7265625" style="63" customWidth="1"/>
-    <col min="7" max="11" width="8.7265625" style="63" customWidth="1"/>
-    <col min="12" max="12" width="78.7265625" style="61" customWidth="1"/>
-    <col min="13" max="13" width="26.7265625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="142.140625" style="62" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="63" customWidth="1"/>
+    <col min="7" max="11" width="8.7109375" style="63" customWidth="1"/>
+    <col min="12" max="12" width="78.7109375" style="61" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="61" customWidth="1"/>
     <col min="14" max="14" width="29" style="61" customWidth="1"/>
-    <col min="15" max="15" width="73.7265625" style="61" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" style="61" customWidth="1"/>
-    <col min="17" max="1024" width="11.453125" style="61"/>
+    <col min="15" max="15" width="73.7109375" style="61" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="61" customWidth="1"/>
+    <col min="17" max="1024" width="11.42578125" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="67" customFormat="1" ht="51.65" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" s="67" customFormat="1" ht="51.6" customHeight="1" thickBot="1">
       <c r="A1" s="64" t="s">
         <v>250</v>
       </c>
@@ -9962,11 +9970,11 @@
       <c r="C1" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="191" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
@@ -9980,7 +9988,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="2" spans="1:20" s="67" customFormat="1" ht="29.25" thickBot="1">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="68"/>
@@ -10020,9 +10028,9 @@
       <c r="O2" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="192"/>
-    </row>
-    <row r="3" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
+      <c r="P2" s="157"/>
+    </row>
+    <row r="3" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="66"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68"/>
@@ -10050,15 +10058,15 @@
       <c r="O3" s="76"/>
       <c r="P3" s="66"/>
     </row>
-    <row r="4" spans="1:20" s="67" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="187" t="s">
+    <row r="4" spans="1:20" s="67" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="192" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
       <c r="G4" s="77"/>
       <c r="H4" s="78"/>
       <c r="I4" s="78"/>
@@ -10150,12 +10158,12 @@
       <c r="P6" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="Q6" s="188" t="s">
+      <c r="Q6" s="193" t="s">
         <v>284</v>
       </c>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
     </row>
     <row r="7" spans="1:20" s="67" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
       <c r="A7" s="87" t="s">
@@ -10192,10 +10200,10 @@
       <c r="P7" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="188"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
     </row>
     <row r="8" spans="1:20" s="67" customFormat="1" ht="87.75" customHeight="1" thickBot="1">
       <c r="A8" s="87" t="s">
@@ -10228,10 +10236,10 @@
       <c r="P8" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
     </row>
     <row r="9" spans="1:20" s="67" customFormat="1" ht="80.25" customHeight="1" thickBot="1">
       <c r="A9" s="87" t="s">
@@ -10266,12 +10274,12 @@
       <c r="P9" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="188"/>
-    </row>
-    <row r="10" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="193"/>
+    </row>
+    <row r="10" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A10" s="87" t="s">
         <v>296</v>
       </c>
@@ -10306,10 +10314,10 @@
       <c r="P10" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="Q10" s="188"/>
-      <c r="R10" s="188"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="188"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
     </row>
     <row r="11" spans="1:20" s="67" customFormat="1" ht="62.25" customHeight="1" thickBot="1">
       <c r="A11" s="87" t="s">
@@ -10346,10 +10354,10 @@
       <c r="P11" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="Q11" s="188"/>
-      <c r="R11" s="188"/>
-      <c r="S11" s="188"/>
-      <c r="T11" s="188"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="193"/>
+      <c r="S11" s="193"/>
+      <c r="T11" s="193"/>
     </row>
     <row r="12" spans="1:20" s="67" customFormat="1" ht="103.5" customHeight="1" thickBot="1">
       <c r="A12" s="87" t="s">
@@ -10388,10 +10396,10 @@
       <c r="P12" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="193"/>
+      <c r="S12" s="193"/>
+      <c r="T12" s="193"/>
     </row>
     <row r="13" spans="1:20" s="67" customFormat="1" ht="129" customHeight="1" thickBot="1">
       <c r="A13" s="87" t="s">
@@ -10436,12 +10444,12 @@
       <c r="P13" s="87" t="s">
         <v>309</v>
       </c>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="188"/>
-      <c r="T13" s="188"/>
-    </row>
-    <row r="14" spans="1:20" s="67" customFormat="1" ht="23.5" customHeight="1" thickBot="1">
+      <c r="Q13" s="193"/>
+      <c r="R13" s="193"/>
+      <c r="S13" s="193"/>
+      <c r="T13" s="193"/>
+    </row>
+    <row r="14" spans="1:20" s="67" customFormat="1" ht="23.45" customHeight="1" thickBot="1">
       <c r="A14" s="87" t="s">
         <v>314</v>
       </c>
@@ -10476,12 +10484,12 @@
       <c r="P14" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="188"/>
-      <c r="T14" s="188"/>
-    </row>
-    <row r="15" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+    </row>
+    <row r="15" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A15" s="87" t="s">
         <v>317</v>
       </c>
@@ -10510,10 +10518,10 @@
       <c r="P15" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="188"/>
-      <c r="T15" s="188"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="193"/>
+      <c r="S15" s="193"/>
+      <c r="T15" s="193"/>
     </row>
     <row r="16" spans="1:20" s="67" customFormat="1" ht="19.149999999999999" customHeight="1" thickBot="1">
       <c r="A16" s="87" t="s">
@@ -10544,12 +10552,12 @@
       <c r="P16" s="87" t="s">
         <v>320</v>
       </c>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="188"/>
-      <c r="T16" s="188"/>
-    </row>
-    <row r="17" spans="1:20" s="67" customFormat="1" ht="91.75" customHeight="1" thickBot="1">
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
+      <c r="T16" s="193"/>
+    </row>
+    <row r="17" spans="1:20" s="67" customFormat="1" ht="91.7" customHeight="1" thickBot="1">
       <c r="A17" s="87" t="s">
         <v>323</v>
       </c>
@@ -10588,12 +10596,12 @@
       <c r="P17" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="188"/>
-      <c r="T17" s="188"/>
-    </row>
-    <row r="18" spans="1:20" s="67" customFormat="1" ht="42.5" thickBot="1">
+      <c r="Q17" s="193"/>
+      <c r="R17" s="193"/>
+      <c r="S17" s="193"/>
+      <c r="T17" s="193"/>
+    </row>
+    <row r="18" spans="1:20" s="67" customFormat="1" ht="45.75" thickBot="1">
       <c r="A18" s="112" t="s">
         <v>328</v>
       </c>
@@ -10633,7 +10641,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="67" customFormat="1" ht="42.65" customHeight="1" thickBot="1">
+    <row r="19" spans="1:20" s="67" customFormat="1" ht="42.6" customHeight="1" thickBot="1">
       <c r="A19" s="112" t="s">
         <v>333</v>
       </c>
@@ -10669,7 +10677,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="67" customFormat="1" ht="37.4" customHeight="1" thickBot="1">
+    <row r="20" spans="1:20" s="67" customFormat="1" ht="37.35" customHeight="1" thickBot="1">
       <c r="A20" s="112" t="s">
         <v>337</v>
       </c>
@@ -10729,7 +10737,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="67" customFormat="1" ht="112.5" thickBot="1">
+    <row r="22" spans="1:20" s="67" customFormat="1" ht="120.75" thickBot="1">
       <c r="A22" s="87" t="s">
         <v>343</v>
       </c>
@@ -10765,7 +10773,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="67" customFormat="1" ht="70.5" thickBot="1">
+    <row r="23" spans="1:20" s="67" customFormat="1" ht="75.75" thickBot="1">
       <c r="A23" s="87" t="s">
         <v>346</v>
       </c>
@@ -10799,7 +10807,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="24" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A24" s="87" t="s">
         <v>351</v>
       </c>
@@ -10831,7 +10839,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="25" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A25" s="112" t="s">
         <v>354</v>
       </c>
@@ -10861,7 +10869,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="26" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A26" s="87" t="s">
         <v>358</v>
       </c>
@@ -10892,14 +10900,14 @@
       </c>
     </row>
     <row r="27" spans="1:20" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="189" t="s">
+      <c r="A27" s="188" t="s">
         <v>360</v>
       </c>
-      <c r="B27" s="189"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="122"/>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -10911,7 +10919,7 @@
       <c r="O27" s="125"/>
       <c r="P27" s="124"/>
     </row>
-    <row r="28" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="28" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A28" s="87" t="s">
         <v>361</v>
       </c>
@@ -10939,7 +10947,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="29" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A29" s="87" t="s">
         <v>363</v>
       </c>
@@ -10967,7 +10975,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="30" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A30" s="87" t="s">
         <v>365</v>
       </c>
@@ -10995,7 +11003,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="31" spans="1:20" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A31" s="87" t="s">
         <v>367</v>
       </c>
@@ -11023,7 +11031,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="32" spans="1:20" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A32" s="87" t="s">
         <v>369</v>
       </c>
@@ -11051,7 +11059,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="33" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="87" t="s">
         <v>370</v>
       </c>
@@ -11079,7 +11087,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="34" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A34" s="87" t="s">
         <v>372</v>
       </c>
@@ -11107,7 +11115,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="35" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A35" s="87" t="s">
         <v>374</v>
       </c>
@@ -11136,14 +11144,14 @@
       </c>
     </row>
     <row r="36" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="189" t="s">
+      <c r="A36" s="188" t="s">
         <v>376</v>
       </c>
-      <c r="B36" s="189"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
       <c r="G36" s="122"/>
       <c r="H36" s="123"/>
       <c r="I36" s="123"/>
@@ -11180,7 +11188,7 @@
       <c r="J37" s="107"/>
       <c r="K37" s="107"/>
       <c r="L37" s="109" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M37" s="107" t="s">
         <v>379</v>
@@ -11195,7 +11203,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="67" customFormat="1" ht="23.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:16" s="67" customFormat="1" ht="23.45" customHeight="1" thickBot="1">
       <c r="A38" s="87" t="s">
         <v>381</v>
       </c>
@@ -11285,7 +11293,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="67" customFormat="1" ht="100" customHeight="1" thickBot="1">
+    <row r="41" spans="1:16" s="67" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
       <c r="A41" s="87" t="s">
         <v>387</v>
       </c>
@@ -11323,7 +11331,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
+    <row r="42" spans="1:16" s="67" customFormat="1" ht="75.75" thickBot="1">
       <c r="A42" s="87" t="s">
         <v>391</v>
       </c>
@@ -11417,7 +11425,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
+    <row r="45" spans="1:16" s="67" customFormat="1" ht="75.75" thickBot="1">
       <c r="A45" s="87" t="s">
         <v>399</v>
       </c>
@@ -11441,19 +11449,19 @@
       <c r="K45" s="108"/>
       <c r="L45" s="131"/>
       <c r="M45" s="117" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N45" s="108" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O45" s="111" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P45" s="87" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="67" customFormat="1" ht="154.5" thickBot="1">
+    <row r="46" spans="1:16" s="67" customFormat="1" ht="157.5" thickBot="1">
       <c r="A46" s="87" t="s">
         <v>401</v>
       </c>
@@ -11478,18 +11486,18 @@
       <c r="J46" s="107"/>
       <c r="K46" s="107"/>
       <c r="L46" s="144" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M46" s="107"/>
       <c r="N46" s="108" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O46" s="107"/>
       <c r="P46" s="87" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="67" customFormat="1" ht="114.5" thickBot="1">
+    <row r="47" spans="1:16" s="67" customFormat="1" ht="114.75" thickBot="1">
       <c r="A47" s="87" t="s">
         <v>403</v>
       </c>
@@ -11512,7 +11520,7 @@
       <c r="J47" s="107"/>
       <c r="K47" s="107"/>
       <c r="L47" s="144" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M47" s="107"/>
       <c r="N47" s="107"/>
@@ -11521,7 +11529,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="48" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A48" s="87" t="s">
         <v>405</v>
       </c>
@@ -11542,7 +11550,7 @@
       <c r="J48" s="107"/>
       <c r="K48" s="107"/>
       <c r="L48" s="144" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M48" s="107"/>
       <c r="N48" s="107"/>
@@ -11551,7 +11559,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="67" customFormat="1" ht="86" thickBot="1">
+    <row r="49" spans="1:16" s="67" customFormat="1" ht="86.25" thickBot="1">
       <c r="A49" s="87" t="s">
         <v>407</v>
       </c>
@@ -11574,20 +11582,20 @@
       <c r="J49" s="107"/>
       <c r="K49" s="107"/>
       <c r="L49" s="144" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M49" s="107"/>
       <c r="N49" s="108" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O49" s="117" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="P49" s="87" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="67" customFormat="1" ht="126.5" thickBot="1">
+    <row r="50" spans="1:16" s="67" customFormat="1" ht="157.5" thickBot="1">
       <c r="A50" s="87" t="s">
         <v>409</v>
       </c>
@@ -11612,27 +11620,27 @@
       <c r="J50" s="107"/>
       <c r="K50" s="107"/>
       <c r="L50" s="144" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M50" s="117" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N50" s="107"/>
       <c r="O50" s="117" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P50" s="87" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="67" customFormat="1" ht="168.5" thickBot="1">
+    <row r="51" spans="1:16" s="67" customFormat="1" ht="171.75" thickBot="1">
       <c r="A51" s="87" t="s">
         <v>411</v>
       </c>
       <c r="B51" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="193" t="s">
+      <c r="C51" s="158" t="s">
         <v>412</v>
       </c>
       <c r="D51" s="129" t="s">
@@ -11650,22 +11658,22 @@
       <c r="J51" s="107"/>
       <c r="K51" s="107"/>
       <c r="L51" s="144" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M51" s="117" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N51" s="107" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O51" s="117" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P51" s="87" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
+    <row r="52" spans="1:16" s="67" customFormat="1" ht="86.25" thickBot="1">
       <c r="A52" s="87" t="s">
         <v>413</v>
       </c>
@@ -11690,20 +11698,20 @@
       <c r="J52" s="108"/>
       <c r="K52" s="108"/>
       <c r="L52" s="144" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M52" s="108"/>
       <c r="N52" s="108" t="s">
         <v>54</v>
       </c>
       <c r="O52" s="108" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P52" s="87" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="67" customFormat="1" ht="210.5" thickBot="1">
+    <row r="53" spans="1:16" s="67" customFormat="1" ht="214.5" thickBot="1">
       <c r="A53" s="87" t="s">
         <v>415</v>
       </c>
@@ -11726,20 +11734,20 @@
       <c r="J53" s="107"/>
       <c r="K53" s="107"/>
       <c r="L53" s="144" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M53" s="107"/>
       <c r="N53" s="107" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O53" s="117" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="P53" s="87" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
+    <row r="54" spans="1:16" s="67" customFormat="1" ht="57.75" thickBot="1">
       <c r="A54" s="87" t="s">
         <v>417</v>
       </c>
@@ -11762,20 +11770,20 @@
       <c r="J54" s="107"/>
       <c r="K54" s="107"/>
       <c r="L54" s="144" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M54" s="107"/>
       <c r="N54" s="107" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O54" s="117" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P54" s="87" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="55" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A55" s="87" t="s">
         <v>419</v>
       </c>
@@ -11803,7 +11811,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="56" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A56" s="87" t="s">
         <v>421</v>
       </c>
@@ -11831,7 +11839,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="57" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A57" s="87" t="s">
         <v>423</v>
       </c>
@@ -11854,18 +11862,18 @@
       <c r="J57" s="107"/>
       <c r="K57" s="107"/>
       <c r="L57" s="144" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M57" s="107"/>
       <c r="N57" s="107"/>
       <c r="O57" s="117" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P57" s="87" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="58" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A58" s="87" t="s">
         <v>425</v>
       </c>
@@ -11893,7 +11901,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="59" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A59" s="87" t="s">
         <v>426</v>
       </c>
@@ -11921,7 +11929,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="67" customFormat="1" ht="84.5" thickBot="1">
+    <row r="60" spans="1:16" s="67" customFormat="1" ht="90.75" thickBot="1">
       <c r="A60" s="87" t="s">
         <v>428</v>
       </c>
@@ -11946,12 +11954,12 @@
       <c r="J60" s="107"/>
       <c r="K60" s="107"/>
       <c r="L60" s="144" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M60" s="107"/>
       <c r="N60" s="107"/>
       <c r="O60" s="117" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P60" s="87" t="s">
         <v>428</v>
@@ -11978,7 +11986,7 @@
       <c r="J61" s="107"/>
       <c r="K61" s="107"/>
       <c r="L61" s="144" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M61" s="107"/>
       <c r="N61" s="107"/>
@@ -11987,7 +11995,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="67" customFormat="1" ht="56.5" thickBot="1">
+    <row r="62" spans="1:16" s="67" customFormat="1" ht="57.75" thickBot="1">
       <c r="A62" s="87" t="s">
         <v>433</v>
       </c>
@@ -12012,20 +12020,20 @@
       <c r="J62" s="107"/>
       <c r="K62" s="107"/>
       <c r="L62" s="144" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M62" s="107"/>
       <c r="N62" s="107" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O62" s="117" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P62" s="87" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="63" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A63" s="87" t="s">
         <v>436</v>
       </c>
@@ -12048,7 +12056,7 @@
       <c r="J63" s="107"/>
       <c r="K63" s="107"/>
       <c r="L63" s="144" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M63" s="107"/>
       <c r="N63" s="107"/>
@@ -12057,7 +12065,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="67" customFormat="1" ht="43" customHeight="1" thickBot="1">
+    <row r="64" spans="1:16" s="67" customFormat="1" ht="42.95" customHeight="1" thickBot="1">
       <c r="A64" s="87" t="s">
         <v>438</v>
       </c>
@@ -12080,7 +12088,7 @@
       <c r="J64" s="108"/>
       <c r="K64" s="108"/>
       <c r="L64" s="144" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M64" s="108"/>
       <c r="N64" s="108"/>
@@ -12089,7 +12097,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="67" customFormat="1" ht="98.5" thickBot="1">
+    <row r="65" spans="1:16" s="67" customFormat="1" ht="105.75" thickBot="1">
       <c r="A65" s="87" t="s">
         <v>440</v>
       </c>
@@ -12114,18 +12122,18 @@
       <c r="J65" s="107"/>
       <c r="K65" s="107"/>
       <c r="L65" s="144" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M65" s="107"/>
       <c r="N65" s="107"/>
       <c r="O65" s="117" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P65" s="87" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="67" customFormat="1" ht="29.5" customHeight="1" thickBot="1">
+    <row r="66" spans="1:16" s="67" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
       <c r="A66" s="87" t="s">
         <v>442</v>
       </c>
@@ -12153,7 +12161,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
+    <row r="67" spans="1:16" s="67" customFormat="1" ht="45.75" thickBot="1">
       <c r="A67" s="87" t="s">
         <v>444</v>
       </c>
@@ -12178,18 +12186,18 @@
       <c r="J67" s="107"/>
       <c r="K67" s="107"/>
       <c r="L67" s="144" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M67" s="107"/>
       <c r="N67" s="107"/>
       <c r="O67" s="117" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P67" s="87" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
+    <row r="68" spans="1:16" s="67" customFormat="1" ht="75.75" thickBot="1">
       <c r="A68" s="87" t="s">
         <v>446</v>
       </c>
@@ -12212,20 +12220,20 @@
       <c r="J68" s="107"/>
       <c r="K68" s="107"/>
       <c r="L68" s="144" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M68" s="107" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="N68" s="107"/>
       <c r="O68" s="117" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P68" s="87" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="67" customFormat="1" ht="84.5" thickBot="1">
+    <row r="69" spans="1:16" s="67" customFormat="1" ht="90.75" thickBot="1">
       <c r="A69" s="87" t="s">
         <v>448</v>
       </c>
@@ -12248,20 +12256,20 @@
       <c r="J69" s="107"/>
       <c r="K69" s="107"/>
       <c r="L69" s="153" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M69" s="107" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N69" s="107"/>
       <c r="O69" s="117" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P69" s="87" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="67" customFormat="1" ht="70.5" thickBot="1">
+    <row r="70" spans="1:16" s="67" customFormat="1" ht="72" thickBot="1">
       <c r="A70" s="87" t="s">
         <v>450</v>
       </c>
@@ -12284,30 +12292,30 @@
       <c r="J70" s="107"/>
       <c r="K70" s="107"/>
       <c r="L70" s="144" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M70" s="117" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N70" s="107" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O70" s="117" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P70" s="87" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A71" s="189" t="s">
+      <c r="A71" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="B71" s="189"/>
-      <c r="C71" s="189"/>
-      <c r="D71" s="189"/>
-      <c r="E71" s="189"/>
-      <c r="F71" s="189"/>
+      <c r="B71" s="188"/>
+      <c r="C71" s="188"/>
+      <c r="D71" s="188"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="188"/>
       <c r="G71" s="122"/>
       <c r="H71" s="123"/>
       <c r="I71" s="123"/>
@@ -12319,7 +12327,7 @@
       <c r="O71" s="125"/>
       <c r="P71" s="124"/>
     </row>
-    <row r="72" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
+    <row r="72" spans="1:16" s="67" customFormat="1" ht="45.75" thickBot="1">
       <c r="A72" s="87" t="s">
         <v>453</v>
       </c>
@@ -12342,20 +12350,20 @@
       <c r="J72" s="107"/>
       <c r="K72" s="107"/>
       <c r="L72" s="117" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M72" s="107"/>
       <c r="N72" s="107" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O72" s="117" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="P72" s="87" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="73" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A73" s="87" t="s">
         <v>455</v>
       </c>
@@ -12378,18 +12386,18 @@
       <c r="J73" s="107"/>
       <c r="K73" s="107"/>
       <c r="L73" s="154" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M73" s="107"/>
       <c r="N73" s="107" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O73" s="107"/>
       <c r="P73" s="87" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="74" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A74" s="87" t="s">
         <v>457</v>
       </c>
@@ -12410,18 +12418,18 @@
       <c r="J74" s="107"/>
       <c r="K74" s="107"/>
       <c r="L74" s="154" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M74" s="107"/>
       <c r="N74" s="107" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O74" s="107"/>
       <c r="P74" s="87" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="75" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A75" s="87" t="s">
         <v>459</v>
       </c>
@@ -12449,7 +12457,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
+    <row r="76" spans="1:16" s="67" customFormat="1" ht="43.5" thickBot="1">
       <c r="A76" s="87" t="s">
         <v>461</v>
       </c>
@@ -12472,20 +12480,20 @@
       <c r="J76" s="107"/>
       <c r="K76" s="107"/>
       <c r="L76" s="144" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M76" s="107"/>
       <c r="N76" s="107" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O76" s="107" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P76" s="87" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
+    <row r="77" spans="1:16" s="67" customFormat="1" ht="43.5" thickBot="1">
       <c r="A77" s="87" t="s">
         <v>463</v>
       </c>
@@ -12508,7 +12516,7 @@
       <c r="J77" s="107"/>
       <c r="K77" s="107"/>
       <c r="L77" s="144" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M77" s="107"/>
       <c r="N77" s="107"/>
@@ -12540,7 +12548,7 @@
       <c r="J78" s="107"/>
       <c r="K78" s="107"/>
       <c r="L78" s="144" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M78" s="107"/>
       <c r="N78" s="107"/>
@@ -12549,7 +12557,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="79" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A79" s="87" t="s">
         <v>467</v>
       </c>
@@ -12572,13 +12580,13 @@
       <c r="M79" s="107"/>
       <c r="N79" s="107"/>
       <c r="O79" s="117" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="P79" s="87" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="67" customFormat="1" ht="84.5" thickBot="1">
+    <row r="80" spans="1:16" s="67" customFormat="1" ht="86.25" thickBot="1">
       <c r="A80" s="87" t="s">
         <v>469</v>
       </c>
@@ -12601,7 +12609,7 @@
       <c r="J80" s="107"/>
       <c r="K80" s="107"/>
       <c r="L80" s="144" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M80" s="107"/>
       <c r="N80" s="107"/>
@@ -12610,7 +12618,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
+    <row r="81" spans="1:16" s="67" customFormat="1" ht="43.5" thickBot="1">
       <c r="A81" s="87" t="s">
         <v>471</v>
       </c>
@@ -12633,7 +12641,7 @@
       <c r="J81" s="107"/>
       <c r="K81" s="107"/>
       <c r="L81" s="144" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M81" s="107"/>
       <c r="N81" s="107"/>
@@ -12642,7 +12650,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="82" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A82" s="87" t="s">
         <v>473</v>
       </c>
@@ -12665,26 +12673,26 @@
       <c r="J82" s="107"/>
       <c r="K82" s="107"/>
       <c r="L82" s="144" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M82" s="117"/>
       <c r="N82" s="107"/>
       <c r="O82" s="117" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="P82" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="189" t="s">
+      <c r="A83" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="189"/>
-      <c r="C83" s="189"/>
-      <c r="D83" s="189"/>
-      <c r="E83" s="189"/>
-      <c r="F83" s="189"/>
+      <c r="B83" s="188"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
       <c r="G83" s="122"/>
       <c r="H83" s="123"/>
       <c r="I83" s="123"/>
@@ -12696,7 +12704,7 @@
       <c r="O83" s="125"/>
       <c r="P83" s="124"/>
     </row>
-    <row r="84" spans="1:16" s="67" customFormat="1" ht="42.5" thickBot="1">
+    <row r="84" spans="1:16" s="67" customFormat="1" ht="75.75" thickBot="1">
       <c r="A84" s="112" t="s">
         <v>475</v>
       </c>
@@ -12711,20 +12719,30 @@
       </c>
       <c r="E84" s="118"/>
       <c r="F84" s="119"/>
-      <c r="G84" s="107"/>
-      <c r="H84" s="107"/>
+      <c r="G84" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="H84" s="148" t="s">
+        <v>267</v>
+      </c>
       <c r="I84" s="107"/>
       <c r="J84" s="107"/>
       <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="107"/>
-      <c r="N84" s="107"/>
+      <c r="L84" s="117" t="s">
+        <v>593</v>
+      </c>
+      <c r="M84" s="107" t="s">
+        <v>591</v>
+      </c>
+      <c r="N84" s="107" t="s">
+        <v>546</v>
+      </c>
       <c r="O84" s="107"/>
       <c r="P84" s="89" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="85" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A85" s="87" t="s">
         <v>477</v>
       </c>
@@ -12739,12 +12757,16 @@
       </c>
       <c r="E85" s="118"/>
       <c r="F85" s="119"/>
-      <c r="G85" s="107"/>
+      <c r="G85" s="148" t="s">
+        <v>267</v>
+      </c>
       <c r="H85" s="107"/>
       <c r="I85" s="107"/>
       <c r="J85" s="107"/>
       <c r="K85" s="107"/>
-      <c r="L85" s="131"/>
+      <c r="L85" s="194" t="s">
+        <v>592</v>
+      </c>
       <c r="M85" s="107"/>
       <c r="N85" s="107"/>
       <c r="O85" s="107"/>
@@ -12752,7 +12774,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="86" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A86" s="87" t="s">
         <v>479</v>
       </c>
@@ -12767,7 +12789,9 @@
       </c>
       <c r="E86" s="118"/>
       <c r="F86" s="119"/>
-      <c r="G86" s="107"/>
+      <c r="G86" s="148" t="s">
+        <v>267</v>
+      </c>
       <c r="H86" s="107"/>
       <c r="I86" s="107"/>
       <c r="J86" s="107"/>
@@ -12780,7 +12804,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="87" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A87" s="87" t="s">
         <v>481</v>
       </c>
@@ -12795,12 +12819,16 @@
       </c>
       <c r="E87" s="118"/>
       <c r="F87" s="119"/>
-      <c r="G87" s="107"/>
+      <c r="G87" s="148" t="s">
+        <v>267</v>
+      </c>
       <c r="H87" s="107"/>
       <c r="I87" s="107"/>
       <c r="J87" s="107"/>
       <c r="K87" s="107"/>
-      <c r="L87" s="131"/>
+      <c r="L87" s="194" t="s">
+        <v>592</v>
+      </c>
       <c r="M87" s="107"/>
       <c r="N87" s="107"/>
       <c r="O87" s="107"/>
@@ -12808,7 +12836,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="88" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A88" s="87" t="s">
         <v>483</v>
       </c>
@@ -12837,14 +12865,14 @@
       </c>
     </row>
     <row r="89" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="189" t="s">
+      <c r="A89" s="188" t="s">
         <v>485</v>
       </c>
-      <c r="B89" s="189"/>
-      <c r="C89" s="189"/>
-      <c r="D89" s="189"/>
-      <c r="E89" s="189"/>
-      <c r="F89" s="189"/>
+      <c r="B89" s="188"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="188"/>
+      <c r="E89" s="188"/>
+      <c r="F89" s="188"/>
       <c r="G89" s="122"/>
       <c r="H89" s="123"/>
       <c r="I89" s="123"/>
@@ -12856,7 +12884,7 @@
       <c r="O89" s="125"/>
       <c r="P89" s="124"/>
     </row>
-    <row r="90" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="90" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A90" s="112" t="s">
         <v>486</v>
       </c>
@@ -12871,7 +12899,9 @@
       </c>
       <c r="E90" s="118"/>
       <c r="F90" s="119"/>
-      <c r="G90" s="107"/>
+      <c r="G90" s="148" t="s">
+        <v>267</v>
+      </c>
       <c r="H90" s="107"/>
       <c r="I90" s="107"/>
       <c r="J90" s="107"/>
@@ -12884,7 +12914,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="91" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A91" s="112" t="s">
         <v>488</v>
       </c>
@@ -12899,7 +12929,9 @@
       </c>
       <c r="E91" s="118"/>
       <c r="F91" s="119"/>
-      <c r="G91" s="107"/>
+      <c r="G91" s="148" t="s">
+        <v>267</v>
+      </c>
       <c r="H91" s="107"/>
       <c r="I91" s="107"/>
       <c r="J91" s="107"/>
@@ -12912,7 +12944,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="92" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A92" s="112" t="s">
         <v>490</v>
       </c>
@@ -12940,7 +12972,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="93" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A93" s="112" t="s">
         <v>492</v>
       </c>
@@ -12950,17 +12982,19 @@
       <c r="C93" s="89" t="s">
         <v>493</v>
       </c>
-      <c r="D93" s="129"/>
+      <c r="D93" s="129" t="s">
+        <v>266</v>
+      </c>
       <c r="E93" s="118"/>
       <c r="F93" s="119"/>
-      <c r="G93" s="107"/>
+      <c r="G93" s="148" t="s">
+        <v>267</v>
+      </c>
       <c r="H93" s="107"/>
       <c r="I93" s="107"/>
       <c r="J93" s="107"/>
       <c r="K93" s="107"/>
-      <c r="L93" s="109" t="s">
-        <v>494</v>
-      </c>
+      <c r="L93" s="109"/>
       <c r="M93" s="107"/>
       <c r="N93" s="107"/>
       <c r="O93" s="107"/>
@@ -12968,43 +13002,43 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="94" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A94" s="87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B94" s="115" t="s">
         <v>272</v>
       </c>
       <c r="C94" s="89" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D94" s="129"/>
       <c r="E94" s="118"/>
       <c r="F94" s="119"/>
-      <c r="G94" s="108"/>
+      <c r="G94" s="108" t="s">
+        <v>349</v>
+      </c>
       <c r="H94" s="107"/>
       <c r="I94" s="107"/>
       <c r="J94" s="107"/>
       <c r="K94" s="107"/>
-      <c r="L94" s="109" t="s">
-        <v>497</v>
-      </c>
+      <c r="L94" s="109"/>
       <c r="M94" s="107"/>
       <c r="N94" s="107"/>
       <c r="O94" s="107"/>
       <c r="P94" s="87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A95" s="189" t="s">
-        <v>498</v>
-      </c>
-      <c r="B95" s="189"/>
-      <c r="C95" s="189"/>
-      <c r="D95" s="189"/>
-      <c r="E95" s="189"/>
-      <c r="F95" s="189"/>
+      <c r="A95" s="188" t="s">
+        <v>496</v>
+      </c>
+      <c r="B95" s="188"/>
+      <c r="C95" s="188"/>
+      <c r="D95" s="188"/>
+      <c r="E95" s="188"/>
+      <c r="F95" s="188"/>
       <c r="G95" s="122"/>
       <c r="H95" s="123"/>
       <c r="I95" s="123"/>
@@ -13016,15 +13050,15 @@
       <c r="O95" s="125"/>
       <c r="P95" s="124"/>
     </row>
-    <row r="96" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="96" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A96" s="112" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B96" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C96" s="89" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D96" s="118" t="s">
         <v>266</v>
@@ -13041,18 +13075,18 @@
       <c r="N96" s="107"/>
       <c r="O96" s="107"/>
       <c r="P96" s="112" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A97" s="87" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A97" s="87" t="s">
-        <v>501</v>
       </c>
       <c r="B97" s="115" t="s">
         <v>279</v>
       </c>
       <c r="C97" s="89" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D97" s="118" t="s">
         <v>266</v>
@@ -13069,18 +13103,18 @@
       <c r="N97" s="107"/>
       <c r="O97" s="107"/>
       <c r="P97" s="87" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A98" s="188" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A98" s="189" t="s">
-        <v>503</v>
-      </c>
-      <c r="B98" s="189"/>
-      <c r="C98" s="189"/>
-      <c r="D98" s="189"/>
-      <c r="E98" s="189"/>
-      <c r="F98" s="189"/>
+      <c r="B98" s="188"/>
+      <c r="C98" s="188"/>
+      <c r="D98" s="188"/>
+      <c r="E98" s="188"/>
+      <c r="F98" s="188"/>
       <c r="G98" s="122"/>
       <c r="H98" s="123"/>
       <c r="I98" s="123"/>
@@ -13092,15 +13126,15 @@
       <c r="O98" s="125"/>
       <c r="P98" s="124"/>
     </row>
-    <row r="99" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="99" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A99" s="87" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B99" s="115" t="s">
         <v>272</v>
       </c>
       <c r="C99" s="133" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D99" s="118" t="s">
         <v>266</v>
@@ -13117,18 +13151,18 @@
       <c r="N99" s="107"/>
       <c r="O99" s="107"/>
       <c r="P99" s="87" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A100" s="188" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A100" s="189" t="s">
-        <v>506</v>
-      </c>
-      <c r="B100" s="189"/>
-      <c r="C100" s="189"/>
-      <c r="D100" s="189"/>
-      <c r="E100" s="189"/>
-      <c r="F100" s="189"/>
+      <c r="B100" s="188"/>
+      <c r="C100" s="188"/>
+      <c r="D100" s="188"/>
+      <c r="E100" s="188"/>
+      <c r="F100" s="188"/>
       <c r="G100" s="122"/>
       <c r="H100" s="123"/>
       <c r="I100" s="123"/>
@@ -13140,15 +13174,15 @@
       <c r="O100" s="125"/>
       <c r="P100" s="124"/>
     </row>
-    <row r="101" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="101" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A101" s="112" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B101" s="88" t="s">
         <v>279</v>
       </c>
       <c r="C101" s="89" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D101" s="132" t="s">
         <v>266</v>
@@ -13165,18 +13199,18 @@
       <c r="N101" s="107"/>
       <c r="O101" s="107"/>
       <c r="P101" s="112" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A102" s="112" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
-      <c r="A102" s="112" t="s">
+      <c r="B102" s="88" t="s">
+        <v>508</v>
+      </c>
+      <c r="C102" s="89" t="s">
         <v>509</v>
-      </c>
-      <c r="B102" s="88" t="s">
-        <v>510</v>
-      </c>
-      <c r="C102" s="89" t="s">
-        <v>511</v>
       </c>
       <c r="D102" s="129"/>
       <c r="E102" s="118"/>
@@ -13191,18 +13225,18 @@
       <c r="N102" s="108"/>
       <c r="O102" s="108"/>
       <c r="P102" s="112" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A103" s="112" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B103" s="88" t="s">
         <v>352</v>
       </c>
       <c r="C103" s="89" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D103" s="129" t="s">
         <v>266</v>
@@ -13219,18 +13253,18 @@
       <c r="N103" s="107"/>
       <c r="O103" s="107"/>
       <c r="P103" s="112" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A104" s="191" t="s">
+      <c r="A104" s="189" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="191"/>
-      <c r="C104" s="191"/>
-      <c r="D104" s="191"/>
-      <c r="E104" s="191"/>
-      <c r="F104" s="191"/>
+      <c r="B104" s="189"/>
+      <c r="C104" s="189"/>
+      <c r="D104" s="189"/>
+      <c r="E104" s="189"/>
+      <c r="F104" s="189"/>
       <c r="G104" s="122"/>
       <c r="H104" s="123"/>
       <c r="I104" s="123"/>
@@ -13242,15 +13276,15 @@
       <c r="O104" s="125"/>
       <c r="P104" s="124"/>
     </row>
-    <row r="105" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="105" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="112" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B105" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C105" s="89" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D105" s="129"/>
       <c r="E105" s="118" t="s">
@@ -13267,18 +13301,18 @@
       <c r="N105" s="107"/>
       <c r="O105" s="107"/>
       <c r="P105" s="112" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A106" s="112" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A106" s="112" t="s">
-        <v>516</v>
       </c>
       <c r="B106" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C106" s="89" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D106" s="129"/>
       <c r="E106" s="118" t="s">
@@ -13295,12 +13329,12 @@
       <c r="N106" s="107"/>
       <c r="O106" s="107"/>
       <c r="P106" s="112" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A107" s="112" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
-      <c r="A107" s="112" t="s">
-        <v>518</v>
       </c>
       <c r="B107" s="88" t="s">
         <v>352</v>
@@ -13323,18 +13357,18 @@
       <c r="N107" s="107"/>
       <c r="O107" s="107"/>
       <c r="P107" s="112" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="89" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B108" s="88" t="s">
         <v>272</v>
       </c>
       <c r="C108" s="135" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D108" s="136"/>
       <c r="E108" s="88" t="s">
@@ -13351,18 +13385,18 @@
       <c r="N108" s="107"/>
       <c r="O108" s="107"/>
       <c r="P108" s="89" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A109" s="189" t="s">
+      <c r="A109" s="188" t="s">
         <v>243</v>
       </c>
-      <c r="B109" s="189"/>
-      <c r="C109" s="189"/>
-      <c r="D109" s="189"/>
-      <c r="E109" s="189"/>
-      <c r="F109" s="189"/>
+      <c r="B109" s="188"/>
+      <c r="C109" s="188"/>
+      <c r="D109" s="188"/>
+      <c r="E109" s="188"/>
+      <c r="F109" s="188"/>
       <c r="G109" s="122"/>
       <c r="H109" s="123"/>
       <c r="I109" s="123"/>
@@ -13374,15 +13408,15 @@
       <c r="O109" s="125"/>
       <c r="P109" s="124"/>
     </row>
-    <row r="110" spans="1:16" s="67" customFormat="1" ht="28.5" thickBot="1">
+    <row r="110" spans="1:16" s="67" customFormat="1" ht="30.75" thickBot="1">
       <c r="A110" s="137" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B110" s="138" t="s">
         <v>279</v>
       </c>
       <c r="C110" s="139" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D110" s="129"/>
       <c r="E110" s="118" t="s">
@@ -13399,18 +13433,18 @@
       <c r="N110" s="140"/>
       <c r="O110" s="140"/>
       <c r="P110" s="137" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A111" s="141" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
-      <c r="A111" s="141" t="s">
-        <v>523</v>
       </c>
       <c r="B111" s="138" t="s">
         <v>352</v>
       </c>
       <c r="C111" s="139" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D111" s="129" t="s">
         <v>266</v>
@@ -13427,16 +13461,16 @@
       <c r="N111" s="140"/>
       <c r="O111" s="140"/>
       <c r="P111" s="141" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A112" s="141" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
-      <c r="A112" s="141" t="s">
-        <v>525</v>
       </c>
       <c r="B112" s="138"/>
       <c r="C112" s="139" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D112" s="129"/>
       <c r="E112" s="118" t="s">
@@ -13453,18 +13487,18 @@
       <c r="N112" s="140"/>
       <c r="O112" s="140"/>
       <c r="P112" s="141" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A113" s="141" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
-      <c r="A113" s="141" t="s">
-        <v>527</v>
       </c>
       <c r="B113" s="138" t="s">
         <v>272</v>
       </c>
       <c r="C113" s="139" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D113" s="129"/>
       <c r="E113" s="118" t="s">
@@ -13481,18 +13515,18 @@
       <c r="N113" s="140"/>
       <c r="O113" s="140"/>
       <c r="P113" s="141" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="67" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A114" s="189" t="s">
+      <c r="A114" s="188" t="s">
         <v>244</v>
       </c>
-      <c r="B114" s="189"/>
-      <c r="C114" s="189"/>
-      <c r="D114" s="189"/>
-      <c r="E114" s="189"/>
-      <c r="F114" s="189"/>
+      <c r="B114" s="188"/>
+      <c r="C114" s="188"/>
+      <c r="D114" s="188"/>
+      <c r="E114" s="188"/>
+      <c r="F114" s="188"/>
       <c r="G114" s="122"/>
       <c r="H114" s="123"/>
       <c r="I114" s="123"/>
@@ -13504,15 +13538,15 @@
       <c r="O114" s="125"/>
       <c r="P114" s="124"/>
     </row>
-    <row r="115" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
+    <row r="115" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
       <c r="A115" s="137" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B115" s="138" t="s">
         <v>279</v>
       </c>
       <c r="C115" s="139" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D115" s="129"/>
       <c r="E115" s="118" t="s">
@@ -13529,18 +13563,18 @@
       <c r="N115" s="140"/>
       <c r="O115" s="140"/>
       <c r="P115" s="137" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A116" s="137" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
-      <c r="A116" s="137" t="s">
-        <v>531</v>
       </c>
       <c r="B116" s="142" t="s">
         <v>279</v>
       </c>
       <c r="C116" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D116" s="129"/>
       <c r="E116" s="118" t="s">
@@ -13557,18 +13591,18 @@
       <c r="N116" s="140"/>
       <c r="O116" s="140"/>
       <c r="P116" s="137" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="67" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A117" s="143" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" s="67" customFormat="1" ht="15" thickBot="1">
-      <c r="A117" s="143" t="s">
-        <v>533</v>
       </c>
       <c r="B117" s="138" t="s">
         <v>352</v>
       </c>
       <c r="C117" s="139" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D117" s="136"/>
       <c r="E117" s="88" t="s">
@@ -13585,34 +13619,36 @@
       <c r="N117" s="140"/>
       <c r="O117" s="140"/>
       <c r="P117" s="143" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B474" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="Q6:T17"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A95:F95"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A100:F100"/>
     <mergeCell ref="A104:F104"/>
     <mergeCell ref="A109:F109"/>
     <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="Q6:T17"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="L23" r:id="rId2" display="no WLAN is configured in factory settings_x000a_TP.A.19.2: Because the user has complete control over everything the DUT does, the DUT could be configured to not seperate clients in the self defined guest WLAN and the other interfaces. Devices are properly separated if the instructions https://openwrt.org/docs/guide-user/network/wifi/guestwifi/guest-wlan are followed" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="L42" r:id="rId3" display="https://openwrt.org/docs/guide-user/services/webserver/uhttpd" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="L85" r:id="rId4" xr:uid="{6BFFEB1F-E727-4369-B0B8-5CC2A8CE848C}"/>
+    <hyperlink ref="L87" r:id="rId5" xr:uid="{2330E7B3-95D6-4E5B-B65E-F85857F89211}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="8" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="8" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>